--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masdi\Documents\Github Publish\Hugo\21snm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B79B8E8-4068-4BD9-BCAD-DD559A5091C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FC5D6C-B9FC-4173-BFF7-B60362E9AAED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,12 +417,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,16 +744,16 @@
   <dimension ref="A1:C955"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.81640625" style="1"/>
     <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="8.81640625" style="1"/>
-    <col min="6" max="6" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="1"/>
+    <col min="3" max="4" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -768,7 +769,7 @@
         <f t="shared" ref="A2:A65" si="0">+A1+1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>4210717435</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -805,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4210222026</v>
+        <v>4210843009</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -817,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4210535673</v>
+        <v>4210213587</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -829,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>4210059000</v>
+        <v>4210754698</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -841,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4210043894</v>
+        <v>4210222026</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -853,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4210122182</v>
+        <v>4210535673</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -865,7 +866,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4210047154</v>
+        <v>4210500818</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -877,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>4210050876</v>
+        <v>4210059000</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -889,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>4210487716</v>
+        <v>4210043894</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -901,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4210114589</v>
+        <v>4210122182</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -913,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>4210178645</v>
+        <v>4210769887</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -925,7 +926,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>4210062240</v>
+        <v>4210047154</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -937,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>4210143635</v>
+        <v>4210079772</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -949,7 +950,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>4210960649</v>
+        <v>4210321845</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -960,7 +961,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1">
+        <v>4210050876</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
@@ -970,7 +973,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>4210691687</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
@@ -980,7 +985,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>4210487716</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
@@ -990,7 +997,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>4210359992</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1000,7 +1009,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>4210114589</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1021,9 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>4210270390</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1020,7 +1033,9 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>4210178645</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +1045,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>4210062240</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1057,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <v>4210143635</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1050,7 +1069,9 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <v>4210960649</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1081,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1">
+        <v>4210534852</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1093,9 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1">
+        <v>4210001844</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1105,9 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1">
+        <v>4210544812</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FC5D6C-B9FC-4173-BFF7-B60362E9AAED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452D519A-2F3C-43D0-9746-B75150AA65E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,8 +743,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4210141892</v>
+        <v>4210216114</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -806,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4210843009</v>
+        <v>4210141892</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4210213587</v>
+        <v>4210843009</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -830,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>4210754698</v>
+        <v>4210213587</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -842,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4210222026</v>
+        <v>4210853920</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -854,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4210535673</v>
+        <v>4210754698</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -866,7 +866,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4210500818</v>
+        <v>4210222026</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -878,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>4210059000</v>
+        <v>4210260173</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -890,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>4210043894</v>
+        <v>4210535673</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -902,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4210122182</v>
+        <v>4210500818</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>4210769887</v>
+        <v>4210133586</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -926,7 +926,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>4210047154</v>
+        <v>4210208750</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>4210079772</v>
+        <v>4210648248</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -950,7 +950,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>4210321845</v>
+        <v>4210356297</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -962,7 +962,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>4210050876</v>
+        <v>4210059000</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -974,7 +974,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>4210691687</v>
+        <v>4210201732</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -986,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>4210487716</v>
+        <v>4210043894</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -998,7 +998,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>4210359992</v>
+        <v>4210122182</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -1010,7 +1010,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>4210114589</v>
+        <v>4210769887</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -1022,7 +1022,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>4210270390</v>
+        <v>4210117447</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>4210178645</v>
+        <v>4210047154</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>4210062240</v>
+        <v>4210079772</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -1058,7 +1058,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>4210143635</v>
+        <v>4210321845</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>4210960649</v>
+        <v>4210050876</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>4210534852</v>
+        <v>4210691687</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -1094,7 +1094,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>4210001844</v>
+        <v>4210487716</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -1106,7 +1106,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>4210544812</v>
+        <v>4210697405</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -1117,7 +1117,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>4210359992</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1129,9 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1">
+        <v>4210114589</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
@@ -1137,7 +1141,9 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1">
+        <v>4210270390</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
@@ -1147,7 +1153,9 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1">
+        <v>4210178645</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
@@ -1157,7 +1165,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1">
+        <v>4210062240</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1167,7 +1177,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1">
+        <v>4210143635</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
@@ -1177,7 +1189,9 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1">
+        <v>4210312209</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
@@ -1187,7 +1201,9 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1">
+        <v>4210960649</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1197,7 +1213,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1">
+        <v>4210461149</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
@@ -1207,7 +1225,9 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1">
+        <v>4210534852</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1217,7 +1237,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1">
+        <v>4210001844</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
@@ -1227,7 +1249,9 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1">
+        <v>4210544812</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
       </c>
@@ -1237,7 +1261,9 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1">
+        <v>4210276653</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD106F8-4925-40EB-89CB-A5233952B745}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56E468-17CB-4AF4-8EE8-56A7C113A885}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8081,8 +8081,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N131" sqref="N131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8108,7 +8108,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>4210717435</v>
+        <v>4210573844</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -8120,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4210198826</v>
+        <v>4210717435</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -8132,7 +8132,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4210381581</v>
+        <v>4210198826</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -8144,7 +8144,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4210216114</v>
+        <v>4210381581</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -8156,7 +8156,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4211020605</v>
+        <v>4210216114</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -8168,7 +8168,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>4210132639</v>
+        <v>4211020605</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -8180,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4210406120</v>
+        <v>4210556661</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -8192,7 +8192,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4210141892</v>
+        <v>4210127746</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -8204,7 +8204,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4210394400</v>
+        <v>4210132639</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -8216,7 +8216,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>4210004223</v>
+        <v>4210322467</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -8228,7 +8228,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>4210843009</v>
+        <v>4210404572</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -8240,7 +8240,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4210213587</v>
+        <v>4210771684</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -8252,7 +8252,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>4210853920</v>
+        <v>4210766426</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>4210754698</v>
+        <v>4210371603</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -8276,7 +8276,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>4210542091</v>
+        <v>4210406120</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -8288,7 +8288,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>4210222026</v>
+        <v>4210141892</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -8300,7 +8300,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>4210260173</v>
+        <v>4210394400</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -8312,7 +8312,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>4210639267</v>
+        <v>4210003837</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -8324,7 +8324,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>4210535673</v>
+        <v>4210004223</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -8336,7 +8336,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>4210500818</v>
+        <v>4210234367</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -8348,7 +8348,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>4210062548</v>
+        <v>4210558291</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -8360,7 +8360,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>4210133586</v>
+        <v>4210635825</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -8372,7 +8372,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>4210320285</v>
+        <v>4210843009</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -8384,7 +8384,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>4210420096</v>
+        <v>4210213587</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -8396,7 +8396,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>4210690272</v>
+        <v>4210853920</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -8408,7 +8408,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>4210955715</v>
+        <v>4210447996</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -8420,7 +8420,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>4210208750</v>
+        <v>4210754698</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -8432,7 +8432,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>4210433177</v>
+        <v>4210542091</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -8444,7 +8444,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>4210648248</v>
+        <v>4210222026</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -8456,7 +8456,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>4210356297</v>
+        <v>4210260173</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -8468,7 +8468,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4210921232</v>
+        <v>4210033127</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -8480,7 +8480,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4211189006</v>
+        <v>4210639267</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -8492,7 +8492,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4210059000</v>
+        <v>4210535673</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -8504,7 +8504,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>4210222465</v>
+        <v>4210500818</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -8516,7 +8516,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>4210201732</v>
+        <v>4210062548</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -8528,7 +8528,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4210043894</v>
+        <v>4210133586</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -8540,7 +8540,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4210122182</v>
+        <v>4210248451</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -8552,7 +8552,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4210769887</v>
+        <v>4210272828</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -8564,7 +8564,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4210897066</v>
+        <v>4210320285</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -8576,7 +8576,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>4210117447</v>
+        <v>4210403019</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -8588,7 +8588,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>4210462732</v>
+        <v>4210420096</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -8600,7 +8600,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>4210047154</v>
+        <v>4210632710</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -8612,7 +8612,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>4210079772</v>
+        <v>4210690272</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -8624,7 +8624,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>4210166153</v>
+        <v>4210920767</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -8636,7 +8636,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>4210321845</v>
+        <v>4210955715</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -8648,7 +8648,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>4210420336</v>
+        <v>4210208750</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -8660,7 +8660,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>4210671598</v>
+        <v>4210586900</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -8672,7 +8672,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>4210396117</v>
+        <v>4210433177</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -8684,7 +8684,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>4210050876</v>
+        <v>4210911313</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -8696,7 +8696,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>4210178048</v>
+        <v>4210855921</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -8708,7 +8708,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>4210282624</v>
+        <v>4210009062</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -8720,7 +8720,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4210005081</v>
+        <v>4210648248</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -8732,7 +8732,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4210500697</v>
+        <v>4210356297</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -8744,7 +8744,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>4210646368</v>
+        <v>4210921232</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -8756,7 +8756,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>4210596404</v>
+        <v>4211189006</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -8768,7 +8768,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>4210533998</v>
+        <v>4210621591</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -8780,7 +8780,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>4210162326</v>
+        <v>4210059000</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -8792,7 +8792,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>4210691687</v>
+        <v>4210073431</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -8804,7 +8804,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>4210487716</v>
+        <v>4210222465</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>4210525608</v>
+        <v>4210201732</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -8828,7 +8828,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>4210697405</v>
+        <v>4210267013</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -8840,7 +8840,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>4210871317</v>
+        <v>4210199520</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -8852,7 +8852,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>4210359992</v>
+        <v>4210354861</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -8864,7 +8864,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>4210114589</v>
+        <v>4210354387</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -8876,7 +8876,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>4210270390</v>
+        <v>4210043894</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -8888,7 +8888,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>4210548527</v>
+        <v>4210122182</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -8900,7 +8900,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>4210178645</v>
+        <v>4210142349</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -8912,7 +8912,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>4210214619</v>
+        <v>4210769887</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -8924,7 +8924,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>4210420791</v>
+        <v>4210897066</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -8936,7 +8936,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>4210062240</v>
+        <v>4210117447</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -8948,7 +8948,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>4210143635</v>
+        <v>4210462732</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -8960,7 +8960,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>4210312209</v>
+        <v>4210047154</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -8972,7 +8972,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>4210960649</v>
+        <v>4210155613</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -8984,7 +8984,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>4210461149</v>
+        <v>4210167563</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -8996,7 +8996,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>4210534852</v>
+        <v>4210079772</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -9008,7 +9008,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>4210001844</v>
+        <v>4210166153</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -9020,7 +9020,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>4210544812</v>
+        <v>4210230359</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -9032,7 +9032,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>4210276653</v>
+        <v>4210321845</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -9044,7 +9044,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>4210727818</v>
+        <v>4210420336</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -9055,7 +9055,9 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="1"/>
+      <c r="B81" s="1">
+        <v>4210671598</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
       </c>
@@ -9065,7 +9067,9 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" s="1"/>
+      <c r="B82" s="1">
+        <v>4210396117</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
       </c>
@@ -9075,7 +9079,9 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83" s="1"/>
+      <c r="B83" s="1">
+        <v>4210050876</v>
+      </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
       </c>
@@ -9085,7 +9091,9 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B84" s="1"/>
+      <c r="B84" s="1">
+        <v>4210178048</v>
+      </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
@@ -9095,7 +9103,9 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B85" s="1"/>
+      <c r="B85" s="1">
+        <v>4210282624</v>
+      </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
       </c>
@@ -9105,7 +9115,9 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B86" s="1"/>
+      <c r="B86" s="1">
+        <v>4210329350</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
       </c>
@@ -9115,7 +9127,9 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B87" s="1"/>
+      <c r="B87" s="1">
+        <v>4210005081</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
       </c>
@@ -9125,7 +9139,9 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B88" s="1"/>
+      <c r="B88" s="1">
+        <v>4210065219</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
       </c>
@@ -9135,7 +9151,9 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B89" s="1"/>
+      <c r="B89" s="1">
+        <v>4210941041</v>
+      </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
       </c>
@@ -9145,7 +9163,9 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B90" s="1"/>
+      <c r="B90" s="1">
+        <v>4210500697</v>
+      </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
       </c>
@@ -9155,7 +9175,9 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91" s="1"/>
+      <c r="B91" s="1">
+        <v>4210113372</v>
+      </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
@@ -9165,7 +9187,9 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92" s="1"/>
+      <c r="B92" s="1">
+        <v>4210610217</v>
+      </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
       </c>
@@ -9175,7 +9199,9 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B93" s="1"/>
+      <c r="B93" s="1">
+        <v>4210646368</v>
+      </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
       </c>
@@ -9185,7 +9211,9 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B94" s="1"/>
+      <c r="B94" s="1">
+        <v>4210596404</v>
+      </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
       </c>
@@ -9195,7 +9223,9 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B95" s="1"/>
+      <c r="B95" s="1">
+        <v>4210533998</v>
+      </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
       </c>
@@ -9205,7 +9235,9 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B96" s="1"/>
+      <c r="B96" s="1">
+        <v>4210162326</v>
+      </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
@@ -9215,7 +9247,9 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B97" s="1"/>
+      <c r="B97" s="1">
+        <v>4210301184</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
       </c>
@@ -9225,7 +9259,9 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B98" s="1"/>
+      <c r="B98" s="1">
+        <v>4210691687</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
       </c>
@@ -9235,7 +9271,9 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B99" s="1"/>
+      <c r="B99" s="1">
+        <v>4210487716</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
       </c>
@@ -9245,7 +9283,9 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B100" s="1"/>
+      <c r="B100" s="1">
+        <v>4210525608</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
       </c>
@@ -9255,7 +9295,9 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B101" s="1"/>
+      <c r="B101" s="1">
+        <v>4210697405</v>
+      </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
       </c>
@@ -9265,7 +9307,9 @@
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B102" s="1"/>
+      <c r="B102" s="1">
+        <v>4210871317</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
       </c>
@@ -9275,7 +9319,9 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B103" s="1"/>
+      <c r="B103" s="1">
+        <v>4210200416</v>
+      </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
       </c>
@@ -9285,7 +9331,9 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B104" s="1"/>
+      <c r="B104" s="1">
+        <v>4210211263</v>
+      </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
       </c>
@@ -9295,7 +9343,9 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B105" s="1"/>
+      <c r="B105" s="1">
+        <v>4210841799</v>
+      </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
       </c>
@@ -9305,7 +9355,9 @@
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B106" s="1"/>
+      <c r="B106" s="1">
+        <v>4210003908</v>
+      </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
       </c>
@@ -9315,7 +9367,9 @@
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B107" s="1"/>
+      <c r="B107" s="1">
+        <v>4210244610</v>
+      </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
       </c>
@@ -9325,7 +9379,9 @@
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B108" s="1"/>
+      <c r="B108" s="1">
+        <v>4210496119</v>
+      </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
@@ -9335,7 +9391,9 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B109" s="1"/>
+      <c r="B109" s="1">
+        <v>4210359992</v>
+      </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
       </c>
@@ -9345,7 +9403,9 @@
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B110" s="1"/>
+      <c r="B110" s="1">
+        <v>4210380505</v>
+      </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
       </c>
@@ -9355,7 +9415,9 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B111" s="1"/>
+      <c r="B111" s="1">
+        <v>4210114589</v>
+      </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
       </c>
@@ -9365,7 +9427,9 @@
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B112" s="1"/>
+      <c r="B112" s="1">
+        <v>4210270390</v>
+      </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
       </c>
@@ -9375,7 +9439,9 @@
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B113" s="1"/>
+      <c r="B113" s="1">
+        <v>4210548527</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
       </c>
@@ -9385,7 +9451,9 @@
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B114" s="1"/>
+      <c r="B114" s="1">
+        <v>4210178645</v>
+      </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
       </c>
@@ -9395,7 +9463,9 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B115" s="1"/>
+      <c r="B115" s="1">
+        <v>4210740672</v>
+      </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
       </c>
@@ -9405,7 +9475,9 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B116" s="1"/>
+      <c r="B116" s="1">
+        <v>4210214619</v>
+      </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
       </c>
@@ -9415,7 +9487,9 @@
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B117" s="1"/>
+      <c r="B117" s="1">
+        <v>4210420791</v>
+      </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
       </c>
@@ -9425,7 +9499,9 @@
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B118" s="1"/>
+      <c r="B118" s="1">
+        <v>4210477209</v>
+      </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
       </c>
@@ -9435,7 +9511,9 @@
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B119" s="1"/>
+      <c r="B119" s="1">
+        <v>4210062240</v>
+      </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
       </c>
@@ -9445,7 +9523,9 @@
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B120" s="1"/>
+      <c r="B120" s="1">
+        <v>4210143635</v>
+      </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
       </c>
@@ -9455,7 +9535,9 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B121" s="1"/>
+      <c r="B121" s="1">
+        <v>4210036943</v>
+      </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
       </c>
@@ -9465,7 +9547,9 @@
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B122" s="1"/>
+      <c r="B122" s="1">
+        <v>4210003083</v>
+      </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
       </c>
@@ -9475,7 +9559,9 @@
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B123" s="1"/>
+      <c r="B123" s="1">
+        <v>4210919520</v>
+      </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
       </c>
@@ -9485,7 +9571,9 @@
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B124" s="1"/>
+      <c r="B124" s="1">
+        <v>4210483345</v>
+      </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
       </c>
@@ -9495,7 +9583,9 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B125" s="1"/>
+      <c r="B125" s="1">
+        <v>4210552779</v>
+      </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
       </c>
@@ -9505,7 +9595,9 @@
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B126" s="1"/>
+      <c r="B126" s="1">
+        <v>4210718468</v>
+      </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
       </c>
@@ -9515,7 +9607,9 @@
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B127" s="1"/>
+      <c r="B127" s="1">
+        <v>4210974262</v>
+      </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
       </c>
@@ -9525,7 +9619,9 @@
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B128" s="1"/>
+      <c r="B128" s="1">
+        <v>4210312209</v>
+      </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
       </c>
@@ -9535,7 +9631,9 @@
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B129" s="1"/>
+      <c r="B129" s="1">
+        <v>4210399799</v>
+      </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
       </c>
@@ -9545,7 +9643,9 @@
         <f t="shared" ref="A130:A193" si="2">+A129+1</f>
         <v>129</v>
       </c>
-      <c r="B130" s="1"/>
+      <c r="B130" s="1">
+        <v>4210960649</v>
+      </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
       </c>
@@ -9555,7 +9655,9 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="B131" s="1"/>
+      <c r="B131" s="1">
+        <v>4210337818</v>
+      </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
       </c>
@@ -9565,7 +9667,9 @@
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="B132" s="1"/>
+      <c r="B132" s="1">
+        <v>4210168043</v>
+      </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
       </c>
@@ -9575,7 +9679,9 @@
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="B133" s="1"/>
+      <c r="B133" s="1">
+        <v>4210446245</v>
+      </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
       </c>
@@ -9585,7 +9691,9 @@
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="B134" s="1"/>
+      <c r="B134" s="1">
+        <v>4210461149</v>
+      </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
       </c>
@@ -9595,7 +9703,9 @@
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="B135" s="1"/>
+      <c r="B135" s="1">
+        <v>4210534852</v>
+      </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
       </c>
@@ -9605,7 +9715,9 @@
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B136" s="1"/>
+      <c r="B136" s="1">
+        <v>4210001844</v>
+      </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
       </c>
@@ -9615,7 +9727,9 @@
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B137" s="1"/>
+      <c r="B137" s="1">
+        <v>4210548325</v>
+      </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
       </c>
@@ -9625,7 +9739,9 @@
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B138" s="1"/>
+      <c r="B138" s="1">
+        <v>4210554776</v>
+      </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
       </c>
@@ -9635,7 +9751,9 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="B139" s="1"/>
+      <c r="B139" s="1">
+        <v>4210622646</v>
+      </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
       </c>
@@ -9645,7 +9763,9 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="B140" s="1"/>
+      <c r="B140" s="1">
+        <v>4210905356</v>
+      </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
       </c>
@@ -9655,7 +9775,9 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="B141" s="1"/>
+      <c r="B141" s="1">
+        <v>4210544812</v>
+      </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
       </c>
@@ -9665,7 +9787,9 @@
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B142" s="1"/>
+      <c r="B142" s="1">
+        <v>4210918088</v>
+      </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
       </c>
@@ -9675,7 +9799,9 @@
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B143" s="1"/>
+      <c r="B143" s="1">
+        <v>4210276653</v>
+      </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
       </c>
@@ -9685,7 +9811,9 @@
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B144" s="1"/>
+      <c r="B144" s="1">
+        <v>4210727818</v>
+      </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
       </c>
@@ -24049,9 +24177,9 @@
       <c r="A68">
         <v>4210200416</v>
       </c>
-      <c r="B68" t="e">
+      <c r="B68">
         <f>VLOOKUP(A68,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210200416</v>
       </c>
       <c r="C68" t="str">
         <f>VLOOKUP(A68,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24088,9 +24216,9 @@
       <c r="A71">
         <v>4210230359</v>
       </c>
-      <c r="B71" t="e">
+      <c r="B71">
         <f>VLOOKUP(A71,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210230359</v>
       </c>
       <c r="C71" t="str">
         <f>VLOOKUP(A71,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24426,9 +24554,9 @@
       <c r="A97">
         <v>4210403019</v>
       </c>
-      <c r="B97" t="e">
+      <c r="B97">
         <f>VLOOKUP(A97,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210403019</v>
       </c>
       <c r="C97" t="str">
         <f>VLOOKUP(A97,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24868,9 +24996,9 @@
       <c r="A131">
         <v>4210033127</v>
       </c>
-      <c r="B131" t="e">
+      <c r="B131">
         <f>VLOOKUP(A131,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210033127</v>
       </c>
       <c r="C131" t="str">
         <f>VLOOKUP(A131,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24881,9 +25009,9 @@
       <c r="A132">
         <v>4210552779</v>
       </c>
-      <c r="B132" t="e">
+      <c r="B132">
         <f>VLOOKUP(A132,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210552779</v>
       </c>
       <c r="C132" t="str">
         <f>VLOOKUP(A132,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24894,9 +25022,9 @@
       <c r="A133">
         <v>4210354861</v>
       </c>
-      <c r="B133" t="e">
+      <c r="B133">
         <f>VLOOKUP(A133,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210354861</v>
       </c>
       <c r="C133" t="str">
         <f>VLOOKUP(A133,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24907,9 +25035,9 @@
       <c r="A134">
         <v>4210586900</v>
       </c>
-      <c r="B134" t="e">
+      <c r="B134">
         <f>VLOOKUP(A134,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210586900</v>
       </c>
       <c r="C134" t="str">
         <f>VLOOKUP(A134,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24959,9 +25087,9 @@
       <c r="A138">
         <v>4210622646</v>
       </c>
-      <c r="B138" t="e">
+      <c r="B138">
         <f>VLOOKUP(A138,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210622646</v>
       </c>
       <c r="C138" t="str">
         <f>VLOOKUP(A138,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25141,9 +25269,9 @@
       <c r="A152">
         <v>4210003908</v>
       </c>
-      <c r="B152" t="e">
+      <c r="B152">
         <f>VLOOKUP(A152,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210003908</v>
       </c>
       <c r="C152" t="str">
         <f>VLOOKUP(A152,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25219,9 +25347,9 @@
       <c r="A158">
         <v>4210919520</v>
       </c>
-      <c r="B158" t="e">
+      <c r="B158">
         <f>VLOOKUP(A158,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210919520</v>
       </c>
       <c r="C158" t="str">
         <f>VLOOKUP(A158,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25258,9 +25386,9 @@
       <c r="A161">
         <v>4210766426</v>
       </c>
-      <c r="B161" t="e">
+      <c r="B161">
         <f>VLOOKUP(A161,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210766426</v>
       </c>
       <c r="C161" t="str">
         <f>VLOOKUP(A161,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25518,9 +25646,9 @@
       <c r="A181">
         <v>4210003837</v>
       </c>
-      <c r="B181" t="e">
+      <c r="B181">
         <f>VLOOKUP(A181,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210003837</v>
       </c>
       <c r="C181" t="str">
         <f>VLOOKUP(A181,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25765,9 +25893,9 @@
       <c r="A200">
         <v>4210155613</v>
       </c>
-      <c r="B200" t="e">
+      <c r="B200">
         <f>VLOOKUP(A200,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210155613</v>
       </c>
       <c r="C200" t="str">
         <f>VLOOKUP(A200,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26168,9 +26296,9 @@
       <c r="A231">
         <v>4210404572</v>
       </c>
-      <c r="B231" t="e">
+      <c r="B231">
         <f>VLOOKUP(A231,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210404572</v>
       </c>
       <c r="C231" t="str">
         <f>VLOOKUP(A231,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26493,9 +26621,9 @@
       <c r="A256">
         <v>4210496119</v>
       </c>
-      <c r="B256" t="e">
+      <c r="B256">
         <f>VLOOKUP(A256,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210496119</v>
       </c>
       <c r="C256" t="str">
         <f>VLOOKUP(A256,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26506,9 +26634,9 @@
       <c r="A257">
         <v>4210009062</v>
       </c>
-      <c r="B257" t="e">
+      <c r="B257">
         <f>VLOOKUP(A257,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210009062</v>
       </c>
       <c r="C257" t="str">
         <f>VLOOKUP(A257,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26597,9 +26725,9 @@
       <c r="A264">
         <v>4210635825</v>
       </c>
-      <c r="B264" t="e">
+      <c r="B264">
         <f>VLOOKUP(A264,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210635825</v>
       </c>
       <c r="C264" t="str">
         <f>VLOOKUP(A264,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26714,9 +26842,9 @@
       <c r="A273">
         <v>4210142349</v>
       </c>
-      <c r="B273" t="e">
+      <c r="B273">
         <f>VLOOKUP(A273,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210142349</v>
       </c>
       <c r="C273" t="str">
         <f>VLOOKUP(A273,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27039,9 +27167,9 @@
       <c r="A298">
         <v>4210127746</v>
       </c>
-      <c r="B298" t="e">
+      <c r="B298">
         <f>VLOOKUP(A298,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210127746</v>
       </c>
       <c r="C298" t="str">
         <f>VLOOKUP(A298,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27338,9 +27466,9 @@
       <c r="A321">
         <v>4210272828</v>
       </c>
-      <c r="B321" t="e">
+      <c r="B321">
         <f>VLOOKUP(A321,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210272828</v>
       </c>
       <c r="C321" t="str">
         <f>VLOOKUP(A321,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27429,9 +27557,9 @@
       <c r="A328">
         <v>4210399799</v>
       </c>
-      <c r="B328" t="e">
+      <c r="B328">
         <f>VLOOKUP(A328,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210399799</v>
       </c>
       <c r="C328" t="str">
         <f>VLOOKUP(A328,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27650,9 +27778,9 @@
       <c r="A345">
         <v>4210920767</v>
       </c>
-      <c r="B345" t="e">
+      <c r="B345">
         <f>VLOOKUP(A345,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210920767</v>
       </c>
       <c r="C345" t="str">
         <f>VLOOKUP(A345,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28222,9 +28350,9 @@
       <c r="A389">
         <v>4210065219</v>
       </c>
-      <c r="B389" t="e">
+      <c r="B389">
         <f>VLOOKUP(A389,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210065219</v>
       </c>
       <c r="C389" t="str">
         <f>VLOOKUP(A389,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28547,9 +28675,9 @@
       <c r="A414">
         <v>4210354387</v>
       </c>
-      <c r="B414" t="e">
+      <c r="B414">
         <f>VLOOKUP(A414,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210354387</v>
       </c>
       <c r="C414" t="str">
         <f>VLOOKUP(A414,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28599,9 +28727,9 @@
       <c r="A418">
         <v>4210371603</v>
       </c>
-      <c r="B418" t="e">
+      <c r="B418">
         <f>VLOOKUP(A418,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210371603</v>
       </c>
       <c r="C418" t="str">
         <f>VLOOKUP(A418,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28768,9 +28896,9 @@
       <c r="A431">
         <v>4210477209</v>
       </c>
-      <c r="B431" t="e">
+      <c r="B431">
         <f>VLOOKUP(A431,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210477209</v>
       </c>
       <c r="C431" t="str">
         <f>VLOOKUP(A431,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28872,9 +29000,9 @@
       <c r="A439">
         <v>4210573844</v>
       </c>
-      <c r="B439" t="e">
+      <c r="B439">
         <f>VLOOKUP(A439,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210573844</v>
       </c>
       <c r="C439" t="str">
         <f>VLOOKUP(A439,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28898,9 +29026,9 @@
       <c r="A441">
         <v>4210918088</v>
       </c>
-      <c r="B441" t="e">
+      <c r="B441">
         <f>VLOOKUP(A441,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210918088</v>
       </c>
       <c r="C441" t="str">
         <f>VLOOKUP(A441,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29184,9 +29312,9 @@
       <c r="A463">
         <v>4210740672</v>
       </c>
-      <c r="B463" t="e">
+      <c r="B463">
         <f>VLOOKUP(A463,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210740672</v>
       </c>
       <c r="C463" t="str">
         <f>VLOOKUP(A463,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29444,9 +29572,9 @@
       <c r="A483">
         <v>4210632710</v>
       </c>
-      <c r="B483" t="e">
+      <c r="B483">
         <f>VLOOKUP(A483,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210632710</v>
       </c>
       <c r="C483" t="str">
         <f>VLOOKUP(A483,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29457,9 +29585,9 @@
       <c r="A484">
         <v>4210003083</v>
       </c>
-      <c r="B484" t="e">
+      <c r="B484">
         <f>VLOOKUP(A484,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210003083</v>
       </c>
       <c r="C484" t="str">
         <f>VLOOKUP(A484,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29613,9 +29741,9 @@
       <c r="A496">
         <v>4210167563</v>
       </c>
-      <c r="B496" t="e">
+      <c r="B496">
         <f>VLOOKUP(A496,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210167563</v>
       </c>
       <c r="C496" t="str">
         <f>VLOOKUP(A496,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29730,9 +29858,9 @@
       <c r="A505">
         <v>4210248451</v>
       </c>
-      <c r="B505" t="e">
+      <c r="B505">
         <f>VLOOKUP(A505,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210248451</v>
       </c>
       <c r="C505" t="str">
         <f>VLOOKUP(A505,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29873,9 +30001,9 @@
       <c r="A516">
         <v>4210036943</v>
       </c>
-      <c r="B516" t="e">
+      <c r="B516">
         <f>VLOOKUP(A516,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210036943</v>
       </c>
       <c r="C516" t="str">
         <f>VLOOKUP(A516,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30107,9 +30235,9 @@
       <c r="A534">
         <v>4210447996</v>
       </c>
-      <c r="B534" t="e">
+      <c r="B534">
         <f>VLOOKUP(A534,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210447996</v>
       </c>
       <c r="C534" t="str">
         <f>VLOOKUP(A534,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30120,9 +30248,9 @@
       <c r="A535">
         <v>4210974262</v>
       </c>
-      <c r="B535" t="e">
+      <c r="B535">
         <f>VLOOKUP(A535,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210974262</v>
       </c>
       <c r="C535" t="str">
         <f>VLOOKUP(A535,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30445,9 +30573,9 @@
       <c r="A560">
         <v>4210610217</v>
       </c>
-      <c r="B560" t="e">
+      <c r="B560">
         <f>VLOOKUP(A560,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210610217</v>
       </c>
       <c r="C560" t="str">
         <f>VLOOKUP(A560,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31225,9 +31353,9 @@
       <c r="A620">
         <v>4210841799</v>
       </c>
-      <c r="B620" t="e">
+      <c r="B620">
         <f>VLOOKUP(A620,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210841799</v>
       </c>
       <c r="C620" t="str">
         <f>VLOOKUP(A620,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31290,9 +31418,9 @@
       <c r="A625">
         <v>4210211263</v>
       </c>
-      <c r="B625" t="e">
+      <c r="B625">
         <f>VLOOKUP(A625,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210211263</v>
       </c>
       <c r="C625" t="str">
         <f>VLOOKUP(A625,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31342,9 +31470,9 @@
       <c r="A629">
         <v>4210244610</v>
       </c>
-      <c r="B629" t="e">
+      <c r="B629">
         <f>VLOOKUP(A629,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210244610</v>
       </c>
       <c r="C629" t="str">
         <f>VLOOKUP(A629,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31394,9 +31522,9 @@
       <c r="A633">
         <v>4210267013</v>
       </c>
-      <c r="B633" t="e">
+      <c r="B633">
         <f>VLOOKUP(A633,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210267013</v>
       </c>
       <c r="C633" t="str">
         <f>VLOOKUP(A633,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31420,9 +31548,9 @@
       <c r="A635">
         <v>4210855921</v>
       </c>
-      <c r="B635" t="e">
+      <c r="B635">
         <f>VLOOKUP(A635,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210855921</v>
       </c>
       <c r="C635" t="str">
         <f>VLOOKUP(A635,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31446,9 +31574,9 @@
       <c r="A637">
         <v>4210337818</v>
       </c>
-      <c r="B637" t="e">
+      <c r="B637">
         <f>VLOOKUP(A637,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210337818</v>
       </c>
       <c r="C637" t="str">
         <f>VLOOKUP(A637,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31758,9 +31886,9 @@
       <c r="A661">
         <v>4210911313</v>
       </c>
-      <c r="B661" t="e">
+      <c r="B661">
         <f>VLOOKUP(A661,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210911313</v>
       </c>
       <c r="C661" t="str">
         <f>VLOOKUP(A661,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31940,9 +32068,9 @@
       <c r="A675">
         <v>4210548325</v>
       </c>
-      <c r="B675" t="e">
+      <c r="B675">
         <f>VLOOKUP(A675,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210548325</v>
       </c>
       <c r="C675" t="str">
         <f>VLOOKUP(A675,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31953,9 +32081,9 @@
       <c r="A676">
         <v>4210554776</v>
       </c>
-      <c r="B676" t="e">
+      <c r="B676">
         <f>VLOOKUP(A676,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210554776</v>
       </c>
       <c r="C676" t="str">
         <f>VLOOKUP(A676,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31966,9 +32094,9 @@
       <c r="A677">
         <v>4210234367</v>
       </c>
-      <c r="B677" t="e">
+      <c r="B677">
         <f>VLOOKUP(A677,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210234367</v>
       </c>
       <c r="C677" t="str">
         <f>VLOOKUP(A677,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32018,9 +32146,9 @@
       <c r="A681">
         <v>4210621591</v>
       </c>
-      <c r="B681" t="e">
+      <c r="B681">
         <f>VLOOKUP(A681,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210621591</v>
       </c>
       <c r="C681" t="str">
         <f>VLOOKUP(A681,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32343,9 +32471,9 @@
       <c r="A706">
         <v>4210718468</v>
       </c>
-      <c r="B706" t="e">
+      <c r="B706">
         <f>VLOOKUP(A706,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210718468</v>
       </c>
       <c r="C706" t="str">
         <f>VLOOKUP(A706,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32733,9 +32861,9 @@
       <c r="A736">
         <v>4210113372</v>
       </c>
-      <c r="B736" t="e">
+      <c r="B736">
         <f>VLOOKUP(A736,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210113372</v>
       </c>
       <c r="C736" t="str">
         <f>VLOOKUP(A736,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33058,9 +33186,9 @@
       <c r="A761">
         <v>4210322467</v>
       </c>
-      <c r="B761" t="e">
+      <c r="B761">
         <f>VLOOKUP(A761,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210322467</v>
       </c>
       <c r="C761" t="str">
         <f>VLOOKUP(A761,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33344,9 +33472,9 @@
       <c r="A783">
         <v>4210483345</v>
       </c>
-      <c r="B783" t="e">
+      <c r="B783">
         <f>VLOOKUP(A783,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210483345</v>
       </c>
       <c r="C783" t="str">
         <f>VLOOKUP(A783,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33396,9 +33524,9 @@
       <c r="A787">
         <v>4210941041</v>
       </c>
-      <c r="B787" t="e">
+      <c r="B787">
         <f>VLOOKUP(A787,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210941041</v>
       </c>
       <c r="C787" t="str">
         <f>VLOOKUP(A787,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33474,9 +33602,9 @@
       <c r="A793">
         <v>4210556661</v>
       </c>
-      <c r="B793" t="e">
+      <c r="B793">
         <f>VLOOKUP(A793,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210556661</v>
       </c>
       <c r="C793" t="str">
         <f>VLOOKUP(A793,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33747,9 +33875,9 @@
       <c r="A814">
         <v>4210380505</v>
       </c>
-      <c r="B814" t="e">
+      <c r="B814">
         <f>VLOOKUP(A814,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210380505</v>
       </c>
       <c r="C814" t="str">
         <f>VLOOKUP(A814,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33929,9 +34057,9 @@
       <c r="A828">
         <v>4210771684</v>
       </c>
-      <c r="B828" t="e">
+      <c r="B828">
         <f>VLOOKUP(A828,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210771684</v>
       </c>
       <c r="C828" t="str">
         <f>VLOOKUP(A828,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34202,9 +34330,9 @@
       <c r="A849">
         <v>4210073431</v>
       </c>
-      <c r="B849" t="e">
+      <c r="B849">
         <f>VLOOKUP(A849,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210073431</v>
       </c>
       <c r="C849" t="str">
         <f>VLOOKUP(A849,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34371,9 +34499,9 @@
       <c r="A862">
         <v>4210168043</v>
       </c>
-      <c r="B862" t="e">
+      <c r="B862">
         <f>VLOOKUP(A862,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210168043</v>
       </c>
       <c r="C862" t="str">
         <f>VLOOKUP(A862,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34449,9 +34577,9 @@
       <c r="A868">
         <v>4210199520</v>
       </c>
-      <c r="B868" t="e">
+      <c r="B868">
         <f>VLOOKUP(A868,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210199520</v>
       </c>
       <c r="C868" t="str">
         <f>VLOOKUP(A868,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34514,9 +34642,9 @@
       <c r="A873">
         <v>4210301184</v>
       </c>
-      <c r="B873" t="e">
+      <c r="B873">
         <f>VLOOKUP(A873,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210301184</v>
       </c>
       <c r="C873" t="str">
         <f>VLOOKUP(A873,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34579,9 +34707,9 @@
       <c r="A878">
         <v>4210329350</v>
       </c>
-      <c r="B878" t="e">
+      <c r="B878">
         <f>VLOOKUP(A878,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210329350</v>
       </c>
       <c r="C878" t="str">
         <f>VLOOKUP(A878,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34774,9 +34902,9 @@
       <c r="A893">
         <v>4210446245</v>
       </c>
-      <c r="B893" t="e">
+      <c r="B893">
         <f>VLOOKUP(A893,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210446245</v>
       </c>
       <c r="C893" t="str">
         <f>VLOOKUP(A893,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34917,9 +35045,9 @@
       <c r="A904">
         <v>4210558291</v>
       </c>
-      <c r="B904" t="e">
+      <c r="B904">
         <f>VLOOKUP(A904,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210558291</v>
       </c>
       <c r="C904" t="str">
         <f>VLOOKUP(A904,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -35359,9 +35487,9 @@
       <c r="A938">
         <v>4210905356</v>
       </c>
-      <c r="B938" t="e">
+      <c r="B938">
         <f>VLOOKUP(A938,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210905356</v>
       </c>
       <c r="C938" t="str">
         <f>VLOOKUP(A938,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56E468-17CB-4AF4-8EE8-56A7C113A885}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620A42D6-B17E-41D6-91D0-6F39334C7967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8081,8 +8081,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N131" sqref="N131"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8108,7 +8108,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>4210573844</v>
+        <v>4210229139</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -8120,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4210717435</v>
+        <v>4210588368</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -8132,7 +8132,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4210198826</v>
+        <v>4210573844</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -8144,7 +8144,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4210381581</v>
+        <v>4210717435</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -8156,7 +8156,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4210216114</v>
+        <v>4210198826</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -8168,7 +8168,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>4211020605</v>
+        <v>4210381581</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -8180,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4210556661</v>
+        <v>4210488625</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -8192,7 +8192,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4210127746</v>
+        <v>4210216114</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -8204,7 +8204,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4210132639</v>
+        <v>4210344078</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -8216,7 +8216,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>4210322467</v>
+        <v>4210371025</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -8228,7 +8228,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>4210404572</v>
+        <v>4211020605</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -8240,7 +8240,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4210771684</v>
+        <v>4210254607</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -8252,7 +8252,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>4210766426</v>
+        <v>4210556661</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>4210371603</v>
+        <v>4210127746</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -8276,7 +8276,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>4210406120</v>
+        <v>4210132639</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -8288,7 +8288,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>4210141892</v>
+        <v>4210322467</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -8300,7 +8300,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>4210394400</v>
+        <v>4210404572</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -8312,7 +8312,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>4210003837</v>
+        <v>4210689843</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -8324,7 +8324,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>4210004223</v>
+        <v>4210771684</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -8336,7 +8336,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>4210234367</v>
+        <v>4210766426</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -8348,7 +8348,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>4210558291</v>
+        <v>4210371603</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -8360,7 +8360,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>4210635825</v>
+        <v>4210406120</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -8372,7 +8372,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>4210843009</v>
+        <v>4210020005</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -8384,7 +8384,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>4210213587</v>
+        <v>4210141892</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -8396,7 +8396,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>4210853920</v>
+        <v>4210394400</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -8408,7 +8408,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>4210447996</v>
+        <v>4210413345</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -8420,7 +8420,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>4210754698</v>
+        <v>4210003837</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -8432,7 +8432,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>4210542091</v>
+        <v>4210004223</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -8444,7 +8444,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>4210222026</v>
+        <v>4210234367</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -8456,7 +8456,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>4210260173</v>
+        <v>4210533040</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -8468,7 +8468,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4210033127</v>
+        <v>4210558291</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -8480,7 +8480,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4210639267</v>
+        <v>4210635825</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -8492,7 +8492,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4210535673</v>
+        <v>4210720296</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -8504,7 +8504,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>4210500818</v>
+        <v>4210843009</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -8516,7 +8516,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>4210062548</v>
+        <v>4210213587</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -8528,7 +8528,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4210133586</v>
+        <v>4210853920</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -8540,7 +8540,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4210248451</v>
+        <v>4210447996</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -8552,7 +8552,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4210272828</v>
+        <v>4210754698</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -8564,7 +8564,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4210320285</v>
+        <v>4210542091</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -8576,7 +8576,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>4210403019</v>
+        <v>4210222026</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -8588,7 +8588,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>4210420096</v>
+        <v>4210313376</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -8600,7 +8600,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>4210632710</v>
+        <v>4210260173</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -8612,7 +8612,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>4210690272</v>
+        <v>4210033127</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -8624,7 +8624,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>4210920767</v>
+        <v>4210072674</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -8636,7 +8636,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>4210955715</v>
+        <v>4210482370</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -8648,7 +8648,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>4210208750</v>
+        <v>4210167551</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -8660,7 +8660,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>4210586900</v>
+        <v>4210523147</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -8672,7 +8672,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>4210433177</v>
+        <v>4210406049</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -8684,7 +8684,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>4210911313</v>
+        <v>4210639267</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -8696,7 +8696,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>4210855921</v>
+        <v>4210535673</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -8708,7 +8708,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>4210009062</v>
+        <v>4210500818</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -8720,7 +8720,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4210648248</v>
+        <v>4210062548</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -8732,7 +8732,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4210356297</v>
+        <v>4210133586</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -8744,7 +8744,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>4210921232</v>
+        <v>4210248451</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -8756,7 +8756,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>4211189006</v>
+        <v>4210272828</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -8768,7 +8768,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>4210621591</v>
+        <v>4210320285</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -8780,7 +8780,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>4210059000</v>
+        <v>4210403019</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -8792,7 +8792,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>4210073431</v>
+        <v>4210420096</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -8804,7 +8804,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>4210222465</v>
+        <v>4210597778</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>4210201732</v>
+        <v>4210632710</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -8828,7 +8828,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>4210267013</v>
+        <v>4210690272</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -8840,7 +8840,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>4210199520</v>
+        <v>4210695149</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -8852,7 +8852,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>4210354861</v>
+        <v>4210706422</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -8864,7 +8864,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>4210354387</v>
+        <v>4210920767</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -8876,7 +8876,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>4210043894</v>
+        <v>4210955715</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -8888,7 +8888,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>4210122182</v>
+        <v>4210665237</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -8900,7 +8900,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>4210142349</v>
+        <v>4210208750</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -8912,7 +8912,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>4210769887</v>
+        <v>4210586900</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -8924,7 +8924,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>4210897066</v>
+        <v>4210433177</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -8936,7 +8936,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>4210117447</v>
+        <v>4210911313</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -8948,7 +8948,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>4210462732</v>
+        <v>4211122411</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -8960,7 +8960,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>4210047154</v>
+        <v>4210855921</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -8972,7 +8972,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>4210155613</v>
+        <v>4210009062</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -8984,7 +8984,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>4210167563</v>
+        <v>4210648248</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -8996,7 +8996,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>4210079772</v>
+        <v>4210356297</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -9008,7 +9008,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>4210166153</v>
+        <v>4210411973</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -9020,7 +9020,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>4210230359</v>
+        <v>4210273020</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -9032,7 +9032,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>4210321845</v>
+        <v>4210921232</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -9044,7 +9044,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>4210420336</v>
+        <v>4211189006</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -9056,7 +9056,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>4210671598</v>
+        <v>4210621591</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -9068,7 +9068,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>4210396117</v>
+        <v>4210392055</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -9080,7 +9080,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>4210050876</v>
+        <v>4210059000</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -9092,7 +9092,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>4210178048</v>
+        <v>4210073431</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -9104,7 +9104,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>4210282624</v>
+        <v>4210222465</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -9116,7 +9116,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>4210329350</v>
+        <v>4210321387</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -9128,7 +9128,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>4210005081</v>
+        <v>4210497292</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -9140,7 +9140,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>4210065219</v>
+        <v>4210151586</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -9152,7 +9152,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>4210941041</v>
+        <v>4211014966</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -9164,7 +9164,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>4210500697</v>
+        <v>4211039341</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -9176,7 +9176,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>4210113372</v>
+        <v>4210128315</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -9188,7 +9188,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>4210610217</v>
+        <v>4210201732</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -9200,7 +9200,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>4210646368</v>
+        <v>4210267013</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -9212,7 +9212,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>4210596404</v>
+        <v>4210199520</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -9224,7 +9224,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>4210533998</v>
+        <v>4210354861</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -9236,7 +9236,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>4210162326</v>
+        <v>4210354387</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -9248,7 +9248,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>4210301184</v>
+        <v>4210043894</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -9260,7 +9260,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>4210691687</v>
+        <v>4210122182</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -9272,7 +9272,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>4210487716</v>
+        <v>4210142349</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -9284,7 +9284,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>4210525608</v>
+        <v>4210383149</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -9296,7 +9296,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>4210697405</v>
+        <v>4210769887</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -9308,7 +9308,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>4210871317</v>
+        <v>4210897066</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -9320,7 +9320,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>4210200416</v>
+        <v>4210117447</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -9332,7 +9332,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>4210211263</v>
+        <v>4210462732</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -9344,7 +9344,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>4210841799</v>
+        <v>4210047154</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -9356,7 +9356,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>4210003908</v>
+        <v>4210922651</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -9368,7 +9368,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>4210244610</v>
+        <v>4210155613</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -9380,7 +9380,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>4210496119</v>
+        <v>4210167563</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -9392,7 +9392,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>4210359992</v>
+        <v>4210079772</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -9404,7 +9404,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>4210380505</v>
+        <v>4210166153</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -9416,7 +9416,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>4210114589</v>
+        <v>4211047440</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -9428,7 +9428,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>4210270390</v>
+        <v>4210230359</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -9440,7 +9440,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>4210548527</v>
+        <v>4210321845</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -9452,7 +9452,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>4210178645</v>
+        <v>4210420336</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -9464,7 +9464,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>4210740672</v>
+        <v>4210671598</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -9476,7 +9476,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>4210214619</v>
+        <v>4210396117</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -9488,7 +9488,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>4210420791</v>
+        <v>4210050876</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -9500,7 +9500,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>4210477209</v>
+        <v>4210178048</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -9512,7 +9512,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>4210062240</v>
+        <v>4210282624</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -9524,7 +9524,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>4210143635</v>
+        <v>4210329350</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -9536,7 +9536,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>4210036943</v>
+        <v>4210928075</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -9548,7 +9548,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>4210003083</v>
+        <v>4210005081</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -9560,7 +9560,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>4210919520</v>
+        <v>4210065219</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -9572,7 +9572,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>4210483345</v>
+        <v>4210941041</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -9584,7 +9584,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>4210552779</v>
+        <v>4210500697</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -9596,7 +9596,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>4210718468</v>
+        <v>4210113372</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -9608,7 +9608,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>4210974262</v>
+        <v>4210598087</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -9620,7 +9620,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>4210312209</v>
+        <v>4210610217</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -9632,7 +9632,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>4210399799</v>
+        <v>4210646368</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -9644,7 +9644,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>4210960649</v>
+        <v>4210596404</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -9656,7 +9656,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>4210337818</v>
+        <v>4210533998</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -9668,7 +9668,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>4210168043</v>
+        <v>4210162326</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -9680,7 +9680,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>4210446245</v>
+        <v>4210514973</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -9692,7 +9692,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>4210461149</v>
+        <v>4210296631</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -9704,7 +9704,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>4210534852</v>
+        <v>4210608974</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -9716,7 +9716,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>4210001844</v>
+        <v>4210301184</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -9728,7 +9728,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>4210548325</v>
+        <v>4210691687</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -9740,7 +9740,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>4210554776</v>
+        <v>4210128706</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -9752,7 +9752,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>4210622646</v>
+        <v>4210429692</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
@@ -9764,7 +9764,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>4210905356</v>
+        <v>4210487716</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -9776,7 +9776,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>4210544812</v>
+        <v>4210525608</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
@@ -9788,7 +9788,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>4210918088</v>
+        <v>4210697405</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -9800,7 +9800,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>4210276653</v>
+        <v>4210871317</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -9812,7 +9812,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>4210727818</v>
+        <v>4210198794</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -9823,7 +9823,9 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B145" s="1"/>
+      <c r="B145" s="1">
+        <v>4210200416</v>
+      </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
       </c>
@@ -9833,7 +9835,9 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="B146" s="1"/>
+      <c r="B146" s="1">
+        <v>4210211263</v>
+      </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
       </c>
@@ -9843,7 +9847,9 @@
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B147" s="1"/>
+      <c r="B147" s="1">
+        <v>4210841799</v>
+      </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
       </c>
@@ -9853,7 +9859,9 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="B148" s="1"/>
+      <c r="B148" s="1">
+        <v>4210003908</v>
+      </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
       </c>
@@ -9863,7 +9871,9 @@
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="B149" s="1"/>
+      <c r="B149" s="1">
+        <v>4210244610</v>
+      </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
       </c>
@@ -9873,7 +9883,9 @@
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B150" s="1"/>
+      <c r="B150" s="1">
+        <v>4210496119</v>
+      </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
       </c>
@@ -9883,7 +9895,9 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B151" s="1"/>
+      <c r="B151" s="1">
+        <v>4210521327</v>
+      </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
       </c>
@@ -9893,7 +9907,9 @@
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B152" s="1"/>
+      <c r="B152" s="1">
+        <v>4210050280</v>
+      </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
       </c>
@@ -9903,7 +9919,9 @@
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="B153" s="1"/>
+      <c r="B153" s="1">
+        <v>4210372229</v>
+      </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
       </c>
@@ -9913,7 +9931,9 @@
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="B154" s="1"/>
+      <c r="B154" s="1">
+        <v>4210359992</v>
+      </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
       </c>
@@ -9923,7 +9943,9 @@
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="B155" s="1"/>
+      <c r="B155" s="1">
+        <v>4210380505</v>
+      </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
       </c>
@@ -9933,7 +9955,9 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="B156" s="1"/>
+      <c r="B156" s="1">
+        <v>4210114589</v>
+      </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
       </c>
@@ -9943,7 +9967,9 @@
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="B157" s="1"/>
+      <c r="B157" s="1">
+        <v>4210273236</v>
+      </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
       </c>
@@ -9953,7 +9979,9 @@
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="B158" s="1"/>
+      <c r="B158" s="1">
+        <v>4210270390</v>
+      </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
       </c>
@@ -9963,7 +9991,9 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B159" s="1"/>
+      <c r="B159" s="1">
+        <v>4210548527</v>
+      </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
       </c>
@@ -9973,7 +10003,9 @@
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="B160" s="1"/>
+      <c r="B160" s="1">
+        <v>4210378870</v>
+      </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
       </c>
@@ -9983,7 +10015,9 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="B161" s="1"/>
+      <c r="B161" s="1">
+        <v>4210420793</v>
+      </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
       </c>
@@ -9993,7 +10027,9 @@
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="B162" s="1"/>
+      <c r="B162" s="1">
+        <v>4210421903</v>
+      </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
       </c>
@@ -10003,7 +10039,9 @@
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="B163" s="1"/>
+      <c r="B163" s="1">
+        <v>4210178645</v>
+      </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
       </c>
@@ -10013,7 +10051,9 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B164" s="1"/>
+      <c r="B164" s="1">
+        <v>4210740672</v>
+      </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
       </c>
@@ -10023,7 +10063,9 @@
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="B165" s="1"/>
+      <c r="B165" s="1">
+        <v>4210031752</v>
+      </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
       </c>
@@ -10033,7 +10075,9 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="B166" s="1"/>
+      <c r="B166" s="1">
+        <v>4210214619</v>
+      </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
       </c>
@@ -10043,7 +10087,9 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B167" s="1"/>
+      <c r="B167" s="1">
+        <v>4210420791</v>
+      </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
       </c>
@@ -10053,7 +10099,9 @@
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="B168" s="1"/>
+      <c r="B168" s="1">
+        <v>4210477209</v>
+      </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
       </c>
@@ -10063,7 +10111,9 @@
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="B169" s="1"/>
+      <c r="B169" s="1">
+        <v>4210086965</v>
+      </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
       </c>
@@ -10073,7 +10123,9 @@
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="B170" s="1"/>
+      <c r="B170" s="1">
+        <v>4210398274</v>
+      </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
       </c>
@@ -10083,7 +10135,9 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="B171" s="1"/>
+      <c r="B171" s="1">
+        <v>4210062240</v>
+      </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
       </c>
@@ -10093,7 +10147,9 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="B172" s="1"/>
+      <c r="B172" s="1">
+        <v>4210143635</v>
+      </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
       </c>
@@ -10103,7 +10159,9 @@
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="B173" s="1"/>
+      <c r="B173" s="1">
+        <v>4210522831</v>
+      </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
       </c>
@@ -10113,7 +10171,9 @@
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="B174" s="1"/>
+      <c r="B174" s="1">
+        <v>4210036943</v>
+      </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
       </c>
@@ -10123,7 +10183,9 @@
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="B175" s="1"/>
+      <c r="B175" s="1">
+        <v>4210003083</v>
+      </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
       </c>
@@ -10133,7 +10195,9 @@
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="B176" s="1"/>
+      <c r="B176" s="1">
+        <v>4210919520</v>
+      </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
       </c>
@@ -10143,7 +10207,9 @@
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="B177" s="1"/>
+      <c r="B177" s="1">
+        <v>4210104513</v>
+      </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
       </c>
@@ -10153,7 +10219,9 @@
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="B178" s="1"/>
+      <c r="B178" s="1">
+        <v>4210483345</v>
+      </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
       </c>
@@ -10163,7 +10231,9 @@
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="B179" s="1"/>
+      <c r="B179" s="1">
+        <v>4210552779</v>
+      </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
       </c>
@@ -10173,7 +10243,9 @@
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="B180" s="1"/>
+      <c r="B180" s="1">
+        <v>4210718468</v>
+      </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
       </c>
@@ -10183,7 +10255,9 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="B181" s="1"/>
+      <c r="B181" s="1">
+        <v>4210974262</v>
+      </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
       </c>
@@ -10193,7 +10267,9 @@
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="B182" s="1"/>
+      <c r="B182" s="1">
+        <v>4210247519</v>
+      </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
       </c>
@@ -10203,7 +10279,9 @@
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="B183" s="1"/>
+      <c r="B183" s="1">
+        <v>4210652133</v>
+      </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
       </c>
@@ -10213,7 +10291,9 @@
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="B184" s="1"/>
+      <c r="B184" s="1">
+        <v>4210099442</v>
+      </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
       </c>
@@ -10223,7 +10303,9 @@
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="B185" s="1"/>
+      <c r="B185" s="1">
+        <v>4210312209</v>
+      </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
       </c>
@@ -10233,7 +10315,9 @@
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="B186" s="1"/>
+      <c r="B186" s="1">
+        <v>4210399799</v>
+      </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
       </c>
@@ -10243,7 +10327,9 @@
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="B187" s="1"/>
+      <c r="B187" s="1">
+        <v>4210960649</v>
+      </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
       </c>
@@ -10253,7 +10339,9 @@
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="B188" s="1"/>
+      <c r="B188" s="1">
+        <v>4210337818</v>
+      </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
       </c>
@@ -10263,7 +10351,9 @@
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="B189" s="1"/>
+      <c r="B189" s="1">
+        <v>4210168043</v>
+      </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
       </c>
@@ -10273,7 +10363,9 @@
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
-      <c r="B190" s="1"/>
+      <c r="B190" s="1">
+        <v>4210303219</v>
+      </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
       </c>
@@ -10283,7 +10375,9 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="B191" s="1"/>
+      <c r="B191" s="1">
+        <v>4210446245</v>
+      </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
       </c>
@@ -10293,7 +10387,9 @@
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
-      <c r="B192" s="1"/>
+      <c r="B192" s="1">
+        <v>4210461149</v>
+      </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
       </c>
@@ -10303,7 +10399,9 @@
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="B193" s="1"/>
+      <c r="B193" s="1">
+        <v>4210669592</v>
+      </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
       </c>
@@ -10313,7 +10411,9 @@
         <f t="shared" ref="A194:A257" si="3">+A193+1</f>
         <v>193</v>
       </c>
-      <c r="B194" s="1"/>
+      <c r="B194" s="1">
+        <v>4210534852</v>
+      </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
       </c>
@@ -10323,7 +10423,9 @@
         <f t="shared" si="3"/>
         <v>194</v>
       </c>
-      <c r="B195" s="1"/>
+      <c r="B195" s="1">
+        <v>4210001844</v>
+      </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
       </c>
@@ -10333,7 +10435,9 @@
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
-      <c r="B196" s="1"/>
+      <c r="B196" s="1">
+        <v>4210109667</v>
+      </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
       </c>
@@ -10343,7 +10447,9 @@
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="B197" s="1"/>
+      <c r="B197" s="1">
+        <v>4210548325</v>
+      </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
       </c>
@@ -10353,7 +10459,9 @@
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="B198" s="1"/>
+      <c r="B198" s="1">
+        <v>4210554776</v>
+      </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
       </c>
@@ -10363,7 +10471,9 @@
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
-      <c r="B199" s="1"/>
+      <c r="B199" s="1">
+        <v>4210622646</v>
+      </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
       </c>
@@ -10373,7 +10483,9 @@
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="B200" s="1"/>
+      <c r="B200" s="1">
+        <v>4210905356</v>
+      </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
       </c>
@@ -10383,7 +10495,9 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="B201" s="1"/>
+      <c r="B201" s="1">
+        <v>4210544812</v>
+      </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
       </c>
@@ -10393,7 +10507,9 @@
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
-      <c r="B202" s="1"/>
+      <c r="B202" s="1">
+        <v>4210918088</v>
+      </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
       </c>
@@ -10403,7 +10519,9 @@
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
-      <c r="B203" s="1"/>
+      <c r="B203" s="1">
+        <v>4210276653</v>
+      </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
       </c>
@@ -10413,7 +10531,9 @@
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="B204" s="1"/>
+      <c r="B204" s="1">
+        <v>4210727818</v>
+      </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
       </c>
@@ -24073,9 +24193,9 @@
       <c r="A60">
         <v>4210128315</v>
       </c>
-      <c r="B60" t="e">
+      <c r="B60">
         <f>VLOOKUP(A60,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210128315</v>
       </c>
       <c r="C60" t="str">
         <f>VLOOKUP(A60,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24255,9 +24375,9 @@
       <c r="A74">
         <v>4210247519</v>
       </c>
-      <c r="B74" t="e">
+      <c r="B74">
         <f>VLOOKUP(A74,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210247519</v>
       </c>
       <c r="C74" t="str">
         <f>VLOOKUP(A74,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24398,9 +24518,9 @@
       <c r="A85">
         <v>4210344078</v>
       </c>
-      <c r="B85" t="e">
+      <c r="B85">
         <f>VLOOKUP(A85,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210344078</v>
       </c>
       <c r="C85" t="str">
         <f>VLOOKUP(A85,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24476,9 +24596,9 @@
       <c r="A91">
         <v>4210378870</v>
       </c>
-      <c r="B91" t="e">
+      <c r="B91">
         <f>VLOOKUP(A91,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210378870</v>
       </c>
       <c r="C91" t="str">
         <f>VLOOKUP(A91,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24593,9 +24713,9 @@
       <c r="A100">
         <v>4210413345</v>
       </c>
-      <c r="B100" t="e">
+      <c r="B100">
         <f>VLOOKUP(A100,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210413345</v>
       </c>
       <c r="C100" t="str">
         <f>VLOOKUP(A100,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24879,9 +24999,9 @@
       <c r="A122">
         <v>4210523147</v>
       </c>
-      <c r="B122" t="e">
+      <c r="B122">
         <f>VLOOKUP(A122,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210523147</v>
       </c>
       <c r="C122" t="str">
         <f>VLOOKUP(A122,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24918,9 +25038,9 @@
       <c r="A125">
         <v>4210521327</v>
       </c>
-      <c r="B125" t="e">
+      <c r="B125">
         <f>VLOOKUP(A125,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210521327</v>
       </c>
       <c r="C125" t="str">
         <f>VLOOKUP(A125,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25048,9 +25168,9 @@
       <c r="A135">
         <v>4210588368</v>
       </c>
-      <c r="B135" t="e">
+      <c r="B135">
         <f>VLOOKUP(A135,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210588368</v>
       </c>
       <c r="C135" t="str">
         <f>VLOOKUP(A135,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25789,9 +25909,9 @@
       <c r="A192">
         <v>4210109667</v>
       </c>
-      <c r="B192" t="e">
+      <c r="B192">
         <f>VLOOKUP(A192,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210109667</v>
       </c>
       <c r="C192" t="str">
         <f>VLOOKUP(A192,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26049,9 +26169,9 @@
       <c r="A212">
         <v>4210254607</v>
       </c>
-      <c r="B212" t="e">
+      <c r="B212">
         <f>VLOOKUP(A212,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210254607</v>
       </c>
       <c r="C212" t="str">
         <f>VLOOKUP(A212,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26101,9 +26221,9 @@
       <c r="A216">
         <v>4210273020</v>
       </c>
-      <c r="B216" t="e">
+      <c r="B216">
         <f>VLOOKUP(A216,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210273020</v>
       </c>
       <c r="C216" t="str">
         <f>VLOOKUP(A216,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26270,9 +26390,9 @@
       <c r="A229">
         <v>4210398274</v>
       </c>
-      <c r="B229" t="e">
+      <c r="B229">
         <f>VLOOKUP(A229,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210398274</v>
       </c>
       <c r="C229" t="str">
         <f>VLOOKUP(A229,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26348,9 +26468,9 @@
       <c r="A235">
         <v>4210406049</v>
       </c>
-      <c r="B235" t="e">
+      <c r="B235">
         <f>VLOOKUP(A235,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210406049</v>
       </c>
       <c r="C235" t="str">
         <f>VLOOKUP(A235,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26530,9 +26650,9 @@
       <c r="A249">
         <v>4210522831</v>
       </c>
-      <c r="B249" t="e">
+      <c r="B249">
         <f>VLOOKUP(A249,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210522831</v>
       </c>
       <c r="C249" t="str">
         <f>VLOOKUP(A249,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26751,9 +26871,9 @@
       <c r="A266">
         <v>4210652133</v>
       </c>
-      <c r="B266" t="e">
+      <c r="B266">
         <f>VLOOKUP(A266,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210652133</v>
       </c>
       <c r="C266" t="str">
         <f>VLOOKUP(A266,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26855,9 +26975,9 @@
       <c r="A274">
         <v>4210689843</v>
       </c>
-      <c r="B274" t="e">
+      <c r="B274">
         <f>VLOOKUP(A274,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210689843</v>
       </c>
       <c r="C274" t="str">
         <f>VLOOKUP(A274,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27050,9 +27170,9 @@
       <c r="A289">
         <v>4211122411</v>
       </c>
-      <c r="B289" t="e">
+      <c r="B289">
         <f>VLOOKUP(A289,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211122411</v>
       </c>
       <c r="C289" t="str">
         <f>VLOOKUP(A289,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27531,9 +27651,9 @@
       <c r="A326">
         <v>4210372229</v>
       </c>
-      <c r="B326" t="e">
+      <c r="B326">
         <f>VLOOKUP(A326,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210372229</v>
       </c>
       <c r="C326" t="str">
         <f>VLOOKUP(A326,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27635,9 +27755,9 @@
       <c r="A334">
         <v>4210429692</v>
       </c>
-      <c r="B334" t="e">
+      <c r="B334">
         <f>VLOOKUP(A334,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210429692</v>
       </c>
       <c r="C334" t="str">
         <f>VLOOKUP(A334,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27791,9 +27911,9 @@
       <c r="A346">
         <v>4210229139</v>
       </c>
-      <c r="B346" t="e">
+      <c r="B346">
         <f>VLOOKUP(A346,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210229139</v>
       </c>
       <c r="C346" t="str">
         <f>VLOOKUP(A346,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28090,9 +28210,9 @@
       <c r="A369">
         <v>4210922651</v>
       </c>
-      <c r="B369" t="e">
+      <c r="B369">
         <f>VLOOKUP(A369,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210922651</v>
       </c>
       <c r="C369" t="str">
         <f>VLOOKUP(A369,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28311,9 +28431,9 @@
       <c r="A386">
         <v>4210031752</v>
       </c>
-      <c r="B386" t="e">
+      <c r="B386">
         <f>VLOOKUP(A386,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210031752</v>
       </c>
       <c r="C386" t="str">
         <f>VLOOKUP(A386,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28389,9 +28509,9 @@
       <c r="A392">
         <v>4210086965</v>
       </c>
-      <c r="B392" t="e">
+      <c r="B392">
         <f>VLOOKUP(A392,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210086965</v>
       </c>
       <c r="C392" t="str">
         <f>VLOOKUP(A392,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28454,9 +28574,9 @@
       <c r="A397">
         <v>4210151586</v>
       </c>
-      <c r="B397" t="e">
+      <c r="B397">
         <f>VLOOKUP(A397,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210151586</v>
       </c>
       <c r="C397" t="str">
         <f>VLOOKUP(A397,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28506,9 +28626,9 @@
       <c r="A401">
         <v>4210198794</v>
       </c>
-      <c r="B401" t="e">
+      <c r="B401">
         <f>VLOOKUP(A401,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210198794</v>
       </c>
       <c r="C401" t="str">
         <f>VLOOKUP(A401,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28623,9 +28743,9 @@
       <c r="A410">
         <v>4210296631</v>
       </c>
-      <c r="B410" t="e">
+      <c r="B410">
         <f>VLOOKUP(A410,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210296631</v>
       </c>
       <c r="C410" t="str">
         <f>VLOOKUP(A410,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28714,9 +28834,9 @@
       <c r="A417">
         <v>4210371025</v>
       </c>
-      <c r="B417" t="e">
+      <c r="B417">
         <f>VLOOKUP(A417,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210371025</v>
       </c>
       <c r="C417" t="str">
         <f>VLOOKUP(A417,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28935,9 +29055,9 @@
       <c r="A434">
         <v>4210514973</v>
       </c>
-      <c r="B434" t="e">
+      <c r="B434">
         <f>VLOOKUP(A434,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210514973</v>
       </c>
       <c r="C434" t="str">
         <f>VLOOKUP(A434,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29039,9 +29159,9 @@
       <c r="A442">
         <v>4210608974</v>
       </c>
-      <c r="B442" t="e">
+      <c r="B442">
         <f>VLOOKUP(A442,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210608974</v>
       </c>
       <c r="C442" t="str">
         <f>VLOOKUP(A442,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29221,9 +29341,9 @@
       <c r="A456">
         <v>4210706422</v>
       </c>
-      <c r="B456" t="e">
+      <c r="B456">
         <f>VLOOKUP(A456,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210706422</v>
       </c>
       <c r="C456" t="str">
         <f>VLOOKUP(A456,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29247,9 +29367,9 @@
       <c r="A458">
         <v>4210928075</v>
       </c>
-      <c r="B458" t="e">
+      <c r="B458">
         <f>VLOOKUP(A458,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210928075</v>
       </c>
       <c r="C458" t="str">
         <f>VLOOKUP(A458,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29260,9 +29380,9 @@
       <c r="A459">
         <v>4210273236</v>
       </c>
-      <c r="B459" t="e">
+      <c r="B459">
         <f>VLOOKUP(A459,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210273236</v>
       </c>
       <c r="C459" t="str">
         <f>VLOOKUP(A459,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29429,9 +29549,9 @@
       <c r="A472">
         <v>4211039341</v>
       </c>
-      <c r="B472" t="e">
+      <c r="B472">
         <f>VLOOKUP(A472,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211039341</v>
       </c>
       <c r="C472" t="str">
         <f>VLOOKUP(A472,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29624,9 +29744,9 @@
       <c r="A487">
         <v>4210050280</v>
       </c>
-      <c r="B487" t="e">
+      <c r="B487">
         <f>VLOOKUP(A487,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210050280</v>
       </c>
       <c r="C487" t="str">
         <f>VLOOKUP(A487,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30040,9 +30160,9 @@
       <c r="A519">
         <v>4210383149</v>
       </c>
-      <c r="B519" t="e">
+      <c r="B519">
         <f>VLOOKUP(A519,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210383149</v>
       </c>
       <c r="C519" t="str">
         <f>VLOOKUP(A519,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30534,9 +30654,9 @@
       <c r="A557">
         <v>4210597778</v>
       </c>
-      <c r="B557" t="e">
+      <c r="B557">
         <f>VLOOKUP(A557,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210597778</v>
       </c>
       <c r="C557" t="str">
         <f>VLOOKUP(A557,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30729,9 +30849,9 @@
       <c r="A572">
         <v>4210669592</v>
       </c>
-      <c r="B572" t="e">
+      <c r="B572">
         <f>VLOOKUP(A572,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210669592</v>
       </c>
       <c r="C572" t="str">
         <f>VLOOKUP(A572,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30794,9 +30914,9 @@
       <c r="A577">
         <v>4210598087</v>
       </c>
-      <c r="B577" t="e">
+      <c r="B577">
         <f>VLOOKUP(A577,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210598087</v>
       </c>
       <c r="C577" t="str">
         <f>VLOOKUP(A577,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31028,9 +31148,9 @@
       <c r="A595">
         <v>4211047440</v>
       </c>
-      <c r="B595" t="e">
+      <c r="B595">
         <f>VLOOKUP(A595,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211047440</v>
       </c>
       <c r="C595" t="str">
         <f>VLOOKUP(A595,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31288,9 +31408,9 @@
       <c r="A615">
         <v>4210128706</v>
       </c>
-      <c r="B615" t="e">
+      <c r="B615">
         <f>VLOOKUP(A615,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210128706</v>
       </c>
       <c r="C615" t="str">
         <f>VLOOKUP(A615,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31951,9 +32071,9 @@
       <c r="A666">
         <v>4210488625</v>
       </c>
-      <c r="B666" t="e">
+      <c r="B666">
         <f>VLOOKUP(A666,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210488625</v>
       </c>
       <c r="C666" t="str">
         <f>VLOOKUP(A666,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31964,9 +32084,9 @@
       <c r="A667">
         <v>4211014966</v>
       </c>
-      <c r="B667" t="e">
+      <c r="B667">
         <f>VLOOKUP(A667,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211014966</v>
       </c>
       <c r="C667" t="str">
         <f>VLOOKUP(A667,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31977,9 +32097,9 @@
       <c r="A668">
         <v>4210497292</v>
       </c>
-      <c r="B668" t="e">
+      <c r="B668">
         <f>VLOOKUP(A668,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210497292</v>
       </c>
       <c r="C668" t="str">
         <f>VLOOKUP(A668,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32341,9 +32461,9 @@
       <c r="A696">
         <v>4210099442</v>
       </c>
-      <c r="B696" t="e">
+      <c r="B696">
         <f>VLOOKUP(A696,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210099442</v>
       </c>
       <c r="C696" t="str">
         <f>VLOOKUP(A696,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32367,9 +32487,9 @@
       <c r="A698">
         <v>4210695149</v>
       </c>
-      <c r="B698" t="e">
+      <c r="B698">
         <f>VLOOKUP(A698,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210695149</v>
       </c>
       <c r="C698" t="str">
         <f>VLOOKUP(A698,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32731,9 +32851,9 @@
       <c r="A726">
         <v>4210321387</v>
       </c>
-      <c r="B726" t="e">
+      <c r="B726">
         <f>VLOOKUP(A726,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210321387</v>
       </c>
       <c r="C726" t="str">
         <f>VLOOKUP(A726,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32744,9 +32864,9 @@
       <c r="A727">
         <v>4210421903</v>
       </c>
-      <c r="B727" t="e">
+      <c r="B727">
         <f>VLOOKUP(A727,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210421903</v>
       </c>
       <c r="C727" t="str">
         <f>VLOOKUP(A727,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32783,9 +32903,9 @@
       <c r="A730">
         <v>4210020005</v>
       </c>
-      <c r="B730" t="e">
+      <c r="B730">
         <f>VLOOKUP(A730,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210020005</v>
       </c>
       <c r="C730" t="str">
         <f>VLOOKUP(A730,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33147,9 +33267,9 @@
       <c r="A758">
         <v>4210303219</v>
       </c>
-      <c r="B758" t="e">
+      <c r="B758">
         <f>VLOOKUP(A758,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210303219</v>
       </c>
       <c r="C758" t="str">
         <f>VLOOKUP(A758,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33160,9 +33280,9 @@
       <c r="A759">
         <v>4210313376</v>
       </c>
-      <c r="B759" t="e">
+      <c r="B759">
         <f>VLOOKUP(A759,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210313376</v>
       </c>
       <c r="C759" t="str">
         <f>VLOOKUP(A759,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33667,9 +33787,9 @@
       <c r="A798">
         <v>4210482370</v>
       </c>
-      <c r="B798" t="e">
+      <c r="B798">
         <f>VLOOKUP(A798,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210482370</v>
       </c>
       <c r="C798" t="str">
         <f>VLOOKUP(A798,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33927,9 +34047,9 @@
       <c r="A818">
         <v>4210533040</v>
       </c>
-      <c r="B818" t="e">
+      <c r="B818">
         <f>VLOOKUP(A818,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210533040</v>
       </c>
       <c r="C818" t="str">
         <f>VLOOKUP(A818,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33979,9 +34099,9 @@
       <c r="A822">
         <v>4210720296</v>
       </c>
-      <c r="B822" t="e">
+      <c r="B822">
         <f>VLOOKUP(A822,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210720296</v>
       </c>
       <c r="C822" t="str">
         <f>VLOOKUP(A822,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34304,9 +34424,9 @@
       <c r="A847">
         <v>4210072674</v>
       </c>
-      <c r="B847" t="e">
+      <c r="B847">
         <f>VLOOKUP(A847,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210072674</v>
       </c>
       <c r="C847" t="str">
         <f>VLOOKUP(A847,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34369,9 +34489,9 @@
       <c r="A852">
         <v>4210420793</v>
       </c>
-      <c r="B852" t="e">
+      <c r="B852">
         <f>VLOOKUP(A852,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210420793</v>
       </c>
       <c r="C852" t="str">
         <f>VLOOKUP(A852,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34382,9 +34502,9 @@
       <c r="A853">
         <v>4210104513</v>
       </c>
-      <c r="B853" t="e">
+      <c r="B853">
         <f>VLOOKUP(A853,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210104513</v>
       </c>
       <c r="C853" t="str">
         <f>VLOOKUP(A853,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34486,9 +34606,9 @@
       <c r="A861">
         <v>4210167551</v>
       </c>
-      <c r="B861" t="e">
+      <c r="B861">
         <f>VLOOKUP(A861,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210167551</v>
       </c>
       <c r="C861" t="str">
         <f>VLOOKUP(A861,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34759,9 +34879,9 @@
       <c r="A882">
         <v>4210392055</v>
       </c>
-      <c r="B882" t="e">
+      <c r="B882">
         <f>VLOOKUP(A882,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210392055</v>
       </c>
       <c r="C882" t="str">
         <f>VLOOKUP(A882,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34811,9 +34931,9 @@
       <c r="A886">
         <v>4210411973</v>
       </c>
-      <c r="B886" t="e">
+      <c r="B886">
         <f>VLOOKUP(A886,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210411973</v>
       </c>
       <c r="C886" t="str">
         <f>VLOOKUP(A886,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -35305,9 +35425,9 @@
       <c r="A924">
         <v>4210665237</v>
       </c>
-      <c r="B924" t="e">
+      <c r="B924">
         <f>VLOOKUP(A924,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210665237</v>
       </c>
       <c r="C924" t="str">
         <f>VLOOKUP(A924,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620A42D6-B17E-41D6-91D0-6F39334C7967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754697FE-C787-44AD-A867-2E6FC8A47211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8081,8 +8081,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8120,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4210588368</v>
+        <v>4211019772</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -8132,7 +8132,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4210573844</v>
+        <v>4210588368</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -8144,7 +8144,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4210717435</v>
+        <v>4210102740</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -8156,7 +8156,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4210198826</v>
+        <v>4210573844</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -8168,7 +8168,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>4210381581</v>
+        <v>4210717435</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -8180,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4210488625</v>
+        <v>4210125404</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -8192,7 +8192,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4210216114</v>
+        <v>4210198826</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -8204,7 +8204,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4210344078</v>
+        <v>4210381581</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -8216,7 +8216,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>4210371025</v>
+        <v>4210488625</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -8228,7 +8228,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>4211020605</v>
+        <v>4210509596</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -8240,7 +8240,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4210254607</v>
+        <v>4210904865</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -8252,7 +8252,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>4210556661</v>
+        <v>4210216114</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>4210127746</v>
+        <v>4210344078</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -8276,7 +8276,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>4210132639</v>
+        <v>4210371025</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -8288,7 +8288,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>4210322467</v>
+        <v>4211020605</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -8300,7 +8300,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>4210404572</v>
+        <v>4210733151</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -8312,7 +8312,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>4210689843</v>
+        <v>4210262295</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -8324,7 +8324,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>4210771684</v>
+        <v>4210420939</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -8336,7 +8336,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>4210766426</v>
+        <v>4210254607</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -8348,7 +8348,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>4210371603</v>
+        <v>4210556661</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -8360,7 +8360,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>4210406120</v>
+        <v>4210127378</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -8372,7 +8372,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>4210020005</v>
+        <v>4210127746</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -8384,7 +8384,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>4210141892</v>
+        <v>4210132639</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -8396,7 +8396,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>4210394400</v>
+        <v>4210322467</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -8408,7 +8408,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>4210413345</v>
+        <v>4210404572</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -8420,7 +8420,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>4210003837</v>
+        <v>4210405406</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -8432,7 +8432,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>4210004223</v>
+        <v>4210689843</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -8444,7 +8444,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>4210234367</v>
+        <v>4210701271</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -8456,7 +8456,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>4210533040</v>
+        <v>4210791799</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -8468,7 +8468,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4210558291</v>
+        <v>4210771684</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -8480,7 +8480,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4210635825</v>
+        <v>4210932363</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -8492,7 +8492,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4210720296</v>
+        <v>4210766426</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -8504,7 +8504,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>4210843009</v>
+        <v>4210371603</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -8516,7 +8516,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>4210213587</v>
+        <v>4210406120</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -8528,7 +8528,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4210853920</v>
+        <v>4210020005</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -8540,7 +8540,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4210447996</v>
+        <v>4210131654</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -8552,7 +8552,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4210754698</v>
+        <v>4210141892</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -8564,7 +8564,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4210542091</v>
+        <v>4210394400</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -8576,7 +8576,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>4210222026</v>
+        <v>4210394946</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -8588,7 +8588,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>4210313376</v>
+        <v>4210413345</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -8600,7 +8600,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>4210260173</v>
+        <v>4210511277</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -8612,7 +8612,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>4210033127</v>
+        <v>4210541877</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -8624,7 +8624,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>4210072674</v>
+        <v>4210003837</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -8636,7 +8636,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>4210482370</v>
+        <v>4210004223</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -8648,7 +8648,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>4210167551</v>
+        <v>4210234367</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -8660,7 +8660,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>4210523147</v>
+        <v>4210391139</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -8672,7 +8672,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>4210406049</v>
+        <v>4210533040</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -8684,7 +8684,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>4210639267</v>
+        <v>4210558291</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -8696,7 +8696,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>4210535673</v>
+        <v>4210606361</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -8708,7 +8708,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>4210500818</v>
+        <v>4210635825</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -8720,7 +8720,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4210062548</v>
+        <v>4210720296</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -8732,7 +8732,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4210133586</v>
+        <v>4210843009</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -8744,7 +8744,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>4210248451</v>
+        <v>4210563716</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -8756,7 +8756,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>4210272828</v>
+        <v>4210213587</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -8768,7 +8768,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>4210320285</v>
+        <v>4210600446</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -8780,7 +8780,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>4210403019</v>
+        <v>4210853920</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -8792,7 +8792,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>4210420096</v>
+        <v>4210447996</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -8804,7 +8804,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>4210597778</v>
+        <v>4210754698</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>4210632710</v>
+        <v>4210542091</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -8828,7 +8828,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>4210690272</v>
+        <v>4210222026</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -8840,7 +8840,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>4210695149</v>
+        <v>4210313376</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -8852,7 +8852,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>4210706422</v>
+        <v>4210260173</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -8864,7 +8864,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>4210920767</v>
+        <v>4210033127</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -8876,7 +8876,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>4210955715</v>
+        <v>4210072674</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -8888,7 +8888,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>4210665237</v>
+        <v>4210482370</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -8900,7 +8900,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>4210208750</v>
+        <v>4210167551</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -8912,7 +8912,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>4210586900</v>
+        <v>4210843672</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -8924,7 +8924,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>4210433177</v>
+        <v>4210523147</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -8936,7 +8936,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>4210911313</v>
+        <v>4210406049</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -8948,7 +8948,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>4211122411</v>
+        <v>4210639267</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -8960,7 +8960,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>4210855921</v>
+        <v>4210598540</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -8972,7 +8972,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>4210009062</v>
+        <v>4210535673</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -8984,7 +8984,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>4210648248</v>
+        <v>4210500818</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -8996,7 +8996,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>4210356297</v>
+        <v>4210003521</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -9008,7 +9008,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>4210411973</v>
+        <v>4210062548</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -9020,7 +9020,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>4210273020</v>
+        <v>4210133586</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -9032,7 +9032,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>4210921232</v>
+        <v>4210248451</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -9044,7 +9044,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>4211189006</v>
+        <v>4210272828</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -9056,7 +9056,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>4210621591</v>
+        <v>4210320285</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -9068,7 +9068,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>4210392055</v>
+        <v>4210396939</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -9080,7 +9080,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>4210059000</v>
+        <v>4210403019</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -9092,7 +9092,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>4210073431</v>
+        <v>4210420096</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -9104,7 +9104,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>4210222465</v>
+        <v>4210597778</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -9116,7 +9116,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>4210321387</v>
+        <v>4210632710</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -9128,7 +9128,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>4210497292</v>
+        <v>4210690272</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -9140,7 +9140,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>4210151586</v>
+        <v>4210695149</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -9152,7 +9152,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>4211014966</v>
+        <v>4210706422</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -9164,7 +9164,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>4211039341</v>
+        <v>4210885456</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -9176,7 +9176,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>4210128315</v>
+        <v>4210920767</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -9188,7 +9188,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>4210201732</v>
+        <v>4210955715</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -9200,7 +9200,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>4210267013</v>
+        <v>4211143631</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -9212,7 +9212,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>4210199520</v>
+        <v>4210665237</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -9224,7 +9224,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>4210354861</v>
+        <v>4210208750</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -9236,7 +9236,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>4210354387</v>
+        <v>4210586900</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -9248,7 +9248,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>4210043894</v>
+        <v>4210433177</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -9260,7 +9260,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>4210122182</v>
+        <v>4210911313</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -9272,7 +9272,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>4210142349</v>
+        <v>4211122411</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -9284,7 +9284,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>4210383149</v>
+        <v>4210855921</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -9296,7 +9296,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>4210769887</v>
+        <v>4210009062</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -9308,7 +9308,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>4210897066</v>
+        <v>4210648248</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -9320,7 +9320,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>4210117447</v>
+        <v>4210356297</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -9332,7 +9332,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>4210462732</v>
+        <v>4210411973</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -9344,7 +9344,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>4210047154</v>
+        <v>4210273020</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -9356,7 +9356,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>4210922651</v>
+        <v>4210264695</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -9368,7 +9368,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>4210155613</v>
+        <v>4210921232</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -9380,7 +9380,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>4210167563</v>
+        <v>4211189006</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -9392,7 +9392,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>4210079772</v>
+        <v>4210621591</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -9404,7 +9404,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>4210166153</v>
+        <v>4210392055</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -9416,7 +9416,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>4211047440</v>
+        <v>4210059000</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -9428,7 +9428,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>4210230359</v>
+        <v>4211050835</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -9440,7 +9440,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>4210321845</v>
+        <v>4210073431</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -9452,7 +9452,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>4210420336</v>
+        <v>4210222465</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -9464,7 +9464,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>4210671598</v>
+        <v>4210321387</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -9476,7 +9476,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>4210396117</v>
+        <v>4210497292</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -9488,7 +9488,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>4210050876</v>
+        <v>4210185227</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -9500,7 +9500,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>4210178048</v>
+        <v>4210151586</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -9512,7 +9512,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>4210282624</v>
+        <v>4211014966</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -9524,7 +9524,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>4210329350</v>
+        <v>4211039341</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -9536,7 +9536,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>4210928075</v>
+        <v>4210128315</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -9548,7 +9548,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>4210005081</v>
+        <v>4210201732</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -9560,7 +9560,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>4210065219</v>
+        <v>4210267013</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -9572,7 +9572,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>4210941041</v>
+        <v>4210385160</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -9584,7 +9584,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>4210500697</v>
+        <v>4211117196</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -9596,7 +9596,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>4210113372</v>
+        <v>4210199520</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -9608,7 +9608,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>4210598087</v>
+        <v>4210354861</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -9620,7 +9620,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>4210610217</v>
+        <v>4210461415</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -9632,7 +9632,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>4210646368</v>
+        <v>4210354387</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -9644,7 +9644,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>4210596404</v>
+        <v>4210386755</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -9656,7 +9656,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>4210533998</v>
+        <v>4210043894</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -9668,7 +9668,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>4210162326</v>
+        <v>4210122182</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -9680,7 +9680,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>4210514973</v>
+        <v>4210142349</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -9692,7 +9692,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>4210296631</v>
+        <v>4210383149</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -9704,7 +9704,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>4210608974</v>
+        <v>4210769887</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -9716,7 +9716,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>4210301184</v>
+        <v>4210897066</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -9728,7 +9728,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>4210691687</v>
+        <v>4210117447</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -9740,7 +9740,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>4210128706</v>
+        <v>4210462732</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -9752,7 +9752,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>4210429692</v>
+        <v>4210176463</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
@@ -9764,7 +9764,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>4210487716</v>
+        <v>4210047154</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -9776,7 +9776,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>4210525608</v>
+        <v>4210922651</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
@@ -9788,7 +9788,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>4210697405</v>
+        <v>4210155613</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -9800,7 +9800,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>4210871317</v>
+        <v>4210167563</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -9812,7 +9812,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>4210198794</v>
+        <v>4210194296</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -9824,7 +9824,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>4210200416</v>
+        <v>4210452807</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -9836,7 +9836,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>4210211263</v>
+        <v>4210523627</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -9848,7 +9848,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>4210841799</v>
+        <v>4210079772</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -9860,7 +9860,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>4210003908</v>
+        <v>4210166153</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -9872,7 +9872,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>4210244610</v>
+        <v>4211047440</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -9884,7 +9884,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>4210496119</v>
+        <v>4210230359</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -9896,7 +9896,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>4210521327</v>
+        <v>4210321845</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -9908,7 +9908,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>4210050280</v>
+        <v>4210420336</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -9920,7 +9920,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>4210372229</v>
+        <v>4210671598</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
@@ -9932,7 +9932,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>4210359992</v>
+        <v>4210851034</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -9944,7 +9944,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>4210380505</v>
+        <v>4210396117</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -9956,7 +9956,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>4210114589</v>
+        <v>4210020577</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -9968,7 +9968,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>4210273236</v>
+        <v>4210050876</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
@@ -9980,7 +9980,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>4210270390</v>
+        <v>4210178048</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -9992,7 +9992,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>4210548527</v>
+        <v>4210183791</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -10004,7 +10004,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>4210378870</v>
+        <v>4210384491</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -10016,7 +10016,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>4210420793</v>
+        <v>4210282624</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -10028,7 +10028,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>4210421903</v>
+        <v>4210329350</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -10040,7 +10040,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>4210178645</v>
+        <v>4210928075</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
@@ -10052,7 +10052,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>4210740672</v>
+        <v>4210005081</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -10064,7 +10064,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>4210031752</v>
+        <v>4210716858</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -10076,7 +10076,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>4210214619</v>
+        <v>4210065219</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -10088,7 +10088,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>4210420791</v>
+        <v>4210941041</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
@@ -10100,7 +10100,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>4210477209</v>
+        <v>4210500697</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -10112,7 +10112,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>4210086965</v>
+        <v>4210113372</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
@@ -10124,7 +10124,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>4210398274</v>
+        <v>4210598087</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -10136,7 +10136,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>4210062240</v>
+        <v>4210610217</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
@@ -10148,7 +10148,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>4210143635</v>
+        <v>4210646368</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -10160,7 +10160,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>4210522831</v>
+        <v>4210596404</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
@@ -10172,7 +10172,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>4210036943</v>
+        <v>4210533998</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -10184,7 +10184,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>4210003083</v>
+        <v>4210162326</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
@@ -10196,7 +10196,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>4210919520</v>
+        <v>4210514973</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -10208,7 +10208,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>4210104513</v>
+        <v>4210296631</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -10220,7 +10220,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>4210483345</v>
+        <v>4210619540</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -10232,7 +10232,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>4210552779</v>
+        <v>4210608974</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
@@ -10244,7 +10244,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>4210718468</v>
+        <v>4210301184</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
@@ -10256,7 +10256,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>4210974262</v>
+        <v>4210414276</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
@@ -10268,7 +10268,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>4210247519</v>
+        <v>4210691687</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
@@ -10280,7 +10280,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>4210652133</v>
+        <v>4210128706</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -10292,7 +10292,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>4210099442</v>
+        <v>4210429692</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
@@ -10304,7 +10304,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>4210312209</v>
+        <v>4210457601</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
@@ -10316,7 +10316,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>4210399799</v>
+        <v>4210487716</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
@@ -10328,7 +10328,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>4210960649</v>
+        <v>4210525608</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
@@ -10340,7 +10340,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>4210337818</v>
+        <v>4210697405</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -10352,7 +10352,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>4210168043</v>
+        <v>4210871317</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -10364,7 +10364,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>4210303219</v>
+        <v>4210198794</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -10376,7 +10376,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>4210446245</v>
+        <v>4210200416</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -10388,7 +10388,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>4210461149</v>
+        <v>4210211263</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -10400,7 +10400,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>4210669592</v>
+        <v>4210841799</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -10412,7 +10412,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>4210534852</v>
+        <v>4210003908</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -10424,7 +10424,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>4210001844</v>
+        <v>4210113485</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
@@ -10436,7 +10436,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>4210109667</v>
+        <v>4210185045</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
@@ -10448,7 +10448,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>4210548325</v>
+        <v>4210244610</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
@@ -10460,7 +10460,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>4210554776</v>
+        <v>4210496119</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -10472,7 +10472,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>4210622646</v>
+        <v>4210521327</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
@@ -10484,7 +10484,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>4210905356</v>
+        <v>4210050280</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
@@ -10496,7 +10496,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>4210544812</v>
+        <v>4210372229</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -10508,7 +10508,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>4210918088</v>
+        <v>4210535776</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
@@ -10520,7 +10520,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>4210276653</v>
+        <v>4210359992</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
@@ -10532,7 +10532,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>4210727818</v>
+        <v>4210380505</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
@@ -10543,7 +10543,9 @@
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="B205" s="1"/>
+      <c r="B205" s="1">
+        <v>4210502346</v>
+      </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
       </c>
@@ -10553,7 +10555,9 @@
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="B206" s="1"/>
+      <c r="B206" s="1">
+        <v>4210114589</v>
+      </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
       </c>
@@ -10563,7 +10567,9 @@
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="B207" s="1"/>
+      <c r="B207" s="1">
+        <v>4210273236</v>
+      </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
       </c>
@@ -10573,7 +10579,9 @@
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="B208" s="1"/>
+      <c r="B208" s="1">
+        <v>4210270390</v>
+      </c>
       <c r="C208" s="1" t="s">
         <v>2</v>
       </c>
@@ -10583,7 +10591,9 @@
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="B209" s="1"/>
+      <c r="B209" s="1">
+        <v>4210236802</v>
+      </c>
       <c r="C209" s="1" t="s">
         <v>2</v>
       </c>
@@ -10593,7 +10603,9 @@
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
-      <c r="B210" s="1"/>
+      <c r="B210" s="1">
+        <v>4210342956</v>
+      </c>
       <c r="C210" s="1" t="s">
         <v>2</v>
       </c>
@@ -10603,7 +10615,9 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="B211" s="1"/>
+      <c r="B211" s="1">
+        <v>4210548527</v>
+      </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
       </c>
@@ -10613,7 +10627,9 @@
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
-      <c r="B212" s="1"/>
+      <c r="B212" s="1">
+        <v>4210347993</v>
+      </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
       </c>
@@ -10623,7 +10639,9 @@
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="B213" s="1"/>
+      <c r="B213" s="1">
+        <v>4210309982</v>
+      </c>
       <c r="C213" s="1" t="s">
         <v>2</v>
       </c>
@@ -10633,7 +10651,9 @@
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
-      <c r="B214" s="1"/>
+      <c r="B214" s="1">
+        <v>4210378870</v>
+      </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
       </c>
@@ -10643,7 +10663,9 @@
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
-      <c r="B215" s="1"/>
+      <c r="B215" s="1">
+        <v>4210702558</v>
+      </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
       </c>
@@ -10653,7 +10675,9 @@
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-      <c r="B216" s="1"/>
+      <c r="B216" s="1">
+        <v>4210420793</v>
+      </c>
       <c r="C216" s="1" t="s">
         <v>2</v>
       </c>
@@ -10663,7 +10687,9 @@
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="B217" s="1"/>
+      <c r="B217" s="1">
+        <v>4210879411</v>
+      </c>
       <c r="C217" s="1" t="s">
         <v>2</v>
       </c>
@@ -10673,7 +10699,9 @@
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
-      <c r="B218" s="1"/>
+      <c r="B218" s="1">
+        <v>4210421903</v>
+      </c>
       <c r="C218" s="1" t="s">
         <v>2</v>
       </c>
@@ -10683,7 +10711,9 @@
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
-      <c r="B219" s="1"/>
+      <c r="B219" s="1">
+        <v>4210654402</v>
+      </c>
       <c r="C219" s="1" t="s">
         <v>2</v>
       </c>
@@ -10693,7 +10723,9 @@
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
-      <c r="B220" s="1"/>
+      <c r="B220" s="1">
+        <v>4210178645</v>
+      </c>
       <c r="C220" s="1" t="s">
         <v>2</v>
       </c>
@@ -10703,7 +10735,9 @@
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="B221" s="1"/>
+      <c r="B221" s="1">
+        <v>4210740672</v>
+      </c>
       <c r="C221" s="1" t="s">
         <v>2</v>
       </c>
@@ -10713,7 +10747,9 @@
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="B222" s="1"/>
+      <c r="B222" s="1">
+        <v>4210031752</v>
+      </c>
       <c r="C222" s="1" t="s">
         <v>2</v>
       </c>
@@ -10723,7 +10759,9 @@
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
-      <c r="B223" s="1"/>
+      <c r="B223" s="1">
+        <v>4210214619</v>
+      </c>
       <c r="C223" s="1" t="s">
         <v>2</v>
       </c>
@@ -10733,7 +10771,9 @@
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
-      <c r="B224" s="1"/>
+      <c r="B224" s="1">
+        <v>4210420791</v>
+      </c>
       <c r="C224" s="1" t="s">
         <v>2</v>
       </c>
@@ -10743,7 +10783,9 @@
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="B225" s="1"/>
+      <c r="B225" s="1">
+        <v>4210477209</v>
+      </c>
       <c r="C225" s="1" t="s">
         <v>2</v>
       </c>
@@ -10753,7 +10795,9 @@
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="B226" s="1"/>
+      <c r="B226" s="1">
+        <v>4210866906</v>
+      </c>
       <c r="C226" s="1" t="s">
         <v>2</v>
       </c>
@@ -10763,7 +10807,9 @@
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
-      <c r="B227" s="1"/>
+      <c r="B227" s="1">
+        <v>4210086965</v>
+      </c>
       <c r="C227" s="1" t="s">
         <v>2</v>
       </c>
@@ -10773,7 +10819,9 @@
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
-      <c r="B228"/>
+      <c r="B228">
+        <v>4210398274</v>
+      </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
       </c>
@@ -10783,7 +10831,9 @@
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
-      <c r="B229" s="1"/>
+      <c r="B229" s="1">
+        <v>4210062240</v>
+      </c>
       <c r="C229" s="1" t="s">
         <v>2</v>
       </c>
@@ -10793,7 +10843,9 @@
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
-      <c r="B230" s="1"/>
+      <c r="B230" s="1">
+        <v>4210143635</v>
+      </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
       </c>
@@ -10803,7 +10855,9 @@
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="B231" s="1"/>
+      <c r="B231" s="1">
+        <v>4210179047</v>
+      </c>
       <c r="C231" s="1" t="s">
         <v>2</v>
       </c>
@@ -10813,7 +10867,9 @@
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="B232" s="1"/>
+      <c r="B232" s="1">
+        <v>4210405046</v>
+      </c>
       <c r="C232" s="1" t="s">
         <v>2</v>
       </c>
@@ -10823,7 +10879,9 @@
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="B233" s="1"/>
+      <c r="B233" s="1">
+        <v>4210522831</v>
+      </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
       </c>
@@ -10833,7 +10891,9 @@
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
-      <c r="B234" s="1"/>
+      <c r="B234" s="1">
+        <v>4210560300</v>
+      </c>
       <c r="C234" s="1" t="s">
         <v>2</v>
       </c>
@@ -10843,7 +10903,9 @@
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="B235" s="1"/>
+      <c r="B235" s="1">
+        <v>4210036943</v>
+      </c>
       <c r="C235" s="1" t="s">
         <v>2</v>
       </c>
@@ -10853,7 +10915,9 @@
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
-      <c r="B236" s="1"/>
+      <c r="B236" s="1">
+        <v>4210003083</v>
+      </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
       </c>
@@ -10863,7 +10927,9 @@
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="B237" s="1"/>
+      <c r="B237" s="1">
+        <v>4210919520</v>
+      </c>
       <c r="C237" s="1" t="s">
         <v>2</v>
       </c>
@@ -10873,7 +10939,9 @@
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="B238" s="1"/>
+      <c r="B238" s="1">
+        <v>4210104513</v>
+      </c>
       <c r="C238" s="1" t="s">
         <v>2</v>
       </c>
@@ -10883,7 +10951,9 @@
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="B239" s="1"/>
+      <c r="B239" s="1">
+        <v>4210414207</v>
+      </c>
       <c r="C239" s="1" t="s">
         <v>2</v>
       </c>
@@ -10893,7 +10963,9 @@
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
-      <c r="B240" s="1"/>
+      <c r="B240" s="1">
+        <v>4210483345</v>
+      </c>
       <c r="C240" s="1" t="s">
         <v>2</v>
       </c>
@@ -10903,7 +10975,9 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="B241" s="1"/>
+      <c r="B241" s="1">
+        <v>4210552779</v>
+      </c>
       <c r="C241" s="1" t="s">
         <v>2</v>
       </c>
@@ -10913,7 +10987,9 @@
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
-      <c r="B242" s="1"/>
+      <c r="B242" s="1">
+        <v>4210718468</v>
+      </c>
       <c r="C242" s="1" t="s">
         <v>2</v>
       </c>
@@ -10923,7 +10999,9 @@
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
-      <c r="B243" s="1"/>
+      <c r="B243" s="1">
+        <v>4210974262</v>
+      </c>
       <c r="C243" s="1" t="s">
         <v>2</v>
       </c>
@@ -10933,7 +11011,9 @@
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
-      <c r="B244" s="1"/>
+      <c r="B244" s="1">
+        <v>4210247519</v>
+      </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
       </c>
@@ -10943,7 +11023,9 @@
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
-      <c r="B245" s="1"/>
+      <c r="B245" s="1">
+        <v>4210652133</v>
+      </c>
       <c r="C245" s="1" t="s">
         <v>2</v>
       </c>
@@ -10953,7 +11035,9 @@
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="B246" s="1"/>
+      <c r="B246" s="1">
+        <v>4210099442</v>
+      </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
       </c>
@@ -10963,7 +11047,9 @@
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
-      <c r="B247" s="1"/>
+      <c r="B247" s="1">
+        <v>4210312209</v>
+      </c>
       <c r="C247" s="1" t="s">
         <v>2</v>
       </c>
@@ -10973,7 +11059,9 @@
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
-      <c r="B248" s="1"/>
+      <c r="B248" s="1">
+        <v>4210399799</v>
+      </c>
       <c r="C248" s="1" t="s">
         <v>2</v>
       </c>
@@ -10983,7 +11071,9 @@
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
-      <c r="B249" s="1"/>
+      <c r="B249" s="1">
+        <v>4210960649</v>
+      </c>
       <c r="C249" s="1" t="s">
         <v>2</v>
       </c>
@@ -10993,7 +11083,9 @@
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
-      <c r="B250" s="1"/>
+      <c r="B250" s="1">
+        <v>4210337818</v>
+      </c>
       <c r="C250" s="1" t="s">
         <v>2</v>
       </c>
@@ -11003,7 +11095,9 @@
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="B251" s="1"/>
+      <c r="B251" s="1">
+        <v>4210168043</v>
+      </c>
       <c r="C251" s="1" t="s">
         <v>2</v>
       </c>
@@ -11013,7 +11107,9 @@
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="B252" s="1"/>
+      <c r="B252" s="1">
+        <v>4210303219</v>
+      </c>
       <c r="C252" s="1" t="s">
         <v>2</v>
       </c>
@@ -11023,7 +11119,9 @@
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="B253" s="1"/>
+      <c r="B253" s="1">
+        <v>4210446245</v>
+      </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
       </c>
@@ -11033,7 +11131,9 @@
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
-      <c r="B254" s="1"/>
+      <c r="B254" s="1">
+        <v>4210461149</v>
+      </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
       </c>
@@ -11043,7 +11143,9 @@
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="B255" s="1"/>
+      <c r="B255" s="1">
+        <v>4210669592</v>
+      </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
       </c>
@@ -11053,7 +11155,9 @@
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="B256" s="1"/>
+      <c r="B256" s="1">
+        <v>4210534852</v>
+      </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
       </c>
@@ -11063,7 +11167,9 @@
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="B257" s="1"/>
+      <c r="B257" s="1">
+        <v>4210001844</v>
+      </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
       </c>
@@ -11073,7 +11179,9 @@
         <f t="shared" ref="A258:A321" si="4">+A257+1</f>
         <v>257</v>
       </c>
-      <c r="B258" s="1"/>
+      <c r="B258" s="1">
+        <v>4210109667</v>
+      </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
       </c>
@@ -11083,7 +11191,9 @@
         <f t="shared" si="4"/>
         <v>258</v>
       </c>
-      <c r="B259" s="1"/>
+      <c r="B259" s="1">
+        <v>4210548325</v>
+      </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
       </c>
@@ -11093,7 +11203,9 @@
         <f t="shared" si="4"/>
         <v>259</v>
       </c>
-      <c r="B260" s="1"/>
+      <c r="B260" s="1">
+        <v>4210554776</v>
+      </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
       </c>
@@ -11103,7 +11215,9 @@
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
-      <c r="B261" s="1"/>
+      <c r="B261" s="1">
+        <v>4210622646</v>
+      </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
       </c>
@@ -11113,7 +11227,9 @@
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
-      <c r="B262" s="1"/>
+      <c r="B262" s="1">
+        <v>4210905356</v>
+      </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
       </c>
@@ -11123,7 +11239,9 @@
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
-      <c r="B263" s="1"/>
+      <c r="B263" s="1">
+        <v>4210544812</v>
+      </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
       </c>
@@ -11133,7 +11251,9 @@
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
-      <c r="B264" s="1"/>
+      <c r="B264" s="1">
+        <v>4210374075</v>
+      </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
       </c>
@@ -11143,7 +11263,9 @@
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
-      <c r="B265" s="1"/>
+      <c r="B265" s="1">
+        <v>4210918088</v>
+      </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
       </c>
@@ -11153,7 +11275,9 @@
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
-      <c r="B266" s="1"/>
+      <c r="B266" s="1">
+        <v>4210276653</v>
+      </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
       </c>
@@ -11163,7 +11287,9 @@
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
-      <c r="B267" s="1"/>
+      <c r="B267" s="1">
+        <v>4210671668</v>
+      </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
       </c>
@@ -11173,7 +11299,9 @@
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
-      <c r="B268" s="1"/>
+      <c r="B268" s="1">
+        <v>4210727818</v>
+      </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
       </c>
@@ -24245,9 +24373,9 @@
       <c r="A64">
         <v>4210185227</v>
       </c>
-      <c r="B64" t="e">
+      <c r="B64">
         <f>VLOOKUP(A64,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210185227</v>
       </c>
       <c r="C64" t="str">
         <f>VLOOKUP(A64,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24349,9 +24477,9 @@
       <c r="A72">
         <v>4210236802</v>
       </c>
-      <c r="B72" t="e">
+      <c r="B72">
         <f>VLOOKUP(A72,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210236802</v>
       </c>
       <c r="C72" t="str">
         <f>VLOOKUP(A72,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24492,9 +24620,9 @@
       <c r="A83">
         <v>4210127378</v>
       </c>
-      <c r="B83" t="e">
+      <c r="B83">
         <f>VLOOKUP(A83,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210127378</v>
       </c>
       <c r="C83" t="str">
         <f>VLOOKUP(A83,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24544,9 +24672,9 @@
       <c r="A87">
         <v>4210347993</v>
       </c>
-      <c r="B87" t="e">
+      <c r="B87">
         <f>VLOOKUP(A87,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210347993</v>
       </c>
       <c r="C87" t="str">
         <f>VLOOKUP(A87,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24635,9 +24763,9 @@
       <c r="A94">
         <v>4210391139</v>
       </c>
-      <c r="B94" t="e">
+      <c r="B94">
         <f>VLOOKUP(A94,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210391139</v>
       </c>
       <c r="C94" t="str">
         <f>VLOOKUP(A94,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24856,9 +24984,9 @@
       <c r="A111">
         <v>4210461415</v>
       </c>
-      <c r="B111" t="e">
+      <c r="B111">
         <f>VLOOKUP(A111,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210461415</v>
       </c>
       <c r="C111" t="str">
         <f>VLOOKUP(A111,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25025,9 +25153,9 @@
       <c r="A124">
         <v>4210932363</v>
       </c>
-      <c r="B124" t="e">
+      <c r="B124">
         <f>VLOOKUP(A124,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210932363</v>
       </c>
       <c r="C124" t="str">
         <f>VLOOKUP(A124,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25051,9 +25179,9 @@
       <c r="A126">
         <v>4210535776</v>
       </c>
-      <c r="B126" t="e">
+      <c r="B126">
         <f>VLOOKUP(A126,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210535776</v>
       </c>
       <c r="C126" t="str">
         <f>VLOOKUP(A126,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25623,9 +25751,9 @@
       <c r="A170">
         <v>4211143631</v>
       </c>
-      <c r="B170" t="e">
+      <c r="B170">
         <f>VLOOKUP(A170,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211143631</v>
       </c>
       <c r="C170" t="str">
         <f>VLOOKUP(A170,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25688,9 +25816,9 @@
       <c r="A175">
         <v>4210791799</v>
       </c>
-      <c r="B175" t="e">
+      <c r="B175">
         <f>VLOOKUP(A175,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210791799</v>
       </c>
       <c r="C175" t="str">
         <f>VLOOKUP(A175,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25870,9 +25998,9 @@
       <c r="A189">
         <v>4210102740</v>
       </c>
-      <c r="B189" t="e">
+      <c r="B189">
         <f>VLOOKUP(A189,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210102740</v>
       </c>
       <c r="C189" t="str">
         <f>VLOOKUP(A189,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26052,9 +26180,9 @@
       <c r="A203">
         <v>4210179047</v>
       </c>
-      <c r="B203" t="e">
+      <c r="B203">
         <f>VLOOKUP(A203,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210179047</v>
       </c>
       <c r="C203" t="str">
         <f>VLOOKUP(A203,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26195,9 +26323,9 @@
       <c r="A214">
         <v>4210264695</v>
       </c>
-      <c r="B214" t="e">
+      <c r="B214">
         <f>VLOOKUP(A214,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210264695</v>
       </c>
       <c r="C214" t="str">
         <f>VLOOKUP(A214,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26377,9 +26505,9 @@
       <c r="A228">
         <v>4210396939</v>
       </c>
-      <c r="B228" t="e">
+      <c r="B228">
         <f>VLOOKUP(A228,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210396939</v>
       </c>
       <c r="C228" t="str">
         <f>VLOOKUP(A228,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26442,9 +26570,9 @@
       <c r="A233">
         <v>4210405046</v>
       </c>
-      <c r="B233" t="e">
+      <c r="B233">
         <f>VLOOKUP(A233,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210405046</v>
       </c>
       <c r="C233" t="str">
         <f>VLOOKUP(A233,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26767,9 +26895,9 @@
       <c r="A258">
         <v>4210606361</v>
       </c>
-      <c r="B258" t="e">
+      <c r="B258">
         <f>VLOOKUP(A258,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210606361</v>
       </c>
       <c r="C258" t="str">
         <f>VLOOKUP(A258,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26923,9 +27051,9 @@
       <c r="A270">
         <v>4210885456</v>
       </c>
-      <c r="B270" t="e">
+      <c r="B270">
         <f>VLOOKUP(A270,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210885456</v>
       </c>
       <c r="C270" t="str">
         <f>VLOOKUP(A270,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26949,9 +27077,9 @@
       <c r="A272">
         <v>4210457601</v>
       </c>
-      <c r="B272" t="e">
+      <c r="B272">
         <f>VLOOKUP(A272,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210457601</v>
       </c>
       <c r="C272" t="str">
         <f>VLOOKUP(A272,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27040,9 +27168,9 @@
       <c r="A279">
         <v>4210716858</v>
       </c>
-      <c r="B279" t="e">
+      <c r="B279">
         <f>VLOOKUP(A279,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210716858</v>
       </c>
       <c r="C279" t="str">
         <f>VLOOKUP(A279,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27144,9 +27272,9 @@
       <c r="A287">
         <v>4210342956</v>
       </c>
-      <c r="B287" t="e">
+      <c r="B287">
         <f>VLOOKUP(A287,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210342956</v>
       </c>
       <c r="C287" t="str">
         <f>VLOOKUP(A287,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27248,9 +27376,9 @@
       <c r="A295">
         <v>4210020577</v>
       </c>
-      <c r="B295" t="e">
+      <c r="B295">
         <f>VLOOKUP(A295,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210020577</v>
       </c>
       <c r="C295" t="str">
         <f>VLOOKUP(A295,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27352,9 +27480,9 @@
       <c r="A303">
         <v>4210194296</v>
       </c>
-      <c r="B303" t="e">
+      <c r="B303">
         <f>VLOOKUP(A303,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210194296</v>
       </c>
       <c r="C303" t="str">
         <f>VLOOKUP(A303,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27664,9 +27792,9 @@
       <c r="A327">
         <v>4210394946</v>
       </c>
-      <c r="B327" t="e">
+      <c r="B327">
         <f>VLOOKUP(A327,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210394946</v>
       </c>
       <c r="C327" t="str">
         <f>VLOOKUP(A327,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27690,9 +27818,9 @@
       <c r="A329">
         <v>4210374075</v>
       </c>
-      <c r="B329" t="e">
+      <c r="B329">
         <f>VLOOKUP(A329,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210374075</v>
       </c>
       <c r="C329" t="str">
         <f>VLOOKUP(A329,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27768,9 +27896,9 @@
       <c r="A335">
         <v>4210405406</v>
       </c>
-      <c r="B335" t="e">
+      <c r="B335">
         <f>VLOOKUP(A335,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210405406</v>
       </c>
       <c r="C335" t="str">
         <f>VLOOKUP(A335,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28288,9 +28416,9 @@
       <c r="A375">
         <v>4211117196</v>
       </c>
-      <c r="B375" t="e">
+      <c r="B375">
         <f>VLOOKUP(A375,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211117196</v>
       </c>
       <c r="C375" t="str">
         <f>VLOOKUP(A375,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28392,9 +28520,9 @@
       <c r="A383">
         <v>4210003521</v>
       </c>
-      <c r="B383" t="e">
+      <c r="B383">
         <f>VLOOKUP(A383,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210003521</v>
       </c>
       <c r="C383" t="str">
         <f>VLOOKUP(A383,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28717,9 +28845,9 @@
       <c r="A408">
         <v>4210262295</v>
       </c>
-      <c r="B408" t="e">
+      <c r="B408">
         <f>VLOOKUP(A408,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210262295</v>
       </c>
       <c r="C408" t="str">
         <f>VLOOKUP(A408,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29796,9 +29924,9 @@
       <c r="A491">
         <v>4210125404</v>
       </c>
-      <c r="B491" t="e">
+      <c r="B491">
         <f>VLOOKUP(A491,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210125404</v>
       </c>
       <c r="C491" t="str">
         <f>VLOOKUP(A491,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29965,9 +30093,9 @@
       <c r="A504">
         <v>4210843672</v>
       </c>
-      <c r="B504" t="e">
+      <c r="B504">
         <f>VLOOKUP(A504,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210843672</v>
       </c>
       <c r="C504" t="str">
         <f>VLOOKUP(A504,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30173,9 +30301,9 @@
       <c r="A520">
         <v>4210384491</v>
       </c>
-      <c r="B520" t="e">
+      <c r="B520">
         <f>VLOOKUP(A520,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210384491</v>
       </c>
       <c r="C520" t="str">
         <f>VLOOKUP(A520,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30251,9 +30379,9 @@
       <c r="A526">
         <v>4210414276</v>
       </c>
-      <c r="B526" t="e">
+      <c r="B526">
         <f>VLOOKUP(A526,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210414276</v>
       </c>
       <c r="C526" t="str">
         <f>VLOOKUP(A526,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30472,9 +30600,9 @@
       <c r="A543">
         <v>4210511277</v>
       </c>
-      <c r="B543" t="e">
+      <c r="B543">
         <f>VLOOKUP(A543,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210511277</v>
       </c>
       <c r="C543" t="str">
         <f>VLOOKUP(A543,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30550,9 +30678,9 @@
       <c r="A549">
         <v>4210560300</v>
       </c>
-      <c r="B549" t="e">
+      <c r="B549">
         <f>VLOOKUP(A549,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210560300</v>
       </c>
       <c r="C549" t="str">
         <f>VLOOKUP(A549,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30563,9 +30691,9 @@
       <c r="A550">
         <v>4210185045</v>
       </c>
-      <c r="B550" t="e">
+      <c r="B550">
         <f>VLOOKUP(A550,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210185045</v>
       </c>
       <c r="C550" t="str">
         <f>VLOOKUP(A550,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30667,9 +30795,9 @@
       <c r="A558">
         <v>4210598540</v>
       </c>
-      <c r="B558" t="e">
+      <c r="B558">
         <f>VLOOKUP(A558,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210598540</v>
       </c>
       <c r="C558" t="str">
         <f>VLOOKUP(A558,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30862,9 +30990,9 @@
       <c r="A573">
         <v>4210671668</v>
       </c>
-      <c r="B573" t="e">
+      <c r="B573">
         <f>VLOOKUP(A573,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210671668</v>
       </c>
       <c r="C573" t="str">
         <f>VLOOKUP(A573,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30901,9 +31029,9 @@
       <c r="A576">
         <v>4210563716</v>
       </c>
-      <c r="B576" t="e">
+      <c r="B576">
         <f>VLOOKUP(A576,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210563716</v>
       </c>
       <c r="C576" t="str">
         <f>VLOOKUP(A576,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31096,9 +31224,9 @@
       <c r="A591">
         <v>4211019772</v>
       </c>
-      <c r="B591" t="e">
+      <c r="B591">
         <f>VLOOKUP(A591,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211019772</v>
       </c>
       <c r="C591" t="str">
         <f>VLOOKUP(A591,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31460,9 +31588,9 @@
       <c r="A619">
         <v>4210183791</v>
       </c>
-      <c r="B619" t="e">
+      <c r="B619">
         <f>VLOOKUP(A619,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210183791</v>
       </c>
       <c r="C619" t="str">
         <f>VLOOKUP(A619,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31759,9 +31887,9 @@
       <c r="A642">
         <v>4210385160</v>
       </c>
-      <c r="B642" t="e">
+      <c r="B642">
         <f>VLOOKUP(A642,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210385160</v>
       </c>
       <c r="C642" t="str">
         <f>VLOOKUP(A642,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31811,9 +31939,9 @@
       <c r="A646">
         <v>4210414207</v>
       </c>
-      <c r="B646" t="e">
+      <c r="B646">
         <f>VLOOKUP(A646,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210414207</v>
       </c>
       <c r="C646" t="str">
         <f>VLOOKUP(A646,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31837,9 +31965,9 @@
       <c r="A648">
         <v>4210420939</v>
       </c>
-      <c r="B648" t="e">
+      <c r="B648">
         <f>VLOOKUP(A648,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210420939</v>
       </c>
       <c r="C648" t="str">
         <f>VLOOKUP(A648,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32162,9 +32290,9 @@
       <c r="A673">
         <v>4210541877</v>
       </c>
-      <c r="B673" t="e">
+      <c r="B673">
         <f>VLOOKUP(A673,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210541877</v>
       </c>
       <c r="C673" t="str">
         <f>VLOOKUP(A673,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32240,9 +32368,9 @@
       <c r="A679">
         <v>4210502346</v>
       </c>
-      <c r="B679" t="e">
+      <c r="B679">
         <f>VLOOKUP(A679,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210502346</v>
       </c>
       <c r="C679" t="str">
         <f>VLOOKUP(A679,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32344,9 +32472,9 @@
       <c r="A687">
         <v>4210654402</v>
       </c>
-      <c r="B687" t="e">
+      <c r="B687">
         <f>VLOOKUP(A687,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210654402</v>
       </c>
       <c r="C687" t="str">
         <f>VLOOKUP(A687,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32513,9 +32641,9 @@
       <c r="A700">
         <v>4210879411</v>
       </c>
-      <c r="B700" t="e">
+      <c r="B700">
         <f>VLOOKUP(A700,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210879411</v>
       </c>
       <c r="C700" t="str">
         <f>VLOOKUP(A700,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32526,9 +32654,9 @@
       <c r="A701">
         <v>4210702558</v>
       </c>
-      <c r="B701" t="e">
+      <c r="B701">
         <f>VLOOKUP(A701,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210702558</v>
       </c>
       <c r="C701" t="str">
         <f>VLOOKUP(A701,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32734,9 +32862,9 @@
       <c r="A717">
         <v>4211050835</v>
       </c>
-      <c r="B717" t="e">
+      <c r="B717">
         <f>VLOOKUP(A717,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211050835</v>
       </c>
       <c r="C717" t="str">
         <f>VLOOKUP(A717,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32877,9 +33005,9 @@
       <c r="A728">
         <v>4210452807</v>
       </c>
-      <c r="B728" t="e">
+      <c r="B728">
         <f>VLOOKUP(A728,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210452807</v>
       </c>
       <c r="C728" t="str">
         <f>VLOOKUP(A728,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32994,9 +33122,9 @@
       <c r="A737">
         <v>4210113485</v>
       </c>
-      <c r="B737" t="e">
+      <c r="B737">
         <f>VLOOKUP(A737,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210113485</v>
       </c>
       <c r="C737" t="str">
         <f>VLOOKUP(A737,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33293,9 +33421,9 @@
       <c r="A760">
         <v>4210309982</v>
       </c>
-      <c r="B760" t="e">
+      <c r="B760">
         <f>VLOOKUP(A760,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210309982</v>
       </c>
       <c r="C760" t="str">
         <f>VLOOKUP(A760,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33384,9 +33512,9 @@
       <c r="A767">
         <v>4210851034</v>
       </c>
-      <c r="B767" t="e">
+      <c r="B767">
         <f>VLOOKUP(A767,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210851034</v>
       </c>
       <c r="C767" t="str">
         <f>VLOOKUP(A767,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33657,9 +33785,9 @@
       <c r="A788">
         <v>4210509596</v>
       </c>
-      <c r="B788" t="e">
+      <c r="B788">
         <f>VLOOKUP(A788,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210509596</v>
       </c>
       <c r="C788" t="str">
         <f>VLOOKUP(A788,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34008,9 +34136,9 @@
       <c r="A815">
         <v>4210701271</v>
       </c>
-      <c r="B815" t="e">
+      <c r="B815">
         <f>VLOOKUP(A815,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210701271</v>
       </c>
       <c r="C815" t="str">
         <f>VLOOKUP(A815,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34086,9 +34214,9 @@
       <c r="A821">
         <v>4210904865</v>
       </c>
-      <c r="B821" t="e">
+      <c r="B821">
         <f>VLOOKUP(A821,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210904865</v>
       </c>
       <c r="C821" t="str">
         <f>VLOOKUP(A821,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34554,9 +34682,9 @@
       <c r="A857">
         <v>4210131654</v>
       </c>
-      <c r="B857" t="e">
+      <c r="B857">
         <f>VLOOKUP(A857,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210131654</v>
       </c>
       <c r="C857" t="str">
         <f>VLOOKUP(A857,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34632,9 +34760,9 @@
       <c r="A863">
         <v>4210176463</v>
       </c>
-      <c r="B863" t="e">
+      <c r="B863">
         <f>VLOOKUP(A863,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210176463</v>
       </c>
       <c r="C863" t="str">
         <f>VLOOKUP(A863,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34866,9 +34994,9 @@
       <c r="A881">
         <v>4210386755</v>
       </c>
-      <c r="B881" t="e">
+      <c r="B881">
         <f>VLOOKUP(A881,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210386755</v>
       </c>
       <c r="C881" t="str">
         <f>VLOOKUP(A881,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34944,9 +35072,9 @@
       <c r="A887">
         <v>4210866906</v>
       </c>
-      <c r="B887" t="e">
+      <c r="B887">
         <f>VLOOKUP(A887,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210866906</v>
       </c>
       <c r="C887" t="str">
         <f>VLOOKUP(A887,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -35126,9 +35254,9 @@
       <c r="A901">
         <v>4210523627</v>
       </c>
-      <c r="B901" t="e">
+      <c r="B901">
         <f>VLOOKUP(A901,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210523627</v>
       </c>
       <c r="C901" t="str">
         <f>VLOOKUP(A901,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -35269,9 +35397,9 @@
       <c r="A912">
         <v>4210600446</v>
       </c>
-      <c r="B912" t="e">
+      <c r="B912">
         <f>VLOOKUP(A912,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210600446</v>
       </c>
       <c r="C912" t="str">
         <f>VLOOKUP(A912,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -35321,9 +35449,9 @@
       <c r="A916">
         <v>4210619540</v>
       </c>
-      <c r="B916" t="e">
+      <c r="B916">
         <f>VLOOKUP(A916,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210619540</v>
       </c>
       <c r="C916" t="str">
         <f>VLOOKUP(A916,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -35516,9 +35644,9 @@
       <c r="A931">
         <v>4210733151</v>
       </c>
-      <c r="B931" t="e">
+      <c r="B931">
         <f>VLOOKUP(A931,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210733151</v>
       </c>
       <c r="C931" t="str">
         <f>VLOOKUP(A931,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754697FE-C787-44AD-A867-2E6FC8A47211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE6D8E-79CD-4BB5-A42D-D1CA3413E22A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8081,8 +8081,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B268" sqref="B268"/>
+    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E315" sqref="E315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8120,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4211019772</v>
+        <v>4210892402</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -8132,7 +8132,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4210588368</v>
+        <v>4210770397</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -8144,7 +8144,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4210102740</v>
+        <v>4211019772</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -8156,7 +8156,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4210573844</v>
+        <v>4210588368</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -8168,7 +8168,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>4210717435</v>
+        <v>4210102740</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -8180,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4210125404</v>
+        <v>4210573844</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -8192,7 +8192,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4210198826</v>
+        <v>4210717435</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -8204,7 +8204,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4210381581</v>
+        <v>4210125404</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -8216,7 +8216,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>4210488625</v>
+        <v>4210198826</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -8228,7 +8228,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>4210509596</v>
+        <v>4210294377</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -8240,7 +8240,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4210904865</v>
+        <v>4210381581</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -8252,7 +8252,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>4210216114</v>
+        <v>4210488625</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>4210344078</v>
+        <v>4210509596</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -8276,7 +8276,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>4210371025</v>
+        <v>4210652554</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -8288,7 +8288,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>4211020605</v>
+        <v>4210904865</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -8300,7 +8300,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>4210733151</v>
+        <v>4210216114</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -8312,7 +8312,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>4210262295</v>
+        <v>4210344078</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -8324,7 +8324,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>4210420939</v>
+        <v>4210371025</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -8336,7 +8336,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>4210254607</v>
+        <v>4211020605</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -8348,7 +8348,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>4210556661</v>
+        <v>4210733151</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -8360,7 +8360,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>4210127378</v>
+        <v>4210266290</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -8372,7 +8372,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>4210127746</v>
+        <v>4210262295</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -8384,7 +8384,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>4210132639</v>
+        <v>4210420939</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -8396,7 +8396,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>4210322467</v>
+        <v>4210254607</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -8408,7 +8408,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>4210404572</v>
+        <v>4210556661</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -8420,7 +8420,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>4210405406</v>
+        <v>4210034578</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -8432,7 +8432,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>4210689843</v>
+        <v>4210127378</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -8444,7 +8444,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>4210701271</v>
+        <v>4210127746</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -8456,7 +8456,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>4210791799</v>
+        <v>4210132639</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -8468,7 +8468,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4210771684</v>
+        <v>4210322467</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -8480,7 +8480,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4210932363</v>
+        <v>4210404572</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -8492,7 +8492,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4210766426</v>
+        <v>4210405406</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -8504,7 +8504,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>4210371603</v>
+        <v>4210419667</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -8516,7 +8516,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>4210406120</v>
+        <v>4210689843</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -8528,7 +8528,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4210020005</v>
+        <v>4210701271</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -8540,7 +8540,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4210131654</v>
+        <v>4210791799</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -8552,7 +8552,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4210141892</v>
+        <v>4210613161</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -8564,7 +8564,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4210394400</v>
+        <v>4210771684</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -8576,7 +8576,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>4210394946</v>
+        <v>4210932363</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -8588,7 +8588,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>4210413345</v>
+        <v>4210766426</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -8600,7 +8600,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>4210511277</v>
+        <v>4210371603</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -8612,7 +8612,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>4210541877</v>
+        <v>4210406120</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -8624,7 +8624,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>4210003837</v>
+        <v>4210020005</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -8636,7 +8636,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>4210004223</v>
+        <v>4210131654</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -8648,7 +8648,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>4210234367</v>
+        <v>4210141892</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -8660,7 +8660,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>4210391139</v>
+        <v>4210394400</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -8672,7 +8672,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>4210533040</v>
+        <v>4210394946</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -8684,7 +8684,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>4210558291</v>
+        <v>4210413345</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -8696,7 +8696,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>4210606361</v>
+        <v>4210511277</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -8708,7 +8708,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>4210635825</v>
+        <v>4210541877</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -8720,7 +8720,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4210720296</v>
+        <v>4210929697</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -8732,7 +8732,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4210843009</v>
+        <v>4210003837</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -8744,7 +8744,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>4210563716</v>
+        <v>4210004223</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -8756,7 +8756,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>4210213587</v>
+        <v>4210234367</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -8768,7 +8768,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>4210600446</v>
+        <v>4210391139</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -8780,7 +8780,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>4210853920</v>
+        <v>4210533040</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -8792,7 +8792,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>4210447996</v>
+        <v>4210558291</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -8804,7 +8804,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>4210754698</v>
+        <v>4210606361</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>4210542091</v>
+        <v>4210635825</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -8828,7 +8828,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>4210222026</v>
+        <v>4210720296</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -8840,7 +8840,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>4210313376</v>
+        <v>4210843009</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -8852,7 +8852,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>4210260173</v>
+        <v>4210563716</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -8864,7 +8864,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>4210033127</v>
+        <v>4210398396</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -8876,7 +8876,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>4210072674</v>
+        <v>4210479488</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -8888,7 +8888,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>4210482370</v>
+        <v>4210566641</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -8900,7 +8900,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>4210167551</v>
+        <v>4210213587</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -8912,7 +8912,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>4210843672</v>
+        <v>4210600446</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -8924,7 +8924,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>4210523147</v>
+        <v>4210214048</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -8936,7 +8936,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>4210406049</v>
+        <v>4210853920</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -8948,7 +8948,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>4210639267</v>
+        <v>4210447996</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -8960,7 +8960,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>4210598540</v>
+        <v>4210534997</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -8972,7 +8972,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>4210535673</v>
+        <v>4210723948</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -8984,7 +8984,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>4210500818</v>
+        <v>4210754698</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -8996,7 +8996,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>4210003521</v>
+        <v>4210926050</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -9008,7 +9008,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>4210062548</v>
+        <v>4210542091</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -9020,7 +9020,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>4210133586</v>
+        <v>4210222026</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -9032,7 +9032,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>4210248451</v>
+        <v>4210313376</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -9044,7 +9044,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>4210272828</v>
+        <v>4210260173</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -9056,7 +9056,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>4210320285</v>
+        <v>4210033127</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -9068,7 +9068,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>4210396939</v>
+        <v>4210072674</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -9080,7 +9080,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>4210403019</v>
+        <v>4210482370</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -9092,7 +9092,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>4210420096</v>
+        <v>4210167551</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -9104,7 +9104,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>4210597778</v>
+        <v>4210843672</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -9116,7 +9116,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>4210632710</v>
+        <v>4210523147</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -9128,7 +9128,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>4210690272</v>
+        <v>4210406049</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -9140,7 +9140,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>4210695149</v>
+        <v>4210639267</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -9152,7 +9152,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>4210706422</v>
+        <v>4210598540</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -9164,7 +9164,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>4210885456</v>
+        <v>4210535673</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -9176,7 +9176,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>4210920767</v>
+        <v>4210500818</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -9188,7 +9188,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>4210955715</v>
+        <v>4210003521</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -9200,7 +9200,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>4211143631</v>
+        <v>4210062548</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -9212,7 +9212,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>4210665237</v>
+        <v>4210133586</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -9224,7 +9224,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>4210208750</v>
+        <v>4210248451</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -9236,7 +9236,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>4210586900</v>
+        <v>4210272828</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -9248,7 +9248,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>4210433177</v>
+        <v>4210320285</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -9260,7 +9260,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>4210911313</v>
+        <v>4210396939</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -9272,7 +9272,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>4211122411</v>
+        <v>4210403019</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -9284,7 +9284,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>4210855921</v>
+        <v>4210420096</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -9296,7 +9296,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>4210009062</v>
+        <v>4210597778</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -9308,7 +9308,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>4210648248</v>
+        <v>4210632710</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -9320,7 +9320,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>4210356297</v>
+        <v>4210645803</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -9332,7 +9332,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>4210411973</v>
+        <v>4210690272</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -9344,7 +9344,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>4210273020</v>
+        <v>4210695149</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -9356,7 +9356,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>4210264695</v>
+        <v>4210706422</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -9368,7 +9368,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>4210921232</v>
+        <v>4210885456</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -9380,7 +9380,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>4211189006</v>
+        <v>4210920767</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -9392,7 +9392,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>4210621591</v>
+        <v>4210955715</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -9404,7 +9404,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>4210392055</v>
+        <v>4211143631</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -9416,7 +9416,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>4210059000</v>
+        <v>4210665237</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -9428,7 +9428,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>4211050835</v>
+        <v>4210208750</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -9440,7 +9440,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>4210073431</v>
+        <v>4210586900</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -9452,7 +9452,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>4210222465</v>
+        <v>4210433177</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -9464,7 +9464,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>4210321387</v>
+        <v>4210911313</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -9476,7 +9476,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>4210497292</v>
+        <v>4211122411</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -9488,7 +9488,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>4210185227</v>
+        <v>4210855921</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -9500,7 +9500,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>4210151586</v>
+        <v>4210009062</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -9512,7 +9512,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>4211014966</v>
+        <v>4210648248</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -9524,7 +9524,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>4211039341</v>
+        <v>4210356297</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -9536,7 +9536,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>4210128315</v>
+        <v>4210411973</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -9548,7 +9548,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>4210201732</v>
+        <v>4210273020</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -9560,7 +9560,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>4210267013</v>
+        <v>4210264695</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -9572,7 +9572,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>4210385160</v>
+        <v>4210509447</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -9584,7 +9584,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>4211117196</v>
+        <v>4210921232</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -9596,7 +9596,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>4210199520</v>
+        <v>4211189006</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -9608,7 +9608,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>4210354861</v>
+        <v>4210621591</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -9620,7 +9620,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>4210461415</v>
+        <v>4210392055</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -9632,7 +9632,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>4210354387</v>
+        <v>4210059000</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -9644,7 +9644,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>4210386755</v>
+        <v>4211050835</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -9656,7 +9656,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>4210043894</v>
+        <v>4210073431</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -9668,7 +9668,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>4210122182</v>
+        <v>4210222465</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -9680,7 +9680,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>4210142349</v>
+        <v>4210321387</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -9692,7 +9692,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>4210383149</v>
+        <v>4210497292</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -9704,7 +9704,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>4210769887</v>
+        <v>4210185227</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -9716,7 +9716,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>4210897066</v>
+        <v>4210151586</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -9728,7 +9728,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>4210117447</v>
+        <v>4211014966</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -9740,7 +9740,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>4210462732</v>
+        <v>4211039341</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -9752,7 +9752,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>4210176463</v>
+        <v>4210128315</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
@@ -9764,7 +9764,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>4210047154</v>
+        <v>4210201732</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -9776,7 +9776,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>4210922651</v>
+        <v>4210267013</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
@@ -9788,7 +9788,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>4210155613</v>
+        <v>4210385160</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -9800,7 +9800,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>4210167563</v>
+        <v>4210457607</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -9812,7 +9812,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>4210194296</v>
+        <v>4210518577</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -9824,7 +9824,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>4210452807</v>
+        <v>4211117196</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -9836,7 +9836,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>4210523627</v>
+        <v>4210199520</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -9848,7 +9848,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>4210079772</v>
+        <v>4210354861</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -9860,7 +9860,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>4210166153</v>
+        <v>4210461415</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -9872,7 +9872,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>4211047440</v>
+        <v>4210354387</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -9884,7 +9884,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>4210230359</v>
+        <v>4210386755</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -9896,7 +9896,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>4210321845</v>
+        <v>4210043894</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -9908,7 +9908,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>4210420336</v>
+        <v>4210122182</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -9920,7 +9920,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>4210671598</v>
+        <v>4210142349</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
@@ -9932,7 +9932,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>4210851034</v>
+        <v>4210383149</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -9944,7 +9944,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>4210396117</v>
+        <v>4210424900</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -9956,7 +9956,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>4210020577</v>
+        <v>4210769887</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -9968,7 +9968,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>4210050876</v>
+        <v>4210897066</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
@@ -9980,7 +9980,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>4210178048</v>
+        <v>4210117447</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -9992,7 +9992,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>4210183791</v>
+        <v>4210151088</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -10004,7 +10004,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>4210384491</v>
+        <v>4210462732</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -10016,7 +10016,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>4210282624</v>
+        <v>4210176463</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -10028,7 +10028,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>4210329350</v>
+        <v>4210047154</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -10040,7 +10040,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>4210928075</v>
+        <v>4210922651</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
@@ -10052,7 +10052,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>4210005081</v>
+        <v>4210155613</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -10064,7 +10064,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>4210716858</v>
+        <v>4210167563</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -10076,7 +10076,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>4210065219</v>
+        <v>4210194296</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -10088,7 +10088,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>4210941041</v>
+        <v>4210452807</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
@@ -10100,7 +10100,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>4210500697</v>
+        <v>4210523627</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -10112,7 +10112,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>4210113372</v>
+        <v>4210523156</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
@@ -10124,7 +10124,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>4210598087</v>
+        <v>4210079772</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -10136,7 +10136,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>4210610217</v>
+        <v>4210166153</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
@@ -10148,7 +10148,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>4210646368</v>
+        <v>4211047440</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -10160,7 +10160,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>4210596404</v>
+        <v>4210701833</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
@@ -10172,7 +10172,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>4210533998</v>
+        <v>4210179613</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -10184,7 +10184,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>4210162326</v>
+        <v>4210230359</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
@@ -10196,7 +10196,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>4210514973</v>
+        <v>4210321845</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -10208,7 +10208,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>4210296631</v>
+        <v>4210420336</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -10220,7 +10220,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>4210619540</v>
+        <v>4210671598</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -10232,7 +10232,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>4210608974</v>
+        <v>4210841954</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
@@ -10244,7 +10244,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>4210301184</v>
+        <v>4210851034</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
@@ -10256,7 +10256,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>4210414276</v>
+        <v>4210396117</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
@@ -10268,7 +10268,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>4210691687</v>
+        <v>4210020577</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
@@ -10280,7 +10280,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>4210128706</v>
+        <v>4210050876</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -10292,7 +10292,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>4210429692</v>
+        <v>4210178048</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
@@ -10304,7 +10304,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>4210457601</v>
+        <v>4210183791</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
@@ -10316,7 +10316,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>4210487716</v>
+        <v>4210384491</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
@@ -10328,7 +10328,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>4210525608</v>
+        <v>4210282624</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
@@ -10340,7 +10340,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>4210697405</v>
+        <v>4210537453</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -10352,7 +10352,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>4210871317</v>
+        <v>4210329350</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -10364,7 +10364,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>4210198794</v>
+        <v>4211121745</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -10376,7 +10376,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>4210200416</v>
+        <v>4210837418</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -10388,7 +10388,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>4210211263</v>
+        <v>4210928075</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -10400,7 +10400,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>4210841799</v>
+        <v>4210005081</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -10412,7 +10412,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>4210003908</v>
+        <v>4210716858</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -10424,7 +10424,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>4210113485</v>
+        <v>4210065219</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
@@ -10436,7 +10436,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>4210185045</v>
+        <v>4210941041</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
@@ -10448,7 +10448,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>4210244610</v>
+        <v>4210500697</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
@@ -10460,7 +10460,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>4210496119</v>
+        <v>4210113372</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -10472,7 +10472,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>4210521327</v>
+        <v>4210213661</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
@@ -10484,7 +10484,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>4210050280</v>
+        <v>4210598087</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
@@ -10496,7 +10496,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>4210372229</v>
+        <v>4210610217</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -10508,7 +10508,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>4210535776</v>
+        <v>4210646368</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
@@ -10520,7 +10520,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>4210359992</v>
+        <v>4210596404</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
@@ -10532,7 +10532,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>4210380505</v>
+        <v>4210533998</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
@@ -10544,7 +10544,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>4210502346</v>
+        <v>4210162326</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -10556,7 +10556,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>4210114589</v>
+        <v>4210514973</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
@@ -10568,7 +10568,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>4210273236</v>
+        <v>4211121133</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
@@ -10580,7 +10580,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>4210270390</v>
+        <v>4210024291</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>2</v>
@@ -10592,7 +10592,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>4210236802</v>
+        <v>4210296631</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>2</v>
@@ -10604,7 +10604,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>4210342956</v>
+        <v>4210406475</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>2</v>
@@ -10616,7 +10616,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>4210548527</v>
+        <v>4210592061</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
@@ -10628,7 +10628,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>4210347993</v>
+        <v>4210619540</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
@@ -10640,7 +10640,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>4210309982</v>
+        <v>4210608974</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>2</v>
@@ -10652,7 +10652,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>4210378870</v>
+        <v>4210301184</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
@@ -10664,7 +10664,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>4210702558</v>
+        <v>4210250290</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
@@ -10676,7 +10676,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>4210420793</v>
+        <v>4210414276</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>2</v>
@@ -10688,7 +10688,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>4210879411</v>
+        <v>4210851640</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>2</v>
@@ -10700,7 +10700,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>4210421903</v>
+        <v>4210632010</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>2</v>
@@ -10712,7 +10712,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>4210654402</v>
+        <v>4210691687</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>2</v>
@@ -10724,7 +10724,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>4210178645</v>
+        <v>4210128706</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>2</v>
@@ -10736,7 +10736,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>4210740672</v>
+        <v>4210429692</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>2</v>
@@ -10748,7 +10748,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>4210031752</v>
+        <v>4210457601</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>2</v>
@@ -10760,7 +10760,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>4210214619</v>
+        <v>4210487716</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>2</v>
@@ -10772,7 +10772,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>4210420791</v>
+        <v>4210525608</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>2</v>
@@ -10784,7 +10784,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>4210477209</v>
+        <v>4210697405</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>2</v>
@@ -10796,7 +10796,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>4210866906</v>
+        <v>4210871317</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>2</v>
@@ -10808,7 +10808,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>4210086965</v>
+        <v>4210198794</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>2</v>
@@ -10820,7 +10820,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>4210398274</v>
+        <v>4210200416</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
@@ -10832,7 +10832,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>4210062240</v>
+        <v>4210211263</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>2</v>
@@ -10844,7 +10844,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>4210143635</v>
+        <v>4210841799</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
@@ -10856,7 +10856,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>4210179047</v>
+        <v>4210003908</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>2</v>
@@ -10868,7 +10868,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>4210405046</v>
+        <v>4210113485</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>2</v>
@@ -10880,7 +10880,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>4210522831</v>
+        <v>4210185045</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
@@ -10892,7 +10892,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>4210560300</v>
+        <v>4210244610</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>2</v>
@@ -10904,7 +10904,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>4210036943</v>
+        <v>4210496119</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>2</v>
@@ -10916,7 +10916,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>4210003083</v>
+        <v>4210521327</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
@@ -10928,7 +10928,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>4210919520</v>
+        <v>4210050280</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>2</v>
@@ -10940,7 +10940,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>4210104513</v>
+        <v>4210372229</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>2</v>
@@ -10952,7 +10952,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>4210414207</v>
+        <v>4210326134</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>2</v>
@@ -10964,7 +10964,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>4210483345</v>
+        <v>4210535776</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>2</v>
@@ -10976,7 +10976,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>4210552779</v>
+        <v>4210359992</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>2</v>
@@ -10988,7 +10988,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>4210718468</v>
+        <v>4210380505</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>2</v>
@@ -11000,7 +11000,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>4210974262</v>
+        <v>4210502346</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>2</v>
@@ -11012,7 +11012,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>4210247519</v>
+        <v>4210114589</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
@@ -11024,7 +11024,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>4210652133</v>
+        <v>4210273236</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>2</v>
@@ -11036,7 +11036,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>4210099442</v>
+        <v>4210270390</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
@@ -11048,7 +11048,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>4210312209</v>
+        <v>4210236802</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>2</v>
@@ -11060,7 +11060,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>4210399799</v>
+        <v>4210342956</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>2</v>
@@ -11072,7 +11072,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>4210960649</v>
+        <v>4210548527</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>2</v>
@@ -11084,7 +11084,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>4210337818</v>
+        <v>4210019501</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>2</v>
@@ -11096,7 +11096,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>4210168043</v>
+        <v>4210347993</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>2</v>
@@ -11108,7 +11108,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>4210303219</v>
+        <v>4210309982</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>2</v>
@@ -11120,7 +11120,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>4210446245</v>
+        <v>4210378870</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
@@ -11132,7 +11132,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>4210461149</v>
+        <v>4210702558</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
@@ -11144,7 +11144,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>4210669592</v>
+        <v>4210420793</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
@@ -11156,7 +11156,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>4210534852</v>
+        <v>4210250376</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
@@ -11168,7 +11168,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>4210001844</v>
+        <v>4210879411</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
@@ -11180,7 +11180,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>4210109667</v>
+        <v>4210421903</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
@@ -11192,7 +11192,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>4210548325</v>
+        <v>4210004989</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
@@ -11204,7 +11204,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>4210554776</v>
+        <v>4210129193</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
@@ -11216,7 +11216,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>4210622646</v>
+        <v>4210654402</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
@@ -11228,7 +11228,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>4210905356</v>
+        <v>4210178645</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
@@ -11240,7 +11240,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>4210544812</v>
+        <v>4210740672</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
@@ -11252,7 +11252,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>4210374075</v>
+        <v>4210006329</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
@@ -11264,7 +11264,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>4210918088</v>
+        <v>4210031752</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
@@ -11276,7 +11276,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>4210276653</v>
+        <v>4210152113</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
@@ -11288,7 +11288,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>4210671668</v>
+        <v>4210214619</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
@@ -11300,7 +11300,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>4210727818</v>
+        <v>4210420791</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
@@ -11311,7 +11311,9 @@
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
-      <c r="B269" s="1"/>
+      <c r="B269" s="1">
+        <v>4210477209</v>
+      </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
       </c>
@@ -11321,7 +11323,9 @@
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
-      <c r="B270" s="1"/>
+      <c r="B270" s="1">
+        <v>4210866906</v>
+      </c>
       <c r="C270" s="1" t="s">
         <v>2</v>
       </c>
@@ -11331,7 +11335,9 @@
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
-      <c r="B271" s="1"/>
+      <c r="B271" s="1">
+        <v>4210376988</v>
+      </c>
       <c r="C271" s="1" t="s">
         <v>2</v>
       </c>
@@ -11341,7 +11347,9 @@
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
-      <c r="B272" s="1"/>
+      <c r="B272" s="1">
+        <v>4210086965</v>
+      </c>
       <c r="C272" s="1" t="s">
         <v>2</v>
       </c>
@@ -11351,7 +11359,9 @@
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
-      <c r="B273" s="1"/>
+      <c r="B273" s="1">
+        <v>4210398274</v>
+      </c>
       <c r="C273" s="1" t="s">
         <v>2</v>
       </c>
@@ -11361,7 +11371,9 @@
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
-      <c r="B274" s="1"/>
+      <c r="B274" s="1">
+        <v>4210062240</v>
+      </c>
       <c r="C274" s="1" t="s">
         <v>2</v>
       </c>
@@ -11371,7 +11383,9 @@
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
-      <c r="B275" s="1"/>
+      <c r="B275" s="1">
+        <v>4210086103</v>
+      </c>
       <c r="C275" s="1" t="s">
         <v>2</v>
       </c>
@@ -11381,7 +11395,9 @@
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
-      <c r="B276" s="1"/>
+      <c r="B276" s="1">
+        <v>4210143635</v>
+      </c>
       <c r="C276" s="1" t="s">
         <v>2</v>
       </c>
@@ -11391,7 +11407,9 @@
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
-      <c r="B277" s="1"/>
+      <c r="B277" s="1">
+        <v>4210179047</v>
+      </c>
       <c r="C277" s="1" t="s">
         <v>2</v>
       </c>
@@ -11401,7 +11419,9 @@
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
-      <c r="B278" s="1"/>
+      <c r="B278" s="1">
+        <v>4210405046</v>
+      </c>
       <c r="C278" s="1" t="s">
         <v>2</v>
       </c>
@@ -11411,7 +11431,9 @@
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
-      <c r="B279" s="1"/>
+      <c r="B279" s="1">
+        <v>4210522831</v>
+      </c>
       <c r="C279" s="1" t="s">
         <v>2</v>
       </c>
@@ -11421,7 +11443,9 @@
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
-      <c r="B280" s="1"/>
+      <c r="B280" s="1">
+        <v>4210560300</v>
+      </c>
       <c r="C280" s="1" t="s">
         <v>2</v>
       </c>
@@ -11431,7 +11455,9 @@
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="B281" s="1"/>
+      <c r="B281" s="1">
+        <v>4210036943</v>
+      </c>
       <c r="C281" s="1" t="s">
         <v>2</v>
       </c>
@@ -11441,7 +11467,9 @@
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
-      <c r="B282" s="1"/>
+      <c r="B282" s="1">
+        <v>4210003083</v>
+      </c>
       <c r="C282" s="1" t="s">
         <v>2</v>
       </c>
@@ -11451,7 +11479,9 @@
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
-      <c r="B283" s="1"/>
+      <c r="B283" s="1">
+        <v>4210919520</v>
+      </c>
       <c r="C283" s="1" t="s">
         <v>2</v>
       </c>
@@ -11461,7 +11491,9 @@
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
-      <c r="B284" s="1"/>
+      <c r="B284" s="1">
+        <v>4210104513</v>
+      </c>
       <c r="C284" s="1" t="s">
         <v>2</v>
       </c>
@@ -11471,7 +11503,9 @@
         <f t="shared" si="4"/>
         <v>284</v>
       </c>
-      <c r="B285" s="1"/>
+      <c r="B285" s="1">
+        <v>4210414207</v>
+      </c>
       <c r="C285" s="1" t="s">
         <v>2</v>
       </c>
@@ -11481,7 +11515,9 @@
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
-      <c r="B286" s="1"/>
+      <c r="B286" s="1">
+        <v>4210483345</v>
+      </c>
       <c r="C286" s="1" t="s">
         <v>2</v>
       </c>
@@ -11491,7 +11527,9 @@
         <f t="shared" si="4"/>
         <v>286</v>
       </c>
-      <c r="B287" s="1"/>
+      <c r="B287" s="1">
+        <v>4210552779</v>
+      </c>
       <c r="C287" s="1" t="s">
         <v>2</v>
       </c>
@@ -11501,7 +11539,9 @@
         <f t="shared" si="4"/>
         <v>287</v>
       </c>
-      <c r="B288" s="1"/>
+      <c r="B288" s="1">
+        <v>4210718468</v>
+      </c>
       <c r="C288" s="1" t="s">
         <v>2</v>
       </c>
@@ -11511,7 +11551,9 @@
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="B289" s="1"/>
+      <c r="B289" s="1">
+        <v>4210974262</v>
+      </c>
       <c r="C289" s="1" t="s">
         <v>2</v>
       </c>
@@ -11521,7 +11563,9 @@
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
-      <c r="B290" s="1"/>
+      <c r="B290" s="1">
+        <v>4210247519</v>
+      </c>
       <c r="C290" s="1" t="s">
         <v>2</v>
       </c>
@@ -11531,7 +11575,9 @@
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="B291" s="1"/>
+      <c r="B291" s="1">
+        <v>4210652133</v>
+      </c>
       <c r="C291" s="1" t="s">
         <v>2</v>
       </c>
@@ -11541,7 +11587,9 @@
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
-      <c r="B292" s="1"/>
+      <c r="B292" s="1">
+        <v>4210099442</v>
+      </c>
       <c r="C292" s="1" t="s">
         <v>2</v>
       </c>
@@ -11551,7 +11599,9 @@
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="B293" s="1"/>
+      <c r="B293" s="1">
+        <v>4210312209</v>
+      </c>
       <c r="C293" s="1" t="s">
         <v>2</v>
       </c>
@@ -11561,7 +11611,9 @@
         <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="B294" s="1"/>
+      <c r="B294" s="1">
+        <v>4210399799</v>
+      </c>
       <c r="C294" s="1" t="s">
         <v>2</v>
       </c>
@@ -11571,7 +11623,9 @@
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
-      <c r="B295" s="1"/>
+      <c r="B295" s="1">
+        <v>4210485733</v>
+      </c>
       <c r="C295" s="1" t="s">
         <v>2</v>
       </c>
@@ -11581,7 +11635,9 @@
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
-      <c r="B296" s="1"/>
+      <c r="B296" s="1">
+        <v>4210960649</v>
+      </c>
       <c r="C296" s="1" t="s">
         <v>2</v>
       </c>
@@ -11591,7 +11647,9 @@
         <f t="shared" si="4"/>
         <v>296</v>
       </c>
-      <c r="B297" s="1"/>
+      <c r="B297" s="1">
+        <v>4210811627</v>
+      </c>
       <c r="C297" s="1" t="s">
         <v>2</v>
       </c>
@@ -11601,7 +11659,9 @@
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
-      <c r="B298" s="1"/>
+      <c r="B298" s="1">
+        <v>4210337818</v>
+      </c>
       <c r="C298" s="1" t="s">
         <v>2</v>
       </c>
@@ -11611,7 +11671,9 @@
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="B299" s="1"/>
+      <c r="B299" s="1">
+        <v>4210634563</v>
+      </c>
       <c r="C299" s="1" t="s">
         <v>2</v>
       </c>
@@ -11621,7 +11683,9 @@
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
-      <c r="B300" s="1"/>
+      <c r="B300" s="1">
+        <v>4210051155</v>
+      </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
       </c>
@@ -11631,7 +11695,9 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="B301" s="1"/>
+      <c r="B301" s="1">
+        <v>4210168043</v>
+      </c>
       <c r="C301" s="1" t="s">
         <v>2</v>
       </c>
@@ -11641,7 +11707,9 @@
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
-      <c r="B302" s="1"/>
+      <c r="B302" s="1">
+        <v>4210303219</v>
+      </c>
       <c r="C302" s="1" t="s">
         <v>2</v>
       </c>
@@ -11651,7 +11719,9 @@
         <f t="shared" si="4"/>
         <v>302</v>
       </c>
-      <c r="B303" s="1"/>
+      <c r="B303" s="1">
+        <v>4210446245</v>
+      </c>
       <c r="C303" s="1" t="s">
         <v>2</v>
       </c>
@@ -11661,7 +11731,9 @@
         <f t="shared" si="4"/>
         <v>303</v>
       </c>
-      <c r="B304" s="1"/>
+      <c r="B304" s="1">
+        <v>4210461149</v>
+      </c>
       <c r="C304" s="1" t="s">
         <v>2</v>
       </c>
@@ -11671,7 +11743,9 @@
         <f t="shared" si="4"/>
         <v>304</v>
       </c>
-      <c r="B305" s="1"/>
+      <c r="B305" s="1">
+        <v>4210827877</v>
+      </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
       </c>
@@ -11681,7 +11755,9 @@
         <f t="shared" si="4"/>
         <v>305</v>
       </c>
-      <c r="B306" s="1"/>
+      <c r="B306" s="1">
+        <v>4210901008</v>
+      </c>
       <c r="C306" s="1" t="s">
         <v>2</v>
       </c>
@@ -11691,7 +11767,9 @@
         <f t="shared" si="4"/>
         <v>306</v>
       </c>
-      <c r="B307" s="1"/>
+      <c r="B307" s="1">
+        <v>4210423569</v>
+      </c>
       <c r="C307" s="1" t="s">
         <v>2</v>
       </c>
@@ -11701,7 +11779,9 @@
         <f t="shared" si="4"/>
         <v>307</v>
       </c>
-      <c r="B308" s="1"/>
+      <c r="B308" s="1">
+        <v>4210669592</v>
+      </c>
       <c r="C308" s="1" t="s">
         <v>2</v>
       </c>
@@ -11711,7 +11791,9 @@
         <f t="shared" si="4"/>
         <v>308</v>
       </c>
-      <c r="B309" s="1"/>
+      <c r="B309" s="1">
+        <v>4210534852</v>
+      </c>
       <c r="C309" s="1" t="s">
         <v>2</v>
       </c>
@@ -11721,7 +11803,9 @@
         <f t="shared" si="4"/>
         <v>309</v>
       </c>
-      <c r="B310" s="1"/>
+      <c r="B310" s="1">
+        <v>4210001844</v>
+      </c>
       <c r="C310" s="1" t="s">
         <v>2</v>
       </c>
@@ -11731,7 +11815,9 @@
         <f t="shared" si="4"/>
         <v>310</v>
       </c>
-      <c r="B311" s="1"/>
+      <c r="B311" s="1">
+        <v>4210109667</v>
+      </c>
       <c r="C311" s="1" t="s">
         <v>2</v>
       </c>
@@ -11741,7 +11827,9 @@
         <f t="shared" si="4"/>
         <v>311</v>
       </c>
-      <c r="B312" s="1"/>
+      <c r="B312" s="1">
+        <v>4210196693</v>
+      </c>
       <c r="C312" s="1" t="s">
         <v>2</v>
       </c>
@@ -11751,7 +11839,9 @@
         <f t="shared" si="4"/>
         <v>312</v>
       </c>
-      <c r="B313" s="1"/>
+      <c r="B313" s="1">
+        <v>4210365640</v>
+      </c>
       <c r="C313" s="1" t="s">
         <v>2</v>
       </c>
@@ -11761,7 +11851,9 @@
         <f t="shared" si="4"/>
         <v>313</v>
       </c>
-      <c r="B314" s="1"/>
+      <c r="B314" s="1">
+        <v>4210548325</v>
+      </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
       </c>
@@ -11771,7 +11863,9 @@
         <f t="shared" si="4"/>
         <v>314</v>
       </c>
-      <c r="B315" s="1"/>
+      <c r="B315" s="1">
+        <v>4210554776</v>
+      </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
       </c>
@@ -11781,7 +11875,9 @@
         <f t="shared" si="4"/>
         <v>315</v>
       </c>
-      <c r="B316" s="1"/>
+      <c r="B316" s="1">
+        <v>4210388883</v>
+      </c>
       <c r="C316" s="1" t="s">
         <v>2</v>
       </c>
@@ -11791,7 +11887,9 @@
         <f t="shared" si="4"/>
         <v>316</v>
       </c>
-      <c r="B317" s="1"/>
+      <c r="B317" s="1">
+        <v>4210622646</v>
+      </c>
       <c r="C317" s="1" t="s">
         <v>2</v>
       </c>
@@ -11801,7 +11899,9 @@
         <f t="shared" si="4"/>
         <v>317</v>
       </c>
-      <c r="B318" s="1"/>
+      <c r="B318" s="1">
+        <v>4210905356</v>
+      </c>
       <c r="C318" s="1" t="s">
         <v>2</v>
       </c>
@@ -11811,7 +11911,9 @@
         <f t="shared" si="4"/>
         <v>318</v>
       </c>
-      <c r="B319" s="1"/>
+      <c r="B319" s="1">
+        <v>4210544812</v>
+      </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
       </c>
@@ -11821,7 +11923,9 @@
         <f t="shared" si="4"/>
         <v>319</v>
       </c>
-      <c r="B320" s="1"/>
+      <c r="B320" s="1">
+        <v>4210374075</v>
+      </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
       </c>
@@ -11831,7 +11935,9 @@
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
-      <c r="B321" s="1"/>
+      <c r="B321" s="1">
+        <v>4210918088</v>
+      </c>
       <c r="C321" s="1" t="s">
         <v>2</v>
       </c>
@@ -11841,7 +11947,9 @@
         <f t="shared" ref="A322:A385" si="5">+A321+1</f>
         <v>321</v>
       </c>
-      <c r="B322" s="1"/>
+      <c r="B322" s="1">
+        <v>4210276653</v>
+      </c>
       <c r="C322" s="1" t="s">
         <v>2</v>
       </c>
@@ -11851,7 +11959,9 @@
         <f t="shared" si="5"/>
         <v>322</v>
       </c>
-      <c r="B323" s="1"/>
+      <c r="B323" s="1">
+        <v>4210671668</v>
+      </c>
       <c r="C323" s="1" t="s">
         <v>2</v>
       </c>
@@ -11861,7 +11971,9 @@
         <f t="shared" si="5"/>
         <v>323</v>
       </c>
-      <c r="B324" s="1"/>
+      <c r="B324" s="1">
+        <v>4210727818</v>
+      </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
       </c>
@@ -24451,9 +24563,9 @@
       <c r="A70">
         <v>4210213661</v>
       </c>
-      <c r="B70" t="e">
+      <c r="B70">
         <f>VLOOKUP(A70,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210213661</v>
       </c>
       <c r="C70" t="str">
         <f>VLOOKUP(A70,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24789,9 +24901,9 @@
       <c r="A96">
         <v>4210398396</v>
       </c>
-      <c r="B96" t="e">
+      <c r="B96">
         <f>VLOOKUP(A96,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210398396</v>
       </c>
       <c r="C96" t="str">
         <f>VLOOKUP(A96,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24880,9 +24992,9 @@
       <c r="A103">
         <v>4210423569</v>
       </c>
-      <c r="B103" t="e">
+      <c r="B103">
         <f>VLOOKUP(A103,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210423569</v>
       </c>
       <c r="C103" t="str">
         <f>VLOOKUP(A103,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24919,9 +25031,9 @@
       <c r="A106">
         <v>4210892402</v>
       </c>
-      <c r="B106" t="e">
+      <c r="B106">
         <f>VLOOKUP(A106,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210892402</v>
       </c>
       <c r="C106" t="str">
         <f>VLOOKUP(A106,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24958,9 +25070,9 @@
       <c r="A109">
         <v>4210457607</v>
       </c>
-      <c r="B109" t="e">
+      <c r="B109">
         <f>VLOOKUP(A109,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210457607</v>
       </c>
       <c r="C109" t="str">
         <f>VLOOKUP(A109,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25049,9 +25161,9 @@
       <c r="A116">
         <v>4210479488</v>
       </c>
-      <c r="B116" t="e">
+      <c r="B116">
         <f>VLOOKUP(A116,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210479488</v>
       </c>
       <c r="C116" t="str">
         <f>VLOOKUP(A116,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25075,9 +25187,9 @@
       <c r="A118">
         <v>4210485733</v>
       </c>
-      <c r="B118" t="e">
+      <c r="B118">
         <f>VLOOKUP(A118,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210485733</v>
       </c>
       <c r="C118" t="str">
         <f>VLOOKUP(A118,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25192,9 +25304,9 @@
       <c r="A127">
         <v>4210537453</v>
       </c>
-      <c r="B127" t="e">
+      <c r="B127">
         <f>VLOOKUP(A127,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210537453</v>
       </c>
       <c r="C127" t="str">
         <f>VLOOKUP(A127,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25530,9 +25642,9 @@
       <c r="A153">
         <v>4210723948</v>
       </c>
-      <c r="B153" t="e">
+      <c r="B153">
         <f>VLOOKUP(A153,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210723948</v>
       </c>
       <c r="C153" t="str">
         <f>VLOOKUP(A153,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25712,9 +25824,9 @@
       <c r="A167">
         <v>4211121133</v>
       </c>
-      <c r="B167" t="e">
+      <c r="B167">
         <f>VLOOKUP(A167,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211121133</v>
       </c>
       <c r="C167" t="str">
         <f>VLOOKUP(A167,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25725,9 +25837,9 @@
       <c r="A168">
         <v>4211121745</v>
       </c>
-      <c r="B168" t="e">
+      <c r="B168">
         <f>VLOOKUP(A168,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211121745</v>
       </c>
       <c r="C168" t="str">
         <f>VLOOKUP(A168,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25907,9 +26019,9 @@
       <c r="A182">
         <v>4210004989</v>
       </c>
-      <c r="B182" t="e">
+      <c r="B182">
         <f>VLOOKUP(A182,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210004989</v>
       </c>
       <c r="C182" t="str">
         <f>VLOOKUP(A182,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26128,9 +26240,9 @@
       <c r="A199">
         <v>4210152113</v>
       </c>
-      <c r="B199" t="e">
+      <c r="B199">
         <f>VLOOKUP(A199,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210152113</v>
       </c>
       <c r="C199" t="str">
         <f>VLOOKUP(A199,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26154,9 +26266,9 @@
       <c r="A201">
         <v>4210827877</v>
       </c>
-      <c r="B201" t="e">
+      <c r="B201">
         <f>VLOOKUP(A201,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210827877</v>
       </c>
       <c r="C201" t="str">
         <f>VLOOKUP(A201,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26284,9 +26396,9 @@
       <c r="A211">
         <v>4210250290</v>
       </c>
-      <c r="B211" t="e">
+      <c r="B211">
         <f>VLOOKUP(A211,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210250290</v>
       </c>
       <c r="C211" t="str">
         <f>VLOOKUP(A211,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26466,9 +26578,9 @@
       <c r="A225">
         <v>4210376988</v>
       </c>
-      <c r="B225" t="e">
+      <c r="B225">
         <f>VLOOKUP(A225,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210376988</v>
       </c>
       <c r="C225" t="str">
         <f>VLOOKUP(A225,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26804,9 +26916,9 @@
       <c r="A251">
         <v>4210534997</v>
       </c>
-      <c r="B251" t="e">
+      <c r="B251">
         <f>VLOOKUP(A251,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210534997</v>
       </c>
       <c r="C251" t="str">
         <f>VLOOKUP(A251,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26856,9 +26968,9 @@
       <c r="A255">
         <v>4210929697</v>
       </c>
-      <c r="B255" t="e">
+      <c r="B255">
         <f>VLOOKUP(A255,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210929697</v>
       </c>
       <c r="C255" t="str">
         <f>VLOOKUP(A255,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26960,9 +27072,9 @@
       <c r="A263">
         <v>4210632010</v>
       </c>
-      <c r="B263" t="e">
+      <c r="B263">
         <f>VLOOKUP(A263,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210632010</v>
       </c>
       <c r="C263" t="str">
         <f>VLOOKUP(A263,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27389,9 +27501,9 @@
       <c r="A296">
         <v>4210019501</v>
       </c>
-      <c r="B296" t="e">
+      <c r="B296">
         <f>VLOOKUP(A296,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210019501</v>
       </c>
       <c r="C296" t="str">
         <f>VLOOKUP(A296,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27428,9 +27540,9 @@
       <c r="A299">
         <v>4210129193</v>
       </c>
-      <c r="B299" t="e">
+      <c r="B299">
         <f>VLOOKUP(A299,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210129193</v>
       </c>
       <c r="C299" t="str">
         <f>VLOOKUP(A299,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27454,9 +27566,9 @@
       <c r="A301">
         <v>4210179613</v>
       </c>
-      <c r="B301" t="e">
+      <c r="B301">
         <f>VLOOKUP(A301,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210179613</v>
       </c>
       <c r="C301" t="str">
         <f>VLOOKUP(A301,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27675,9 +27787,9 @@
       <c r="A318">
         <v>4210250376</v>
       </c>
-      <c r="B318" t="e">
+      <c r="B318">
         <f>VLOOKUP(A318,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210250376</v>
       </c>
       <c r="C318" t="str">
         <f>VLOOKUP(A318,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27701,9 +27813,9 @@
       <c r="A320">
         <v>4210266290</v>
       </c>
-      <c r="B320" t="e">
+      <c r="B320">
         <f>VLOOKUP(A320,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210266290</v>
       </c>
       <c r="C320" t="str">
         <f>VLOOKUP(A320,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27740,9 +27852,9 @@
       <c r="A323">
         <v>4210294377</v>
       </c>
-      <c r="B323" t="e">
+      <c r="B323">
         <f>VLOOKUP(A323,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210294377</v>
       </c>
       <c r="C323" t="str">
         <f>VLOOKUP(A323,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27857,9 +27969,9 @@
       <c r="A332">
         <v>4210419667</v>
       </c>
-      <c r="B332" t="e">
+      <c r="B332">
         <f>VLOOKUP(A332,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210419667</v>
       </c>
       <c r="C332" t="str">
         <f>VLOOKUP(A332,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28143,9 +28255,9 @@
       <c r="A354">
         <v>4210901008</v>
       </c>
-      <c r="B354" t="e">
+      <c r="B354">
         <f>VLOOKUP(A354,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210901008</v>
       </c>
       <c r="C354" t="str">
         <f>VLOOKUP(A354,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28325,9 +28437,9 @@
       <c r="A368">
         <v>4210770397</v>
       </c>
-      <c r="B368" t="e">
+      <c r="B368">
         <f>VLOOKUP(A368,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210770397</v>
       </c>
       <c r="C368" t="str">
         <f>VLOOKUP(A368,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28572,9 +28684,9 @@
       <c r="A387">
         <v>4210851640</v>
       </c>
-      <c r="B387" t="e">
+      <c r="B387">
         <f>VLOOKUP(A387,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210851640</v>
       </c>
       <c r="C387" t="str">
         <f>VLOOKUP(A387,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28767,9 +28879,9 @@
       <c r="A402">
         <v>4210214048</v>
       </c>
-      <c r="B402" t="e">
+      <c r="B402">
         <f>VLOOKUP(A402,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210214048</v>
       </c>
       <c r="C402" t="str">
         <f>VLOOKUP(A402,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29846,9 +29958,9 @@
       <c r="A485">
         <v>4210006329</v>
       </c>
-      <c r="B485" t="e">
+      <c r="B485">
         <f>VLOOKUP(A485,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210006329</v>
       </c>
       <c r="C485" t="str">
         <f>VLOOKUP(A485,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30262,9 +30374,9 @@
       <c r="A517">
         <v>4210365640</v>
       </c>
-      <c r="B517" t="e">
+      <c r="B517">
         <f>VLOOKUP(A517,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210365640</v>
       </c>
       <c r="C517" t="str">
         <f>VLOOKUP(A517,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30366,9 +30478,9 @@
       <c r="A525">
         <v>4210406475</v>
       </c>
-      <c r="B525" t="e">
+      <c r="B525">
         <f>VLOOKUP(A525,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210406475</v>
       </c>
       <c r="C525" t="str">
         <f>VLOOKUP(A525,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30418,9 +30530,9 @@
       <c r="A529">
         <v>4210811627</v>
       </c>
-      <c r="B529" t="e">
+      <c r="B529">
         <f>VLOOKUP(A529,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210811627</v>
       </c>
       <c r="C529" t="str">
         <f>VLOOKUP(A529,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30639,9 +30751,9 @@
       <c r="A546">
         <v>4210518577</v>
       </c>
-      <c r="B546" t="e">
+      <c r="B546">
         <f>VLOOKUP(A546,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210518577</v>
       </c>
       <c r="C546" t="str">
         <f>VLOOKUP(A546,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30756,9 +30868,9 @@
       <c r="A555">
         <v>4210592061</v>
       </c>
-      <c r="B555" t="e">
+      <c r="B555">
         <f>VLOOKUP(A555,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210592061</v>
       </c>
       <c r="C555" t="str">
         <f>VLOOKUP(A555,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30938,9 +31050,9 @@
       <c r="A569">
         <v>4210652554</v>
       </c>
-      <c r="B569" t="e">
+      <c r="B569">
         <f>VLOOKUP(A569,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210652554</v>
       </c>
       <c r="C569" t="str">
         <f>VLOOKUP(A569,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30964,9 +31076,9 @@
       <c r="A571">
         <v>4210523156</v>
       </c>
-      <c r="B571" t="e">
+      <c r="B571">
         <f>VLOOKUP(A571,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210523156</v>
       </c>
       <c r="C571" t="str">
         <f>VLOOKUP(A571,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31094,9 +31206,9 @@
       <c r="A581">
         <v>4210701833</v>
       </c>
-      <c r="B581" t="e">
+      <c r="B581">
         <f>VLOOKUP(A581,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210701833</v>
       </c>
       <c r="C581" t="str">
         <f>VLOOKUP(A581,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31679,9 +31791,9 @@
       <c r="A626">
         <v>4210841954</v>
       </c>
-      <c r="B626" t="e">
+      <c r="B626">
         <f>VLOOKUP(A626,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210841954</v>
       </c>
       <c r="C626" t="str">
         <f>VLOOKUP(A626,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31978,9 +32090,9 @@
       <c r="A649">
         <v>4210424900</v>
       </c>
-      <c r="B649" t="e">
+      <c r="B649">
         <f>VLOOKUP(A649,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210424900</v>
       </c>
       <c r="C649" t="str">
         <f>VLOOKUP(A649,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32433,9 +32545,9 @@
       <c r="A684">
         <v>4210634563</v>
       </c>
-      <c r="B684" t="e">
+      <c r="B684">
         <f>VLOOKUP(A684,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210634563</v>
       </c>
       <c r="C684" t="str">
         <f>VLOOKUP(A684,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32446,9 +32558,9 @@
       <c r="A685">
         <v>4210645803</v>
       </c>
-      <c r="B685" t="e">
+      <c r="B685">
         <f>VLOOKUP(A685,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210645803</v>
       </c>
       <c r="C685" t="str">
         <f>VLOOKUP(A685,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32511,9 +32623,9 @@
       <c r="A690">
         <v>4210509447</v>
       </c>
-      <c r="B690" t="e">
+      <c r="B690">
         <f>VLOOKUP(A690,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210509447</v>
       </c>
       <c r="C690" t="str">
         <f>VLOOKUP(A690,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32797,9 +32909,9 @@
       <c r="A712">
         <v>4210034578</v>
       </c>
-      <c r="B712" t="e">
+      <c r="B712">
         <f>VLOOKUP(A712,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210034578</v>
       </c>
       <c r="C712" t="str">
         <f>VLOOKUP(A712,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33057,9 +33169,9 @@
       <c r="A732">
         <v>4210051155</v>
       </c>
-      <c r="B732" t="e">
+      <c r="B732">
         <f>VLOOKUP(A732,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210051155</v>
       </c>
       <c r="C732" t="str">
         <f>VLOOKUP(A732,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33070,9 +33182,9 @@
       <c r="A733">
         <v>4210086103</v>
       </c>
-      <c r="B733" t="e">
+      <c r="B733">
         <f>VLOOKUP(A733,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210086103</v>
       </c>
       <c r="C733" t="str">
         <f>VLOOKUP(A733,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33174,9 +33286,9 @@
       <c r="A741">
         <v>4210151088</v>
       </c>
-      <c r="B741" t="e">
+      <c r="B741">
         <f>VLOOKUP(A741,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210151088</v>
       </c>
       <c r="C741" t="str">
         <f>VLOOKUP(A741,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33239,9 +33351,9 @@
       <c r="A746">
         <v>4210196693</v>
       </c>
-      <c r="B746" t="e">
+      <c r="B746">
         <f>VLOOKUP(A746,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210196693</v>
       </c>
       <c r="C746" t="str">
         <f>VLOOKUP(A746,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33603,9 +33715,9 @@
       <c r="A774">
         <v>4210837418</v>
       </c>
-      <c r="B774" t="e">
+      <c r="B774">
         <f>VLOOKUP(A774,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210837418</v>
       </c>
       <c r="C774" t="str">
         <f>VLOOKUP(A774,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33993,9 +34105,9 @@
       <c r="A804">
         <v>4210388883</v>
       </c>
-      <c r="B804" t="e">
+      <c r="B804">
         <f>VLOOKUP(A804,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210388883</v>
       </c>
       <c r="C804" t="str">
         <f>VLOOKUP(A804,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34253,9 +34365,9 @@
       <c r="A824">
         <v>4210326134</v>
       </c>
-      <c r="B824" t="e">
+      <c r="B824">
         <f>VLOOKUP(A824,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210326134</v>
       </c>
       <c r="C824" t="str">
         <f>VLOOKUP(A824,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34513,9 +34625,9 @@
       <c r="A844">
         <v>4210024291</v>
       </c>
-      <c r="B844" t="e">
+      <c r="B844">
         <f>VLOOKUP(A844,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210024291</v>
       </c>
       <c r="C844" t="str">
         <f>VLOOKUP(A844,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -35085,9 +35197,9 @@
       <c r="A888">
         <v>4210613161</v>
       </c>
-      <c r="B888" t="e">
+      <c r="B888">
         <f>VLOOKUP(A888,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210613161</v>
       </c>
       <c r="C888" t="str">
         <f>VLOOKUP(A888,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -35176,9 +35288,9 @@
       <c r="A895">
         <v>4210926050</v>
       </c>
-      <c r="B895" t="e">
+      <c r="B895">
         <f>VLOOKUP(A895,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210926050</v>
       </c>
       <c r="C895" t="str">
         <f>VLOOKUP(A895,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -35319,9 +35431,9 @@
       <c r="A906">
         <v>4210566641</v>
       </c>
-      <c r="B906" t="e">
+      <c r="B906">
         <f>VLOOKUP(A906,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210566641</v>
       </c>
       <c r="C906" t="str">
         <f>VLOOKUP(A906,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE6D8E-79CD-4BB5-A42D-D1CA3413E22A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1CB52A-047A-4533-933D-190CB3D1A2A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8081,8 +8081,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E315" sqref="E315"/>
+    <sheetView tabSelected="1" topLeftCell="A369" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B392" sqref="B392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8108,7 +8108,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>4210229139</v>
+        <v>4210117534</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -8120,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4210892402</v>
+        <v>4210229139</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -8132,7 +8132,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4210770397</v>
+        <v>4210892402</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -8144,7 +8144,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4211019772</v>
+        <v>4210770397</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -8156,7 +8156,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4210588368</v>
+        <v>4211019772</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -8168,7 +8168,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>4210102740</v>
+        <v>4210588368</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -8180,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4210573844</v>
+        <v>4210102740</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -8192,7 +8192,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4210717435</v>
+        <v>4210573844</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -8204,7 +8204,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4210125404</v>
+        <v>4210717435</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -8216,7 +8216,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>4210198826</v>
+        <v>4210125404</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -8228,7 +8228,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>4210294377</v>
+        <v>4210174477</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -8240,7 +8240,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4210381581</v>
+        <v>4210198826</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -8252,7 +8252,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>4210488625</v>
+        <v>4210294377</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>4210509596</v>
+        <v>4210381581</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -8276,7 +8276,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>4210652554</v>
+        <v>4210488625</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -8288,7 +8288,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>4210904865</v>
+        <v>4210509596</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -8300,7 +8300,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>4210216114</v>
+        <v>4210598011</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -8312,7 +8312,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>4210344078</v>
+        <v>4210652554</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -8324,7 +8324,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>4210371025</v>
+        <v>4210904865</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -8336,7 +8336,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>4211020605</v>
+        <v>4210216114</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -8348,7 +8348,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>4210733151</v>
+        <v>4210344078</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -8360,7 +8360,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>4210266290</v>
+        <v>4210574089</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -8372,7 +8372,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>4210262295</v>
+        <v>4210371025</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -8384,7 +8384,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>4210420939</v>
+        <v>4211020605</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -8396,7 +8396,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>4210254607</v>
+        <v>4210733151</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -8408,7 +8408,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>4210556661</v>
+        <v>4210266290</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -8420,7 +8420,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>4210034578</v>
+        <v>4210262295</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -8432,7 +8432,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>4210127378</v>
+        <v>4210420939</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -8444,7 +8444,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>4210127746</v>
+        <v>4210254607</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -8456,7 +8456,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>4210132639</v>
+        <v>4210556661</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -8468,7 +8468,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4210322467</v>
+        <v>4210034578</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -8480,7 +8480,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4210404572</v>
+        <v>4210044558</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -8492,7 +8492,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4210405406</v>
+        <v>4210127378</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -8504,7 +8504,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>4210419667</v>
+        <v>4210127746</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -8516,7 +8516,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>4210689843</v>
+        <v>4210132639</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -8528,7 +8528,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4210701271</v>
+        <v>4210322467</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -8540,7 +8540,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4210791799</v>
+        <v>4210404572</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -8552,7 +8552,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4210613161</v>
+        <v>4210405406</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -8564,7 +8564,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4210771684</v>
+        <v>4210419667</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -8576,7 +8576,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>4210932363</v>
+        <v>4210689843</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -8588,7 +8588,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>4210766426</v>
+        <v>4210701271</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -8600,7 +8600,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>4210371603</v>
+        <v>4210791799</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -8612,7 +8612,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>4210406120</v>
+        <v>4210613161</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -8624,7 +8624,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>4210020005</v>
+        <v>4210771684</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -8636,7 +8636,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>4210131654</v>
+        <v>4210932363</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -8648,7 +8648,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>4210141892</v>
+        <v>4210766426</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -8660,7 +8660,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>4210394400</v>
+        <v>4210371603</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -8672,7 +8672,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>4210394946</v>
+        <v>4210406120</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -8684,7 +8684,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>4210413345</v>
+        <v>4210020005</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -8696,7 +8696,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>4210511277</v>
+        <v>4210131654</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -8708,7 +8708,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>4210541877</v>
+        <v>4210141892</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -8720,7 +8720,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4210929697</v>
+        <v>4210394400</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -8732,7 +8732,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4210003837</v>
+        <v>4210394946</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -8744,7 +8744,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>4210004223</v>
+        <v>4210413345</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -8756,7 +8756,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>4210234367</v>
+        <v>4210511277</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -8768,7 +8768,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>4210391139</v>
+        <v>4210541877</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -8780,7 +8780,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>4210533040</v>
+        <v>4210831159</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -8792,7 +8792,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>4210558291</v>
+        <v>4210188182</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -8804,7 +8804,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>4210606361</v>
+        <v>4210929697</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>4210635825</v>
+        <v>4210003837</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -8828,7 +8828,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>4210720296</v>
+        <v>4210004223</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -8840,7 +8840,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>4210843009</v>
+        <v>4210234367</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -8852,7 +8852,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>4210563716</v>
+        <v>4210391139</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -8864,7 +8864,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>4210398396</v>
+        <v>4210393571</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -8876,7 +8876,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>4210479488</v>
+        <v>4210533040</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -8888,7 +8888,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>4210566641</v>
+        <v>4210558291</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -8900,7 +8900,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>4210213587</v>
+        <v>4210606361</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -8912,7 +8912,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>4210600446</v>
+        <v>4210635825</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -8924,7 +8924,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>4210214048</v>
+        <v>4210720296</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -8936,7 +8936,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>4210853920</v>
+        <v>4210843009</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -8948,7 +8948,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>4210447996</v>
+        <v>4210563716</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -8960,7 +8960,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>4210534997</v>
+        <v>4210224238</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -8972,7 +8972,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>4210723948</v>
+        <v>4210398396</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -8984,7 +8984,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>4210754698</v>
+        <v>4210190103</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -8996,7 +8996,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>4210926050</v>
+        <v>4210479488</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -9008,7 +9008,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>4210542091</v>
+        <v>4210566641</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -9020,7 +9020,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>4210222026</v>
+        <v>4210213587</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -9032,7 +9032,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>4210313376</v>
+        <v>4210600446</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -9044,7 +9044,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>4210260173</v>
+        <v>4210214048</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -9056,7 +9056,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>4210033127</v>
+        <v>4210853920</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -9068,7 +9068,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>4210072674</v>
+        <v>4210317095</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -9080,7 +9080,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>4210482370</v>
+        <v>4210292583</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -9092,7 +9092,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>4210167551</v>
+        <v>4210447996</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -9104,7 +9104,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>4210843672</v>
+        <v>4210534997</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -9116,7 +9116,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>4210523147</v>
+        <v>4210639556</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -9128,7 +9128,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>4210406049</v>
+        <v>4210723948</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -9140,7 +9140,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>4210639267</v>
+        <v>4210754698</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -9152,7 +9152,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>4210598540</v>
+        <v>4210926050</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -9164,7 +9164,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>4210535673</v>
+        <v>4210542091</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -9176,7 +9176,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>4210500818</v>
+        <v>4210222026</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -9188,7 +9188,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>4210003521</v>
+        <v>4210313376</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -9200,7 +9200,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>4210062548</v>
+        <v>4210260173</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -9212,7 +9212,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>4210133586</v>
+        <v>4210033127</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -9224,7 +9224,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>4210248451</v>
+        <v>4210072674</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -9236,7 +9236,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>4210272828</v>
+        <v>4210482370</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -9248,7 +9248,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>4210320285</v>
+        <v>4210167551</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -9260,7 +9260,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>4210396939</v>
+        <v>4210843672</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -9272,7 +9272,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>4210403019</v>
+        <v>4210523147</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -9284,7 +9284,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>4210420096</v>
+        <v>4211060527</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -9296,7 +9296,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>4210597778</v>
+        <v>4210406049</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -9308,7 +9308,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>4210632710</v>
+        <v>4210639267</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -9320,7 +9320,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>4210645803</v>
+        <v>4210598540</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -9332,7 +9332,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>4210690272</v>
+        <v>4210385056</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -9344,7 +9344,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>4210695149</v>
+        <v>4210535673</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -9356,7 +9356,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>4210706422</v>
+        <v>4210500818</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -9368,7 +9368,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>4210885456</v>
+        <v>4210003521</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -9380,7 +9380,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>4210920767</v>
+        <v>4210062548</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -9392,7 +9392,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>4210955715</v>
+        <v>4210124089</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -9404,7 +9404,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>4211143631</v>
+        <v>4210133586</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -9416,7 +9416,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>4210665237</v>
+        <v>4210188218</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -9428,7 +9428,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>4210208750</v>
+        <v>4210248451</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -9440,7 +9440,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>4210586900</v>
+        <v>4210272828</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -9452,7 +9452,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>4210433177</v>
+        <v>4210320285</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -9464,7 +9464,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>4210911313</v>
+        <v>4210389070</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -9476,7 +9476,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>4211122411</v>
+        <v>4210396939</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -9488,7 +9488,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>4210855921</v>
+        <v>4210403019</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -9500,7 +9500,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>4210009062</v>
+        <v>4210420096</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -9512,7 +9512,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>4210648248</v>
+        <v>4210559074</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -9524,7 +9524,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>4210356297</v>
+        <v>4210597778</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -9536,7 +9536,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>4210411973</v>
+        <v>4210632710</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -9548,7 +9548,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>4210273020</v>
+        <v>4210633465</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -9560,7 +9560,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>4210264695</v>
+        <v>4210645803</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -9572,7 +9572,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>4210509447</v>
+        <v>4210690272</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -9584,7 +9584,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>4210921232</v>
+        <v>4210695149</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -9596,7 +9596,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>4211189006</v>
+        <v>4210706422</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -9608,7 +9608,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>4210621591</v>
+        <v>4210830351</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -9620,7 +9620,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>4210392055</v>
+        <v>4210885456</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -9632,7 +9632,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>4210059000</v>
+        <v>4210920767</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -9644,7 +9644,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>4211050835</v>
+        <v>4210955715</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -9656,7 +9656,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>4210073431</v>
+        <v>4210967793</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -9668,7 +9668,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>4210222465</v>
+        <v>4211143631</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -9680,7 +9680,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>4210321387</v>
+        <v>4210665237</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -9692,7 +9692,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>4210497292</v>
+        <v>4210208750</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -9704,7 +9704,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>4210185227</v>
+        <v>4210586900</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -9716,7 +9716,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>4210151586</v>
+        <v>4210433177</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -9728,7 +9728,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>4211014966</v>
+        <v>4210911313</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -9740,7 +9740,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>4211039341</v>
+        <v>4210745675</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -9752,7 +9752,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>4210128315</v>
+        <v>4211122411</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
@@ -9764,7 +9764,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>4210201732</v>
+        <v>4210855921</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -9776,7 +9776,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>4210267013</v>
+        <v>4210009062</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
@@ -9788,7 +9788,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>4210385160</v>
+        <v>4210648248</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -9800,7 +9800,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>4210457607</v>
+        <v>4210356297</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -9812,7 +9812,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>4210518577</v>
+        <v>4210411973</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -9824,7 +9824,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>4211117196</v>
+        <v>4210273020</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -9836,7 +9836,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>4210199520</v>
+        <v>4210264695</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -9848,7 +9848,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>4210354861</v>
+        <v>4210930375</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -9860,7 +9860,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>4210461415</v>
+        <v>4210278245</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -9872,7 +9872,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>4210354387</v>
+        <v>4210502557</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -9884,7 +9884,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>4210386755</v>
+        <v>4210509447</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -9896,7 +9896,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>4210043894</v>
+        <v>4210921232</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -9908,7 +9908,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>4210122182</v>
+        <v>4211189006</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -9920,7 +9920,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>4210142349</v>
+        <v>4210122458</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
@@ -9932,7 +9932,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>4210383149</v>
+        <v>4210621591</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -9944,7 +9944,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>4210424900</v>
+        <v>4210392055</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -9956,7 +9956,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>4210769887</v>
+        <v>4210806396</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -9968,7 +9968,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>4210897066</v>
+        <v>4210059000</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
@@ -9980,7 +9980,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>4210117447</v>
+        <v>4211050835</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -9992,7 +9992,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>4210151088</v>
+        <v>4210073431</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -10004,7 +10004,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>4210462732</v>
+        <v>4210222465</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -10016,7 +10016,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>4210176463</v>
+        <v>4210321387</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -10028,7 +10028,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>4210047154</v>
+        <v>4210497292</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -10040,7 +10040,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>4210922651</v>
+        <v>4210185227</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
@@ -10052,7 +10052,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>4210155613</v>
+        <v>4210151586</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -10064,7 +10064,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>4210167563</v>
+        <v>4211014966</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -10076,7 +10076,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>4210194296</v>
+        <v>4211039341</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -10088,7 +10088,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>4210452807</v>
+        <v>4210128315</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
@@ -10100,7 +10100,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>4210523627</v>
+        <v>4210201732</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -10112,7 +10112,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>4210523156</v>
+        <v>4210267013</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
@@ -10124,7 +10124,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>4210079772</v>
+        <v>4210385160</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -10136,7 +10136,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>4210166153</v>
+        <v>4210457607</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
@@ -10148,7 +10148,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>4211047440</v>
+        <v>4210518577</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -10160,7 +10160,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>4210701833</v>
+        <v>4210875091</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
@@ -10172,7 +10172,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>4210179613</v>
+        <v>4211117196</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -10184,7 +10184,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>4210230359</v>
+        <v>4210199520</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
@@ -10196,7 +10196,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>4210321845</v>
+        <v>4211054741</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -10208,7 +10208,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>4210420336</v>
+        <v>4210354861</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -10220,7 +10220,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>4210671598</v>
+        <v>4210461415</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -10232,7 +10232,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>4210841954</v>
+        <v>4210354387</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
@@ -10244,7 +10244,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>4210851034</v>
+        <v>4210386755</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
@@ -10256,7 +10256,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>4210396117</v>
+        <v>4210043894</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
@@ -10268,7 +10268,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>4210020577</v>
+        <v>4210122182</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
@@ -10280,7 +10280,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>4210050876</v>
+        <v>4210142349</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -10292,7 +10292,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>4210178048</v>
+        <v>4210383149</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
@@ -10304,7 +10304,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>4210183791</v>
+        <v>4210424900</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
@@ -10316,7 +10316,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>4210384491</v>
+        <v>4210769887</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
@@ -10328,7 +10328,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>4210282624</v>
+        <v>4210897066</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
@@ -10340,7 +10340,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>4210537453</v>
+        <v>4210117447</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -10352,7 +10352,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>4210329350</v>
+        <v>4210151088</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -10364,7 +10364,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>4211121745</v>
+        <v>4210462732</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -10376,7 +10376,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>4210837418</v>
+        <v>4210176463</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -10388,7 +10388,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>4210928075</v>
+        <v>4210047154</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -10400,7 +10400,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>4210005081</v>
+        <v>4210922651</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -10412,7 +10412,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>4210716858</v>
+        <v>4210155613</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -10424,7 +10424,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>4210065219</v>
+        <v>4210167563</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
@@ -10436,7 +10436,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>4210941041</v>
+        <v>4210194296</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
@@ -10448,7 +10448,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>4210500697</v>
+        <v>4210255777</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
@@ -10460,7 +10460,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>4210113372</v>
+        <v>4210452807</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -10472,7 +10472,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>4210213661</v>
+        <v>4210523627</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
@@ -10484,7 +10484,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>4210598087</v>
+        <v>4211123262</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
@@ -10496,7 +10496,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>4210610217</v>
+        <v>4210523156</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -10508,7 +10508,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>4210646368</v>
+        <v>4210079772</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
@@ -10520,7 +10520,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>4210596404</v>
+        <v>4210166153</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
@@ -10532,7 +10532,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>4210533998</v>
+        <v>4211047440</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
@@ -10544,7 +10544,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>4210162326</v>
+        <v>4210691393</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -10556,7 +10556,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>4210514973</v>
+        <v>4210701833</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
@@ -10568,7 +10568,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>4211121133</v>
+        <v>4210179613</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
@@ -10580,7 +10580,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>4210024291</v>
+        <v>4210230359</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>2</v>
@@ -10592,7 +10592,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>4210296631</v>
+        <v>4210321845</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>2</v>
@@ -10604,7 +10604,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>4210406475</v>
+        <v>4210347256</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>2</v>
@@ -10616,7 +10616,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>4210592061</v>
+        <v>4210420336</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
@@ -10628,7 +10628,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>4210619540</v>
+        <v>4210671598</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
@@ -10640,7 +10640,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>4210608974</v>
+        <v>4210841954</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>2</v>
@@ -10652,7 +10652,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>4210301184</v>
+        <v>4210851034</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
@@ -10664,7 +10664,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>4210250290</v>
+        <v>4210396117</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
@@ -10676,7 +10676,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>4210414276</v>
+        <v>4210209432</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>2</v>
@@ -10688,7 +10688,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>4210851640</v>
+        <v>4210020577</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>2</v>
@@ -10700,7 +10700,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>4210632010</v>
+        <v>4210050876</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>2</v>
@@ -10712,7 +10712,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>4210691687</v>
+        <v>4210178048</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>2</v>
@@ -10724,7 +10724,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>4210128706</v>
+        <v>4210183791</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>2</v>
@@ -10736,7 +10736,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>4210429692</v>
+        <v>4210384491</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>2</v>
@@ -10748,7 +10748,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>4210457601</v>
+        <v>4210652631</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>2</v>
@@ -10760,7 +10760,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>4210487716</v>
+        <v>4210282624</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>2</v>
@@ -10772,7 +10772,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>4210525608</v>
+        <v>4210537453</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>2</v>
@@ -10784,7 +10784,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>4210697405</v>
+        <v>4210329350</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>2</v>
@@ -10796,7 +10796,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>4210871317</v>
+        <v>4211121745</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>2</v>
@@ -10808,7 +10808,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>4210198794</v>
+        <v>4210837418</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>2</v>
@@ -10820,7 +10820,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>4210200416</v>
+        <v>4210928075</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
@@ -10832,7 +10832,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>4210211263</v>
+        <v>4210005081</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>2</v>
@@ -10844,7 +10844,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>4210841799</v>
+        <v>4210716858</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
@@ -10856,7 +10856,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>4210003908</v>
+        <v>4210065219</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>2</v>
@@ -10868,7 +10868,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>4210113485</v>
+        <v>4210941041</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>2</v>
@@ -10880,7 +10880,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>4210185045</v>
+        <v>4210500697</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
@@ -10892,7 +10892,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>4210244610</v>
+        <v>4210113372</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>2</v>
@@ -10904,7 +10904,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>4210496119</v>
+        <v>4210145794</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>2</v>
@@ -10916,7 +10916,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>4210521327</v>
+        <v>4210213661</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
@@ -10928,7 +10928,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>4210050280</v>
+        <v>4210598087</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>2</v>
@@ -10940,7 +10940,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>4210372229</v>
+        <v>4210610217</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>2</v>
@@ -10952,7 +10952,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>4210326134</v>
+        <v>4210646368</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>2</v>
@@ -10964,7 +10964,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>4210535776</v>
+        <v>4210596404</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>2</v>
@@ -10976,7 +10976,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>4210359992</v>
+        <v>4210533998</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>2</v>
@@ -10988,7 +10988,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>4210380505</v>
+        <v>4210162326</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>2</v>
@@ -11000,7 +11000,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>4210502346</v>
+        <v>4210514973</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>2</v>
@@ -11012,7 +11012,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>4210114589</v>
+        <v>4210698032</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
@@ -11024,7 +11024,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>4210273236</v>
+        <v>4211121133</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>2</v>
@@ -11036,7 +11036,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>4210270390</v>
+        <v>4210024291</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
@@ -11048,7 +11048,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>4210236802</v>
+        <v>4210140346</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>2</v>
@@ -11060,7 +11060,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>4210342956</v>
+        <v>4210296631</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>2</v>
@@ -11072,7 +11072,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>4210548527</v>
+        <v>4210406475</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>2</v>
@@ -11084,7 +11084,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>4210019501</v>
+        <v>4210592061</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>2</v>
@@ -11096,7 +11096,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>4210347993</v>
+        <v>4210956722</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>2</v>
@@ -11108,7 +11108,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>4210309982</v>
+        <v>4210619540</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>2</v>
@@ -11120,7 +11120,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>4210378870</v>
+        <v>4210608974</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
@@ -11132,7 +11132,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>4210702558</v>
+        <v>4210301184</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
@@ -11144,7 +11144,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>4210420793</v>
+        <v>4210250290</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
@@ -11156,7 +11156,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>4210250376</v>
+        <v>4210155525</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
@@ -11168,7 +11168,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>4210879411</v>
+        <v>4210414276</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
@@ -11180,7 +11180,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>4210421903</v>
+        <v>4210851640</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
@@ -11192,7 +11192,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>4210004989</v>
+        <v>4210632010</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
@@ -11204,7 +11204,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>4210129193</v>
+        <v>4210691687</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
@@ -11216,7 +11216,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>4210654402</v>
+        <v>4210128706</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
@@ -11228,7 +11228,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>4210178645</v>
+        <v>4210429692</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
@@ -11240,7 +11240,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>4210740672</v>
+        <v>4210457601</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
@@ -11252,7 +11252,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>4210006329</v>
+        <v>4210487716</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
@@ -11264,7 +11264,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>4210031752</v>
+        <v>4210525608</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
@@ -11276,7 +11276,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>4210152113</v>
+        <v>4210697405</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
@@ -11288,7 +11288,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>4210214619</v>
+        <v>4210871317</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
@@ -11300,7 +11300,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>4210420791</v>
+        <v>4210478093</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
@@ -11312,7 +11312,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>4210477209</v>
+        <v>4210623671</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
@@ -11324,7 +11324,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>4210866906</v>
+        <v>4210198794</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>2</v>
@@ -11336,7 +11336,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>4210376988</v>
+        <v>4210200416</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>2</v>
@@ -11348,7 +11348,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>4210086965</v>
+        <v>4210211263</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>2</v>
@@ -11360,7 +11360,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>4210398274</v>
+        <v>4210841799</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>2</v>
@@ -11372,7 +11372,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>4210062240</v>
+        <v>4210009943</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>2</v>
@@ -11384,7 +11384,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>4210086103</v>
+        <v>4210003908</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>2</v>
@@ -11396,7 +11396,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>4210143635</v>
+        <v>4210113485</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>2</v>
@@ -11408,7 +11408,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1">
-        <v>4210179047</v>
+        <v>4210185045</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>2</v>
@@ -11420,7 +11420,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>4210405046</v>
+        <v>4210061222</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>2</v>
@@ -11432,7 +11432,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>4210522831</v>
+        <v>4210239886</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>2</v>
@@ -11444,7 +11444,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>4210560300</v>
+        <v>4210244610</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>2</v>
@@ -11456,7 +11456,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>4210036943</v>
+        <v>4210496119</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>2</v>
@@ -11468,7 +11468,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>4210003083</v>
+        <v>4210521327</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>2</v>
@@ -11480,7 +11480,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>4210919520</v>
+        <v>4210050280</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>2</v>
@@ -11492,7 +11492,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>4210104513</v>
+        <v>4210372229</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>2</v>
@@ -11504,7 +11504,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1">
-        <v>4210414207</v>
+        <v>4210326134</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>2</v>
@@ -11516,7 +11516,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1">
-        <v>4210483345</v>
+        <v>4210535776</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>2</v>
@@ -11528,7 +11528,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1">
-        <v>4210552779</v>
+        <v>4210359992</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>2</v>
@@ -11540,7 +11540,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1">
-        <v>4210718468</v>
+        <v>4210380505</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>2</v>
@@ -11552,7 +11552,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>4210974262</v>
+        <v>4210502346</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>2</v>
@@ -11564,7 +11564,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>4210247519</v>
+        <v>4210737822</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>2</v>
@@ -11576,7 +11576,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>4210652133</v>
+        <v>4210114589</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>2</v>
@@ -11588,7 +11588,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>4210099442</v>
+        <v>4210273236</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>2</v>
@@ -11600,7 +11600,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>4210312209</v>
+        <v>4210270390</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>2</v>
@@ -11612,7 +11612,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>4210399799</v>
+        <v>4210161201</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>2</v>
@@ -11624,7 +11624,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>4210485733</v>
+        <v>4210236802</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>2</v>
@@ -11636,7 +11636,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>4210960649</v>
+        <v>4210342956</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>2</v>
@@ -11648,7 +11648,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>4210811627</v>
+        <v>4210548527</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>2</v>
@@ -11660,7 +11660,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>4210337818</v>
+        <v>4210019501</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>2</v>
@@ -11672,7 +11672,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>4210634563</v>
+        <v>4210347993</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>2</v>
@@ -11684,7 +11684,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>4210051155</v>
+        <v>4210487162</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
@@ -11696,7 +11696,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>4210168043</v>
+        <v>4210208571</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>2</v>
@@ -11708,7 +11708,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>4210303219</v>
+        <v>4210515989</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>2</v>
@@ -11720,7 +11720,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>4210446245</v>
+        <v>4210309982</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>2</v>
@@ -11732,7 +11732,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>4210461149</v>
+        <v>4210378870</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>2</v>
@@ -11744,7 +11744,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>4210827877</v>
+        <v>4210702558</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -11756,7 +11756,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>4210901008</v>
+        <v>4210710191</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>2</v>
@@ -11768,7 +11768,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>4210423569</v>
+        <v>4210400589</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>2</v>
@@ -11780,7 +11780,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>4210669592</v>
+        <v>4210420793</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>2</v>
@@ -11792,7 +11792,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>4210534852</v>
+        <v>4210126712</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>2</v>
@@ -11804,7 +11804,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>4210001844</v>
+        <v>4210250376</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>2</v>
@@ -11816,7 +11816,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1">
-        <v>4210109667</v>
+        <v>4210407609</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>2</v>
@@ -11828,7 +11828,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1">
-        <v>4210196693</v>
+        <v>4210879411</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>2</v>
@@ -11840,7 +11840,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1">
-        <v>4210365640</v>
+        <v>4210421903</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>2</v>
@@ -11852,7 +11852,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1">
-        <v>4210548325</v>
+        <v>4210004989</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
@@ -11864,7 +11864,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1">
-        <v>4210554776</v>
+        <v>4210129193</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
@@ -11876,7 +11876,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1">
-        <v>4210388883</v>
+        <v>4210654402</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>2</v>
@@ -11888,7 +11888,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1">
-        <v>4210622646</v>
+        <v>4210178645</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>2</v>
@@ -11900,7 +11900,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1">
-        <v>4210905356</v>
+        <v>4210633293</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>2</v>
@@ -11912,7 +11912,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1">
-        <v>4210544812</v>
+        <v>4210740672</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
@@ -11924,7 +11924,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1">
-        <v>4210374075</v>
+        <v>4210006329</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
@@ -11936,7 +11936,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>4210918088</v>
+        <v>4210031752</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>2</v>
@@ -11948,7 +11948,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>4210276653</v>
+        <v>4210152113</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>2</v>
@@ -11960,7 +11960,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>4210671668</v>
+        <v>4210214619</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>2</v>
@@ -11972,7 +11972,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>4210727818</v>
+        <v>4210420791</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
@@ -11983,7 +11983,9 @@
         <f t="shared" si="5"/>
         <v>324</v>
       </c>
-      <c r="B325" s="1"/>
+      <c r="B325" s="1">
+        <v>4210477209</v>
+      </c>
       <c r="C325" s="1" t="s">
         <v>2</v>
       </c>
@@ -11993,7 +11995,9 @@
         <f t="shared" si="5"/>
         <v>325</v>
       </c>
-      <c r="B326" s="1"/>
+      <c r="B326" s="1">
+        <v>4210866906</v>
+      </c>
       <c r="C326" s="1" t="s">
         <v>2</v>
       </c>
@@ -12003,7 +12007,9 @@
         <f t="shared" si="5"/>
         <v>326</v>
       </c>
-      <c r="B327" s="1"/>
+      <c r="B327" s="1">
+        <v>4210376988</v>
+      </c>
       <c r="C327" s="1" t="s">
         <v>2</v>
       </c>
@@ -12013,7 +12019,9 @@
         <f t="shared" si="5"/>
         <v>327</v>
       </c>
-      <c r="B328" s="1"/>
+      <c r="B328" s="1">
+        <v>4210086965</v>
+      </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
       </c>
@@ -12023,7 +12031,9 @@
         <f t="shared" si="5"/>
         <v>328</v>
       </c>
-      <c r="B329" s="1"/>
+      <c r="B329" s="1">
+        <v>4210398274</v>
+      </c>
       <c r="C329" s="1" t="s">
         <v>2</v>
       </c>
@@ -12033,7 +12043,9 @@
         <f t="shared" si="5"/>
         <v>329</v>
       </c>
-      <c r="B330" s="1"/>
+      <c r="B330" s="1">
+        <v>4210062240</v>
+      </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
       </c>
@@ -12043,7 +12055,9 @@
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="B331" s="1"/>
+      <c r="B331" s="1">
+        <v>4210086103</v>
+      </c>
       <c r="C331" s="1" t="s">
         <v>2</v>
       </c>
@@ -12053,7 +12067,9 @@
         <f t="shared" si="5"/>
         <v>331</v>
       </c>
-      <c r="B332" s="1"/>
+      <c r="B332" s="1">
+        <v>4210143635</v>
+      </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
       </c>
@@ -12063,7 +12079,9 @@
         <f t="shared" si="5"/>
         <v>332</v>
       </c>
-      <c r="B333" s="1"/>
+      <c r="B333" s="1">
+        <v>4210179047</v>
+      </c>
       <c r="C333" s="1" t="s">
         <v>2</v>
       </c>
@@ -12073,7 +12091,9 @@
         <f t="shared" si="5"/>
         <v>333</v>
       </c>
-      <c r="B334" s="1"/>
+      <c r="B334" s="1">
+        <v>4210405046</v>
+      </c>
       <c r="C334" s="1" t="s">
         <v>2</v>
       </c>
@@ -12083,7 +12103,9 @@
         <f t="shared" si="5"/>
         <v>334</v>
       </c>
-      <c r="B335" s="1"/>
+      <c r="B335" s="1">
+        <v>4210522831</v>
+      </c>
       <c r="C335" s="1" t="s">
         <v>2</v>
       </c>
@@ -12093,7 +12115,9 @@
         <f t="shared" si="5"/>
         <v>335</v>
       </c>
-      <c r="B336" s="1"/>
+      <c r="B336" s="1">
+        <v>4210560300</v>
+      </c>
       <c r="C336" s="1" t="s">
         <v>2</v>
       </c>
@@ -12103,7 +12127,9 @@
         <f t="shared" si="5"/>
         <v>336</v>
       </c>
-      <c r="B337" s="1"/>
+      <c r="B337" s="1">
+        <v>4210036943</v>
+      </c>
       <c r="C337" s="1" t="s">
         <v>2</v>
       </c>
@@ -12113,7 +12139,9 @@
         <f t="shared" si="5"/>
         <v>337</v>
       </c>
-      <c r="B338" s="1"/>
+      <c r="B338" s="1">
+        <v>4210003083</v>
+      </c>
       <c r="C338" s="1" t="s">
         <v>2</v>
       </c>
@@ -12123,7 +12151,9 @@
         <f t="shared" si="5"/>
         <v>338</v>
       </c>
-      <c r="B339" s="1"/>
+      <c r="B339" s="1">
+        <v>4210919520</v>
+      </c>
       <c r="C339" s="1" t="s">
         <v>2</v>
       </c>
@@ -12133,7 +12163,9 @@
         <f t="shared" si="5"/>
         <v>339</v>
       </c>
-      <c r="B340" s="1"/>
+      <c r="B340" s="1">
+        <v>4210104513</v>
+      </c>
       <c r="C340" s="1" t="s">
         <v>2</v>
       </c>
@@ -12143,7 +12175,9 @@
         <f t="shared" si="5"/>
         <v>340</v>
       </c>
-      <c r="B341" s="1"/>
+      <c r="B341" s="1">
+        <v>4210337882</v>
+      </c>
       <c r="C341" s="1" t="s">
         <v>2</v>
       </c>
@@ -12153,7 +12187,9 @@
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
-      <c r="B342" s="1"/>
+      <c r="B342" s="1">
+        <v>4210414207</v>
+      </c>
       <c r="C342" s="1" t="s">
         <v>2</v>
       </c>
@@ -12163,7 +12199,9 @@
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
-      <c r="B343" s="1"/>
+      <c r="B343" s="1">
+        <v>4210478764</v>
+      </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
       </c>
@@ -12173,7 +12211,9 @@
         <f t="shared" si="5"/>
         <v>343</v>
       </c>
-      <c r="B344" s="1"/>
+      <c r="B344" s="1">
+        <v>4210483345</v>
+      </c>
       <c r="C344" s="1" t="s">
         <v>2</v>
       </c>
@@ -12183,7 +12223,9 @@
         <f t="shared" si="5"/>
         <v>344</v>
       </c>
-      <c r="B345" s="1"/>
+      <c r="B345" s="1">
+        <v>4210552779</v>
+      </c>
       <c r="C345" s="1" t="s">
         <v>2</v>
       </c>
@@ -12193,7 +12235,9 @@
         <f t="shared" si="5"/>
         <v>345</v>
       </c>
-      <c r="B346" s="1"/>
+      <c r="B346" s="1">
+        <v>4210718468</v>
+      </c>
       <c r="C346" s="1" t="s">
         <v>2</v>
       </c>
@@ -12203,7 +12247,9 @@
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
-      <c r="B347" s="1"/>
+      <c r="B347" s="1">
+        <v>4210974262</v>
+      </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
       </c>
@@ -12213,7 +12259,9 @@
         <f t="shared" si="5"/>
         <v>347</v>
       </c>
-      <c r="B348" s="1"/>
+      <c r="B348" s="1">
+        <v>4210247519</v>
+      </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
       </c>
@@ -12223,7 +12271,9 @@
         <f t="shared" si="5"/>
         <v>348</v>
       </c>
-      <c r="B349" s="1"/>
+      <c r="B349" s="1">
+        <v>4210652133</v>
+      </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
       </c>
@@ -12233,7 +12283,9 @@
         <f t="shared" si="5"/>
         <v>349</v>
       </c>
-      <c r="B350" s="1"/>
+      <c r="B350" s="1">
+        <v>4210059502</v>
+      </c>
       <c r="C350" s="1" t="s">
         <v>2</v>
       </c>
@@ -12243,7 +12295,9 @@
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="B351" s="1"/>
+      <c r="B351" s="1">
+        <v>4210099442</v>
+      </c>
       <c r="C351" s="1" t="s">
         <v>2</v>
       </c>
@@ -12253,7 +12307,9 @@
         <f t="shared" si="5"/>
         <v>351</v>
       </c>
-      <c r="B352" s="1"/>
+      <c r="B352" s="1">
+        <v>4210121557</v>
+      </c>
       <c r="C352" s="1" t="s">
         <v>2</v>
       </c>
@@ -12263,7 +12319,9 @@
         <f t="shared" si="5"/>
         <v>352</v>
       </c>
-      <c r="B353" s="1"/>
+      <c r="B353" s="1">
+        <v>4210312209</v>
+      </c>
       <c r="C353" s="1" t="s">
         <v>2</v>
       </c>
@@ -12273,7 +12331,9 @@
         <f t="shared" si="5"/>
         <v>353</v>
       </c>
-      <c r="B354" s="1"/>
+      <c r="B354" s="1">
+        <v>4210399799</v>
+      </c>
       <c r="C354" s="1" t="s">
         <v>2</v>
       </c>
@@ -12283,7 +12343,9 @@
         <f t="shared" si="5"/>
         <v>354</v>
       </c>
-      <c r="B355" s="1"/>
+      <c r="B355" s="1">
+        <v>4210418911</v>
+      </c>
       <c r="C355" s="1" t="s">
         <v>2</v>
       </c>
@@ -12293,7 +12355,9 @@
         <f t="shared" si="5"/>
         <v>355</v>
       </c>
-      <c r="B356" s="1"/>
+      <c r="B356" s="1">
+        <v>4210485733</v>
+      </c>
       <c r="C356" s="1" t="s">
         <v>2</v>
       </c>
@@ -12303,7 +12367,9 @@
         <f t="shared" si="5"/>
         <v>356</v>
       </c>
-      <c r="B357" s="1"/>
+      <c r="B357" s="1">
+        <v>4210960649</v>
+      </c>
       <c r="C357" s="1" t="s">
         <v>2</v>
       </c>
@@ -12313,7 +12379,9 @@
         <f t="shared" si="5"/>
         <v>357</v>
       </c>
-      <c r="B358" s="1"/>
+      <c r="B358" s="1">
+        <v>4210811627</v>
+      </c>
       <c r="C358" s="1" t="s">
         <v>2</v>
       </c>
@@ -12323,7 +12391,9 @@
         <f t="shared" si="5"/>
         <v>358</v>
       </c>
-      <c r="B359" s="1"/>
+      <c r="B359" s="1">
+        <v>4210458622</v>
+      </c>
       <c r="C359" s="1" t="s">
         <v>2</v>
       </c>
@@ -12333,7 +12403,9 @@
         <f t="shared" si="5"/>
         <v>359</v>
       </c>
-      <c r="B360" s="1"/>
+      <c r="B360" s="1">
+        <v>4210337818</v>
+      </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
       </c>
@@ -12343,7 +12415,9 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="B361" s="1"/>
+      <c r="B361" s="1">
+        <v>4210634563</v>
+      </c>
       <c r="C361" s="1" t="s">
         <v>2</v>
       </c>
@@ -12353,7 +12427,9 @@
         <f t="shared" si="5"/>
         <v>361</v>
       </c>
-      <c r="B362" s="1"/>
+      <c r="B362" s="1">
+        <v>4210051155</v>
+      </c>
       <c r="C362" s="1" t="s">
         <v>2</v>
       </c>
@@ -12363,7 +12439,9 @@
         <f t="shared" si="5"/>
         <v>362</v>
       </c>
-      <c r="B363" s="1"/>
+      <c r="B363" s="1">
+        <v>4210149575</v>
+      </c>
       <c r="C363" s="1" t="s">
         <v>2</v>
       </c>
@@ -12373,7 +12451,9 @@
         <f t="shared" si="5"/>
         <v>363</v>
       </c>
-      <c r="B364" s="1"/>
+      <c r="B364" s="1">
+        <v>4210168043</v>
+      </c>
       <c r="C364" s="1" t="s">
         <v>2</v>
       </c>
@@ -12383,7 +12463,9 @@
         <f t="shared" si="5"/>
         <v>364</v>
       </c>
-      <c r="B365" s="1"/>
+      <c r="B365" s="1">
+        <v>4210303219</v>
+      </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
       </c>
@@ -12393,7 +12475,9 @@
         <f t="shared" si="5"/>
         <v>365</v>
       </c>
-      <c r="B366" s="1"/>
+      <c r="B366" s="1">
+        <v>4210446245</v>
+      </c>
       <c r="C366" s="1" t="s">
         <v>2</v>
       </c>
@@ -12403,7 +12487,9 @@
         <f t="shared" si="5"/>
         <v>366</v>
       </c>
-      <c r="B367" s="1"/>
+      <c r="B367" s="1">
+        <v>4210461149</v>
+      </c>
       <c r="C367" s="1" t="s">
         <v>2</v>
       </c>
@@ -12413,7 +12499,9 @@
         <f t="shared" si="5"/>
         <v>367</v>
       </c>
-      <c r="B368" s="1"/>
+      <c r="B368" s="1">
+        <v>4210629760</v>
+      </c>
       <c r="C368" s="1" t="s">
         <v>2</v>
       </c>
@@ -12423,7 +12511,9 @@
         <f t="shared" si="5"/>
         <v>368</v>
       </c>
-      <c r="B369" s="1"/>
+      <c r="B369" s="1">
+        <v>4210827877</v>
+      </c>
       <c r="C369" s="1" t="s">
         <v>2</v>
       </c>
@@ -12433,7 +12523,9 @@
         <f t="shared" si="5"/>
         <v>369</v>
       </c>
-      <c r="B370" s="1"/>
+      <c r="B370" s="1">
+        <v>4210939924</v>
+      </c>
       <c r="C370" s="1" t="s">
         <v>2</v>
       </c>
@@ -12443,7 +12535,9 @@
         <f t="shared" si="5"/>
         <v>370</v>
       </c>
-      <c r="B371" s="1"/>
+      <c r="B371" s="1">
+        <v>4210207233</v>
+      </c>
       <c r="C371" s="1" t="s">
         <v>2</v>
       </c>
@@ -12453,7 +12547,9 @@
         <f t="shared" si="5"/>
         <v>371</v>
       </c>
-      <c r="B372" s="1"/>
+      <c r="B372" s="1">
+        <v>4210901008</v>
+      </c>
       <c r="C372" s="1" t="s">
         <v>2</v>
       </c>
@@ -12463,7 +12559,9 @@
         <f t="shared" si="5"/>
         <v>372</v>
       </c>
-      <c r="B373" s="1"/>
+      <c r="B373" s="1">
+        <v>4210423569</v>
+      </c>
       <c r="C373" s="1" t="s">
         <v>2</v>
       </c>
@@ -12473,7 +12571,9 @@
         <f t="shared" si="5"/>
         <v>373</v>
       </c>
-      <c r="B374" s="1"/>
+      <c r="B374" s="1">
+        <v>4210669592</v>
+      </c>
       <c r="C374" s="1" t="s">
         <v>2</v>
       </c>
@@ -12483,7 +12583,9 @@
         <f t="shared" si="5"/>
         <v>374</v>
       </c>
-      <c r="B375" s="1"/>
+      <c r="B375" s="1">
+        <v>4210534852</v>
+      </c>
       <c r="C375" s="1" t="s">
         <v>2</v>
       </c>
@@ -12493,7 +12595,9 @@
         <f t="shared" si="5"/>
         <v>375</v>
       </c>
-      <c r="B376" s="1"/>
+      <c r="B376" s="1">
+        <v>4210001844</v>
+      </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
       </c>
@@ -12503,7 +12607,9 @@
         <f t="shared" si="5"/>
         <v>376</v>
       </c>
-      <c r="B377" s="1"/>
+      <c r="B377" s="1">
+        <v>4210109667</v>
+      </c>
       <c r="C377" s="1" t="s">
         <v>2</v>
       </c>
@@ -12513,7 +12619,9 @@
         <f t="shared" si="5"/>
         <v>377</v>
       </c>
-      <c r="B378" s="1"/>
+      <c r="B378" s="1">
+        <v>4210196693</v>
+      </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
       </c>
@@ -12523,7 +12631,9 @@
         <f t="shared" si="5"/>
         <v>378</v>
       </c>
-      <c r="B379" s="1"/>
+      <c r="B379" s="1">
+        <v>4210365640</v>
+      </c>
       <c r="C379" s="1" t="s">
         <v>2</v>
       </c>
@@ -12533,7 +12643,9 @@
         <f t="shared" si="5"/>
         <v>379</v>
       </c>
-      <c r="B380" s="1"/>
+      <c r="B380" s="1">
+        <v>4210548325</v>
+      </c>
       <c r="C380" s="1" t="s">
         <v>2</v>
       </c>
@@ -12543,7 +12655,9 @@
         <f t="shared" si="5"/>
         <v>380</v>
       </c>
-      <c r="B381" s="1"/>
+      <c r="B381" s="1">
+        <v>4210554776</v>
+      </c>
       <c r="C381" s="1" t="s">
         <v>2</v>
       </c>
@@ -12553,7 +12667,9 @@
         <f t="shared" si="5"/>
         <v>381</v>
       </c>
-      <c r="B382" s="1"/>
+      <c r="B382" s="1">
+        <v>4210388883</v>
+      </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
       </c>
@@ -12563,7 +12679,9 @@
         <f t="shared" si="5"/>
         <v>382</v>
       </c>
-      <c r="B383" s="1"/>
+      <c r="B383" s="1">
+        <v>4210622646</v>
+      </c>
       <c r="C383" s="1" t="s">
         <v>2</v>
       </c>
@@ -12573,7 +12691,9 @@
         <f t="shared" si="5"/>
         <v>383</v>
       </c>
-      <c r="B384" s="1"/>
+      <c r="B384" s="1">
+        <v>4210905356</v>
+      </c>
       <c r="C384" s="1" t="s">
         <v>2</v>
       </c>
@@ -12583,7 +12703,9 @@
         <f t="shared" si="5"/>
         <v>384</v>
       </c>
-      <c r="B385" s="1"/>
+      <c r="B385" s="1">
+        <v>4210750427</v>
+      </c>
       <c r="C385" s="1" t="s">
         <v>2</v>
       </c>
@@ -12593,7 +12715,9 @@
         <f t="shared" ref="A386:A449" si="6">+A385+1</f>
         <v>385</v>
       </c>
-      <c r="B386" s="1"/>
+      <c r="B386" s="1">
+        <v>4210544812</v>
+      </c>
       <c r="C386" s="1" t="s">
         <v>2</v>
       </c>
@@ -12603,7 +12727,9 @@
         <f t="shared" si="6"/>
         <v>386</v>
       </c>
-      <c r="B387" s="1"/>
+      <c r="B387" s="1">
+        <v>4210374075</v>
+      </c>
       <c r="C387" s="1" t="s">
         <v>2</v>
       </c>
@@ -12613,7 +12739,9 @@
         <f t="shared" si="6"/>
         <v>387</v>
       </c>
-      <c r="B388" s="1"/>
+      <c r="B388" s="1">
+        <v>4210918088</v>
+      </c>
       <c r="C388" s="1" t="s">
         <v>2</v>
       </c>
@@ -12623,7 +12751,9 @@
         <f t="shared" si="6"/>
         <v>388</v>
       </c>
-      <c r="B389" s="1"/>
+      <c r="B389" s="1">
+        <v>4210276653</v>
+      </c>
       <c r="C389" s="1" t="s">
         <v>2</v>
       </c>
@@ -12633,7 +12763,9 @@
         <f t="shared" si="6"/>
         <v>389</v>
       </c>
-      <c r="B390" s="1"/>
+      <c r="B390" s="1">
+        <v>4210519195</v>
+      </c>
       <c r="C390" s="1" t="s">
         <v>2</v>
       </c>
@@ -12643,7 +12775,9 @@
         <f t="shared" si="6"/>
         <v>390</v>
       </c>
-      <c r="B391" s="1"/>
+      <c r="B391" s="1">
+        <v>4210671668</v>
+      </c>
       <c r="C391" s="1" t="s">
         <v>2</v>
       </c>
@@ -12653,7 +12787,9 @@
         <f t="shared" si="6"/>
         <v>391</v>
       </c>
-      <c r="B392" s="1"/>
+      <c r="B392" s="1">
+        <v>4210727818</v>
+      </c>
       <c r="C392" s="1" t="s">
         <v>2</v>
       </c>
@@ -24550,9 +24686,9 @@
       <c r="A69">
         <v>4210208571</v>
       </c>
-      <c r="B69" t="e">
+      <c r="B69">
         <f>VLOOKUP(A69,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210208571</v>
       </c>
       <c r="C69" t="str">
         <f>VLOOKUP(A69,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24654,9 +24790,9 @@
       <c r="A77">
         <v>4210278245</v>
       </c>
-      <c r="B77" t="e">
+      <c r="B77">
         <f>VLOOKUP(A77,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210278245</v>
       </c>
       <c r="C77" t="str">
         <f>VLOOKUP(A77,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24693,9 +24829,9 @@
       <c r="A80">
         <v>4210317095</v>
       </c>
-      <c r="B80" t="e">
+      <c r="B80">
         <f>VLOOKUP(A80,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210317095</v>
       </c>
       <c r="C80" t="str">
         <f>VLOOKUP(A80,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24771,9 +24907,9 @@
       <c r="A86">
         <v>4210347256</v>
       </c>
-      <c r="B86" t="e">
+      <c r="B86">
         <f>VLOOKUP(A86,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210347256</v>
       </c>
       <c r="C86" t="str">
         <f>VLOOKUP(A86,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -24862,9 +24998,9 @@
       <c r="A93">
         <v>4210389070</v>
       </c>
-      <c r="B93" t="e">
+      <c r="B93">
         <f>VLOOKUP(A93,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210389070</v>
       </c>
       <c r="C93" t="str">
         <f>VLOOKUP(A93,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25122,9 +25258,9 @@
       <c r="A113">
         <v>4210337882</v>
       </c>
-      <c r="B113" t="e">
+      <c r="B113">
         <f>VLOOKUP(A113,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210337882</v>
       </c>
       <c r="C113" t="str">
         <f>VLOOKUP(A113,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25135,9 +25271,9 @@
       <c r="A114">
         <v>4210478764</v>
       </c>
-      <c r="B114" t="e">
+      <c r="B114">
         <f>VLOOKUP(A114,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210478764</v>
       </c>
       <c r="C114" t="str">
         <f>VLOOKUP(A114,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25226,9 +25362,9 @@
       <c r="A121">
         <v>4210515989</v>
       </c>
-      <c r="B121" t="e">
+      <c r="B121">
         <f>VLOOKUP(A121,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210515989</v>
       </c>
       <c r="C121" t="str">
         <f>VLOOKUP(A121,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25343,9 +25479,9 @@
       <c r="A130">
         <v>4210956722</v>
       </c>
-      <c r="B130" t="e">
+      <c r="B130">
         <f>VLOOKUP(A130,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210956722</v>
       </c>
       <c r="C130" t="str">
         <f>VLOOKUP(A130,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25681,9 +25817,9 @@
       <c r="A156">
         <v>4210745675</v>
       </c>
-      <c r="B156" t="e">
+      <c r="B156">
         <f>VLOOKUP(A156,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210745675</v>
       </c>
       <c r="C156" t="str">
         <f>VLOOKUP(A156,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -25785,9 +25921,9 @@
       <c r="A164">
         <v>4211054741</v>
       </c>
-      <c r="B164" t="e">
+      <c r="B164">
         <f>VLOOKUP(A164,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211054741</v>
       </c>
       <c r="C164" t="str">
         <f>VLOOKUP(A164,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26071,9 +26207,9 @@
       <c r="A186">
         <v>4210044558</v>
       </c>
-      <c r="B186" t="e">
+      <c r="B186">
         <f>VLOOKUP(A186,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210044558</v>
       </c>
       <c r="C186" t="str">
         <f>VLOOKUP(A186,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26162,9 +26298,9 @@
       <c r="A193">
         <v>4210117534</v>
       </c>
-      <c r="B193" t="e">
+      <c r="B193">
         <f>VLOOKUP(A193,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210117534</v>
       </c>
       <c r="C193" t="str">
         <f>VLOOKUP(A193,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26201,9 +26337,9 @@
       <c r="A196">
         <v>4210126712</v>
       </c>
-      <c r="B196" t="e">
+      <c r="B196">
         <f>VLOOKUP(A196,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210126712</v>
       </c>
       <c r="C196" t="str">
         <f>VLOOKUP(A196,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26227,9 +26363,9 @@
       <c r="A198">
         <v>4210145794</v>
       </c>
-      <c r="B198" t="e">
+      <c r="B198">
         <f>VLOOKUP(A198,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210145794</v>
       </c>
       <c r="C198" t="str">
         <f>VLOOKUP(A198,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -26851,9 +26987,9 @@
       <c r="A246">
         <v>4210478093</v>
       </c>
-      <c r="B246" t="e">
+      <c r="B246">
         <f>VLOOKUP(A246,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210478093</v>
       </c>
       <c r="C246" t="str">
         <f>VLOOKUP(A246,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27059,9 +27195,9 @@
       <c r="A262">
         <v>4210629760</v>
       </c>
-      <c r="B262" t="e">
+      <c r="B262">
         <f>VLOOKUP(A262,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210629760</v>
       </c>
       <c r="C262" t="str">
         <f>VLOOKUP(A262,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27345,9 +27481,9 @@
       <c r="A284">
         <v>4211060527</v>
       </c>
-      <c r="B284" t="e">
+      <c r="B284">
         <f>VLOOKUP(A284,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211060527</v>
       </c>
       <c r="C284" t="str">
         <f>VLOOKUP(A284,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27644,9 +27780,9 @@
       <c r="A307">
         <v>4210174477</v>
       </c>
-      <c r="B307" t="e">
+      <c r="B307">
         <f>VLOOKUP(A307,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210174477</v>
       </c>
       <c r="C307" t="str">
         <f>VLOOKUP(A307,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27657,9 +27793,9 @@
       <c r="A308">
         <v>4210209432</v>
       </c>
-      <c r="B308" t="e">
+      <c r="B308">
         <f>VLOOKUP(A308,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210209432</v>
       </c>
       <c r="C308" t="str">
         <f>VLOOKUP(A308,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27709,9 +27845,9 @@
       <c r="A312">
         <v>4210224238</v>
       </c>
-      <c r="B312" t="e">
+      <c r="B312">
         <f>VLOOKUP(A312,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210224238</v>
       </c>
       <c r="C312" t="str">
         <f>VLOOKUP(A312,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27748,9 +27884,9 @@
       <c r="A315">
         <v>4210239886</v>
       </c>
-      <c r="B315" t="e">
+      <c r="B315">
         <f>VLOOKUP(A315,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210239886</v>
       </c>
       <c r="C315" t="str">
         <f>VLOOKUP(A315,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -27800,9 +27936,9 @@
       <c r="A319">
         <v>4210255777</v>
       </c>
-      <c r="B319" t="e">
+      <c r="B319">
         <f>VLOOKUP(A319,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210255777</v>
       </c>
       <c r="C319" t="str">
         <f>VLOOKUP(A319,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28125,9 +28261,9 @@
       <c r="A344">
         <v>4210559074</v>
       </c>
-      <c r="B344" t="e">
+      <c r="B344">
         <f>VLOOKUP(A344,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210559074</v>
       </c>
       <c r="C344" t="str">
         <f>VLOOKUP(A344,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28268,9 +28404,9 @@
       <c r="A355">
         <v>4210652631</v>
       </c>
-      <c r="B355" t="e">
+      <c r="B355">
         <f>VLOOKUP(A355,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210652631</v>
       </c>
       <c r="C355" t="str">
         <f>VLOOKUP(A355,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28281,9 +28417,9 @@
       <c r="A356">
         <v>4210930375</v>
       </c>
-      <c r="B356" t="e">
+      <c r="B356">
         <f>VLOOKUP(A356,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210930375</v>
       </c>
       <c r="C356" t="str">
         <f>VLOOKUP(A356,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28346,9 +28482,9 @@
       <c r="A361">
         <v>4210698032</v>
       </c>
-      <c r="B361" t="e">
+      <c r="B361">
         <f>VLOOKUP(A361,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210698032</v>
       </c>
       <c r="C361" t="str">
         <f>VLOOKUP(A361,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28463,9 +28599,9 @@
       <c r="A370">
         <v>4210458622</v>
       </c>
-      <c r="B370" t="e">
+      <c r="B370">
         <f>VLOOKUP(A370,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210458622</v>
       </c>
       <c r="C370" t="str">
         <f>VLOOKUP(A370,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28645,9 +28781,9 @@
       <c r="A384">
         <v>4210009943</v>
       </c>
-      <c r="B384" t="e">
+      <c r="B384">
         <f>VLOOKUP(A384,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210009943</v>
       </c>
       <c r="C384" t="str">
         <f>VLOOKUP(A384,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28788,9 +28924,9 @@
       <c r="A395">
         <v>4210831159</v>
       </c>
-      <c r="B395" t="e">
+      <c r="B395">
         <f>VLOOKUP(A395,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210831159</v>
       </c>
       <c r="C395" t="str">
         <f>VLOOKUP(A395,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28801,9 +28937,9 @@
       <c r="A396">
         <v>4210149575</v>
       </c>
-      <c r="B396" t="e">
+      <c r="B396">
         <f>VLOOKUP(A396,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210149575</v>
       </c>
       <c r="C396" t="str">
         <f>VLOOKUP(A396,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -28827,9 +28963,9 @@
       <c r="A398">
         <v>4210161201</v>
       </c>
-      <c r="B398" t="e">
+      <c r="B398">
         <f>VLOOKUP(A398,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210161201</v>
       </c>
       <c r="C398" t="str">
         <f>VLOOKUP(A398,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29100,9 +29236,9 @@
       <c r="A419">
         <v>4210385056</v>
       </c>
-      <c r="B419" t="e">
+      <c r="B419">
         <f>VLOOKUP(A419,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210385056</v>
       </c>
       <c r="C419" t="str">
         <f>VLOOKUP(A419,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29139,9 +29275,9 @@
       <c r="A422">
         <v>4210407609</v>
       </c>
-      <c r="B422" t="e">
+      <c r="B422">
         <f>VLOOKUP(A422,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210407609</v>
       </c>
       <c r="C422" t="str">
         <f>VLOOKUP(A422,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29178,9 +29314,9 @@
       <c r="A425">
         <v>4210418911</v>
       </c>
-      <c r="B425" t="e">
+      <c r="B425">
         <f>VLOOKUP(A425,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210418911</v>
       </c>
       <c r="C425" t="str">
         <f>VLOOKUP(A425,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29308,9 +29444,9 @@
       <c r="A435">
         <v>4210519195</v>
       </c>
-      <c r="B435" t="e">
+      <c r="B435">
         <f>VLOOKUP(A435,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210519195</v>
       </c>
       <c r="C435" t="str">
         <f>VLOOKUP(A435,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29659,9 +29795,9 @@
       <c r="A462">
         <v>4210737822</v>
       </c>
-      <c r="B462" t="e">
+      <c r="B462">
         <f>VLOOKUP(A462,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210737822</v>
       </c>
       <c r="C462" t="str">
         <f>VLOOKUP(A462,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29750,9 +29886,9 @@
       <c r="A469">
         <v>4210967793</v>
       </c>
-      <c r="B469" t="e">
+      <c r="B469">
         <f>VLOOKUP(A469,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210967793</v>
       </c>
       <c r="C469" t="str">
         <f>VLOOKUP(A469,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -29997,9 +30133,9 @@
       <c r="A488">
         <v>4210061222</v>
       </c>
-      <c r="B488" t="e">
+      <c r="B488">
         <f>VLOOKUP(A488,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210061222</v>
       </c>
       <c r="C488" t="str">
         <f>VLOOKUP(A488,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30023,9 +30159,9 @@
       <c r="A490">
         <v>4210122458</v>
       </c>
-      <c r="B490" t="e">
+      <c r="B490">
         <f>VLOOKUP(A490,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210122458</v>
       </c>
       <c r="C490" t="str">
         <f>VLOOKUP(A490,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30075,9 +30211,9 @@
       <c r="A494">
         <v>4210155525</v>
       </c>
-      <c r="B494" t="e">
+      <c r="B494">
         <f>VLOOKUP(A494,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210155525</v>
       </c>
       <c r="C494" t="str">
         <f>VLOOKUP(A494,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30127,9 +30263,9 @@
       <c r="A498">
         <v>4210190103</v>
       </c>
-      <c r="B498" t="e">
+      <c r="B498">
         <f>VLOOKUP(A498,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210190103</v>
       </c>
       <c r="C498" t="str">
         <f>VLOOKUP(A498,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30140,9 +30276,9 @@
       <c r="A499">
         <v>4210188182</v>
       </c>
-      <c r="B499" t="e">
+      <c r="B499">
         <f>VLOOKUP(A499,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210188182</v>
       </c>
       <c r="C499" t="str">
         <f>VLOOKUP(A499,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30192,9 +30328,9 @@
       <c r="A503">
         <v>4210207233</v>
       </c>
-      <c r="B503" t="e">
+      <c r="B503">
         <f>VLOOKUP(A503,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210207233</v>
       </c>
       <c r="C503" t="str">
         <f>VLOOKUP(A503,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30296,9 +30432,9 @@
       <c r="A511">
         <v>4210292583</v>
       </c>
-      <c r="B511" t="e">
+      <c r="B511">
         <f>VLOOKUP(A511,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210292583</v>
       </c>
       <c r="C511" t="str">
         <f>VLOOKUP(A511,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30439,9 +30575,9 @@
       <c r="A522">
         <v>4210400589</v>
       </c>
-      <c r="B522" t="e">
+      <c r="B522">
         <f>VLOOKUP(A522,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210400589</v>
       </c>
       <c r="C522" t="str">
         <f>VLOOKUP(A522,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30452,9 +30588,9 @@
       <c r="A523">
         <v>4210806396</v>
       </c>
-      <c r="B523" t="e">
+      <c r="B523">
         <f>VLOOKUP(A523,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210806396</v>
       </c>
       <c r="C523" t="str">
         <f>VLOOKUP(A523,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30816,9 +30952,9 @@
       <c r="A551">
         <v>4210574089</v>
       </c>
-      <c r="B551" t="e">
+      <c r="B551">
         <f>VLOOKUP(A551,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210574089</v>
       </c>
       <c r="C551" t="str">
         <f>VLOOKUP(A551,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -30998,9 +31134,9 @@
       <c r="A565">
         <v>4210623671</v>
       </c>
-      <c r="B565" t="e">
+      <c r="B565">
         <f>VLOOKUP(A565,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210623671</v>
       </c>
       <c r="C565" t="str">
         <f>VLOOKUP(A565,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31011,9 +31147,9 @@
       <c r="A566">
         <v>4210633465</v>
       </c>
-      <c r="B566" t="e">
+      <c r="B566">
         <f>VLOOKUP(A566,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210633465</v>
       </c>
       <c r="C566" t="str">
         <f>VLOOKUP(A566,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31024,9 +31160,9 @@
       <c r="A567">
         <v>4210639556</v>
       </c>
-      <c r="B567" t="e">
+      <c r="B567">
         <f>VLOOKUP(A567,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210639556</v>
       </c>
       <c r="C567" t="str">
         <f>VLOOKUP(A567,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31232,9 +31368,9 @@
       <c r="A583">
         <v>4210710191</v>
       </c>
-      <c r="B583" t="e">
+      <c r="B583">
         <f>VLOOKUP(A583,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210710191</v>
       </c>
       <c r="C583" t="str">
         <f>VLOOKUP(A583,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31635,9 +31771,9 @@
       <c r="A614">
         <v>4210121557</v>
       </c>
-      <c r="B614" t="e">
+      <c r="B614">
         <f>VLOOKUP(A614,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210121557</v>
       </c>
       <c r="C614" t="str">
         <f>VLOOKUP(A614,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31687,9 +31823,9 @@
       <c r="A618">
         <v>4210059502</v>
       </c>
-      <c r="B618" t="e">
+      <c r="B618">
         <f>VLOOKUP(A618,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210059502</v>
       </c>
       <c r="C618" t="str">
         <f>VLOOKUP(A618,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -31973,9 +32109,9 @@
       <c r="A640">
         <v>4210830351</v>
       </c>
-      <c r="B640" t="e">
+      <c r="B640">
         <f>VLOOKUP(A640,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210830351</v>
       </c>
       <c r="C640" t="str">
         <f>VLOOKUP(A640,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32012,9 +32148,9 @@
       <c r="A643">
         <v>4210393571</v>
       </c>
-      <c r="B643" t="e">
+      <c r="B643">
         <f>VLOOKUP(A643,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210393571</v>
       </c>
       <c r="C643" t="str">
         <f>VLOOKUP(A643,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32532,9 +32668,9 @@
       <c r="A683">
         <v>4210633293</v>
       </c>
-      <c r="B683" t="e">
+      <c r="B683">
         <f>VLOOKUP(A683,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210633293</v>
       </c>
       <c r="C683" t="str">
         <f>VLOOKUP(A683,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32714,9 +32850,9 @@
       <c r="A697">
         <v>4210691393</v>
       </c>
-      <c r="B697" t="e">
+      <c r="B697">
         <f>VLOOKUP(A697,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210691393</v>
       </c>
       <c r="C697" t="str">
         <f>VLOOKUP(A697,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -32896,9 +33032,9 @@
       <c r="A711">
         <v>4210750427</v>
       </c>
-      <c r="B711" t="e">
+      <c r="B711">
         <f>VLOOKUP(A711,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210750427</v>
       </c>
       <c r="C711" t="str">
         <f>VLOOKUP(A711,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33052,9 +33188,9 @@
       <c r="A723">
         <v>4211123262</v>
       </c>
-      <c r="B723" t="e">
+      <c r="B723">
         <f>VLOOKUP(A723,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211123262</v>
       </c>
       <c r="C723" t="str">
         <f>VLOOKUP(A723,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -33325,9 +33461,9 @@
       <c r="A744">
         <v>4210188218</v>
       </c>
-      <c r="B744" t="e">
+      <c r="B744">
         <f>VLOOKUP(A744,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210188218</v>
       </c>
       <c r="C744" t="str">
         <f>VLOOKUP(A744,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34183,9 +34319,9 @@
       <c r="A810">
         <v>4210875091</v>
       </c>
-      <c r="B810" t="e">
+      <c r="B810">
         <f>VLOOKUP(A810,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210875091</v>
       </c>
       <c r="C810" t="str">
         <f>VLOOKUP(A810,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34261,9 +34397,9 @@
       <c r="A816">
         <v>4210939924</v>
       </c>
-      <c r="B816" t="e">
+      <c r="B816">
         <f>VLOOKUP(A816,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210939924</v>
       </c>
       <c r="C816" t="str">
         <f>VLOOKUP(A816,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34781,9 +34917,9 @@
       <c r="A856">
         <v>4210124089</v>
       </c>
-      <c r="B856" t="e">
+      <c r="B856">
         <f>VLOOKUP(A856,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210124089</v>
       </c>
       <c r="C856" t="str">
         <f>VLOOKUP(A856,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -34807,9 +34943,9 @@
       <c r="A858">
         <v>4210140346</v>
       </c>
-      <c r="B858" t="e">
+      <c r="B858">
         <f>VLOOKUP(A858,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210140346</v>
       </c>
       <c r="C858" t="str">
         <f>VLOOKUP(A858,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -35340,9 +35476,9 @@
       <c r="A899">
         <v>4210502557</v>
       </c>
-      <c r="B899" t="e">
+      <c r="B899">
         <f>VLOOKUP(A899,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210502557</v>
       </c>
       <c r="C899" t="str">
         <f>VLOOKUP(A899,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -35496,9 +35632,9 @@
       <c r="A911">
         <v>4210598011</v>
       </c>
-      <c r="B911" t="e">
+      <c r="B911">
         <f>VLOOKUP(A911,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210598011</v>
       </c>
       <c r="C911" t="str">
         <f>VLOOKUP(A911,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>
@@ -35704,9 +35840,9 @@
       <c r="A927">
         <v>4210487162</v>
       </c>
-      <c r="B927" t="e">
+      <c r="B927">
         <f>VLOOKUP(A927,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210487162</v>
       </c>
       <c r="C927" t="str">
         <f>VLOOKUP(A927,[1]email_siswa_diterima!$A$2:$B$955,2,FALSE)</f>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F51B0A-F207-44DE-801D-52502252405D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFF4B85-1D12-4C71-B7EC-02F8715DB94B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4686,8 +4686,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A573" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B593" sqref="B593"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4833,7 +4833,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>4210125404</v>
+        <v>4210070320</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -4845,7 +4845,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4210174477</v>
+        <v>4210125404</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -4857,7 +4857,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>4210198826</v>
+        <v>4210174477</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -4869,7 +4869,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>4210294377</v>
+        <v>4210198826</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -4881,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>4210381581</v>
+        <v>4210294377</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -4893,7 +4893,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>4210488625</v>
+        <v>4210381581</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>4210506856</v>
+        <v>4210488625</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -4917,7 +4917,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>4210509596</v>
+        <v>4210506856</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -4929,7 +4929,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>4210598011</v>
+        <v>4210509596</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -4941,7 +4941,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>4210652554</v>
+        <v>4210598011</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -4953,7 +4953,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>4210660974</v>
+        <v>4210652554</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -4965,7 +4965,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>4210904865</v>
+        <v>4210660974</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -4977,7 +4977,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>4210216114</v>
+        <v>4210904865</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -4989,7 +4989,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>4210961490</v>
+        <v>4210216114</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -5001,7 +5001,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>4210344078</v>
+        <v>4210961490</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -5013,7 +5013,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>4210574089</v>
+        <v>4210344078</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -5025,7 +5025,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>4210371025</v>
+        <v>4210574089</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -5037,7 +5037,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>4210615341</v>
+        <v>4210371025</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -5049,7 +5049,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>4211020605</v>
+        <v>4210615341</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -5061,7 +5061,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>4210733151</v>
+        <v>4211020605</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -5073,7 +5073,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4210266290</v>
+        <v>4210733151</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -5085,7 +5085,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4210652895</v>
+        <v>4210266290</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -5097,7 +5097,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4210262295</v>
+        <v>4210652895</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -5109,7 +5109,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>4210000179</v>
+        <v>4210262295</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -5121,7 +5121,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>4210420939</v>
+        <v>4210000179</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -5133,7 +5133,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4210267931</v>
+        <v>4210420939</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -5145,7 +5145,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4210254607</v>
+        <v>4210267931</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -5157,7 +5157,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4210556661</v>
+        <v>4210254607</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -5169,7 +5169,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4210034578</v>
+        <v>4210556661</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -5181,7 +5181,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>4210044558</v>
+        <v>4210034578</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -5193,7 +5193,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>4210127378</v>
+        <v>4210044558</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -5205,7 +5205,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>4210127746</v>
+        <v>4210105227</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -5217,7 +5217,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>4210132639</v>
+        <v>4210127378</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -5229,7 +5229,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>4210177530</v>
+        <v>4210127746</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -5241,7 +5241,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>4210213816</v>
+        <v>4210132639</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -5253,7 +5253,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>4210252068</v>
+        <v>4210177530</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -5265,7 +5265,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>4210322467</v>
+        <v>4210213816</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -5277,7 +5277,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>4210404572</v>
+        <v>4210252068</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -5289,7 +5289,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>4210405406</v>
+        <v>4210322467</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -5301,7 +5301,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>4210419667</v>
+        <v>4210404572</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -5313,7 +5313,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>4210683668</v>
+        <v>4210405406</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -5325,7 +5325,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4210689843</v>
+        <v>4210419667</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -5337,7 +5337,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4210701271</v>
+        <v>4210675397</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -5349,7 +5349,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>4210791799</v>
+        <v>4210683668</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -5361,7 +5361,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>4210866539</v>
+        <v>4210689843</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -5373,7 +5373,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>4211001264</v>
+        <v>4210701271</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -5385,7 +5385,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>4211084414</v>
+        <v>4210791799</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -5397,7 +5397,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>4210613161</v>
+        <v>4210866539</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -5409,7 +5409,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>4210771684</v>
+        <v>4211001264</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -5421,7 +5421,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>4210708235</v>
+        <v>4211084414</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -5433,7 +5433,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>4210932363</v>
+        <v>4210613161</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -5445,7 +5445,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>4210766426</v>
+        <v>4210771684</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -5457,7 +5457,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>4210371603</v>
+        <v>4210708235</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -5469,7 +5469,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>4210406120</v>
+        <v>4210932363</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -5481,7 +5481,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>4210091709</v>
+        <v>4210766426</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -5493,7 +5493,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>4210020005</v>
+        <v>4210371603</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -5505,7 +5505,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>4210034267</v>
+        <v>4210608174</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -5517,7 +5517,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>4210131499</v>
+        <v>4210406120</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -5529,7 +5529,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>4210131654</v>
+        <v>4210091709</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -5541,7 +5541,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>4210141892</v>
+        <v>4210020005</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -5553,7 +5553,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>4210226103</v>
+        <v>4210034267</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -5565,7 +5565,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>4210248909</v>
+        <v>4210131499</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -5577,7 +5577,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>4210307216</v>
+        <v>4210131654</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -5589,7 +5589,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>4210394400</v>
+        <v>4210141892</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -5601,7 +5601,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>4210394946</v>
+        <v>4210226103</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -5613,7 +5613,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>4210413345</v>
+        <v>4210248909</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -5625,7 +5625,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>4210415206</v>
+        <v>4210307216</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -5637,7 +5637,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>4210511277</v>
+        <v>4210394400</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -5649,7 +5649,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>4210541877</v>
+        <v>4210394946</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -5661,7 +5661,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>4210592672</v>
+        <v>4210413345</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -5673,7 +5673,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>4210593450</v>
+        <v>4210415206</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -5685,7 +5685,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>4210731427</v>
+        <v>4210437917</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -5697,7 +5697,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>4210831159</v>
+        <v>4210511277</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -5709,7 +5709,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>4210188182</v>
+        <v>4210541877</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -5721,7 +5721,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>4210731416</v>
+        <v>4210592672</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -5733,7 +5733,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>4211013807</v>
+        <v>4210593450</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -5745,7 +5745,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>4210278444</v>
+        <v>4210731427</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -5757,7 +5757,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>4210585528</v>
+        <v>4210831159</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -5769,7 +5769,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>4210929697</v>
+        <v>4210188182</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -5781,7 +5781,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>4210003837</v>
+        <v>4210706642</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -5793,7 +5793,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>4210004223</v>
+        <v>4210731416</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -5805,7 +5805,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>4210198168</v>
+        <v>4211013807</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -5817,7 +5817,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>4210234367</v>
+        <v>4210278444</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -5829,7 +5829,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>4210344951</v>
+        <v>4210585528</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -5841,7 +5841,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>4210391139</v>
+        <v>4210929697</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -5853,7 +5853,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>4210393571</v>
+        <v>4210003837</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -5865,7 +5865,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>4210533040</v>
+        <v>4210004223</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -5877,7 +5877,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>4210558291</v>
+        <v>4210198168</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -5889,7 +5889,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>4210606361</v>
+        <v>4210234367</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -5901,7 +5901,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>4210635825</v>
+        <v>4210344951</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -5913,7 +5913,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>4210720296</v>
+        <v>4210391139</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -5925,7 +5925,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>4210843009</v>
+        <v>4210393571</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -5937,7 +5937,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>4210953010</v>
+        <v>4210533040</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -5949,7 +5949,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>4210204827</v>
+        <v>4210558291</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -5961,7 +5961,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>4210563716</v>
+        <v>4210606361</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -5973,7 +5973,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>4210224238</v>
+        <v>4210635825</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -5985,7 +5985,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>4210398396</v>
+        <v>4210720296</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -5997,7 +5997,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>4210190103</v>
+        <v>4210843009</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -6009,7 +6009,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>4210479488</v>
+        <v>4210945949</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -6021,7 +6021,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>4210566641</v>
+        <v>4210953010</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -6033,7 +6033,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>4210213587</v>
+        <v>4210204827</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -6045,7 +6045,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>4210600446</v>
+        <v>4210563716</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -6057,7 +6057,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>4210214048</v>
+        <v>4210224238</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -6069,7 +6069,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>4210853920</v>
+        <v>4210398396</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -6081,7 +6081,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>4210317095</v>
+        <v>4210190103</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -6093,7 +6093,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>4210292583</v>
+        <v>4210298487</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -6105,7 +6105,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>4210341768</v>
+        <v>4210479488</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -6117,7 +6117,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>4210402956</v>
+        <v>4210566641</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -6129,7 +6129,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>4210447996</v>
+        <v>4210213587</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -6141,7 +6141,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>4210496749</v>
+        <v>4210600446</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -6153,7 +6153,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>4210501502</v>
+        <v>4210214048</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -6165,7 +6165,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>4210534997</v>
+        <v>4210853920</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -6177,7 +6177,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>4210639556</v>
+        <v>4210317095</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -6189,7 +6189,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>4210723948</v>
+        <v>4210180848</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -6201,7 +6201,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>4211162899</v>
+        <v>4210292583</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -6213,7 +6213,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>4211074617</v>
+        <v>4210341768</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -6225,7 +6225,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>4210754698</v>
+        <v>4210402956</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -6237,7 +6237,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>4210926050</v>
+        <v>4210447996</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -6249,7 +6249,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>4210370471</v>
+        <v>4210496749</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -6261,7 +6261,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>4210522771</v>
+        <v>4210501502</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -6273,7 +6273,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>4210542091</v>
+        <v>4210534997</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -6285,7 +6285,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>4210222026</v>
+        <v>4210639556</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -6297,7 +6297,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>4210313376</v>
+        <v>4210723948</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -6309,7 +6309,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>4210893674</v>
+        <v>4211105440</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -6321,7 +6321,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>4210260173</v>
+        <v>4211162899</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -6333,7 +6333,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>4210646191</v>
+        <v>4211074617</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -6345,7 +6345,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>4210921361</v>
+        <v>4210754698</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -6357,7 +6357,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>4210033127</v>
+        <v>4210926050</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
@@ -6369,7 +6369,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>4210072674</v>
+        <v>4210370471</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -6381,7 +6381,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>4210586606</v>
+        <v>4210806413</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
@@ -6393,7 +6393,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>4210482370</v>
+        <v>4210522771</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -6405,7 +6405,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>4210167551</v>
+        <v>4210542091</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -6417,7 +6417,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>4210673655</v>
+        <v>4210222026</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -6429,7 +6429,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>4210221322</v>
+        <v>4210313376</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -6441,7 +6441,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>4210753622</v>
+        <v>4210893674</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -6453,7 +6453,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>4210482629</v>
+        <v>4210994527</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -6465,7 +6465,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>4210843672</v>
+        <v>4211047565</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -6477,7 +6477,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>4210523147</v>
+        <v>4210260173</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -6489,7 +6489,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>4211060527</v>
+        <v>4210646191</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -6501,7 +6501,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>4210424698</v>
+        <v>4210921361</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -6513,7 +6513,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>4210406049</v>
+        <v>4210033127</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -6525,7 +6525,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>4210639267</v>
+        <v>4210072674</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
@@ -6537,7 +6537,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>4210712809</v>
+        <v>4210586606</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -6549,7 +6549,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>4210598540</v>
+        <v>4210482370</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -6561,7 +6561,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>4210121891</v>
+        <v>4210167551</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -6573,7 +6573,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>4210385056</v>
+        <v>4210673655</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
@@ -6585,7 +6585,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>4210893730</v>
+        <v>4210221322</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>4210535673</v>
+        <v>4210753622</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -6609,7 +6609,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>4210500818</v>
+        <v>4210482629</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -6621,7 +6621,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>4210003521</v>
+        <v>4210843672</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -6633,7 +6633,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>4210062548</v>
+        <v>4210523147</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -6645,7 +6645,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>4210124089</v>
+        <v>4211060527</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
@@ -6657,7 +6657,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>4210124562</v>
+        <v>4210424698</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -6669,7 +6669,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>4210133586</v>
+        <v>4210406049</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -6681,7 +6681,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>4210171441</v>
+        <v>4210639267</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -6693,7 +6693,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>4210188218</v>
+        <v>4210345052</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
@@ -6705,7 +6705,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>4210198930</v>
+        <v>4210712809</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -6717,7 +6717,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>4210248451</v>
+        <v>4210598540</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
@@ -6729,7 +6729,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>4210272828</v>
+        <v>4210121891</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -6741,7 +6741,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>4210320285</v>
+        <v>4210385056</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
@@ -6753,7 +6753,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>4210389070</v>
+        <v>4210893730</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -6765,7 +6765,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>4210396939</v>
+        <v>4210535673</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
@@ -6777,7 +6777,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>4210399687</v>
+        <v>4210500818</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -6789,7 +6789,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>4210403019</v>
+        <v>4210003521</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
@@ -6801,7 +6801,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>4210415044</v>
+        <v>4210062548</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -6813,7 +6813,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>4210420096</v>
+        <v>4210124089</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -6825,7 +6825,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>4210559074</v>
+        <v>4210124562</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -6837,7 +6837,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>4210562814</v>
+        <v>4210133586</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
@@ -6849,7 +6849,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>4210597778</v>
+        <v>4210171441</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
@@ -6861,7 +6861,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>4210632710</v>
+        <v>4210188218</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
@@ -6873,7 +6873,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>4210633465</v>
+        <v>4210198930</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
@@ -6885,7 +6885,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>4210645803</v>
+        <v>4210248451</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -6897,7 +6897,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>4210690272</v>
+        <v>4210272828</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
@@ -6909,7 +6909,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>4210695149</v>
+        <v>4210303761</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
@@ -6921,7 +6921,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>4210706422</v>
+        <v>4210320285</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
@@ -6933,7 +6933,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>4210805925</v>
+        <v>4210389070</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
@@ -6945,7 +6945,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>4210830351</v>
+        <v>4210396939</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -6957,7 +6957,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>4210885456</v>
+        <v>4210399687</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -6969,7 +6969,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>4210920767</v>
+        <v>4210403019</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -6981,7 +6981,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>4210955715</v>
+        <v>4210415044</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>4210967793</v>
+        <v>4210420096</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -7005,7 +7005,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>4211116641</v>
+        <v>4210435420</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -7017,7 +7017,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>4211143631</v>
+        <v>4210559074</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -7029,7 +7029,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>4210665237</v>
+        <v>4210562814</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
@@ -7041,7 +7041,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>4211060486</v>
+        <v>4210597778</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
@@ -7053,7 +7053,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>4210208750</v>
+        <v>4210632710</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
@@ -7065,7 +7065,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>4210586900</v>
+        <v>4210633465</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -7077,7 +7077,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>4210433177</v>
+        <v>4210645803</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
@@ -7089,7 +7089,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>4210911313</v>
+        <v>4210690272</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
@@ -7101,7 +7101,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>4210745675</v>
+        <v>4210695149</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -7113,7 +7113,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>4211122411</v>
+        <v>4210706422</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
@@ -7125,7 +7125,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>4210855921</v>
+        <v>4210805925</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
@@ -7137,7 +7137,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>4210009062</v>
+        <v>4210830351</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
@@ -7149,7 +7149,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>4210648248</v>
+        <v>4210885456</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -7161,7 +7161,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>4210356297</v>
+        <v>4210920767</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
@@ -7173,7 +7173,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>4210411973</v>
+        <v>4210955715</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
@@ -7185,7 +7185,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>4210273020</v>
+        <v>4210967793</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>2</v>
@@ -7197,7 +7197,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>4210264695</v>
+        <v>4211116641</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>2</v>
@@ -7209,7 +7209,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>4210930375</v>
+        <v>4211143631</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>2</v>
@@ -7221,7 +7221,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>4210242756</v>
+        <v>4210665237</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
@@ -7233,7 +7233,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>4210278245</v>
+        <v>4210679738</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
@@ -7245,7 +7245,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>4210405200</v>
+        <v>4211060486</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>2</v>
@@ -7257,7 +7257,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>4210502557</v>
+        <v>4210208750</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
@@ -7269,7 +7269,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>4210509447</v>
+        <v>4210586900</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
@@ -7281,7 +7281,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>4210588954</v>
+        <v>4210433177</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>2</v>
@@ -7293,7 +7293,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>4210735578</v>
+        <v>4210911313</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>2</v>
@@ -7305,7 +7305,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>4210921232</v>
+        <v>4210745675</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>2</v>
@@ -7317,7 +7317,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>4210973302</v>
+        <v>4211122411</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>2</v>
@@ -7329,7 +7329,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>4211069287</v>
+        <v>4210855921</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>2</v>
@@ -7341,7 +7341,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>4211096801</v>
+        <v>4210009062</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>2</v>
@@ -7353,7 +7353,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>4211189006</v>
+        <v>4210648248</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>2</v>
@@ -7365,7 +7365,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>4211014355</v>
+        <v>4210356297</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>2</v>
@@ -7377,7 +7377,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>4210122458</v>
+        <v>4210411973</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>2</v>
@@ -7389,7 +7389,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>4210621591</v>
+        <v>4210273020</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>2</v>
@@ -7401,7 +7401,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>4210474468</v>
+        <v>4210264695</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>2</v>
@@ -7413,7 +7413,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>4210392055</v>
+        <v>4210930375</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>2</v>
@@ -7425,7 +7425,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>4210806396</v>
+        <v>4210242756</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
@@ -7437,7 +7437,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>4210059000</v>
+        <v>4210084552</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>2</v>
@@ -7449,7 +7449,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>4211050835</v>
+        <v>4210278245</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
@@ -7461,7 +7461,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>4210941334</v>
+        <v>4210405200</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>2</v>
@@ -7473,7 +7473,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>4210073431</v>
+        <v>4210502557</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>2</v>
@@ -7485,7 +7485,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>4210222465</v>
+        <v>4210509447</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
@@ -7497,7 +7497,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>4210321387</v>
+        <v>4210588954</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>2</v>
@@ -7509,7 +7509,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>4210613705</v>
+        <v>4210735578</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>2</v>
@@ -7521,7 +7521,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>4210640185</v>
+        <v>4210921232</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
@@ -7533,7 +7533,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>4211183842</v>
+        <v>4210973302</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>2</v>
@@ -7545,7 +7545,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>4210264951</v>
+        <v>4211069287</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>2</v>
@@ -7557,7 +7557,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>4210229661</v>
+        <v>4211096801</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>2</v>
@@ -7569,7 +7569,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>4210842072</v>
+        <v>4211189006</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>2</v>
@@ -7581,7 +7581,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>4210497292</v>
+        <v>4211014355</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>2</v>
@@ -7593,7 +7593,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>4210984821</v>
+        <v>4210122458</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>2</v>
@@ -7605,7 +7605,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>4210185227</v>
+        <v>4210621591</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>2</v>
@@ -7617,7 +7617,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>4210151586</v>
+        <v>4210474468</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
@@ -7629,7 +7629,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>4211014966</v>
+        <v>4210392055</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>2</v>
@@ -7641,7 +7641,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>4211039341</v>
+        <v>4210144557</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
@@ -7653,7 +7653,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>4210012567</v>
+        <v>4210806396</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>2</v>
@@ -7665,7 +7665,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>4210128315</v>
+        <v>4210059000</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>2</v>
@@ -7677,7 +7677,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>4210195896</v>
+        <v>4211050835</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>2</v>
@@ -7689,7 +7689,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>4210201732</v>
+        <v>4210941334</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>2</v>
@@ -7701,7 +7701,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>4210267013</v>
+        <v>4210073431</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>2</v>
@@ -7713,7 +7713,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>4210385160</v>
+        <v>4210222465</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>2</v>
@@ -7725,7 +7725,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>4210399589</v>
+        <v>4210321387</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
@@ -7737,7 +7737,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>4210435801</v>
+        <v>4210613705</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
@@ -7749,7 +7749,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>4210457607</v>
+        <v>4210640185</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
@@ -7761,7 +7761,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>4210518577</v>
+        <v>4211183842</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
@@ -7773,7 +7773,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>4210521692</v>
+        <v>4211190937</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
@@ -7785,7 +7785,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>4210875091</v>
+        <v>4210264951</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
@@ -7797,7 +7797,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>4211117196</v>
+        <v>4210229661</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
@@ -7809,7 +7809,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>4210199520</v>
+        <v>4210815491</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
@@ -7821,7 +7821,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>4211054741</v>
+        <v>4210842072</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
@@ -7833,7 +7833,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>4210354861</v>
+        <v>4210497292</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
@@ -7845,7 +7845,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>4210461415</v>
+        <v>4210984821</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
@@ -7857,7 +7857,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>4210105758</v>
+        <v>4210185227</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
@@ -7869,7 +7869,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>4210115421</v>
+        <v>4210151586</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
@@ -7881,7 +7881,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>4210354387</v>
+        <v>4211014966</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
@@ -7893,7 +7893,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>4210358137</v>
+        <v>4211039341</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
@@ -7905,7 +7905,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>4210386755</v>
+        <v>4210012567</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>4210043894</v>
+        <v>4210128315</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
@@ -7929,7 +7929,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>4210122182</v>
+        <v>4210195896</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>2</v>
@@ -7941,7 +7941,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>4210141517</v>
+        <v>4210201732</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>2</v>
@@ -7953,7 +7953,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>4210142349</v>
+        <v>4210267013</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>2</v>
@@ -7965,7 +7965,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>4210383149</v>
+        <v>4210385160</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>2</v>
@@ -7977,7 +7977,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>4210424900</v>
+        <v>4210399589</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>2</v>
@@ -7989,7 +7989,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>4210622386</v>
+        <v>4210435801</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>2</v>
@@ -8001,7 +8001,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>4210769887</v>
+        <v>4210457607</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>2</v>
@@ -8013,7 +8013,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1">
-        <v>4211157478</v>
+        <v>4210518577</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>2</v>
@@ -8025,7 +8025,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>4210897066</v>
+        <v>4210521692</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>2</v>
@@ -8037,7 +8037,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>4210117447</v>
+        <v>4210875091</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>2</v>
@@ -8049,7 +8049,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>4210151088</v>
+        <v>4211117196</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>2</v>
@@ -8061,7 +8061,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>4210392364</v>
+        <v>4210199520</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>2</v>
@@ -8073,7 +8073,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>4210462732</v>
+        <v>4211054741</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>2</v>
@@ -8085,7 +8085,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>4210942167</v>
+        <v>4210354861</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>2</v>
@@ -8097,7 +8097,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>4210176463</v>
+        <v>4210461415</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>2</v>
@@ -8109,7 +8109,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1">
-        <v>4210047154</v>
+        <v>4210105758</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>2</v>
@@ -8121,7 +8121,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1">
-        <v>4210182855</v>
+        <v>4210115421</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>2</v>
@@ -8133,7 +8133,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1">
-        <v>4210450687</v>
+        <v>4210354387</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>2</v>
@@ -8145,7 +8145,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1">
-        <v>4210922651</v>
+        <v>4210358137</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>2</v>
@@ -8157,7 +8157,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>4210072470</v>
+        <v>4210386755</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>2</v>
@@ -8169,7 +8169,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>4210155613</v>
+        <v>4210043894</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>2</v>
@@ -8181,7 +8181,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>4210167563</v>
+        <v>4210122182</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>2</v>
@@ -8193,7 +8193,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>4210183865</v>
+        <v>4210141517</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>2</v>
@@ -8205,7 +8205,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>4210194296</v>
+        <v>4210142349</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>2</v>
@@ -8217,7 +8217,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>4210255777</v>
+        <v>4210383149</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>2</v>
@@ -8229,7 +8229,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>4210357001</v>
+        <v>4210424900</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>2</v>
@@ -8241,7 +8241,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>4210452807</v>
+        <v>4210622386</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>2</v>
@@ -8253,7 +8253,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>4210523627</v>
+        <v>4210769887</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>2</v>
@@ -8265,7 +8265,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>4210703688</v>
+        <v>4211157478</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>2</v>
@@ -8277,7 +8277,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>4210740039</v>
+        <v>4210897066</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>2</v>
@@ -8289,7 +8289,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>4210992519</v>
+        <v>4210117447</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
@@ -8301,7 +8301,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>4211123262</v>
+        <v>4210151088</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>2</v>
@@ -8313,7 +8313,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>4210257649</v>
+        <v>4210392364</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>2</v>
@@ -8325,7 +8325,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>4210402143</v>
+        <v>4210462732</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>2</v>
@@ -8337,7 +8337,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>4210523156</v>
+        <v>4210942167</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>2</v>
@@ -8349,7 +8349,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>4210823515</v>
+        <v>4210176463</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -8361,7 +8361,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>4210115162</v>
+        <v>4210047154</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>2</v>
@@ -8373,7 +8373,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>4210079772</v>
+        <v>4210433787</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>2</v>
@@ -8385,7 +8385,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>4210132442</v>
+        <v>4210182855</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>2</v>
@@ -8397,7 +8397,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>4210166153</v>
+        <v>4210450687</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>2</v>
@@ -8409,7 +8409,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>4210830444</v>
+        <v>4210922651</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>2</v>
@@ -8421,7 +8421,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1">
-        <v>4211047440</v>
+        <v>4210072470</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>2</v>
@@ -8433,7 +8433,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1">
-        <v>4210691393</v>
+        <v>4210155613</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>2</v>
@@ -8445,7 +8445,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1">
-        <v>4210986456</v>
+        <v>4210167563</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>2</v>
@@ -8457,7 +8457,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1">
-        <v>4210701833</v>
+        <v>4210183865</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
@@ -8469,7 +8469,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1">
-        <v>4210891162</v>
+        <v>4210194296</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
@@ -8481,7 +8481,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1">
-        <v>4210179613</v>
+        <v>4210255777</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>2</v>
@@ -8493,7 +8493,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1">
-        <v>4210230359</v>
+        <v>4210357001</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>2</v>
@@ -8505,7 +8505,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1">
-        <v>4210321845</v>
+        <v>4210452807</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>2</v>
@@ -8517,7 +8517,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1">
-        <v>4210347256</v>
+        <v>4210523627</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
@@ -8529,7 +8529,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1">
-        <v>4210420336</v>
+        <v>4210703688</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
@@ -8541,7 +8541,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>4210671598</v>
+        <v>4210740039</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>2</v>
@@ -8553,7 +8553,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>4210841954</v>
+        <v>4210762861</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>2</v>
@@ -8565,7 +8565,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>4210851034</v>
+        <v>4210992519</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>2</v>
@@ -8577,7 +8577,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>4210440787</v>
+        <v>4211081285</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
@@ -8589,7 +8589,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1">
-        <v>4210396117</v>
+        <v>4211123262</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>2</v>
@@ -8601,7 +8601,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1">
-        <v>4210209432</v>
+        <v>4210644077</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>2</v>
@@ -8613,7 +8613,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1">
-        <v>4210020577</v>
+        <v>4210257649</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>2</v>
@@ -8625,7 +8625,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1">
-        <v>4210050876</v>
+        <v>4210402143</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
@@ -8637,7 +8637,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1">
-        <v>4210178048</v>
+        <v>4210523156</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>2</v>
@@ -8649,7 +8649,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1">
-        <v>4210183791</v>
+        <v>4210823515</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
@@ -8661,7 +8661,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1">
-        <v>4210370018</v>
+        <v>4210115162</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>2</v>
@@ -8673,7 +8673,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1">
-        <v>4210384491</v>
+        <v>4210079772</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
@@ -8685,7 +8685,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1">
-        <v>4210484114</v>
+        <v>4210132442</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>2</v>
@@ -8697,7 +8697,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1">
-        <v>4210573384</v>
+        <v>4210166153</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>2</v>
@@ -8709,7 +8709,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1">
-        <v>4211003079</v>
+        <v>4210184555</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>2</v>
@@ -8721,7 +8721,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1">
-        <v>4210652631</v>
+        <v>4210236370</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>2</v>
@@ -8733,7 +8733,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1">
-        <v>4210752028</v>
+        <v>4210671328</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>2</v>
@@ -8745,7 +8745,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1">
-        <v>4210282624</v>
+        <v>4210764690</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>2</v>
@@ -8757,7 +8757,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1">
-        <v>4210182500</v>
+        <v>4210830444</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>2</v>
@@ -8769,7 +8769,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1">
-        <v>4210780191</v>
+        <v>4211047440</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>2</v>
@@ -8781,7 +8781,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1">
-        <v>4210537453</v>
+        <v>4210691393</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>2</v>
@@ -8793,7 +8793,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1">
-        <v>4210223261</v>
+        <v>4210986456</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>2</v>
@@ -8805,7 +8805,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1">
-        <v>4210261027</v>
+        <v>4210701833</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
@@ -8817,7 +8817,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1">
-        <v>4210329350</v>
+        <v>4210891162</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>2</v>
@@ -8829,7 +8829,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1">
-        <v>4210438000</v>
+        <v>4210685145</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>2</v>
@@ -8841,7 +8841,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1">
-        <v>4210444262</v>
+        <v>4210110664</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>2</v>
@@ -8853,7 +8853,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1">
-        <v>4211121745</v>
+        <v>4210179613</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
@@ -8865,7 +8865,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1">
-        <v>4210256197</v>
+        <v>4210230359</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
@@ -8877,7 +8877,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1">
-        <v>4210837418</v>
+        <v>4210321845</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
@@ -8889,7 +8889,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1">
-        <v>4210283620</v>
+        <v>4210347256</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>2</v>
@@ -8901,7 +8901,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1">
-        <v>4210928075</v>
+        <v>4210420336</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>2</v>
@@ -8913,7 +8913,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1">
-        <v>4210005081</v>
+        <v>4210671598</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>2</v>
@@ -8925,7 +8925,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1">
-        <v>4210212879</v>
+        <v>4210841954</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>2</v>
@@ -8937,7 +8937,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1">
-        <v>4210532302</v>
+        <v>4210697216</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>2</v>
@@ -8949,7 +8949,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1">
-        <v>4210716858</v>
+        <v>4210851034</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>2</v>
@@ -8961,7 +8961,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1">
-        <v>4210065219</v>
+        <v>4211039879</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>2</v>
@@ -8973,7 +8973,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1">
-        <v>4210941041</v>
+        <v>4210440787</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>2</v>
@@ -8985,7 +8985,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1">
-        <v>4210534515</v>
+        <v>4210396117</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>2</v>
@@ -8997,7 +8997,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1">
-        <v>4210500697</v>
+        <v>4210209432</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>2</v>
@@ -9009,7 +9009,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1">
-        <v>4210646048</v>
+        <v>4210020577</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
@@ -9021,7 +9021,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1">
-        <v>4210113372</v>
+        <v>4210050876</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>2</v>
@@ -9033,7 +9033,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1">
-        <v>4210145794</v>
+        <v>4210178048</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>2</v>
@@ -9045,7 +9045,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1">
-        <v>4210213661</v>
+        <v>4210183791</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>2</v>
@@ -9057,7 +9057,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1">
-        <v>4210598087</v>
+        <v>4210370018</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>2</v>
@@ -9069,7 +9069,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1">
-        <v>4210610217</v>
+        <v>4210377269</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
@@ -9081,7 +9081,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1">
-        <v>4210646368</v>
+        <v>4210384491</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>2</v>
@@ -9093,7 +9093,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1">
-        <v>4210936777</v>
+        <v>4210484114</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>2</v>
@@ -9105,7 +9105,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1">
-        <v>4210596404</v>
+        <v>4210573384</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>2</v>
@@ -9117,7 +9117,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1">
-        <v>4211119160</v>
+        <v>4211003079</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>2</v>
@@ -9129,7 +9129,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1">
-        <v>4210533998</v>
+        <v>4210652631</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>2</v>
@@ -9141,7 +9141,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1">
-        <v>4210093802</v>
+        <v>4210752028</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>2</v>
@@ -9153,7 +9153,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1">
-        <v>4210162326</v>
+        <v>4210282624</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>2</v>
@@ -9165,7 +9165,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1">
-        <v>4210514973</v>
+        <v>4210182500</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>2</v>
@@ -9177,7 +9177,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1">
-        <v>4210655536</v>
+        <v>4210780191</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>2</v>
@@ -9189,7 +9189,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1">
-        <v>4210803979</v>
+        <v>4210537453</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>2</v>
@@ -9201,7 +9201,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1">
-        <v>4210033714</v>
+        <v>4210223261</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
@@ -9213,7 +9213,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1">
-        <v>4210698032</v>
+        <v>4210261027</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>2</v>
@@ -9225,7 +9225,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1">
-        <v>4211121133</v>
+        <v>4210329350</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
@@ -9237,7 +9237,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1">
-        <v>4210024291</v>
+        <v>4210438000</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>2</v>
@@ -9249,7 +9249,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1">
-        <v>4210140346</v>
+        <v>4210444262</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>2</v>
@@ -9261,7 +9261,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1">
-        <v>4210296631</v>
+        <v>4211121745</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>2</v>
@@ -9273,7 +9273,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1">
-        <v>4210406475</v>
+        <v>4210256197</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
@@ -9285,7 +9285,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1">
-        <v>4210506018</v>
+        <v>4210837418</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>2</v>
@@ -9297,7 +9297,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1">
-        <v>4210592061</v>
+        <v>4210283620</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>2</v>
@@ -9309,7 +9309,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1">
-        <v>4210956722</v>
+        <v>4210928075</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>2</v>
@@ -9321,7 +9321,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1">
-        <v>4210774231</v>
+        <v>4210005081</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>2</v>
@@ -9333,7 +9333,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1">
-        <v>4211032450</v>
+        <v>4210212879</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>2</v>
@@ -9345,7 +9345,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1">
-        <v>4210174856</v>
+        <v>4210532302</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>2</v>
@@ -9357,7 +9357,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1">
-        <v>4210248902</v>
+        <v>4210489208</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>2</v>
@@ -9369,7 +9369,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1">
-        <v>4210619540</v>
+        <v>4210716858</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>2</v>
@@ -9381,7 +9381,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1">
-        <v>4210608974</v>
+        <v>4210065219</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>2</v>
@@ -9393,7 +9393,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1">
-        <v>4210301184</v>
+        <v>4210941041</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>2</v>
@@ -9405,7 +9405,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1">
-        <v>4210939937</v>
+        <v>4210534515</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>2</v>
@@ -9417,7 +9417,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1">
-        <v>4210250290</v>
+        <v>4210377665</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>2</v>
@@ -9429,7 +9429,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1">
-        <v>4210662861</v>
+        <v>4210500697</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>2</v>
@@ -9441,7 +9441,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1">
-        <v>4210155525</v>
+        <v>4210646048</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>2</v>
@@ -9453,7 +9453,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1">
-        <v>4210414276</v>
+        <v>4210113372</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>2</v>
@@ -9465,7 +9465,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1">
-        <v>4210851640</v>
+        <v>4210145794</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>2</v>
@@ -9477,7 +9477,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1">
-        <v>4210632010</v>
+        <v>4210213661</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>2</v>
@@ -9489,7 +9489,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1">
-        <v>4210396336</v>
+        <v>4210598087</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>2</v>
@@ -9501,7 +9501,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1">
-        <v>4210691687</v>
+        <v>4210610217</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>2</v>
@@ -9513,7 +9513,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1">
-        <v>4211090225</v>
+        <v>4210646368</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>2</v>
@@ -9525,7 +9525,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1">
-        <v>4210098148</v>
+        <v>4210689234</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>2</v>
@@ -9537,7 +9537,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1">
-        <v>4210885374</v>
+        <v>4210936777</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>2</v>
@@ -9549,7 +9549,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1">
-        <v>4210128706</v>
+        <v>4210596404</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>2</v>
@@ -9561,7 +9561,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1">
-        <v>4210429692</v>
+        <v>4211119160</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>2</v>
@@ -9573,7 +9573,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1">
-        <v>4210457601</v>
+        <v>4210533998</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>2</v>
@@ -9585,7 +9585,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1">
-        <v>4210487716</v>
+        <v>4210952808</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>2</v>
@@ -9597,7 +9597,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1">
-        <v>4210491196</v>
+        <v>4210093802</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>2</v>
@@ -9609,7 +9609,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1">
-        <v>4210525608</v>
+        <v>4210162326</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>2</v>
@@ -9621,7 +9621,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1">
-        <v>4210697405</v>
+        <v>4210514973</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>2</v>
@@ -9633,7 +9633,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1">
-        <v>4210871317</v>
+        <v>4210539791</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>2</v>
@@ -9645,7 +9645,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1">
-        <v>4210831022</v>
+        <v>4210605310</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>2</v>
@@ -9657,7 +9657,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1">
-        <v>4210478093</v>
+        <v>4210655536</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>2</v>
@@ -9669,7 +9669,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1">
-        <v>4210623671</v>
+        <v>4210803979</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>2</v>
@@ -9681,7 +9681,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1">
-        <v>4210539266</v>
+        <v>4210415570</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>2</v>
@@ -9693,7 +9693,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1">
-        <v>4210198794</v>
+        <v>4210033714</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>2</v>
@@ -9705,7 +9705,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1">
-        <v>4210200416</v>
+        <v>4210698032</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>2</v>
@@ -9717,7 +9717,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1">
-        <v>4210211263</v>
+        <v>4211121133</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>2</v>
@@ -9729,7 +9729,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1">
-        <v>4210333855</v>
+        <v>4210024291</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>2</v>
@@ -9741,7 +9741,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1">
-        <v>4210497116</v>
+        <v>4210140346</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>2</v>
@@ -9753,7 +9753,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1">
-        <v>4210789652</v>
+        <v>4210296631</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>2</v>
@@ -9765,7 +9765,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1">
-        <v>4210841799</v>
+        <v>4210406475</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>2</v>
@@ -9777,7 +9777,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1">
-        <v>4210009943</v>
+        <v>4210506018</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>2</v>
@@ -9789,7 +9789,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1">
-        <v>4210707172</v>
+        <v>4210592061</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>2</v>
@@ -9801,7 +9801,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1">
-        <v>4210003908</v>
+        <v>4210956722</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>2</v>
@@ -9813,7 +9813,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1">
-        <v>4210405234</v>
+        <v>4210774231</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>2</v>
@@ -9825,7 +9825,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1">
-        <v>4210113485</v>
+        <v>4211032450</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>2</v>
@@ -9837,7 +9837,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1">
-        <v>4210185045</v>
+        <v>4210174856</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>2</v>
@@ -9849,7 +9849,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1">
-        <v>4210061222</v>
+        <v>4210248902</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>2</v>
@@ -9861,7 +9861,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1">
-        <v>4210239886</v>
+        <v>4210619540</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>2</v>
@@ -9873,7 +9873,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1">
-        <v>4210244610</v>
+        <v>4210608974</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>2</v>
@@ -9885,7 +9885,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1">
-        <v>4210386471</v>
+        <v>4210301184</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>2</v>
@@ -9897,7 +9897,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1">
-        <v>4210496119</v>
+        <v>4210939937</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>2</v>
@@ -9909,7 +9909,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="1">
-        <v>4210521327</v>
+        <v>4210250290</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>2</v>
@@ -9921,7 +9921,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="1">
-        <v>4211052917</v>
+        <v>4210662861</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>2</v>
@@ -9933,7 +9933,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1">
-        <v>4210050280</v>
+        <v>4210155525</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>2</v>
@@ -9945,7 +9945,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1">
-        <v>4210372229</v>
+        <v>4210414276</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>2</v>
@@ -9957,7 +9957,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1">
-        <v>4210326134</v>
+        <v>4210851640</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>2</v>
@@ -9969,7 +9969,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1">
-        <v>4210535776</v>
+        <v>4210632010</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>2</v>
@@ -9981,7 +9981,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1">
-        <v>4210359992</v>
+        <v>4210396336</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>2</v>
@@ -9993,7 +9993,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="1">
-        <v>4210380505</v>
+        <v>4210691687</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>2</v>
@@ -10005,7 +10005,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1">
-        <v>4210502346</v>
+        <v>4211090225</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>2</v>
@@ -10017,7 +10017,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="1">
-        <v>4210609300</v>
+        <v>4210098148</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>2</v>
@@ -10029,7 +10029,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="1">
-        <v>4210737822</v>
+        <v>4210885374</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>2</v>
@@ -10041,7 +10041,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="1">
-        <v>4210920340</v>
+        <v>4210128706</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>2</v>
@@ -10053,7 +10053,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="1">
-        <v>4210114589</v>
+        <v>4210429692</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>2</v>
@@ -10065,7 +10065,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="1">
-        <v>4210273236</v>
+        <v>4210457601</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>2</v>
@@ -10077,7 +10077,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1">
-        <v>4210270390</v>
+        <v>4210487716</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>2</v>
@@ -10089,7 +10089,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="1">
-        <v>4210161201</v>
+        <v>4210491196</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>2</v>
@@ -10101,7 +10101,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="1">
-        <v>4210185589</v>
+        <v>4210525608</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>2</v>
@@ -10113,7 +10113,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="1">
-        <v>4210236802</v>
+        <v>4210697405</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>2</v>
@@ -10125,7 +10125,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="1">
-        <v>4210323925</v>
+        <v>4210871317</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>2</v>
@@ -10137,7 +10137,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="1">
-        <v>4210342956</v>
+        <v>4210831022</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>2</v>
@@ -10149,7 +10149,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="1">
-        <v>4210396271</v>
+        <v>4210478093</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>2</v>
@@ -10161,7 +10161,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="1">
-        <v>4210548527</v>
+        <v>4210623671</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>2</v>
@@ -10173,7 +10173,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1">
-        <v>4211048212</v>
+        <v>4210379066</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>2</v>
@@ -10185,7 +10185,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1">
-        <v>4210893995</v>
+        <v>4210539266</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>2</v>
@@ -10197,7 +10197,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1">
-        <v>4210962329</v>
+        <v>4210198794</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>2</v>
@@ -10209,7 +10209,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="1">
-        <v>4210019501</v>
+        <v>4210200416</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>2</v>
@@ -10221,7 +10221,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="1">
-        <v>4210347993</v>
+        <v>4210211263</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>2</v>
@@ -10233,7 +10233,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="1">
-        <v>4210392078</v>
+        <v>4210333855</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>2</v>
@@ -10245,7 +10245,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="1">
-        <v>4210387120</v>
+        <v>4210427538</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>2</v>
@@ -10257,7 +10257,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="1">
-        <v>4210487162</v>
+        <v>4210497116</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>2</v>
@@ -10269,7 +10269,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="1">
-        <v>4210208571</v>
+        <v>4210789652</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>2</v>
@@ -10281,7 +10281,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="1">
-        <v>4210515989</v>
+        <v>4210841799</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>2</v>
@@ -10293,7 +10293,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="1">
-        <v>4210213779</v>
+        <v>4210009943</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>2</v>
@@ -10305,7 +10305,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="1">
-        <v>4210309982</v>
+        <v>4210707172</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>2</v>
@@ -10317,7 +10317,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="1">
-        <v>4210378870</v>
+        <v>4210003908</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>2</v>
@@ -10329,7 +10329,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="1">
-        <v>4210702558</v>
+        <v>4210405234</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>2</v>
@@ -10341,7 +10341,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="1">
-        <v>4210710191</v>
+        <v>4210113485</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>2</v>
@@ -10353,7 +10353,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="1">
-        <v>4210400589</v>
+        <v>4210185045</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>2</v>
@@ -10365,7 +10365,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="1">
-        <v>4210810214</v>
+        <v>4210061222</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>2</v>
@@ -10377,7 +10377,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="1">
-        <v>4210933570</v>
+        <v>4210239886</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>2</v>
@@ -10389,7 +10389,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="1">
-        <v>4211044632</v>
+        <v>4210244610</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>2</v>
@@ -10401,7 +10401,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="1">
-        <v>4210420793</v>
+        <v>4210386471</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>2</v>
@@ -10413,7 +10413,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="1">
-        <v>4210126712</v>
+        <v>4210496119</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>2</v>
@@ -10425,7 +10425,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="1">
-        <v>4210250376</v>
+        <v>4210521327</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>2</v>
@@ -10437,7 +10437,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="1">
-        <v>4210407609</v>
+        <v>4211052917</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>2</v>
@@ -10449,7 +10449,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="1">
-        <v>4210879411</v>
+        <v>4210050280</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>2</v>
@@ -10461,7 +10461,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="1">
-        <v>4211020443</v>
+        <v>4210372229</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>2</v>
@@ -10473,7 +10473,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="1">
-        <v>4210707793</v>
+        <v>4210326134</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>2</v>
@@ -10485,7 +10485,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="1">
-        <v>4210326499</v>
+        <v>4210535776</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>2</v>
@@ -10497,7 +10497,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="1">
-        <v>4210421903</v>
+        <v>4210359992</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>2</v>
@@ -10509,7 +10509,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="1">
-        <v>4210004989</v>
+        <v>4210380505</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>2</v>
@@ -10521,7 +10521,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="1">
-        <v>4210129193</v>
+        <v>4210502346</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>2</v>
@@ -10533,7 +10533,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="1">
-        <v>4210654402</v>
+        <v>4210609300</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>2</v>
@@ -10545,7 +10545,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="1">
-        <v>4210178645</v>
+        <v>4210737822</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>2</v>
@@ -10557,7 +10557,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="1">
-        <v>4210272357</v>
+        <v>4210920340</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>2</v>
@@ -10569,7 +10569,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1">
-        <v>4210633293</v>
+        <v>4210114589</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>2</v>
@@ -10581,7 +10581,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="1">
-        <v>4210740672</v>
+        <v>4210273236</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>2</v>
@@ -10593,7 +10593,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="1">
-        <v>4210006329</v>
+        <v>4210270390</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>2</v>
@@ -10605,7 +10605,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="1">
-        <v>4210031752</v>
+        <v>4210161201</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>2</v>
@@ -10617,7 +10617,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="1">
-        <v>4210152113</v>
+        <v>4210185589</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>2</v>
@@ -10629,7 +10629,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="1">
-        <v>4210214619</v>
+        <v>4210229959</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>2</v>
@@ -10641,7 +10641,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="1">
-        <v>4210420791</v>
+        <v>4210236802</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>2</v>
@@ -10653,7 +10653,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="1">
-        <v>4210477209</v>
+        <v>4210323925</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>2</v>
@@ -10665,7 +10665,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1">
-        <v>4210510176</v>
+        <v>4210342956</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>2</v>
@@ -10677,7 +10677,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1">
-        <v>4210866906</v>
+        <v>4210396271</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>2</v>
@@ -10689,7 +10689,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="1">
-        <v>4210376988</v>
+        <v>4210548527</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>2</v>
@@ -10701,7 +10701,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="1">
-        <v>4210911353</v>
+        <v>4211048212</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>2</v>
@@ -10713,7 +10713,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="1">
-        <v>4210924322</v>
+        <v>4210893995</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>2</v>
@@ -10725,7 +10725,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="1">
-        <v>4210086965</v>
+        <v>4210962329</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>2</v>
@@ -10737,7 +10737,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="1">
-        <v>4210398274</v>
+        <v>4210019501</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>2</v>
@@ -10749,7 +10749,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="1">
-        <v>4210062240</v>
+        <v>4210347993</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>2</v>
@@ -10761,7 +10761,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="1">
-        <v>4210086103</v>
+        <v>4210392078</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>2</v>
@@ -10773,7 +10773,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="1">
-        <v>4210143635</v>
+        <v>4210387120</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>2</v>
@@ -10785,7 +10785,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="1">
-        <v>4210179047</v>
+        <v>4210487162</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>2</v>
@@ -10797,7 +10797,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="1">
-        <v>4210396790</v>
+        <v>4210842452</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>2</v>
@@ -10809,7 +10809,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="1">
-        <v>4210405046</v>
+        <v>4210208571</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>2</v>
@@ -10821,7 +10821,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="1">
-        <v>4210522831</v>
+        <v>4210515989</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>2</v>
@@ -10833,7 +10833,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="1">
-        <v>4210560300</v>
+        <v>4210213779</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>2</v>
@@ -10845,7 +10845,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="1">
-        <v>4210593590</v>
+        <v>4210309982</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>2</v>
@@ -10857,7 +10857,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="1">
-        <v>4210620984</v>
+        <v>4210378870</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>2</v>
@@ -10869,7 +10869,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>4210036943</v>
+        <v>4210702558</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>2</v>
@@ -10881,7 +10881,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="1">
-        <v>4210003083</v>
+        <v>4210710191</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>2</v>
@@ -10893,7 +10893,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="1">
-        <v>4210383539</v>
+        <v>4210400589</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>2</v>
@@ -10905,7 +10905,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="1">
-        <v>4210919520</v>
+        <v>4210810214</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>2</v>
@@ -10917,7 +10917,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="1">
-        <v>4210104513</v>
+        <v>4210933570</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>2</v>
@@ -10929,7 +10929,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="1">
-        <v>4210337882</v>
+        <v>4211044632</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>2</v>
@@ -10941,7 +10941,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="1">
-        <v>4210414207</v>
+        <v>4210420793</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>2</v>
@@ -10953,7 +10953,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="2">
-        <v>4210478764</v>
+        <v>4210126712</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>2</v>
@@ -10965,7 +10965,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="1">
-        <v>4210483345</v>
+        <v>4210250376</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>2</v>
@@ -10977,7 +10977,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="1">
-        <v>4210483959</v>
+        <v>4210407609</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>2</v>
@@ -10989,7 +10989,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="1">
-        <v>4210552779</v>
+        <v>4210427383</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>2</v>
@@ -11001,7 +11001,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="1">
-        <v>4210700049</v>
+        <v>4210879411</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>2</v>
@@ -11013,7 +11013,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="1">
-        <v>4210718468</v>
+        <v>4211020443</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>2</v>
@@ -11025,7 +11025,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="1">
-        <v>4210974262</v>
+        <v>4210707793</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>2</v>
@@ -11037,7 +11037,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="1">
-        <v>4210247519</v>
+        <v>4210593308</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>2</v>
@@ -11049,7 +11049,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="1">
-        <v>4210652133</v>
+        <v>4210326499</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>2</v>
@@ -11061,7 +11061,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="1">
-        <v>4210059502</v>
+        <v>4210421903</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>2</v>
@@ -11073,7 +11073,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="1">
-        <v>4210076436</v>
+        <v>4210004989</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>2</v>
@@ -11085,7 +11085,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="1">
-        <v>4210097470</v>
+        <v>4210129193</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>2</v>
@@ -11097,7 +11097,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="1">
-        <v>4210099442</v>
+        <v>4210654402</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>2</v>
@@ -11109,7 +11109,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="1">
-        <v>4210121557</v>
+        <v>4210178645</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>2</v>
@@ -11121,7 +11121,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="1">
-        <v>4210312209</v>
+        <v>4210272357</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>2</v>
@@ -11133,7 +11133,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="1">
-        <v>4210399799</v>
+        <v>4210633293</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>2</v>
@@ -11145,7 +11145,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="1">
-        <v>4210418911</v>
+        <v>4210740672</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>2</v>
@@ -11157,7 +11157,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="1">
-        <v>4210485733</v>
+        <v>4210411957</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>2</v>
@@ -11169,7 +11169,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="1">
-        <v>4210721350</v>
+        <v>4210006329</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>2</v>
@@ -11181,7 +11181,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="1">
-        <v>4210960649</v>
+        <v>4210031752</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>2</v>
@@ -11193,7 +11193,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="1">
-        <v>4211013963</v>
+        <v>4210152113</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>2</v>
@@ -11205,7 +11205,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="1">
-        <v>4210811627</v>
+        <v>4210214619</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>2</v>
@@ -11217,7 +11217,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="1">
-        <v>4210458622</v>
+        <v>4210420791</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>2</v>
@@ -11229,7 +11229,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="1">
-        <v>4210671815</v>
+        <v>4210477209</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>2</v>
@@ -11241,7 +11241,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="1">
-        <v>4210337818</v>
+        <v>4210510176</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>2</v>
@@ -11253,7 +11253,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="1">
-        <v>4210949152</v>
+        <v>4210623479</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>2</v>
@@ -11265,7 +11265,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="1">
-        <v>4210634563</v>
+        <v>4210866906</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>2</v>
@@ -11277,7 +11277,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="1">
-        <v>4210051155</v>
+        <v>4211068812</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>2</v>
@@ -11289,7 +11289,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>4210142038</v>
+        <v>4210888119</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>2</v>
@@ -11301,7 +11301,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="1">
-        <v>4210149575</v>
+        <v>4211052476</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>2</v>
@@ -11313,7 +11313,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="1">
-        <v>4210168043</v>
+        <v>4210376988</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>2</v>
@@ -11325,7 +11325,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="1">
-        <v>4210195529</v>
+        <v>4210911353</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>2</v>
@@ -11337,7 +11337,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="1">
-        <v>4210303219</v>
+        <v>4210924322</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>2</v>
@@ -11349,7 +11349,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="1">
-        <v>4210427799</v>
+        <v>4210086965</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>2</v>
@@ -11361,7 +11361,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="1">
-        <v>4210446245</v>
+        <v>4210398274</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>2</v>
@@ -11373,7 +11373,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="1">
-        <v>4210461149</v>
+        <v>4210062240</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>2</v>
@@ -11385,7 +11385,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="1">
-        <v>4210629760</v>
+        <v>4210086103</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>2</v>
@@ -11397,7 +11397,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="1">
-        <v>4210709679</v>
+        <v>4210143635</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>2</v>
@@ -11409,7 +11409,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="1">
-        <v>4210758376</v>
+        <v>4210179047</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>2</v>
@@ -11421,7 +11421,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="1">
-        <v>4210827877</v>
+        <v>4210396790</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>2</v>
@@ -11433,7 +11433,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="1">
-        <v>4210939924</v>
+        <v>4210405046</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>2</v>
@@ -11445,7 +11445,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="1">
-        <v>4210207233</v>
+        <v>4210522831</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>2</v>
@@ -11457,7 +11457,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="1">
-        <v>4210901008</v>
+        <v>4210560300</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>2</v>
@@ -11469,7 +11469,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="1">
-        <v>4210423569</v>
+        <v>4210593590</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>2</v>
@@ -11481,7 +11481,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="1">
-        <v>4210607124</v>
+        <v>4210620984</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>2</v>
@@ -11493,7 +11493,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="1">
-        <v>4210669592</v>
+        <v>4210036943</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>2</v>
@@ -11505,7 +11505,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="1">
-        <v>4210534852</v>
+        <v>4210003083</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>2</v>
@@ -11517,7 +11517,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="1">
-        <v>4210001844</v>
+        <v>4210383539</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>2</v>
@@ -11529,7 +11529,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="1">
-        <v>4210109667</v>
+        <v>4210919520</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>2</v>
@@ -11541,7 +11541,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="1">
-        <v>4210196693</v>
+        <v>4210792288</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>2</v>
@@ -11553,7 +11553,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="1">
-        <v>4210365640</v>
+        <v>4210104513</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>2</v>
@@ -11565,7 +11565,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="1">
-        <v>4210548325</v>
+        <v>4210337882</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>2</v>
@@ -11577,7 +11577,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="1">
-        <v>4210554776</v>
+        <v>4210414207</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>2</v>
@@ -11589,7 +11589,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="1">
-        <v>4211168559</v>
+        <v>4210478764</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>2</v>
@@ -11601,7 +11601,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="1">
-        <v>4211173096</v>
+        <v>4210483345</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>2</v>
@@ -11613,7 +11613,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="1">
-        <v>4210388883</v>
+        <v>4210483959</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>2</v>
@@ -11625,7 +11625,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="1">
-        <v>4210622646</v>
+        <v>4210552779</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>2</v>
@@ -11637,7 +11637,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="1">
-        <v>4210049002</v>
+        <v>4210700049</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>2</v>
@@ -11649,7 +11649,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="1">
-        <v>4210905356</v>
+        <v>4210718468</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>2</v>
@@ -11661,7 +11661,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="1">
-        <v>4210750427</v>
+        <v>4210974262</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>2</v>
@@ -11673,7 +11673,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="1">
-        <v>4210690219</v>
+        <v>4211153726</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>2</v>
@@ -11685,7 +11685,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="1">
-        <v>4210544812</v>
+        <v>4210247519</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>2</v>
@@ -11697,7 +11697,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="1">
-        <v>4210374075</v>
+        <v>4210652133</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>2</v>
@@ -11709,7 +11709,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="1">
-        <v>4211172188</v>
+        <v>4210059502</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>2</v>
@@ -11721,7 +11721,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="1">
-        <v>4210918088</v>
+        <v>4210076436</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>2</v>
@@ -11733,7 +11733,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="1">
-        <v>4210245439</v>
+        <v>4210097470</v>
       </c>
       <c r="C587" s="1" t="s">
         <v>2</v>
@@ -11745,7 +11745,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="1">
-        <v>4210276653</v>
+        <v>4210099442</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>2</v>
@@ -11757,7 +11757,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="1">
-        <v>4210519195</v>
+        <v>4210121557</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>2</v>
@@ -11769,7 +11769,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="1">
-        <v>4210671668</v>
+        <v>4210312209</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>2</v>
@@ -11781,7 +11781,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="1">
-        <v>4210727818</v>
+        <v>4210399799</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>2</v>
@@ -11793,7 +11793,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="1">
-        <v>4210741138</v>
+        <v>4210418911</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>2</v>
@@ -11805,7 +11805,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="1">
-        <v>4210883236</v>
+        <v>4210485733</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>2</v>
@@ -11816,7 +11816,9 @@
         <f t="shared" si="9"/>
         <v>593</v>
       </c>
-      <c r="B594" s="1"/>
+      <c r="B594" s="1">
+        <v>4210721350</v>
+      </c>
       <c r="C594" s="1" t="s">
         <v>2</v>
       </c>
@@ -11826,7 +11828,9 @@
         <f t="shared" si="9"/>
         <v>594</v>
       </c>
-      <c r="B595" s="1"/>
+      <c r="B595" s="1">
+        <v>4210960649</v>
+      </c>
       <c r="C595" s="1" t="s">
         <v>2</v>
       </c>
@@ -11836,7 +11840,9 @@
         <f t="shared" si="9"/>
         <v>595</v>
       </c>
-      <c r="B596" s="1"/>
+      <c r="B596" s="1">
+        <v>4211013963</v>
+      </c>
       <c r="C596" s="1" t="s">
         <v>2</v>
       </c>
@@ -11846,7 +11852,9 @@
         <f t="shared" si="9"/>
         <v>596</v>
       </c>
-      <c r="B597" s="1"/>
+      <c r="B597" s="1">
+        <v>4210811627</v>
+      </c>
       <c r="C597" s="1" t="s">
         <v>2</v>
       </c>
@@ -11856,7 +11864,9 @@
         <f t="shared" si="9"/>
         <v>597</v>
       </c>
-      <c r="B598" s="1"/>
+      <c r="B598" s="1">
+        <v>4210458622</v>
+      </c>
       <c r="C598" s="1" t="s">
         <v>2</v>
       </c>
@@ -11866,7 +11876,9 @@
         <f t="shared" si="9"/>
         <v>598</v>
       </c>
-      <c r="B599" s="1"/>
+      <c r="B599" s="1">
+        <v>4210671815</v>
+      </c>
       <c r="C599" s="1" t="s">
         <v>2</v>
       </c>
@@ -11876,7 +11888,9 @@
         <f t="shared" si="9"/>
         <v>599</v>
       </c>
-      <c r="B600" s="1"/>
+      <c r="B600" s="1">
+        <v>4210337818</v>
+      </c>
       <c r="C600" s="1" t="s">
         <v>2</v>
       </c>
@@ -11886,7 +11900,9 @@
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="B601" s="1"/>
+      <c r="B601" s="1">
+        <v>4210949152</v>
+      </c>
       <c r="C601" s="1" t="s">
         <v>2</v>
       </c>
@@ -11896,7 +11912,9 @@
         <f t="shared" si="9"/>
         <v>601</v>
       </c>
-      <c r="B602" s="1"/>
+      <c r="B602" s="1">
+        <v>4210634563</v>
+      </c>
       <c r="C602" s="1" t="s">
         <v>2</v>
       </c>
@@ -11906,7 +11924,9 @@
         <f t="shared" si="9"/>
         <v>602</v>
       </c>
-      <c r="B603" s="1"/>
+      <c r="B603" s="1">
+        <v>4210051155</v>
+      </c>
       <c r="C603" s="1" t="s">
         <v>2</v>
       </c>
@@ -11916,7 +11936,9 @@
         <f t="shared" si="9"/>
         <v>603</v>
       </c>
-      <c r="B604" s="1"/>
+      <c r="B604" s="1">
+        <v>4210142038</v>
+      </c>
       <c r="C604" s="1" t="s">
         <v>2</v>
       </c>
@@ -11926,7 +11948,9 @@
         <f t="shared" si="9"/>
         <v>604</v>
       </c>
-      <c r="B605" s="1"/>
+      <c r="B605" s="1">
+        <v>4210149575</v>
+      </c>
       <c r="C605" s="1" t="s">
         <v>2</v>
       </c>
@@ -11936,7 +11960,9 @@
         <f t="shared" si="9"/>
         <v>605</v>
       </c>
-      <c r="B606" s="1"/>
+      <c r="B606" s="1">
+        <v>4210168043</v>
+      </c>
       <c r="C606" s="1" t="s">
         <v>2</v>
       </c>
@@ -11946,7 +11972,9 @@
         <f t="shared" si="9"/>
         <v>606</v>
       </c>
-      <c r="B607" s="1"/>
+      <c r="B607" s="1">
+        <v>4210195529</v>
+      </c>
       <c r="C607" s="1" t="s">
         <v>2</v>
       </c>
@@ -11956,7 +11984,9 @@
         <f t="shared" si="9"/>
         <v>607</v>
       </c>
-      <c r="B608" s="1"/>
+      <c r="B608" s="1">
+        <v>4210303219</v>
+      </c>
       <c r="C608" s="1" t="s">
         <v>2</v>
       </c>
@@ -11966,7 +11996,9 @@
         <f t="shared" si="9"/>
         <v>608</v>
       </c>
-      <c r="B609" s="1"/>
+      <c r="B609" s="1">
+        <v>4210427799</v>
+      </c>
       <c r="C609" s="1" t="s">
         <v>2</v>
       </c>
@@ -11976,7 +12008,9 @@
         <f t="shared" si="9"/>
         <v>609</v>
       </c>
-      <c r="B610" s="1"/>
+      <c r="B610" s="1">
+        <v>4210446245</v>
+      </c>
       <c r="C610" s="1" t="s">
         <v>2</v>
       </c>
@@ -11986,7 +12020,9 @@
         <f t="shared" si="9"/>
         <v>610</v>
       </c>
-      <c r="B611" s="1"/>
+      <c r="B611" s="1">
+        <v>4210461149</v>
+      </c>
       <c r="C611" s="1" t="s">
         <v>2</v>
       </c>
@@ -11996,7 +12032,9 @@
         <f t="shared" si="9"/>
         <v>611</v>
       </c>
-      <c r="B612" s="1"/>
+      <c r="B612" s="1">
+        <v>4210629760</v>
+      </c>
       <c r="C612" s="1" t="s">
         <v>2</v>
       </c>
@@ -12006,7 +12044,9 @@
         <f t="shared" si="9"/>
         <v>612</v>
       </c>
-      <c r="B613" s="1"/>
+      <c r="B613" s="1">
+        <v>4210709679</v>
+      </c>
       <c r="C613" s="1" t="s">
         <v>2</v>
       </c>
@@ -12016,7 +12056,9 @@
         <f t="shared" si="9"/>
         <v>613</v>
       </c>
-      <c r="B614" s="1"/>
+      <c r="B614" s="1">
+        <v>4210758376</v>
+      </c>
       <c r="C614" s="1" t="s">
         <v>2</v>
       </c>
@@ -12026,7 +12068,9 @@
         <f t="shared" si="9"/>
         <v>614</v>
       </c>
-      <c r="B615" s="1"/>
+      <c r="B615" s="1">
+        <v>4210827877</v>
+      </c>
       <c r="C615" s="1" t="s">
         <v>2</v>
       </c>
@@ -12036,7 +12080,9 @@
         <f t="shared" si="9"/>
         <v>615</v>
       </c>
-      <c r="B616" s="1"/>
+      <c r="B616" s="1">
+        <v>4210939924</v>
+      </c>
       <c r="C616" s="1" t="s">
         <v>2</v>
       </c>
@@ -12046,7 +12092,9 @@
         <f t="shared" si="9"/>
         <v>616</v>
       </c>
-      <c r="B617" s="1"/>
+      <c r="B617" s="1">
+        <v>4210207233</v>
+      </c>
       <c r="C617" s="1" t="s">
         <v>2</v>
       </c>
@@ -12056,7 +12104,9 @@
         <f t="shared" si="9"/>
         <v>617</v>
       </c>
-      <c r="B618" s="1"/>
+      <c r="B618" s="1">
+        <v>4210901008</v>
+      </c>
       <c r="C618" s="1" t="s">
         <v>2</v>
       </c>
@@ -12066,7 +12116,9 @@
         <f t="shared" si="9"/>
         <v>618</v>
       </c>
-      <c r="B619" s="1"/>
+      <c r="B619" s="1">
+        <v>4210423569</v>
+      </c>
       <c r="C619" s="1" t="s">
         <v>2</v>
       </c>
@@ -12076,7 +12128,9 @@
         <f t="shared" si="9"/>
         <v>619</v>
       </c>
-      <c r="B620" s="1"/>
+      <c r="B620" s="1">
+        <v>4210487451</v>
+      </c>
       <c r="C620" s="1" t="s">
         <v>2</v>
       </c>
@@ -12086,7 +12140,9 @@
         <f t="shared" si="9"/>
         <v>620</v>
       </c>
-      <c r="B621" s="1"/>
+      <c r="B621" s="1">
+        <v>4210607124</v>
+      </c>
       <c r="C621" s="1" t="s">
         <v>2</v>
       </c>
@@ -12096,7 +12152,9 @@
         <f t="shared" si="9"/>
         <v>621</v>
       </c>
-      <c r="B622" s="1"/>
+      <c r="B622" s="1">
+        <v>4210669592</v>
+      </c>
       <c r="C622" s="1" t="s">
         <v>2</v>
       </c>
@@ -12106,7 +12164,9 @@
         <f t="shared" si="9"/>
         <v>622</v>
       </c>
-      <c r="B623" s="1"/>
+      <c r="B623" s="1">
+        <v>4210534852</v>
+      </c>
       <c r="C623" s="1" t="s">
         <v>2</v>
       </c>
@@ -12116,7 +12176,9 @@
         <f t="shared" si="9"/>
         <v>623</v>
       </c>
-      <c r="B624" s="1"/>
+      <c r="B624" s="1">
+        <v>4210001844</v>
+      </c>
       <c r="C624" s="1" t="s">
         <v>2</v>
       </c>
@@ -12126,7 +12188,9 @@
         <f t="shared" si="9"/>
         <v>624</v>
       </c>
-      <c r="B625" s="1"/>
+      <c r="B625" s="1">
+        <v>4210109667</v>
+      </c>
       <c r="C625" s="1" t="s">
         <v>2</v>
       </c>
@@ -12136,7 +12200,9 @@
         <f t="shared" si="9"/>
         <v>625</v>
       </c>
-      <c r="B626" s="1"/>
+      <c r="B626" s="1">
+        <v>4210196693</v>
+      </c>
       <c r="C626" s="1" t="s">
         <v>2</v>
       </c>
@@ -12146,7 +12212,9 @@
         <f t="shared" si="9"/>
         <v>626</v>
       </c>
-      <c r="B627" s="1"/>
+      <c r="B627" s="1">
+        <v>4210365640</v>
+      </c>
       <c r="C627" s="1" t="s">
         <v>2</v>
       </c>
@@ -12156,7 +12224,9 @@
         <f t="shared" si="9"/>
         <v>627</v>
       </c>
-      <c r="B628" s="1"/>
+      <c r="B628" s="1">
+        <v>4210407197</v>
+      </c>
       <c r="C628" s="1" t="s">
         <v>2</v>
       </c>
@@ -12166,7 +12236,9 @@
         <f t="shared" si="9"/>
         <v>628</v>
       </c>
-      <c r="B629" s="1"/>
+      <c r="B629" s="1">
+        <v>4210548325</v>
+      </c>
       <c r="C629" s="1" t="s">
         <v>2</v>
       </c>
@@ -12176,7 +12248,9 @@
         <f t="shared" si="9"/>
         <v>629</v>
       </c>
-      <c r="B630" s="1"/>
+      <c r="B630" s="1">
+        <v>4210554776</v>
+      </c>
       <c r="C630" s="1" t="s">
         <v>2</v>
       </c>
@@ -12186,7 +12260,9 @@
         <f t="shared" si="9"/>
         <v>630</v>
       </c>
-      <c r="B631" s="1"/>
+      <c r="B631" s="1">
+        <v>4210629708</v>
+      </c>
       <c r="C631" s="1" t="s">
         <v>2</v>
       </c>
@@ -12196,7 +12272,9 @@
         <f t="shared" si="9"/>
         <v>631</v>
       </c>
-      <c r="B632" s="1"/>
+      <c r="B632" s="1">
+        <v>4210978497</v>
+      </c>
       <c r="C632" s="1" t="s">
         <v>2</v>
       </c>
@@ -12206,7 +12284,9 @@
         <f t="shared" si="9"/>
         <v>632</v>
       </c>
-      <c r="B633" s="1"/>
+      <c r="B633" s="1">
+        <v>4211168559</v>
+      </c>
       <c r="C633" s="1" t="s">
         <v>2</v>
       </c>
@@ -12216,7 +12296,9 @@
         <f t="shared" si="9"/>
         <v>633</v>
       </c>
-      <c r="B634" s="1"/>
+      <c r="B634" s="1">
+        <v>4211173096</v>
+      </c>
       <c r="C634" s="1" t="s">
         <v>2</v>
       </c>
@@ -12226,7 +12308,9 @@
         <f t="shared" si="9"/>
         <v>634</v>
       </c>
-      <c r="B635" s="1"/>
+      <c r="B635" s="1">
+        <v>4210388883</v>
+      </c>
       <c r="C635" s="1" t="s">
         <v>2</v>
       </c>
@@ -12236,7 +12320,9 @@
         <f t="shared" si="9"/>
         <v>635</v>
       </c>
-      <c r="B636" s="1"/>
+      <c r="B636" s="1">
+        <v>4210622646</v>
+      </c>
       <c r="C636" s="1" t="s">
         <v>2</v>
       </c>
@@ -12246,7 +12332,9 @@
         <f t="shared" si="9"/>
         <v>636</v>
       </c>
-      <c r="B637" s="1"/>
+      <c r="B637" s="1">
+        <v>4210049002</v>
+      </c>
       <c r="C637" s="1" t="s">
         <v>2</v>
       </c>
@@ -12256,7 +12344,9 @@
         <f t="shared" si="9"/>
         <v>637</v>
       </c>
-      <c r="B638" s="1"/>
+      <c r="B638" s="1">
+        <v>4210905356</v>
+      </c>
       <c r="C638" s="1" t="s">
         <v>2</v>
       </c>
@@ -12266,7 +12356,9 @@
         <f t="shared" si="9"/>
         <v>638</v>
       </c>
-      <c r="B639" s="1"/>
+      <c r="B639" s="1">
+        <v>4210750427</v>
+      </c>
       <c r="C639" s="1" t="s">
         <v>2</v>
       </c>
@@ -12276,7 +12368,9 @@
         <f t="shared" si="9"/>
         <v>639</v>
       </c>
-      <c r="B640" s="1"/>
+      <c r="B640" s="1">
+        <v>4210690219</v>
+      </c>
       <c r="C640" s="1" t="s">
         <v>2</v>
       </c>
@@ -12286,7 +12380,9 @@
         <f t="shared" si="9"/>
         <v>640</v>
       </c>
-      <c r="B641" s="1"/>
+      <c r="B641" s="1">
+        <v>4210544812</v>
+      </c>
       <c r="C641" s="1" t="s">
         <v>2</v>
       </c>
@@ -12296,7 +12392,9 @@
         <f t="shared" ref="A642:A705" si="10">+A641+1</f>
         <v>641</v>
       </c>
-      <c r="B642" s="1"/>
+      <c r="B642" s="1">
+        <v>4210374075</v>
+      </c>
       <c r="C642" s="1" t="s">
         <v>2</v>
       </c>
@@ -12306,7 +12404,9 @@
         <f t="shared" si="10"/>
         <v>642</v>
       </c>
-      <c r="B643" s="1"/>
+      <c r="B643" s="1">
+        <v>4211172188</v>
+      </c>
       <c r="C643" s="1" t="s">
         <v>2</v>
       </c>
@@ -12316,7 +12416,9 @@
         <f t="shared" si="10"/>
         <v>643</v>
       </c>
-      <c r="B644" s="1"/>
+      <c r="B644" s="1">
+        <v>4210918088</v>
+      </c>
       <c r="C644" s="1" t="s">
         <v>2</v>
       </c>
@@ -12326,7 +12428,9 @@
         <f t="shared" si="10"/>
         <v>644</v>
       </c>
-      <c r="B645" s="1"/>
+      <c r="B645" s="1">
+        <v>4210245439</v>
+      </c>
       <c r="C645" s="1" t="s">
         <v>2</v>
       </c>
@@ -12336,7 +12440,9 @@
         <f t="shared" si="10"/>
         <v>645</v>
       </c>
-      <c r="B646" s="1"/>
+      <c r="B646" s="1">
+        <v>4210276653</v>
+      </c>
       <c r="C646" s="1" t="s">
         <v>2</v>
       </c>
@@ -12346,7 +12452,9 @@
         <f t="shared" si="10"/>
         <v>646</v>
       </c>
-      <c r="B647" s="1"/>
+      <c r="B647" s="1">
+        <v>4210429536</v>
+      </c>
       <c r="C647" s="1" t="s">
         <v>2</v>
       </c>
@@ -12356,7 +12464,9 @@
         <f t="shared" si="10"/>
         <v>647</v>
       </c>
-      <c r="B648" s="1"/>
+      <c r="B648" s="1">
+        <v>4210519195</v>
+      </c>
       <c r="C648" s="1" t="s">
         <v>2</v>
       </c>
@@ -12366,7 +12476,9 @@
         <f t="shared" si="10"/>
         <v>648</v>
       </c>
-      <c r="B649" s="1"/>
+      <c r="B649" s="1">
+        <v>4210671668</v>
+      </c>
       <c r="C649" s="1" t="s">
         <v>2</v>
       </c>
@@ -12376,7 +12488,9 @@
         <f t="shared" si="10"/>
         <v>649</v>
       </c>
-      <c r="B650" s="1"/>
+      <c r="B650" s="1">
+        <v>4210727818</v>
+      </c>
       <c r="C650" s="1" t="s">
         <v>2</v>
       </c>
@@ -12386,7 +12500,9 @@
         <f t="shared" si="10"/>
         <v>650</v>
       </c>
-      <c r="B651" s="1"/>
+      <c r="B651" s="1">
+        <v>4210741138</v>
+      </c>
       <c r="C651" s="1" t="s">
         <v>2</v>
       </c>
@@ -12396,7 +12512,9 @@
         <f t="shared" si="10"/>
         <v>651</v>
       </c>
-      <c r="B652" s="1"/>
+      <c r="B652" s="1">
+        <v>4210883236</v>
+      </c>
       <c r="C652" s="1" t="s">
         <v>2</v>
       </c>
@@ -32214,9 +32332,9 @@
       <c r="A476">
         <v>4210377665</v>
       </c>
-      <c r="B476" t="e">
+      <c r="B476">
         <f>VLOOKUP(A476,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210377665</v>
       </c>
       <c r="C476" t="s">
         <v>213</v>
@@ -32862,9 +32980,9 @@
       <c r="A503">
         <v>4210689234</v>
       </c>
-      <c r="B503" t="e">
+      <c r="B503">
         <f>VLOOKUP(A503,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210689234</v>
       </c>
       <c r="C503" t="s">
         <v>240</v>
@@ -33150,9 +33268,9 @@
       <c r="A515">
         <v>4211153726</v>
       </c>
-      <c r="B515" t="e">
+      <c r="B515">
         <f>VLOOKUP(A515,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211153726</v>
       </c>
       <c r="C515" t="s">
         <v>252</v>
@@ -33438,9 +33556,9 @@
       <c r="A527">
         <v>4210105227</v>
       </c>
-      <c r="B527" t="e">
+      <c r="B527">
         <f>VLOOKUP(A527,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210105227</v>
       </c>
       <c r="C527" t="s">
         <v>264</v>
@@ -34014,9 +34132,9 @@
       <c r="A551">
         <v>4210706642</v>
       </c>
-      <c r="B551" t="e">
+      <c r="B551">
         <f>VLOOKUP(A551,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210706642</v>
       </c>
       <c r="C551" t="s">
         <v>288</v>
@@ -34206,9 +34324,9 @@
       <c r="A559">
         <v>4210629708</v>
       </c>
-      <c r="B559" t="e">
+      <c r="B559">
         <f>VLOOKUP(A559,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210629708</v>
       </c>
       <c r="C559" t="s">
         <v>296</v>
@@ -34230,9 +34348,9 @@
       <c r="A560">
         <v>4210888119</v>
       </c>
-      <c r="B560" t="e">
+      <c r="B560">
         <f>VLOOKUP(A560,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210888119</v>
       </c>
       <c r="C560" t="s">
         <v>297</v>
@@ -34278,9 +34396,9 @@
       <c r="A562">
         <v>4210415570</v>
       </c>
-      <c r="B562" t="e">
+      <c r="B562">
         <f>VLOOKUP(A562,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210415570</v>
       </c>
       <c r="C562" t="s">
         <v>299</v>
@@ -34302,9 +34420,9 @@
       <c r="A563">
         <v>4210671328</v>
       </c>
-      <c r="B563" t="e">
+      <c r="B563">
         <f>VLOOKUP(A563,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210671328</v>
       </c>
       <c r="C563" t="s">
         <v>300</v>
@@ -34350,9 +34468,9 @@
       <c r="A565">
         <v>4210697216</v>
       </c>
-      <c r="B565" t="e">
+      <c r="B565">
         <f>VLOOKUP(A565,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210697216</v>
       </c>
       <c r="C565" t="s">
         <v>302</v>
@@ -34542,9 +34660,9 @@
       <c r="A573">
         <v>4211081285</v>
       </c>
-      <c r="B573" t="e">
+      <c r="B573">
         <f>VLOOKUP(A573,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211081285</v>
       </c>
       <c r="C573" t="s">
         <v>310</v>
@@ -34854,9 +34972,9 @@
       <c r="A586">
         <v>4210236370</v>
       </c>
-      <c r="B586" t="e">
+      <c r="B586">
         <f>VLOOKUP(A586,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210236370</v>
       </c>
       <c r="C586" t="s">
         <v>323</v>
@@ -34998,9 +35116,9 @@
       <c r="A592">
         <v>4210411957</v>
       </c>
-      <c r="B592" t="e">
+      <c r="B592">
         <f>VLOOKUP(A592,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210411957</v>
       </c>
       <c r="C592" t="s">
         <v>329</v>
@@ -35262,9 +35380,9 @@
       <c r="A603">
         <v>4210608174</v>
       </c>
-      <c r="B603" t="e">
+      <c r="B603">
         <f>VLOOKUP(A603,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210608174</v>
       </c>
       <c r="C603" t="s">
         <v>340</v>
@@ -35382,9 +35500,9 @@
       <c r="A608">
         <v>4210675397</v>
       </c>
-      <c r="B608" t="e">
+      <c r="B608">
         <f>VLOOKUP(A608,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210675397</v>
       </c>
       <c r="C608" t="s">
         <v>345</v>
@@ -35526,9 +35644,9 @@
       <c r="A614">
         <v>4210762861</v>
       </c>
-      <c r="B614" t="e">
+      <c r="B614">
         <f>VLOOKUP(A614,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210762861</v>
       </c>
       <c r="C614" t="s">
         <v>351</v>
@@ -35574,9 +35692,9 @@
       <c r="A616">
         <v>4211039879</v>
       </c>
-      <c r="B616" t="e">
+      <c r="B616">
         <f>VLOOKUP(A616,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211039879</v>
       </c>
       <c r="C616" t="s">
         <v>353</v>
@@ -35910,9 +36028,9 @@
       <c r="A630">
         <v>4210180848</v>
       </c>
-      <c r="B630" t="e">
+      <c r="B630">
         <f>VLOOKUP(A630,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210180848</v>
       </c>
       <c r="C630" t="s">
         <v>367</v>
@@ -35934,9 +36052,9 @@
       <c r="A631">
         <v>4210229959</v>
       </c>
-      <c r="B631" t="e">
+      <c r="B631">
         <f>VLOOKUP(A631,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210229959</v>
       </c>
       <c r="C631" t="s">
         <v>368</v>
@@ -37182,9 +37300,9 @@
       <c r="A683">
         <v>4210815491</v>
       </c>
-      <c r="B683" t="e">
+      <c r="B683">
         <f>VLOOKUP(A683,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210815491</v>
       </c>
       <c r="C683" t="s">
         <v>420</v>
@@ -37566,9 +37684,9 @@
       <c r="A699">
         <v>4210427538</v>
       </c>
-      <c r="B699" t="e">
+      <c r="B699">
         <f>VLOOKUP(A699,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210427538</v>
       </c>
       <c r="C699" t="s">
         <v>436</v>
@@ -37590,9 +37708,9 @@
       <c r="A700">
         <v>4210435420</v>
       </c>
-      <c r="B700" t="e">
+      <c r="B700">
         <f>VLOOKUP(A700,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210435420</v>
       </c>
       <c r="C700" t="s">
         <v>437</v>
@@ -37710,9 +37828,9 @@
       <c r="A705">
         <v>4210487451</v>
       </c>
-      <c r="B705" t="e">
+      <c r="B705">
         <f>VLOOKUP(A705,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210487451</v>
       </c>
       <c r="C705" t="s">
         <v>442</v>
@@ -37902,9 +38020,9 @@
       <c r="A713">
         <v>4210994527</v>
       </c>
-      <c r="B713" t="e">
+      <c r="B713">
         <f>VLOOKUP(A713,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210994527</v>
       </c>
       <c r="C713" t="s">
         <v>450</v>
@@ -37926,9 +38044,9 @@
       <c r="A714">
         <v>4210593308</v>
       </c>
-      <c r="B714" t="e">
+      <c r="B714">
         <f>VLOOKUP(A714,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210593308</v>
       </c>
       <c r="C714" t="s">
         <v>451</v>
@@ -37950,9 +38068,9 @@
       <c r="A715">
         <v>4210605310</v>
       </c>
-      <c r="B715" t="e">
+      <c r="B715">
         <f>VLOOKUP(A715,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210605310</v>
       </c>
       <c r="C715" t="s">
         <v>452</v>
@@ -38046,9 +38164,9 @@
       <c r="A719">
         <v>4210623479</v>
       </c>
-      <c r="B719" t="e">
+      <c r="B719">
         <f>VLOOKUP(A719,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210623479</v>
       </c>
       <c r="C719" t="s">
         <v>456</v>
@@ -38454,9 +38572,9 @@
       <c r="A736">
         <v>4211068812</v>
       </c>
-      <c r="B736" t="e">
+      <c r="B736">
         <f>VLOOKUP(A736,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211068812</v>
       </c>
       <c r="C736" t="s">
         <v>473</v>
@@ -38622,9 +38740,9 @@
       <c r="A743">
         <v>4211190937</v>
       </c>
-      <c r="B743" t="e">
+      <c r="B743">
         <f>VLOOKUP(A743,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211190937</v>
       </c>
       <c r="C743" t="s">
         <v>480</v>
@@ -38790,9 +38908,9 @@
       <c r="A750">
         <v>4210084552</v>
       </c>
-      <c r="B750" t="e">
+      <c r="B750">
         <f>VLOOKUP(A750,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210084552</v>
       </c>
       <c r="C750" t="s">
         <v>487</v>
@@ -39054,9 +39172,9 @@
       <c r="A761">
         <v>4210806413</v>
       </c>
-      <c r="B761" t="e">
+      <c r="B761">
         <f>VLOOKUP(A761,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210806413</v>
       </c>
       <c r="C761" t="s">
         <v>498</v>
@@ -39102,9 +39220,9 @@
       <c r="A763">
         <v>4210377269</v>
       </c>
-      <c r="B763" t="e">
+      <c r="B763">
         <f>VLOOKUP(A763,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210377269</v>
       </c>
       <c r="C763" t="s">
         <v>500</v>
@@ -39174,9 +39292,9 @@
       <c r="A766">
         <v>4210427383</v>
       </c>
-      <c r="B766" t="e">
+      <c r="B766">
         <f>VLOOKUP(A766,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210427383</v>
       </c>
       <c r="C766" t="s">
         <v>503</v>
@@ -39222,9 +39340,9 @@
       <c r="A768">
         <v>4210429536</v>
       </c>
-      <c r="B768" t="e">
+      <c r="B768">
         <f>VLOOKUP(A768,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210429536</v>
       </c>
       <c r="C768" t="s">
         <v>505</v>
@@ -39246,9 +39364,9 @@
       <c r="A769">
         <v>4210433787</v>
       </c>
-      <c r="B769" t="e">
+      <c r="B769">
         <f>VLOOKUP(A769,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210433787</v>
       </c>
       <c r="C769" t="s">
         <v>506</v>
@@ -39534,9 +39652,9 @@
       <c r="A781">
         <v>4210539791</v>
       </c>
-      <c r="B781" t="e">
+      <c r="B781">
         <f>VLOOKUP(A781,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210539791</v>
       </c>
       <c r="C781" t="s">
         <v>518</v>
@@ -39750,9 +39868,9 @@
       <c r="A790">
         <v>4210679738</v>
       </c>
-      <c r="B790" t="e">
+      <c r="B790">
         <f>VLOOKUP(A790,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210679738</v>
       </c>
       <c r="C790" t="s">
         <v>527</v>
@@ -39966,9 +40084,9 @@
       <c r="A799">
         <v>4210764690</v>
       </c>
-      <c r="B799" t="e">
+      <c r="B799">
         <f>VLOOKUP(A799,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210764690</v>
       </c>
       <c r="C799" t="s">
         <v>536</v>
@@ -40014,9 +40132,9 @@
       <c r="A801">
         <v>4210842452</v>
       </c>
-      <c r="B801" t="e">
+      <c r="B801">
         <f>VLOOKUP(A801,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210842452</v>
       </c>
       <c r="C801" t="s">
         <v>538</v>
@@ -40110,9 +40228,9 @@
       <c r="A805">
         <v>4210407197</v>
       </c>
-      <c r="B805" t="e">
+      <c r="B805">
         <f>VLOOKUP(A805,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210407197</v>
       </c>
       <c r="C805" t="s">
         <v>542</v>
@@ -40134,9 +40252,9 @@
       <c r="A806">
         <v>4211105440</v>
       </c>
-      <c r="B806" t="e">
+      <c r="B806">
         <f>VLOOKUP(A806,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211105440</v>
       </c>
       <c r="C806" t="s">
         <v>543</v>
@@ -40206,9 +40324,9 @@
       <c r="A809">
         <v>4210298487</v>
       </c>
-      <c r="B809" t="e">
+      <c r="B809">
         <f>VLOOKUP(A809,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210298487</v>
       </c>
       <c r="C809" t="s">
         <v>546</v>
@@ -40230,9 +40348,9 @@
       <c r="A810">
         <v>4210792288</v>
       </c>
-      <c r="B810" t="e">
+      <c r="B810">
         <f>VLOOKUP(A810,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210792288</v>
       </c>
       <c r="C810" t="s">
         <v>547</v>
@@ -40782,9 +40900,9 @@
       <c r="A833">
         <v>4210345052</v>
       </c>
-      <c r="B833" t="e">
+      <c r="B833">
         <f>VLOOKUP(A833,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210345052</v>
       </c>
       <c r="C833" t="s">
         <v>570</v>
@@ -41046,9 +41164,9 @@
       <c r="A844">
         <v>4210437917</v>
       </c>
-      <c r="B844" t="e">
+      <c r="B844">
         <f>VLOOKUP(A844,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210437917</v>
       </c>
       <c r="C844" t="s">
         <v>581</v>
@@ -41094,9 +41212,9 @@
       <c r="A846">
         <v>4210952808</v>
       </c>
-      <c r="B846" t="e">
+      <c r="B846">
         <f>VLOOKUP(A846,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210952808</v>
       </c>
       <c r="C846" t="s">
         <v>583</v>
@@ -41142,9 +41260,9 @@
       <c r="A848">
         <v>4210489208</v>
       </c>
-      <c r="B848" t="e">
+      <c r="B848">
         <f>VLOOKUP(A848,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210489208</v>
       </c>
       <c r="C848" t="s">
         <v>585</v>
@@ -41526,9 +41644,9 @@
       <c r="A864">
         <v>4210945949</v>
       </c>
-      <c r="B864" t="e">
+      <c r="B864">
         <f>VLOOKUP(A864,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210945949</v>
       </c>
       <c r="C864" t="s">
         <v>601</v>
@@ -41694,9 +41812,9 @@
       <c r="A871">
         <v>4211047565</v>
       </c>
-      <c r="B871" t="e">
+      <c r="B871">
         <f>VLOOKUP(A871,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211047565</v>
       </c>
       <c r="C871" t="s">
         <v>608</v>
@@ -41790,9 +41908,9 @@
       <c r="A875">
         <v>4210644077</v>
       </c>
-      <c r="B875" t="e">
+      <c r="B875">
         <f>VLOOKUP(A875,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210644077</v>
       </c>
       <c r="C875" t="s">
         <v>612</v>
@@ -41934,9 +42052,9 @@
       <c r="A881">
         <v>4211052476</v>
       </c>
-      <c r="B881" t="e">
+      <c r="B881">
         <f>VLOOKUP(A881,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211052476</v>
       </c>
       <c r="C881" t="s">
         <v>618</v>
@@ -42126,9 +42244,9 @@
       <c r="A889">
         <v>4210070320</v>
       </c>
-      <c r="B889" t="e">
+      <c r="B889">
         <f>VLOOKUP(A889,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210070320</v>
       </c>
       <c r="C889" t="s">
         <v>626</v>
@@ -42174,9 +42292,9 @@
       <c r="A891">
         <v>4210110664</v>
       </c>
-      <c r="B891" t="e">
+      <c r="B891">
         <f>VLOOKUP(A891,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210110664</v>
       </c>
       <c r="C891" t="s">
         <v>628</v>
@@ -42222,9 +42340,9 @@
       <c r="A893">
         <v>4210144557</v>
       </c>
-      <c r="B893" t="e">
+      <c r="B893">
         <f>VLOOKUP(A893,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210144557</v>
       </c>
       <c r="C893" t="s">
         <v>630</v>
@@ -42294,9 +42412,9 @@
       <c r="A896">
         <v>4210184555</v>
       </c>
-      <c r="B896" t="e">
+      <c r="B896">
         <f>VLOOKUP(A896,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210184555</v>
       </c>
       <c r="C896" t="s">
         <v>633</v>
@@ -42462,9 +42580,9 @@
       <c r="A903">
         <v>4210303761</v>
       </c>
-      <c r="B903" t="e">
+      <c r="B903">
         <f>VLOOKUP(A903,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210303761</v>
       </c>
       <c r="C903" t="s">
         <v>640</v>
@@ -42582,9 +42700,9 @@
       <c r="A908">
         <v>4210379066</v>
       </c>
-      <c r="B908" t="e">
+      <c r="B908">
         <f>VLOOKUP(A908,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210379066</v>
       </c>
       <c r="C908" t="s">
         <v>645</v>
@@ -42870,9 +42988,9 @@
       <c r="A920">
         <v>4210978497</v>
       </c>
-      <c r="B920" t="e">
+      <c r="B920">
         <f>VLOOKUP(A920,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210978497</v>
       </c>
       <c r="C920" t="s">
         <v>657</v>
@@ -43158,9 +43276,9 @@
       <c r="A932">
         <v>4210685145</v>
       </c>
-      <c r="B932" t="e">
+      <c r="B932">
         <f>VLOOKUP(A932,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210685145</v>
       </c>
       <c r="C932" t="s">
         <v>669</v>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFF4B85-1D12-4C71-B7EC-02F8715DB94B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EBD72B-9CE6-4806-A23D-3973381A7546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4687,7 +4687,7 @@
   <dimension ref="A1:C955"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4989,7 +4989,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>4210216114</v>
+        <v>4211132297</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -5001,7 +5001,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>4210961490</v>
+        <v>4210216114</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -5013,7 +5013,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>4210344078</v>
+        <v>4210961490</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -5025,7 +5025,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>4210574089</v>
+        <v>4210344078</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -5037,7 +5037,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>4210371025</v>
+        <v>4210574089</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -5049,7 +5049,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>4210615341</v>
+        <v>4210371025</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -5061,7 +5061,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>4211020605</v>
+        <v>4210615341</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -5073,7 +5073,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4210733151</v>
+        <v>4211020605</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -5085,7 +5085,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4210266290</v>
+        <v>4210733151</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -5097,7 +5097,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4210652895</v>
+        <v>4210266290</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -5109,7 +5109,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>4210262295</v>
+        <v>4210652895</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -5121,7 +5121,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>4210000179</v>
+        <v>4210262295</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -5133,7 +5133,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4210420939</v>
+        <v>4210000179</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -5145,7 +5145,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4210267931</v>
+        <v>4210420939</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -5157,7 +5157,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4210254607</v>
+        <v>4210267931</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -5169,7 +5169,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4210556661</v>
+        <v>4210254607</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -5181,7 +5181,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>4210034578</v>
+        <v>4210556661</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -5193,7 +5193,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>4210044558</v>
+        <v>4210034578</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -5205,7 +5205,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>4210105227</v>
+        <v>4210044558</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -5217,7 +5217,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>4210127378</v>
+        <v>4210105227</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -5229,7 +5229,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>4210127746</v>
+        <v>4210127378</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -5241,7 +5241,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>4210132639</v>
+        <v>4210127746</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -5253,7 +5253,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>4210177530</v>
+        <v>4210132639</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -5265,7 +5265,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>4210213816</v>
+        <v>4210177530</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -5277,7 +5277,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>4210252068</v>
+        <v>4210213816</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -5289,7 +5289,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>4210322467</v>
+        <v>4210252068</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -5301,7 +5301,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>4210404572</v>
+        <v>4210322467</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -5313,7 +5313,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>4210405406</v>
+        <v>4210404572</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -5325,7 +5325,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4210419667</v>
+        <v>4210405406</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -5337,7 +5337,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4210675397</v>
+        <v>4210419667</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -5349,7 +5349,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>4210683668</v>
+        <v>4210675397</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -5361,7 +5361,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>4210689843</v>
+        <v>4210683668</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -5373,7 +5373,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>4210701271</v>
+        <v>4210689843</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -5385,7 +5385,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>4210791799</v>
+        <v>4210701271</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -5397,7 +5397,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>4210866539</v>
+        <v>4210791799</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -5409,7 +5409,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>4211001264</v>
+        <v>4210866539</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -5421,7 +5421,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>4211084414</v>
+        <v>4211001264</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -5433,7 +5433,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>4210613161</v>
+        <v>4211084414</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -5445,7 +5445,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>4210771684</v>
+        <v>4210613161</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -5457,7 +5457,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>4210708235</v>
+        <v>4210771684</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -5469,7 +5469,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>4210932363</v>
+        <v>4210708235</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -5481,7 +5481,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>4210766426</v>
+        <v>4210932363</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -5493,7 +5493,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>4210371603</v>
+        <v>4210766426</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -5505,7 +5505,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>4210608174</v>
+        <v>4210417995</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -5517,7 +5517,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>4210406120</v>
+        <v>4210371603</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -5529,7 +5529,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>4210091709</v>
+        <v>4210608174</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -5541,7 +5541,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>4210020005</v>
+        <v>4210406120</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -5553,7 +5553,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>4210034267</v>
+        <v>4210091709</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -5565,7 +5565,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>4210131499</v>
+        <v>4210020005</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -5577,7 +5577,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>4210131654</v>
+        <v>4210034267</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -5589,7 +5589,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>4210141892</v>
+        <v>4210131499</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -5601,7 +5601,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>4210226103</v>
+        <v>4210131654</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -5613,7 +5613,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>4210248909</v>
+        <v>4210141892</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -5625,7 +5625,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>4210307216</v>
+        <v>4210226103</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -5637,7 +5637,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>4210394400</v>
+        <v>4210248909</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -5649,7 +5649,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>4210394946</v>
+        <v>4210307216</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -5661,7 +5661,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>4210413345</v>
+        <v>4210394400</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -5673,7 +5673,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>4210415206</v>
+        <v>4210394946</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -5685,7 +5685,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>4210437917</v>
+        <v>4210413345</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -5697,7 +5697,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>4210511277</v>
+        <v>4210415206</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -5709,7 +5709,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>4210541877</v>
+        <v>4210437917</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -5721,7 +5721,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>4210592672</v>
+        <v>4210511277</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -5733,7 +5733,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>4210593450</v>
+        <v>4210541877</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -5745,7 +5745,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>4210731427</v>
+        <v>4210592672</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -5757,7 +5757,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>4210831159</v>
+        <v>4210593450</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -5769,7 +5769,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>4210188182</v>
+        <v>4210731427</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -5781,7 +5781,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>4210706642</v>
+        <v>4210831159</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -5793,7 +5793,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>4210731416</v>
+        <v>4210188182</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -5805,7 +5805,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>4211013807</v>
+        <v>4210706642</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -5817,7 +5817,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>4210278444</v>
+        <v>4210731416</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -5829,7 +5829,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>4210585528</v>
+        <v>4211013807</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -5841,7 +5841,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>4210929697</v>
+        <v>4210278444</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -5853,7 +5853,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>4210003837</v>
+        <v>4210585528</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -5865,7 +5865,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>4210004223</v>
+        <v>4210929697</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -5877,7 +5877,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>4210198168</v>
+        <v>4210003837</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -5889,7 +5889,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>4210234367</v>
+        <v>4210004223</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -5901,7 +5901,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>4210344951</v>
+        <v>4210198168</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -5913,7 +5913,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>4210391139</v>
+        <v>4210234367</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -5925,7 +5925,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>4210393571</v>
+        <v>4210344951</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -5937,7 +5937,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>4210533040</v>
+        <v>4210391139</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -5949,7 +5949,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>4210558291</v>
+        <v>4210393571</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -5961,7 +5961,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>4210606361</v>
+        <v>4210533040</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -5973,7 +5973,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>4210635825</v>
+        <v>4210558291</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -5985,7 +5985,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>4210720296</v>
+        <v>4210606361</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -5997,7 +5997,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>4210843009</v>
+        <v>4210635825</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -6009,7 +6009,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>4210945949</v>
+        <v>4210720296</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -6021,7 +6021,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>4210953010</v>
+        <v>4210843009</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -6033,7 +6033,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>4210204827</v>
+        <v>4210945949</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -6045,7 +6045,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>4210563716</v>
+        <v>4210953010</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -6057,7 +6057,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>4210224238</v>
+        <v>4210204827</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -6069,7 +6069,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>4210398396</v>
+        <v>4210563716</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -6081,7 +6081,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>4210190103</v>
+        <v>4210224238</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -6093,7 +6093,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>4210298487</v>
+        <v>4210398396</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -6105,7 +6105,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>4210479488</v>
+        <v>4210190103</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -6117,7 +6117,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>4210566641</v>
+        <v>4210298487</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -6129,7 +6129,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>4210213587</v>
+        <v>4210479488</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -6141,7 +6141,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>4210600446</v>
+        <v>4210566641</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -6153,7 +6153,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>4210214048</v>
+        <v>4210811229</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -6165,7 +6165,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>4210853920</v>
+        <v>4210213587</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -6177,7 +6177,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>4210317095</v>
+        <v>4210600446</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -6189,7 +6189,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>4210180848</v>
+        <v>4210214048</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -6201,7 +6201,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>4210292583</v>
+        <v>4210853920</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -6213,7 +6213,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>4210341768</v>
+        <v>4210317095</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -6225,7 +6225,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>4210402956</v>
+        <v>4210180848</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -6237,7 +6237,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>4210447996</v>
+        <v>4210292583</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -6249,7 +6249,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>4210496749</v>
+        <v>4210341768</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -6261,7 +6261,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>4210501502</v>
+        <v>4210402956</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -6273,7 +6273,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>4210534997</v>
+        <v>4210447996</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -6285,7 +6285,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>4210639556</v>
+        <v>4210496749</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -6297,7 +6297,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>4210723948</v>
+        <v>4210501502</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -6309,7 +6309,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>4211105440</v>
+        <v>4210534997</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -6321,7 +6321,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>4211162899</v>
+        <v>4210639556</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -6333,7 +6333,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>4211074617</v>
+        <v>4210723948</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -6345,7 +6345,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>4210754698</v>
+        <v>4211105440</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -6357,7 +6357,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>4210926050</v>
+        <v>4211162899</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
@@ -6369,7 +6369,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>4210370471</v>
+        <v>4211074617</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -6381,7 +6381,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>4210806413</v>
+        <v>4210754698</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
@@ -6393,7 +6393,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>4210522771</v>
+        <v>4210926050</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -6405,7 +6405,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>4210542091</v>
+        <v>4210370471</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -6417,7 +6417,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>4210222026</v>
+        <v>4210806413</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -6429,7 +6429,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>4210313376</v>
+        <v>4210522771</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -6441,7 +6441,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>4210893674</v>
+        <v>4210542091</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -6453,7 +6453,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>4210994527</v>
+        <v>4210222026</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -6465,7 +6465,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>4211047565</v>
+        <v>4210313376</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -6477,7 +6477,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>4210260173</v>
+        <v>4210893674</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -6489,7 +6489,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>4210646191</v>
+        <v>4210994527</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -6501,7 +6501,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>4210921361</v>
+        <v>4211047565</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -6513,7 +6513,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>4210033127</v>
+        <v>4210260173</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -6525,7 +6525,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>4210072674</v>
+        <v>4210646191</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
@@ -6537,7 +6537,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>4210586606</v>
+        <v>4210921361</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -6549,7 +6549,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>4210482370</v>
+        <v>4210033127</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -6561,7 +6561,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>4210167551</v>
+        <v>4210072674</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -6573,7 +6573,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>4210673655</v>
+        <v>4210586606</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
@@ -6585,7 +6585,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>4210221322</v>
+        <v>4210482370</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>4210753622</v>
+        <v>4210167551</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -6609,7 +6609,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>4210482629</v>
+        <v>4210673655</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -6621,7 +6621,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>4210843672</v>
+        <v>4210221322</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -6633,7 +6633,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>4210523147</v>
+        <v>4210753622</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -6645,7 +6645,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>4211060527</v>
+        <v>4210482629</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
@@ -6657,7 +6657,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>4210424698</v>
+        <v>4210843672</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -6669,7 +6669,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>4210406049</v>
+        <v>4210523147</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -6681,7 +6681,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>4210639267</v>
+        <v>4211060527</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -6693,7 +6693,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>4210345052</v>
+        <v>4210424698</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
@@ -6705,7 +6705,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>4210712809</v>
+        <v>4210406049</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -6717,7 +6717,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>4210598540</v>
+        <v>4210639267</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
@@ -6729,7 +6729,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>4210121891</v>
+        <v>4210345052</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -6741,7 +6741,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>4210385056</v>
+        <v>4210712809</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
@@ -6753,7 +6753,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>4210893730</v>
+        <v>4210598540</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -6765,7 +6765,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>4210535673</v>
+        <v>4210121891</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
@@ -6777,7 +6777,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>4210500818</v>
+        <v>4210385056</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -6789,7 +6789,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>4210003521</v>
+        <v>4210893730</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
@@ -6801,7 +6801,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>4210062548</v>
+        <v>4210535673</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -6813,7 +6813,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>4210124089</v>
+        <v>4210500818</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -6825,7 +6825,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>4210124562</v>
+        <v>4210003521</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -6837,7 +6837,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>4210133586</v>
+        <v>4210062548</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
@@ -6849,7 +6849,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>4210171441</v>
+        <v>4210124089</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
@@ -6861,7 +6861,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>4210188218</v>
+        <v>4210124562</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
@@ -6873,7 +6873,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>4210198930</v>
+        <v>4210133586</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
@@ -6885,7 +6885,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>4210248451</v>
+        <v>4210171441</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -6897,7 +6897,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>4210272828</v>
+        <v>4210188218</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
@@ -6909,7 +6909,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>4210303761</v>
+        <v>4210198930</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
@@ -6921,7 +6921,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>4210320285</v>
+        <v>4210248451</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
@@ -6933,7 +6933,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>4210389070</v>
+        <v>4210272828</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
@@ -6945,7 +6945,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>4210396939</v>
+        <v>4210303761</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -6957,7 +6957,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>4210399687</v>
+        <v>4210320285</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -6969,7 +6969,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>4210403019</v>
+        <v>4210389070</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -6981,7 +6981,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>4210415044</v>
+        <v>4210396939</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>4210420096</v>
+        <v>4210399687</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -7005,7 +7005,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>4210435420</v>
+        <v>4210403019</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -7017,7 +7017,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>4210559074</v>
+        <v>4210415044</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -7029,7 +7029,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>4210562814</v>
+        <v>4210420096</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
@@ -7041,7 +7041,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>4210597778</v>
+        <v>4210435420</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
@@ -7053,7 +7053,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>4210632710</v>
+        <v>4210559074</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
@@ -7065,7 +7065,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>4210633465</v>
+        <v>4210562814</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -7077,7 +7077,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>4210645803</v>
+        <v>4210597778</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
@@ -7089,7 +7089,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>4210690272</v>
+        <v>4210632710</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
@@ -7101,7 +7101,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>4210695149</v>
+        <v>4210633465</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -7113,7 +7113,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>4210706422</v>
+        <v>4210645803</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
@@ -7125,7 +7125,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>4210805925</v>
+        <v>4210690272</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
@@ -7137,7 +7137,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>4210830351</v>
+        <v>4210695149</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
@@ -7149,7 +7149,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>4210885456</v>
+        <v>4210706422</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -7161,7 +7161,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>4210920767</v>
+        <v>4210805925</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
@@ -7173,7 +7173,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>4210955715</v>
+        <v>4210830351</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
@@ -7185,7 +7185,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>4210967793</v>
+        <v>4210878489</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>2</v>
@@ -7197,7 +7197,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>4211116641</v>
+        <v>4210885456</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>2</v>
@@ -7209,7 +7209,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>4211143631</v>
+        <v>4210920767</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>2</v>
@@ -7221,7 +7221,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>4210665237</v>
+        <v>4210955715</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
@@ -7233,7 +7233,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>4210679738</v>
+        <v>4210967793</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
@@ -7245,7 +7245,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>4211060486</v>
+        <v>4211116641</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>2</v>
@@ -7257,7 +7257,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>4210208750</v>
+        <v>4211143631</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
@@ -7269,7 +7269,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>4210586900</v>
+        <v>4210665237</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
@@ -7281,7 +7281,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>4210433177</v>
+        <v>4210057744</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>2</v>
@@ -7293,7 +7293,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>4210911313</v>
+        <v>4210679738</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>2</v>
@@ -7305,7 +7305,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>4210745675</v>
+        <v>4211060486</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>2</v>
@@ -7317,7 +7317,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>4211122411</v>
+        <v>4211131368</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>2</v>
@@ -7329,7 +7329,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>4210855921</v>
+        <v>4210208750</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>2</v>
@@ -7341,7 +7341,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>4210009062</v>
+        <v>4210586900</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>2</v>
@@ -7353,7 +7353,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>4210648248</v>
+        <v>4210433177</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>2</v>
@@ -7365,7 +7365,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>4210356297</v>
+        <v>4210911313</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>2</v>
@@ -7377,7 +7377,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>4210411973</v>
+        <v>4210745675</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>2</v>
@@ -7389,7 +7389,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>4210273020</v>
+        <v>4211122411</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>2</v>
@@ -7401,7 +7401,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>4210264695</v>
+        <v>4210855921</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>2</v>
@@ -7413,7 +7413,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>4210930375</v>
+        <v>4210009062</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>2</v>
@@ -7425,7 +7425,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>4210242756</v>
+        <v>4210648248</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
@@ -7437,7 +7437,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>4210084552</v>
+        <v>4210356297</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>2</v>
@@ -7449,7 +7449,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>4210278245</v>
+        <v>4210086596</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
@@ -7461,7 +7461,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>4210405200</v>
+        <v>4210411973</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>2</v>
@@ -7473,7 +7473,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>4210502557</v>
+        <v>4210273020</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>2</v>
@@ -7485,7 +7485,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>4210509447</v>
+        <v>4210264695</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
@@ -7497,7 +7497,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>4210588954</v>
+        <v>4210930375</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>2</v>
@@ -7509,7 +7509,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>4210735578</v>
+        <v>4210242756</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>2</v>
@@ -7521,7 +7521,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>4210921232</v>
+        <v>4210084552</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
@@ -7533,7 +7533,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>4210973302</v>
+        <v>4210278245</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>2</v>
@@ -7545,7 +7545,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>4211069287</v>
+        <v>4210405200</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>2</v>
@@ -7557,7 +7557,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>4211096801</v>
+        <v>4210502557</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>2</v>
@@ -7569,7 +7569,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>4211189006</v>
+        <v>4210509447</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>2</v>
@@ -7581,7 +7581,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>4211014355</v>
+        <v>4210588954</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>2</v>
@@ -7593,7 +7593,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>4210122458</v>
+        <v>4210735578</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>2</v>
@@ -7605,7 +7605,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>4210621591</v>
+        <v>4210921232</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>2</v>
@@ -7617,7 +7617,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>4210474468</v>
+        <v>4210973302</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
@@ -7629,7 +7629,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>4210392055</v>
+        <v>4211069287</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>2</v>
@@ -7641,7 +7641,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>4210144557</v>
+        <v>4211096801</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
@@ -7653,7 +7653,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>4210806396</v>
+        <v>4211189006</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>2</v>
@@ -7665,7 +7665,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>4210059000</v>
+        <v>4211014355</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>2</v>
@@ -7677,7 +7677,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>4211050835</v>
+        <v>4210122458</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>2</v>
@@ -7689,7 +7689,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>4210941334</v>
+        <v>4210621591</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>2</v>
@@ -7701,7 +7701,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>4210073431</v>
+        <v>4210474468</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>2</v>
@@ -7713,7 +7713,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>4210222465</v>
+        <v>4210392055</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>2</v>
@@ -7725,7 +7725,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>4210321387</v>
+        <v>4210144557</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
@@ -7737,7 +7737,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>4210613705</v>
+        <v>4210806396</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
@@ -7749,7 +7749,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>4210640185</v>
+        <v>4210059000</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
@@ -7761,7 +7761,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>4211183842</v>
+        <v>4211050835</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
@@ -7773,7 +7773,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>4211190937</v>
+        <v>4210941334</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
@@ -7785,7 +7785,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>4210264951</v>
+        <v>4210073431</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
@@ -7797,7 +7797,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>4210229661</v>
+        <v>4210222465</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
@@ -7809,7 +7809,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>4210815491</v>
+        <v>4210321387</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
@@ -7821,7 +7821,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>4210842072</v>
+        <v>4210322119</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
@@ -7833,7 +7833,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>4210497292</v>
+        <v>4210613705</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
@@ -7845,7 +7845,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>4210984821</v>
+        <v>4210640185</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
@@ -7857,7 +7857,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>4210185227</v>
+        <v>4210734425</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
@@ -7869,7 +7869,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>4210151586</v>
+        <v>4211183842</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
@@ -7881,7 +7881,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>4211014966</v>
+        <v>4211190937</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
@@ -7893,7 +7893,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>4211039341</v>
+        <v>4210264951</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
@@ -7905,7 +7905,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>4210012567</v>
+        <v>4210229661</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>4210128315</v>
+        <v>4210815491</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
@@ -7929,7 +7929,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>4210195896</v>
+        <v>4210842072</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>2</v>
@@ -7941,7 +7941,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>4210201732</v>
+        <v>4210497292</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>2</v>
@@ -7953,7 +7953,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>4210267013</v>
+        <v>4210984821</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>2</v>
@@ -7965,7 +7965,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>4210385160</v>
+        <v>4210185227</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>2</v>
@@ -7977,7 +7977,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>4210399589</v>
+        <v>4210151586</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>2</v>
@@ -7989,7 +7989,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>4210435801</v>
+        <v>4211014966</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>2</v>
@@ -8001,7 +8001,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>4210457607</v>
+        <v>4211039341</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>2</v>
@@ -8013,7 +8013,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1">
-        <v>4210518577</v>
+        <v>4210012567</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>2</v>
@@ -8025,7 +8025,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>4210521692</v>
+        <v>4210128315</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>2</v>
@@ -8037,7 +8037,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>4210875091</v>
+        <v>4210195896</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>2</v>
@@ -8049,7 +8049,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>4211117196</v>
+        <v>4210201732</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>2</v>
@@ -8061,7 +8061,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>4210199520</v>
+        <v>4210267013</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>2</v>
@@ -8073,7 +8073,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>4211054741</v>
+        <v>4210385160</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>2</v>
@@ -8085,7 +8085,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>4210354861</v>
+        <v>4210399589</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>2</v>
@@ -8097,7 +8097,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>4210461415</v>
+        <v>4210435801</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>2</v>
@@ -8109,7 +8109,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1">
-        <v>4210105758</v>
+        <v>4210457607</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>2</v>
@@ -8121,7 +8121,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1">
-        <v>4210115421</v>
+        <v>4210518577</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>2</v>
@@ -8133,7 +8133,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1">
-        <v>4210354387</v>
+        <v>4210521692</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>2</v>
@@ -8145,7 +8145,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1">
-        <v>4210358137</v>
+        <v>4210875091</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>2</v>
@@ -8157,7 +8157,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>4210386755</v>
+        <v>4211117196</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>2</v>
@@ -8169,7 +8169,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>4210043894</v>
+        <v>4210199520</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>2</v>
@@ -8181,7 +8181,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>4210122182</v>
+        <v>4211054741</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>2</v>
@@ -8193,7 +8193,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>4210141517</v>
+        <v>4210354861</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>2</v>
@@ -8205,7 +8205,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>4210142349</v>
+        <v>4210461415</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>2</v>
@@ -8217,7 +8217,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>4210383149</v>
+        <v>4210105758</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>2</v>
@@ -8229,7 +8229,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>4210424900</v>
+        <v>4210115421</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>2</v>
@@ -8241,7 +8241,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>4210622386</v>
+        <v>4210354387</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>2</v>
@@ -8253,7 +8253,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>4210769887</v>
+        <v>4210358137</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>2</v>
@@ -8265,7 +8265,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>4211157478</v>
+        <v>4210386755</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>2</v>
@@ -8277,7 +8277,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>4210897066</v>
+        <v>4210043894</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>2</v>
@@ -8289,7 +8289,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>4210117447</v>
+        <v>4210122182</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
@@ -8301,7 +8301,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>4210151088</v>
+        <v>4210141517</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>2</v>
@@ -8313,7 +8313,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>4210392364</v>
+        <v>4210142349</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>2</v>
@@ -8325,7 +8325,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>4210462732</v>
+        <v>4210383149</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>2</v>
@@ -8337,7 +8337,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>4210942167</v>
+        <v>4210424900</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>2</v>
@@ -8349,7 +8349,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>4210176463</v>
+        <v>4210622386</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -8361,7 +8361,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>4210047154</v>
+        <v>4210769887</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>2</v>
@@ -8373,7 +8373,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>4210433787</v>
+        <v>4211157478</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>2</v>
@@ -8385,7 +8385,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>4210182855</v>
+        <v>4210897066</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>2</v>
@@ -8397,7 +8397,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>4210450687</v>
+        <v>4210117447</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>2</v>
@@ -8409,7 +8409,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>4210922651</v>
+        <v>4210151088</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>2</v>
@@ -8421,7 +8421,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1">
-        <v>4210072470</v>
+        <v>4210392364</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>2</v>
@@ -8433,7 +8433,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1">
-        <v>4210155613</v>
+        <v>4210462732</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>2</v>
@@ -8445,7 +8445,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1">
-        <v>4210167563</v>
+        <v>4210942167</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>2</v>
@@ -8457,7 +8457,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1">
-        <v>4210183865</v>
+        <v>4210176463</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
@@ -8469,7 +8469,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1">
-        <v>4210194296</v>
+        <v>4210047154</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
@@ -8481,7 +8481,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1">
-        <v>4210255777</v>
+        <v>4210433787</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>2</v>
@@ -8493,7 +8493,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1">
-        <v>4210357001</v>
+        <v>4210182855</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>2</v>
@@ -8505,7 +8505,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1">
-        <v>4210452807</v>
+        <v>4210450687</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>2</v>
@@ -8517,7 +8517,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1">
-        <v>4210523627</v>
+        <v>4210922651</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
@@ -8529,7 +8529,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1">
-        <v>4210703688</v>
+        <v>4210072470</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
@@ -8541,7 +8541,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>4210740039</v>
+        <v>4210155613</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>2</v>
@@ -8553,7 +8553,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>4210762861</v>
+        <v>4210167563</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>2</v>
@@ -8565,7 +8565,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>4210992519</v>
+        <v>4210183865</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>2</v>
@@ -8577,7 +8577,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>4211081285</v>
+        <v>4210194296</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
@@ -8589,7 +8589,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1">
-        <v>4211123262</v>
+        <v>4210255777</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>2</v>
@@ -8601,7 +8601,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1">
-        <v>4210644077</v>
+        <v>4210357001</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>2</v>
@@ -8613,7 +8613,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1">
-        <v>4210257649</v>
+        <v>4210452807</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>2</v>
@@ -8625,7 +8625,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1">
-        <v>4210402143</v>
+        <v>4210523627</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
@@ -8637,7 +8637,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1">
-        <v>4210523156</v>
+        <v>4210703688</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>2</v>
@@ -8649,7 +8649,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1">
-        <v>4210823515</v>
+        <v>4210740039</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
@@ -8661,7 +8661,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1">
-        <v>4210115162</v>
+        <v>4210762861</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>2</v>
@@ -8673,7 +8673,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1">
-        <v>4210079772</v>
+        <v>4210992519</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
@@ -8685,7 +8685,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1">
-        <v>4210132442</v>
+        <v>4211081285</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>2</v>
@@ -8697,7 +8697,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1">
-        <v>4210166153</v>
+        <v>4211123262</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>2</v>
@@ -8709,7 +8709,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1">
-        <v>4210184555</v>
+        <v>4210644077</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>2</v>
@@ -8721,7 +8721,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1">
-        <v>4210236370</v>
+        <v>4210257649</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>2</v>
@@ -8733,7 +8733,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1">
-        <v>4210671328</v>
+        <v>4210402143</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>2</v>
@@ -8745,7 +8745,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1">
-        <v>4210764690</v>
+        <v>4210523156</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>2</v>
@@ -8757,7 +8757,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1">
-        <v>4210830444</v>
+        <v>4210823515</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>2</v>
@@ -8769,7 +8769,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1">
-        <v>4211047440</v>
+        <v>4210115162</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>2</v>
@@ -8781,7 +8781,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1">
-        <v>4210691393</v>
+        <v>4210368642</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>2</v>
@@ -8793,7 +8793,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1">
-        <v>4210986456</v>
+        <v>4210079772</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>2</v>
@@ -8805,7 +8805,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1">
-        <v>4210701833</v>
+        <v>4210132442</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
@@ -8817,7 +8817,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1">
-        <v>4210891162</v>
+        <v>4210166153</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>2</v>
@@ -8829,7 +8829,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1">
-        <v>4210685145</v>
+        <v>4210184555</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>2</v>
@@ -8841,7 +8841,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1">
-        <v>4210110664</v>
+        <v>4210236370</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>2</v>
@@ -8853,7 +8853,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1">
-        <v>4210179613</v>
+        <v>4210671328</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
@@ -8865,7 +8865,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1">
-        <v>4210230359</v>
+        <v>4210764690</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
@@ -8877,7 +8877,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1">
-        <v>4210321845</v>
+        <v>4210830444</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
@@ -8889,7 +8889,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1">
-        <v>4210347256</v>
+        <v>4211047440</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>2</v>
@@ -8901,7 +8901,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1">
-        <v>4210420336</v>
+        <v>4210691393</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>2</v>
@@ -8913,7 +8913,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1">
-        <v>4210671598</v>
+        <v>4210986456</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>2</v>
@@ -8925,7 +8925,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1">
-        <v>4210841954</v>
+        <v>4210701833</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>2</v>
@@ -8937,7 +8937,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1">
-        <v>4210697216</v>
+        <v>4210891162</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>2</v>
@@ -8949,7 +8949,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1">
-        <v>4210851034</v>
+        <v>4210685145</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>2</v>
@@ -8961,7 +8961,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1">
-        <v>4211039879</v>
+        <v>4210110664</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>2</v>
@@ -8973,7 +8973,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1">
-        <v>4210440787</v>
+        <v>4210179613</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>2</v>
@@ -8985,7 +8985,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1">
-        <v>4210396117</v>
+        <v>4210230359</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>2</v>
@@ -8997,7 +8997,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1">
-        <v>4210209432</v>
+        <v>4210321845</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>2</v>
@@ -9009,7 +9009,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1">
-        <v>4210020577</v>
+        <v>4210347256</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
@@ -9021,7 +9021,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1">
-        <v>4210050876</v>
+        <v>4210420336</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>2</v>
@@ -9033,7 +9033,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1">
-        <v>4210178048</v>
+        <v>4210671598</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>2</v>
@@ -9045,7 +9045,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1">
-        <v>4210183791</v>
+        <v>4210841954</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>2</v>
@@ -9057,7 +9057,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1">
-        <v>4210370018</v>
+        <v>4210697216</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>2</v>
@@ -9069,7 +9069,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1">
-        <v>4210377269</v>
+        <v>4210851034</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
@@ -9081,7 +9081,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1">
-        <v>4210384491</v>
+        <v>4211039879</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>2</v>
@@ -9093,7 +9093,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1">
-        <v>4210484114</v>
+        <v>4210440787</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>2</v>
@@ -9105,7 +9105,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1">
-        <v>4210573384</v>
+        <v>4210396117</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>2</v>
@@ -9117,7 +9117,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1">
-        <v>4211003079</v>
+        <v>4210209432</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>2</v>
@@ -9129,7 +9129,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1">
-        <v>4210652631</v>
+        <v>4210020577</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>2</v>
@@ -9141,7 +9141,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1">
-        <v>4210752028</v>
+        <v>4210050876</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>2</v>
@@ -9153,7 +9153,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1">
-        <v>4210282624</v>
+        <v>4210178048</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>2</v>
@@ -9165,7 +9165,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1">
-        <v>4210182500</v>
+        <v>4210183791</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>2</v>
@@ -9177,7 +9177,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1">
-        <v>4210780191</v>
+        <v>4210341601</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>2</v>
@@ -9189,7 +9189,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1">
-        <v>4210537453</v>
+        <v>4210370018</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>2</v>
@@ -9201,7 +9201,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1">
-        <v>4210223261</v>
+        <v>4210377269</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
@@ -9213,7 +9213,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1">
-        <v>4210261027</v>
+        <v>4210384491</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>2</v>
@@ -9225,7 +9225,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1">
-        <v>4210329350</v>
+        <v>4210484114</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
@@ -9237,7 +9237,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1">
-        <v>4210438000</v>
+        <v>4210573384</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>2</v>
@@ -9249,7 +9249,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1">
-        <v>4210444262</v>
+        <v>4211003079</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>2</v>
@@ -9261,7 +9261,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1">
-        <v>4211121745</v>
+        <v>4210652631</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>2</v>
@@ -9273,7 +9273,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1">
-        <v>4210256197</v>
+        <v>4210752028</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
@@ -9285,7 +9285,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1">
-        <v>4210837418</v>
+        <v>4210282624</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>2</v>
@@ -9297,7 +9297,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1">
-        <v>4210283620</v>
+        <v>4210182500</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>2</v>
@@ -9309,7 +9309,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1">
-        <v>4210928075</v>
+        <v>4210780191</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>2</v>
@@ -9321,7 +9321,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1">
-        <v>4210005081</v>
+        <v>4210537453</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>2</v>
@@ -9333,7 +9333,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1">
-        <v>4210212879</v>
+        <v>4210223261</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>2</v>
@@ -9345,7 +9345,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1">
-        <v>4210532302</v>
+        <v>4210261027</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>2</v>
@@ -9357,7 +9357,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1">
-        <v>4210489208</v>
+        <v>4210329350</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>2</v>
@@ -9369,7 +9369,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1">
-        <v>4210716858</v>
+        <v>4210438000</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>2</v>
@@ -9381,7 +9381,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1">
-        <v>4210065219</v>
+        <v>4210444262</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>2</v>
@@ -9393,7 +9393,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1">
-        <v>4210941041</v>
+        <v>4211121745</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>2</v>
@@ -9405,7 +9405,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1">
-        <v>4210534515</v>
+        <v>4210256197</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>2</v>
@@ -9417,7 +9417,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1">
-        <v>4210377665</v>
+        <v>4210837418</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>2</v>
@@ -9429,7 +9429,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1">
-        <v>4210500697</v>
+        <v>4210283620</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>2</v>
@@ -9441,7 +9441,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1">
-        <v>4210646048</v>
+        <v>4210928075</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>2</v>
@@ -9453,7 +9453,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1">
-        <v>4210113372</v>
+        <v>4210005081</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>2</v>
@@ -9465,7 +9465,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1">
-        <v>4210145794</v>
+        <v>4210212879</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>2</v>
@@ -9477,7 +9477,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1">
-        <v>4210213661</v>
+        <v>4210532302</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>2</v>
@@ -9489,7 +9489,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1">
-        <v>4210598087</v>
+        <v>4210489208</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>2</v>
@@ -9501,7 +9501,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1">
-        <v>4210610217</v>
+        <v>4210716858</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>2</v>
@@ -9513,7 +9513,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1">
-        <v>4210646368</v>
+        <v>4210065219</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>2</v>
@@ -9525,7 +9525,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1">
-        <v>4210689234</v>
+        <v>4210941041</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>2</v>
@@ -9537,7 +9537,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1">
-        <v>4210936777</v>
+        <v>4210534515</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>2</v>
@@ -9549,7 +9549,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1">
-        <v>4210596404</v>
+        <v>4210377665</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>2</v>
@@ -9561,7 +9561,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1">
-        <v>4211119160</v>
+        <v>4210500697</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>2</v>
@@ -9573,7 +9573,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1">
-        <v>4210533998</v>
+        <v>4210646048</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>2</v>
@@ -9585,7 +9585,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1">
-        <v>4210952808</v>
+        <v>4210113372</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>2</v>
@@ -9597,7 +9597,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1">
-        <v>4210093802</v>
+        <v>4210145794</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>2</v>
@@ -9609,7 +9609,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1">
-        <v>4210162326</v>
+        <v>4210213661</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>2</v>
@@ -9621,7 +9621,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1">
-        <v>4210514973</v>
+        <v>4210598087</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>2</v>
@@ -9633,7 +9633,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1">
-        <v>4210539791</v>
+        <v>4210610217</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>2</v>
@@ -9645,7 +9645,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1">
-        <v>4210605310</v>
+        <v>4210646368</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>2</v>
@@ -9657,7 +9657,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1">
-        <v>4210655536</v>
+        <v>4210689234</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>2</v>
@@ -9669,7 +9669,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1">
-        <v>4210803979</v>
+        <v>4210936777</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>2</v>
@@ -9681,7 +9681,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1">
-        <v>4210415570</v>
+        <v>4210596404</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>2</v>
@@ -9693,7 +9693,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1">
-        <v>4210033714</v>
+        <v>4211119160</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>2</v>
@@ -9705,7 +9705,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1">
-        <v>4210698032</v>
+        <v>4210533998</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>2</v>
@@ -9717,7 +9717,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1">
-        <v>4211121133</v>
+        <v>4210368640</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>2</v>
@@ -9729,7 +9729,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1">
-        <v>4210024291</v>
+        <v>4210952808</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>2</v>
@@ -9741,7 +9741,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1">
-        <v>4210140346</v>
+        <v>4210093802</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>2</v>
@@ -9753,7 +9753,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1">
-        <v>4210296631</v>
+        <v>4210162326</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>2</v>
@@ -9765,7 +9765,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1">
-        <v>4210406475</v>
+        <v>4210386449</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>2</v>
@@ -9777,7 +9777,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1">
-        <v>4210506018</v>
+        <v>4210514973</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>2</v>
@@ -9789,7 +9789,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1">
-        <v>4210592061</v>
+        <v>4210539791</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>2</v>
@@ -9801,7 +9801,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1">
-        <v>4210956722</v>
+        <v>4210605310</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>2</v>
@@ -9813,7 +9813,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1">
-        <v>4210774231</v>
+        <v>4210655536</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>2</v>
@@ -9825,7 +9825,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1">
-        <v>4211032450</v>
+        <v>4210803979</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>2</v>
@@ -9837,7 +9837,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1">
-        <v>4210174856</v>
+        <v>4210415570</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>2</v>
@@ -9849,7 +9849,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1">
-        <v>4210248902</v>
+        <v>4210033714</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>2</v>
@@ -9861,7 +9861,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1">
-        <v>4210619540</v>
+        <v>4210698032</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>2</v>
@@ -9873,7 +9873,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1">
-        <v>4210608974</v>
+        <v>4211121133</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>2</v>
@@ -9885,7 +9885,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1">
-        <v>4210301184</v>
+        <v>4210024291</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>2</v>
@@ -9897,7 +9897,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1">
-        <v>4210939937</v>
+        <v>4210140346</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>2</v>
@@ -9909,7 +9909,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="1">
-        <v>4210250290</v>
+        <v>4210296631</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>2</v>
@@ -9921,7 +9921,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="1">
-        <v>4210662861</v>
+        <v>4210406475</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>2</v>
@@ -9933,7 +9933,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1">
-        <v>4210155525</v>
+        <v>4210506018</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>2</v>
@@ -9945,7 +9945,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1">
-        <v>4210414276</v>
+        <v>4210592061</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>2</v>
@@ -9957,7 +9957,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1">
-        <v>4210851640</v>
+        <v>4210956722</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>2</v>
@@ -9969,7 +9969,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1">
-        <v>4210632010</v>
+        <v>4210774231</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>2</v>
@@ -9981,7 +9981,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1">
-        <v>4210396336</v>
+        <v>4211032450</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>2</v>
@@ -9993,7 +9993,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="1">
-        <v>4210691687</v>
+        <v>4210174856</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>2</v>
@@ -10005,7 +10005,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1">
-        <v>4211090225</v>
+        <v>4210248902</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>2</v>
@@ -10017,7 +10017,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="1">
-        <v>4210098148</v>
+        <v>4210619540</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>2</v>
@@ -10029,7 +10029,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="1">
-        <v>4210885374</v>
+        <v>4210608974</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>2</v>
@@ -10041,7 +10041,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="1">
-        <v>4210128706</v>
+        <v>4210301184</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>2</v>
@@ -10053,7 +10053,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="1">
-        <v>4210429692</v>
+        <v>4210939937</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>2</v>
@@ -10065,7 +10065,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="1">
-        <v>4210457601</v>
+        <v>4210250290</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>2</v>
@@ -10077,7 +10077,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1">
-        <v>4210487716</v>
+        <v>4210662861</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>2</v>
@@ -10089,7 +10089,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="1">
-        <v>4210491196</v>
+        <v>4210155525</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>2</v>
@@ -10101,7 +10101,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="1">
-        <v>4210525608</v>
+        <v>4210414276</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>2</v>
@@ -10113,7 +10113,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="1">
-        <v>4210697405</v>
+        <v>4210851640</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>2</v>
@@ -10125,7 +10125,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="1">
-        <v>4210871317</v>
+        <v>4210632010</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>2</v>
@@ -10137,7 +10137,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="1">
-        <v>4210831022</v>
+        <v>4210396336</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>2</v>
@@ -10149,7 +10149,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="1">
-        <v>4210478093</v>
+        <v>4210691687</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>2</v>
@@ -10161,7 +10161,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="1">
-        <v>4210623671</v>
+        <v>4211090225</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>2</v>
@@ -10173,7 +10173,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1">
-        <v>4210379066</v>
+        <v>4210098148</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>2</v>
@@ -10185,7 +10185,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1">
-        <v>4210539266</v>
+        <v>4210885374</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>2</v>
@@ -10197,7 +10197,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1">
-        <v>4210198794</v>
+        <v>4210128706</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>2</v>
@@ -10209,7 +10209,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="1">
-        <v>4210200416</v>
+        <v>4210429692</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>2</v>
@@ -10221,7 +10221,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="1">
-        <v>4210211263</v>
+        <v>4210457601</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>2</v>
@@ -10233,7 +10233,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="1">
-        <v>4210333855</v>
+        <v>4210487716</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>2</v>
@@ -10245,7 +10245,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="1">
-        <v>4210427538</v>
+        <v>4210491196</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>2</v>
@@ -10257,7 +10257,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="1">
-        <v>4210497116</v>
+        <v>4210525608</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>2</v>
@@ -10269,7 +10269,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="1">
-        <v>4210789652</v>
+        <v>4210697405</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>2</v>
@@ -10281,7 +10281,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="1">
-        <v>4210841799</v>
+        <v>4210871317</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>2</v>
@@ -10293,7 +10293,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="1">
-        <v>4210009943</v>
+        <v>4210831022</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>2</v>
@@ -10305,7 +10305,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="1">
-        <v>4210707172</v>
+        <v>4210478093</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>2</v>
@@ -10317,7 +10317,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="1">
-        <v>4210003908</v>
+        <v>4210623671</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>2</v>
@@ -10329,7 +10329,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="1">
-        <v>4210405234</v>
+        <v>4210379066</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>2</v>
@@ -10341,7 +10341,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="1">
-        <v>4210113485</v>
+        <v>4210539266</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>2</v>
@@ -10353,7 +10353,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="1">
-        <v>4210185045</v>
+        <v>4210198794</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>2</v>
@@ -10365,7 +10365,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="1">
-        <v>4210061222</v>
+        <v>4210200416</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>2</v>
@@ -10377,7 +10377,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="1">
-        <v>4210239886</v>
+        <v>4210211263</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>2</v>
@@ -10389,7 +10389,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="1">
-        <v>4210244610</v>
+        <v>4210333855</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>2</v>
@@ -10401,7 +10401,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="1">
-        <v>4210386471</v>
+        <v>4210427538</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>2</v>
@@ -10413,7 +10413,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="1">
-        <v>4210496119</v>
+        <v>4210497116</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>2</v>
@@ -10425,7 +10425,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="1">
-        <v>4210521327</v>
+        <v>4210610622</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>2</v>
@@ -10437,7 +10437,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="1">
-        <v>4211052917</v>
+        <v>4210789652</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>2</v>
@@ -10449,7 +10449,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="1">
-        <v>4210050280</v>
+        <v>4210862040</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>2</v>
@@ -10461,7 +10461,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="1">
-        <v>4210372229</v>
+        <v>4210841799</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>2</v>
@@ -10473,7 +10473,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="1">
-        <v>4210326134</v>
+        <v>4210009943</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>2</v>
@@ -10485,7 +10485,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="1">
-        <v>4210535776</v>
+        <v>4210707172</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>2</v>
@@ -10497,7 +10497,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="1">
-        <v>4210359992</v>
+        <v>4210003908</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>2</v>
@@ -10509,7 +10509,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="1">
-        <v>4210380505</v>
+        <v>4210405234</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>2</v>
@@ -10521,7 +10521,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="1">
-        <v>4210502346</v>
+        <v>4210113485</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>2</v>
@@ -10533,7 +10533,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="1">
-        <v>4210609300</v>
+        <v>4210185045</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>2</v>
@@ -10545,7 +10545,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="1">
-        <v>4210737822</v>
+        <v>4210061222</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>2</v>
@@ -10557,7 +10557,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="1">
-        <v>4210920340</v>
+        <v>4210239886</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>2</v>
@@ -10569,7 +10569,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1">
-        <v>4210114589</v>
+        <v>4210244610</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>2</v>
@@ -10581,7 +10581,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="1">
-        <v>4210273236</v>
+        <v>4210386471</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>2</v>
@@ -10593,7 +10593,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="1">
-        <v>4210270390</v>
+        <v>4210496119</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>2</v>
@@ -10605,7 +10605,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="1">
-        <v>4210161201</v>
+        <v>4210521327</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>2</v>
@@ -10617,7 +10617,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="1">
-        <v>4210185589</v>
+        <v>4211052917</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>2</v>
@@ -10629,7 +10629,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="1">
-        <v>4210229959</v>
+        <v>4210050280</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>2</v>
@@ -10641,7 +10641,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="1">
-        <v>4210236802</v>
+        <v>4210372229</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>2</v>
@@ -10653,7 +10653,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="1">
-        <v>4210323925</v>
+        <v>4210326134</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>2</v>
@@ -10665,7 +10665,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1">
-        <v>4210342956</v>
+        <v>4210535776</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>2</v>
@@ -10677,7 +10677,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1">
-        <v>4210396271</v>
+        <v>4210359992</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>2</v>
@@ -10689,7 +10689,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="1">
-        <v>4210548527</v>
+        <v>4210380505</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>2</v>
@@ -10701,7 +10701,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="1">
-        <v>4211048212</v>
+        <v>4210415781</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>2</v>
@@ -10713,7 +10713,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="1">
-        <v>4210893995</v>
+        <v>4210502346</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>2</v>
@@ -10725,7 +10725,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="1">
-        <v>4210962329</v>
+        <v>4210609300</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>2</v>
@@ -10737,7 +10737,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="1">
-        <v>4210019501</v>
+        <v>4210737822</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>2</v>
@@ -10749,7 +10749,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="1">
-        <v>4210347993</v>
+        <v>4210920340</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>2</v>
@@ -10761,7 +10761,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="1">
-        <v>4210392078</v>
+        <v>4210114589</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>2</v>
@@ -10773,7 +10773,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="1">
-        <v>4210387120</v>
+        <v>4210273236</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>2</v>
@@ -10785,7 +10785,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="1">
-        <v>4210487162</v>
+        <v>4210270390</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>2</v>
@@ -10797,7 +10797,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="1">
-        <v>4210842452</v>
+        <v>4210161201</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>2</v>
@@ -10809,7 +10809,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="1">
-        <v>4210208571</v>
+        <v>4210185589</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>2</v>
@@ -10821,7 +10821,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="1">
-        <v>4210515989</v>
+        <v>4210229959</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>2</v>
@@ -10833,7 +10833,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="1">
-        <v>4210213779</v>
+        <v>4210236802</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>2</v>
@@ -10845,7 +10845,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="1">
-        <v>4210309982</v>
+        <v>4210323925</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>2</v>
@@ -10857,7 +10857,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="1">
-        <v>4210378870</v>
+        <v>4210342956</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>2</v>
@@ -10869,7 +10869,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>4210702558</v>
+        <v>4210396271</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>2</v>
@@ -10881,7 +10881,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="1">
-        <v>4210710191</v>
+        <v>4210548527</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>2</v>
@@ -10893,7 +10893,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="1">
-        <v>4210400589</v>
+        <v>4211048212</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>2</v>
@@ -10905,7 +10905,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="1">
-        <v>4210810214</v>
+        <v>4210893995</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>2</v>
@@ -10917,7 +10917,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="1">
-        <v>4210933570</v>
+        <v>4210962329</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>2</v>
@@ -10929,7 +10929,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="1">
-        <v>4211044632</v>
+        <v>4210019501</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>2</v>
@@ -10941,7 +10941,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="1">
-        <v>4210420793</v>
+        <v>4210347993</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>2</v>
@@ -10953,7 +10953,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="2">
-        <v>4210126712</v>
+        <v>4210392078</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>2</v>
@@ -10965,7 +10965,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="1">
-        <v>4210250376</v>
+        <v>4210387120</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>2</v>
@@ -10977,7 +10977,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="1">
-        <v>4210407609</v>
+        <v>4210487162</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>2</v>
@@ -10989,7 +10989,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="1">
-        <v>4210427383</v>
+        <v>4210842452</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>2</v>
@@ -11001,7 +11001,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="1">
-        <v>4210879411</v>
+        <v>4210208571</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>2</v>
@@ -11013,7 +11013,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="1">
-        <v>4211020443</v>
+        <v>4210515989</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>2</v>
@@ -11025,7 +11025,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="1">
-        <v>4210707793</v>
+        <v>4210213779</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>2</v>
@@ -11037,7 +11037,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="1">
-        <v>4210593308</v>
+        <v>4210309982</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>2</v>
@@ -11049,7 +11049,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="1">
-        <v>4210326499</v>
+        <v>4210378870</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>2</v>
@@ -11061,7 +11061,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="1">
-        <v>4210421903</v>
+        <v>4210702558</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>2</v>
@@ -11073,7 +11073,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="1">
-        <v>4210004989</v>
+        <v>4210710191</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>2</v>
@@ -11085,7 +11085,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="1">
-        <v>4210129193</v>
+        <v>4210400589</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>2</v>
@@ -11097,7 +11097,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="1">
-        <v>4210654402</v>
+        <v>4210810214</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>2</v>
@@ -11109,7 +11109,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="1">
-        <v>4210178645</v>
+        <v>4210933570</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>2</v>
@@ -11121,7 +11121,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="1">
-        <v>4210272357</v>
+        <v>4211044632</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>2</v>
@@ -11133,7 +11133,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="1">
-        <v>4210633293</v>
+        <v>4210420793</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>2</v>
@@ -11145,7 +11145,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="1">
-        <v>4210740672</v>
+        <v>4210126712</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>2</v>
@@ -11157,7 +11157,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="1">
-        <v>4210411957</v>
+        <v>4210250376</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>2</v>
@@ -11169,7 +11169,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="1">
-        <v>4210006329</v>
+        <v>4210407609</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>2</v>
@@ -11181,7 +11181,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="1">
-        <v>4210031752</v>
+        <v>4210427383</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>2</v>
@@ -11193,7 +11193,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="1">
-        <v>4210152113</v>
+        <v>4210879411</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>2</v>
@@ -11205,7 +11205,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="1">
-        <v>4210214619</v>
+        <v>4211020443</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>2</v>
@@ -11217,7 +11217,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="1">
-        <v>4210420791</v>
+        <v>4210707793</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>2</v>
@@ -11229,7 +11229,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="1">
-        <v>4210477209</v>
+        <v>4210593308</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>2</v>
@@ -11241,7 +11241,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="1">
-        <v>4210510176</v>
+        <v>4210615587</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>2</v>
@@ -11253,7 +11253,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="1">
-        <v>4210623479</v>
+        <v>4210326499</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>2</v>
@@ -11265,7 +11265,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="1">
-        <v>4210866906</v>
+        <v>4210421903</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>2</v>
@@ -11277,7 +11277,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="1">
-        <v>4211068812</v>
+        <v>4210004989</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>2</v>
@@ -11289,7 +11289,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>4210888119</v>
+        <v>4210092501</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>2</v>
@@ -11301,7 +11301,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="1">
-        <v>4211052476</v>
+        <v>4210129193</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>2</v>
@@ -11313,7 +11313,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="1">
-        <v>4210376988</v>
+        <v>4210654402</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>2</v>
@@ -11325,7 +11325,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="1">
-        <v>4210911353</v>
+        <v>4210178645</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>2</v>
@@ -11337,7 +11337,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="1">
-        <v>4210924322</v>
+        <v>4210272357</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>2</v>
@@ -11349,7 +11349,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="1">
-        <v>4210086965</v>
+        <v>4210633293</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>2</v>
@@ -11361,7 +11361,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="1">
-        <v>4210398274</v>
+        <v>4210740672</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>2</v>
@@ -11373,7 +11373,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="1">
-        <v>4210062240</v>
+        <v>4210411957</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>2</v>
@@ -11385,7 +11385,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="1">
-        <v>4210086103</v>
+        <v>4210006329</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>2</v>
@@ -11397,7 +11397,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="1">
-        <v>4210143635</v>
+        <v>4210031752</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>2</v>
@@ -11409,7 +11409,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="1">
-        <v>4210179047</v>
+        <v>4210152113</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>2</v>
@@ -11421,7 +11421,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="1">
-        <v>4210396790</v>
+        <v>4210214619</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>2</v>
@@ -11433,7 +11433,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="1">
-        <v>4210405046</v>
+        <v>4210420791</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>2</v>
@@ -11445,7 +11445,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="1">
-        <v>4210522831</v>
+        <v>4210477209</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>2</v>
@@ -11457,7 +11457,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="1">
-        <v>4210560300</v>
+        <v>4210510176</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>2</v>
@@ -11469,7 +11469,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="1">
-        <v>4210593590</v>
+        <v>4210623479</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>2</v>
@@ -11481,7 +11481,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="1">
-        <v>4210620984</v>
+        <v>4210866906</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>2</v>
@@ -11493,7 +11493,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="1">
-        <v>4210036943</v>
+        <v>4211068812</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>2</v>
@@ -11505,7 +11505,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="1">
-        <v>4210003083</v>
+        <v>4210888119</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>2</v>
@@ -11517,7 +11517,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="1">
-        <v>4210383539</v>
+        <v>4211052476</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>2</v>
@@ -11529,7 +11529,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="1">
-        <v>4210919520</v>
+        <v>4210376988</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>2</v>
@@ -11541,7 +11541,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="1">
-        <v>4210792288</v>
+        <v>4210911353</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>2</v>
@@ -11553,7 +11553,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="1">
-        <v>4210104513</v>
+        <v>4210924322</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>2</v>
@@ -11565,7 +11565,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="1">
-        <v>4210337882</v>
+        <v>4210086965</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>2</v>
@@ -11577,7 +11577,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="1">
-        <v>4210414207</v>
+        <v>4210398274</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>2</v>
@@ -11589,7 +11589,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="1">
-        <v>4210478764</v>
+        <v>4210062240</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>2</v>
@@ -11601,7 +11601,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="1">
-        <v>4210483345</v>
+        <v>4210086103</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>2</v>
@@ -11613,7 +11613,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="1">
-        <v>4210483959</v>
+        <v>4210143635</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>2</v>
@@ -11625,7 +11625,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="1">
-        <v>4210552779</v>
+        <v>4210179047</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>2</v>
@@ -11637,7 +11637,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="1">
-        <v>4210700049</v>
+        <v>4210396790</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>2</v>
@@ -11649,7 +11649,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="1">
-        <v>4210718468</v>
+        <v>4210405046</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>2</v>
@@ -11661,7 +11661,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="1">
-        <v>4210974262</v>
+        <v>4210522831</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>2</v>
@@ -11673,7 +11673,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="1">
-        <v>4211153726</v>
+        <v>4210560300</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>2</v>
@@ -11685,7 +11685,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="1">
-        <v>4210247519</v>
+        <v>4210593590</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>2</v>
@@ -11697,7 +11697,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="1">
-        <v>4210652133</v>
+        <v>4210620984</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>2</v>
@@ -11709,7 +11709,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="1">
-        <v>4210059502</v>
+        <v>4210036943</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>2</v>
@@ -11721,7 +11721,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="1">
-        <v>4210076436</v>
+        <v>4210003083</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>2</v>
@@ -11733,7 +11733,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="1">
-        <v>4210097470</v>
+        <v>4210383539</v>
       </c>
       <c r="C587" s="1" t="s">
         <v>2</v>
@@ -11745,7 +11745,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="1">
-        <v>4210099442</v>
+        <v>4210919520</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>2</v>
@@ -11757,7 +11757,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="1">
-        <v>4210121557</v>
+        <v>4210792288</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>2</v>
@@ -11769,7 +11769,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="1">
-        <v>4210312209</v>
+        <v>4210104513</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>2</v>
@@ -11781,7 +11781,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="1">
-        <v>4210399799</v>
+        <v>4210240115</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>2</v>
@@ -11793,7 +11793,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="1">
-        <v>4210418911</v>
+        <v>4210337882</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>2</v>
@@ -11805,7 +11805,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="1">
-        <v>4210485733</v>
+        <v>4210414207</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>2</v>
@@ -11817,7 +11817,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="1">
-        <v>4210721350</v>
+        <v>4210478764</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>2</v>
@@ -11829,7 +11829,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="1">
-        <v>4210960649</v>
+        <v>4210483345</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>2</v>
@@ -11841,7 +11841,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="1">
-        <v>4211013963</v>
+        <v>4210483959</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>2</v>
@@ -11853,7 +11853,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="1">
-        <v>4210811627</v>
+        <v>4210552779</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>2</v>
@@ -11865,7 +11865,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="1">
-        <v>4210458622</v>
+        <v>4210700049</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>2</v>
@@ -11877,7 +11877,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="1">
-        <v>4210671815</v>
+        <v>4210718468</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>2</v>
@@ -11889,7 +11889,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="1">
-        <v>4210337818</v>
+        <v>4210974262</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>2</v>
@@ -11901,7 +11901,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="1">
-        <v>4210949152</v>
+        <v>4211153726</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>2</v>
@@ -11913,7 +11913,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="1">
-        <v>4210634563</v>
+        <v>4210247519</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>2</v>
@@ -11925,7 +11925,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="1">
-        <v>4210051155</v>
+        <v>4210530221</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>2</v>
@@ -11937,7 +11937,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="1">
-        <v>4210142038</v>
+        <v>4210652133</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>2</v>
@@ -11949,7 +11949,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="1">
-        <v>4210149575</v>
+        <v>4210059502</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>2</v>
@@ -11961,7 +11961,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="1">
-        <v>4210168043</v>
+        <v>4210076436</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>2</v>
@@ -11973,7 +11973,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="1">
-        <v>4210195529</v>
+        <v>4210097470</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>2</v>
@@ -11985,7 +11985,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="1">
-        <v>4210303219</v>
+        <v>4210099442</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>2</v>
@@ -11997,7 +11997,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="1">
-        <v>4210427799</v>
+        <v>4210121557</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>2</v>
@@ -12009,7 +12009,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="1">
-        <v>4210446245</v>
+        <v>4210312209</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>2</v>
@@ -12021,7 +12021,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="1">
-        <v>4210461149</v>
+        <v>4210399799</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>2</v>
@@ -12033,7 +12033,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="1">
-        <v>4210629760</v>
+        <v>4210418911</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>2</v>
@@ -12045,7 +12045,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="1">
-        <v>4210709679</v>
+        <v>4210485733</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>2</v>
@@ -12057,7 +12057,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="1">
-        <v>4210758376</v>
+        <v>4210721350</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>2</v>
@@ -12069,7 +12069,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="1">
-        <v>4210827877</v>
+        <v>4210960649</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>2</v>
@@ -12081,7 +12081,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="1">
-        <v>4210939924</v>
+        <v>4211013963</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>2</v>
@@ -12093,7 +12093,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="1">
-        <v>4210207233</v>
+        <v>4210811627</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>2</v>
@@ -12105,7 +12105,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="1">
-        <v>4210901008</v>
+        <v>4210458622</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>2</v>
@@ -12117,7 +12117,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="1">
-        <v>4210423569</v>
+        <v>4210671815</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>2</v>
@@ -12129,7 +12129,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="1">
-        <v>4210487451</v>
+        <v>4210337818</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>2</v>
@@ -12141,7 +12141,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="1">
-        <v>4210607124</v>
+        <v>4210949152</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>2</v>
@@ -12153,7 +12153,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="1">
-        <v>4210669592</v>
+        <v>4210634563</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>2</v>
@@ -12165,7 +12165,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="1">
-        <v>4210534852</v>
+        <v>4210051155</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>2</v>
@@ -12177,7 +12177,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="1">
-        <v>4210001844</v>
+        <v>4210142038</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>2</v>
@@ -12189,7 +12189,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="1">
-        <v>4210109667</v>
+        <v>4210149575</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>2</v>
@@ -12201,7 +12201,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="1">
-        <v>4210196693</v>
+        <v>4210168043</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>2</v>
@@ -12213,7 +12213,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="1">
-        <v>4210365640</v>
+        <v>4210195529</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>2</v>
@@ -12225,7 +12225,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="1">
-        <v>4210407197</v>
+        <v>4210303219</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>2</v>
@@ -12237,7 +12237,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="1">
-        <v>4210548325</v>
+        <v>4210427799</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>2</v>
@@ -12249,7 +12249,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="1">
-        <v>4210554776</v>
+        <v>4210446245</v>
       </c>
       <c r="C630" s="1" t="s">
         <v>2</v>
@@ -12261,7 +12261,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="1">
-        <v>4210629708</v>
+        <v>4210461149</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>2</v>
@@ -12273,7 +12273,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="1">
-        <v>4210978497</v>
+        <v>4210629760</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>2</v>
@@ -12285,7 +12285,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="1">
-        <v>4211168559</v>
+        <v>4210709679</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>2</v>
@@ -12297,7 +12297,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="1">
-        <v>4211173096</v>
+        <v>4210758376</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>2</v>
@@ -12309,7 +12309,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="1">
-        <v>4210388883</v>
+        <v>4210827877</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>2</v>
@@ -12321,7 +12321,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="1">
-        <v>4210622646</v>
+        <v>4210939924</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>2</v>
@@ -12333,7 +12333,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="1">
-        <v>4210049002</v>
+        <v>4210207233</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>2</v>
@@ -12345,7 +12345,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="1">
-        <v>4210905356</v>
+        <v>4210901008</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>2</v>
@@ -12357,7 +12357,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="1">
-        <v>4210750427</v>
+        <v>4210423569</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>2</v>
@@ -12369,7 +12369,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="1">
-        <v>4210690219</v>
+        <v>4210487451</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>2</v>
@@ -12381,7 +12381,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="1">
-        <v>4210544812</v>
+        <v>4210607124</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>2</v>
@@ -12393,7 +12393,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="1">
-        <v>4210374075</v>
+        <v>4210669592</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>2</v>
@@ -12405,7 +12405,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="1">
-        <v>4211172188</v>
+        <v>4210534852</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>2</v>
@@ -12417,7 +12417,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="1">
-        <v>4210918088</v>
+        <v>4210001844</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>2</v>
@@ -12429,7 +12429,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="1">
-        <v>4210245439</v>
+        <v>4210109667</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>2</v>
@@ -12441,7 +12441,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="1">
-        <v>4210276653</v>
+        <v>4210196693</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>2</v>
@@ -12453,7 +12453,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="1">
-        <v>4210429536</v>
+        <v>4210365640</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>2</v>
@@ -12465,7 +12465,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="1">
-        <v>4210519195</v>
+        <v>4210407197</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>2</v>
@@ -12477,7 +12477,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="1">
-        <v>4210671668</v>
+        <v>4210497243</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>2</v>
@@ -12489,7 +12489,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="1">
-        <v>4210727818</v>
+        <v>4210548325</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>2</v>
@@ -12501,7 +12501,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="1">
-        <v>4210741138</v>
+        <v>4210554776</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>2</v>
@@ -12513,7 +12513,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="1">
-        <v>4210883236</v>
+        <v>4210629708</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>2</v>
@@ -12524,7 +12524,9 @@
         <f t="shared" si="10"/>
         <v>652</v>
       </c>
-      <c r="B653" s="1"/>
+      <c r="B653" s="1">
+        <v>4210978497</v>
+      </c>
       <c r="C653" s="1" t="s">
         <v>2</v>
       </c>
@@ -12534,7 +12536,9 @@
         <f t="shared" si="10"/>
         <v>653</v>
       </c>
-      <c r="B654" s="1"/>
+      <c r="B654" s="1">
+        <v>4211168559</v>
+      </c>
       <c r="C654" s="1" t="s">
         <v>2</v>
       </c>
@@ -12544,7 +12548,9 @@
         <f t="shared" si="10"/>
         <v>654</v>
       </c>
-      <c r="B655" s="1"/>
+      <c r="B655" s="1">
+        <v>4211173096</v>
+      </c>
       <c r="C655" s="1" t="s">
         <v>2</v>
       </c>
@@ -12554,7 +12560,9 @@
         <f t="shared" si="10"/>
         <v>655</v>
       </c>
-      <c r="B656" s="1"/>
+      <c r="B656" s="1">
+        <v>4210388883</v>
+      </c>
       <c r="C656" s="1" t="s">
         <v>2</v>
       </c>
@@ -12564,7 +12572,9 @@
         <f t="shared" si="10"/>
         <v>656</v>
       </c>
-      <c r="B657" s="1"/>
+      <c r="B657" s="1">
+        <v>4210622646</v>
+      </c>
       <c r="C657" s="1" t="s">
         <v>2</v>
       </c>
@@ -12574,7 +12584,9 @@
         <f t="shared" si="10"/>
         <v>657</v>
       </c>
-      <c r="B658" s="1"/>
+      <c r="B658" s="1">
+        <v>4210049002</v>
+      </c>
       <c r="C658" s="1" t="s">
         <v>2</v>
       </c>
@@ -12584,7 +12596,9 @@
         <f t="shared" si="10"/>
         <v>658</v>
       </c>
-      <c r="B659" s="1"/>
+      <c r="B659" s="1">
+        <v>4210905356</v>
+      </c>
       <c r="C659" s="1" t="s">
         <v>2</v>
       </c>
@@ -12594,7 +12608,9 @@
         <f t="shared" si="10"/>
         <v>659</v>
       </c>
-      <c r="B660" s="1"/>
+      <c r="B660" s="1">
+        <v>4210750427</v>
+      </c>
       <c r="C660" s="1" t="s">
         <v>2</v>
       </c>
@@ -12604,7 +12620,9 @@
         <f t="shared" si="10"/>
         <v>660</v>
       </c>
-      <c r="B661" s="1"/>
+      <c r="B661" s="1">
+        <v>4210690219</v>
+      </c>
       <c r="C661" s="1" t="s">
         <v>2</v>
       </c>
@@ -12614,7 +12632,9 @@
         <f t="shared" si="10"/>
         <v>661</v>
       </c>
-      <c r="B662" s="1"/>
+      <c r="B662" s="1">
+        <v>4210544812</v>
+      </c>
       <c r="C662" s="1" t="s">
         <v>2</v>
       </c>
@@ -12624,7 +12644,9 @@
         <f t="shared" si="10"/>
         <v>662</v>
       </c>
-      <c r="B663" s="1"/>
+      <c r="B663" s="1">
+        <v>4210488775</v>
+      </c>
       <c r="C663" s="1" t="s">
         <v>2</v>
       </c>
@@ -12634,7 +12656,9 @@
         <f t="shared" si="10"/>
         <v>663</v>
       </c>
-      <c r="B664" s="1"/>
+      <c r="B664" s="1">
+        <v>4210374075</v>
+      </c>
       <c r="C664" s="1" t="s">
         <v>2</v>
       </c>
@@ -12644,7 +12668,9 @@
         <f t="shared" si="10"/>
         <v>664</v>
       </c>
-      <c r="B665" s="1"/>
+      <c r="B665" s="1">
+        <v>4211172188</v>
+      </c>
       <c r="C665" s="1" t="s">
         <v>2</v>
       </c>
@@ -12654,7 +12680,9 @@
         <f t="shared" si="10"/>
         <v>665</v>
       </c>
-      <c r="B666" s="1"/>
+      <c r="B666" s="1">
+        <v>4210918088</v>
+      </c>
       <c r="C666" s="1" t="s">
         <v>2</v>
       </c>
@@ -12664,7 +12692,9 @@
         <f t="shared" si="10"/>
         <v>666</v>
       </c>
-      <c r="B667" s="1"/>
+      <c r="B667" s="1">
+        <v>4210245439</v>
+      </c>
       <c r="C667" s="1" t="s">
         <v>2</v>
       </c>
@@ -12674,7 +12704,9 @@
         <f t="shared" si="10"/>
         <v>667</v>
       </c>
-      <c r="B668" s="1"/>
+      <c r="B668" s="1">
+        <v>4210276653</v>
+      </c>
       <c r="C668" s="1" t="s">
         <v>2</v>
       </c>
@@ -12684,7 +12716,9 @@
         <f t="shared" si="10"/>
         <v>668</v>
       </c>
-      <c r="B669" s="1"/>
+      <c r="B669" s="1">
+        <v>4210429536</v>
+      </c>
       <c r="C669" s="1" t="s">
         <v>2</v>
       </c>
@@ -12694,7 +12728,9 @@
         <f t="shared" si="10"/>
         <v>669</v>
       </c>
-      <c r="B670" s="1"/>
+      <c r="B670" s="1">
+        <v>4210519195</v>
+      </c>
       <c r="C670" s="1" t="s">
         <v>2</v>
       </c>
@@ -12704,7 +12740,9 @@
         <f t="shared" si="10"/>
         <v>670</v>
       </c>
-      <c r="B671" s="1"/>
+      <c r="B671" s="1">
+        <v>4210671668</v>
+      </c>
       <c r="C671" s="1" t="s">
         <v>2</v>
       </c>
@@ -12714,7 +12752,9 @@
         <f t="shared" si="10"/>
         <v>671</v>
       </c>
-      <c r="B672" s="1"/>
+      <c r="B672" s="1">
+        <v>4210727818</v>
+      </c>
       <c r="C672" s="1" t="s">
         <v>2</v>
       </c>
@@ -12724,7 +12764,9 @@
         <f t="shared" si="10"/>
         <v>672</v>
       </c>
-      <c r="B673" s="1"/>
+      <c r="B673" s="1">
+        <v>4210741138</v>
+      </c>
       <c r="C673" s="1" t="s">
         <v>2</v>
       </c>
@@ -12734,7 +12776,9 @@
         <f t="shared" si="10"/>
         <v>673</v>
       </c>
-      <c r="B674" s="1"/>
+      <c r="B674" s="1">
+        <v>4210883236</v>
+      </c>
       <c r="C674" s="1" t="s">
         <v>2</v>
       </c>
@@ -32260,9 +32304,9 @@
       <c r="A473">
         <v>4210322119</v>
       </c>
-      <c r="B473" t="e">
+      <c r="B473">
         <f>VLOOKUP(A473,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210322119</v>
       </c>
       <c r="C473" t="s">
         <v>210</v>
@@ -32284,9 +32328,9 @@
       <c r="A474">
         <v>4210368640</v>
       </c>
-      <c r="B474" t="e">
+      <c r="B474">
         <f>VLOOKUP(A474,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210368640</v>
       </c>
       <c r="C474" t="s">
         <v>211</v>
@@ -32308,9 +32352,9 @@
       <c r="A475">
         <v>4210368642</v>
       </c>
-      <c r="B475" t="e">
+      <c r="B475">
         <f>VLOOKUP(A475,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210368642</v>
       </c>
       <c r="C475" t="s">
         <v>212</v>
@@ -32428,9 +32472,9 @@
       <c r="A480">
         <v>4210415781</v>
       </c>
-      <c r="B480" t="e">
+      <c r="B480">
         <f>VLOOKUP(A480,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210415781</v>
       </c>
       <c r="C480" t="s">
         <v>217</v>
@@ -32596,9 +32640,9 @@
       <c r="A487">
         <v>4210878489</v>
       </c>
-      <c r="B487" t="e">
+      <c r="B487">
         <f>VLOOKUP(A487,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210878489</v>
       </c>
       <c r="C487" t="s">
         <v>224</v>
@@ -32620,9 +32664,9 @@
       <c r="A488">
         <v>4210488775</v>
       </c>
-      <c r="B488" t="e">
+      <c r="B488">
         <f>VLOOKUP(A488,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210488775</v>
       </c>
       <c r="C488" t="s">
         <v>225</v>
@@ -33604,9 +33648,9 @@
       <c r="A529">
         <v>4210862040</v>
       </c>
-      <c r="B529" t="e">
+      <c r="B529">
         <f>VLOOKUP(A529,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210862040</v>
       </c>
       <c r="C529" t="s">
         <v>266</v>
@@ -33916,9 +33960,9 @@
       <c r="A542">
         <v>4210386449</v>
       </c>
-      <c r="B542" t="e">
+      <c r="B542">
         <f>VLOOKUP(A542,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210386449</v>
       </c>
       <c r="C542" t="s">
         <v>279</v>
@@ -34252,9 +34296,9 @@
       <c r="A556">
         <v>4210057744</v>
       </c>
-      <c r="B556" t="e">
+      <c r="B556">
         <f>VLOOKUP(A556,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210057744</v>
       </c>
       <c r="C556" t="s">
         <v>293</v>
@@ -34708,9 +34752,9 @@
       <c r="A575">
         <v>4211131368</v>
       </c>
-      <c r="B575" t="e">
+      <c r="B575">
         <f>VLOOKUP(A575,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211131368</v>
       </c>
       <c r="C575" t="s">
         <v>312</v>
@@ -35020,9 +35064,9 @@
       <c r="A588">
         <v>4210240115</v>
       </c>
-      <c r="B588" t="e">
+      <c r="B588">
         <f>VLOOKUP(A588,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210240115</v>
       </c>
       <c r="C588" t="s">
         <v>325</v>
@@ -35980,9 +36024,9 @@
       <c r="A628">
         <v>4210086596</v>
       </c>
-      <c r="B628" t="e">
+      <c r="B628">
         <f>VLOOKUP(A628,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210086596</v>
       </c>
       <c r="C628" t="s">
         <v>365</v>
@@ -38380,9 +38424,9 @@
       <c r="A728">
         <v>4210734425</v>
       </c>
-      <c r="B728" t="e">
+      <c r="B728">
         <f>VLOOKUP(A728,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210734425</v>
       </c>
       <c r="C728" t="s">
         <v>465</v>
@@ -39148,9 +39192,9 @@
       <c r="A760">
         <v>4210811229</v>
       </c>
-      <c r="B760" t="e">
+      <c r="B760">
         <f>VLOOKUP(A760,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210811229</v>
       </c>
       <c r="C760" t="s">
         <v>497</v>
@@ -40180,9 +40224,9 @@
       <c r="A803">
         <v>4210530221</v>
       </c>
-      <c r="B803" t="e">
+      <c r="B803">
         <f>VLOOKUP(A803,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210530221</v>
       </c>
       <c r="C803" t="s">
         <v>540</v>
@@ -40468,9 +40512,9 @@
       <c r="A815">
         <v>4210092501</v>
       </c>
-      <c r="B815" t="e">
+      <c r="B815">
         <f>VLOOKUP(A815,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210092501</v>
       </c>
       <c r="C815" t="s">
         <v>552</v>
@@ -40852,9 +40896,9 @@
       <c r="A831">
         <v>4210341601</v>
       </c>
-      <c r="B831" t="e">
+      <c r="B831">
         <f>VLOOKUP(A831,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210341601</v>
       </c>
       <c r="C831" t="s">
         <v>568</v>
@@ -41068,9 +41112,9 @@
       <c r="A840">
         <v>4210417995</v>
       </c>
-      <c r="B840" t="e">
+      <c r="B840">
         <f>VLOOKUP(A840,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210417995</v>
       </c>
       <c r="C840" t="s">
         <v>577</v>
@@ -41452,9 +41496,9 @@
       <c r="A856">
         <v>4210610622</v>
       </c>
-      <c r="B856" t="e">
+      <c r="B856">
         <f>VLOOKUP(A856,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210610622</v>
       </c>
       <c r="C856" t="s">
         <v>593</v>
@@ -42868,9 +42912,9 @@
       <c r="A915">
         <v>4210497243</v>
       </c>
-      <c r="B915" t="e">
+      <c r="B915">
         <f>VLOOKUP(A915,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210497243</v>
       </c>
       <c r="C915" t="s">
         <v>652</v>
@@ -43108,9 +43152,9 @@
       <c r="A925">
         <v>4210615587</v>
       </c>
-      <c r="B925" t="e">
+      <c r="B925">
         <f>VLOOKUP(A925,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210615587</v>
       </c>
       <c r="C925" t="s">
         <v>662</v>
@@ -43612,9 +43656,9 @@
       <c r="A946">
         <v>4211132297</v>
       </c>
-      <c r="B946" t="e">
+      <c r="B946">
         <f>VLOOKUP(A946,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211132297</v>
       </c>
       <c r="C946" t="s">
         <v>683</v>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EBD72B-9CE6-4806-A23D-3973381A7546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29321DB9-F901-4907-89F9-CACB8591EB4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4687,7 +4687,7 @@
   <dimension ref="A1:C955"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5025,7 +5025,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>4210344078</v>
+        <v>4210375886</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -5037,7 +5037,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>4210574089</v>
+        <v>4210344078</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -5049,7 +5049,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>4210371025</v>
+        <v>4210574089</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -5061,7 +5061,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>4210615341</v>
+        <v>4210371025</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -5073,7 +5073,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4211020605</v>
+        <v>4210615341</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -5085,7 +5085,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4210733151</v>
+        <v>4211020605</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -5097,7 +5097,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4210266290</v>
+        <v>4210733151</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -5109,7 +5109,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>4210652895</v>
+        <v>4210266290</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -5121,7 +5121,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>4210262295</v>
+        <v>4210652895</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -5133,7 +5133,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4210000179</v>
+        <v>4210262295</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -5145,7 +5145,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4210420939</v>
+        <v>4210000179</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -5157,7 +5157,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4210267931</v>
+        <v>4210420939</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -5169,7 +5169,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4210254607</v>
+        <v>4210267931</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -5181,7 +5181,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>4210556661</v>
+        <v>4210254607</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -5193,7 +5193,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>4210034578</v>
+        <v>4210556661</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -5205,7 +5205,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>4210044558</v>
+        <v>4210034578</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -5217,7 +5217,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>4210105227</v>
+        <v>4210044558</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -5229,7 +5229,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>4210127378</v>
+        <v>4210105227</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -5241,7 +5241,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>4210127746</v>
+        <v>4210127378</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -5253,7 +5253,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>4210132639</v>
+        <v>4210127746</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -5265,7 +5265,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>4210177530</v>
+        <v>4210132639</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -5277,7 +5277,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>4210213816</v>
+        <v>4210161011</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -5289,7 +5289,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>4210252068</v>
+        <v>4210177530</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -5301,7 +5301,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>4210322467</v>
+        <v>4210213816</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -5313,7 +5313,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>4210404572</v>
+        <v>4210252068</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -5325,7 +5325,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4210405406</v>
+        <v>4210322467</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -5337,7 +5337,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4210419667</v>
+        <v>4210404572</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -5349,7 +5349,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>4210675397</v>
+        <v>4210405406</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -5361,7 +5361,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>4210683668</v>
+        <v>4210419667</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -5373,7 +5373,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>4210689843</v>
+        <v>4210675397</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -5385,7 +5385,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>4210701271</v>
+        <v>4210683668</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -5397,7 +5397,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>4210791799</v>
+        <v>4210689843</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -5409,7 +5409,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>4210866539</v>
+        <v>4210701271</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -5421,7 +5421,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>4211001264</v>
+        <v>4210791799</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -5433,7 +5433,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>4211084414</v>
+        <v>4210866539</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -5445,7 +5445,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>4210613161</v>
+        <v>4210937304</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -5457,7 +5457,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>4210771684</v>
+        <v>4211001264</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -5469,7 +5469,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>4210708235</v>
+        <v>4211084414</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -5481,7 +5481,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>4210932363</v>
+        <v>4210876639</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -5493,7 +5493,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>4210766426</v>
+        <v>4210613161</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -5505,7 +5505,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>4210417995</v>
+        <v>4210967138</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -5517,7 +5517,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>4210371603</v>
+        <v>4210771684</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -5529,7 +5529,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>4210608174</v>
+        <v>4210708235</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -5541,7 +5541,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>4210406120</v>
+        <v>4210932363</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -5553,7 +5553,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>4210091709</v>
+        <v>4210766426</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -5565,7 +5565,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>4210020005</v>
+        <v>4210417995</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -5577,7 +5577,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>4210034267</v>
+        <v>4210371603</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -5589,7 +5589,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>4210131499</v>
+        <v>4210608174</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -5601,7 +5601,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>4210131654</v>
+        <v>4210406120</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -5613,7 +5613,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>4210141892</v>
+        <v>4210091709</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -5625,7 +5625,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>4210226103</v>
+        <v>4210020005</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -5637,7 +5637,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>4210248909</v>
+        <v>4210034267</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -5649,7 +5649,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>4210307216</v>
+        <v>4210131499</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -5661,7 +5661,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>4210394400</v>
+        <v>4210131654</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -5673,7 +5673,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>4210394946</v>
+        <v>4210141892</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -5685,7 +5685,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>4210413345</v>
+        <v>4210180557</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -5697,7 +5697,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>4210415206</v>
+        <v>4210226103</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -5709,7 +5709,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>4210437917</v>
+        <v>4210248909</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -5721,7 +5721,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>4210511277</v>
+        <v>4210307216</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -5733,7 +5733,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>4210541877</v>
+        <v>4210394400</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -5745,7 +5745,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>4210592672</v>
+        <v>4210394946</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -5757,7 +5757,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>4210593450</v>
+        <v>4210413345</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -5769,7 +5769,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>4210731427</v>
+        <v>4210415206</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -5781,7 +5781,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>4210831159</v>
+        <v>4210437917</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -5793,7 +5793,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>4210188182</v>
+        <v>4210511277</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -5805,7 +5805,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>4210706642</v>
+        <v>4210541877</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -5817,7 +5817,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>4210731416</v>
+        <v>4210592672</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -5829,7 +5829,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>4211013807</v>
+        <v>4210593450</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -5841,7 +5841,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>4210278444</v>
+        <v>4210731427</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -5853,7 +5853,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>4210585528</v>
+        <v>4210831159</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -5865,7 +5865,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>4210929697</v>
+        <v>4211067263</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -5877,7 +5877,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>4210003837</v>
+        <v>4210188182</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -5889,7 +5889,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>4210004223</v>
+        <v>4210706642</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -5901,7 +5901,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>4210198168</v>
+        <v>4210731416</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -5913,7 +5913,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>4210234367</v>
+        <v>4211013807</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -5925,7 +5925,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>4210344951</v>
+        <v>4210278444</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -5937,7 +5937,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>4210391139</v>
+        <v>4211018005</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -5949,7 +5949,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>4210393571</v>
+        <v>4210585528</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -5961,7 +5961,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>4210533040</v>
+        <v>4210929697</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -5973,7 +5973,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>4210558291</v>
+        <v>4210003837</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -5985,7 +5985,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>4210606361</v>
+        <v>4210004223</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -5997,7 +5997,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>4210635825</v>
+        <v>4210198168</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -6009,7 +6009,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>4210720296</v>
+        <v>4210234367</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -6021,7 +6021,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>4210843009</v>
+        <v>4210344951</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -6033,7 +6033,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>4210945949</v>
+        <v>4210391139</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -6045,7 +6045,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>4210953010</v>
+        <v>4210393571</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -6057,7 +6057,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>4210204827</v>
+        <v>4210533040</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -6069,7 +6069,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>4210563716</v>
+        <v>4210558291</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -6081,7 +6081,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>4210224238</v>
+        <v>4210606361</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -6093,7 +6093,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>4210398396</v>
+        <v>4210635825</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -6105,7 +6105,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>4210190103</v>
+        <v>4210720296</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -6117,7 +6117,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>4210298487</v>
+        <v>4210843009</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -6129,7 +6129,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>4210479488</v>
+        <v>4210945949</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -6141,7 +6141,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>4210566641</v>
+        <v>4210953010</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -6153,7 +6153,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>4210811229</v>
+        <v>4210204827</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -6165,7 +6165,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>4210213587</v>
+        <v>4210563716</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -6177,7 +6177,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>4210600446</v>
+        <v>4210224238</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -6189,7 +6189,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>4210214048</v>
+        <v>4210398396</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -6201,7 +6201,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>4210853920</v>
+        <v>4210190103</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -6213,7 +6213,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>4210317095</v>
+        <v>4210298487</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -6225,7 +6225,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>4210180848</v>
+        <v>4210479488</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -6237,7 +6237,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>4210292583</v>
+        <v>4210566641</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -6249,7 +6249,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>4210341768</v>
+        <v>4210811229</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -6261,7 +6261,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>4210402956</v>
+        <v>4210213587</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -6273,7 +6273,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>4210447996</v>
+        <v>4210600446</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -6285,7 +6285,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>4210496749</v>
+        <v>4211151623</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -6297,7 +6297,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>4210501502</v>
+        <v>4210214048</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -6309,7 +6309,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>4210534997</v>
+        <v>4210853920</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -6321,7 +6321,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>4210639556</v>
+        <v>4210317095</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -6333,7 +6333,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>4210723948</v>
+        <v>4210180848</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -6345,7 +6345,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>4211105440</v>
+        <v>4210292583</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -6357,7 +6357,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>4211162899</v>
+        <v>4210341768</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
@@ -6369,7 +6369,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>4211074617</v>
+        <v>4210394741</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -6381,7 +6381,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>4210754698</v>
+        <v>4210402956</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
@@ -6393,7 +6393,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>4210926050</v>
+        <v>4210447996</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -6405,7 +6405,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>4210370471</v>
+        <v>4210496749</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -6417,7 +6417,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>4210806413</v>
+        <v>4210501502</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -6429,7 +6429,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>4210522771</v>
+        <v>4210534997</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -6441,7 +6441,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>4210542091</v>
+        <v>4210639556</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -6453,7 +6453,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>4210222026</v>
+        <v>4210723948</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -6465,7 +6465,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>4210313376</v>
+        <v>4211105440</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -6477,7 +6477,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>4210893674</v>
+        <v>4211162899</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -6489,7 +6489,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>4210994527</v>
+        <v>4211074617</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -6501,7 +6501,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>4211047565</v>
+        <v>4210754698</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -6513,7 +6513,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>4210260173</v>
+        <v>4210926050</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -6525,7 +6525,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>4210646191</v>
+        <v>4210370471</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
@@ -6537,7 +6537,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>4210921361</v>
+        <v>4210806413</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -6549,7 +6549,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>4210033127</v>
+        <v>4210522771</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -6561,7 +6561,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>4210072674</v>
+        <v>4210542091</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -6573,7 +6573,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>4210586606</v>
+        <v>4210222026</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
@@ -6585,7 +6585,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>4210482370</v>
+        <v>4210313376</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>4210167551</v>
+        <v>4210893674</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -6609,7 +6609,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>4210673655</v>
+        <v>4210994527</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -6621,7 +6621,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>4210221322</v>
+        <v>4211047565</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -6633,7 +6633,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>4210753622</v>
+        <v>4210260173</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -6645,7 +6645,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>4210482629</v>
+        <v>4210646191</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
@@ -6657,7 +6657,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>4210843672</v>
+        <v>4210921361</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -6669,7 +6669,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>4210523147</v>
+        <v>4210033127</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -6681,7 +6681,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>4211060527</v>
+        <v>4210072674</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -6693,7 +6693,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>4210424698</v>
+        <v>4210586606</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
@@ -6705,7 +6705,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>4210406049</v>
+        <v>4210482370</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -6717,7 +6717,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>4210639267</v>
+        <v>4210167551</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
@@ -6729,7 +6729,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>4210345052</v>
+        <v>4210673655</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -6741,7 +6741,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>4210712809</v>
+        <v>4210221322</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
@@ -6753,7 +6753,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>4210598540</v>
+        <v>4210753622</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -6765,7 +6765,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>4210121891</v>
+        <v>4210482629</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
@@ -6777,7 +6777,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>4210385056</v>
+        <v>4210843672</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -6789,7 +6789,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>4210893730</v>
+        <v>4210523147</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
@@ -6801,7 +6801,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>4210535673</v>
+        <v>4211060527</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -6813,7 +6813,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>4210500818</v>
+        <v>4210424698</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -6825,7 +6825,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>4210003521</v>
+        <v>4210406049</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -6837,7 +6837,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>4210062548</v>
+        <v>4210639267</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
@@ -6849,7 +6849,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>4210124089</v>
+        <v>4210345052</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
@@ -6861,7 +6861,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>4210124562</v>
+        <v>4210712809</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
@@ -6873,7 +6873,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>4210133586</v>
+        <v>4210598540</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
@@ -6885,7 +6885,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>4210171441</v>
+        <v>4210121891</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -6897,7 +6897,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>4210188218</v>
+        <v>4210385056</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
@@ -6909,7 +6909,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>4210198930</v>
+        <v>4210893730</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
@@ -6921,7 +6921,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>4210248451</v>
+        <v>4210535673</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
@@ -6933,7 +6933,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>4210272828</v>
+        <v>4210500818</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
@@ -6945,7 +6945,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>4210303761</v>
+        <v>4210003521</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -6957,7 +6957,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>4210320285</v>
+        <v>4210062548</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -6969,7 +6969,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>4210389070</v>
+        <v>4210124089</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -6981,7 +6981,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>4210396939</v>
+        <v>4210124562</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>4210399687</v>
+        <v>4210133586</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -7005,7 +7005,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>4210403019</v>
+        <v>4210171441</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -7017,7 +7017,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>4210415044</v>
+        <v>4210188218</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -7029,7 +7029,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>4210420096</v>
+        <v>4210198930</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
@@ -7041,7 +7041,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>4210435420</v>
+        <v>4210248451</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
@@ -7053,7 +7053,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>4210559074</v>
+        <v>4210272828</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
@@ -7065,7 +7065,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>4210562814</v>
+        <v>4210303761</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -7077,7 +7077,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>4210597778</v>
+        <v>4210320285</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
@@ -7089,7 +7089,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>4210632710</v>
+        <v>4210336732</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
@@ -7101,7 +7101,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>4210633465</v>
+        <v>4210389070</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -7113,7 +7113,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>4210645803</v>
+        <v>4210396939</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
@@ -7125,7 +7125,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>4210690272</v>
+        <v>4210399687</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
@@ -7137,7 +7137,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>4210695149</v>
+        <v>4210403019</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
@@ -7149,7 +7149,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>4210706422</v>
+        <v>4210415044</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -7161,7 +7161,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>4210805925</v>
+        <v>4210420096</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
@@ -7173,7 +7173,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>4210830351</v>
+        <v>4210435420</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
@@ -7185,7 +7185,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>4210878489</v>
+        <v>4210559074</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>2</v>
@@ -7197,7 +7197,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>4210885456</v>
+        <v>4210562814</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>2</v>
@@ -7209,7 +7209,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>4210920767</v>
+        <v>4210597778</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>2</v>
@@ -7221,7 +7221,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>4210955715</v>
+        <v>4210632710</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
@@ -7233,7 +7233,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>4210967793</v>
+        <v>4210633465</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
@@ -7245,7 +7245,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>4211116641</v>
+        <v>4210645803</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>2</v>
@@ -7257,7 +7257,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>4211143631</v>
+        <v>4210690272</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
@@ -7269,7 +7269,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>4210665237</v>
+        <v>4210695149</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
@@ -7281,7 +7281,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>4210057744</v>
+        <v>4210706422</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>2</v>
@@ -7293,7 +7293,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>4210679738</v>
+        <v>4210805925</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>2</v>
@@ -7305,7 +7305,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>4211060486</v>
+        <v>4210830351</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>2</v>
@@ -7317,7 +7317,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>4211131368</v>
+        <v>4210878489</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>2</v>
@@ -7329,7 +7329,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>4210208750</v>
+        <v>4210885456</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>2</v>
@@ -7341,7 +7341,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>4210586900</v>
+        <v>4210920767</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>2</v>
@@ -7353,7 +7353,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>4210433177</v>
+        <v>4210955715</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>2</v>
@@ -7365,7 +7365,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>4210911313</v>
+        <v>4210967793</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>2</v>
@@ -7377,7 +7377,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>4210745675</v>
+        <v>4211116641</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>2</v>
@@ -7389,7 +7389,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>4211122411</v>
+        <v>4211143631</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>2</v>
@@ -7401,7 +7401,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>4210855921</v>
+        <v>4210665237</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>2</v>
@@ -7413,7 +7413,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>4210009062</v>
+        <v>4210057744</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>2</v>
@@ -7425,7 +7425,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>4210648248</v>
+        <v>4210679738</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
@@ -7437,7 +7437,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>4210356297</v>
+        <v>4211060486</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>2</v>
@@ -7449,7 +7449,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>4210086596</v>
+        <v>4211131368</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
@@ -7461,7 +7461,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>4210411973</v>
+        <v>4210208750</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>2</v>
@@ -7473,7 +7473,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>4210273020</v>
+        <v>4210586900</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>2</v>
@@ -7485,7 +7485,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>4210264695</v>
+        <v>4210433177</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
@@ -7497,7 +7497,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>4210930375</v>
+        <v>4210911313</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>2</v>
@@ -7509,7 +7509,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>4210242756</v>
+        <v>4210745675</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>2</v>
@@ -7521,7 +7521,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>4210084552</v>
+        <v>4211122411</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
@@ -7533,7 +7533,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>4210278245</v>
+        <v>4210855921</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>2</v>
@@ -7545,7 +7545,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>4210405200</v>
+        <v>4210009062</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>2</v>
@@ -7557,7 +7557,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>4210502557</v>
+        <v>4210648248</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>2</v>
@@ -7569,7 +7569,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>4210509447</v>
+        <v>4210356297</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>2</v>
@@ -7581,7 +7581,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>4210588954</v>
+        <v>4210086596</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>2</v>
@@ -7593,7 +7593,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>4210735578</v>
+        <v>4210411973</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>2</v>
@@ -7605,7 +7605,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>4210921232</v>
+        <v>4210273020</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>2</v>
@@ -7617,7 +7617,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>4210973302</v>
+        <v>4210264695</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
@@ -7629,7 +7629,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>4211069287</v>
+        <v>4210930375</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>2</v>
@@ -7641,7 +7641,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>4211096801</v>
+        <v>4210242756</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
@@ -7653,7 +7653,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>4211189006</v>
+        <v>4210084552</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>2</v>
@@ -7665,7 +7665,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>4211014355</v>
+        <v>4210253167</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>2</v>
@@ -7677,7 +7677,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>4210122458</v>
+        <v>4210278245</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>2</v>
@@ -7689,7 +7689,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>4210621591</v>
+        <v>4210405200</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>2</v>
@@ -7701,7 +7701,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>4210474468</v>
+        <v>4210502557</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>2</v>
@@ -7713,7 +7713,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>4210392055</v>
+        <v>4210509447</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>2</v>
@@ -7725,7 +7725,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>4210144557</v>
+        <v>4210588954</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
@@ -7737,7 +7737,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>4210806396</v>
+        <v>4210690402</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
@@ -7749,7 +7749,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>4210059000</v>
+        <v>4210735578</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
@@ -7761,7 +7761,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>4211050835</v>
+        <v>4210921232</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
@@ -7773,7 +7773,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>4210941334</v>
+        <v>4210973302</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
@@ -7785,7 +7785,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>4210073431</v>
+        <v>4211069287</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
@@ -7797,7 +7797,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>4210222465</v>
+        <v>4211096801</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
@@ -7809,7 +7809,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>4210321387</v>
+        <v>4211189006</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
@@ -7821,7 +7821,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>4210322119</v>
+        <v>4211014355</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
@@ -7833,7 +7833,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>4210613705</v>
+        <v>4210122458</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
@@ -7845,7 +7845,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>4210640185</v>
+        <v>4210621591</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
@@ -7857,7 +7857,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>4210734425</v>
+        <v>4210474468</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
@@ -7869,7 +7869,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>4211183842</v>
+        <v>4210392055</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
@@ -7881,7 +7881,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>4211190937</v>
+        <v>4210144557</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
@@ -7893,7 +7893,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>4210264951</v>
+        <v>4210806396</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
@@ -7905,7 +7905,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>4210229661</v>
+        <v>4210059000</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>4210815491</v>
+        <v>4211050835</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
@@ -7929,7 +7929,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>4210842072</v>
+        <v>4210941334</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>2</v>
@@ -7941,7 +7941,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>4210497292</v>
+        <v>4210073431</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>2</v>
@@ -7953,7 +7953,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>4210984821</v>
+        <v>4210222465</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>2</v>
@@ -7965,7 +7965,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>4210185227</v>
+        <v>4210321387</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>2</v>
@@ -7977,7 +7977,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>4210151586</v>
+        <v>4210322119</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>2</v>
@@ -7989,7 +7989,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>4211014966</v>
+        <v>4210613705</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>2</v>
@@ -8001,7 +8001,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>4211039341</v>
+        <v>4210640185</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>2</v>
@@ -8013,7 +8013,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1">
-        <v>4210012567</v>
+        <v>4210734425</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>2</v>
@@ -8025,7 +8025,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>4210128315</v>
+        <v>4211183842</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>2</v>
@@ -8037,7 +8037,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>4210195896</v>
+        <v>4211190937</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>2</v>
@@ -8049,7 +8049,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>4210201732</v>
+        <v>4210264951</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>2</v>
@@ -8061,7 +8061,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>4210267013</v>
+        <v>4210229661</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>2</v>
@@ -8073,7 +8073,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>4210385160</v>
+        <v>4210815491</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>2</v>
@@ -8085,7 +8085,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>4210399589</v>
+        <v>4210842072</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>2</v>
@@ -8097,7 +8097,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>4210435801</v>
+        <v>4210497292</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>2</v>
@@ -8109,7 +8109,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1">
-        <v>4210457607</v>
+        <v>4210984821</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>2</v>
@@ -8121,7 +8121,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1">
-        <v>4210518577</v>
+        <v>4210185227</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>2</v>
@@ -8133,7 +8133,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1">
-        <v>4210521692</v>
+        <v>4210151586</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>2</v>
@@ -8145,7 +8145,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1">
-        <v>4210875091</v>
+        <v>4211014966</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>2</v>
@@ -8157,7 +8157,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>4211117196</v>
+        <v>4211039341</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>2</v>
@@ -8169,7 +8169,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>4210199520</v>
+        <v>4210012567</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>2</v>
@@ -8181,7 +8181,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>4211054741</v>
+        <v>4210128315</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>2</v>
@@ -8193,7 +8193,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>4210354861</v>
+        <v>4210195896</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>2</v>
@@ -8205,7 +8205,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>4210461415</v>
+        <v>4210201732</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>2</v>
@@ -8217,7 +8217,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>4210105758</v>
+        <v>4210267013</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>2</v>
@@ -8229,7 +8229,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>4210115421</v>
+        <v>4210385160</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>2</v>
@@ -8241,7 +8241,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>4210354387</v>
+        <v>4210399589</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>2</v>
@@ -8253,7 +8253,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>4210358137</v>
+        <v>4210435801</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>2</v>
@@ -8265,7 +8265,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>4210386755</v>
+        <v>4210457607</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>2</v>
@@ -8277,7 +8277,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>4210043894</v>
+        <v>4210518577</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>2</v>
@@ -8289,7 +8289,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>4210122182</v>
+        <v>4210521692</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
@@ -8301,7 +8301,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>4210141517</v>
+        <v>4210875091</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>2</v>
@@ -8313,7 +8313,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>4210142349</v>
+        <v>4211117196</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>2</v>
@@ -8325,7 +8325,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>4210383149</v>
+        <v>4211129438</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>2</v>
@@ -8337,7 +8337,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>4210424900</v>
+        <v>4210199520</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>2</v>
@@ -8349,7 +8349,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>4210622386</v>
+        <v>4211054741</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -8361,7 +8361,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>4210769887</v>
+        <v>4210354861</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>2</v>
@@ -8373,7 +8373,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>4211157478</v>
+        <v>4210967965</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>2</v>
@@ -8385,7 +8385,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>4210897066</v>
+        <v>4210461415</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>2</v>
@@ -8397,7 +8397,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>4210117447</v>
+        <v>4210105758</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>2</v>
@@ -8409,7 +8409,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>4210151088</v>
+        <v>4210115421</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>2</v>
@@ -8421,7 +8421,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1">
-        <v>4210392364</v>
+        <v>4210354387</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>2</v>
@@ -8433,7 +8433,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1">
-        <v>4210462732</v>
+        <v>4210358137</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>2</v>
@@ -8445,7 +8445,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1">
-        <v>4210942167</v>
+        <v>4210386755</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>2</v>
@@ -8457,7 +8457,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1">
-        <v>4210176463</v>
+        <v>4210714398</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
@@ -8469,7 +8469,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1">
-        <v>4210047154</v>
+        <v>4210043894</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
@@ -8481,7 +8481,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1">
-        <v>4210433787</v>
+        <v>4210122182</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>2</v>
@@ -8493,7 +8493,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1">
-        <v>4210182855</v>
+        <v>4210141517</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>2</v>
@@ -8505,7 +8505,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1">
-        <v>4210450687</v>
+        <v>4210142349</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>2</v>
@@ -8517,7 +8517,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1">
-        <v>4210922651</v>
+        <v>4210383149</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
@@ -8529,7 +8529,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1">
-        <v>4210072470</v>
+        <v>4210424900</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
@@ -8541,7 +8541,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>4210155613</v>
+        <v>4210622386</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>2</v>
@@ -8553,7 +8553,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>4210167563</v>
+        <v>4210769887</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>2</v>
@@ -8565,7 +8565,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>4210183865</v>
+        <v>4211157478</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>2</v>
@@ -8577,7 +8577,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>4210194296</v>
+        <v>4210897066</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
@@ -8589,7 +8589,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1">
-        <v>4210255777</v>
+        <v>4210117447</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>2</v>
@@ -8601,7 +8601,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1">
-        <v>4210357001</v>
+        <v>4210151088</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>2</v>
@@ -8613,7 +8613,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1">
-        <v>4210452807</v>
+        <v>4210392364</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>2</v>
@@ -8625,7 +8625,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1">
-        <v>4210523627</v>
+        <v>4210462732</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
@@ -8637,7 +8637,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1">
-        <v>4210703688</v>
+        <v>4210942167</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>2</v>
@@ -8649,7 +8649,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1">
-        <v>4210740039</v>
+        <v>4210176463</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
@@ -8661,7 +8661,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1">
-        <v>4210762861</v>
+        <v>4211024353</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>2</v>
@@ -8673,7 +8673,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1">
-        <v>4210992519</v>
+        <v>4210047154</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
@@ -8685,7 +8685,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1">
-        <v>4211081285</v>
+        <v>4210433787</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>2</v>
@@ -8697,7 +8697,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1">
-        <v>4211123262</v>
+        <v>4210182855</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>2</v>
@@ -8709,7 +8709,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1">
-        <v>4210644077</v>
+        <v>4210450687</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>2</v>
@@ -8721,7 +8721,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1">
-        <v>4210257649</v>
+        <v>4210922651</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>2</v>
@@ -8733,7 +8733,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1">
-        <v>4210402143</v>
+        <v>4210072470</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>2</v>
@@ -8745,7 +8745,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1">
-        <v>4210523156</v>
+        <v>4210155613</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>2</v>
@@ -8757,7 +8757,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1">
-        <v>4210823515</v>
+        <v>4210167563</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>2</v>
@@ -8769,7 +8769,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1">
-        <v>4210115162</v>
+        <v>4210183865</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>2</v>
@@ -8781,7 +8781,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1">
-        <v>4210368642</v>
+        <v>4210194296</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>2</v>
@@ -8793,7 +8793,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1">
-        <v>4210079772</v>
+        <v>4210255777</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>2</v>
@@ -8805,7 +8805,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1">
-        <v>4210132442</v>
+        <v>4210357001</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
@@ -8817,7 +8817,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1">
-        <v>4210166153</v>
+        <v>4210452807</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>2</v>
@@ -8829,7 +8829,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1">
-        <v>4210184555</v>
+        <v>4210523627</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>2</v>
@@ -8841,7 +8841,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1">
-        <v>4210236370</v>
+        <v>4210703688</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>2</v>
@@ -8853,7 +8853,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1">
-        <v>4210671328</v>
+        <v>4210711324</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
@@ -8865,7 +8865,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1">
-        <v>4210764690</v>
+        <v>4210740039</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
@@ -8877,7 +8877,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1">
-        <v>4210830444</v>
+        <v>4210762861</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
@@ -8889,7 +8889,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1">
-        <v>4211047440</v>
+        <v>4210992519</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>2</v>
@@ -8901,7 +8901,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1">
-        <v>4210691393</v>
+        <v>4211081285</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>2</v>
@@ -8913,7 +8913,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1">
-        <v>4210986456</v>
+        <v>4211123262</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>2</v>
@@ -8925,7 +8925,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1">
-        <v>4210701833</v>
+        <v>4210644077</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>2</v>
@@ -8937,7 +8937,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1">
-        <v>4210891162</v>
+        <v>4210257649</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>2</v>
@@ -8949,7 +8949,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1">
-        <v>4210685145</v>
+        <v>4210402143</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>2</v>
@@ -8961,7 +8961,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1">
-        <v>4210110664</v>
+        <v>4210523156</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>2</v>
@@ -8973,7 +8973,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1">
-        <v>4210179613</v>
+        <v>4210823515</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>2</v>
@@ -8985,7 +8985,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1">
-        <v>4210230359</v>
+        <v>4210115162</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>2</v>
@@ -8997,7 +8997,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1">
-        <v>4210321845</v>
+        <v>4210368642</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>2</v>
@@ -9009,7 +9009,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1">
-        <v>4210347256</v>
+        <v>4210079772</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
@@ -9021,7 +9021,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1">
-        <v>4210420336</v>
+        <v>4210132442</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>2</v>
@@ -9033,7 +9033,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1">
-        <v>4210671598</v>
+        <v>4210166153</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>2</v>
@@ -9045,7 +9045,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1">
-        <v>4210841954</v>
+        <v>4210184555</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>2</v>
@@ -9057,7 +9057,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1">
-        <v>4210697216</v>
+        <v>4210236370</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>2</v>
@@ -9069,7 +9069,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1">
-        <v>4210851034</v>
+        <v>4210671328</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
@@ -9081,7 +9081,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1">
-        <v>4211039879</v>
+        <v>4210764690</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>2</v>
@@ -9093,7 +9093,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1">
-        <v>4210440787</v>
+        <v>4210830444</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>2</v>
@@ -9105,7 +9105,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1">
-        <v>4210396117</v>
+        <v>4211047440</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>2</v>
@@ -9117,7 +9117,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1">
-        <v>4210209432</v>
+        <v>4210691393</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>2</v>
@@ -9129,7 +9129,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1">
-        <v>4210020577</v>
+        <v>4210986456</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>2</v>
@@ -9141,7 +9141,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1">
-        <v>4210050876</v>
+        <v>4210701833</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>2</v>
@@ -9153,7 +9153,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1">
-        <v>4210178048</v>
+        <v>4211121228</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>2</v>
@@ -9165,7 +9165,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1">
-        <v>4210183791</v>
+        <v>4210891162</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>2</v>
@@ -9177,7 +9177,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1">
-        <v>4210341601</v>
+        <v>4210685145</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>2</v>
@@ -9189,7 +9189,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1">
-        <v>4210370018</v>
+        <v>4210110664</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>2</v>
@@ -9201,7 +9201,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1">
-        <v>4210377269</v>
+        <v>4210179613</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
@@ -9213,7 +9213,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1">
-        <v>4210384491</v>
+        <v>4210230359</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>2</v>
@@ -9225,7 +9225,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1">
-        <v>4210484114</v>
+        <v>4210321845</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
@@ -9237,7 +9237,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1">
-        <v>4210573384</v>
+        <v>4210347256</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>2</v>
@@ -9249,7 +9249,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1">
-        <v>4211003079</v>
+        <v>4210420336</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>2</v>
@@ -9261,7 +9261,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1">
-        <v>4210652631</v>
+        <v>4210438071</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>2</v>
@@ -9273,7 +9273,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1">
-        <v>4210752028</v>
+        <v>4210671598</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
@@ -9285,7 +9285,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1">
-        <v>4210282624</v>
+        <v>4210815668</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>2</v>
@@ -9297,7 +9297,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1">
-        <v>4210182500</v>
+        <v>4210841954</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>2</v>
@@ -9309,7 +9309,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1">
-        <v>4210780191</v>
+        <v>4210697216</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>2</v>
@@ -9321,7 +9321,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1">
-        <v>4210537453</v>
+        <v>4210851034</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>2</v>
@@ -9333,7 +9333,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1">
-        <v>4210223261</v>
+        <v>4211039879</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>2</v>
@@ -9345,7 +9345,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1">
-        <v>4210261027</v>
+        <v>4210440787</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>2</v>
@@ -9357,7 +9357,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1">
-        <v>4210329350</v>
+        <v>4210396117</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>2</v>
@@ -9369,7 +9369,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1">
-        <v>4210438000</v>
+        <v>4210209432</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>2</v>
@@ -9381,7 +9381,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1">
-        <v>4210444262</v>
+        <v>4210020577</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>2</v>
@@ -9393,7 +9393,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1">
-        <v>4211121745</v>
+        <v>4210050876</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>2</v>
@@ -9405,7 +9405,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1">
-        <v>4210256197</v>
+        <v>4210178048</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>2</v>
@@ -9417,7 +9417,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1">
-        <v>4210837418</v>
+        <v>4210183791</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>2</v>
@@ -9429,7 +9429,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1">
-        <v>4210283620</v>
+        <v>4210341601</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>2</v>
@@ -9441,7 +9441,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1">
-        <v>4210928075</v>
+        <v>4210370018</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>2</v>
@@ -9453,7 +9453,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1">
-        <v>4210005081</v>
+        <v>4210377269</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>2</v>
@@ -9465,7 +9465,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1">
-        <v>4210212879</v>
+        <v>4210384491</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>2</v>
@@ -9477,7 +9477,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1">
-        <v>4210532302</v>
+        <v>4210484114</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>2</v>
@@ -9489,7 +9489,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1">
-        <v>4210489208</v>
+        <v>4210573384</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>2</v>
@@ -9501,7 +9501,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1">
-        <v>4210716858</v>
+        <v>4211003079</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>2</v>
@@ -9513,7 +9513,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1">
-        <v>4210065219</v>
+        <v>4210652631</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>2</v>
@@ -9525,7 +9525,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1">
-        <v>4210941041</v>
+        <v>4210752028</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>2</v>
@@ -9537,7 +9537,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1">
-        <v>4210534515</v>
+        <v>4210282624</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>2</v>
@@ -9549,7 +9549,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1">
-        <v>4210377665</v>
+        <v>4210182500</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>2</v>
@@ -9561,7 +9561,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1">
-        <v>4210500697</v>
+        <v>4210780191</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>2</v>
@@ -9573,7 +9573,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1">
-        <v>4210646048</v>
+        <v>4210537453</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>2</v>
@@ -9585,7 +9585,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1">
-        <v>4210113372</v>
+        <v>4210223261</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>2</v>
@@ -9597,7 +9597,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1">
-        <v>4210145794</v>
+        <v>4210261027</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>2</v>
@@ -9609,7 +9609,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1">
-        <v>4210213661</v>
+        <v>4210329350</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>2</v>
@@ -9621,7 +9621,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1">
-        <v>4210598087</v>
+        <v>4210438000</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>2</v>
@@ -9633,7 +9633,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1">
-        <v>4210610217</v>
+        <v>4210444262</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>2</v>
@@ -9645,7 +9645,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1">
-        <v>4210646368</v>
+        <v>4211121745</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>2</v>
@@ -9657,7 +9657,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1">
-        <v>4210689234</v>
+        <v>4210256197</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>2</v>
@@ -9669,7 +9669,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1">
-        <v>4210936777</v>
+        <v>4210837418</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>2</v>
@@ -9681,7 +9681,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1">
-        <v>4210596404</v>
+        <v>4210283620</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>2</v>
@@ -9693,7 +9693,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1">
-        <v>4211119160</v>
+        <v>4210928075</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>2</v>
@@ -9705,7 +9705,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1">
-        <v>4210533998</v>
+        <v>4210005081</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>2</v>
@@ -9717,7 +9717,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1">
-        <v>4210368640</v>
+        <v>4210212879</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>2</v>
@@ -9729,7 +9729,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1">
-        <v>4210952808</v>
+        <v>4210431823</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>2</v>
@@ -9741,7 +9741,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1">
-        <v>4210093802</v>
+        <v>4210532302</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>2</v>
@@ -9753,7 +9753,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1">
-        <v>4210162326</v>
+        <v>4210489208</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>2</v>
@@ -9765,7 +9765,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1">
-        <v>4210386449</v>
+        <v>4210716858</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>2</v>
@@ -9777,7 +9777,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1">
-        <v>4210514973</v>
+        <v>4210065219</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>2</v>
@@ -9789,7 +9789,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1">
-        <v>4210539791</v>
+        <v>4210941041</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>2</v>
@@ -9801,7 +9801,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1">
-        <v>4210605310</v>
+        <v>4210534515</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>2</v>
@@ -9813,7 +9813,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1">
-        <v>4210655536</v>
+        <v>4210377665</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>2</v>
@@ -9825,7 +9825,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1">
-        <v>4210803979</v>
+        <v>4210500697</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>2</v>
@@ -9837,7 +9837,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1">
-        <v>4210415570</v>
+        <v>4210646048</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>2</v>
@@ -9849,7 +9849,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1">
-        <v>4210033714</v>
+        <v>4210113372</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>2</v>
@@ -9861,7 +9861,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1">
-        <v>4210698032</v>
+        <v>4210145794</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>2</v>
@@ -9873,7 +9873,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1">
-        <v>4211121133</v>
+        <v>4210213661</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>2</v>
@@ -9885,7 +9885,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1">
-        <v>4210024291</v>
+        <v>4210366648</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>2</v>
@@ -9897,7 +9897,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1">
-        <v>4210140346</v>
+        <v>4210598087</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>2</v>
@@ -9909,7 +9909,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="1">
-        <v>4210296631</v>
+        <v>4210610217</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>2</v>
@@ -9921,7 +9921,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="1">
-        <v>4210406475</v>
+        <v>4210646368</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>2</v>
@@ -9933,7 +9933,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1">
-        <v>4210506018</v>
+        <v>4210689234</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>2</v>
@@ -9945,7 +9945,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1">
-        <v>4210592061</v>
+        <v>4210936777</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>2</v>
@@ -9957,7 +9957,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1">
-        <v>4210956722</v>
+        <v>4210596404</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>2</v>
@@ -9969,7 +9969,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1">
-        <v>4210774231</v>
+        <v>4211119160</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>2</v>
@@ -9981,7 +9981,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1">
-        <v>4211032450</v>
+        <v>4210533998</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>2</v>
@@ -9993,7 +9993,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="1">
-        <v>4210174856</v>
+        <v>4210368640</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>2</v>
@@ -10005,7 +10005,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1">
-        <v>4210248902</v>
+        <v>4210952808</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>2</v>
@@ -10017,7 +10017,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="1">
-        <v>4210619540</v>
+        <v>4210093802</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>2</v>
@@ -10029,7 +10029,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="1">
-        <v>4210608974</v>
+        <v>4210162326</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>2</v>
@@ -10041,7 +10041,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="1">
-        <v>4210301184</v>
+        <v>4210386449</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>2</v>
@@ -10053,7 +10053,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="1">
-        <v>4210939937</v>
+        <v>4210514973</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>2</v>
@@ -10065,7 +10065,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="1">
-        <v>4210250290</v>
+        <v>4210539791</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>2</v>
@@ -10077,7 +10077,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1">
-        <v>4210662861</v>
+        <v>4210605310</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>2</v>
@@ -10089,7 +10089,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="1">
-        <v>4210155525</v>
+        <v>4210655536</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>2</v>
@@ -10101,7 +10101,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="1">
-        <v>4210414276</v>
+        <v>4210803979</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>2</v>
@@ -10113,7 +10113,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="1">
-        <v>4210851640</v>
+        <v>4210415570</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>2</v>
@@ -10125,7 +10125,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="1">
-        <v>4210632010</v>
+        <v>4210033714</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>2</v>
@@ -10137,7 +10137,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="1">
-        <v>4210396336</v>
+        <v>4210698032</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>2</v>
@@ -10149,7 +10149,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="1">
-        <v>4210691687</v>
+        <v>4211121133</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>2</v>
@@ -10161,7 +10161,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="1">
-        <v>4211090225</v>
+        <v>4210024291</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>2</v>
@@ -10173,7 +10173,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1">
-        <v>4210098148</v>
+        <v>4210140346</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>2</v>
@@ -10185,7 +10185,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1">
-        <v>4210885374</v>
+        <v>4210296631</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>2</v>
@@ -10197,7 +10197,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1">
-        <v>4210128706</v>
+        <v>4210406475</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>2</v>
@@ -10209,7 +10209,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="1">
-        <v>4210429692</v>
+        <v>4210506018</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>2</v>
@@ -10221,7 +10221,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="1">
-        <v>4210457601</v>
+        <v>4210592061</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>2</v>
@@ -10233,7 +10233,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="1">
-        <v>4210487716</v>
+        <v>4210956722</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>2</v>
@@ -10245,7 +10245,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="1">
-        <v>4210491196</v>
+        <v>4210774231</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>2</v>
@@ -10257,7 +10257,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="1">
-        <v>4210525608</v>
+        <v>4211032450</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>2</v>
@@ -10269,7 +10269,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="1">
-        <v>4210697405</v>
+        <v>4210174856</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>2</v>
@@ -10281,7 +10281,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="1">
-        <v>4210871317</v>
+        <v>4210248902</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>2</v>
@@ -10293,7 +10293,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="1">
-        <v>4210831022</v>
+        <v>4210619540</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>2</v>
@@ -10305,7 +10305,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="1">
-        <v>4210478093</v>
+        <v>4210608974</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>2</v>
@@ -10317,7 +10317,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="1">
-        <v>4210623671</v>
+        <v>4210301184</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>2</v>
@@ -10329,7 +10329,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="1">
-        <v>4210379066</v>
+        <v>4210939937</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>2</v>
@@ -10341,7 +10341,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="1">
-        <v>4210539266</v>
+        <v>4210539165</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>2</v>
@@ -10353,7 +10353,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="1">
-        <v>4210198794</v>
+        <v>4210250290</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>2</v>
@@ -10365,7 +10365,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="1">
-        <v>4210200416</v>
+        <v>4210662861</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>2</v>
@@ -10377,7 +10377,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="1">
-        <v>4210211263</v>
+        <v>4210155525</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>2</v>
@@ -10389,7 +10389,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="1">
-        <v>4210333855</v>
+        <v>4210414276</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>2</v>
@@ -10401,7 +10401,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="1">
-        <v>4210427538</v>
+        <v>4210851640</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>2</v>
@@ -10413,7 +10413,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="1">
-        <v>4210497116</v>
+        <v>4210632010</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>2</v>
@@ -10425,7 +10425,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="1">
-        <v>4210610622</v>
+        <v>4210396336</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>2</v>
@@ -10437,7 +10437,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="1">
-        <v>4210789652</v>
+        <v>4210691687</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>2</v>
@@ -10449,7 +10449,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="1">
-        <v>4210862040</v>
+        <v>4210451754</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>2</v>
@@ -10461,7 +10461,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="1">
-        <v>4210841799</v>
+        <v>4211090225</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>2</v>
@@ -10473,7 +10473,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="1">
-        <v>4210009943</v>
+        <v>4210098148</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>2</v>
@@ -10485,7 +10485,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="1">
-        <v>4210707172</v>
+        <v>4210885374</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>2</v>
@@ -10497,7 +10497,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="1">
-        <v>4210003908</v>
+        <v>4210128706</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>2</v>
@@ -10509,7 +10509,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="1">
-        <v>4210405234</v>
+        <v>4210429692</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>2</v>
@@ -10521,7 +10521,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="1">
-        <v>4210113485</v>
+        <v>4210457601</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>2</v>
@@ -10533,7 +10533,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="1">
-        <v>4210185045</v>
+        <v>4210487716</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>2</v>
@@ -10545,7 +10545,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="1">
-        <v>4210061222</v>
+        <v>4210491196</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>2</v>
@@ -10557,7 +10557,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="1">
-        <v>4210239886</v>
+        <v>4210525608</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>2</v>
@@ -10569,7 +10569,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1">
-        <v>4210244610</v>
+        <v>4210697405</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>2</v>
@@ -10581,7 +10581,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="1">
-        <v>4210386471</v>
+        <v>4210871317</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>2</v>
@@ -10593,7 +10593,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="1">
-        <v>4210496119</v>
+        <v>4210831022</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>2</v>
@@ -10605,7 +10605,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="1">
-        <v>4210521327</v>
+        <v>4210478093</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>2</v>
@@ -10617,7 +10617,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="1">
-        <v>4211052917</v>
+        <v>4210623671</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>2</v>
@@ -10629,7 +10629,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="1">
-        <v>4210050280</v>
+        <v>4210379066</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>2</v>
@@ -10641,7 +10641,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="1">
-        <v>4210372229</v>
+        <v>4210539266</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>2</v>
@@ -10653,7 +10653,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="1">
-        <v>4210326134</v>
+        <v>4210198794</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>2</v>
@@ -10665,7 +10665,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1">
-        <v>4210535776</v>
+        <v>4210200416</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>2</v>
@@ -10677,7 +10677,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1">
-        <v>4210359992</v>
+        <v>4210211263</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>2</v>
@@ -10689,7 +10689,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="1">
-        <v>4210380505</v>
+        <v>4210333855</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>2</v>
@@ -10701,7 +10701,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="1">
-        <v>4210415781</v>
+        <v>4210427538</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>2</v>
@@ -10713,7 +10713,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="1">
-        <v>4210502346</v>
+        <v>4210497116</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>2</v>
@@ -10725,7 +10725,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="1">
-        <v>4210609300</v>
+        <v>4210610622</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>2</v>
@@ -10737,7 +10737,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="1">
-        <v>4210737822</v>
+        <v>4210675980</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>2</v>
@@ -10749,7 +10749,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="1">
-        <v>4210920340</v>
+        <v>4210789652</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>2</v>
@@ -10761,7 +10761,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="1">
-        <v>4210114589</v>
+        <v>4210862040</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>2</v>
@@ -10773,7 +10773,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="1">
-        <v>4210273236</v>
+        <v>4210841799</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>2</v>
@@ -10785,7 +10785,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="1">
-        <v>4210270390</v>
+        <v>4210009943</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>2</v>
@@ -10797,7 +10797,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="1">
-        <v>4210161201</v>
+        <v>4210707172</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>2</v>
@@ -10809,7 +10809,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="1">
-        <v>4210185589</v>
+        <v>4210003908</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>2</v>
@@ -10821,7 +10821,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="1">
-        <v>4210229959</v>
+        <v>4210405234</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>2</v>
@@ -10833,7 +10833,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="1">
-        <v>4210236802</v>
+        <v>4210113485</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>2</v>
@@ -10845,7 +10845,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="1">
-        <v>4210323925</v>
+        <v>4210185045</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>2</v>
@@ -10857,7 +10857,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="1">
-        <v>4210342956</v>
+        <v>4210061222</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>2</v>
@@ -10869,7 +10869,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>4210396271</v>
+        <v>4210239886</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>2</v>
@@ -10881,7 +10881,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="1">
-        <v>4210548527</v>
+        <v>4210244610</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>2</v>
@@ -10893,7 +10893,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="1">
-        <v>4211048212</v>
+        <v>4210386471</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>2</v>
@@ -10905,7 +10905,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="1">
-        <v>4210893995</v>
+        <v>4210496119</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>2</v>
@@ -10917,7 +10917,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="1">
-        <v>4210962329</v>
+        <v>4210521327</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>2</v>
@@ -10929,7 +10929,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="1">
-        <v>4210019501</v>
+        <v>4211052917</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>2</v>
@@ -10941,7 +10941,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="1">
-        <v>4210347993</v>
+        <v>4210050280</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>2</v>
@@ -10953,7 +10953,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="2">
-        <v>4210392078</v>
+        <v>4210372229</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>2</v>
@@ -10965,7 +10965,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="1">
-        <v>4210387120</v>
+        <v>4210326134</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>2</v>
@@ -10977,7 +10977,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="1">
-        <v>4210487162</v>
+        <v>4210535776</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>2</v>
@@ -10989,7 +10989,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="1">
-        <v>4210842452</v>
+        <v>4210359992</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>2</v>
@@ -11001,7 +11001,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="1">
-        <v>4210208571</v>
+        <v>4210380505</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>2</v>
@@ -11013,7 +11013,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="1">
-        <v>4210515989</v>
+        <v>4210415781</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>2</v>
@@ -11025,7 +11025,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="1">
-        <v>4210213779</v>
+        <v>4210502346</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>2</v>
@@ -11037,7 +11037,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="1">
-        <v>4210309982</v>
+        <v>4210609300</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>2</v>
@@ -11049,7 +11049,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="1">
-        <v>4210378870</v>
+        <v>4210737822</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>2</v>
@@ -11061,7 +11061,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="1">
-        <v>4210702558</v>
+        <v>4210920340</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>2</v>
@@ -11073,7 +11073,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="1">
-        <v>4210710191</v>
+        <v>4210114589</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>2</v>
@@ -11085,7 +11085,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="1">
-        <v>4210400589</v>
+        <v>4210273236</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>2</v>
@@ -11097,7 +11097,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="1">
-        <v>4210810214</v>
+        <v>4210270390</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>2</v>
@@ -11109,7 +11109,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="1">
-        <v>4210933570</v>
+        <v>4210161201</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>2</v>
@@ -11121,7 +11121,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="1">
-        <v>4211044632</v>
+        <v>4210185589</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>2</v>
@@ -11133,7 +11133,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="1">
-        <v>4210420793</v>
+        <v>4210229959</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>2</v>
@@ -11145,7 +11145,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="1">
-        <v>4210126712</v>
+        <v>4210236802</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>2</v>
@@ -11157,7 +11157,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="1">
-        <v>4210250376</v>
+        <v>4210323925</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>2</v>
@@ -11169,7 +11169,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="1">
-        <v>4210407609</v>
+        <v>4210342956</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>2</v>
@@ -11181,7 +11181,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="1">
-        <v>4210427383</v>
+        <v>4210396271</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>2</v>
@@ -11193,7 +11193,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="1">
-        <v>4210879411</v>
+        <v>4210548527</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>2</v>
@@ -11205,7 +11205,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="1">
-        <v>4211020443</v>
+        <v>4210749428</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>2</v>
@@ -11217,7 +11217,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="1">
-        <v>4210707793</v>
+        <v>4211048212</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>2</v>
@@ -11229,7 +11229,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="1">
-        <v>4210593308</v>
+        <v>4210893995</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>2</v>
@@ -11241,7 +11241,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="1">
-        <v>4210615587</v>
+        <v>4210962329</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>2</v>
@@ -11253,7 +11253,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="1">
-        <v>4210326499</v>
+        <v>4210019501</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>2</v>
@@ -11265,7 +11265,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="1">
-        <v>4210421903</v>
+        <v>4210347993</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>2</v>
@@ -11277,7 +11277,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="1">
-        <v>4210004989</v>
+        <v>4210392078</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>2</v>
@@ -11289,7 +11289,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>4210092501</v>
+        <v>4210387120</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>2</v>
@@ -11301,7 +11301,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="1">
-        <v>4210129193</v>
+        <v>4210487162</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>2</v>
@@ -11313,7 +11313,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="1">
-        <v>4210654402</v>
+        <v>4210842452</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>2</v>
@@ -11325,7 +11325,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="1">
-        <v>4210178645</v>
+        <v>4210208571</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>2</v>
@@ -11337,7 +11337,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="1">
-        <v>4210272357</v>
+        <v>4210515989</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>2</v>
@@ -11349,7 +11349,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="1">
-        <v>4210633293</v>
+        <v>4210213779</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>2</v>
@@ -11361,7 +11361,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="1">
-        <v>4210740672</v>
+        <v>4210309982</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>2</v>
@@ -11373,7 +11373,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="1">
-        <v>4210411957</v>
+        <v>4210378870</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>2</v>
@@ -11385,7 +11385,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="1">
-        <v>4210006329</v>
+        <v>4210702558</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>2</v>
@@ -11397,7 +11397,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="1">
-        <v>4210031752</v>
+        <v>4210710191</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>2</v>
@@ -11409,7 +11409,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="1">
-        <v>4210152113</v>
+        <v>4210400589</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>2</v>
@@ -11421,7 +11421,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="1">
-        <v>4210214619</v>
+        <v>4210695631</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>2</v>
@@ -11433,7 +11433,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="1">
-        <v>4210420791</v>
+        <v>4210810214</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>2</v>
@@ -11445,7 +11445,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="1">
-        <v>4210477209</v>
+        <v>4210933570</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>2</v>
@@ -11457,7 +11457,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="1">
-        <v>4210510176</v>
+        <v>4211044632</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>2</v>
@@ -11469,7 +11469,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="1">
-        <v>4210623479</v>
+        <v>4210420793</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>2</v>
@@ -11481,7 +11481,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="1">
-        <v>4210866906</v>
+        <v>4210126712</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>2</v>
@@ -11493,7 +11493,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="1">
-        <v>4211068812</v>
+        <v>4210250376</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>2</v>
@@ -11505,7 +11505,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="1">
-        <v>4210888119</v>
+        <v>4210407609</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>2</v>
@@ -11517,7 +11517,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="1">
-        <v>4211052476</v>
+        <v>4210427383</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>2</v>
@@ -11529,7 +11529,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="1">
-        <v>4210376988</v>
+        <v>4210879411</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>2</v>
@@ -11541,7 +11541,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="1">
-        <v>4210911353</v>
+        <v>4211020443</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>2</v>
@@ -11553,7 +11553,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="1">
-        <v>4210924322</v>
+        <v>4210707793</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>2</v>
@@ -11565,7 +11565,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="1">
-        <v>4210086965</v>
+        <v>4210593308</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>2</v>
@@ -11577,7 +11577,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="1">
-        <v>4210398274</v>
+        <v>4210615587</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>2</v>
@@ -11589,7 +11589,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="1">
-        <v>4210062240</v>
+        <v>4210326499</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>2</v>
@@ -11601,7 +11601,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="1">
-        <v>4210086103</v>
+        <v>4210421903</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>2</v>
@@ -11613,7 +11613,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="1">
-        <v>4210143635</v>
+        <v>4210004989</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>2</v>
@@ -11625,7 +11625,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="1">
-        <v>4210179047</v>
+        <v>4210092501</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>2</v>
@@ -11637,7 +11637,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="1">
-        <v>4210396790</v>
+        <v>4210129193</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>2</v>
@@ -11649,7 +11649,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="1">
-        <v>4210405046</v>
+        <v>4210654402</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>2</v>
@@ -11661,7 +11661,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="1">
-        <v>4210522831</v>
+        <v>4210178645</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>2</v>
@@ -11673,7 +11673,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="1">
-        <v>4210560300</v>
+        <v>4210272357</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>2</v>
@@ -11685,7 +11685,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="1">
-        <v>4210593590</v>
+        <v>4210633293</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>2</v>
@@ -11697,7 +11697,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="1">
-        <v>4210620984</v>
+        <v>4210740672</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>2</v>
@@ -11709,7 +11709,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="1">
-        <v>4210036943</v>
+        <v>4210411957</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>2</v>
@@ -11721,7 +11721,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="1">
-        <v>4210003083</v>
+        <v>4210006329</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>2</v>
@@ -11733,7 +11733,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="1">
-        <v>4210383539</v>
+        <v>4210031752</v>
       </c>
       <c r="C587" s="1" t="s">
         <v>2</v>
@@ -11745,7 +11745,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="1">
-        <v>4210919520</v>
+        <v>4210152113</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>2</v>
@@ -11757,7 +11757,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="1">
-        <v>4210792288</v>
+        <v>4210214619</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>2</v>
@@ -11769,7 +11769,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="1">
-        <v>4210104513</v>
+        <v>4210280449</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>2</v>
@@ -11781,7 +11781,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="1">
-        <v>4210240115</v>
+        <v>4210420791</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>2</v>
@@ -11793,7 +11793,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="1">
-        <v>4210337882</v>
+        <v>4210477209</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>2</v>
@@ -11805,7 +11805,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="1">
-        <v>4210414207</v>
+        <v>4210510176</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>2</v>
@@ -11817,7 +11817,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="1">
-        <v>4210478764</v>
+        <v>4210623479</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>2</v>
@@ -11829,7 +11829,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="1">
-        <v>4210483345</v>
+        <v>4210866906</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>2</v>
@@ -11841,7 +11841,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="1">
-        <v>4210483959</v>
+        <v>4211068812</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>2</v>
@@ -11853,7 +11853,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="1">
-        <v>4210552779</v>
+        <v>4210888119</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>2</v>
@@ -11865,7 +11865,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="1">
-        <v>4210700049</v>
+        <v>4211052476</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>2</v>
@@ -11877,7 +11877,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="1">
-        <v>4210718468</v>
+        <v>4210376988</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>2</v>
@@ -11889,7 +11889,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="1">
-        <v>4210974262</v>
+        <v>4210911353</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>2</v>
@@ -11901,7 +11901,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="1">
-        <v>4211153726</v>
+        <v>4210924322</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>2</v>
@@ -11913,7 +11913,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="1">
-        <v>4210247519</v>
+        <v>4210086965</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>2</v>
@@ -11925,7 +11925,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="1">
-        <v>4210530221</v>
+        <v>4210398274</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>2</v>
@@ -11937,7 +11937,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="1">
-        <v>4210652133</v>
+        <v>4210062240</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>2</v>
@@ -11949,7 +11949,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="1">
-        <v>4210059502</v>
+        <v>4210086103</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>2</v>
@@ -11961,7 +11961,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="1">
-        <v>4210076436</v>
+        <v>4210143635</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>2</v>
@@ -11973,7 +11973,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="1">
-        <v>4210097470</v>
+        <v>4210179047</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>2</v>
@@ -11985,7 +11985,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="1">
-        <v>4210099442</v>
+        <v>4210396790</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>2</v>
@@ -11997,7 +11997,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="1">
-        <v>4210121557</v>
+        <v>4210405046</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>2</v>
@@ -12009,7 +12009,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="1">
-        <v>4210312209</v>
+        <v>4210405641</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>2</v>
@@ -12021,7 +12021,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="1">
-        <v>4210399799</v>
+        <v>4210522831</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>2</v>
@@ -12033,7 +12033,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="1">
-        <v>4210418911</v>
+        <v>4210560300</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>2</v>
@@ -12045,7 +12045,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="1">
-        <v>4210485733</v>
+        <v>4210593590</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>2</v>
@@ -12057,7 +12057,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="1">
-        <v>4210721350</v>
+        <v>4210751597</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>2</v>
@@ -12069,7 +12069,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="1">
-        <v>4210960649</v>
+        <v>4210620984</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>2</v>
@@ -12081,7 +12081,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="1">
-        <v>4211013963</v>
+        <v>4210036943</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>2</v>
@@ -12093,7 +12093,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="1">
-        <v>4210811627</v>
+        <v>4210003083</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>2</v>
@@ -12105,7 +12105,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="1">
-        <v>4210458622</v>
+        <v>4210383539</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>2</v>
@@ -12117,7 +12117,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="1">
-        <v>4210671815</v>
+        <v>4210919520</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>2</v>
@@ -12129,7 +12129,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="1">
-        <v>4210337818</v>
+        <v>4210792288</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>2</v>
@@ -12141,7 +12141,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="1">
-        <v>4210949152</v>
+        <v>4210104513</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>2</v>
@@ -12153,7 +12153,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="1">
-        <v>4210634563</v>
+        <v>4210240115</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>2</v>
@@ -12165,7 +12165,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="1">
-        <v>4210051155</v>
+        <v>4210337882</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>2</v>
@@ -12177,7 +12177,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="1">
-        <v>4210142038</v>
+        <v>4210414207</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>2</v>
@@ -12189,7 +12189,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="1">
-        <v>4210149575</v>
+        <v>4210478764</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>2</v>
@@ -12201,7 +12201,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="1">
-        <v>4210168043</v>
+        <v>4210483345</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>2</v>
@@ -12213,7 +12213,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="1">
-        <v>4210195529</v>
+        <v>4210483959</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>2</v>
@@ -12225,7 +12225,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="1">
-        <v>4210303219</v>
+        <v>4210552779</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>2</v>
@@ -12237,7 +12237,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="1">
-        <v>4210427799</v>
+        <v>4210700049</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>2</v>
@@ -12249,7 +12249,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="1">
-        <v>4210446245</v>
+        <v>4210718468</v>
       </c>
       <c r="C630" s="1" t="s">
         <v>2</v>
@@ -12261,7 +12261,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="1">
-        <v>4210461149</v>
+        <v>4210858030</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>2</v>
@@ -12273,7 +12273,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="1">
-        <v>4210629760</v>
+        <v>4210974262</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>2</v>
@@ -12285,7 +12285,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="1">
-        <v>4210709679</v>
+        <v>4211153726</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>2</v>
@@ -12297,7 +12297,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="1">
-        <v>4210758376</v>
+        <v>4210247519</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>2</v>
@@ -12309,7 +12309,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="1">
-        <v>4210827877</v>
+        <v>4210530221</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>2</v>
@@ -12321,7 +12321,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="1">
-        <v>4210939924</v>
+        <v>4210652133</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>2</v>
@@ -12333,7 +12333,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="1">
-        <v>4210207233</v>
+        <v>4210059502</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>2</v>
@@ -12345,7 +12345,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="1">
-        <v>4210901008</v>
+        <v>4210076436</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>2</v>
@@ -12357,7 +12357,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="1">
-        <v>4210423569</v>
+        <v>4210097470</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>2</v>
@@ -12369,7 +12369,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="1">
-        <v>4210487451</v>
+        <v>4210099442</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>2</v>
@@ -12381,7 +12381,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="1">
-        <v>4210607124</v>
+        <v>4210121557</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>2</v>
@@ -12393,7 +12393,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="1">
-        <v>4210669592</v>
+        <v>4210312209</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>2</v>
@@ -12405,7 +12405,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="1">
-        <v>4210534852</v>
+        <v>4210399799</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>2</v>
@@ -12417,7 +12417,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="1">
-        <v>4210001844</v>
+        <v>4210407646</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>2</v>
@@ -12429,7 +12429,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="1">
-        <v>4210109667</v>
+        <v>4210418911</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>2</v>
@@ -12441,7 +12441,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="1">
-        <v>4210196693</v>
+        <v>4210485733</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>2</v>
@@ -12453,7 +12453,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="1">
-        <v>4210365640</v>
+        <v>4210721350</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>2</v>
@@ -12465,7 +12465,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="1">
-        <v>4210407197</v>
+        <v>4210960649</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>2</v>
@@ -12477,7 +12477,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="1">
-        <v>4210497243</v>
+        <v>4211013963</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>2</v>
@@ -12489,7 +12489,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="1">
-        <v>4210548325</v>
+        <v>4210811627</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>2</v>
@@ -12501,7 +12501,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="1">
-        <v>4210554776</v>
+        <v>4210458622</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>2</v>
@@ -12513,7 +12513,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="1">
-        <v>4210629708</v>
+        <v>4210671815</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>2</v>
@@ -12525,7 +12525,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="1">
-        <v>4210978497</v>
+        <v>4210337818</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>2</v>
@@ -12537,7 +12537,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="1">
-        <v>4211168559</v>
+        <v>4210949152</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>2</v>
@@ -12549,7 +12549,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="1">
-        <v>4211173096</v>
+        <v>4210634563</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>2</v>
@@ -12561,7 +12561,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="1">
-        <v>4210388883</v>
+        <v>4210051155</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>2</v>
@@ -12573,7 +12573,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="1">
-        <v>4210622646</v>
+        <v>4210142038</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>2</v>
@@ -12585,7 +12585,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="1">
-        <v>4210049002</v>
+        <v>4210149575</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>2</v>
@@ -12597,7 +12597,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="1">
-        <v>4210905356</v>
+        <v>4210168043</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>2</v>
@@ -12609,7 +12609,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="1">
-        <v>4210750427</v>
+        <v>4210195529</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>2</v>
@@ -12621,7 +12621,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="1">
-        <v>4210690219</v>
+        <v>4210303219</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>2</v>
@@ -12633,7 +12633,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="1">
-        <v>4210544812</v>
+        <v>4210427799</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>2</v>
@@ -12645,7 +12645,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="1">
-        <v>4210488775</v>
+        <v>4210446245</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>2</v>
@@ -12657,7 +12657,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="1">
-        <v>4210374075</v>
+        <v>4210461149</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>2</v>
@@ -12669,7 +12669,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="1">
-        <v>4211172188</v>
+        <v>4210629760</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>2</v>
@@ -12681,7 +12681,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="1">
-        <v>4210918088</v>
+        <v>4210709679</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>2</v>
@@ -12693,7 +12693,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="1">
-        <v>4210245439</v>
+        <v>4210758376</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>2</v>
@@ -12705,7 +12705,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="1">
-        <v>4210276653</v>
+        <v>4210827877</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>2</v>
@@ -12717,7 +12717,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="1">
-        <v>4210429536</v>
+        <v>4210939924</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>2</v>
@@ -12729,7 +12729,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="1">
-        <v>4210519195</v>
+        <v>4210207233</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>2</v>
@@ -12741,7 +12741,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="1">
-        <v>4210671668</v>
+        <v>4210901008</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>2</v>
@@ -12753,7 +12753,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="1">
-        <v>4210727818</v>
+        <v>4210423569</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>2</v>
@@ -12765,7 +12765,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="1">
-        <v>4210741138</v>
+        <v>4210487451</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>2</v>
@@ -12777,7 +12777,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="1">
-        <v>4210883236</v>
+        <v>4210607124</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>2</v>
@@ -12788,7 +12788,9 @@
         <f t="shared" si="10"/>
         <v>674</v>
       </c>
-      <c r="B675" s="1"/>
+      <c r="B675" s="1">
+        <v>4210669592</v>
+      </c>
       <c r="C675" s="1" t="s">
         <v>2</v>
       </c>
@@ -12798,7 +12800,9 @@
         <f t="shared" si="10"/>
         <v>675</v>
       </c>
-      <c r="B676" s="1"/>
+      <c r="B676" s="1">
+        <v>4210436566</v>
+      </c>
       <c r="C676" s="1" t="s">
         <v>2</v>
       </c>
@@ -12808,7 +12812,9 @@
         <f t="shared" si="10"/>
         <v>676</v>
       </c>
-      <c r="B677" s="1"/>
+      <c r="B677" s="1">
+        <v>4210534852</v>
+      </c>
       <c r="C677" s="1" t="s">
         <v>2</v>
       </c>
@@ -12818,7 +12824,9 @@
         <f t="shared" si="10"/>
         <v>677</v>
       </c>
-      <c r="B678" s="1"/>
+      <c r="B678" s="1">
+        <v>4210001844</v>
+      </c>
       <c r="C678" s="1" t="s">
         <v>2</v>
       </c>
@@ -12828,7 +12836,9 @@
         <f t="shared" si="10"/>
         <v>678</v>
       </c>
-      <c r="B679" s="1"/>
+      <c r="B679" s="1">
+        <v>4210109667</v>
+      </c>
       <c r="C679" s="1" t="s">
         <v>2</v>
       </c>
@@ -12838,7 +12848,9 @@
         <f t="shared" si="10"/>
         <v>679</v>
       </c>
-      <c r="B680" s="1"/>
+      <c r="B680" s="1">
+        <v>4210196693</v>
+      </c>
       <c r="C680" s="1" t="s">
         <v>2</v>
       </c>
@@ -12848,7 +12860,9 @@
         <f t="shared" si="10"/>
         <v>680</v>
       </c>
-      <c r="B681" s="1"/>
+      <c r="B681" s="1">
+        <v>4210365640</v>
+      </c>
       <c r="C681" s="1" t="s">
         <v>2</v>
       </c>
@@ -12858,7 +12872,9 @@
         <f t="shared" si="10"/>
         <v>681</v>
       </c>
-      <c r="B682" s="1"/>
+      <c r="B682" s="1">
+        <v>4210407197</v>
+      </c>
       <c r="C682" s="1" t="s">
         <v>2</v>
       </c>
@@ -12868,7 +12884,9 @@
         <f t="shared" si="10"/>
         <v>682</v>
       </c>
-      <c r="B683" s="1"/>
+      <c r="B683" s="1">
+        <v>4210497243</v>
+      </c>
       <c r="C683" s="1" t="s">
         <v>2</v>
       </c>
@@ -12878,7 +12896,9 @@
         <f t="shared" si="10"/>
         <v>683</v>
       </c>
-      <c r="B684" s="1"/>
+      <c r="B684" s="1">
+        <v>4210548325</v>
+      </c>
       <c r="C684" s="1" t="s">
         <v>2</v>
       </c>
@@ -12888,7 +12908,9 @@
         <f t="shared" si="10"/>
         <v>684</v>
       </c>
-      <c r="B685" s="1"/>
+      <c r="B685" s="1">
+        <v>4210554776</v>
+      </c>
       <c r="C685" s="1" t="s">
         <v>2</v>
       </c>
@@ -12898,7 +12920,9 @@
         <f t="shared" si="10"/>
         <v>685</v>
       </c>
-      <c r="B686" s="1"/>
+      <c r="B686" s="1">
+        <v>4210629708</v>
+      </c>
       <c r="C686" s="1" t="s">
         <v>2</v>
       </c>
@@ -12908,7 +12932,9 @@
         <f t="shared" si="10"/>
         <v>686</v>
       </c>
-      <c r="B687" s="1"/>
+      <c r="B687" s="1">
+        <v>4210978497</v>
+      </c>
       <c r="C687" s="1" t="s">
         <v>2</v>
       </c>
@@ -12918,7 +12944,9 @@
         <f t="shared" si="10"/>
         <v>687</v>
       </c>
-      <c r="B688" s="1"/>
+      <c r="B688" s="1">
+        <v>4211168559</v>
+      </c>
       <c r="C688" s="1" t="s">
         <v>2</v>
       </c>
@@ -12928,7 +12956,9 @@
         <f t="shared" si="10"/>
         <v>688</v>
       </c>
-      <c r="B689" s="1"/>
+      <c r="B689" s="1">
+        <v>4211173096</v>
+      </c>
       <c r="C689" s="1" t="s">
         <v>2</v>
       </c>
@@ -12938,7 +12968,9 @@
         <f t="shared" si="10"/>
         <v>689</v>
       </c>
-      <c r="B690" s="1"/>
+      <c r="B690" s="1">
+        <v>4210970594</v>
+      </c>
       <c r="C690" s="1" t="s">
         <v>2</v>
       </c>
@@ -12948,7 +12980,9 @@
         <f t="shared" si="10"/>
         <v>690</v>
       </c>
-      <c r="B691" s="1"/>
+      <c r="B691" s="1">
+        <v>4210388883</v>
+      </c>
       <c r="C691" s="1" t="s">
         <v>2</v>
       </c>
@@ -12958,7 +12992,9 @@
         <f t="shared" si="10"/>
         <v>691</v>
       </c>
-      <c r="B692" s="1"/>
+      <c r="B692" s="1">
+        <v>4210622646</v>
+      </c>
       <c r="C692" s="1" t="s">
         <v>2</v>
       </c>
@@ -12968,7 +13004,9 @@
         <f t="shared" si="10"/>
         <v>692</v>
       </c>
-      <c r="B693" s="1"/>
+      <c r="B693" s="1">
+        <v>4210049002</v>
+      </c>
       <c r="C693" s="1" t="s">
         <v>2</v>
       </c>
@@ -12978,7 +13016,9 @@
         <f t="shared" si="10"/>
         <v>693</v>
       </c>
-      <c r="B694" s="1"/>
+      <c r="B694" s="1">
+        <v>4210905356</v>
+      </c>
       <c r="C694" s="1" t="s">
         <v>2</v>
       </c>
@@ -12988,7 +13028,9 @@
         <f t="shared" si="10"/>
         <v>694</v>
       </c>
-      <c r="B695" s="1"/>
+      <c r="B695" s="1">
+        <v>4210750427</v>
+      </c>
       <c r="C695" s="1" t="s">
         <v>2</v>
       </c>
@@ -12998,7 +13040,9 @@
         <f t="shared" si="10"/>
         <v>695</v>
       </c>
-      <c r="B696" s="1"/>
+      <c r="B696" s="1">
+        <v>4210690219</v>
+      </c>
       <c r="C696" s="1" t="s">
         <v>2</v>
       </c>
@@ -13008,7 +13052,9 @@
         <f t="shared" si="10"/>
         <v>696</v>
       </c>
-      <c r="B697" s="1"/>
+      <c r="B697" s="1">
+        <v>4210544812</v>
+      </c>
       <c r="C697" s="1" t="s">
         <v>2</v>
       </c>
@@ -13018,7 +13064,9 @@
         <f t="shared" si="10"/>
         <v>697</v>
       </c>
-      <c r="B698" s="1"/>
+      <c r="B698" s="1">
+        <v>4210488775</v>
+      </c>
       <c r="C698" s="1" t="s">
         <v>2</v>
       </c>
@@ -13028,7 +13076,9 @@
         <f t="shared" si="10"/>
         <v>698</v>
       </c>
-      <c r="B699" s="1"/>
+      <c r="B699" s="1">
+        <v>4210374075</v>
+      </c>
       <c r="C699" s="1" t="s">
         <v>2</v>
       </c>
@@ -13038,7 +13088,9 @@
         <f t="shared" si="10"/>
         <v>699</v>
       </c>
-      <c r="B700" s="1"/>
+      <c r="B700" s="1">
+        <v>4211172188</v>
+      </c>
       <c r="C700" s="1" t="s">
         <v>2</v>
       </c>
@@ -13048,7 +13100,9 @@
         <f t="shared" si="10"/>
         <v>700</v>
       </c>
-      <c r="B701" s="1"/>
+      <c r="B701" s="1">
+        <v>4210918088</v>
+      </c>
       <c r="C701" s="1" t="s">
         <v>2</v>
       </c>
@@ -13058,7 +13112,9 @@
         <f t="shared" si="10"/>
         <v>701</v>
       </c>
-      <c r="B702" s="1"/>
+      <c r="B702" s="1">
+        <v>4210245439</v>
+      </c>
       <c r="C702" s="1" t="s">
         <v>2</v>
       </c>
@@ -13068,7 +13124,9 @@
         <f t="shared" si="10"/>
         <v>702</v>
       </c>
-      <c r="B703" s="1"/>
+      <c r="B703" s="1">
+        <v>4210276653</v>
+      </c>
       <c r="C703" s="1" t="s">
         <v>2</v>
       </c>
@@ -13078,7 +13136,9 @@
         <f t="shared" si="10"/>
         <v>703</v>
       </c>
-      <c r="B704" s="1"/>
+      <c r="B704" s="1">
+        <v>4210429536</v>
+      </c>
       <c r="C704" s="1" t="s">
         <v>2</v>
       </c>
@@ -13088,7 +13148,9 @@
         <f t="shared" si="10"/>
         <v>704</v>
       </c>
-      <c r="B705" s="1"/>
+      <c r="B705" s="1">
+        <v>4210519195</v>
+      </c>
       <c r="C705" s="1" t="s">
         <v>2</v>
       </c>
@@ -13098,7 +13160,9 @@
         <f t="shared" ref="A706:A769" si="11">+A705+1</f>
         <v>705</v>
       </c>
-      <c r="B706" s="1"/>
+      <c r="B706" s="1">
+        <v>4210671668</v>
+      </c>
       <c r="C706" s="1" t="s">
         <v>2</v>
       </c>
@@ -13108,7 +13172,9 @@
         <f t="shared" si="11"/>
         <v>706</v>
       </c>
-      <c r="B707" s="1"/>
+      <c r="B707" s="1">
+        <v>4210727818</v>
+      </c>
       <c r="C707" s="1" t="s">
         <v>2</v>
       </c>
@@ -13118,7 +13184,9 @@
         <f t="shared" si="11"/>
         <v>707</v>
       </c>
-      <c r="B708" s="1"/>
+      <c r="B708" s="1">
+        <v>4210741138</v>
+      </c>
       <c r="C708" s="1" t="s">
         <v>2</v>
       </c>
@@ -13128,7 +13196,9 @@
         <f t="shared" si="11"/>
         <v>708</v>
       </c>
-      <c r="B709" s="1"/>
+      <c r="B709" s="1">
+        <v>4210883236</v>
+      </c>
       <c r="C709" s="1" t="s">
         <v>2</v>
       </c>
@@ -32232,9 +32302,9 @@
       <c r="A470">
         <v>4210253167</v>
       </c>
-      <c r="B470" t="e">
+      <c r="B470">
         <f>VLOOKUP(A470,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210253167</v>
       </c>
       <c r="C470" t="s">
         <v>206</v>
@@ -32712,9 +32782,9 @@
       <c r="A490">
         <v>4210539165</v>
       </c>
-      <c r="B490" t="e">
+      <c r="B490">
         <f>VLOOKUP(A490,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210539165</v>
       </c>
       <c r="C490" t="s">
         <v>227</v>
@@ -33168,9 +33238,9 @@
       <c r="A509">
         <v>4210967965</v>
       </c>
-      <c r="B509" t="e">
+      <c r="B509">
         <f>VLOOKUP(A509,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210967965</v>
       </c>
       <c r="C509" t="s">
         <v>246</v>
@@ -33240,9 +33310,9 @@
       <c r="A512">
         <v>4211067263</v>
       </c>
-      <c r="B512" t="e">
+      <c r="B512">
         <f>VLOOKUP(A512,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211067263</v>
       </c>
       <c r="C512" t="s">
         <v>249</v>
@@ -33288,9 +33358,9 @@
       <c r="A514">
         <v>4211129438</v>
       </c>
-      <c r="B514" t="e">
+      <c r="B514">
         <f>VLOOKUP(A514,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211129438</v>
       </c>
       <c r="C514" t="s">
         <v>251</v>
@@ -33792,9 +33862,9 @@
       <c r="A535">
         <v>4210280449</v>
       </c>
-      <c r="B535" t="e">
+      <c r="B535">
         <f>VLOOKUP(A535,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210280449</v>
       </c>
       <c r="C535" t="s">
         <v>272</v>
@@ -33912,9 +33982,9 @@
       <c r="A540">
         <v>4210366648</v>
       </c>
-      <c r="B540" t="e">
+      <c r="B540">
         <f>VLOOKUP(A540,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210366648</v>
       </c>
       <c r="C540" t="s">
         <v>277</v>
@@ -33936,9 +34006,9 @@
       <c r="A541">
         <v>4210375886</v>
       </c>
-      <c r="B541" t="e">
+      <c r="B541">
         <f>VLOOKUP(A541,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210375886</v>
       </c>
       <c r="C541" t="s">
         <v>278</v>
@@ -34128,9 +34198,9 @@
       <c r="A549">
         <v>4210451754</v>
       </c>
-      <c r="B549" t="e">
+      <c r="B549">
         <f>VLOOKUP(A549,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210451754</v>
       </c>
       <c r="C549" t="s">
         <v>286</v>
@@ -34728,9 +34798,9 @@
       <c r="A574">
         <v>4211121228</v>
       </c>
-      <c r="B574" t="e">
+      <c r="B574">
         <f>VLOOKUP(A574,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211121228</v>
       </c>
       <c r="C574" t="s">
         <v>311</v>
@@ -34800,9 +34870,9 @@
       <c r="A577">
         <v>4211151623</v>
       </c>
-      <c r="B577" t="e">
+      <c r="B577">
         <f>VLOOKUP(A577,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211151623</v>
       </c>
       <c r="C577" t="s">
         <v>314</v>
@@ -34872,9 +34942,9 @@
       <c r="A580">
         <v>4210180557</v>
       </c>
-      <c r="B580" t="e">
+      <c r="B580">
         <f>VLOOKUP(A580,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210180557</v>
       </c>
       <c r="C580" t="s">
         <v>317</v>
@@ -35592,9 +35662,9 @@
       <c r="A610">
         <v>4210858030</v>
       </c>
-      <c r="B610" t="e">
+      <c r="B610">
         <f>VLOOKUP(A610,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210858030</v>
       </c>
       <c r="C610" t="s">
         <v>347</v>
@@ -36216,9 +36286,9 @@
       <c r="A636">
         <v>4210336732</v>
       </c>
-      <c r="B636" t="e">
+      <c r="B636">
         <f>VLOOKUP(A636,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210336732</v>
       </c>
       <c r="C636" t="s">
         <v>373</v>
@@ -36720,9 +36790,9 @@
       <c r="A657">
         <v>4210967138</v>
       </c>
-      <c r="B657" t="e">
+      <c r="B657">
         <f>VLOOKUP(A657,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210967138</v>
       </c>
       <c r="C657" t="s">
         <v>394</v>
@@ -36768,9 +36838,9 @@
       <c r="A659">
         <v>4210675980</v>
       </c>
-      <c r="B659" t="e">
+      <c r="B659">
         <f>VLOOKUP(A659,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210675980</v>
       </c>
       <c r="C659" t="s">
         <v>396</v>
@@ -36888,9 +36958,9 @@
       <c r="A664">
         <v>4210970594</v>
       </c>
-      <c r="B664" t="e">
+      <c r="B664">
         <f>VLOOKUP(A664,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210970594</v>
       </c>
       <c r="C664" t="s">
         <v>401</v>
@@ -37008,9 +37078,9 @@
       <c r="A669">
         <v>4211024353</v>
       </c>
-      <c r="B669" t="e">
+      <c r="B669">
         <f>VLOOKUP(A669,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211024353</v>
       </c>
       <c r="C669" t="s">
         <v>406</v>
@@ -37416,9 +37486,9 @@
       <c r="A686">
         <v>4210815668</v>
       </c>
-      <c r="B686" t="e">
+      <c r="B686">
         <f>VLOOKUP(A686,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210815668</v>
       </c>
       <c r="C686" t="s">
         <v>423</v>
@@ -37680,9 +37750,9 @@
       <c r="A697">
         <v>4210405641</v>
       </c>
-      <c r="B697" t="e">
+      <c r="B697">
         <f>VLOOKUP(A697,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210405641</v>
       </c>
       <c r="C697" t="s">
         <v>434</v>
@@ -38304,9 +38374,9 @@
       <c r="A723">
         <v>4210690402</v>
       </c>
-      <c r="B723" t="e">
+      <c r="B723">
         <f>VLOOKUP(A723,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210690402</v>
       </c>
       <c r="C723" t="s">
         <v>460</v>
@@ -38472,9 +38542,9 @@
       <c r="A730">
         <v>4210937304</v>
       </c>
-      <c r="B730" t="e">
+      <c r="B730">
         <f>VLOOKUP(A730,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210937304</v>
       </c>
       <c r="C730" t="s">
         <v>467</v>
@@ -39456,9 +39526,9 @@
       <c r="A771">
         <v>4210876639</v>
       </c>
-      <c r="B771" t="e">
+      <c r="B771">
         <f>VLOOKUP(A771,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210876639</v>
       </c>
       <c r="C771" t="s">
         <v>508</v>
@@ -39936,9 +40006,9 @@
       <c r="A791">
         <v>4210695631</v>
       </c>
-      <c r="B791" t="e">
+      <c r="B791">
         <f>VLOOKUP(A791,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210695631</v>
       </c>
       <c r="C791" t="s">
         <v>528</v>
@@ -40032,9 +40102,9 @@
       <c r="A795">
         <v>4210714398</v>
       </c>
-      <c r="B795" t="e">
+      <c r="B795">
         <f>VLOOKUP(A795,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210714398</v>
       </c>
       <c r="C795" t="s">
         <v>532</v>
@@ -40104,9 +40174,9 @@
       <c r="A798">
         <v>4210749428</v>
       </c>
-      <c r="B798" t="e">
+      <c r="B798">
         <f>VLOOKUP(A798,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210749428</v>
       </c>
       <c r="C798" t="s">
         <v>535</v>
@@ -41184,9 +41254,9 @@
       <c r="A843">
         <v>4210436566</v>
       </c>
-      <c r="B843" t="e">
+      <c r="B843">
         <f>VLOOKUP(A843,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210436566</v>
       </c>
       <c r="C843" t="s">
         <v>580</v>
@@ -41808,9 +41878,9 @@
       <c r="A869">
         <v>4210751597</v>
       </c>
-      <c r="B869" t="e">
+      <c r="B869">
         <f>VLOOKUP(A869,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210751597</v>
       </c>
       <c r="C869" t="s">
         <v>606</v>
@@ -42480,9 +42550,9 @@
       <c r="A897">
         <v>4210161011</v>
       </c>
-      <c r="B897" t="e">
+      <c r="B897">
         <f>VLOOKUP(A897,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210161011</v>
       </c>
       <c r="C897" t="s">
         <v>634</v>
@@ -42768,9 +42838,9 @@
       <c r="A909">
         <v>4210394741</v>
       </c>
-      <c r="B909" t="e">
+      <c r="B909">
         <f>VLOOKUP(A909,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210394741</v>
       </c>
       <c r="C909" t="s">
         <v>646</v>
@@ -42792,9 +42862,9 @@
       <c r="A910">
         <v>4210431823</v>
       </c>
-      <c r="B910" t="e">
+      <c r="B910">
         <f>VLOOKUP(A910,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210431823</v>
       </c>
       <c r="C910" t="s">
         <v>647</v>
@@ -42840,9 +42910,9 @@
       <c r="A912">
         <v>4210438071</v>
       </c>
-      <c r="B912" t="e">
+      <c r="B912">
         <f>VLOOKUP(A912,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210438071</v>
       </c>
       <c r="C912" t="s">
         <v>649</v>
@@ -42864,9 +42934,9 @@
       <c r="A913">
         <v>4210407646</v>
       </c>
-      <c r="B913" t="e">
+      <c r="B913">
         <f>VLOOKUP(A913,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210407646</v>
       </c>
       <c r="C913" t="s">
         <v>650</v>
@@ -43368,9 +43438,9 @@
       <c r="A934">
         <v>4210711324</v>
       </c>
-      <c r="B934" t="e">
+      <c r="B934">
         <f>VLOOKUP(A934,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210711324</v>
       </c>
       <c r="C934" t="s">
         <v>671</v>
@@ -43536,9 +43606,9 @@
       <c r="A941">
         <v>4211018005</v>
       </c>
-      <c r="B941" t="e">
+      <c r="B941">
         <f>VLOOKUP(A941,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211018005</v>
       </c>
       <c r="C941" t="s">
         <v>678</v>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E25DA58-20CF-49AB-B346-3574D4D891A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AE42A4-A0C0-4BC4-B2EE-FD8DCE77C5DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4693,7 +4693,7 @@
   <dimension ref="A1:C955"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4839,7 +4839,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>4210070320</v>
+        <v>4210874021</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -4851,7 +4851,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4210125404</v>
+        <v>4210239344</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -4863,7 +4863,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>4210174477</v>
+        <v>4210028967</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -4875,7 +4875,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>4210198826</v>
+        <v>4210070320</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -4887,7 +4887,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>4210294377</v>
+        <v>4210125404</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -4899,7 +4899,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>4210381581</v>
+        <v>4210174477</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -4911,7 +4911,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>4210488625</v>
+        <v>4210198826</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -4923,7 +4923,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>4210506856</v>
+        <v>4210294377</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -4935,7 +4935,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>4210509596</v>
+        <v>4210381581</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -4947,7 +4947,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>4210598011</v>
+        <v>4210488625</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -4959,7 +4959,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>4210652554</v>
+        <v>4210506856</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -4971,7 +4971,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>4210660974</v>
+        <v>4210509596</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -4983,7 +4983,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>4210843255</v>
+        <v>4210598011</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -4995,7 +4995,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>4210904865</v>
+        <v>4210652554</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -5007,7 +5007,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>4211132297</v>
+        <v>4210660974</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -5019,7 +5019,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>4210216114</v>
+        <v>4210843255</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -5031,7 +5031,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>4210961490</v>
+        <v>4210904865</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -5043,7 +5043,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>4210375886</v>
+        <v>4210939011</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -5055,7 +5055,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>4210344078</v>
+        <v>4211132297</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -5067,7 +5067,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>4210574089</v>
+        <v>4210216114</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -5079,7 +5079,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4210371025</v>
+        <v>4210961490</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -5091,7 +5091,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4210615341</v>
+        <v>4210375886</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -5103,7 +5103,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4211020605</v>
+        <v>4210344078</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -5115,7 +5115,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>4210733151</v>
+        <v>4210574089</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -5127,7 +5127,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>4210266290</v>
+        <v>4210371025</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -5139,7 +5139,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4210732255</v>
+        <v>4210615341</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -5151,7 +5151,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4210652895</v>
+        <v>4211020605</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -5163,7 +5163,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4210262295</v>
+        <v>4210733151</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -5175,7 +5175,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4210000179</v>
+        <v>4210266290</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -5187,7 +5187,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>4210420939</v>
+        <v>4210732255</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -5199,7 +5199,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>4210267931</v>
+        <v>4210652895</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -5211,7 +5211,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>4210701872</v>
+        <v>4210262295</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -5223,7 +5223,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>4210254607</v>
+        <v>4210000179</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -5235,7 +5235,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>4210556661</v>
+        <v>4210420939</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -5247,7 +5247,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>4210034578</v>
+        <v>4210267931</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -5259,7 +5259,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>4210044558</v>
+        <v>4210701872</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -5271,7 +5271,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>4210090554</v>
+        <v>4210254607</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -5283,7 +5283,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>4210105227</v>
+        <v>4210556661</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -5295,7 +5295,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>4210127378</v>
+        <v>4210034578</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -5307,7 +5307,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>4210127746</v>
+        <v>4210044558</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -5319,7 +5319,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>4210132639</v>
+        <v>4210090554</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -5331,7 +5331,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4210161011</v>
+        <v>4210105227</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -5343,7 +5343,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4210177530</v>
+        <v>4210127378</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -5355,7 +5355,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>4210213816</v>
+        <v>4210127746</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -5367,7 +5367,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>4210252068</v>
+        <v>4210132639</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -5379,7 +5379,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>4210322467</v>
+        <v>4210161011</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -5391,7 +5391,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>4210404572</v>
+        <v>4210177530</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -5403,7 +5403,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>4210405406</v>
+        <v>4210213816</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -5415,7 +5415,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>4210419667</v>
+        <v>4210252068</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -5427,7 +5427,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>4210422256</v>
+        <v>4210322467</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -5439,7 +5439,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>4210675397</v>
+        <v>4210404572</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -5451,7 +5451,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>4210683668</v>
+        <v>4210405406</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -5463,7 +5463,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>4210689843</v>
+        <v>4210419667</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -5475,7 +5475,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>4210701271</v>
+        <v>4210422256</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -5487,7 +5487,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>4210791799</v>
+        <v>4210502277</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -5499,7 +5499,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>4210866539</v>
+        <v>4210646081</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -5511,7 +5511,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>4210937304</v>
+        <v>4210675397</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -5523,7 +5523,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>4211001264</v>
+        <v>4210683668</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -5535,7 +5535,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>4211084414</v>
+        <v>4210689843</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -5547,7 +5547,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>4210876639</v>
+        <v>4210701271</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -5559,7 +5559,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>4210593515</v>
+        <v>4210791799</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -5571,7 +5571,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>4210613161</v>
+        <v>4210866539</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -5583,7 +5583,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>4210967138</v>
+        <v>4210937304</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -5595,7 +5595,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>4210771684</v>
+        <v>4211001264</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -5607,7 +5607,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>4210708235</v>
+        <v>4211084414</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -5619,7 +5619,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>4210932363</v>
+        <v>4210876639</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -5631,7 +5631,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>4210766426</v>
+        <v>4210593515</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -5643,7 +5643,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>4210417995</v>
+        <v>4210613161</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -5655,7 +5655,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>4210371603</v>
+        <v>4210967138</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -5667,7 +5667,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>4210608174</v>
+        <v>4210771684</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -5679,7 +5679,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>4210406120</v>
+        <v>4210708235</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -5691,7 +5691,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>4210091709</v>
+        <v>4210932363</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -5703,7 +5703,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>4210020005</v>
+        <v>4210766426</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -5715,7 +5715,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>4210034267</v>
+        <v>4210417995</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -5727,7 +5727,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>4210131499</v>
+        <v>4210371603</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -5739,7 +5739,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>4210131654</v>
+        <v>4210608174</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -5751,7 +5751,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>4210141892</v>
+        <v>4210406120</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -5763,7 +5763,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>4210180557</v>
+        <v>4210091709</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -5775,7 +5775,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>4210226103</v>
+        <v>4210020005</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -5787,7 +5787,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>4210248909</v>
+        <v>4210034267</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -5799,7 +5799,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>4210307216</v>
+        <v>4210072734</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -5811,7 +5811,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>4210394400</v>
+        <v>4210131499</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -5823,7 +5823,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>4210394946</v>
+        <v>4210131654</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -5835,7 +5835,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>4210413345</v>
+        <v>4210141892</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -5847,7 +5847,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>4210415206</v>
+        <v>4210180557</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -5859,7 +5859,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>4210437917</v>
+        <v>4210226103</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -5871,7 +5871,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>4210511277</v>
+        <v>4210248909</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -5883,7 +5883,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>4210541877</v>
+        <v>4210307216</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -5895,7 +5895,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>4210592672</v>
+        <v>4210394400</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -5907,7 +5907,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>4210593450</v>
+        <v>4210394946</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -5919,7 +5919,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>4210731427</v>
+        <v>4210413345</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -5931,7 +5931,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>4210822447</v>
+        <v>4210415206</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -5943,7 +5943,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>4210831159</v>
+        <v>4210437917</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -5955,7 +5955,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>4210898335</v>
+        <v>4210511277</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -5967,7 +5967,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>4211067263</v>
+        <v>4210541877</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -5979,7 +5979,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>4211180836</v>
+        <v>4210592672</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -5991,7 +5991,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>4210188182</v>
+        <v>4210593450</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -6003,7 +6003,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>4210706642</v>
+        <v>4210731427</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -6015,7 +6015,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>4210731416</v>
+        <v>4210822447</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -6027,7 +6027,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>4211013807</v>
+        <v>4210831159</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -6039,7 +6039,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>4210278444</v>
+        <v>4210898335</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -6051,7 +6051,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>4211018005</v>
+        <v>4210966971</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -6063,7 +6063,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>4210585528</v>
+        <v>4211067263</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -6075,7 +6075,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>4210929697</v>
+        <v>4211180836</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -6087,7 +6087,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>4210003837</v>
+        <v>4210188182</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -6099,7 +6099,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>4210004223</v>
+        <v>4210673584</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -6111,7 +6111,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>4210198168</v>
+        <v>4210706642</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -6123,7 +6123,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>4210234367</v>
+        <v>4210731416</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -6135,7 +6135,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>4210344951</v>
+        <v>4211013807</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -6147,7 +6147,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>4210391139</v>
+        <v>4210278444</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -6159,7 +6159,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>4210393571</v>
+        <v>4211018005</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -6171,7 +6171,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>4210533040</v>
+        <v>4210585528</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -6183,7 +6183,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>4210558291</v>
+        <v>4210929697</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -6195,7 +6195,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>4210606361</v>
+        <v>4210003837</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -6207,7 +6207,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>4210635825</v>
+        <v>4210004223</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -6219,7 +6219,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>4210720296</v>
+        <v>4210198168</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -6231,7 +6231,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>4210843009</v>
+        <v>4210234367</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -6243,7 +6243,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>4210945949</v>
+        <v>4210326018</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -6255,7 +6255,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>4210953010</v>
+        <v>4210342446</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -6267,7 +6267,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>4210204827</v>
+        <v>4210342798</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -6279,7 +6279,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>4210563716</v>
+        <v>4210344951</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -6291,7 +6291,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>4210224238</v>
+        <v>4210391139</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -6303,7 +6303,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>4210398396</v>
+        <v>4210393571</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -6315,7 +6315,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>4210912284</v>
+        <v>4210533040</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -6327,7 +6327,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>4210190103</v>
+        <v>4210558291</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -6339,7 +6339,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>4210298487</v>
+        <v>4210606361</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -6351,7 +6351,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>4210479488</v>
+        <v>4210635825</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -6363,7 +6363,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>4210566641</v>
+        <v>4210720296</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
@@ -6375,7 +6375,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>4210811229</v>
+        <v>4210784684</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -6387,7 +6387,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>4210213587</v>
+        <v>4210843009</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
@@ -6399,7 +6399,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>4210003545</v>
+        <v>4210945949</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -6411,7 +6411,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>4210600446</v>
+        <v>4210953010</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -6423,7 +6423,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>4211151623</v>
+        <v>4210204827</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -6435,7 +6435,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>4210214048</v>
+        <v>4210563716</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -6447,7 +6447,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>4210853920</v>
+        <v>4210224238</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -6459,7 +6459,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>4210317095</v>
+        <v>4210398396</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -6471,7 +6471,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>4210180848</v>
+        <v>4210912284</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -6483,7 +6483,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>4210215859</v>
+        <v>4210077315</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -6495,7 +6495,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>4210292583</v>
+        <v>4210148789</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -6507,7 +6507,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>4210341768</v>
+        <v>4210190103</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -6519,7 +6519,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>4210394741</v>
+        <v>4210272520</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -6531,7 +6531,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>4210402956</v>
+        <v>4210298487</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
@@ -6543,7 +6543,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>4210447996</v>
+        <v>4210479488</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -6555,7 +6555,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>4210496749</v>
+        <v>4210566641</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -6567,7 +6567,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>4210501502</v>
+        <v>4210811229</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -6579,7 +6579,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>4210534997</v>
+        <v>4211161809</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
@@ -6591,7 +6591,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>4210639556</v>
+        <v>4210213587</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -6603,7 +6603,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>4210707175</v>
+        <v>4210003545</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -6615,7 +6615,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>4210723948</v>
+        <v>4210600446</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -6627,7 +6627,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>4211105440</v>
+        <v>4211151623</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -6639,7 +6639,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>4211162899</v>
+        <v>4210214048</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -6651,7 +6651,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>4211074617</v>
+        <v>4210853920</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
@@ -6663,7 +6663,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>4210754698</v>
+        <v>4210610562</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -6675,7 +6675,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>4210926050</v>
+        <v>4210317095</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -6687,7 +6687,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>4210370471</v>
+        <v>4210180848</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -6699,7 +6699,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>4210806413</v>
+        <v>4210215859</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
@@ -6711,7 +6711,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>4210522771</v>
+        <v>4210292583</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -6723,7 +6723,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>4210542091</v>
+        <v>4210341768</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
@@ -6735,7 +6735,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>4210222026</v>
+        <v>4210394741</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -6747,7 +6747,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>4210313376</v>
+        <v>4210402956</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
@@ -6759,7 +6759,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>4210893674</v>
+        <v>4210447996</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -6771,7 +6771,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>4210938088</v>
+        <v>4210496749</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
@@ -6783,7 +6783,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>4210994527</v>
+        <v>4210501502</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -6795,7 +6795,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>4211047565</v>
+        <v>4210534997</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
@@ -6807,7 +6807,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>4210260173</v>
+        <v>4210639556</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -6819,7 +6819,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>4210479887</v>
+        <v>4210707175</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -6831,7 +6831,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>4210646191</v>
+        <v>4210723948</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -6843,7 +6843,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>4210921361</v>
+        <v>4211105440</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
@@ -6855,7 +6855,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>4210033127</v>
+        <v>4211162899</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
@@ -6867,7 +6867,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>4210072674</v>
+        <v>4211016693</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
@@ -6879,7 +6879,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>4210586606</v>
+        <v>4211074617</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
@@ -6891,7 +6891,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>4211024555</v>
+        <v>4210754698</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -6903,7 +6903,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>4210482370</v>
+        <v>4210926050</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
@@ -6915,7 +6915,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>4210167551</v>
+        <v>4210370471</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
@@ -6927,7 +6927,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>4210673655</v>
+        <v>4210806413</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
@@ -6939,7 +6939,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>4210221322</v>
+        <v>4210522771</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
@@ -6951,7 +6951,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>4210753622</v>
+        <v>4210542091</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -6963,7 +6963,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>4210482629</v>
+        <v>4210222026</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -6975,7 +6975,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>4210843672</v>
+        <v>4210313376</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -6987,7 +6987,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>4210523147</v>
+        <v>4210893674</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -6999,7 +6999,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>4211060527</v>
+        <v>4210938088</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -7011,7 +7011,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>4210424698</v>
+        <v>4210994527</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -7023,7 +7023,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>4210406049</v>
+        <v>4211047565</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -7035,7 +7035,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>4210639267</v>
+        <v>4210260173</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
@@ -7047,7 +7047,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>4211057865</v>
+        <v>4210479887</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
@@ -7059,7 +7059,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>4210345052</v>
+        <v>4210646191</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
@@ -7071,7 +7071,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>4210712809</v>
+        <v>4210921361</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -7083,7 +7083,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>4210598540</v>
+        <v>4210033127</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
@@ -7095,7 +7095,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>4210121891</v>
+        <v>4210072674</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
@@ -7107,7 +7107,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>4210385056</v>
+        <v>4210586606</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -7119,7 +7119,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>4210893730</v>
+        <v>4211024555</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
@@ -7131,7 +7131,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>4210535673</v>
+        <v>4210482370</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
@@ -7143,7 +7143,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>4210500818</v>
+        <v>4210167551</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
@@ -7155,7 +7155,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>4210003521</v>
+        <v>4210673655</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -7167,7 +7167,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>4210062548</v>
+        <v>4210887790</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
@@ -7179,7 +7179,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>4210124089</v>
+        <v>4210221322</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
@@ -7191,7 +7191,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>4210124562</v>
+        <v>4210753622</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>2</v>
@@ -7203,7 +7203,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>4210133586</v>
+        <v>4210482629</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>2</v>
@@ -7215,7 +7215,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>4210143092</v>
+        <v>4210843672</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>2</v>
@@ -7227,7 +7227,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>4210171441</v>
+        <v>4210523147</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
@@ -7239,7 +7239,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>4210188218</v>
+        <v>4211060527</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
@@ -7251,7 +7251,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>4210198930</v>
+        <v>4210424698</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>2</v>
@@ -7263,7 +7263,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>4210204904</v>
+        <v>4210406049</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
@@ -7275,7 +7275,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>4210217456</v>
+        <v>4210639267</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
@@ -7287,7 +7287,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>4210248451</v>
+        <v>4211057865</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>2</v>
@@ -7299,7 +7299,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>4210260497</v>
+        <v>4210345052</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>2</v>
@@ -7311,7 +7311,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>4210272828</v>
+        <v>4210712809</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>2</v>
@@ -7323,7 +7323,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>4210303761</v>
+        <v>4210598540</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>2</v>
@@ -7335,7 +7335,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>4210320285</v>
+        <v>4210121891</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>2</v>
@@ -7347,7 +7347,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>4210336732</v>
+        <v>4210385056</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>2</v>
@@ -7359,7 +7359,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>4210389070</v>
+        <v>4210893730</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>2</v>
@@ -7371,7 +7371,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>4210396939</v>
+        <v>4211056408</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>2</v>
@@ -7383,7 +7383,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>4210399687</v>
+        <v>4210535673</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>4210403019</v>
+        <v>4210500818</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>2</v>
@@ -7407,7 +7407,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>4210415044</v>
+        <v>4210003521</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>2</v>
@@ -7419,7 +7419,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>4210420096</v>
+        <v>4210062548</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>2</v>
@@ -7431,7 +7431,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>4210422212</v>
+        <v>4210086465</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
@@ -7443,7 +7443,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>4210435420</v>
+        <v>4210124089</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>2</v>
@@ -7455,7 +7455,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>4210559074</v>
+        <v>4210124562</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
@@ -7467,7 +7467,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>4210562814</v>
+        <v>4210133586</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>2</v>
@@ -7479,7 +7479,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>4210597778</v>
+        <v>4210143092</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>2</v>
@@ -7491,7 +7491,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>4210632710</v>
+        <v>4210171441</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
@@ -7503,7 +7503,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>4210633465</v>
+        <v>4210188218</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>2</v>
@@ -7515,7 +7515,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>4210645803</v>
+        <v>4210198930</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>2</v>
@@ -7527,7 +7527,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>4210690272</v>
+        <v>4210204904</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
@@ -7539,7 +7539,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>4210695149</v>
+        <v>4210217456</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>2</v>
@@ -7551,7 +7551,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>4210706422</v>
+        <v>4210248451</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>2</v>
@@ -7563,7 +7563,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>4210805925</v>
+        <v>4210260497</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>2</v>
@@ -7575,7 +7575,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>4210830351</v>
+        <v>4210272828</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>2</v>
@@ -7587,7 +7587,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>4210836933</v>
+        <v>4210303761</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>2</v>
@@ -7599,7 +7599,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>4210878489</v>
+        <v>4210320285</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>2</v>
@@ -7611,7 +7611,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>4210885456</v>
+        <v>4210336732</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>2</v>
@@ -7623,7 +7623,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>4210920767</v>
+        <v>4210389070</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
@@ -7635,7 +7635,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>4210955715</v>
+        <v>4210396939</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>2</v>
@@ -7647,7 +7647,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>4210967793</v>
+        <v>4210399687</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
@@ -7659,7 +7659,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>4211075710</v>
+        <v>4210403019</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>2</v>
@@ -7671,7 +7671,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>4211111638</v>
+        <v>4210415044</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>2</v>
@@ -7683,7 +7683,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>4211116641</v>
+        <v>4210420096</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>2</v>
@@ -7695,7 +7695,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>4211133709</v>
+        <v>4210422212</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>2</v>
@@ -7707,7 +7707,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>4211143631</v>
+        <v>4210435420</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>2</v>
@@ -7719,7 +7719,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>4210665237</v>
+        <v>4210559074</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>2</v>
@@ -7731,7 +7731,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>4211114353</v>
+        <v>4210562814</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
@@ -7743,7 +7743,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>4210057744</v>
+        <v>4210597778</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
@@ -7755,7 +7755,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>4210249633</v>
+        <v>4210632710</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
@@ -7767,7 +7767,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>4210679738</v>
+        <v>4210633465</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
@@ -7779,7 +7779,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>4211060486</v>
+        <v>4210645803</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
@@ -7791,7 +7791,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>4211131368</v>
+        <v>4210690272</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
@@ -7803,7 +7803,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>4210208750</v>
+        <v>4210695149</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
@@ -7815,7 +7815,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>4210586900</v>
+        <v>4210706422</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
@@ -7827,7 +7827,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>4210433177</v>
+        <v>4210786785</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
@@ -7839,7 +7839,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>4210911313</v>
+        <v>4210805925</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
@@ -7851,7 +7851,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>4210745675</v>
+        <v>4210830351</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
@@ -7863,7 +7863,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>4211122411</v>
+        <v>4210836933</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
@@ -7875,7 +7875,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>4210855921</v>
+        <v>4210878489</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
@@ -7887,7 +7887,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>4210009062</v>
+        <v>4210885456</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
@@ -7899,7 +7899,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>4210648248</v>
+        <v>4210920767</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
@@ -7911,7 +7911,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>4210356297</v>
+        <v>4210955715</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
@@ -7923,7 +7923,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>4210152801</v>
+        <v>4210967793</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
@@ -7935,7 +7935,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>4210086596</v>
+        <v>4211075710</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>2</v>
@@ -7947,7 +7947,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>4211058112</v>
+        <v>4211111638</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>2</v>
@@ -7959,7 +7959,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>4210411973</v>
+        <v>4211116641</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>2</v>
@@ -7971,7 +7971,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>4211010219</v>
+        <v>4211133709</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>2</v>
@@ -7983,7 +7983,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>4210273020</v>
+        <v>4211143631</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>2</v>
@@ -7995,7 +7995,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>4210264695</v>
+        <v>4211189644</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>2</v>
@@ -8007,7 +8007,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>4210930375</v>
+        <v>4210665237</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>2</v>
@@ -8019,7 +8019,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1">
-        <v>4210242756</v>
+        <v>4211114353</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>2</v>
@@ -8031,7 +8031,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>4210084552</v>
+        <v>4210057744</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>2</v>
@@ -8043,7 +8043,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>4210140390</v>
+        <v>4210249633</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>2</v>
@@ -8055,7 +8055,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>4210253167</v>
+        <v>4210679738</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>2</v>
@@ -8067,7 +8067,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>4210278245</v>
+        <v>4211060486</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>2</v>
@@ -8079,7 +8079,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>4210405200</v>
+        <v>4211131368</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>2</v>
@@ -8091,7 +8091,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>4210502557</v>
+        <v>4210208750</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>2</v>
@@ -8103,7 +8103,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>4210509447</v>
+        <v>4210586900</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>2</v>
@@ -8115,7 +8115,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1">
-        <v>4210588954</v>
+        <v>4210433177</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>2</v>
@@ -8127,7 +8127,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1">
-        <v>4210690402</v>
+        <v>4210911313</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>2</v>
@@ -8139,7 +8139,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1">
-        <v>4210692880</v>
+        <v>4210745675</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>2</v>
@@ -8151,7 +8151,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1">
-        <v>4210735578</v>
+        <v>4211122411</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>2</v>
@@ -8163,7 +8163,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>4210921232</v>
+        <v>4210855921</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>2</v>
@@ -8175,7 +8175,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>4210963617</v>
+        <v>4210009062</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>2</v>
@@ -8187,7 +8187,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>4210973302</v>
+        <v>4210648248</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>2</v>
@@ -8199,7 +8199,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>4211069287</v>
+        <v>4210356297</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>2</v>
@@ -8211,7 +8211,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>4211096801</v>
+        <v>4210152801</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>2</v>
@@ -8223,7 +8223,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>4211189006</v>
+        <v>4210086596</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>2</v>
@@ -8235,7 +8235,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>4211014355</v>
+        <v>4211058112</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>2</v>
@@ -8247,7 +8247,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>4210122458</v>
+        <v>4210411973</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>2</v>
@@ -8259,7 +8259,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>4210621591</v>
+        <v>4211010219</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>2</v>
@@ -8271,7 +8271,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>4210474468</v>
+        <v>4210273020</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>2</v>
@@ -8283,7 +8283,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>4210392055</v>
+        <v>4210264695</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>2</v>
@@ -8295,7 +8295,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>4210144557</v>
+        <v>4210930375</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
@@ -8307,7 +8307,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>4210806396</v>
+        <v>4210242756</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>2</v>
@@ -8319,7 +8319,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>4210059000</v>
+        <v>4210084552</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>2</v>
@@ -8331,7 +8331,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>4211050835</v>
+        <v>4210140390</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>2</v>
@@ -8343,7 +8343,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>4210941334</v>
+        <v>4210198183</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>2</v>
@@ -8355,7 +8355,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>4210073431</v>
+        <v>4210253167</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -8367,7 +8367,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>4210222465</v>
+        <v>4210278245</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>2</v>
@@ -8379,7 +8379,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>4210321387</v>
+        <v>4210405200</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>2</v>
@@ -8391,7 +8391,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>4210322119</v>
+        <v>4210412326</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>2</v>
@@ -8403,7 +8403,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>4210613705</v>
+        <v>4210460806</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>2</v>
@@ -8415,7 +8415,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>4210640185</v>
+        <v>4210502557</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>2</v>
@@ -8427,7 +8427,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1">
-        <v>4210734425</v>
+        <v>4210509447</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>2</v>
@@ -8439,7 +8439,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1">
-        <v>4210931474</v>
+        <v>4210588954</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>2</v>
@@ -8451,7 +8451,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1">
-        <v>4211183842</v>
+        <v>4210690402</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>2</v>
@@ -8463,7 +8463,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1">
-        <v>4211190937</v>
+        <v>4210692880</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
@@ -8475,7 +8475,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1">
-        <v>4210264951</v>
+        <v>4210735578</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
@@ -8487,7 +8487,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1">
-        <v>4210229661</v>
+        <v>4210921232</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>2</v>
@@ -8499,7 +8499,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1">
-        <v>4210815491</v>
+        <v>4210963617</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>2</v>
@@ -8511,7 +8511,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1">
-        <v>4210842072</v>
+        <v>4210973302</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>2</v>
@@ -8523,7 +8523,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1">
-        <v>4210497292</v>
+        <v>4211069287</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
@@ -8535,7 +8535,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1">
-        <v>4210984821</v>
+        <v>4211096801</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
@@ -8547,7 +8547,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>4210185227</v>
+        <v>4211189006</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>2</v>
@@ -8559,7 +8559,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>4210151586</v>
+        <v>4211014355</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>2</v>
@@ -8571,7 +8571,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>4210791646</v>
+        <v>4210122458</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>2</v>
@@ -8583,7 +8583,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>4211014966</v>
+        <v>4210621591</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
@@ -8595,7 +8595,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1">
-        <v>4211039341</v>
+        <v>4210474468</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>2</v>
@@ -8607,7 +8607,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1">
-        <v>4210012567</v>
+        <v>4210392055</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>2</v>
@@ -8619,7 +8619,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1">
-        <v>4210094035</v>
+        <v>4210144557</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>2</v>
@@ -8631,7 +8631,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1">
-        <v>4210128315</v>
+        <v>4210806396</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
@@ -8643,7 +8643,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1">
-        <v>4210195896</v>
+        <v>4210059000</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>2</v>
@@ -8655,7 +8655,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1">
-        <v>4210201732</v>
+        <v>4211050835</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
@@ -8667,7 +8667,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1">
-        <v>4210267013</v>
+        <v>4210941334</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>2</v>
@@ -8679,7 +8679,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1">
-        <v>4210385160</v>
+        <v>4210073431</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
@@ -8691,7 +8691,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1">
-        <v>4210399589</v>
+        <v>4210222465</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>2</v>
@@ -8703,7 +8703,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1">
-        <v>4210435801</v>
+        <v>4210321387</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1">
-        <v>4210457607</v>
+        <v>4210322119</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>2</v>
@@ -8727,7 +8727,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1">
-        <v>4210482713</v>
+        <v>4210613705</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>2</v>
@@ -8739,7 +8739,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1">
-        <v>4210518577</v>
+        <v>4210640185</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>2</v>
@@ -8751,7 +8751,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1">
-        <v>4210521692</v>
+        <v>4210734425</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>2</v>
@@ -8763,7 +8763,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1">
-        <v>4210875091</v>
+        <v>4210931474</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>2</v>
@@ -8775,7 +8775,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1">
-        <v>4211117196</v>
+        <v>4210951981</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>2</v>
@@ -8787,7 +8787,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1">
-        <v>4211129438</v>
+        <v>4211183842</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>2</v>
@@ -8799,7 +8799,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1">
-        <v>4211174186</v>
+        <v>4211190937</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>2</v>
@@ -8811,7 +8811,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1">
-        <v>4210199520</v>
+        <v>4210264951</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
@@ -8823,7 +8823,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1">
-        <v>4211054741</v>
+        <v>4210229661</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>2</v>
@@ -8835,7 +8835,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1">
-        <v>4210354861</v>
+        <v>4210815491</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>2</v>
@@ -8847,7 +8847,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1">
-        <v>4210967965</v>
+        <v>4210842072</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>2</v>
@@ -8859,7 +8859,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1">
-        <v>4210461415</v>
+        <v>4210497292</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
@@ -8871,7 +8871,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1">
-        <v>4210692323</v>
+        <v>4210984821</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
@@ -8883,7 +8883,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1">
-        <v>4210045275</v>
+        <v>4210185227</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
@@ -8895,7 +8895,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1">
-        <v>4210105758</v>
+        <v>4210151586</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>2</v>
@@ -8907,7 +8907,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1">
-        <v>4210115421</v>
+        <v>4210791646</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>2</v>
@@ -8919,7 +8919,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1">
-        <v>4210354387</v>
+        <v>4211014966</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>2</v>
@@ -8931,7 +8931,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1">
-        <v>4210358137</v>
+        <v>4211039341</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>2</v>
@@ -8943,7 +8943,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1">
-        <v>4210386755</v>
+        <v>4210012567</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>2</v>
@@ -8955,7 +8955,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1">
-        <v>4210714398</v>
+        <v>4210094035</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>2</v>
@@ -8967,7 +8967,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1">
-        <v>4210043894</v>
+        <v>4210128315</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>2</v>
@@ -8979,7 +8979,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1">
-        <v>4210122182</v>
+        <v>4210195896</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>2</v>
@@ -8991,7 +8991,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1">
-        <v>4210141517</v>
+        <v>4210201732</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>2</v>
@@ -9003,7 +9003,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1">
-        <v>4210142349</v>
+        <v>4210256983</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>2</v>
@@ -9015,7 +9015,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1">
-        <v>4210383149</v>
+        <v>4210267013</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
@@ -9027,7 +9027,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1">
-        <v>4210424900</v>
+        <v>4210385160</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>2</v>
@@ -9039,7 +9039,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1">
-        <v>4210622386</v>
+        <v>4210399589</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>2</v>
@@ -9051,7 +9051,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1">
-        <v>4210769887</v>
+        <v>4210435801</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>2</v>
@@ -9063,7 +9063,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1">
-        <v>4210997472</v>
+        <v>4210457607</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>2</v>
@@ -9075,7 +9075,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1">
-        <v>4211157478</v>
+        <v>4210482713</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
@@ -9087,7 +9087,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1">
-        <v>4210420456</v>
+        <v>4210518577</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>2</v>
@@ -9099,7 +9099,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1">
-        <v>4210897066</v>
+        <v>4210521692</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>2</v>
@@ -9111,7 +9111,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1">
-        <v>4210117447</v>
+        <v>4210875091</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>2</v>
@@ -9123,7 +9123,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1">
-        <v>4210151088</v>
+        <v>4211117196</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>2</v>
@@ -9135,7 +9135,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1">
-        <v>4210205221</v>
+        <v>4211129438</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>2</v>
@@ -9147,7 +9147,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1">
-        <v>4210392364</v>
+        <v>4211174186</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>2</v>
@@ -9159,7 +9159,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1">
-        <v>4210462732</v>
+        <v>4210199520</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>2</v>
@@ -9171,7 +9171,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1">
-        <v>4210942167</v>
+        <v>4211054741</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>2</v>
@@ -9183,7 +9183,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1">
-        <v>4210176463</v>
+        <v>4210870120</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>2</v>
@@ -9195,7 +9195,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1">
-        <v>4211024353</v>
+        <v>4210354861</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>2</v>
@@ -9207,7 +9207,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1">
-        <v>4210047154</v>
+        <v>4210967965</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
@@ -9219,7 +9219,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1">
-        <v>4210433787</v>
+        <v>4210461415</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>2</v>
@@ -9231,7 +9231,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1">
-        <v>4210182855</v>
+        <v>4210144307</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
@@ -9243,7 +9243,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1">
-        <v>4210994649</v>
+        <v>4210692323</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>2</v>
@@ -9255,7 +9255,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1">
-        <v>4210450687</v>
+        <v>4210045275</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>2</v>
@@ -9267,7 +9267,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1">
-        <v>4210922651</v>
+        <v>4210105758</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>2</v>
@@ -9279,7 +9279,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1">
-        <v>4210020624</v>
+        <v>4210115421</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
@@ -9291,7 +9291,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1">
-        <v>4210072470</v>
+        <v>4210354387</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>2</v>
@@ -9303,7 +9303,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1">
-        <v>4210155613</v>
+        <v>4210358137</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>2</v>
@@ -9315,7 +9315,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1">
-        <v>4210167563</v>
+        <v>4210386755</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>2</v>
@@ -9327,7 +9327,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1">
-        <v>4210183865</v>
+        <v>4210714398</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>2</v>
@@ -9339,7 +9339,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1">
-        <v>4210194296</v>
+        <v>4210043894</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>2</v>
@@ -9351,7 +9351,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1">
-        <v>4210198173</v>
+        <v>4210122182</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>2</v>
@@ -9363,7 +9363,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1">
-        <v>4210255777</v>
+        <v>4210141517</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>2</v>
@@ -9375,7 +9375,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1">
-        <v>4210357001</v>
+        <v>4210142349</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>2</v>
@@ -9387,7 +9387,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1">
-        <v>4210452807</v>
+        <v>4210383149</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>2</v>
@@ -9399,7 +9399,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1">
-        <v>4210523627</v>
+        <v>4210424900</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>2</v>
@@ -9411,7 +9411,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1">
-        <v>4210703688</v>
+        <v>4210622386</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>2</v>
@@ -9423,7 +9423,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1">
-        <v>4210711324</v>
+        <v>4210769887</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>2</v>
@@ -9435,7 +9435,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1">
-        <v>4210740039</v>
+        <v>4210997472</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>2</v>
@@ -9447,7 +9447,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1">
-        <v>4210762861</v>
+        <v>4211157478</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>2</v>
@@ -9459,7 +9459,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1">
-        <v>4210992519</v>
+        <v>4210420456</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>2</v>
@@ -9471,7 +9471,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1">
-        <v>4211033732</v>
+        <v>4210897066</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>2</v>
@@ -9483,7 +9483,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1">
-        <v>4211081285</v>
+        <v>4210117447</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>2</v>
@@ -9495,7 +9495,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1">
-        <v>4211123262</v>
+        <v>4210151088</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>2</v>
@@ -9507,7 +9507,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1">
-        <v>4211389730</v>
+        <v>4210205221</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>2</v>
@@ -9519,7 +9519,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1">
-        <v>4210147981</v>
+        <v>4210392364</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>2</v>
@@ -9531,7 +9531,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1">
-        <v>4210644077</v>
+        <v>4210462732</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>2</v>
@@ -9543,7 +9543,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1">
-        <v>4210257649</v>
+        <v>4210942167</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>2</v>
@@ -9555,7 +9555,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1">
-        <v>4210402143</v>
+        <v>4210176463</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>2</v>
@@ -9567,7 +9567,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1">
-        <v>4210523156</v>
+        <v>4211024353</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>2</v>
@@ -9579,7 +9579,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1">
-        <v>4210823515</v>
+        <v>4210047154</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>2</v>
@@ -9591,7 +9591,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1">
-        <v>4210115162</v>
+        <v>4210433787</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>2</v>
@@ -9603,7 +9603,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1">
-        <v>4210612098</v>
+        <v>4210182855</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>2</v>
@@ -9615,7 +9615,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1">
-        <v>4210368642</v>
+        <v>4210994649</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>2</v>
@@ -9627,7 +9627,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1">
-        <v>4210079772</v>
+        <v>4210450687</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>2</v>
@@ -9639,7 +9639,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1">
-        <v>4210132442</v>
+        <v>4210922651</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>2</v>
@@ -9651,7 +9651,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1">
-        <v>4210166153</v>
+        <v>4210020624</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>2</v>
@@ -9663,7 +9663,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1">
-        <v>4210184555</v>
+        <v>4210072470</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>2</v>
@@ -9675,7 +9675,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1">
-        <v>4210236370</v>
+        <v>4210087071</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>2</v>
@@ -9687,7 +9687,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1">
-        <v>4210583026</v>
+        <v>4210155613</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>2</v>
@@ -9699,7 +9699,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1">
-        <v>4210671328</v>
+        <v>4210167563</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>2</v>
@@ -9711,7 +9711,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1">
-        <v>4210722932</v>
+        <v>4210183865</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>2</v>
@@ -9723,7 +9723,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1">
-        <v>4210764690</v>
+        <v>4210194296</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>2</v>
@@ -9735,7 +9735,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1">
-        <v>4210830444</v>
+        <v>4210198173</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>2</v>
@@ -9747,7 +9747,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1">
-        <v>4211047440</v>
+        <v>4210255777</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>2</v>
@@ -9759,7 +9759,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1">
-        <v>4210691393</v>
+        <v>4210357001</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>2</v>
@@ -9771,7 +9771,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1">
-        <v>4210986456</v>
+        <v>4210452807</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>2</v>
@@ -9783,7 +9783,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1">
-        <v>4210701833</v>
+        <v>4210523627</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>2</v>
@@ -9795,7 +9795,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1">
-        <v>4211121228</v>
+        <v>4210703688</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>2</v>
@@ -9807,7 +9807,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1">
-        <v>4210891162</v>
+        <v>4210711324</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>2</v>
@@ -9819,7 +9819,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1">
-        <v>4210685145</v>
+        <v>4210740039</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>2</v>
@@ -9831,7 +9831,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1">
-        <v>4210110664</v>
+        <v>4210762861</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>2</v>
@@ -9843,7 +9843,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1">
-        <v>4210179613</v>
+        <v>4210764761</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>2</v>
@@ -9855,7 +9855,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1">
-        <v>4210230359</v>
+        <v>4210992519</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>2</v>
@@ -9867,7 +9867,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1">
-        <v>4210259795</v>
+        <v>4211033732</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>2</v>
@@ -9879,7 +9879,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1">
-        <v>4210321845</v>
+        <v>4211081285</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>2</v>
@@ -9891,7 +9891,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1">
-        <v>4210347256</v>
+        <v>4211123262</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>2</v>
@@ -9903,7 +9903,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1">
-        <v>4210420336</v>
+        <v>4211160024</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>2</v>
@@ -9915,7 +9915,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="1">
-        <v>4210438071</v>
+        <v>4211389730</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>2</v>
@@ -9927,7 +9927,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="1">
-        <v>4210476751</v>
+        <v>4210147981</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>2</v>
@@ -9939,7 +9939,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1">
-        <v>4210671598</v>
+        <v>4210644077</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>2</v>
@@ -9951,7 +9951,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1">
-        <v>4210815668</v>
+        <v>4210257649</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>2</v>
@@ -9963,7 +9963,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1">
-        <v>4210841954</v>
+        <v>4210402143</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>2</v>
@@ -9975,7 +9975,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1">
-        <v>4210995906</v>
+        <v>4210523156</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>2</v>
@@ -9987,7 +9987,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1">
-        <v>4210697216</v>
+        <v>4210823515</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>2</v>
@@ -9999,7 +9999,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="1">
-        <v>4210851034</v>
+        <v>4210115162</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>2</v>
@@ -10011,7 +10011,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1">
-        <v>4211039879</v>
+        <v>4210612098</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>2</v>
@@ -10023,7 +10023,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="1">
-        <v>4210440787</v>
+        <v>4210368642</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>2</v>
@@ -10035,7 +10035,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="1">
-        <v>4210396117</v>
+        <v>4210079772</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>2</v>
@@ -10047,7 +10047,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="1">
-        <v>4210209432</v>
+        <v>4210132442</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>2</v>
@@ -10059,7 +10059,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="1">
-        <v>4210466625</v>
+        <v>4210166153</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>2</v>
@@ -10071,7 +10071,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="1">
-        <v>4210015894</v>
+        <v>4210184555</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>2</v>
@@ -10083,7 +10083,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1">
-        <v>4210020577</v>
+        <v>4210236370</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>2</v>
@@ -10095,7 +10095,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="1">
-        <v>4210050876</v>
+        <v>4210583026</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>2</v>
@@ -10107,7 +10107,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="1">
-        <v>4210178048</v>
+        <v>4210671328</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>2</v>
@@ -10119,7 +10119,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="1">
-        <v>4210183791</v>
+        <v>4210722932</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>2</v>
@@ -10131,7 +10131,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="1">
-        <v>4210301504</v>
+        <v>4210764690</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>2</v>
@@ -10143,7 +10143,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="1">
-        <v>4210341601</v>
+        <v>4210830444</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>2</v>
@@ -10155,7 +10155,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="1">
-        <v>4210370018</v>
+        <v>4211015938</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>2</v>
@@ -10167,7 +10167,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="1">
-        <v>4210377269</v>
+        <v>4211047440</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>2</v>
@@ -10179,7 +10179,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1">
-        <v>4210384491</v>
+        <v>4210691393</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>2</v>
@@ -10191,7 +10191,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1">
-        <v>4210484114</v>
+        <v>4210986456</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>2</v>
@@ -10203,7 +10203,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1">
-        <v>4210573384</v>
+        <v>4210701833</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>2</v>
@@ -10215,7 +10215,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="1">
-        <v>4210763178</v>
+        <v>4211121228</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>2</v>
@@ -10227,7 +10227,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="1">
-        <v>4211003079</v>
+        <v>4210891162</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>2</v>
@@ -10239,7 +10239,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="1">
-        <v>4210652631</v>
+        <v>4210685145</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>2</v>
@@ -10251,7 +10251,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="1">
-        <v>4210752028</v>
+        <v>4211156129</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>2</v>
@@ -10263,7 +10263,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="1">
-        <v>4210282624</v>
+        <v>4210110664</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>2</v>
@@ -10275,7 +10275,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="1">
-        <v>4210530875</v>
+        <v>4210179613</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>2</v>
@@ -10287,7 +10287,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="1">
-        <v>4210182500</v>
+        <v>4210230359</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>2</v>
@@ -10299,7 +10299,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="1">
-        <v>4210780191</v>
+        <v>4210259795</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>2</v>
@@ -10311,7 +10311,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="1">
-        <v>4210748422</v>
+        <v>4210321845</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>2</v>
@@ -10323,7 +10323,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="1">
-        <v>4210537453</v>
+        <v>4210347256</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="1">
-        <v>4210213411</v>
+        <v>4210420336</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>2</v>
@@ -10347,7 +10347,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="1">
-        <v>4210223261</v>
+        <v>4210438071</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>2</v>
@@ -10359,7 +10359,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="1">
-        <v>4210261027</v>
+        <v>4210476751</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>2</v>
@@ -10371,7 +10371,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="1">
-        <v>4210329350</v>
+        <v>4210629820</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>2</v>
@@ -10383,7 +10383,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="1">
-        <v>4210438000</v>
+        <v>4210671598</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>2</v>
@@ -10395,7 +10395,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="1">
-        <v>4210444262</v>
+        <v>4210815668</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>2</v>
@@ -10407,7 +10407,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="1">
-        <v>4211121745</v>
+        <v>4210841954</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>2</v>
@@ -10419,7 +10419,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="1">
-        <v>4210256197</v>
+        <v>4210995906</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>2</v>
@@ -10431,7 +10431,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="1">
-        <v>4210837418</v>
+        <v>4210673461</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>2</v>
@@ -10443,7 +10443,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="1">
-        <v>4210283620</v>
+        <v>4210697216</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>2</v>
@@ -10455,7 +10455,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="1">
-        <v>4210928075</v>
+        <v>4210851034</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>2</v>
@@ -10467,7 +10467,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="1">
-        <v>4210005081</v>
+        <v>4211039879</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>2</v>
@@ -10479,7 +10479,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="1">
-        <v>4210212879</v>
+        <v>4210440787</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>2</v>
@@ -10491,7 +10491,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="1">
-        <v>4210431823</v>
+        <v>4210985823</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>2</v>
@@ -10503,7 +10503,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="1">
-        <v>4210525890</v>
+        <v>4210396117</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>2</v>
@@ -10515,7 +10515,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="1">
-        <v>4210532302</v>
+        <v>4210209432</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>2</v>
@@ -10527,7 +10527,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="1">
-        <v>4210489208</v>
+        <v>4210466625</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>2</v>
@@ -10539,7 +10539,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="1">
-        <v>4210716858</v>
+        <v>4210015894</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>2</v>
@@ -10551,7 +10551,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="1">
-        <v>4210065219</v>
+        <v>4210020577</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>2</v>
@@ -10563,7 +10563,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="1">
-        <v>4210941041</v>
+        <v>4210050876</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>2</v>
@@ -10575,7 +10575,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1">
-        <v>4210534515</v>
+        <v>4210178048</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>2</v>
@@ -10587,7 +10587,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="1">
-        <v>4210377665</v>
+        <v>4210183791</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>2</v>
@@ -10599,7 +10599,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="1">
-        <v>4210500697</v>
+        <v>4210301504</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>2</v>
@@ -10611,7 +10611,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="1">
-        <v>4210646048</v>
+        <v>4210341601</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>2</v>
@@ -10623,7 +10623,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="1">
-        <v>4210113372</v>
+        <v>4210370018</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>2</v>
@@ -10635,7 +10635,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="1">
-        <v>4210145794</v>
+        <v>4210377269</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>2</v>
@@ -10647,7 +10647,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="1">
-        <v>4210213661</v>
+        <v>4210384491</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>2</v>
@@ -10659,7 +10659,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="1">
-        <v>4210366648</v>
+        <v>4210484114</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>2</v>
@@ -10671,7 +10671,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1">
-        <v>4210476056</v>
+        <v>4210544250</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>2</v>
@@ -10683,7 +10683,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1">
-        <v>4210598087</v>
+        <v>4210573384</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>2</v>
@@ -10695,7 +10695,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="1">
-        <v>4210610217</v>
+        <v>4210763178</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>2</v>
@@ -10707,7 +10707,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="1">
-        <v>4210646368</v>
+        <v>4211128014</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>2</v>
@@ -10719,7 +10719,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="1">
-        <v>4210689234</v>
+        <v>4211003079</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>2</v>
@@ -10731,7 +10731,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="1">
-        <v>4210850923</v>
+        <v>4210652631</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>2</v>
@@ -10743,7 +10743,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="1">
-        <v>4210935036</v>
+        <v>4210752028</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>2</v>
@@ -10755,7 +10755,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="1">
-        <v>4210936777</v>
+        <v>4210282624</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>2</v>
@@ -10767,7 +10767,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="1">
-        <v>4210596404</v>
+        <v>4210530875</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>2</v>
@@ -10779,7 +10779,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="1">
-        <v>4211119160</v>
+        <v>4210182500</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>2</v>
@@ -10791,7 +10791,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="1">
-        <v>4211029307</v>
+        <v>4210780191</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>2</v>
@@ -10803,7 +10803,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="1">
-        <v>4210533998</v>
+        <v>4210748422</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>2</v>
@@ -10815,7 +10815,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="1">
-        <v>4210368640</v>
+        <v>4210537453</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>2</v>
@@ -10827,7 +10827,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="1">
-        <v>4210952808</v>
+        <v>4210213411</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>2</v>
@@ -10839,7 +10839,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="1">
-        <v>4210093802</v>
+        <v>4210223261</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>2</v>
@@ -10851,7 +10851,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="1">
-        <v>4210162326</v>
+        <v>4210261027</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>2</v>
@@ -10863,7 +10863,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="1">
-        <v>4210204708</v>
+        <v>4210329350</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>2</v>
@@ -10875,7 +10875,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>4210386449</v>
+        <v>4210421627</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>2</v>
@@ -10887,7 +10887,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="1">
-        <v>4210514973</v>
+        <v>4210438000</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>2</v>
@@ -10899,7 +10899,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="1">
-        <v>4210539791</v>
+        <v>4210444262</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>2</v>
@@ -10911,7 +10911,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="1">
-        <v>4210605310</v>
+        <v>4211121745</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>2</v>
@@ -10923,7 +10923,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="1">
-        <v>4210655536</v>
+        <v>4210256197</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>2</v>
@@ -10935,7 +10935,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="1">
-        <v>4210803979</v>
+        <v>4210837418</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>2</v>
@@ -10947,7 +10947,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="1">
-        <v>4210415570</v>
+        <v>4210283620</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>2</v>
@@ -10959,7 +10959,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="2">
-        <v>4210033714</v>
+        <v>4210928075</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>2</v>
@@ -10971,7 +10971,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="1">
-        <v>4210698032</v>
+        <v>4210163688</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>2</v>
@@ -10983,7 +10983,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="1">
-        <v>4211121133</v>
+        <v>4210005081</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>2</v>
@@ -10995,7 +10995,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="1">
-        <v>4210024291</v>
+        <v>4210198370</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>2</v>
@@ -11007,7 +11007,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="1">
-        <v>4210140346</v>
+        <v>4210212879</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>2</v>
@@ -11019,7 +11019,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="1">
-        <v>4210296631</v>
+        <v>4210431823</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>2</v>
@@ -11031,7 +11031,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="1">
-        <v>4210406475</v>
+        <v>4210525890</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>2</v>
@@ -11043,7 +11043,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="1">
-        <v>4210506018</v>
+        <v>4210532302</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>2</v>
@@ -11055,7 +11055,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="1">
-        <v>4210592061</v>
+        <v>4210489208</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>2</v>
@@ -11067,7 +11067,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="1">
-        <v>4210660785</v>
+        <v>4210716858</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>2</v>
@@ -11079,7 +11079,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="1">
-        <v>4210956722</v>
+        <v>4210065219</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>2</v>
@@ -11091,7 +11091,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="1">
-        <v>4211161420</v>
+        <v>4210941041</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>2</v>
@@ -11103,7 +11103,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="1">
-        <v>4210774231</v>
+        <v>4210534515</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>2</v>
@@ -11115,7 +11115,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="1">
-        <v>4211032450</v>
+        <v>4210377665</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>2</v>
@@ -11127,7 +11127,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="1">
-        <v>4210174856</v>
+        <v>4210500697</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>2</v>
@@ -11139,7 +11139,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="1">
-        <v>4210248902</v>
+        <v>4210646048</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>2</v>
@@ -11151,7 +11151,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="1">
-        <v>4210799190</v>
+        <v>4210113372</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>2</v>
@@ -11163,7 +11163,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="1">
-        <v>4210619540</v>
+        <v>4210145794</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>2</v>
@@ -11175,7 +11175,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="1">
-        <v>4210608974</v>
+        <v>4210213661</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>2</v>
@@ -11187,7 +11187,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="1">
-        <v>4210301184</v>
+        <v>4210366648</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>2</v>
@@ -11199,7 +11199,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="1">
-        <v>4210939937</v>
+        <v>4210451210</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>2</v>
@@ -11211,7 +11211,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="1">
-        <v>4210539165</v>
+        <v>4210476056</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>2</v>
@@ -11223,7 +11223,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="1">
-        <v>4210250290</v>
+        <v>4210598087</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>2</v>
@@ -11235,7 +11235,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="1">
-        <v>4210662861</v>
+        <v>4210610217</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>2</v>
@@ -11247,7 +11247,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="1">
-        <v>4210155525</v>
+        <v>4210646368</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>2</v>
@@ -11259,7 +11259,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="1">
-        <v>4210414276</v>
+        <v>4210689234</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>2</v>
@@ -11271,7 +11271,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="1">
-        <v>4210851640</v>
+        <v>4210850923</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>2</v>
@@ -11283,7 +11283,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="1">
-        <v>4210632010</v>
+        <v>4210935036</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>2</v>
@@ -11295,7 +11295,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>4210396336</v>
+        <v>4210936777</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>2</v>
@@ -11307,7 +11307,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="1">
-        <v>4210809995</v>
+        <v>4210596404</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>2</v>
@@ -11319,7 +11319,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="1">
-        <v>4210996507</v>
+        <v>4211119160</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>2</v>
@@ -11331,7 +11331,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="1">
-        <v>4210691687</v>
+        <v>4211029307</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>2</v>
@@ -11343,7 +11343,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="1">
-        <v>4210451754</v>
+        <v>4210533998</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>2</v>
@@ -11355,7 +11355,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="1">
-        <v>4211090225</v>
+        <v>4210368640</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>2</v>
@@ -11367,7 +11367,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="1">
-        <v>4210098148</v>
+        <v>4210952808</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>2</v>
@@ -11379,7 +11379,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="1">
-        <v>4210885374</v>
+        <v>4210093802</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="1">
-        <v>4210128706</v>
+        <v>4210162326</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>2</v>
@@ -11403,7 +11403,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="1">
-        <v>4210429692</v>
+        <v>4210204708</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>2</v>
@@ -11415,7 +11415,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="1">
-        <v>4210457601</v>
+        <v>4210386449</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>2</v>
@@ -11427,7 +11427,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="1">
-        <v>4210487716</v>
+        <v>4210514973</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>2</v>
@@ -11439,7 +11439,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="1">
-        <v>4210491196</v>
+        <v>4210539791</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>2</v>
@@ -11451,7 +11451,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="1">
-        <v>4210525608</v>
+        <v>4210605310</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>2</v>
@@ -11463,7 +11463,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="1">
-        <v>4210697405</v>
+        <v>4210655536</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>2</v>
@@ -11475,7 +11475,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="1">
-        <v>4210769634</v>
+        <v>4210803979</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>2</v>
@@ -11487,7 +11487,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="1">
-        <v>4210843781</v>
+        <v>4210415570</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>2</v>
@@ -11499,7 +11499,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="1">
-        <v>4210871317</v>
+        <v>4210033714</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>2</v>
@@ -11511,7 +11511,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="1">
-        <v>4210942173</v>
+        <v>4210281106</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>2</v>
@@ -11523,7 +11523,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="1">
-        <v>4210983409</v>
+        <v>4210698032</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>2</v>
@@ -11535,7 +11535,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="1">
-        <v>4210831022</v>
+        <v>4211121133</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>2</v>
@@ -11547,7 +11547,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="1">
-        <v>4210478093</v>
+        <v>4210024291</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>2</v>
@@ -11559,7 +11559,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="1">
-        <v>4210623671</v>
+        <v>4210140346</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>2</v>
@@ -11571,7 +11571,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="1">
-        <v>4210379066</v>
+        <v>4210296631</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>2</v>
@@ -11583,7 +11583,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="1">
-        <v>4210539266</v>
+        <v>4210406475</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>2</v>
@@ -11595,7 +11595,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="1">
-        <v>4210198794</v>
+        <v>4210506018</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>2</v>
@@ -11607,7 +11607,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="1">
-        <v>4210200416</v>
+        <v>4210592061</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>2</v>
@@ -11619,7 +11619,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="1">
-        <v>4210211263</v>
+        <v>4210660785</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>2</v>
@@ -11631,7 +11631,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="1">
-        <v>4210333855</v>
+        <v>4210872795</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>2</v>
@@ -11643,7 +11643,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="1">
-        <v>4210427538</v>
+        <v>4210956722</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>2</v>
@@ -11655,7 +11655,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="1">
-        <v>4210497116</v>
+        <v>4211161420</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>2</v>
@@ -11667,7 +11667,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="1">
-        <v>4210610622</v>
+        <v>4210774231</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>2</v>
@@ -11679,7 +11679,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="1">
-        <v>4210675980</v>
+        <v>4211032450</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>2</v>
@@ -11691,7 +11691,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="1">
-        <v>4210789652</v>
+        <v>4210174856</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>2</v>
@@ -11703,7 +11703,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="1">
-        <v>4210862040</v>
+        <v>4210248902</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>2</v>
@@ -11715,7 +11715,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="1">
-        <v>4210841799</v>
+        <v>4210799190</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>2</v>
@@ -11727,7 +11727,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="1">
-        <v>4210009943</v>
+        <v>4210619540</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>2</v>
@@ -11739,7 +11739,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="1">
-        <v>4210707172</v>
+        <v>4210608974</v>
       </c>
       <c r="C587" s="1" t="s">
         <v>2</v>
@@ -11751,7 +11751,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="1">
-        <v>4210003908</v>
+        <v>4210301184</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>2</v>
@@ -11763,7 +11763,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="1">
-        <v>4210405234</v>
+        <v>4210566069</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>2</v>
@@ -11775,7 +11775,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="1">
-        <v>4210113485</v>
+        <v>4210939937</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>2</v>
@@ -11787,7 +11787,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="1">
-        <v>4210185045</v>
+        <v>4210240876</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>2</v>
@@ -11799,7 +11799,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="1">
-        <v>4210061222</v>
+        <v>4210539165</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>2</v>
@@ -11811,7 +11811,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="1">
-        <v>4210239886</v>
+        <v>4210250290</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>2</v>
@@ -11823,7 +11823,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="1">
-        <v>4210244610</v>
+        <v>4210662861</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>2</v>
@@ -11835,7 +11835,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="1">
-        <v>4210386471</v>
+        <v>4210155525</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>2</v>
@@ -11847,7 +11847,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="1">
-        <v>4210496119</v>
+        <v>4210414276</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>2</v>
@@ -11859,7 +11859,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="1">
-        <v>4210521327</v>
+        <v>4210851640</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>2</v>
@@ -11871,7 +11871,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="1">
-        <v>4211052917</v>
+        <v>4210632010</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>2</v>
@@ -11883,7 +11883,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="1">
-        <v>4210050280</v>
+        <v>4210396336</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>2</v>
@@ -11895,7 +11895,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="1">
-        <v>4210372229</v>
+        <v>4210809995</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>2</v>
@@ -11907,7 +11907,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="1">
-        <v>4210326134</v>
+        <v>4210996507</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>2</v>
@@ -11919,7 +11919,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="1">
-        <v>4210790046</v>
+        <v>4210691687</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>2</v>
@@ -11931,7 +11931,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="1">
-        <v>4210535776</v>
+        <v>4210451754</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>2</v>
@@ -11943,7 +11943,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="1">
-        <v>4210194157</v>
+        <v>4211090225</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>2</v>
@@ -11955,7 +11955,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="1">
-        <v>4210359992</v>
+        <v>4210098148</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>2</v>
@@ -11967,7 +11967,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="1">
-        <v>4210380505</v>
+        <v>4210885374</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>2</v>
@@ -11979,7 +11979,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="1">
-        <v>4210415781</v>
+        <v>4210128706</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>2</v>
@@ -11991,7 +11991,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="1">
-        <v>4210417502</v>
+        <v>4210429692</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>2</v>
@@ -12003,7 +12003,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="1">
-        <v>4210502346</v>
+        <v>4210457601</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>2</v>
@@ -12015,7 +12015,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="1">
-        <v>4210609300</v>
+        <v>4210487716</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>2</v>
@@ -12027,7 +12027,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="1">
-        <v>4210737822</v>
+        <v>4210491196</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>2</v>
@@ -12039,7 +12039,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="1">
-        <v>4210806367</v>
+        <v>4210525608</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>2</v>
@@ -12051,7 +12051,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="1">
-        <v>4210920340</v>
+        <v>4210697405</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>2</v>
@@ -12063,7 +12063,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="1">
-        <v>4210114589</v>
+        <v>4210769634</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>2</v>
@@ -12075,7 +12075,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="1">
-        <v>4210273236</v>
+        <v>4210843781</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>2</v>
@@ -12087,7 +12087,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="1">
-        <v>4210270390</v>
+        <v>4210871317</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>2</v>
@@ -12099,7 +12099,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="1">
-        <v>4210161201</v>
+        <v>4210942173</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>2</v>
@@ -12111,7 +12111,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="1">
-        <v>4210185589</v>
+        <v>4210983409</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>2</v>
@@ -12123,7 +12123,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="1">
-        <v>4210229959</v>
+        <v>4211053366</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>2</v>
@@ -12135,7 +12135,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="1">
-        <v>4210236802</v>
+        <v>4210831022</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>2</v>
@@ -12147,7 +12147,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="1">
-        <v>4210323925</v>
+        <v>4210478093</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>2</v>
@@ -12159,7 +12159,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="1">
-        <v>4210342956</v>
+        <v>4210623671</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>2</v>
@@ -12171,7 +12171,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="1">
-        <v>4210396271</v>
+        <v>4210379066</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>2</v>
@@ -12183,7 +12183,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="1">
-        <v>4210548527</v>
+        <v>4210539266</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>2</v>
@@ -12195,7 +12195,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="1">
-        <v>4210749428</v>
+        <v>4210064258</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>2</v>
@@ -12207,7 +12207,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="1">
-        <v>4211048212</v>
+        <v>4210911529</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>2</v>
@@ -12219,7 +12219,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="1">
-        <v>4210893995</v>
+        <v>4210198794</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>2</v>
@@ -12231,7 +12231,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="1">
-        <v>4210962329</v>
+        <v>4210200416</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>2</v>
@@ -12243,7 +12243,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="1">
-        <v>4210019501</v>
+        <v>4210211263</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>2</v>
@@ -12255,7 +12255,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="1">
-        <v>4210347993</v>
+        <v>4210333855</v>
       </c>
       <c r="C630" s="1" t="s">
         <v>2</v>
@@ -12267,7 +12267,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="1">
-        <v>4210392078</v>
+        <v>4210427538</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>2</v>
@@ -12279,7 +12279,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="1">
-        <v>4210387120</v>
+        <v>4210497116</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>2</v>
@@ -12291,7 +12291,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="1">
-        <v>4210487162</v>
+        <v>4210610622</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>2</v>
@@ -12303,7 +12303,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="1">
-        <v>4210842452</v>
+        <v>4210675980</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>2</v>
@@ -12315,7 +12315,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="1">
-        <v>4210208571</v>
+        <v>4210789652</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>2</v>
@@ -12327,7 +12327,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="1">
-        <v>4211073903</v>
+        <v>4210862040</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>2</v>
@@ -12339,7 +12339,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="1">
-        <v>4210515989</v>
+        <v>4210841799</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>2</v>
@@ -12351,7 +12351,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="1">
-        <v>4210213779</v>
+        <v>4210009943</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>2</v>
@@ -12363,7 +12363,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="1">
-        <v>4210309982</v>
+        <v>4210707172</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>2</v>
@@ -12375,7 +12375,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="1">
-        <v>4210378870</v>
+        <v>4210003908</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>2</v>
@@ -12387,7 +12387,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="1">
-        <v>4210702558</v>
+        <v>4210405234</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>2</v>
@@ -12399,7 +12399,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="1">
-        <v>4210710191</v>
+        <v>4210113485</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>2</v>
@@ -12411,7 +12411,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="1">
-        <v>4210400589</v>
+        <v>4210185045</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>2</v>
@@ -12423,7 +12423,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="1">
-        <v>4210695631</v>
+        <v>4211171435</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>2</v>
@@ -12435,7 +12435,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="1">
-        <v>4210810214</v>
+        <v>4210061222</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>2</v>
@@ -12447,7 +12447,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="1">
-        <v>4210933570</v>
+        <v>4210239886</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="1">
-        <v>4211044632</v>
+        <v>4210244610</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>2</v>
@@ -12471,7 +12471,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="1">
-        <v>4210420793</v>
+        <v>4210386471</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>2</v>
@@ -12483,7 +12483,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="1">
-        <v>4210126712</v>
+        <v>4210496119</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>2</v>
@@ -12495,7 +12495,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="1">
-        <v>4210250376</v>
+        <v>4210521327</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>2</v>
@@ -12507,7 +12507,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="1">
-        <v>4210407609</v>
+        <v>4211052917</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>2</v>
@@ -12519,7 +12519,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="1">
-        <v>4210427383</v>
+        <v>4210050280</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>2</v>
@@ -12531,7 +12531,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="1">
-        <v>4210879411</v>
+        <v>4210372229</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>2</v>
@@ -12543,7 +12543,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="1">
-        <v>4211020443</v>
+        <v>4210326134</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>2</v>
@@ -12555,7 +12555,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="1">
-        <v>4210500734</v>
+        <v>4210790046</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>2</v>
@@ -12567,7 +12567,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="1">
-        <v>4210599674</v>
+        <v>4210535776</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>2</v>
@@ -12579,7 +12579,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="1">
-        <v>4210707793</v>
+        <v>4210194157</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>2</v>
@@ -12591,7 +12591,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="1">
-        <v>4210593308</v>
+        <v>4210359992</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>2</v>
@@ -12603,7 +12603,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="1">
-        <v>4210615587</v>
+        <v>4210380505</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>2</v>
@@ -12615,7 +12615,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="1">
-        <v>4210326499</v>
+        <v>4210415781</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>2</v>
@@ -12627,7 +12627,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="1">
-        <v>4210421903</v>
+        <v>4210417502</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>2</v>
@@ -12639,7 +12639,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="1">
-        <v>4210004989</v>
+        <v>4210502346</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>2</v>
@@ -12651,7 +12651,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="1">
-        <v>4210092501</v>
+        <v>4210609300</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>2</v>
@@ -12663,7 +12663,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="1">
-        <v>4210129193</v>
+        <v>4210737822</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>2</v>
@@ -12675,7 +12675,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="1">
-        <v>4210654402</v>
+        <v>4210806367</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>2</v>
@@ -12687,7 +12687,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="1">
-        <v>4211137802</v>
+        <v>4210920340</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>2</v>
@@ -12699,7 +12699,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="1">
-        <v>4211174288</v>
+        <v>4210114589</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>2</v>
@@ -12711,7 +12711,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="1">
-        <v>4211178394</v>
+        <v>4210273236</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>2</v>
@@ -12723,7 +12723,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="1">
-        <v>4210178645</v>
+        <v>4210270390</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>2</v>
@@ -12735,7 +12735,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="1">
-        <v>4210272357</v>
+        <v>4210161201</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>2</v>
@@ -12747,7 +12747,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="1">
-        <v>4210121221</v>
+        <v>4210185589</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>2</v>
@@ -12759,7 +12759,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="1">
-        <v>4210633293</v>
+        <v>4210229959</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>2</v>
@@ -12771,7 +12771,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="1">
-        <v>4210740672</v>
+        <v>4210236802</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>2</v>
@@ -12783,7 +12783,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="1">
-        <v>4210411957</v>
+        <v>4210323925</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>2</v>
@@ -12795,7 +12795,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="1">
-        <v>4210617095</v>
+        <v>4210342956</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>2</v>
@@ -12807,7 +12807,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="1">
-        <v>4210006329</v>
+        <v>4210396271</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>2</v>
@@ -12819,7 +12819,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="1">
-        <v>4210031752</v>
+        <v>4210548527</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>2</v>
@@ -12831,7 +12831,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="1">
-        <v>4210152113</v>
+        <v>4210590170</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>2</v>
@@ -12843,7 +12843,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="1">
-        <v>4210187379</v>
+        <v>4210749428</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>2</v>
@@ -12855,7 +12855,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="1">
-        <v>4210214619</v>
+        <v>4211048212</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>2</v>
@@ -12867,7 +12867,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="1">
-        <v>4210280449</v>
+        <v>4210893995</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>2</v>
@@ -12879,7 +12879,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="1">
-        <v>4210420791</v>
+        <v>4210962329</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>2</v>
@@ -12891,7 +12891,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="1">
-        <v>4210441289</v>
+        <v>4210019501</v>
       </c>
       <c r="C683" s="1" t="s">
         <v>2</v>
@@ -12903,7 +12903,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="1">
-        <v>4210477209</v>
+        <v>4210347993</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>2</v>
@@ -12915,7 +12915,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="1">
-        <v>4210510176</v>
+        <v>4210392078</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>2</v>
@@ -12927,7 +12927,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="1">
-        <v>4210623479</v>
+        <v>4210387120</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>2</v>
@@ -12939,7 +12939,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="1">
-        <v>4210629299</v>
+        <v>4210487162</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>2</v>
@@ -12951,7 +12951,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="1">
-        <v>4210866906</v>
+        <v>4210842452</v>
       </c>
       <c r="C688" s="1" t="s">
         <v>2</v>
@@ -12963,7 +12963,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="1">
-        <v>4211068812</v>
+        <v>4210208571</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>2</v>
@@ -12975,7 +12975,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="1">
-        <v>4210888119</v>
+        <v>4211073903</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>2</v>
@@ -12987,7 +12987,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="1">
-        <v>4211052476</v>
+        <v>4210515989</v>
       </c>
       <c r="C691" s="1" t="s">
         <v>2</v>
@@ -12999,7 +12999,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="1">
-        <v>4210376988</v>
+        <v>4210213779</v>
       </c>
       <c r="C692" s="1" t="s">
         <v>2</v>
@@ -13011,7 +13011,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="1">
-        <v>4210911353</v>
+        <v>4210309982</v>
       </c>
       <c r="C693" s="1" t="s">
         <v>2</v>
@@ -13023,7 +13023,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="1">
-        <v>4210924322</v>
+        <v>4210710346</v>
       </c>
       <c r="C694" s="1" t="s">
         <v>2</v>
@@ -13035,7 +13035,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="1">
-        <v>4210086965</v>
+        <v>4211081738</v>
       </c>
       <c r="C695" s="1" t="s">
         <v>2</v>
@@ -13047,7 +13047,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="1">
-        <v>4210398274</v>
+        <v>4210378870</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>2</v>
@@ -13059,7 +13059,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="1">
-        <v>4210062240</v>
+        <v>4210702558</v>
       </c>
       <c r="C697" s="1" t="s">
         <v>2</v>
@@ -13071,7 +13071,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="1">
-        <v>4210086103</v>
+        <v>4210710191</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>2</v>
@@ -13083,7 +13083,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="1">
-        <v>4210143635</v>
+        <v>4210400589</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>2</v>
@@ -13095,7 +13095,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="1">
-        <v>4210179047</v>
+        <v>4210695631</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>2</v>
@@ -13107,7 +13107,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="1">
-        <v>4210396790</v>
+        <v>4210810214</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>2</v>
@@ -13119,7 +13119,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="1">
-        <v>4210405046</v>
+        <v>4210933570</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>2</v>
@@ -13131,7 +13131,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="1">
-        <v>4210405641</v>
+        <v>4211044632</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>2</v>
@@ -13143,7 +13143,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="1">
-        <v>4210522831</v>
+        <v>4210420793</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>2</v>
@@ -13155,7 +13155,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="1">
-        <v>4210560300</v>
+        <v>4210126712</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>2</v>
@@ -13167,7 +13167,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="1">
-        <v>4210593590</v>
+        <v>4210250376</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>2</v>
@@ -13179,7 +13179,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="1">
-        <v>4210751597</v>
+        <v>4210407609</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>2</v>
@@ -13191,7 +13191,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="1">
-        <v>4210620984</v>
+        <v>4210427383</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>2</v>
@@ -13203,7 +13203,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="1">
-        <v>4210036943</v>
+        <v>4210879411</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>2</v>
@@ -13215,7 +13215,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="1">
-        <v>4210452458</v>
+        <v>4211020443</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>2</v>
@@ -13227,7 +13227,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="1">
-        <v>4210003083</v>
+        <v>4210500734</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>2</v>
@@ -13239,7 +13239,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="1">
-        <v>4210383539</v>
+        <v>4210599674</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>2</v>
@@ -13251,7 +13251,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="1">
-        <v>4210919520</v>
+        <v>4210707793</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>2</v>
@@ -13263,7 +13263,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="1">
-        <v>4210792288</v>
+        <v>4210593308</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>2</v>
@@ -13275,7 +13275,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="1">
-        <v>4210104513</v>
+        <v>4210615587</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>2</v>
@@ -13287,7 +13287,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="1">
-        <v>4210115884</v>
+        <v>4210326499</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>2</v>
@@ -13299,7 +13299,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="1">
-        <v>4210240115</v>
+        <v>4210421903</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>2</v>
@@ -13311,7 +13311,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="1">
-        <v>4210337882</v>
+        <v>4210004989</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>2</v>
@@ -13323,7 +13323,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="1">
-        <v>4210414207</v>
+        <v>4210092501</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>2</v>
@@ -13335,7 +13335,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="1">
-        <v>4210478764</v>
+        <v>4210129193</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>2</v>
@@ -13347,7 +13347,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="1">
-        <v>4210483345</v>
+        <v>4210291900</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>2</v>
@@ -13359,7 +13359,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="1">
-        <v>4210483959</v>
+        <v>4210654402</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>2</v>
@@ -13371,7 +13371,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="1">
-        <v>4210552779</v>
+        <v>4211137802</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>2</v>
@@ -13383,7 +13383,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="1">
-        <v>4210700049</v>
+        <v>4211174288</v>
       </c>
       <c r="C724" s="1" t="s">
         <v>2</v>
@@ -13395,7 +13395,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="1">
-        <v>4210718468</v>
+        <v>4211178394</v>
       </c>
       <c r="C725" s="1" t="s">
         <v>2</v>
@@ -13407,7 +13407,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="1">
-        <v>4210858030</v>
+        <v>4210178645</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>2</v>
@@ -13419,7 +13419,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="1">
-        <v>4210974262</v>
+        <v>4210272357</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>2</v>
@@ -13431,7 +13431,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="1">
-        <v>4211153726</v>
+        <v>4210121221</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>2</v>
@@ -13443,7 +13443,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="1">
-        <v>4210247519</v>
+        <v>4210633293</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>2</v>
@@ -13455,7 +13455,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="1">
-        <v>4210530221</v>
+        <v>4210740672</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>2</v>
@@ -13467,7 +13467,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="1">
-        <v>4210652133</v>
+        <v>4210411957</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>2</v>
@@ -13479,7 +13479,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="1">
-        <v>4210059502</v>
+        <v>4210617095</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>2</v>
@@ -13491,7 +13491,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="1">
-        <v>4210076436</v>
+        <v>4210006329</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>2</v>
@@ -13503,7 +13503,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="1">
-        <v>4210097470</v>
+        <v>4210031752</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>2</v>
@@ -13515,7 +13515,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="1">
-        <v>4210099442</v>
+        <v>4210042205</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>2</v>
@@ -13527,7 +13527,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="1">
-        <v>4210121557</v>
+        <v>4210152113</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>2</v>
@@ -13539,7 +13539,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="1">
-        <v>4210312209</v>
+        <v>4210187379</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>2</v>
@@ -13551,7 +13551,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="1">
-        <v>4210399799</v>
+        <v>4210214619</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>2</v>
@@ -13563,7 +13563,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="1">
-        <v>4210407646</v>
+        <v>4210280449</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>2</v>
@@ -13575,7 +13575,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="1">
-        <v>4210418911</v>
+        <v>4210420791</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>2</v>
@@ -13587,7 +13587,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="1">
-        <v>4210485733</v>
+        <v>4210441289</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>2</v>
@@ -13599,7 +13599,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="1">
-        <v>4210536584</v>
+        <v>4210477209</v>
       </c>
       <c r="C742" s="1" t="s">
         <v>2</v>
@@ -13611,7 +13611,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="1">
-        <v>4210721350</v>
+        <v>4210510176</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>2</v>
@@ -13623,7 +13623,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="1">
-        <v>4210853143</v>
+        <v>4210623479</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>2</v>
@@ -13635,7 +13635,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="1">
-        <v>4210960649</v>
+        <v>4210629299</v>
       </c>
       <c r="C745" s="1" t="s">
         <v>2</v>
@@ -13647,7 +13647,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="1">
-        <v>4211013963</v>
+        <v>4210866906</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>2</v>
@@ -13659,7 +13659,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="1">
-        <v>4210811627</v>
+        <v>4211068812</v>
       </c>
       <c r="C747" s="1" t="s">
         <v>2</v>
@@ -13671,7 +13671,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="1">
-        <v>4210458622</v>
+        <v>4210888119</v>
       </c>
       <c r="C748" s="1" t="s">
         <v>2</v>
@@ -13683,7 +13683,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="1">
-        <v>4210671815</v>
+        <v>4211052476</v>
       </c>
       <c r="C749" s="1" t="s">
         <v>2</v>
@@ -13695,7 +13695,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="1">
-        <v>4210337818</v>
+        <v>4210376988</v>
       </c>
       <c r="C750" s="1" t="s">
         <v>2</v>
@@ -13707,7 +13707,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="1">
-        <v>4210949152</v>
+        <v>4210911353</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>2</v>
@@ -13719,7 +13719,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="1">
-        <v>4210442082</v>
+        <v>4210924322</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>2</v>
@@ -13731,7 +13731,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="1">
-        <v>4210634563</v>
+        <v>4210086965</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>2</v>
@@ -13743,7 +13743,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="1">
-        <v>4210051155</v>
+        <v>4210398274</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>2</v>
@@ -13755,7 +13755,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="1">
-        <v>4210142038</v>
+        <v>4210062240</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>2</v>
@@ -13767,7 +13767,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="1">
-        <v>4210149575</v>
+        <v>4210086103</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>2</v>
@@ -13779,7 +13779,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="1">
-        <v>4210168043</v>
+        <v>4210104103</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>2</v>
@@ -13791,7 +13791,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="1">
-        <v>4210195529</v>
+        <v>4210143635</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>2</v>
@@ -13803,7 +13803,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="1">
-        <v>4210303219</v>
+        <v>4210179047</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>2</v>
@@ -13815,7 +13815,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="1">
-        <v>4210427799</v>
+        <v>4210281783</v>
       </c>
       <c r="C760" s="1" t="s">
         <v>2</v>
@@ -13827,7 +13827,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="1">
-        <v>4210446245</v>
+        <v>4210396790</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>2</v>
@@ -13839,7 +13839,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="1">
-        <v>4210461149</v>
+        <v>4210405046</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>2</v>
@@ -13851,7 +13851,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="1">
-        <v>4210463784</v>
+        <v>4210405641</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>2</v>
@@ -13863,7 +13863,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="1">
-        <v>4210629760</v>
+        <v>4210522831</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>2</v>
@@ -13875,7 +13875,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="1">
-        <v>4210709679</v>
+        <v>4210560300</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>2</v>
@@ -13887,7 +13887,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="1">
-        <v>4210758376</v>
+        <v>4210593590</v>
       </c>
       <c r="C766" s="1" t="s">
         <v>2</v>
@@ -13899,7 +13899,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="1">
-        <v>4210827877</v>
+        <v>4210751597</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>2</v>
@@ -13911,7 +13911,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="1">
-        <v>4210939924</v>
+        <v>4210782079</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>2</v>
@@ -13923,7 +13923,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="1">
-        <v>4210207233</v>
+        <v>4210853411</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>2</v>
@@ -13935,7 +13935,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="1">
-        <v>4210901008</v>
+        <v>4211154707</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>2</v>
@@ -13947,7 +13947,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="1">
-        <v>4210423569</v>
+        <v>4210620984</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>2</v>
@@ -13959,7 +13959,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="1">
-        <v>4210487451</v>
+        <v>4210036943</v>
       </c>
       <c r="C772" s="1" t="s">
         <v>2</v>
@@ -13971,7 +13971,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="1">
-        <v>4210607124</v>
+        <v>4210452458</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>2</v>
@@ -13983,7 +13983,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="1">
-        <v>4210669592</v>
+        <v>4210003083</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>2</v>
@@ -13995,7 +13995,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="1">
-        <v>4210436566</v>
+        <v>4210523490</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>2</v>
@@ -14007,7 +14007,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="1">
-        <v>4210534852</v>
+        <v>4210383539</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>2</v>
@@ -14019,7 +14019,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="1">
-        <v>4210001844</v>
+        <v>4210919520</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>2</v>
@@ -14031,7 +14031,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="1">
-        <v>4210109667</v>
+        <v>4210792288</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>2</v>
@@ -14043,7 +14043,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="1">
-        <v>4210110289</v>
+        <v>4210104513</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>2</v>
@@ -14055,7 +14055,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="1">
-        <v>4210196693</v>
+        <v>4210115884</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>2</v>
@@ -14067,7 +14067,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="1">
-        <v>4210365640</v>
+        <v>4210240115</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>2</v>
@@ -14079,7 +14079,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="1">
-        <v>4210407197</v>
+        <v>4210337882</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>2</v>
@@ -14091,7 +14091,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="1">
-        <v>4210497243</v>
+        <v>4210414207</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>2</v>
@@ -14103,7 +14103,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="1">
-        <v>4210548325</v>
+        <v>4210478764</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>2</v>
@@ -14115,7 +14115,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="1">
-        <v>4210554776</v>
+        <v>4210483345</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>2</v>
@@ -14127,7 +14127,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="1">
-        <v>4210629708</v>
+        <v>4210483959</v>
       </c>
       <c r="C786" s="1" t="s">
         <v>2</v>
@@ -14139,7 +14139,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="1">
-        <v>4210709565</v>
+        <v>4210552779</v>
       </c>
       <c r="C787" s="1" t="s">
         <v>2</v>
@@ -14151,7 +14151,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="1">
-        <v>4210978497</v>
+        <v>4210615893</v>
       </c>
       <c r="C788" s="1" t="s">
         <v>2</v>
@@ -14163,7 +14163,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="1">
-        <v>4211168559</v>
+        <v>4210700049</v>
       </c>
       <c r="C789" s="1" t="s">
         <v>2</v>
@@ -14175,7 +14175,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="1">
-        <v>4211173096</v>
+        <v>4210718468</v>
       </c>
       <c r="C790" s="1" t="s">
         <v>2</v>
@@ -14187,7 +14187,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="1">
-        <v>4210970594</v>
+        <v>4210858030</v>
       </c>
       <c r="C791" s="1" t="s">
         <v>2</v>
@@ -14199,7 +14199,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="1">
-        <v>4210388883</v>
+        <v>4210974262</v>
       </c>
       <c r="C792" s="1" t="s">
         <v>2</v>
@@ -14211,7 +14211,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="1">
-        <v>4210622646</v>
+        <v>4211153726</v>
       </c>
       <c r="C793" s="1" t="s">
         <v>2</v>
@@ -14223,7 +14223,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="1">
-        <v>4210049002</v>
+        <v>4210247519</v>
       </c>
       <c r="C794" s="1" t="s">
         <v>2</v>
@@ -14235,7 +14235,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="1">
-        <v>4210905356</v>
+        <v>4210530221</v>
       </c>
       <c r="C795" s="1" t="s">
         <v>2</v>
@@ -14247,7 +14247,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="1">
-        <v>4210750427</v>
+        <v>4210652133</v>
       </c>
       <c r="C796" s="1" t="s">
         <v>2</v>
@@ -14259,7 +14259,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="1">
-        <v>4210690219</v>
+        <v>4210059502</v>
       </c>
       <c r="C797" s="1" t="s">
         <v>2</v>
@@ -14271,7 +14271,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="1">
-        <v>4210544812</v>
+        <v>4210076436</v>
       </c>
       <c r="C798" s="1" t="s">
         <v>2</v>
@@ -14283,7 +14283,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="1">
-        <v>4210488775</v>
+        <v>4210097470</v>
       </c>
       <c r="C799" s="1" t="s">
         <v>2</v>
@@ -14295,7 +14295,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="1">
-        <v>4210374075</v>
+        <v>4210099442</v>
       </c>
       <c r="C800" s="1" t="s">
         <v>2</v>
@@ -14307,7 +14307,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="1">
-        <v>4211172188</v>
+        <v>4210121557</v>
       </c>
       <c r="C801" s="1" t="s">
         <v>2</v>
@@ -14319,7 +14319,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="1">
-        <v>4210918088</v>
+        <v>4210312209</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>2</v>
@@ -14331,7 +14331,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="1">
-        <v>4210245439</v>
+        <v>4210399799</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>2</v>
@@ -14343,7 +14343,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="1">
-        <v>4210276653</v>
+        <v>4210407646</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>2</v>
@@ -14355,7 +14355,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="1">
-        <v>4210429536</v>
+        <v>4210418911</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>2</v>
@@ -14367,7 +14367,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="1">
-        <v>4210443303</v>
+        <v>4210485733</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>2</v>
@@ -14379,7 +14379,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="1">
-        <v>4210519195</v>
+        <v>4210536584</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>2</v>
@@ -14391,7 +14391,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="1">
-        <v>4210671668</v>
+        <v>4210721350</v>
       </c>
       <c r="C808" s="1" t="s">
         <v>2</v>
@@ -14403,7 +14403,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="1">
-        <v>4210727818</v>
+        <v>4210853143</v>
       </c>
       <c r="C809" s="1" t="s">
         <v>2</v>
@@ -14415,7 +14415,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="1">
-        <v>4210741138</v>
+        <v>4210960649</v>
       </c>
       <c r="C810" s="1" t="s">
         <v>2</v>
@@ -14427,7 +14427,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="1">
-        <v>4210883236</v>
+        <v>4211013963</v>
       </c>
       <c r="C811" s="1" t="s">
         <v>2</v>
@@ -14438,7 +14438,9 @@
         <f t="shared" si="12"/>
         <v>811</v>
       </c>
-      <c r="B812" s="1"/>
+      <c r="B812" s="1">
+        <v>4211155151</v>
+      </c>
       <c r="C812" s="1" t="s">
         <v>2</v>
       </c>
@@ -14448,7 +14450,9 @@
         <f t="shared" si="12"/>
         <v>812</v>
       </c>
-      <c r="B813" s="1"/>
+      <c r="B813" s="1">
+        <v>4210811627</v>
+      </c>
       <c r="C813" s="1" t="s">
         <v>2</v>
       </c>
@@ -14458,7 +14462,9 @@
         <f t="shared" si="12"/>
         <v>813</v>
       </c>
-      <c r="B814" s="1"/>
+      <c r="B814" s="1">
+        <v>4210458622</v>
+      </c>
       <c r="C814" s="1" t="s">
         <v>2</v>
       </c>
@@ -14468,7 +14474,9 @@
         <f t="shared" si="12"/>
         <v>814</v>
       </c>
-      <c r="B815" s="1"/>
+      <c r="B815" s="1">
+        <v>4210671815</v>
+      </c>
       <c r="C815" s="1" t="s">
         <v>2</v>
       </c>
@@ -14478,7 +14486,9 @@
         <f t="shared" si="12"/>
         <v>815</v>
       </c>
-      <c r="B816" s="1"/>
+      <c r="B816" s="1">
+        <v>4210337818</v>
+      </c>
       <c r="C816" s="1" t="s">
         <v>2</v>
       </c>
@@ -14488,7 +14498,9 @@
         <f t="shared" si="12"/>
         <v>816</v>
       </c>
-      <c r="B817" s="1"/>
+      <c r="B817" s="1">
+        <v>4210949152</v>
+      </c>
       <c r="C817" s="1" t="s">
         <v>2</v>
       </c>
@@ -14498,7 +14510,9 @@
         <f t="shared" si="12"/>
         <v>817</v>
       </c>
-      <c r="B818" s="1"/>
+      <c r="B818" s="1">
+        <v>4210442082</v>
+      </c>
       <c r="C818" s="1" t="s">
         <v>2</v>
       </c>
@@ -14508,7 +14522,9 @@
         <f t="shared" si="12"/>
         <v>818</v>
       </c>
-      <c r="B819" s="1"/>
+      <c r="B819" s="1">
+        <v>4210634563</v>
+      </c>
       <c r="C819" s="1" t="s">
         <v>2</v>
       </c>
@@ -14518,7 +14534,9 @@
         <f t="shared" si="12"/>
         <v>819</v>
       </c>
-      <c r="B820" s="1"/>
+      <c r="B820" s="1">
+        <v>4210051155</v>
+      </c>
       <c r="C820" s="1" t="s">
         <v>2</v>
       </c>
@@ -14528,7 +14546,9 @@
         <f t="shared" si="12"/>
         <v>820</v>
       </c>
-      <c r="B821" s="1"/>
+      <c r="B821" s="1">
+        <v>4210142038</v>
+      </c>
       <c r="C821" s="1" t="s">
         <v>2</v>
       </c>
@@ -14538,7 +14558,9 @@
         <f t="shared" si="12"/>
         <v>821</v>
       </c>
-      <c r="B822" s="1"/>
+      <c r="B822" s="1">
+        <v>4210149575</v>
+      </c>
       <c r="C822" s="1" t="s">
         <v>2</v>
       </c>
@@ -14548,7 +14570,9 @@
         <f t="shared" si="12"/>
         <v>822</v>
       </c>
-      <c r="B823" s="1"/>
+      <c r="B823" s="1">
+        <v>4210168043</v>
+      </c>
       <c r="C823" s="1" t="s">
         <v>2</v>
       </c>
@@ -14558,7 +14582,9 @@
         <f t="shared" si="12"/>
         <v>823</v>
       </c>
-      <c r="B824" s="1"/>
+      <c r="B824" s="1">
+        <v>4210195529</v>
+      </c>
       <c r="C824" s="1" t="s">
         <v>2</v>
       </c>
@@ -14568,7 +14594,9 @@
         <f t="shared" si="12"/>
         <v>824</v>
       </c>
-      <c r="B825" s="1"/>
+      <c r="B825" s="1">
+        <v>4210303219</v>
+      </c>
       <c r="C825" s="1" t="s">
         <v>2</v>
       </c>
@@ -14578,7 +14606,9 @@
         <f t="shared" si="12"/>
         <v>825</v>
       </c>
-      <c r="B826" s="1"/>
+      <c r="B826" s="1">
+        <v>4210427799</v>
+      </c>
       <c r="C826" s="1" t="s">
         <v>2</v>
       </c>
@@ -14588,7 +14618,9 @@
         <f t="shared" si="12"/>
         <v>826</v>
       </c>
-      <c r="B827" s="1"/>
+      <c r="B827" s="1">
+        <v>4210446245</v>
+      </c>
       <c r="C827" s="1" t="s">
         <v>2</v>
       </c>
@@ -14598,7 +14630,9 @@
         <f t="shared" si="12"/>
         <v>827</v>
       </c>
-      <c r="B828" s="1"/>
+      <c r="B828" s="1">
+        <v>4210461149</v>
+      </c>
       <c r="C828" s="1" t="s">
         <v>2</v>
       </c>
@@ -14608,7 +14642,9 @@
         <f t="shared" si="12"/>
         <v>828</v>
       </c>
-      <c r="B829" s="1"/>
+      <c r="B829" s="1">
+        <v>4210463784</v>
+      </c>
       <c r="C829" s="1" t="s">
         <v>2</v>
       </c>
@@ -14618,7 +14654,9 @@
         <f t="shared" si="12"/>
         <v>829</v>
       </c>
-      <c r="B830" s="1"/>
+      <c r="B830" s="1">
+        <v>4210629760</v>
+      </c>
       <c r="C830" s="1" t="s">
         <v>2</v>
       </c>
@@ -14628,7 +14666,9 @@
         <f t="shared" si="12"/>
         <v>830</v>
       </c>
-      <c r="B831" s="1"/>
+      <c r="B831" s="1">
+        <v>4210709679</v>
+      </c>
       <c r="C831" s="1" t="s">
         <v>2</v>
       </c>
@@ -14638,7 +14678,9 @@
         <f t="shared" si="12"/>
         <v>831</v>
       </c>
-      <c r="B832" s="1"/>
+      <c r="B832" s="1">
+        <v>4210758376</v>
+      </c>
       <c r="C832" s="1" t="s">
         <v>2</v>
       </c>
@@ -14648,7 +14690,9 @@
         <f t="shared" si="12"/>
         <v>832</v>
       </c>
-      <c r="B833" s="1"/>
+      <c r="B833" s="1">
+        <v>4210827877</v>
+      </c>
       <c r="C833" s="1" t="s">
         <v>2</v>
       </c>
@@ -14658,7 +14702,9 @@
         <f t="shared" ref="A834:A897" si="13">+A833+1</f>
         <v>833</v>
       </c>
-      <c r="B834" s="1"/>
+      <c r="B834" s="1">
+        <v>4210939924</v>
+      </c>
       <c r="C834" s="1" t="s">
         <v>2</v>
       </c>
@@ -14668,7 +14714,9 @@
         <f t="shared" si="13"/>
         <v>834</v>
       </c>
-      <c r="B835" s="1"/>
+      <c r="B835" s="1">
+        <v>4211146371</v>
+      </c>
       <c r="C835" s="1" t="s">
         <v>2</v>
       </c>
@@ -14678,7 +14726,9 @@
         <f t="shared" si="13"/>
         <v>835</v>
       </c>
-      <c r="B836" s="1"/>
+      <c r="B836" s="1">
+        <v>4210207233</v>
+      </c>
       <c r="C836" s="1" t="s">
         <v>2</v>
       </c>
@@ -14688,7 +14738,9 @@
         <f t="shared" si="13"/>
         <v>836</v>
       </c>
-      <c r="B837" s="1"/>
+      <c r="B837" s="1">
+        <v>4210901008</v>
+      </c>
       <c r="C837" s="1" t="s">
         <v>2</v>
       </c>
@@ -14698,7 +14750,9 @@
         <f t="shared" si="13"/>
         <v>837</v>
       </c>
-      <c r="B838" s="1"/>
+      <c r="B838" s="1">
+        <v>4210423569</v>
+      </c>
       <c r="C838" s="1" t="s">
         <v>2</v>
       </c>
@@ -14708,7 +14762,9 @@
         <f t="shared" si="13"/>
         <v>838</v>
       </c>
-      <c r="B839" s="1"/>
+      <c r="B839" s="1">
+        <v>4210487451</v>
+      </c>
       <c r="C839" s="1" t="s">
         <v>2</v>
       </c>
@@ -14718,7 +14774,9 @@
         <f t="shared" si="13"/>
         <v>839</v>
       </c>
-      <c r="B840" s="1"/>
+      <c r="B840" s="1">
+        <v>4210607124</v>
+      </c>
       <c r="C840" s="1" t="s">
         <v>2</v>
       </c>
@@ -14728,7 +14786,9 @@
         <f t="shared" si="13"/>
         <v>840</v>
       </c>
-      <c r="B841" s="1"/>
+      <c r="B841" s="1">
+        <v>4210669592</v>
+      </c>
       <c r="C841" s="1" t="s">
         <v>2</v>
       </c>
@@ -14738,7 +14798,9 @@
         <f t="shared" si="13"/>
         <v>841</v>
       </c>
-      <c r="B842" s="1"/>
+      <c r="B842" s="1">
+        <v>4210436566</v>
+      </c>
       <c r="C842" s="1" t="s">
         <v>2</v>
       </c>
@@ -14748,7 +14810,9 @@
         <f t="shared" si="13"/>
         <v>842</v>
       </c>
-      <c r="B843" s="1"/>
+      <c r="B843" s="1">
+        <v>4210534852</v>
+      </c>
       <c r="C843" s="1" t="s">
         <v>2</v>
       </c>
@@ -14758,7 +14822,9 @@
         <f t="shared" si="13"/>
         <v>843</v>
       </c>
-      <c r="B844" s="1"/>
+      <c r="B844" s="1">
+        <v>4210001844</v>
+      </c>
       <c r="C844" s="1" t="s">
         <v>2</v>
       </c>
@@ -14768,7 +14834,9 @@
         <f t="shared" si="13"/>
         <v>844</v>
       </c>
-      <c r="B845" s="1"/>
+      <c r="B845" s="1">
+        <v>4210109667</v>
+      </c>
       <c r="C845" s="1" t="s">
         <v>2</v>
       </c>
@@ -14778,7 +14846,9 @@
         <f t="shared" si="13"/>
         <v>845</v>
       </c>
-      <c r="B846" s="1"/>
+      <c r="B846" s="1">
+        <v>4210110289</v>
+      </c>
       <c r="C846" s="1" t="s">
         <v>2</v>
       </c>
@@ -14788,7 +14858,9 @@
         <f t="shared" si="13"/>
         <v>846</v>
       </c>
-      <c r="B847" s="1"/>
+      <c r="B847" s="1">
+        <v>4210196693</v>
+      </c>
       <c r="C847" s="1" t="s">
         <v>2</v>
       </c>
@@ -14798,7 +14870,9 @@
         <f t="shared" si="13"/>
         <v>847</v>
       </c>
-      <c r="B848" s="1"/>
+      <c r="B848" s="1">
+        <v>4210365640</v>
+      </c>
       <c r="C848" s="1" t="s">
         <v>2</v>
       </c>
@@ -14808,7 +14882,9 @@
         <f t="shared" si="13"/>
         <v>848</v>
       </c>
-      <c r="B849" s="1"/>
+      <c r="B849" s="1">
+        <v>4210407197</v>
+      </c>
       <c r="C849" s="1" t="s">
         <v>2</v>
       </c>
@@ -14818,7 +14894,9 @@
         <f t="shared" si="13"/>
         <v>849</v>
       </c>
-      <c r="B850" s="1"/>
+      <c r="B850" s="1">
+        <v>4210497243</v>
+      </c>
       <c r="C850" s="1" t="s">
         <v>2</v>
       </c>
@@ -14828,7 +14906,9 @@
         <f t="shared" si="13"/>
         <v>850</v>
       </c>
-      <c r="B851" s="1"/>
+      <c r="B851" s="1">
+        <v>4210548325</v>
+      </c>
       <c r="C851" s="1" t="s">
         <v>2</v>
       </c>
@@ -14838,7 +14918,9 @@
         <f t="shared" si="13"/>
         <v>851</v>
       </c>
-      <c r="B852" s="1"/>
+      <c r="B852" s="1">
+        <v>4210554776</v>
+      </c>
       <c r="C852" s="1" t="s">
         <v>2</v>
       </c>
@@ -14848,7 +14930,9 @@
         <f t="shared" si="13"/>
         <v>852</v>
       </c>
-      <c r="B853" s="1"/>
+      <c r="B853" s="1">
+        <v>4210629708</v>
+      </c>
       <c r="C853" s="1" t="s">
         <v>2</v>
       </c>
@@ -14858,7 +14942,9 @@
         <f t="shared" si="13"/>
         <v>853</v>
       </c>
-      <c r="B854" s="1"/>
+      <c r="B854" s="1">
+        <v>4210709565</v>
+      </c>
       <c r="C854" s="1" t="s">
         <v>2</v>
       </c>
@@ -14868,7 +14954,9 @@
         <f t="shared" si="13"/>
         <v>854</v>
       </c>
-      <c r="B855" s="1"/>
+      <c r="B855" s="1">
+        <v>4210978497</v>
+      </c>
       <c r="C855" s="1" t="s">
         <v>2</v>
       </c>
@@ -14878,7 +14966,9 @@
         <f t="shared" si="13"/>
         <v>855</v>
       </c>
-      <c r="B856" s="1"/>
+      <c r="B856" s="1">
+        <v>4211168559</v>
+      </c>
       <c r="C856" s="1" t="s">
         <v>2</v>
       </c>
@@ -14888,7 +14978,9 @@
         <f t="shared" si="13"/>
         <v>856</v>
       </c>
-      <c r="B857" s="1"/>
+      <c r="B857" s="1">
+        <v>4211173096</v>
+      </c>
       <c r="C857" s="1" t="s">
         <v>2</v>
       </c>
@@ -14898,7 +14990,9 @@
         <f t="shared" si="13"/>
         <v>857</v>
       </c>
-      <c r="B858" s="1"/>
+      <c r="B858" s="1">
+        <v>4210970594</v>
+      </c>
       <c r="C858" s="1" t="s">
         <v>2</v>
       </c>
@@ -14908,7 +15002,9 @@
         <f t="shared" si="13"/>
         <v>858</v>
       </c>
-      <c r="B859" s="1"/>
+      <c r="B859" s="1">
+        <v>4210388883</v>
+      </c>
       <c r="C859" s="1" t="s">
         <v>2</v>
       </c>
@@ -14918,7 +15014,9 @@
         <f t="shared" si="13"/>
         <v>859</v>
       </c>
-      <c r="B860" s="1"/>
+      <c r="B860" s="1">
+        <v>4210622646</v>
+      </c>
       <c r="C860" s="1" t="s">
         <v>2</v>
       </c>
@@ -14928,7 +15026,9 @@
         <f t="shared" si="13"/>
         <v>860</v>
       </c>
-      <c r="B861" s="1"/>
+      <c r="B861" s="1">
+        <v>4210049002</v>
+      </c>
       <c r="C861" s="1" t="s">
         <v>2</v>
       </c>
@@ -14938,7 +15038,9 @@
         <f t="shared" si="13"/>
         <v>861</v>
       </c>
-      <c r="B862" s="1"/>
+      <c r="B862" s="1">
+        <v>4210905356</v>
+      </c>
       <c r="C862" s="1" t="s">
         <v>2</v>
       </c>
@@ -14948,7 +15050,9 @@
         <f t="shared" si="13"/>
         <v>862</v>
       </c>
-      <c r="B863" s="1"/>
+      <c r="B863" s="1">
+        <v>4210750427</v>
+      </c>
       <c r="C863" s="1" t="s">
         <v>2</v>
       </c>
@@ -14958,7 +15062,9 @@
         <f t="shared" si="13"/>
         <v>863</v>
       </c>
-      <c r="B864" s="1"/>
+      <c r="B864" s="1">
+        <v>4210690219</v>
+      </c>
       <c r="C864" s="1" t="s">
         <v>2</v>
       </c>
@@ -14968,7 +15074,9 @@
         <f t="shared" si="13"/>
         <v>864</v>
       </c>
-      <c r="B865" s="1"/>
+      <c r="B865" s="1">
+        <v>4210544812</v>
+      </c>
       <c r="C865" s="1" t="s">
         <v>2</v>
       </c>
@@ -14978,7 +15086,9 @@
         <f t="shared" si="13"/>
         <v>865</v>
       </c>
-      <c r="B866" s="1"/>
+      <c r="B866" s="1">
+        <v>4210488775</v>
+      </c>
       <c r="C866" s="1" t="s">
         <v>2</v>
       </c>
@@ -14988,7 +15098,9 @@
         <f t="shared" si="13"/>
         <v>866</v>
       </c>
-      <c r="B867" s="1"/>
+      <c r="B867" s="1">
+        <v>4210374075</v>
+      </c>
       <c r="C867" s="1" t="s">
         <v>2</v>
       </c>
@@ -14998,7 +15110,9 @@
         <f t="shared" si="13"/>
         <v>867</v>
       </c>
-      <c r="B868" s="1"/>
+      <c r="B868" s="1">
+        <v>4211172188</v>
+      </c>
       <c r="C868" s="1" t="s">
         <v>2</v>
       </c>
@@ -15008,7 +15122,9 @@
         <f t="shared" si="13"/>
         <v>868</v>
       </c>
-      <c r="B869" s="1"/>
+      <c r="B869" s="1">
+        <v>4210918088</v>
+      </c>
       <c r="C869" s="1" t="s">
         <v>2</v>
       </c>
@@ -15018,7 +15134,9 @@
         <f t="shared" si="13"/>
         <v>869</v>
       </c>
-      <c r="B870" s="1"/>
+      <c r="B870" s="1">
+        <v>4210245439</v>
+      </c>
       <c r="C870" s="1" t="s">
         <v>2</v>
       </c>
@@ -15028,7 +15146,9 @@
         <f t="shared" si="13"/>
         <v>870</v>
       </c>
-      <c r="B871" s="1"/>
+      <c r="B871" s="1">
+        <v>4210276653</v>
+      </c>
       <c r="C871" s="1" t="s">
         <v>2</v>
       </c>
@@ -15038,7 +15158,9 @@
         <f t="shared" si="13"/>
         <v>871</v>
       </c>
-      <c r="B872" s="1"/>
+      <c r="B872" s="1">
+        <v>4210429536</v>
+      </c>
       <c r="C872" s="1" t="s">
         <v>2</v>
       </c>
@@ -15048,7 +15170,9 @@
         <f t="shared" si="13"/>
         <v>872</v>
       </c>
-      <c r="B873" s="1"/>
+      <c r="B873" s="1">
+        <v>4210443303</v>
+      </c>
       <c r="C873" s="1" t="s">
         <v>2</v>
       </c>
@@ -15058,7 +15182,9 @@
         <f t="shared" si="13"/>
         <v>873</v>
       </c>
-      <c r="B874" s="1"/>
+      <c r="B874" s="1">
+        <v>4210519195</v>
+      </c>
       <c r="C874" s="1" t="s">
         <v>2</v>
       </c>
@@ -15068,7 +15194,9 @@
         <f t="shared" si="13"/>
         <v>874</v>
       </c>
-      <c r="B875" s="1"/>
+      <c r="B875" s="1">
+        <v>4210671668</v>
+      </c>
       <c r="C875" s="1" t="s">
         <v>2</v>
       </c>
@@ -15078,7 +15206,9 @@
         <f t="shared" si="13"/>
         <v>875</v>
       </c>
-      <c r="B876" s="1"/>
+      <c r="B876" s="1">
+        <v>4210727818</v>
+      </c>
       <c r="C876" s="1" t="s">
         <v>2</v>
       </c>
@@ -15088,7 +15218,9 @@
         <f t="shared" si="13"/>
         <v>876</v>
       </c>
-      <c r="B877" s="1"/>
+      <c r="B877" s="1">
+        <v>4210741138</v>
+      </c>
       <c r="C877" s="1" t="s">
         <v>2</v>
       </c>
@@ -15098,7 +15230,9 @@
         <f t="shared" si="13"/>
         <v>877</v>
       </c>
-      <c r="B878" s="1"/>
+      <c r="B878" s="1">
+        <v>4210883236</v>
+      </c>
       <c r="C878" s="1" t="s">
         <v>2</v>
       </c>
@@ -39042,9 +39176,9 @@
       <c r="A742">
         <v>4210104103</v>
       </c>
-      <c r="B742" t="e">
+      <c r="B742">
         <f>VLOOKUP(A742,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210104103</v>
       </c>
       <c r="C742" t="s">
         <v>194</v>
@@ -39066,9 +39200,9 @@
       <c r="A743">
         <v>4210460806</v>
       </c>
-      <c r="B743" t="e">
+      <c r="B743">
         <f>VLOOKUP(A743,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210460806</v>
       </c>
       <c r="C743" t="s">
         <v>222</v>
@@ -39114,9 +39248,9 @@
       <c r="A745">
         <v>4210764761</v>
       </c>
-      <c r="B745" t="e">
+      <c r="B745">
         <f>VLOOKUP(A745,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210764761</v>
       </c>
       <c r="C745" t="s">
         <v>247</v>
@@ -39162,9 +39296,9 @@
       <c r="A747">
         <v>4210326018</v>
       </c>
-      <c r="B747" t="e">
+      <c r="B747">
         <f>VLOOKUP(A747,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210326018</v>
       </c>
       <c r="C747" t="s">
         <v>257</v>
@@ -39186,9 +39320,9 @@
       <c r="A748">
         <v>4210042205</v>
       </c>
-      <c r="B748" t="e">
+      <c r="B748">
         <f>VLOOKUP(A748,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210042205</v>
       </c>
       <c r="C748" t="s">
         <v>261</v>
@@ -39210,9 +39344,9 @@
       <c r="A749">
         <v>4210240876</v>
       </c>
-      <c r="B749" t="e">
+      <c r="B749">
         <f>VLOOKUP(A749,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210240876</v>
       </c>
       <c r="C749" t="s">
         <v>270</v>
@@ -39234,9 +39368,9 @@
       <c r="A750">
         <v>4210615893</v>
       </c>
-      <c r="B750" t="e">
+      <c r="B750">
         <f>VLOOKUP(A750,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210615893</v>
       </c>
       <c r="C750" t="s">
         <v>295</v>
@@ -39258,9 +39392,9 @@
       <c r="A751">
         <v>4210239344</v>
       </c>
-      <c r="B751" t="e">
+      <c r="B751">
         <f>VLOOKUP(A751,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210239344</v>
       </c>
       <c r="C751" t="s">
         <v>324</v>
@@ -39306,9 +39440,9 @@
       <c r="A753">
         <v>4210985823</v>
       </c>
-      <c r="B753" t="e">
+      <c r="B753">
         <f>VLOOKUP(A753,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210985823</v>
       </c>
       <c r="C753" t="s">
         <v>389</v>
@@ -39378,9 +39512,9 @@
       <c r="A756">
         <v>4211056408</v>
       </c>
-      <c r="B756" t="e">
+      <c r="B756">
         <f>VLOOKUP(A756,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211056408</v>
       </c>
       <c r="C756" t="s">
         <v>411</v>
@@ -39402,9 +39536,9 @@
       <c r="A757">
         <v>4210421627</v>
       </c>
-      <c r="B757" t="e">
+      <c r="B757">
         <f>VLOOKUP(A757,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210421627</v>
       </c>
       <c r="C757" t="s">
         <v>284</v>
@@ -39426,9 +39560,9 @@
       <c r="A758">
         <v>4210544250</v>
       </c>
-      <c r="B758" t="e">
+      <c r="B758">
         <f>VLOOKUP(A758,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210544250</v>
       </c>
       <c r="C758" t="s">
         <v>338</v>
@@ -39450,9 +39584,9 @@
       <c r="A759">
         <v>4210064258</v>
       </c>
-      <c r="B759" t="e">
+      <c r="B759">
         <f>VLOOKUP(A759,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210064258</v>
       </c>
       <c r="C759" t="s">
         <v>192</v>
@@ -39522,9 +39656,9 @@
       <c r="A762">
         <v>4210911529</v>
       </c>
-      <c r="B762" t="e">
+      <c r="B762">
         <f>VLOOKUP(A762,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210911529</v>
       </c>
       <c r="C762" t="s">
         <v>287</v>
@@ -39594,9 +39728,9 @@
       <c r="A765">
         <v>4210148789</v>
       </c>
-      <c r="B765" t="e">
+      <c r="B765">
         <f>VLOOKUP(A765,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210148789</v>
       </c>
       <c r="C765" t="s">
         <v>198</v>
@@ -39858,9 +39992,9 @@
       <c r="A776">
         <v>4210874021</v>
       </c>
-      <c r="B776" t="e">
+      <c r="B776">
         <f>VLOOKUP(A776,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210874021</v>
       </c>
       <c r="C776" t="s">
         <v>521</v>
@@ -39906,9 +40040,9 @@
       <c r="A778">
         <v>4210610562</v>
       </c>
-      <c r="B778" t="e">
+      <c r="B778">
         <f>VLOOKUP(A778,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210610562</v>
       </c>
       <c r="C778" t="s">
         <v>592</v>
@@ -40122,9 +40256,9 @@
       <c r="A787">
         <v>4210256983</v>
       </c>
-      <c r="B787" t="e">
+      <c r="B787">
         <f>VLOOKUP(A787,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210256983</v>
       </c>
       <c r="C787" t="s">
         <v>236</v>
@@ -40314,9 +40448,9 @@
       <c r="A795">
         <v>4210198183</v>
       </c>
-      <c r="B795" t="e">
+      <c r="B795">
         <f>VLOOKUP(A795,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210198183</v>
       </c>
       <c r="C795" t="s">
         <v>556</v>
@@ -40338,9 +40472,9 @@
       <c r="A796">
         <v>4210198370</v>
       </c>
-      <c r="B796" t="e">
+      <c r="B796">
         <f>VLOOKUP(A796,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210198370</v>
       </c>
       <c r="C796" t="s">
         <v>559</v>
@@ -40386,9 +40520,9 @@
       <c r="A798">
         <v>4211171435</v>
       </c>
-      <c r="B798" t="e">
+      <c r="B798">
         <f>VLOOKUP(A798,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211171435</v>
       </c>
       <c r="C798" t="s">
         <v>615</v>
@@ -40410,9 +40544,9 @@
       <c r="A799">
         <v>4211156129</v>
       </c>
-      <c r="B799" t="e">
+      <c r="B799">
         <f>VLOOKUP(A799,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211156129</v>
       </c>
       <c r="C799" t="s">
         <v>687</v>
@@ -40530,9 +40664,9 @@
       <c r="A804">
         <v>4210590170</v>
       </c>
-      <c r="B804" t="e">
+      <c r="B804">
         <f>VLOOKUP(A804,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210590170</v>
       </c>
       <c r="C804" t="s">
         <v>594</v>
@@ -40554,9 +40688,9 @@
       <c r="A805">
         <v>4210523490</v>
       </c>
-      <c r="B805" t="e">
+      <c r="B805">
         <f>VLOOKUP(A805,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210523490</v>
       </c>
       <c r="C805" t="s">
         <v>604</v>
@@ -40770,9 +40904,9 @@
       <c r="A814">
         <v>4210673584</v>
       </c>
-      <c r="B814" t="e">
+      <c r="B814">
         <f>VLOOKUP(A814,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210673584</v>
       </c>
       <c r="C814" t="s">
         <v>459</v>
@@ -40794,9 +40928,9 @@
       <c r="A815">
         <v>4210710346</v>
       </c>
-      <c r="B815" t="e">
+      <c r="B815">
         <f>VLOOKUP(A815,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210710346</v>
       </c>
       <c r="C815" t="s">
         <v>603</v>
@@ -40866,9 +41000,9 @@
       <c r="A818">
         <v>4210502277</v>
       </c>
-      <c r="B818" t="e">
+      <c r="B818">
         <f>VLOOKUP(A818,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210502277</v>
       </c>
       <c r="C818" t="s">
         <v>445</v>
@@ -40938,9 +41072,9 @@
       <c r="A821">
         <v>4211128014</v>
       </c>
-      <c r="B821" t="e">
+      <c r="B821">
         <f>VLOOKUP(A821,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211128014</v>
       </c>
       <c r="C821" t="s">
         <v>545</v>
@@ -41010,9 +41144,9 @@
       <c r="A824">
         <v>4211081738</v>
       </c>
-      <c r="B824" t="e">
+      <c r="B824">
         <f>VLOOKUP(A824,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211081738</v>
       </c>
       <c r="C824" t="s">
         <v>309</v>
@@ -41034,9 +41168,9 @@
       <c r="A825">
         <v>4210872795</v>
       </c>
-      <c r="B825" t="e">
+      <c r="B825">
         <f>VLOOKUP(A825,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210872795</v>
       </c>
       <c r="C825" t="s">
         <v>336</v>
@@ -41154,9 +41288,9 @@
       <c r="A830">
         <v>4210072734</v>
       </c>
-      <c r="B830" t="e">
+      <c r="B830">
         <f>VLOOKUP(A830,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210072734</v>
       </c>
       <c r="C830" t="s">
         <v>429</v>
@@ -41202,9 +41336,9 @@
       <c r="A832">
         <v>4210086465</v>
       </c>
-      <c r="B832" t="e">
+      <c r="B832">
         <f>VLOOKUP(A832,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210086465</v>
       </c>
       <c r="C832" t="s">
         <v>319</v>
@@ -41226,9 +41360,9 @@
       <c r="A833">
         <v>4211015938</v>
       </c>
-      <c r="B833" t="e">
+      <c r="B833">
         <f>VLOOKUP(A833,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211015938</v>
       </c>
       <c r="C833" t="s">
         <v>399</v>
@@ -41250,9 +41384,9 @@
       <c r="A834">
         <v>4210853411</v>
       </c>
-      <c r="B834" t="e">
+      <c r="B834">
         <f>VLOOKUP(A834,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210853411</v>
       </c>
       <c r="C834" t="s">
         <v>190</v>
@@ -41274,9 +41408,9 @@
       <c r="A835">
         <v>4211155151</v>
       </c>
-      <c r="B835" t="e">
+      <c r="B835">
         <f>VLOOKUP(A835,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211155151</v>
       </c>
       <c r="C835" t="s">
         <v>358</v>
@@ -41322,9 +41456,9 @@
       <c r="A837">
         <v>4210966971</v>
       </c>
-      <c r="B837" t="e">
+      <c r="B837">
         <f>VLOOKUP(A837,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210966971</v>
       </c>
       <c r="C837" t="s">
         <v>666</v>
@@ -41418,9 +41552,9 @@
       <c r="A841">
         <v>4210028967</v>
       </c>
-      <c r="B841" t="e">
+      <c r="B841">
         <f>VLOOKUP(A841,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210028967</v>
       </c>
       <c r="C841" t="s">
         <v>363</v>
@@ -41538,9 +41672,9 @@
       <c r="A846">
         <v>4210281783</v>
       </c>
-      <c r="B846" t="e">
+      <c r="B846">
         <f>VLOOKUP(A846,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210281783</v>
       </c>
       <c r="C846" t="s">
         <v>245</v>
@@ -41778,9 +41912,9 @@
       <c r="A856">
         <v>4210077315</v>
       </c>
-      <c r="B856" t="e">
+      <c r="B856">
         <f>VLOOKUP(A856,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210077315</v>
       </c>
       <c r="C856" t="s">
         <v>364</v>
@@ -41850,9 +41984,9 @@
       <c r="A859">
         <v>4210566069</v>
       </c>
-      <c r="B859" t="e">
+      <c r="B859">
         <f>VLOOKUP(A859,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210566069</v>
       </c>
       <c r="C859" t="s">
         <v>656</v>
@@ -41922,9 +42056,9 @@
       <c r="A862">
         <v>4210951981</v>
       </c>
-      <c r="B862" t="e">
+      <c r="B862">
         <f>VLOOKUP(A862,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210951981</v>
       </c>
       <c r="C862" t="s">
         <v>529</v>
@@ -42018,9 +42152,9 @@
       <c r="A866">
         <v>4210870120</v>
       </c>
-      <c r="B866" t="e">
+      <c r="B866">
         <f>VLOOKUP(A866,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210870120</v>
       </c>
       <c r="C866" t="s">
         <v>499</v>
@@ -42114,9 +42248,9 @@
       <c r="A870">
         <v>4210144307</v>
       </c>
-      <c r="B870" t="e">
+      <c r="B870">
         <f>VLOOKUP(A870,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210144307</v>
       </c>
       <c r="C870" t="s">
         <v>553</v>
@@ -42234,9 +42368,9 @@
       <c r="A875">
         <v>4210939011</v>
       </c>
-      <c r="B875" t="e">
+      <c r="B875">
         <f>VLOOKUP(A875,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210939011</v>
       </c>
       <c r="C875" t="s">
         <v>391</v>
@@ -42474,9 +42608,9 @@
       <c r="A885">
         <v>4211016693</v>
       </c>
-      <c r="B885" t="e">
+      <c r="B885">
         <f>VLOOKUP(A885,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211016693</v>
       </c>
       <c r="C885" t="s">
         <v>408</v>
@@ -42498,9 +42632,9 @@
       <c r="A886">
         <v>4210451210</v>
       </c>
-      <c r="B886" t="e">
+      <c r="B886">
         <f>VLOOKUP(A886,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210451210</v>
       </c>
       <c r="C886" t="s">
         <v>511</v>
@@ -42546,9 +42680,9 @@
       <c r="A888">
         <v>4210629820</v>
       </c>
-      <c r="B888" t="e">
+      <c r="B888">
         <f>VLOOKUP(A888,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210629820</v>
       </c>
       <c r="C888" t="s">
         <v>663</v>
@@ -42594,9 +42728,9 @@
       <c r="A890">
         <v>4210673461</v>
       </c>
-      <c r="B890" t="e">
+      <c r="B890">
         <f>VLOOKUP(A890,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210673461</v>
       </c>
       <c r="C890" t="s">
         <v>344</v>
@@ -42810,9 +42944,9 @@
       <c r="A899">
         <v>4211146371</v>
       </c>
-      <c r="B899" t="e">
+      <c r="B899">
         <f>VLOOKUP(A899,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211146371</v>
       </c>
       <c r="C899" t="s">
         <v>684</v>
@@ -42834,9 +42968,9 @@
       <c r="A900">
         <v>4210272520</v>
       </c>
-      <c r="B900" t="e">
+      <c r="B900">
         <f>VLOOKUP(A900,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210272520</v>
       </c>
       <c r="C900" t="s">
         <v>427</v>
@@ -42858,9 +42992,9 @@
       <c r="A901">
         <v>4210281106</v>
       </c>
-      <c r="B901" t="e">
+      <c r="B901">
         <f>VLOOKUP(A901,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210281106</v>
       </c>
       <c r="C901" t="s">
         <v>428</v>
@@ -42954,9 +43088,9 @@
       <c r="A905">
         <v>4210887790</v>
       </c>
-      <c r="B905" t="e">
+      <c r="B905">
         <f>VLOOKUP(A905,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210887790</v>
       </c>
       <c r="C905" t="s">
         <v>387</v>
@@ -43002,9 +43136,9 @@
       <c r="A907">
         <v>4211154707</v>
       </c>
-      <c r="B907" t="e">
+      <c r="B907">
         <f>VLOOKUP(A907,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211154707</v>
       </c>
       <c r="C907" t="s">
         <v>686</v>
@@ -43146,9 +43280,9 @@
       <c r="A913">
         <v>4210087071</v>
       </c>
-      <c r="B913" t="e">
+      <c r="B913">
         <f>VLOOKUP(A913,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210087071</v>
       </c>
       <c r="C913" t="s">
         <v>627</v>
@@ -43362,9 +43496,9 @@
       <c r="A922">
         <v>4210163688</v>
       </c>
-      <c r="B922" t="e">
+      <c r="B922">
         <f>VLOOKUP(A922,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210163688</v>
       </c>
       <c r="C922" t="s">
         <v>372</v>
@@ -43410,9 +43544,9 @@
       <c r="A924">
         <v>4210646081</v>
       </c>
-      <c r="B924" t="e">
+      <c r="B924">
         <f>VLOOKUP(A924,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210646081</v>
       </c>
       <c r="C924" t="s">
         <v>522</v>
@@ -43530,9 +43664,9 @@
       <c r="A929">
         <v>4210786785</v>
       </c>
-      <c r="B929" t="e">
+      <c r="B929">
         <f>VLOOKUP(A929,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210786785</v>
       </c>
       <c r="C929" t="s">
         <v>203</v>
@@ -43554,9 +43688,9 @@
       <c r="A930">
         <v>4211160024</v>
       </c>
-      <c r="B930" t="e">
+      <c r="B930">
         <f>VLOOKUP(A930,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211160024</v>
       </c>
       <c r="C930" t="s">
         <v>253</v>
@@ -43578,9 +43712,9 @@
       <c r="A931">
         <v>4210784684</v>
       </c>
-      <c r="B931" t="e">
+      <c r="B931">
         <f>VLOOKUP(A931,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210784684</v>
       </c>
       <c r="C931" t="s">
         <v>260</v>
@@ -43602,9 +43736,9 @@
       <c r="A932">
         <v>4210782079</v>
       </c>
-      <c r="B932" t="e">
+      <c r="B932">
         <f>VLOOKUP(A932,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210782079</v>
       </c>
       <c r="C932" t="s">
         <v>405</v>
@@ -43746,9 +43880,9 @@
       <c r="A938">
         <v>4210412326</v>
       </c>
-      <c r="B938" t="e">
+      <c r="B938">
         <f>VLOOKUP(A938,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210412326</v>
       </c>
       <c r="C938" t="s">
         <v>216</v>
@@ -43794,9 +43928,9 @@
       <c r="A940">
         <v>4210342446</v>
       </c>
-      <c r="B940" t="e">
+      <c r="B940">
         <f>VLOOKUP(A940,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210342446</v>
       </c>
       <c r="C940" t="s">
         <v>431</v>
@@ -43818,9 +43952,9 @@
       <c r="A941">
         <v>4210342798</v>
       </c>
-      <c r="B941" t="e">
+      <c r="B941">
         <f>VLOOKUP(A941,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210342798</v>
       </c>
       <c r="C941" t="s">
         <v>569</v>
@@ -43842,9 +43976,9 @@
       <c r="A942">
         <v>4211053366</v>
       </c>
-      <c r="B942" t="e">
+      <c r="B942">
         <f>VLOOKUP(A942,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211053366</v>
       </c>
       <c r="C942" t="s">
         <v>609</v>
@@ -43866,9 +44000,9 @@
       <c r="A943">
         <v>4211161809</v>
       </c>
-      <c r="B943" t="e">
+      <c r="B943">
         <f>VLOOKUP(A943,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211161809</v>
       </c>
       <c r="C943" t="s">
         <v>688</v>
@@ -43914,9 +44048,9 @@
       <c r="A945">
         <v>4211189644</v>
       </c>
-      <c r="B945" t="e">
+      <c r="B945">
         <f>VLOOKUP(A945,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211189644</v>
       </c>
       <c r="C945" t="s">
         <v>620</v>
@@ -44106,9 +44240,9 @@
       <c r="A953">
         <v>4210291900</v>
       </c>
-      <c r="B953" t="e">
+      <c r="B953">
         <f>VLOOKUP(A953,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210291900</v>
       </c>
       <c r="C953" t="s">
         <v>273</v>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89C97B2-90E6-4F09-9D7C-A24DCA57BF39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C362C980-2FC1-4E8C-BF16-F4ABAC38814B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4692,8 +4692,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A884" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E938" sqref="E938"/>
+    <sheetView tabSelected="1" topLeftCell="A906" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D920" sqref="D920"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6411,7 +6411,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>4210720296</v>
+        <v>4210689383</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -6423,7 +6423,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>4210784684</v>
+        <v>4210720296</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -6435,7 +6435,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>4210843009</v>
+        <v>4210784684</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -6447,7 +6447,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>4210945949</v>
+        <v>4210843009</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -6459,7 +6459,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>4210953010</v>
+        <v>4210945949</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -6471,7 +6471,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>4210204827</v>
+        <v>4210953010</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -6483,7 +6483,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>4210563716</v>
+        <v>4210204827</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -6495,7 +6495,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>4210224238</v>
+        <v>4210563716</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -6507,7 +6507,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>4210398396</v>
+        <v>4210224238</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -6519,7 +6519,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>4210912284</v>
+        <v>4210398396</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -6531,7 +6531,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>4210077315</v>
+        <v>4210912284</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
@@ -6543,7 +6543,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>4210148789</v>
+        <v>4210077315</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -6555,7 +6555,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>4210190103</v>
+        <v>4210148789</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -6567,7 +6567,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>4210201254</v>
+        <v>4210190103</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -6579,7 +6579,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>4210272520</v>
+        <v>4210201254</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
@@ -6591,7 +6591,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>4210298487</v>
+        <v>4210272520</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -6603,7 +6603,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>4210479488</v>
+        <v>4210298487</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -6615,7 +6615,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>4210566641</v>
+        <v>4210479488</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -6627,7 +6627,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>4210811229</v>
+        <v>4210566641</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -6639,7 +6639,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>4211161809</v>
+        <v>4210811229</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -6651,7 +6651,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>4210213587</v>
+        <v>4211161809</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
@@ -6663,7 +6663,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>4210003545</v>
+        <v>4210213587</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -6675,7 +6675,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>4210600446</v>
+        <v>4210003545</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -6687,7 +6687,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>4211151623</v>
+        <v>4210600446</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -6699,7 +6699,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>4210214048</v>
+        <v>4211151623</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
@@ -6711,7 +6711,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>4210853920</v>
+        <v>4210214048</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -6723,7 +6723,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>4210610562</v>
+        <v>4210853920</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
@@ -6735,7 +6735,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>4210317095</v>
+        <v>4210610562</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -6747,7 +6747,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>4210180848</v>
+        <v>4210317095</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
@@ -6759,7 +6759,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>4210215859</v>
+        <v>4210180848</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -6771,7 +6771,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>4210292583</v>
+        <v>4210215859</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
@@ -6783,7 +6783,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>4210341768</v>
+        <v>4210292583</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -6795,7 +6795,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>4210394741</v>
+        <v>4210341768</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
@@ -6807,7 +6807,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>4210402956</v>
+        <v>4210394741</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -6819,7 +6819,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>4210447996</v>
+        <v>4210402956</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -6831,7 +6831,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>4210496749</v>
+        <v>4210439137</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -6843,7 +6843,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>4210501502</v>
+        <v>4210447996</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
@@ -6855,7 +6855,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>4210534997</v>
+        <v>4210496749</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
@@ -6867,7 +6867,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>4210639556</v>
+        <v>4210501502</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
@@ -6879,7 +6879,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>4210707175</v>
+        <v>4210534997</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
@@ -6891,7 +6891,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>4210723948</v>
+        <v>4210639556</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -6903,7 +6903,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>4211105440</v>
+        <v>4210707175</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
@@ -6915,7 +6915,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>4211162899</v>
+        <v>4210723948</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
@@ -6927,7 +6927,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>4211016693</v>
+        <v>4211105440</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
@@ -6939,7 +6939,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>4211074617</v>
+        <v>4211162899</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
@@ -6951,7 +6951,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>4210754698</v>
+        <v>4211016693</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -6963,7 +6963,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>4210926050</v>
+        <v>4211074617</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -6975,7 +6975,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>4210370471</v>
+        <v>4210754698</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -6987,7 +6987,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>4210806413</v>
+        <v>4210926050</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -6999,7 +6999,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>4210522771</v>
+        <v>4210370471</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -7011,7 +7011,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>4210542091</v>
+        <v>4210806413</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -7023,7 +7023,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>4210222026</v>
+        <v>4210522771</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -7035,7 +7035,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>4210313376</v>
+        <v>4210542091</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
@@ -7047,7 +7047,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>4210377402</v>
+        <v>4210222026</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
@@ -7059,7 +7059,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>4210660380</v>
+        <v>4210313376</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
@@ -7071,7 +7071,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>4210893674</v>
+        <v>4210377402</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -7083,7 +7083,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>4210938088</v>
+        <v>4210660380</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
@@ -7095,7 +7095,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>4210994527</v>
+        <v>4210893674</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
@@ -7107,7 +7107,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>4211047565</v>
+        <v>4210938088</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -7119,7 +7119,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>4210260173</v>
+        <v>4210994527</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
@@ -7131,7 +7131,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>4210479887</v>
+        <v>4211047565</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
@@ -7143,7 +7143,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>4210646191</v>
+        <v>4210260173</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
@@ -7155,7 +7155,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>4210921361</v>
+        <v>4210479887</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -7167,7 +7167,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>4210033127</v>
+        <v>4210646191</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
@@ -7179,7 +7179,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>4210072674</v>
+        <v>4210921361</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
@@ -7191,7 +7191,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>4210586606</v>
+        <v>4210033127</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>2</v>
@@ -7203,7 +7203,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>4211024555</v>
+        <v>4210072674</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>2</v>
@@ -7215,7 +7215,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>4210482370</v>
+        <v>4210586606</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>2</v>
@@ -7227,7 +7227,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>4210167551</v>
+        <v>4211024555</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
@@ -7239,7 +7239,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>4210673655</v>
+        <v>4210482370</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
@@ -7251,7 +7251,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>4210887790</v>
+        <v>4210167551</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>2</v>
@@ -7263,7 +7263,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>4210221322</v>
+        <v>4210673655</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
@@ -7275,7 +7275,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>4210753622</v>
+        <v>4210887790</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
@@ -7287,7 +7287,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>4210482629</v>
+        <v>4210221322</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>2</v>
@@ -7299,7 +7299,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>4210843672</v>
+        <v>4210753622</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>2</v>
@@ -7311,7 +7311,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>4210523147</v>
+        <v>4210482629</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>2</v>
@@ -7323,7 +7323,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>4211060527</v>
+        <v>4210843672</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>2</v>
@@ -7335,7 +7335,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>4210424698</v>
+        <v>4210523147</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>2</v>
@@ -7347,7 +7347,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>4210406049</v>
+        <v>4211060527</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>2</v>
@@ -7359,7 +7359,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>4210639267</v>
+        <v>4210424698</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>2</v>
@@ -7371,7 +7371,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>4211057865</v>
+        <v>4210406049</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>2</v>
@@ -7383,7 +7383,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>4210345052</v>
+        <v>4210639267</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>4210712809</v>
+        <v>4211057865</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>2</v>
@@ -7407,7 +7407,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>4210598540</v>
+        <v>4210345052</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>2</v>
@@ -7419,7 +7419,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>4210121891</v>
+        <v>4210712809</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>2</v>
@@ -7431,7 +7431,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>4210385056</v>
+        <v>4210598540</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
@@ -7443,7 +7443,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>4210893730</v>
+        <v>4210121891</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>2</v>
@@ -7455,7 +7455,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>4211056408</v>
+        <v>4210385056</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
@@ -7467,7 +7467,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>4210535673</v>
+        <v>4210893730</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>2</v>
@@ -7479,7 +7479,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>4210500818</v>
+        <v>4211056408</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>2</v>
@@ -7491,7 +7491,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>4210003521</v>
+        <v>4210535673</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
@@ -7503,7 +7503,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>4210062548</v>
+        <v>4210500818</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>2</v>
@@ -7515,7 +7515,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>4210086465</v>
+        <v>4210003521</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>2</v>
@@ -7527,7 +7527,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>4210124089</v>
+        <v>4210062548</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
@@ -7539,7 +7539,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>4210124562</v>
+        <v>4210086465</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>2</v>
@@ -7551,7 +7551,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>4210133586</v>
+        <v>4210124089</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>2</v>
@@ -7563,7 +7563,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>4210143092</v>
+        <v>4210124562</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>2</v>
@@ -7575,7 +7575,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>4210171441</v>
+        <v>4210133586</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>2</v>
@@ -7587,7 +7587,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>4210188218</v>
+        <v>4210143092</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>2</v>
@@ -7599,7 +7599,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>4210198930</v>
+        <v>4210171441</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>2</v>
@@ -7611,7 +7611,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>4210204904</v>
+        <v>4210188218</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>2</v>
@@ -7623,7 +7623,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>4210217456</v>
+        <v>4210198930</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
@@ -7635,7 +7635,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>4210248451</v>
+        <v>4210204904</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>2</v>
@@ -7647,7 +7647,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>4210260497</v>
+        <v>4210217456</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
@@ -7659,7 +7659,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>4210272828</v>
+        <v>4210248451</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>2</v>
@@ -7671,7 +7671,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>4210303761</v>
+        <v>4210260497</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>2</v>
@@ -7683,7 +7683,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>4210320285</v>
+        <v>4210272828</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>2</v>
@@ -7695,7 +7695,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>4210336732</v>
+        <v>4210303761</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>2</v>
@@ -7707,7 +7707,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>4210389070</v>
+        <v>4210320285</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>2</v>
@@ -7719,7 +7719,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>4210396939</v>
+        <v>4210336732</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>2</v>
@@ -7731,7 +7731,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>4210399687</v>
+        <v>4210389070</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
@@ -7743,7 +7743,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>4210403019</v>
+        <v>4210396939</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
@@ -7755,7 +7755,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>4210415044</v>
+        <v>4210399687</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
@@ -7767,7 +7767,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>4210420096</v>
+        <v>4210403019</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
@@ -7779,7 +7779,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>4210422212</v>
+        <v>4210415044</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
@@ -7791,7 +7791,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>4210435420</v>
+        <v>4210420096</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
@@ -7803,7 +7803,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>4210492552</v>
+        <v>4210422212</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
@@ -7815,7 +7815,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>4210559074</v>
+        <v>4210435420</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
@@ -7827,7 +7827,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>4210562814</v>
+        <v>4210492552</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
@@ -7839,7 +7839,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>4210597778</v>
+        <v>4210559074</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
@@ -7851,7 +7851,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>4210632710</v>
+        <v>4210562814</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
@@ -7863,7 +7863,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>4210633465</v>
+        <v>4210597778</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
@@ -7875,7 +7875,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>4210645803</v>
+        <v>4210632710</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
@@ -7887,7 +7887,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>4210690272</v>
+        <v>4210633465</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
@@ -7899,7 +7899,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>4210695149</v>
+        <v>4210645803</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
@@ -7911,7 +7911,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>4210706422</v>
+        <v>4210688947</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
@@ -7923,7 +7923,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>4210786785</v>
+        <v>4210690272</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
@@ -7935,7 +7935,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>4210805925</v>
+        <v>4210695149</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>2</v>
@@ -7947,7 +7947,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>4210830351</v>
+        <v>4210706422</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>2</v>
@@ -7959,7 +7959,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>4210836933</v>
+        <v>4210786785</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>2</v>
@@ -7971,7 +7971,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>4210878489</v>
+        <v>4210805925</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>2</v>
@@ -7983,7 +7983,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>4210885456</v>
+        <v>4210830351</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>2</v>
@@ -7995,7 +7995,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>4210920767</v>
+        <v>4210836933</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>2</v>
@@ -8007,7 +8007,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>4210955715</v>
+        <v>4210878489</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>2</v>
@@ -8019,7 +8019,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1">
-        <v>4210967793</v>
+        <v>4210885456</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>2</v>
@@ -8031,7 +8031,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>4211075710</v>
+        <v>4210920767</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>2</v>
@@ -8043,7 +8043,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>4211111638</v>
+        <v>4210955715</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>2</v>
@@ -8055,7 +8055,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>4211116641</v>
+        <v>4210967793</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>2</v>
@@ -8067,7 +8067,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>4211133709</v>
+        <v>4211075710</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>2</v>
@@ -8079,7 +8079,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>4211143631</v>
+        <v>4211111638</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>2</v>
@@ -8091,7 +8091,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>4211189644</v>
+        <v>4211116641</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>2</v>
@@ -8103,7 +8103,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>4210665237</v>
+        <v>4211133709</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>2</v>
@@ -8115,7 +8115,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1">
-        <v>4211114353</v>
+        <v>4211143631</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>2</v>
@@ -8127,7 +8127,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1">
-        <v>4210057744</v>
+        <v>4211189644</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>2</v>
@@ -8139,7 +8139,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1">
-        <v>4210249633</v>
+        <v>4210665237</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>2</v>
@@ -8151,7 +8151,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1">
-        <v>4210679738</v>
+        <v>4211114353</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>2</v>
@@ -8163,7 +8163,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>4211060486</v>
+        <v>4210057744</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>2</v>
@@ -8175,7 +8175,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>4211131368</v>
+        <v>4210249633</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>2</v>
@@ -8187,7 +8187,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>4210208750</v>
+        <v>4210455251</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>2</v>
@@ -8199,7 +8199,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>4210586900</v>
+        <v>4210679738</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>2</v>
@@ -8211,7 +8211,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>4210433177</v>
+        <v>4211060486</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>2</v>
@@ -8223,7 +8223,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>4210911313</v>
+        <v>4211131368</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>2</v>
@@ -8235,7 +8235,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>4210745675</v>
+        <v>4210208750</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>2</v>
@@ -8247,7 +8247,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>4211122411</v>
+        <v>4210586900</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>2</v>
@@ -8259,7 +8259,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>4210855921</v>
+        <v>4210433177</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>2</v>
@@ -8271,7 +8271,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>4210009062</v>
+        <v>4210911313</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>2</v>
@@ -8283,7 +8283,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>4210648248</v>
+        <v>4210745675</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>2</v>
@@ -8295,7 +8295,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>4210356297</v>
+        <v>4211122411</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
@@ -8307,7 +8307,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>4210152801</v>
+        <v>4210855921</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>2</v>
@@ -8319,7 +8319,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>4210086596</v>
+        <v>4210009062</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>2</v>
@@ -8331,7 +8331,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>4211058112</v>
+        <v>4210648248</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>2</v>
@@ -8343,7 +8343,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>4210411973</v>
+        <v>4210356297</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>2</v>
@@ -8355,7 +8355,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>4211010219</v>
+        <v>4210152801</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -8367,7 +8367,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>4210273020</v>
+        <v>4210086596</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>2</v>
@@ -8379,7 +8379,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>4210264695</v>
+        <v>4211058112</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>2</v>
@@ -8391,7 +8391,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>4210930375</v>
+        <v>4210411973</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>2</v>
@@ -8403,7 +8403,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>4210242756</v>
+        <v>4211010219</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>2</v>
@@ -8415,7 +8415,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>4210084552</v>
+        <v>4210273020</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>2</v>
@@ -8427,7 +8427,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1">
-        <v>4210140390</v>
+        <v>4210264695</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>2</v>
@@ -8439,7 +8439,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1">
-        <v>4210198183</v>
+        <v>4210930375</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>2</v>
@@ -8451,7 +8451,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1">
-        <v>4210253167</v>
+        <v>4210242756</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>2</v>
@@ -8463,7 +8463,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1">
-        <v>4210278245</v>
+        <v>4210084552</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
@@ -8475,7 +8475,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1">
-        <v>4210405200</v>
+        <v>4210140390</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
@@ -8487,7 +8487,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1">
-        <v>4210412326</v>
+        <v>4210198183</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>2</v>
@@ -8499,7 +8499,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1">
-        <v>4210460806</v>
+        <v>4210253167</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>2</v>
@@ -8511,7 +8511,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1">
-        <v>4210502557</v>
+        <v>4210278245</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>2</v>
@@ -8523,7 +8523,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1">
-        <v>4210509447</v>
+        <v>4210405200</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
@@ -8535,7 +8535,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1">
-        <v>4210588954</v>
+        <v>4210412326</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
@@ -8547,7 +8547,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>4210690402</v>
+        <v>4210460806</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>2</v>
@@ -8559,7 +8559,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>4210692880</v>
+        <v>4210502557</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>2</v>
@@ -8571,7 +8571,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>4210735578</v>
+        <v>4210509447</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>2</v>
@@ -8583,7 +8583,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>4210921232</v>
+        <v>4210588954</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
@@ -8595,7 +8595,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1">
-        <v>4210963617</v>
+        <v>4210690402</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>2</v>
@@ -8607,7 +8607,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1">
-        <v>4210973302</v>
+        <v>4210692880</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>2</v>
@@ -8619,7 +8619,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1">
-        <v>4211069287</v>
+        <v>4210735578</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>2</v>
@@ -8631,7 +8631,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1">
-        <v>4211096801</v>
+        <v>4210921232</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
@@ -8643,7 +8643,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1">
-        <v>4211189006</v>
+        <v>4210963617</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>2</v>
@@ -8655,7 +8655,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1">
-        <v>4211014355</v>
+        <v>4210973302</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
@@ -8667,7 +8667,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1">
-        <v>4210122458</v>
+        <v>4211069287</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>2</v>
@@ -8679,7 +8679,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1">
-        <v>4210621591</v>
+        <v>4211096801</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
@@ -8691,7 +8691,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1">
-        <v>4210474468</v>
+        <v>4211178135</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>2</v>
@@ -8703,7 +8703,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1">
-        <v>4210392055</v>
+        <v>4211189006</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1">
-        <v>4210144557</v>
+        <v>4211014355</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>2</v>
@@ -8727,7 +8727,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1">
-        <v>4210806396</v>
+        <v>4210122458</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>2</v>
@@ -8739,7 +8739,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1">
-        <v>4210059000</v>
+        <v>4210621591</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>2</v>
@@ -8751,7 +8751,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1">
-        <v>4211050835</v>
+        <v>4210474468</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>2</v>
@@ -8763,7 +8763,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1">
-        <v>4210941334</v>
+        <v>4210392055</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>2</v>
@@ -8775,7 +8775,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1">
-        <v>4210073431</v>
+        <v>4210144557</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>2</v>
@@ -8787,7 +8787,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1">
-        <v>4210222465</v>
+        <v>4210806396</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>2</v>
@@ -8799,7 +8799,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1">
-        <v>4210321387</v>
+        <v>4210059000</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>2</v>
@@ -8811,7 +8811,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1">
-        <v>4210322119</v>
+        <v>4211050835</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
@@ -8823,7 +8823,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1">
-        <v>4210432648</v>
+        <v>4210941334</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>2</v>
@@ -8835,7 +8835,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1">
-        <v>4210613705</v>
+        <v>4210073431</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>2</v>
@@ -8847,7 +8847,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1">
-        <v>4210640185</v>
+        <v>4210222465</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>2</v>
@@ -8859,7 +8859,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1">
-        <v>4210734425</v>
+        <v>4210321387</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
@@ -8871,7 +8871,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1">
-        <v>4210931474</v>
+        <v>4210322119</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
@@ -8883,7 +8883,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1">
-        <v>4210951981</v>
+        <v>4210432648</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
@@ -8895,7 +8895,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1">
-        <v>4211183842</v>
+        <v>4210613705</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>2</v>
@@ -8907,7 +8907,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1">
-        <v>4211190937</v>
+        <v>4210640185</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>2</v>
@@ -8919,7 +8919,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1">
-        <v>4210264951</v>
+        <v>4210734425</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>2</v>
@@ -8931,7 +8931,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1">
-        <v>4210229661</v>
+        <v>4210931474</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>2</v>
@@ -8943,7 +8943,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1">
-        <v>4210815491</v>
+        <v>4210951981</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>2</v>
@@ -8955,7 +8955,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1">
-        <v>4210842072</v>
+        <v>4211183842</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>2</v>
@@ -8967,7 +8967,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1">
-        <v>4210497292</v>
+        <v>4211190937</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>2</v>
@@ -8979,7 +8979,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1">
-        <v>4210984821</v>
+        <v>4210264951</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>2</v>
@@ -8991,7 +8991,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1">
-        <v>4210185227</v>
+        <v>4210229661</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>2</v>
@@ -9003,7 +9003,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1">
-        <v>4210151586</v>
+        <v>4210815491</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>2</v>
@@ -9015,7 +9015,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1">
-        <v>4210791646</v>
+        <v>4210842072</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
@@ -9027,7 +9027,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1">
-        <v>4211014966</v>
+        <v>4210497292</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>2</v>
@@ -9039,7 +9039,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1">
-        <v>4211039341</v>
+        <v>4210984821</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>2</v>
@@ -9051,7 +9051,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1">
-        <v>4210012567</v>
+        <v>4210185227</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>2</v>
@@ -9063,7 +9063,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1">
-        <v>4210094035</v>
+        <v>4210151586</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>2</v>
@@ -9075,7 +9075,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1">
-        <v>4210128315</v>
+        <v>4210791646</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
@@ -9087,7 +9087,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1">
-        <v>4210195896</v>
+        <v>4211014966</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>2</v>
@@ -9099,7 +9099,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1">
-        <v>4210201732</v>
+        <v>4211039341</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>2</v>
@@ -9111,7 +9111,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1">
-        <v>4210256983</v>
+        <v>4210012567</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>2</v>
@@ -9123,7 +9123,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1">
-        <v>4210267013</v>
+        <v>4210094035</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>2</v>
@@ -9135,7 +9135,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1">
-        <v>4210385160</v>
+        <v>4210128315</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>2</v>
@@ -9147,7 +9147,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1">
-        <v>4210399589</v>
+        <v>4210195896</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>2</v>
@@ -9159,7 +9159,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1">
-        <v>4210435801</v>
+        <v>4210201732</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>2</v>
@@ -9171,7 +9171,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1">
-        <v>4210457607</v>
+        <v>4210256983</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>2</v>
@@ -9183,7 +9183,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1">
-        <v>4210482713</v>
+        <v>4210267013</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>2</v>
@@ -9195,7 +9195,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1">
-        <v>4210518577</v>
+        <v>4210385160</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>2</v>
@@ -9207,7 +9207,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1">
-        <v>4210521692</v>
+        <v>4210399589</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
@@ -9219,7 +9219,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1">
-        <v>4210875091</v>
+        <v>4210435801</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>2</v>
@@ -9231,7 +9231,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1">
-        <v>4211117196</v>
+        <v>4210457607</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
@@ -9243,7 +9243,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1">
-        <v>4211129438</v>
+        <v>4210482713</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>2</v>
@@ -9255,7 +9255,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1">
-        <v>4211174186</v>
+        <v>4210518577</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>2</v>
@@ -9267,7 +9267,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1">
-        <v>4210199520</v>
+        <v>4210521692</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>2</v>
@@ -9279,7 +9279,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1">
-        <v>4211054741</v>
+        <v>4210875091</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
@@ -9291,7 +9291,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1">
-        <v>4210870120</v>
+        <v>4211117196</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>2</v>
@@ -9303,7 +9303,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1">
-        <v>4210354861</v>
+        <v>4211129438</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>2</v>
@@ -9315,7 +9315,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1">
-        <v>4210499924</v>
+        <v>4211174186</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>2</v>
@@ -9327,7 +9327,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1">
-        <v>4210967965</v>
+        <v>4210199520</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>2</v>
@@ -9339,7 +9339,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1">
-        <v>4210461415</v>
+        <v>4211054741</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>2</v>
@@ -9351,7 +9351,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1">
-        <v>4210144307</v>
+        <v>4210870120</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>2</v>
@@ -9363,7 +9363,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1">
-        <v>4210692323</v>
+        <v>4210354861</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>2</v>
@@ -9375,7 +9375,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1">
-        <v>4210045275</v>
+        <v>4210499924</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>2</v>
@@ -9387,7 +9387,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1">
-        <v>4210105758</v>
+        <v>4210967965</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>2</v>
@@ -9399,7 +9399,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1">
-        <v>4210115421</v>
+        <v>4210461415</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>2</v>
@@ -9411,7 +9411,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1">
-        <v>4210354387</v>
+        <v>4210144307</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>2</v>
@@ -9423,7 +9423,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1">
-        <v>4210358137</v>
+        <v>4210692323</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>2</v>
@@ -9435,7 +9435,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1">
-        <v>4210386755</v>
+        <v>4210045275</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>2</v>
@@ -9447,7 +9447,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1">
-        <v>4210714398</v>
+        <v>4210105758</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>2</v>
@@ -9459,7 +9459,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1">
-        <v>4210043894</v>
+        <v>4210115421</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>2</v>
@@ -9471,7 +9471,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1">
-        <v>4210122182</v>
+        <v>4210354387</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>2</v>
@@ -9483,7 +9483,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1">
-        <v>4210141517</v>
+        <v>4210358137</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>2</v>
@@ -9495,7 +9495,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1">
-        <v>4210142349</v>
+        <v>4210386755</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>2</v>
@@ -9507,7 +9507,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1">
-        <v>4210383149</v>
+        <v>4210714398</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>2</v>
@@ -9519,7 +9519,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1">
-        <v>4210424900</v>
+        <v>4210043894</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>2</v>
@@ -9531,7 +9531,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1">
-        <v>4210622386</v>
+        <v>4210122182</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>2</v>
@@ -9543,7 +9543,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1">
-        <v>4210769887</v>
+        <v>4210141517</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>2</v>
@@ -9555,7 +9555,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1">
-        <v>4210997472</v>
+        <v>4210142349</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>2</v>
@@ -9567,7 +9567,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1">
-        <v>4211157478</v>
+        <v>4210383149</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>2</v>
@@ -9579,7 +9579,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1">
-        <v>4210420456</v>
+        <v>4210424900</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>2</v>
@@ -9591,7 +9591,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1">
-        <v>4210897066</v>
+        <v>4210622386</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>2</v>
@@ -9603,7 +9603,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1">
-        <v>4210117447</v>
+        <v>4210769887</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>2</v>
@@ -9615,7 +9615,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1">
-        <v>4210151088</v>
+        <v>4210997472</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>2</v>
@@ -9627,7 +9627,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1">
-        <v>4210205221</v>
+        <v>4211157478</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>2</v>
@@ -9639,7 +9639,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1">
-        <v>4210392364</v>
+        <v>4210420456</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>2</v>
@@ -9651,7 +9651,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1">
-        <v>4210462732</v>
+        <v>4210897066</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>2</v>
@@ -9663,7 +9663,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1">
-        <v>4210942167</v>
+        <v>4210117447</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>2</v>
@@ -9675,7 +9675,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1">
-        <v>4210176463</v>
+        <v>4210151088</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>2</v>
@@ -9687,7 +9687,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1">
-        <v>4211024353</v>
+        <v>4210205221</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>2</v>
@@ -9699,7 +9699,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1">
-        <v>4210047154</v>
+        <v>4210392364</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>2</v>
@@ -9711,7 +9711,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1">
-        <v>4210433787</v>
+        <v>4210462732</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>2</v>
@@ -9723,7 +9723,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1">
-        <v>4210182855</v>
+        <v>4210942167</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>2</v>
@@ -9735,7 +9735,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1">
-        <v>4210994649</v>
+        <v>4210176463</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>2</v>
@@ -9747,7 +9747,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1">
-        <v>4210450687</v>
+        <v>4211024353</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>2</v>
@@ -9759,7 +9759,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1">
-        <v>4210922651</v>
+        <v>4210047154</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>2</v>
@@ -9771,7 +9771,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1">
-        <v>4210020624</v>
+        <v>4210433787</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>2</v>
@@ -9783,7 +9783,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1">
-        <v>4210072470</v>
+        <v>4210182855</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>2</v>
@@ -9795,7 +9795,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1">
-        <v>4210087071</v>
+        <v>4210994649</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>2</v>
@@ -9807,7 +9807,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1">
-        <v>4210155613</v>
+        <v>4210450687</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>2</v>
@@ -9819,7 +9819,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1">
-        <v>4210167563</v>
+        <v>4210922651</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>2</v>
@@ -9831,7 +9831,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1">
-        <v>4210183865</v>
+        <v>4210020624</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>2</v>
@@ -9843,7 +9843,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1">
-        <v>4210194296</v>
+        <v>4210072470</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>2</v>
@@ -9855,7 +9855,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1">
-        <v>4210198173</v>
+        <v>4210087071</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>2</v>
@@ -9867,7 +9867,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1">
-        <v>4210255777</v>
+        <v>4210155613</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>2</v>
@@ -9879,7 +9879,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1">
-        <v>4210357001</v>
+        <v>4210167563</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>2</v>
@@ -9891,7 +9891,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1">
-        <v>4210452807</v>
+        <v>4210183865</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>2</v>
@@ -9903,7 +9903,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1">
-        <v>4210523627</v>
+        <v>4210194296</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>2</v>
@@ -9915,7 +9915,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="1">
-        <v>4210703688</v>
+        <v>4210198173</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>2</v>
@@ -9927,7 +9927,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="1">
-        <v>4210711324</v>
+        <v>4210255777</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>2</v>
@@ -9939,7 +9939,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1">
-        <v>4210740039</v>
+        <v>4210357001</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>2</v>
@@ -9951,7 +9951,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1">
-        <v>4210762861</v>
+        <v>4210452807</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>2</v>
@@ -9963,7 +9963,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1">
-        <v>4210764761</v>
+        <v>4210523627</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>2</v>
@@ -9975,7 +9975,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1">
-        <v>4210992519</v>
+        <v>4210703688</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>2</v>
@@ -9987,7 +9987,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1">
-        <v>4211033732</v>
+        <v>4210711324</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>2</v>
@@ -9999,7 +9999,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="1">
-        <v>4211081285</v>
+        <v>4210740039</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>2</v>
@@ -10011,7 +10011,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1">
-        <v>4211123262</v>
+        <v>4210762861</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>2</v>
@@ -10023,7 +10023,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="1">
-        <v>4211160024</v>
+        <v>4210764761</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>2</v>
@@ -10035,7 +10035,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="1">
-        <v>4211389730</v>
+        <v>4210992519</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>2</v>
@@ -10047,7 +10047,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="1">
-        <v>4210147981</v>
+        <v>4211033732</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>2</v>
@@ -10059,7 +10059,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="1">
-        <v>4210644077</v>
+        <v>4211081285</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>2</v>
@@ -10071,7 +10071,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="1">
-        <v>4210257649</v>
+        <v>4211123262</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>2</v>
@@ -10083,7 +10083,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1">
-        <v>4210402143</v>
+        <v>4211160024</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>2</v>
@@ -10095,7 +10095,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="1">
-        <v>4210523156</v>
+        <v>4211389730</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>2</v>
@@ -10107,7 +10107,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="1">
-        <v>4210823515</v>
+        <v>4210147981</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>2</v>
@@ -10119,7 +10119,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="1">
-        <v>4210115162</v>
+        <v>4210644077</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>2</v>
@@ -10131,7 +10131,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="1">
-        <v>4210612098</v>
+        <v>4210257649</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>2</v>
@@ -10143,7 +10143,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="1">
-        <v>4210368642</v>
+        <v>4210402143</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>2</v>
@@ -10155,7 +10155,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="1">
-        <v>4210079772</v>
+        <v>4210523156</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>2</v>
@@ -10167,7 +10167,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="1">
-        <v>4210132442</v>
+        <v>4210823515</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>2</v>
@@ -10179,7 +10179,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1">
-        <v>4210166153</v>
+        <v>4210115162</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>2</v>
@@ -10191,7 +10191,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1">
-        <v>4210184555</v>
+        <v>4210612098</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>2</v>
@@ -10203,7 +10203,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1">
-        <v>4210236370</v>
+        <v>4210368642</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>2</v>
@@ -10215,7 +10215,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="1">
-        <v>4210583026</v>
+        <v>4210079772</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>2</v>
@@ -10227,7 +10227,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="1">
-        <v>4210671328</v>
+        <v>4210132442</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>2</v>
@@ -10239,7 +10239,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="1">
-        <v>4210722932</v>
+        <v>4210166153</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>2</v>
@@ -10251,7 +10251,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="1">
-        <v>4210764690</v>
+        <v>4210184555</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>2</v>
@@ -10263,7 +10263,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="1">
-        <v>4210830444</v>
+        <v>4210236370</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>2</v>
@@ -10275,7 +10275,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="1">
-        <v>4211015938</v>
+        <v>4210583026</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>2</v>
@@ -10287,7 +10287,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="1">
-        <v>4211047440</v>
+        <v>4210671328</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>2</v>
@@ -10299,7 +10299,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="1">
-        <v>4211116085</v>
+        <v>4210722932</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>2</v>
@@ -10311,7 +10311,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="1">
-        <v>4210691393</v>
+        <v>4210764690</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>2</v>
@@ -10323,7 +10323,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="1">
-        <v>4210986456</v>
+        <v>4210830444</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="1">
-        <v>4210701833</v>
+        <v>4211015938</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>2</v>
@@ -10347,7 +10347,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="1">
-        <v>4210388739</v>
+        <v>4211047440</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>2</v>
@@ -10359,7 +10359,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="1">
-        <v>4211121228</v>
+        <v>4211116085</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>2</v>
@@ -10371,7 +10371,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="1">
-        <v>4210891162</v>
+        <v>4210691393</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>2</v>
@@ -10383,7 +10383,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="1">
-        <v>4210685145</v>
+        <v>4210986456</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>2</v>
@@ -10395,7 +10395,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="1">
-        <v>4211156129</v>
+        <v>4210701833</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>2</v>
@@ -10407,7 +10407,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="1">
-        <v>4210110664</v>
+        <v>4210388739</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>2</v>
@@ -10419,7 +10419,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="1">
-        <v>4210179613</v>
+        <v>4211121228</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>2</v>
@@ -10431,7 +10431,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="1">
-        <v>4210230359</v>
+        <v>4210891162</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>2</v>
@@ -10443,7 +10443,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="1">
-        <v>4210232959</v>
+        <v>4210685145</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>2</v>
@@ -10455,7 +10455,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="1">
-        <v>4210259795</v>
+        <v>4211156129</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>2</v>
@@ -10467,7 +10467,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="1">
-        <v>4210321845</v>
+        <v>4210110664</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>2</v>
@@ -10479,7 +10479,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="1">
-        <v>4210347256</v>
+        <v>4210179613</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>2</v>
@@ -10491,7 +10491,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="1">
-        <v>4210420336</v>
+        <v>4210230359</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>2</v>
@@ -10503,7 +10503,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="1">
-        <v>4210438071</v>
+        <v>4210232959</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>2</v>
@@ -10515,7 +10515,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="1">
-        <v>4210476751</v>
+        <v>4210259795</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>2</v>
@@ -10527,7 +10527,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="1">
-        <v>4210629820</v>
+        <v>4210321845</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>2</v>
@@ -10539,7 +10539,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="1">
-        <v>4210671598</v>
+        <v>4210347256</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>2</v>
@@ -10551,7 +10551,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="1">
-        <v>4210815668</v>
+        <v>4210420336</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>2</v>
@@ -10563,7 +10563,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="1">
-        <v>4210841954</v>
+        <v>4210438071</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>2</v>
@@ -10575,7 +10575,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1">
-        <v>4210995906</v>
+        <v>4210476751</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>2</v>
@@ -10587,7 +10587,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="1">
-        <v>4210673461</v>
+        <v>4210629820</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>2</v>
@@ -10599,7 +10599,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="1">
-        <v>4210697216</v>
+        <v>4210671598</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>2</v>
@@ -10611,7 +10611,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="1">
-        <v>4210851034</v>
+        <v>4210815668</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>2</v>
@@ -10623,7 +10623,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="1">
-        <v>4211039879</v>
+        <v>4210841954</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>2</v>
@@ -10635,7 +10635,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="1">
-        <v>4210440787</v>
+        <v>4210995906</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>2</v>
@@ -10647,7 +10647,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="1">
-        <v>4210985823</v>
+        <v>4210673461</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>2</v>
@@ -10659,7 +10659,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="1">
-        <v>4210396117</v>
+        <v>4210697216</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>2</v>
@@ -10671,7 +10671,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1">
-        <v>4210209432</v>
+        <v>4210851034</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>2</v>
@@ -10683,7 +10683,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1">
-        <v>4210466625</v>
+        <v>4211039879</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>2</v>
@@ -10695,7 +10695,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="1">
-        <v>4210015894</v>
+        <v>4210440787</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>2</v>
@@ -10707,7 +10707,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="1">
-        <v>4210020577</v>
+        <v>4210985823</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>2</v>
@@ -10719,7 +10719,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="1">
-        <v>4210050876</v>
+        <v>4210396117</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>2</v>
@@ -10731,7 +10731,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="1">
-        <v>4210178048</v>
+        <v>4210209432</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>2</v>
@@ -10743,7 +10743,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="1">
-        <v>4210183791</v>
+        <v>4210466625</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>2</v>
@@ -10755,7 +10755,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="1">
-        <v>4210301504</v>
+        <v>4210015894</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>2</v>
@@ -10767,7 +10767,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="1">
-        <v>4210341601</v>
+        <v>4210020577</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>2</v>
@@ -10779,7 +10779,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="1">
-        <v>4210370018</v>
+        <v>4210050876</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>2</v>
@@ -10791,7 +10791,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="1">
-        <v>4210377269</v>
+        <v>4210178048</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>2</v>
@@ -10803,7 +10803,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="1">
-        <v>4210384491</v>
+        <v>4210183791</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>2</v>
@@ -10815,7 +10815,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="1">
-        <v>4210484114</v>
+        <v>4210301504</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>2</v>
@@ -10827,7 +10827,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="1">
-        <v>4210544250</v>
+        <v>4210341601</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>2</v>
@@ -10839,7 +10839,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="1">
-        <v>4210573384</v>
+        <v>4210370018</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>2</v>
@@ -10851,7 +10851,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="1">
-        <v>4210763178</v>
+        <v>4210377269</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>2</v>
@@ -10863,7 +10863,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="1">
-        <v>4211128014</v>
+        <v>4210384491</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>2</v>
@@ -10875,7 +10875,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>4211003079</v>
+        <v>4210484114</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>2</v>
@@ -10887,7 +10887,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="1">
-        <v>4210652631</v>
+        <v>4210544250</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>2</v>
@@ -10899,7 +10899,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="1">
-        <v>4210752028</v>
+        <v>4210573384</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>2</v>
@@ -10911,7 +10911,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="1">
-        <v>4210282624</v>
+        <v>4210763178</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>2</v>
@@ -10923,7 +10923,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="1">
-        <v>4210530875</v>
+        <v>4211128014</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>2</v>
@@ -10935,7 +10935,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="1">
-        <v>4210182500</v>
+        <v>4211003079</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>2</v>
@@ -10947,7 +10947,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="1">
-        <v>4210780191</v>
+        <v>4210652631</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>2</v>
@@ -10959,7 +10959,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="2">
-        <v>4210748422</v>
+        <v>4210752028</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>2</v>
@@ -10971,7 +10971,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="1">
-        <v>4210537453</v>
+        <v>4210282624</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>2</v>
@@ -10983,7 +10983,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="1">
-        <v>4210213411</v>
+        <v>4210530875</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>2</v>
@@ -10995,7 +10995,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="1">
-        <v>4210223261</v>
+        <v>4210182500</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>2</v>
@@ -11007,7 +11007,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="1">
-        <v>4210261027</v>
+        <v>4210780191</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>2</v>
@@ -11019,7 +11019,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="1">
-        <v>4210329350</v>
+        <v>4210748422</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>2</v>
@@ -11031,7 +11031,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="1">
-        <v>4210421627</v>
+        <v>4210537453</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>2</v>
@@ -11043,7 +11043,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="1">
-        <v>4210438000</v>
+        <v>4210213411</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>2</v>
@@ -11055,7 +11055,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="1">
-        <v>4210444262</v>
+        <v>4210223261</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>2</v>
@@ -11067,7 +11067,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="1">
-        <v>4211121745</v>
+        <v>4210261027</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>2</v>
@@ -11079,7 +11079,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="1">
-        <v>4210256197</v>
+        <v>4210329350</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>2</v>
@@ -11091,7 +11091,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="1">
-        <v>4210837418</v>
+        <v>4210421627</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>2</v>
@@ -11103,7 +11103,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="1">
-        <v>4210283620</v>
+        <v>4210438000</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>2</v>
@@ -11115,7 +11115,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="1">
-        <v>4210928075</v>
+        <v>4210444262</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>2</v>
@@ -11127,7 +11127,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="1">
-        <v>4210163688</v>
+        <v>4211121745</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>2</v>
@@ -11139,7 +11139,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="1">
-        <v>4210005081</v>
+        <v>4210256197</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>2</v>
@@ -11151,7 +11151,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="1">
-        <v>4210198370</v>
+        <v>4210837418</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>2</v>
@@ -11163,7 +11163,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="1">
-        <v>4210212879</v>
+        <v>4210283620</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>2</v>
@@ -11175,7 +11175,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="1">
-        <v>4210431823</v>
+        <v>4210928075</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>2</v>
@@ -11187,7 +11187,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="1">
-        <v>4210525890</v>
+        <v>4210163688</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>2</v>
@@ -11199,7 +11199,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="1">
-        <v>4210532302</v>
+        <v>4210005081</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>2</v>
@@ -11211,7 +11211,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="1">
-        <v>4210489208</v>
+        <v>4210198370</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>2</v>
@@ -11223,7 +11223,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="1">
-        <v>4210716858</v>
+        <v>4210212879</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>2</v>
@@ -11235,7 +11235,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="1">
-        <v>4210065219</v>
+        <v>4210431823</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>2</v>
@@ -11247,7 +11247,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="1">
-        <v>4210941041</v>
+        <v>4210525890</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>2</v>
@@ -11259,7 +11259,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="1">
-        <v>4210534515</v>
+        <v>4210532302</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>2</v>
@@ -11271,7 +11271,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="1">
-        <v>4210204988</v>
+        <v>4210489208</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>2</v>
@@ -11283,7 +11283,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="1">
-        <v>4210377665</v>
+        <v>4210716858</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>2</v>
@@ -11295,7 +11295,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>4210500697</v>
+        <v>4210065219</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>2</v>
@@ -11307,7 +11307,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="1">
-        <v>4210646048</v>
+        <v>4210941041</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>2</v>
@@ -11319,7 +11319,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="1">
-        <v>4210113372</v>
+        <v>4210534515</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>2</v>
@@ -11331,7 +11331,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="1">
-        <v>4210145794</v>
+        <v>4210204988</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>2</v>
@@ -11343,7 +11343,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="1">
-        <v>4210213661</v>
+        <v>4210377665</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>2</v>
@@ -11355,7 +11355,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="1">
-        <v>4210366648</v>
+        <v>4210500697</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>2</v>
@@ -11367,7 +11367,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="1">
-        <v>4210451210</v>
+        <v>4210646048</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>2</v>
@@ -11379,7 +11379,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="1">
-        <v>4210476056</v>
+        <v>4210113372</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="1">
-        <v>4210598087</v>
+        <v>4210145794</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>2</v>
@@ -11403,7 +11403,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="1">
-        <v>4210610217</v>
+        <v>4210213661</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>2</v>
@@ -11415,7 +11415,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="1">
-        <v>4210646368</v>
+        <v>4210366648</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>2</v>
@@ -11427,7 +11427,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="1">
-        <v>4210689234</v>
+        <v>4210451210</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>2</v>
@@ -11439,7 +11439,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="1">
-        <v>4210850923</v>
+        <v>4210476056</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>2</v>
@@ -11451,7 +11451,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="1">
-        <v>4210935036</v>
+        <v>4210598087</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>2</v>
@@ -11463,7 +11463,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="1">
-        <v>4210936777</v>
+        <v>4210610217</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>2</v>
@@ -11475,7 +11475,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="1">
-        <v>4210596404</v>
+        <v>4210646368</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>2</v>
@@ -11487,7 +11487,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="1">
-        <v>4211119160</v>
+        <v>4210689234</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>2</v>
@@ -11499,7 +11499,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="1">
-        <v>4211029307</v>
+        <v>4210850923</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>2</v>
@@ -11511,7 +11511,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="1">
-        <v>4210533998</v>
+        <v>4210935036</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>2</v>
@@ -11523,7 +11523,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="1">
-        <v>4210368640</v>
+        <v>4210936777</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>2</v>
@@ -11535,7 +11535,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="1">
-        <v>4210952808</v>
+        <v>4210596404</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>2</v>
@@ -11547,7 +11547,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="1">
-        <v>4210093802</v>
+        <v>4211119160</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>2</v>
@@ -11559,7 +11559,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="1">
-        <v>4210162326</v>
+        <v>4211029307</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>2</v>
@@ -11571,7 +11571,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="1">
-        <v>4210204708</v>
+        <v>4210533998</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>2</v>
@@ -11583,7 +11583,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="1">
-        <v>4210386449</v>
+        <v>4210368640</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>2</v>
@@ -11595,7 +11595,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="1">
-        <v>4210514973</v>
+        <v>4210952808</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>2</v>
@@ -11607,7 +11607,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="1">
-        <v>4210539791</v>
+        <v>4210093802</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>2</v>
@@ -11619,7 +11619,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="1">
-        <v>4210605310</v>
+        <v>4210162326</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>2</v>
@@ -11631,7 +11631,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="1">
-        <v>4210655536</v>
+        <v>4210204708</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>2</v>
@@ -11643,7 +11643,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="1">
-        <v>4210803979</v>
+        <v>4210386449</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>2</v>
@@ -11655,7 +11655,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="1">
-        <v>4210415570</v>
+        <v>4210514973</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>2</v>
@@ -11667,7 +11667,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="1">
-        <v>4210033714</v>
+        <v>4210539791</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>2</v>
@@ -11679,7 +11679,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="1">
-        <v>4210281106</v>
+        <v>4210605310</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>2</v>
@@ -11691,7 +11691,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="1">
-        <v>4210698032</v>
+        <v>4210655536</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>2</v>
@@ -11703,7 +11703,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="1">
-        <v>4211121133</v>
+        <v>4210803979</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>2</v>
@@ -11715,7 +11715,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="1">
-        <v>4210024291</v>
+        <v>4210415570</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>2</v>
@@ -11727,7 +11727,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="1">
-        <v>4210140346</v>
+        <v>4210033714</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>2</v>
@@ -11739,7 +11739,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="1">
-        <v>4210296631</v>
+        <v>4210281106</v>
       </c>
       <c r="C587" s="1" t="s">
         <v>2</v>
@@ -11751,7 +11751,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="1">
-        <v>4210406475</v>
+        <v>4210698032</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>2</v>
@@ -11763,7 +11763,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="1">
-        <v>4210506018</v>
+        <v>4211121133</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>2</v>
@@ -11775,7 +11775,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="1">
-        <v>4210592061</v>
+        <v>4210024291</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>2</v>
@@ -11787,7 +11787,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="1">
-        <v>4210660785</v>
+        <v>4210140346</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>2</v>
@@ -11799,7 +11799,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="1">
-        <v>4210872795</v>
+        <v>4210296631</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>2</v>
@@ -11811,7 +11811,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="1">
-        <v>4210956722</v>
+        <v>4210406475</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>2</v>
@@ -11823,7 +11823,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="1">
-        <v>4211161420</v>
+        <v>4210506018</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>2</v>
@@ -11835,7 +11835,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="1">
-        <v>4210774231</v>
+        <v>4210592061</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>2</v>
@@ -11847,7 +11847,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="1">
-        <v>4211032450</v>
+        <v>4210660785</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>2</v>
@@ -11859,7 +11859,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="1">
-        <v>4210174856</v>
+        <v>4210872795</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>2</v>
@@ -11871,7 +11871,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="1">
-        <v>4210248902</v>
+        <v>4210956722</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>2</v>
@@ -11883,7 +11883,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="1">
-        <v>4210799190</v>
+        <v>4211161420</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>2</v>
@@ -11895,7 +11895,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="1">
-        <v>4210619540</v>
+        <v>4210774231</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>2</v>
@@ -11907,7 +11907,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="1">
-        <v>4210608974</v>
+        <v>4211032450</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>2</v>
@@ -11919,7 +11919,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="1">
-        <v>4210301184</v>
+        <v>4210174856</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>2</v>
@@ -11931,7 +11931,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="1">
-        <v>4210566069</v>
+        <v>4210248902</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>2</v>
@@ -11943,7 +11943,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="1">
-        <v>4210939937</v>
+        <v>4210799190</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>2</v>
@@ -11955,7 +11955,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="1">
-        <v>4210240876</v>
+        <v>4210619540</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>2</v>
@@ -11967,7 +11967,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="1">
-        <v>4210539165</v>
+        <v>4210608974</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>2</v>
@@ -11979,7 +11979,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="1">
-        <v>4210250290</v>
+        <v>4210301184</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>2</v>
@@ -11991,7 +11991,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="1">
-        <v>4210662861</v>
+        <v>4210566069</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>2</v>
@@ -12003,7 +12003,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="1">
-        <v>4210155525</v>
+        <v>4210939937</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>2</v>
@@ -12015,7 +12015,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="1">
-        <v>4210414276</v>
+        <v>4210240876</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>2</v>
@@ -12027,7 +12027,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="1">
-        <v>4210851640</v>
+        <v>4210539165</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>2</v>
@@ -12039,7 +12039,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="1">
-        <v>4210632010</v>
+        <v>4210250290</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>2</v>
@@ -12051,7 +12051,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="1">
-        <v>4210396336</v>
+        <v>4210662861</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>2</v>
@@ -12063,7 +12063,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="1">
-        <v>4210809995</v>
+        <v>4210155525</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>2</v>
@@ -12075,7 +12075,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="1">
-        <v>4210996507</v>
+        <v>4210414276</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>2</v>
@@ -12087,7 +12087,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="1">
-        <v>4210691687</v>
+        <v>4210851640</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>2</v>
@@ -12099,7 +12099,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="1">
-        <v>4210451754</v>
+        <v>4210632010</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>2</v>
@@ -12111,7 +12111,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="1">
-        <v>4211090225</v>
+        <v>4210396336</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>2</v>
@@ -12123,7 +12123,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="1">
-        <v>4210098148</v>
+        <v>4210809995</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>2</v>
@@ -12135,7 +12135,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="1">
-        <v>4210885374</v>
+        <v>4210996507</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>2</v>
@@ -12147,7 +12147,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="1">
-        <v>4210128706</v>
+        <v>4210691687</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>2</v>
@@ -12159,7 +12159,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="1">
-        <v>4210429692</v>
+        <v>4210451754</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>2</v>
@@ -12171,7 +12171,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="1">
-        <v>4210457601</v>
+        <v>4211090225</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>2</v>
@@ -12183,7 +12183,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="1">
-        <v>4210487716</v>
+        <v>4210098148</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>2</v>
@@ -12195,7 +12195,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="1">
-        <v>4210491196</v>
+        <v>4210885374</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>2</v>
@@ -12207,7 +12207,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="1">
-        <v>4210525608</v>
+        <v>4210128706</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>2</v>
@@ -12219,7 +12219,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="1">
-        <v>4210697405</v>
+        <v>4210429692</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>2</v>
@@ -12231,7 +12231,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="1">
-        <v>4210769634</v>
+        <v>4210457601</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>2</v>
@@ -12243,7 +12243,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="1">
-        <v>4210843781</v>
+        <v>4210487716</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>2</v>
@@ -12255,7 +12255,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="1">
-        <v>4210871317</v>
+        <v>4210491196</v>
       </c>
       <c r="C630" s="1" t="s">
         <v>2</v>
@@ -12267,7 +12267,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="1">
-        <v>4210942173</v>
+        <v>4210525608</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>2</v>
@@ -12279,7 +12279,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="1">
-        <v>4210983409</v>
+        <v>4210697405</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>2</v>
@@ -12291,7 +12291,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="1">
-        <v>4211053366</v>
+        <v>4210769634</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>2</v>
@@ -12303,7 +12303,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="1">
-        <v>4210831022</v>
+        <v>4210843781</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>2</v>
@@ -12315,7 +12315,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="1">
-        <v>4210478093</v>
+        <v>4210871317</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>2</v>
@@ -12327,7 +12327,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="1">
-        <v>4210623671</v>
+        <v>4210942173</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>2</v>
@@ -12339,7 +12339,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="1">
-        <v>4210379066</v>
+        <v>4210983409</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>2</v>
@@ -12351,7 +12351,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="1">
-        <v>4210539266</v>
+        <v>4211053366</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>2</v>
@@ -12363,7 +12363,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="1">
-        <v>4210064258</v>
+        <v>4210831022</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>2</v>
@@ -12375,7 +12375,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="1">
-        <v>4210911529</v>
+        <v>4210478093</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>2</v>
@@ -12387,7 +12387,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="1">
-        <v>4210198794</v>
+        <v>4210623671</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>2</v>
@@ -12399,7 +12399,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="1">
-        <v>4210200416</v>
+        <v>4210379066</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>2</v>
@@ -12411,7 +12411,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="1">
-        <v>4210211263</v>
+        <v>4210539266</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>2</v>
@@ -12423,7 +12423,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="1">
-        <v>4210333855</v>
+        <v>4210064258</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>2</v>
@@ -12435,7 +12435,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="1">
-        <v>4210427538</v>
+        <v>4210911529</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>2</v>
@@ -12447,7 +12447,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="1">
-        <v>4210497116</v>
+        <v>4210198794</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="1">
-        <v>4210610622</v>
+        <v>4210200416</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>2</v>
@@ -12471,7 +12471,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="1">
-        <v>4210675980</v>
+        <v>4210211263</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>2</v>
@@ -12483,7 +12483,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="1">
-        <v>4210789652</v>
+        <v>4210267921</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>2</v>
@@ -12495,7 +12495,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="1">
-        <v>4210862040</v>
+        <v>4210333855</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>2</v>
@@ -12507,7 +12507,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="1">
-        <v>4210891367</v>
+        <v>4210427538</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>2</v>
@@ -12519,7 +12519,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="1">
-        <v>4210841799</v>
+        <v>4210497116</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>2</v>
@@ -12531,7 +12531,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="1">
-        <v>4210009943</v>
+        <v>4210610622</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>2</v>
@@ -12543,7 +12543,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="1">
-        <v>4210707172</v>
+        <v>4210675980</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>2</v>
@@ -12555,7 +12555,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="1">
-        <v>4210003908</v>
+        <v>4210789652</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>2</v>
@@ -12567,7 +12567,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="1">
-        <v>4210405234</v>
+        <v>4210862040</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>2</v>
@@ -12579,7 +12579,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="1">
-        <v>4210113485</v>
+        <v>4210891367</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>2</v>
@@ -12591,7 +12591,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="1">
-        <v>4210663417</v>
+        <v>4210894043</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>2</v>
@@ -12603,7 +12603,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="1">
-        <v>4210185045</v>
+        <v>4211016266</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>2</v>
@@ -12615,7 +12615,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="1">
-        <v>4211171435</v>
+        <v>4210841799</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>2</v>
@@ -12627,7 +12627,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="1">
-        <v>4210061222</v>
+        <v>4210009943</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>2</v>
@@ -12639,7 +12639,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="1">
-        <v>4210239886</v>
+        <v>4210707172</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>2</v>
@@ -12651,7 +12651,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="1">
-        <v>4210244610</v>
+        <v>4210003908</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>2</v>
@@ -12663,7 +12663,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="1">
-        <v>4210386471</v>
+        <v>4210405234</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>2</v>
@@ -12675,7 +12675,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="1">
-        <v>4210496119</v>
+        <v>4210113485</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>2</v>
@@ -12687,7 +12687,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="1">
-        <v>4210521327</v>
+        <v>4210663417</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>2</v>
@@ -12699,7 +12699,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="1">
-        <v>4211052917</v>
+        <v>4210185045</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>2</v>
@@ -12711,7 +12711,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="1">
-        <v>4210050280</v>
+        <v>4211171435</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>2</v>
@@ -12723,7 +12723,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="1">
-        <v>4210372229</v>
+        <v>4210061222</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>2</v>
@@ -12735,7 +12735,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="1">
-        <v>4211089972</v>
+        <v>4210239886</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>2</v>
@@ -12747,7 +12747,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="1">
-        <v>4210326134</v>
+        <v>4210244610</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>2</v>
@@ -12759,7 +12759,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="1">
-        <v>4210790046</v>
+        <v>4210386471</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>2</v>
@@ -12771,7 +12771,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="1">
-        <v>4210535776</v>
+        <v>4210496119</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>2</v>
@@ -12783,7 +12783,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="1">
-        <v>4210194157</v>
+        <v>4210521327</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>2</v>
@@ -12795,7 +12795,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="1">
-        <v>4210359992</v>
+        <v>4211052917</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>2</v>
@@ -12807,7 +12807,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="1">
-        <v>4210380505</v>
+        <v>4210050280</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>2</v>
@@ -12819,7 +12819,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="1">
-        <v>4210415781</v>
+        <v>4210372229</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>2</v>
@@ -12831,7 +12831,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="1">
-        <v>4210417502</v>
+        <v>4211089972</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>2</v>
@@ -12843,7 +12843,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="1">
-        <v>4210502346</v>
+        <v>4210326134</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>2</v>
@@ -12855,7 +12855,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="1">
-        <v>4210609300</v>
+        <v>4210790046</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>2</v>
@@ -12867,7 +12867,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="1">
-        <v>4210737822</v>
+        <v>4210535776</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>2</v>
@@ -12879,7 +12879,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="1">
-        <v>4210806367</v>
+        <v>4210194157</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>2</v>
@@ -12891,7 +12891,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="1">
-        <v>4210920340</v>
+        <v>4210359992</v>
       </c>
       <c r="C683" s="1" t="s">
         <v>2</v>
@@ -12903,7 +12903,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="1">
-        <v>4210114589</v>
+        <v>4210380505</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>2</v>
@@ -12915,7 +12915,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="1">
-        <v>4210273236</v>
+        <v>4210415781</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>2</v>
@@ -12927,7 +12927,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="1">
-        <v>4210270390</v>
+        <v>4210417502</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>2</v>
@@ -12939,7 +12939,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="1">
-        <v>4210161201</v>
+        <v>4210502346</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>2</v>
@@ -12951,7 +12951,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="1">
-        <v>4210185589</v>
+        <v>4210609300</v>
       </c>
       <c r="C688" s="1" t="s">
         <v>2</v>
@@ -12963,7 +12963,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="1">
-        <v>4210229959</v>
+        <v>4210737822</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>2</v>
@@ -12975,7 +12975,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="1">
-        <v>4210236802</v>
+        <v>4210806367</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>2</v>
@@ -12987,7 +12987,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="1">
-        <v>4210323925</v>
+        <v>4210920340</v>
       </c>
       <c r="C691" s="1" t="s">
         <v>2</v>
@@ -12999,7 +12999,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="1">
-        <v>4210342956</v>
+        <v>4210114589</v>
       </c>
       <c r="C692" s="1" t="s">
         <v>2</v>
@@ -13011,7 +13011,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="1">
-        <v>4210396271</v>
+        <v>4210273236</v>
       </c>
       <c r="C693" s="1" t="s">
         <v>2</v>
@@ -13023,7 +13023,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="1">
-        <v>4210548527</v>
+        <v>4210270390</v>
       </c>
       <c r="C694" s="1" t="s">
         <v>2</v>
@@ -13035,7 +13035,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="1">
-        <v>4210590170</v>
+        <v>4210161201</v>
       </c>
       <c r="C695" s="1" t="s">
         <v>2</v>
@@ -13047,7 +13047,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="1">
-        <v>4210749428</v>
+        <v>4210185589</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>2</v>
@@ -13059,7 +13059,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="1">
-        <v>4211048212</v>
+        <v>4210229959</v>
       </c>
       <c r="C697" s="1" t="s">
         <v>2</v>
@@ -13071,7 +13071,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="1">
-        <v>4210893995</v>
+        <v>4210236802</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>2</v>
@@ -13083,7 +13083,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="1">
-        <v>4210962329</v>
+        <v>4210323925</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>2</v>
@@ -13095,7 +13095,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="1">
-        <v>4210019501</v>
+        <v>4210342956</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>2</v>
@@ -13107,7 +13107,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="1">
-        <v>4210347993</v>
+        <v>4210396271</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>2</v>
@@ -13119,7 +13119,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="1">
-        <v>4210392078</v>
+        <v>4210548527</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>2</v>
@@ -13131,7 +13131,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="1">
-        <v>4210387120</v>
+        <v>4210590170</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>2</v>
@@ -13143,7 +13143,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="1">
-        <v>4210487162</v>
+        <v>4210749428</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>2</v>
@@ -13155,7 +13155,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="1">
-        <v>4210842452</v>
+        <v>4211048212</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>2</v>
@@ -13167,7 +13167,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="1">
-        <v>4210208571</v>
+        <v>4210893995</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>2</v>
@@ -13179,7 +13179,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="1">
-        <v>4211073903</v>
+        <v>4210962329</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>2</v>
@@ -13191,7 +13191,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="1">
-        <v>4210515989</v>
+        <v>4210019501</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>2</v>
@@ -13203,7 +13203,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="1">
-        <v>4210213779</v>
+        <v>4210347993</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>2</v>
@@ -13215,7 +13215,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="1">
-        <v>4210309982</v>
+        <v>4210392078</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>2</v>
@@ -13227,7 +13227,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="1">
-        <v>4210710346</v>
+        <v>4210387120</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>2</v>
@@ -13239,7 +13239,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="1">
-        <v>4211081738</v>
+        <v>4210487162</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>2</v>
@@ -13251,7 +13251,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="1">
-        <v>4210378870</v>
+        <v>4210842452</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>2</v>
@@ -13263,7 +13263,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="1">
-        <v>4210702558</v>
+        <v>4210208571</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>2</v>
@@ -13275,7 +13275,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="1">
-        <v>4210710191</v>
+        <v>4211073903</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>2</v>
@@ -13287,7 +13287,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="1">
-        <v>4210400589</v>
+        <v>4210515989</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>2</v>
@@ -13299,7 +13299,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="1">
-        <v>4210695631</v>
+        <v>4210213779</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>2</v>
@@ -13311,7 +13311,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="1">
-        <v>4210810214</v>
+        <v>4210309982</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>2</v>
@@ -13323,7 +13323,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="1">
-        <v>4210933570</v>
+        <v>4210710346</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>2</v>
@@ -13335,7 +13335,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="1">
-        <v>4211044632</v>
+        <v>4211081738</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>2</v>
@@ -13347,7 +13347,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="1">
-        <v>4210420793</v>
+        <v>4210378870</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>2</v>
@@ -13359,7 +13359,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="1">
-        <v>4210126712</v>
+        <v>4210702558</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>2</v>
@@ -13371,7 +13371,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="1">
-        <v>4210250376</v>
+        <v>4210710191</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>2</v>
@@ -13383,7 +13383,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="1">
-        <v>4210407609</v>
+        <v>4210400589</v>
       </c>
       <c r="C724" s="1" t="s">
         <v>2</v>
@@ -13395,7 +13395,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="1">
-        <v>4210427383</v>
+        <v>4210695631</v>
       </c>
       <c r="C725" s="1" t="s">
         <v>2</v>
@@ -13407,7 +13407,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="1">
-        <v>4210879411</v>
+        <v>4210810214</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>2</v>
@@ -13419,7 +13419,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="1">
-        <v>4211020443</v>
+        <v>4210933570</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>2</v>
@@ -13431,7 +13431,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="1">
-        <v>4210500734</v>
+        <v>4211044632</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>2</v>
@@ -13443,7 +13443,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="1">
-        <v>4210599674</v>
+        <v>4210420793</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>2</v>
@@ -13455,7 +13455,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="1">
-        <v>4210707793</v>
+        <v>4210126712</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>2</v>
@@ -13467,7 +13467,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="1">
-        <v>4210593308</v>
+        <v>4210250376</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>2</v>
@@ -13479,7 +13479,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="1">
-        <v>4210615587</v>
+        <v>4210407609</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>2</v>
@@ -13491,7 +13491,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="1">
-        <v>4210326499</v>
+        <v>4210427383</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>2</v>
@@ -13503,7 +13503,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="1">
-        <v>4210421903</v>
+        <v>4210879411</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>2</v>
@@ -13515,7 +13515,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="1">
-        <v>4210004989</v>
+        <v>4211020443</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>2</v>
@@ -13527,7 +13527,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="1">
-        <v>4210092501</v>
+        <v>4210500734</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>2</v>
@@ -13539,7 +13539,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="1">
-        <v>4210129193</v>
+        <v>4210599674</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>2</v>
@@ -13551,7 +13551,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="1">
-        <v>4210291900</v>
+        <v>4210707793</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>2</v>
@@ -13563,7 +13563,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="1">
-        <v>4210654402</v>
+        <v>4210593308</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>2</v>
@@ -13575,7 +13575,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="1">
-        <v>4211137802</v>
+        <v>4210615587</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>2</v>
@@ -13587,7 +13587,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="1">
-        <v>4211174288</v>
+        <v>4210326499</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>2</v>
@@ -13599,7 +13599,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="1">
-        <v>4211178394</v>
+        <v>4210421903</v>
       </c>
       <c r="C742" s="1" t="s">
         <v>2</v>
@@ -13611,7 +13611,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="1">
-        <v>4210178645</v>
+        <v>4210004989</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>2</v>
@@ -13623,7 +13623,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="1">
-        <v>4210272357</v>
+        <v>4210092501</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>2</v>
@@ -13635,7 +13635,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="1">
-        <v>4210121221</v>
+        <v>4210129193</v>
       </c>
       <c r="C745" s="1" t="s">
         <v>2</v>
@@ -13647,7 +13647,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="1">
-        <v>4210633293</v>
+        <v>4210291900</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>2</v>
@@ -13659,7 +13659,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="1">
-        <v>4210740672</v>
+        <v>4210654402</v>
       </c>
       <c r="C747" s="1" t="s">
         <v>2</v>
@@ -13671,7 +13671,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="1">
-        <v>4210411957</v>
+        <v>4211137802</v>
       </c>
       <c r="C748" s="1" t="s">
         <v>2</v>
@@ -13683,7 +13683,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="1">
-        <v>4210617095</v>
+        <v>4211174288</v>
       </c>
       <c r="C749" s="1" t="s">
         <v>2</v>
@@ -13695,7 +13695,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="1">
-        <v>4210006329</v>
+        <v>4211178394</v>
       </c>
       <c r="C750" s="1" t="s">
         <v>2</v>
@@ -13707,7 +13707,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="1">
-        <v>4210031752</v>
+        <v>4210178645</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>2</v>
@@ -13719,7 +13719,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="1">
-        <v>4210042205</v>
+        <v>4210272357</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>2</v>
@@ -13731,7 +13731,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="1">
-        <v>4210152113</v>
+        <v>4210121221</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>2</v>
@@ -13743,7 +13743,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="1">
-        <v>4210187379</v>
+        <v>4210633293</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>2</v>
@@ -13755,7 +13755,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="1">
-        <v>4210214619</v>
+        <v>4210740672</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>2</v>
@@ -13767,7 +13767,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="1">
-        <v>4210280449</v>
+        <v>4210411957</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>2</v>
@@ -13779,7 +13779,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="1">
-        <v>4210420791</v>
+        <v>4210617095</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>2</v>
@@ -13791,7 +13791,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="1">
-        <v>4210441289</v>
+        <v>4210006329</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>2</v>
@@ -13803,7 +13803,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="1">
-        <v>4210477209</v>
+        <v>4210031752</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>2</v>
@@ -13815,7 +13815,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="1">
-        <v>4210510176</v>
+        <v>4210042205</v>
       </c>
       <c r="C760" s="1" t="s">
         <v>2</v>
@@ -13827,7 +13827,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="1">
-        <v>4210623479</v>
+        <v>4210152113</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>2</v>
@@ -13839,7 +13839,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="1">
-        <v>4210629299</v>
+        <v>4210187379</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>2</v>
@@ -13851,7 +13851,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="1">
-        <v>4210866906</v>
+        <v>4210214619</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>2</v>
@@ -13863,7 +13863,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="1">
-        <v>4211068812</v>
+        <v>4210280449</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>2</v>
@@ -13875,7 +13875,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="1">
-        <v>4210888119</v>
+        <v>4210420791</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>2</v>
@@ -13887,7 +13887,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="1">
-        <v>4211052476</v>
+        <v>4210441289</v>
       </c>
       <c r="C766" s="1" t="s">
         <v>2</v>
@@ -13899,7 +13899,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="1">
-        <v>4210376988</v>
+        <v>4210477209</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>2</v>
@@ -13911,7 +13911,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="1">
-        <v>4210911353</v>
+        <v>4210510176</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>2</v>
@@ -13923,7 +13923,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="1">
-        <v>4210924322</v>
+        <v>4210623479</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>2</v>
@@ -13935,7 +13935,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="1">
-        <v>4210086965</v>
+        <v>4210629299</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>2</v>
@@ -13947,7 +13947,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="1">
-        <v>4210398274</v>
+        <v>4210866906</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>2</v>
@@ -13959,7 +13959,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="1">
-        <v>4210062240</v>
+        <v>4211068812</v>
       </c>
       <c r="C772" s="1" t="s">
         <v>2</v>
@@ -13971,7 +13971,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="1">
-        <v>4210086103</v>
+        <v>4211176011</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>2</v>
@@ -13983,7 +13983,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="1">
-        <v>4210104103</v>
+        <v>4210888119</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>2</v>
@@ -13995,7 +13995,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="1">
-        <v>4210143635</v>
+        <v>4211052476</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>2</v>
@@ -14007,7 +14007,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="1">
-        <v>4210179047</v>
+        <v>4210376988</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>2</v>
@@ -14019,7 +14019,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="1">
-        <v>4210281783</v>
+        <v>4210911353</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>2</v>
@@ -14031,7 +14031,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="1">
-        <v>4210396790</v>
+        <v>4210924322</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>2</v>
@@ -14043,7 +14043,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="1">
-        <v>4210405046</v>
+        <v>4210086965</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>2</v>
@@ -14055,7 +14055,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="1">
-        <v>4210405641</v>
+        <v>4210398274</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>2</v>
@@ -14067,7 +14067,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="1">
-        <v>4210522831</v>
+        <v>4210062240</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>2</v>
@@ -14079,7 +14079,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="1">
-        <v>4210560300</v>
+        <v>4210086103</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>2</v>
@@ -14091,7 +14091,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="1">
-        <v>4210593590</v>
+        <v>4210104103</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>2</v>
@@ -14103,7 +14103,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="1">
-        <v>4210751597</v>
+        <v>4210143635</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>2</v>
@@ -14115,7 +14115,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="1">
-        <v>4210782079</v>
+        <v>4210179047</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>2</v>
@@ -14127,7 +14127,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="1">
-        <v>4210853411</v>
+        <v>4210281783</v>
       </c>
       <c r="C786" s="1" t="s">
         <v>2</v>
@@ -14139,7 +14139,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="1">
-        <v>4211036626</v>
+        <v>4210396790</v>
       </c>
       <c r="C787" s="1" t="s">
         <v>2</v>
@@ -14151,7 +14151,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="1">
-        <v>4211154707</v>
+        <v>4210405046</v>
       </c>
       <c r="C788" s="1" t="s">
         <v>2</v>
@@ -14163,7 +14163,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="1">
-        <v>4210620984</v>
+        <v>4210405641</v>
       </c>
       <c r="C789" s="1" t="s">
         <v>2</v>
@@ -14175,7 +14175,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="1">
-        <v>4210036943</v>
+        <v>4210522831</v>
       </c>
       <c r="C790" s="1" t="s">
         <v>2</v>
@@ -14187,7 +14187,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="1">
-        <v>4210452458</v>
+        <v>4210560300</v>
       </c>
       <c r="C791" s="1" t="s">
         <v>2</v>
@@ -14199,7 +14199,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="1">
-        <v>4210003083</v>
+        <v>4210593590</v>
       </c>
       <c r="C792" s="1" t="s">
         <v>2</v>
@@ -14211,7 +14211,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="1">
-        <v>4210523490</v>
+        <v>4210751597</v>
       </c>
       <c r="C793" s="1" t="s">
         <v>2</v>
@@ -14223,7 +14223,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="1">
-        <v>4210383539</v>
+        <v>4210782079</v>
       </c>
       <c r="C794" s="1" t="s">
         <v>2</v>
@@ -14235,7 +14235,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="1">
-        <v>4210919520</v>
+        <v>4210853411</v>
       </c>
       <c r="C795" s="1" t="s">
         <v>2</v>
@@ -14247,7 +14247,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="1">
-        <v>4210792288</v>
+        <v>4211036626</v>
       </c>
       <c r="C796" s="1" t="s">
         <v>2</v>
@@ -14259,7 +14259,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="1">
-        <v>4210104513</v>
+        <v>4211154707</v>
       </c>
       <c r="C797" s="1" t="s">
         <v>2</v>
@@ -14271,7 +14271,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="1">
-        <v>4210115884</v>
+        <v>4210620984</v>
       </c>
       <c r="C798" s="1" t="s">
         <v>2</v>
@@ -14283,7 +14283,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="1">
-        <v>4210240115</v>
+        <v>4210036943</v>
       </c>
       <c r="C799" s="1" t="s">
         <v>2</v>
@@ -14295,7 +14295,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="1">
-        <v>4210337882</v>
+        <v>4210452458</v>
       </c>
       <c r="C800" s="1" t="s">
         <v>2</v>
@@ -14307,7 +14307,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="1">
-        <v>4210414207</v>
+        <v>4210003083</v>
       </c>
       <c r="C801" s="1" t="s">
         <v>2</v>
@@ -14319,7 +14319,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="1">
-        <v>4210478764</v>
+        <v>4210523490</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>2</v>
@@ -14331,7 +14331,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="1">
-        <v>4210483345</v>
+        <v>4210383539</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>2</v>
@@ -14343,7 +14343,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="1">
-        <v>4210483959</v>
+        <v>4210919520</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>2</v>
@@ -14355,7 +14355,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="1">
-        <v>4210552779</v>
+        <v>4210792288</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>2</v>
@@ -14367,7 +14367,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="1">
-        <v>4210615893</v>
+        <v>4210104513</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>2</v>
@@ -14379,7 +14379,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="1">
-        <v>4210700049</v>
+        <v>4210115884</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>2</v>
@@ -14391,7 +14391,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="1">
-        <v>4210718468</v>
+        <v>4210240115</v>
       </c>
       <c r="C808" s="1" t="s">
         <v>2</v>
@@ -14403,7 +14403,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="1">
-        <v>4210858030</v>
+        <v>4210337882</v>
       </c>
       <c r="C809" s="1" t="s">
         <v>2</v>
@@ -14415,7 +14415,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="1">
-        <v>4210974262</v>
+        <v>4210414207</v>
       </c>
       <c r="C810" s="1" t="s">
         <v>2</v>
@@ -14427,7 +14427,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="1">
-        <v>4211153726</v>
+        <v>4210478764</v>
       </c>
       <c r="C811" s="1" t="s">
         <v>2</v>
@@ -14439,7 +14439,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="1">
-        <v>4210247519</v>
+        <v>4210483345</v>
       </c>
       <c r="C812" s="1" t="s">
         <v>2</v>
@@ -14451,7 +14451,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="1">
-        <v>4210530221</v>
+        <v>4210483959</v>
       </c>
       <c r="C813" s="1" t="s">
         <v>2</v>
@@ -14463,7 +14463,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="1">
-        <v>4210652133</v>
+        <v>4210552779</v>
       </c>
       <c r="C814" s="1" t="s">
         <v>2</v>
@@ -14475,7 +14475,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="1">
-        <v>4210059502</v>
+        <v>4210615893</v>
       </c>
       <c r="C815" s="1" t="s">
         <v>2</v>
@@ -14487,7 +14487,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="1">
-        <v>4210076436</v>
+        <v>4210700049</v>
       </c>
       <c r="C816" s="1" t="s">
         <v>2</v>
@@ -14499,7 +14499,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="1">
-        <v>4210097470</v>
+        <v>4210718468</v>
       </c>
       <c r="C817" s="1" t="s">
         <v>2</v>
@@ -14511,7 +14511,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="1">
-        <v>4210099442</v>
+        <v>4210858030</v>
       </c>
       <c r="C818" s="1" t="s">
         <v>2</v>
@@ -14523,7 +14523,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="1">
-        <v>4210121557</v>
+        <v>4210974262</v>
       </c>
       <c r="C819" s="1" t="s">
         <v>2</v>
@@ -14535,7 +14535,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="1">
-        <v>4210238869</v>
+        <v>4211153726</v>
       </c>
       <c r="C820" s="1" t="s">
         <v>2</v>
@@ -14547,7 +14547,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="1">
-        <v>4210312209</v>
+        <v>4210247519</v>
       </c>
       <c r="C821" s="1" t="s">
         <v>2</v>
@@ -14559,7 +14559,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="1">
-        <v>4210399799</v>
+        <v>4210530221</v>
       </c>
       <c r="C822" s="1" t="s">
         <v>2</v>
@@ -14571,7 +14571,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="1">
-        <v>4210407646</v>
+        <v>4210652133</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>2</v>
@@ -14583,7 +14583,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="1">
-        <v>4210418911</v>
+        <v>4210059502</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>2</v>
@@ -14595,7 +14595,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="1">
-        <v>4210485733</v>
+        <v>4210076436</v>
       </c>
       <c r="C825" s="1" t="s">
         <v>2</v>
@@ -14607,7 +14607,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="1">
-        <v>4210536584</v>
+        <v>4210097470</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>2</v>
@@ -14619,7 +14619,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="1">
-        <v>4210721350</v>
+        <v>4210099442</v>
       </c>
       <c r="C827" s="1" t="s">
         <v>2</v>
@@ -14631,7 +14631,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="1">
-        <v>4210853143</v>
+        <v>4210121557</v>
       </c>
       <c r="C828" s="1" t="s">
         <v>2</v>
@@ -14643,7 +14643,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="1">
-        <v>4210960649</v>
+        <v>4210238869</v>
       </c>
       <c r="C829" s="1" t="s">
         <v>2</v>
@@ -14655,7 +14655,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="1">
-        <v>4211013963</v>
+        <v>4210312209</v>
       </c>
       <c r="C830" s="1" t="s">
         <v>2</v>
@@ -14667,7 +14667,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="1">
-        <v>4211155151</v>
+        <v>4210318638</v>
       </c>
       <c r="C831" s="1" t="s">
         <v>2</v>
@@ -14679,7 +14679,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="1">
-        <v>4211190697</v>
+        <v>4210399799</v>
       </c>
       <c r="C832" s="1" t="s">
         <v>2</v>
@@ -14691,7 +14691,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="1">
-        <v>4210811627</v>
+        <v>4210407646</v>
       </c>
       <c r="C833" s="1" t="s">
         <v>2</v>
@@ -14703,7 +14703,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="1">
-        <v>4210458622</v>
+        <v>4210418911</v>
       </c>
       <c r="C834" s="1" t="s">
         <v>2</v>
@@ -14715,7 +14715,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="1">
-        <v>4210671815</v>
+        <v>4210485733</v>
       </c>
       <c r="C835" s="1" t="s">
         <v>2</v>
@@ -14727,7 +14727,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="1">
-        <v>4210337818</v>
+        <v>4210536584</v>
       </c>
       <c r="C836" s="1" t="s">
         <v>2</v>
@@ -14739,7 +14739,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="1">
-        <v>4210949152</v>
+        <v>4210721350</v>
       </c>
       <c r="C837" s="1" t="s">
         <v>2</v>
@@ -14751,7 +14751,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="1">
-        <v>4210442082</v>
+        <v>4210853143</v>
       </c>
       <c r="C838" s="1" t="s">
         <v>2</v>
@@ -14763,7 +14763,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="1">
-        <v>4210634563</v>
+        <v>4210960649</v>
       </c>
       <c r="C839" s="1" t="s">
         <v>2</v>
@@ -14775,7 +14775,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="1">
-        <v>4210051155</v>
+        <v>4211013963</v>
       </c>
       <c r="C840" s="1" t="s">
         <v>2</v>
@@ -14787,7 +14787,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="1">
-        <v>4210142038</v>
+        <v>4211155151</v>
       </c>
       <c r="C841" s="1" t="s">
         <v>2</v>
@@ -14799,7 +14799,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="1">
-        <v>4210149575</v>
+        <v>4211190697</v>
       </c>
       <c r="C842" s="1" t="s">
         <v>2</v>
@@ -14811,7 +14811,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="1">
-        <v>4210168043</v>
+        <v>4210811627</v>
       </c>
       <c r="C843" s="1" t="s">
         <v>2</v>
@@ -14823,7 +14823,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="1">
-        <v>4210195529</v>
+        <v>4210458622</v>
       </c>
       <c r="C844" s="1" t="s">
         <v>2</v>
@@ -14835,7 +14835,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="1">
-        <v>4210303219</v>
+        <v>4210671815</v>
       </c>
       <c r="C845" s="1" t="s">
         <v>2</v>
@@ -14847,7 +14847,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="1">
-        <v>4210427799</v>
+        <v>4210337818</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>2</v>
@@ -14859,7 +14859,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="1">
-        <v>4210446245</v>
+        <v>4210949152</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>2</v>
@@ -14871,7 +14871,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="1">
-        <v>4210461149</v>
+        <v>4210442082</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>2</v>
@@ -14883,7 +14883,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="1">
-        <v>4210463784</v>
+        <v>4210634563</v>
       </c>
       <c r="C849" s="1" t="s">
         <v>2</v>
@@ -14895,7 +14895,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="1">
-        <v>4210629760</v>
+        <v>4210051155</v>
       </c>
       <c r="C850" s="1" t="s">
         <v>2</v>
@@ -14907,7 +14907,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="1">
-        <v>4210663878</v>
+        <v>4210142038</v>
       </c>
       <c r="C851" s="1" t="s">
         <v>2</v>
@@ -14919,7 +14919,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="1">
-        <v>4210709679</v>
+        <v>4210149575</v>
       </c>
       <c r="C852" s="1" t="s">
         <v>2</v>
@@ -14931,7 +14931,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="1">
-        <v>4210758376</v>
+        <v>4210168043</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>2</v>
@@ -14943,7 +14943,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="1">
-        <v>4210827877</v>
+        <v>4210195529</v>
       </c>
       <c r="C854" s="1" t="s">
         <v>2</v>
@@ -14955,7 +14955,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="1">
-        <v>4210939924</v>
+        <v>4210303219</v>
       </c>
       <c r="C855" s="1" t="s">
         <v>2</v>
@@ -14967,7 +14967,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="1">
-        <v>4211146371</v>
+        <v>4210427799</v>
       </c>
       <c r="C856" s="1" t="s">
         <v>2</v>
@@ -14979,7 +14979,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="1">
-        <v>4210207233</v>
+        <v>4210446245</v>
       </c>
       <c r="C857" s="1" t="s">
         <v>2</v>
@@ -14991,7 +14991,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="1">
-        <v>4210901008</v>
+        <v>4210461149</v>
       </c>
       <c r="C858" s="1" t="s">
         <v>2</v>
@@ -15003,7 +15003,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="1">
-        <v>4210423569</v>
+        <v>4210463784</v>
       </c>
       <c r="C859" s="1" t="s">
         <v>2</v>
@@ -15015,7 +15015,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="1">
-        <v>4210487451</v>
+        <v>4210629760</v>
       </c>
       <c r="C860" s="1" t="s">
         <v>2</v>
@@ -15027,7 +15027,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="1">
-        <v>4210607124</v>
+        <v>4210663878</v>
       </c>
       <c r="C861" s="1" t="s">
         <v>2</v>
@@ -15039,7 +15039,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="1">
-        <v>4210669592</v>
+        <v>4210709679</v>
       </c>
       <c r="C862" s="1" t="s">
         <v>2</v>
@@ -15051,7 +15051,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="1">
-        <v>4210436566</v>
+        <v>4210758376</v>
       </c>
       <c r="C863" s="1" t="s">
         <v>2</v>
@@ -15063,7 +15063,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="1">
-        <v>4210534852</v>
+        <v>4210827877</v>
       </c>
       <c r="C864" s="1" t="s">
         <v>2</v>
@@ -15075,7 +15075,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="1">
-        <v>4210001844</v>
+        <v>4210939924</v>
       </c>
       <c r="C865" s="1" t="s">
         <v>2</v>
@@ -15087,7 +15087,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="1">
-        <v>4210109667</v>
+        <v>4211146371</v>
       </c>
       <c r="C866" s="1" t="s">
         <v>2</v>
@@ -15099,7 +15099,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="1">
-        <v>4210110289</v>
+        <v>4210207233</v>
       </c>
       <c r="C867" s="1" t="s">
         <v>2</v>
@@ -15111,7 +15111,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="1">
-        <v>4210196693</v>
+        <v>4210901008</v>
       </c>
       <c r="C868" s="1" t="s">
         <v>2</v>
@@ -15123,7 +15123,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="1">
-        <v>4210365640</v>
+        <v>4210423569</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>2</v>
@@ -15135,7 +15135,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="1">
-        <v>4210407197</v>
+        <v>4210487451</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>2</v>
@@ -15147,7 +15147,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="1">
-        <v>4210417607</v>
+        <v>4210607124</v>
       </c>
       <c r="C871" s="1" t="s">
         <v>2</v>
@@ -15159,7 +15159,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="1">
-        <v>4210497243</v>
+        <v>4210669592</v>
       </c>
       <c r="C872" s="1" t="s">
         <v>2</v>
@@ -15171,7 +15171,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="1">
-        <v>4210548325</v>
+        <v>4210436566</v>
       </c>
       <c r="C873" s="1" t="s">
         <v>2</v>
@@ -15183,7 +15183,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="1">
-        <v>4210554776</v>
+        <v>4210534852</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>2</v>
@@ -15195,7 +15195,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="1">
-        <v>4210629708</v>
+        <v>4210001844</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>2</v>
@@ -15207,7 +15207,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="1">
-        <v>4210709565</v>
+        <v>4210109667</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>2</v>
@@ -15219,7 +15219,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="1">
-        <v>4210978497</v>
+        <v>4210110289</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>2</v>
@@ -15231,7 +15231,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="1">
-        <v>4211053377</v>
+        <v>4210196693</v>
       </c>
       <c r="C878" s="1" t="s">
         <v>2</v>
@@ -15243,7 +15243,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="1">
-        <v>4211168559</v>
+        <v>4210365640</v>
       </c>
       <c r="C879" s="1" t="s">
         <v>2</v>
@@ -15255,7 +15255,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="1">
-        <v>4211173096</v>
+        <v>4210407197</v>
       </c>
       <c r="C880" s="1" t="s">
         <v>2</v>
@@ -15267,7 +15267,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="3">
-        <v>4210970594</v>
+        <v>4210417607</v>
       </c>
       <c r="C881" s="1" t="s">
         <v>2</v>
@@ -15279,7 +15279,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="3">
-        <v>4210388883</v>
+        <v>4210497243</v>
       </c>
       <c r="C882" s="1" t="s">
         <v>2</v>
@@ -15291,7 +15291,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="3">
-        <v>4210622646</v>
+        <v>4210548325</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>2</v>
@@ -15303,7 +15303,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="3">
-        <v>4210049002</v>
+        <v>4210554776</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>2</v>
@@ -15315,7 +15315,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="3">
-        <v>4210905356</v>
+        <v>4210629708</v>
       </c>
       <c r="C885" s="1" t="s">
         <v>2</v>
@@ -15327,7 +15327,7 @@
         <v>885</v>
       </c>
       <c r="B886" s="3">
-        <v>4210750427</v>
+        <v>4210709565</v>
       </c>
       <c r="C886" s="1" t="s">
         <v>2</v>
@@ -15339,7 +15339,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="3">
-        <v>4210690219</v>
+        <v>4210978497</v>
       </c>
       <c r="C887" s="1" t="s">
         <v>2</v>
@@ -15351,7 +15351,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="3">
-        <v>4210544812</v>
+        <v>4211053377</v>
       </c>
       <c r="C888" s="1" t="s">
         <v>2</v>
@@ -15363,7 +15363,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="3">
-        <v>4210488775</v>
+        <v>4211168559</v>
       </c>
       <c r="C889" s="1" t="s">
         <v>2</v>
@@ -15375,7 +15375,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="3">
-        <v>4210374075</v>
+        <v>4211173096</v>
       </c>
       <c r="C890" s="1" t="s">
         <v>2</v>
@@ -15387,7 +15387,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="3">
-        <v>4211172188</v>
+        <v>4210970594</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>2</v>
@@ -15399,7 +15399,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="3">
-        <v>4210918088</v>
+        <v>4210388883</v>
       </c>
       <c r="C892" s="1" t="s">
         <v>2</v>
@@ -15411,7 +15411,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="3">
-        <v>4210245439</v>
+        <v>4210622646</v>
       </c>
       <c r="C893" s="1" t="s">
         <v>2</v>
@@ -15423,7 +15423,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="3">
-        <v>4210276653</v>
+        <v>4210049002</v>
       </c>
       <c r="C894" s="1" t="s">
         <v>2</v>
@@ -15435,7 +15435,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="3">
-        <v>4210429536</v>
+        <v>4210905356</v>
       </c>
       <c r="C895" s="1" t="s">
         <v>2</v>
@@ -15447,7 +15447,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="3">
-        <v>4210443303</v>
+        <v>4210750427</v>
       </c>
       <c r="C896" s="1" t="s">
         <v>2</v>
@@ -15459,7 +15459,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="3">
-        <v>4210519195</v>
+        <v>4210690219</v>
       </c>
       <c r="C897" s="1" t="s">
         <v>2</v>
@@ -15471,7 +15471,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="3">
-        <v>4210612803</v>
+        <v>4210544812</v>
       </c>
       <c r="C898" s="1" t="s">
         <v>2</v>
@@ -15483,7 +15483,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="3">
-        <v>4210669758</v>
+        <v>4210488775</v>
       </c>
       <c r="C899" s="1" t="s">
         <v>2</v>
@@ -15495,7 +15495,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="3">
-        <v>4210671668</v>
+        <v>4210374075</v>
       </c>
       <c r="C900" s="1" t="s">
         <v>2</v>
@@ -15507,7 +15507,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="3">
-        <v>4210727818</v>
+        <v>4211172188</v>
       </c>
       <c r="C901" s="1" t="s">
         <v>2</v>
@@ -15519,7 +15519,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="3">
-        <v>4210741138</v>
+        <v>4210918088</v>
       </c>
       <c r="C902" s="1" t="s">
         <v>2</v>
@@ -15531,7 +15531,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="3">
-        <v>4210883236</v>
+        <v>4210245439</v>
       </c>
       <c r="C903" s="1" t="s">
         <v>2</v>
@@ -15542,6 +15542,9 @@
         <f t="shared" si="14"/>
         <v>903</v>
       </c>
+      <c r="B904" s="3">
+        <v>4210276653</v>
+      </c>
       <c r="C904" s="1" t="s">
         <v>2</v>
       </c>
@@ -15551,6 +15554,9 @@
         <f t="shared" si="14"/>
         <v>904</v>
       </c>
+      <c r="B905" s="3">
+        <v>4210429536</v>
+      </c>
       <c r="C905" s="1" t="s">
         <v>2</v>
       </c>
@@ -15560,6 +15566,9 @@
         <f t="shared" si="14"/>
         <v>905</v>
       </c>
+      <c r="B906" s="3">
+        <v>4210443303</v>
+      </c>
       <c r="C906" s="1" t="s">
         <v>2</v>
       </c>
@@ -15569,6 +15578,9 @@
         <f t="shared" si="14"/>
         <v>906</v>
       </c>
+      <c r="B907" s="3">
+        <v>4210519195</v>
+      </c>
       <c r="C907" s="1" t="s">
         <v>2</v>
       </c>
@@ -15578,6 +15590,9 @@
         <f t="shared" si="14"/>
         <v>907</v>
       </c>
+      <c r="B908" s="3">
+        <v>4210612803</v>
+      </c>
       <c r="C908" s="1" t="s">
         <v>2</v>
       </c>
@@ -15587,6 +15602,9 @@
         <f t="shared" si="14"/>
         <v>908</v>
       </c>
+      <c r="B909" s="3">
+        <v>4210669758</v>
+      </c>
       <c r="C909" s="1" t="s">
         <v>2</v>
       </c>
@@ -15596,6 +15614,9 @@
         <f t="shared" si="14"/>
         <v>909</v>
       </c>
+      <c r="B910" s="3">
+        <v>4210671668</v>
+      </c>
       <c r="C910" s="1" t="s">
         <v>2</v>
       </c>
@@ -15605,6 +15626,9 @@
         <f t="shared" si="14"/>
         <v>910</v>
       </c>
+      <c r="B911" s="3">
+        <v>4210727818</v>
+      </c>
       <c r="C911" s="1" t="s">
         <v>2</v>
       </c>
@@ -15614,6 +15638,9 @@
         <f t="shared" si="14"/>
         <v>911</v>
       </c>
+      <c r="B912" s="3">
+        <v>4210741138</v>
+      </c>
       <c r="C912" s="1" t="s">
         <v>2</v>
       </c>
@@ -15622,6 +15649,9 @@
       <c r="A913" s="1">
         <f t="shared" si="14"/>
         <v>912</v>
+      </c>
+      <c r="B913" s="3">
+        <v>4210883236</v>
       </c>
       <c r="C913" s="1" t="s">
         <v>2</v>
@@ -43458,9 +43488,9 @@
       <c r="A908">
         <v>4211016266</v>
       </c>
-      <c r="B908" t="e">
+      <c r="B908">
         <f>VLOOKUP(A908,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211016266</v>
       </c>
       <c r="C908" t="s">
         <v>597</v>
@@ -43602,9 +43632,9 @@
       <c r="A914">
         <v>4210318638</v>
       </c>
-      <c r="B914" t="e">
+      <c r="B914">
         <f>VLOOKUP(A914,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210318638</v>
       </c>
       <c r="C914" t="s">
         <v>275</v>
@@ -43650,9 +43680,9 @@
       <c r="A916">
         <v>4210688947</v>
       </c>
-      <c r="B916" t="e">
+      <c r="B916">
         <f>VLOOKUP(A916,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210688947</v>
       </c>
       <c r="C916" t="s">
         <v>476</v>
@@ -43770,9 +43800,9 @@
       <c r="A921">
         <v>4210894043</v>
       </c>
-      <c r="B921" t="e">
+      <c r="B921">
         <f>VLOOKUP(A921,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210894043</v>
       </c>
       <c r="C921" t="s">
         <v>342</v>
@@ -43866,9 +43896,9 @@
       <c r="A925">
         <v>4211176011</v>
       </c>
-      <c r="B925" t="e">
+      <c r="B925">
         <f>VLOOKUP(A925,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211176011</v>
       </c>
       <c r="C925" t="s">
         <v>690</v>
@@ -43890,9 +43920,9 @@
       <c r="A926">
         <v>4210267921</v>
       </c>
-      <c r="B926" t="e">
+      <c r="B926">
         <f>VLOOKUP(A926,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210267921</v>
       </c>
       <c r="C926" t="s">
         <v>566</v>
@@ -43962,9 +43992,9 @@
       <c r="A929">
         <v>4211178135</v>
       </c>
-      <c r="B929" t="e">
+      <c r="B929">
         <f>VLOOKUP(A929,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211178135</v>
       </c>
       <c r="C929" t="s">
         <v>619</v>
@@ -44082,9 +44112,9 @@
       <c r="A934">
         <v>4210439137</v>
       </c>
-      <c r="B934" t="e">
+      <c r="B934">
         <f>VLOOKUP(A934,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210439137</v>
       </c>
       <c r="C934" t="s">
         <v>439</v>
@@ -44322,9 +44352,9 @@
       <c r="A944">
         <v>4210455251</v>
       </c>
-      <c r="B944" t="e">
+      <c r="B944">
         <f>VLOOKUP(A944,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210455251</v>
       </c>
       <c r="C944" t="s">
         <v>332</v>
@@ -44418,9 +44448,9 @@
       <c r="A948">
         <v>4210689383</v>
       </c>
-      <c r="B948" t="e">
+      <c r="B948">
         <f>VLOOKUP(A948,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210689383</v>
       </c>
       <c r="C948" t="s">
         <v>398</v>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C362C980-2FC1-4E8C-BF16-F4ABAC38814B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE49B6B3-EF36-4AC0-880F-C818816E4088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4692,8 +4692,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A906" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D920" sqref="D920"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7731,7 +7731,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>4210389070</v>
+        <v>4210381252</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
@@ -7743,7 +7743,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>4210396939</v>
+        <v>4210389070</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
@@ -7755,7 +7755,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>4210399687</v>
+        <v>4210396939</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
@@ -7767,7 +7767,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>4210403019</v>
+        <v>4210399687</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
@@ -7779,7 +7779,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>4210415044</v>
+        <v>4210403019</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
@@ -7791,7 +7791,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>4210420096</v>
+        <v>4210415044</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
@@ -7803,7 +7803,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>4210422212</v>
+        <v>4210420096</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
@@ -7815,7 +7815,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>4210435420</v>
+        <v>4210422212</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
@@ -7827,7 +7827,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>4210492552</v>
+        <v>4210435420</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
@@ -7839,7 +7839,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>4210559074</v>
+        <v>4210492552</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
@@ -7851,7 +7851,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>4210562814</v>
+        <v>4210559074</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
@@ -7863,7 +7863,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>4210597778</v>
+        <v>4210562814</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
@@ -7875,7 +7875,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>4210632710</v>
+        <v>4210597778</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
@@ -7887,7 +7887,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>4210633465</v>
+        <v>4210632710</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
@@ -7899,7 +7899,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>4210645803</v>
+        <v>4210633465</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
@@ -7911,7 +7911,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>4210688947</v>
+        <v>4210645803</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
@@ -7923,7 +7923,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>4210690272</v>
+        <v>4210688947</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
@@ -7935,7 +7935,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>4210695149</v>
+        <v>4210690272</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>2</v>
@@ -7947,7 +7947,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>4210706422</v>
+        <v>4210695149</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>2</v>
@@ -7959,7 +7959,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>4210786785</v>
+        <v>4210706422</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>2</v>
@@ -7971,7 +7971,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>4210805925</v>
+        <v>4210786785</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>2</v>
@@ -7983,7 +7983,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>4210830351</v>
+        <v>4210805925</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>2</v>
@@ -7995,7 +7995,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>4210836933</v>
+        <v>4210830351</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>2</v>
@@ -8007,7 +8007,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>4210878489</v>
+        <v>4210836933</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>2</v>
@@ -8019,7 +8019,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1">
-        <v>4210885456</v>
+        <v>4210878489</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>2</v>
@@ -8031,7 +8031,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>4210920767</v>
+        <v>4210885456</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>2</v>
@@ -8043,7 +8043,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>4210955715</v>
+        <v>4210920767</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>2</v>
@@ -8055,7 +8055,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>4210967793</v>
+        <v>4210955715</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>2</v>
@@ -8067,7 +8067,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>4211075710</v>
+        <v>4210967793</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>2</v>
@@ -8079,7 +8079,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>4211111638</v>
+        <v>4211075710</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>2</v>
@@ -8091,7 +8091,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>4211116641</v>
+        <v>4211111638</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>2</v>
@@ -8103,7 +8103,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>4211133709</v>
+        <v>4211116641</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>2</v>
@@ -8115,7 +8115,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1">
-        <v>4211143631</v>
+        <v>4211133709</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>2</v>
@@ -8127,7 +8127,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1">
-        <v>4211189644</v>
+        <v>4211143631</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>2</v>
@@ -8139,7 +8139,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1">
-        <v>4210665237</v>
+        <v>4211189644</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>2</v>
@@ -8151,7 +8151,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1">
-        <v>4211114353</v>
+        <v>4210665237</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>2</v>
@@ -8163,7 +8163,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>4210057744</v>
+        <v>4211114353</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>2</v>
@@ -8175,7 +8175,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>4210249633</v>
+        <v>4210057744</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>2</v>
@@ -8187,7 +8187,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>4210455251</v>
+        <v>4210249633</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>2</v>
@@ -8199,7 +8199,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>4210679738</v>
+        <v>4210455251</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>2</v>
@@ -8211,7 +8211,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>4211060486</v>
+        <v>4210679738</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>2</v>
@@ -8223,7 +8223,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>4211131368</v>
+        <v>4211060486</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>2</v>
@@ -8235,7 +8235,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>4210208750</v>
+        <v>4211131368</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>2</v>
@@ -8247,7 +8247,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>4210586900</v>
+        <v>4210208750</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>2</v>
@@ -8259,7 +8259,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>4210433177</v>
+        <v>4210586900</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>2</v>
@@ -8271,7 +8271,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>4210911313</v>
+        <v>4210433177</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>2</v>
@@ -8283,7 +8283,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>4210745675</v>
+        <v>4210911313</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>2</v>
@@ -8295,7 +8295,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>4211122411</v>
+        <v>4210745675</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
@@ -8307,7 +8307,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>4210855921</v>
+        <v>4211122411</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>2</v>
@@ -8319,7 +8319,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>4210009062</v>
+        <v>4210855921</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>2</v>
@@ -8331,7 +8331,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>4210648248</v>
+        <v>4210009062</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>2</v>
@@ -8343,7 +8343,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>4210356297</v>
+        <v>4210648248</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>2</v>
@@ -8355,7 +8355,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>4210152801</v>
+        <v>4210356297</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -8367,7 +8367,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>4210086596</v>
+        <v>4210152801</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>2</v>
@@ -8379,7 +8379,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>4211058112</v>
+        <v>4210086596</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>2</v>
@@ -8391,7 +8391,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>4210411973</v>
+        <v>4211058112</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>2</v>
@@ -8403,7 +8403,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>4211010219</v>
+        <v>4210411973</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>2</v>
@@ -8415,7 +8415,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>4210273020</v>
+        <v>4211010219</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>2</v>
@@ -8427,7 +8427,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1">
-        <v>4210264695</v>
+        <v>4210273020</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>2</v>
@@ -8439,7 +8439,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1">
-        <v>4210930375</v>
+        <v>4210264695</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>2</v>
@@ -8451,7 +8451,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1">
-        <v>4210242756</v>
+        <v>4210930375</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>2</v>
@@ -8463,7 +8463,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1">
-        <v>4210084552</v>
+        <v>4210242756</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
@@ -8475,7 +8475,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1">
-        <v>4210140390</v>
+        <v>4210084552</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
@@ -8487,7 +8487,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1">
-        <v>4210198183</v>
+        <v>4210140390</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>2</v>
@@ -8499,7 +8499,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1">
-        <v>4210253167</v>
+        <v>4210198183</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>2</v>
@@ -8511,7 +8511,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1">
-        <v>4210278245</v>
+        <v>4210253167</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>2</v>
@@ -8523,7 +8523,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1">
-        <v>4210405200</v>
+        <v>4210278245</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
@@ -8535,7 +8535,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1">
-        <v>4210412326</v>
+        <v>4210405200</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
@@ -8547,7 +8547,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>4210460806</v>
+        <v>4210412326</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>2</v>
@@ -8559,7 +8559,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>4210502557</v>
+        <v>4210460806</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>2</v>
@@ -8571,7 +8571,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>4210509447</v>
+        <v>4210502557</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>2</v>
@@ -8583,7 +8583,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>4210588954</v>
+        <v>4210509447</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
@@ -8595,7 +8595,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1">
-        <v>4210690402</v>
+        <v>4210588954</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>2</v>
@@ -8607,7 +8607,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1">
-        <v>4210692880</v>
+        <v>4210690402</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>2</v>
@@ -8619,7 +8619,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1">
-        <v>4210735578</v>
+        <v>4210692880</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>2</v>
@@ -8631,7 +8631,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1">
-        <v>4210921232</v>
+        <v>4210735578</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
@@ -8643,7 +8643,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1">
-        <v>4210963617</v>
+        <v>4210921232</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>2</v>
@@ -8655,7 +8655,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1">
-        <v>4210973302</v>
+        <v>4210963617</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
@@ -8667,7 +8667,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1">
-        <v>4211069287</v>
+        <v>4210973302</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>2</v>
@@ -8679,7 +8679,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1">
-        <v>4211096801</v>
+        <v>4211069287</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
@@ -8691,7 +8691,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1">
-        <v>4211178135</v>
+        <v>4211096801</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>2</v>
@@ -8703,7 +8703,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1">
-        <v>4211189006</v>
+        <v>4211178135</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1">
-        <v>4211014355</v>
+        <v>4211189006</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>2</v>
@@ -8727,7 +8727,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1">
-        <v>4210122458</v>
+        <v>4211014355</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>2</v>
@@ -8739,7 +8739,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1">
-        <v>4210621591</v>
+        <v>4210122458</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>2</v>
@@ -8751,7 +8751,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1">
-        <v>4210474468</v>
+        <v>4210621591</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>2</v>
@@ -8763,7 +8763,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1">
-        <v>4210392055</v>
+        <v>4210474468</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>2</v>
@@ -8775,7 +8775,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1">
-        <v>4210144557</v>
+        <v>4210392055</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>2</v>
@@ -8787,7 +8787,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1">
-        <v>4210806396</v>
+        <v>4210144557</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>2</v>
@@ -8799,7 +8799,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1">
-        <v>4210059000</v>
+        <v>4210806396</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>2</v>
@@ -8811,7 +8811,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1">
-        <v>4211050835</v>
+        <v>4210059000</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
@@ -8823,7 +8823,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1">
-        <v>4210941334</v>
+        <v>4211050835</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>2</v>
@@ -8835,7 +8835,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1">
-        <v>4210073431</v>
+        <v>4210941334</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>2</v>
@@ -8847,7 +8847,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1">
-        <v>4210222465</v>
+        <v>4210073431</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>2</v>
@@ -8859,7 +8859,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1">
-        <v>4210321387</v>
+        <v>4210222465</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
@@ -8871,7 +8871,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1">
-        <v>4210322119</v>
+        <v>4210321387</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
@@ -8883,7 +8883,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1">
-        <v>4210432648</v>
+        <v>4210322119</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
@@ -8895,7 +8895,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1">
-        <v>4210613705</v>
+        <v>4210432648</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>2</v>
@@ -8907,7 +8907,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1">
-        <v>4210640185</v>
+        <v>4210514654</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>2</v>
@@ -8919,7 +8919,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1">
-        <v>4210734425</v>
+        <v>4210613705</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>2</v>
@@ -8931,7 +8931,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1">
-        <v>4210931474</v>
+        <v>4210640185</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>2</v>
@@ -8943,7 +8943,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1">
-        <v>4210951981</v>
+        <v>4210734425</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>2</v>
@@ -8955,7 +8955,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1">
-        <v>4211183842</v>
+        <v>4210931474</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>2</v>
@@ -8967,7 +8967,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1">
-        <v>4211190937</v>
+        <v>4210951981</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>2</v>
@@ -8979,7 +8979,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1">
-        <v>4210264951</v>
+        <v>4211183842</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>2</v>
@@ -8991,7 +8991,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1">
-        <v>4210229661</v>
+        <v>4211190937</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>2</v>
@@ -9003,7 +9003,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1">
-        <v>4210815491</v>
+        <v>4210264951</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>2</v>
@@ -9015,7 +9015,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1">
-        <v>4210842072</v>
+        <v>4210229661</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
@@ -9027,7 +9027,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1">
-        <v>4210497292</v>
+        <v>4210815491</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>2</v>
@@ -9039,7 +9039,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1">
-        <v>4210984821</v>
+        <v>4210842072</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>2</v>
@@ -9051,7 +9051,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1">
-        <v>4210185227</v>
+        <v>4210497292</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>2</v>
@@ -9063,7 +9063,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1">
-        <v>4210151586</v>
+        <v>4210984821</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>2</v>
@@ -9075,7 +9075,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1">
-        <v>4210791646</v>
+        <v>4210185227</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
@@ -9087,7 +9087,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1">
-        <v>4211014966</v>
+        <v>4210151586</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>2</v>
@@ -9099,7 +9099,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1">
-        <v>4211039341</v>
+        <v>4210791646</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>2</v>
@@ -9111,7 +9111,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1">
-        <v>4210012567</v>
+        <v>4211014966</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>2</v>
@@ -9123,7 +9123,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1">
-        <v>4210094035</v>
+        <v>4211039341</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>2</v>
@@ -9135,7 +9135,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1">
-        <v>4210128315</v>
+        <v>4210012567</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>2</v>
@@ -9147,7 +9147,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1">
-        <v>4210195896</v>
+        <v>4210094035</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>2</v>
@@ -9159,7 +9159,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1">
-        <v>4210201732</v>
+        <v>4210128315</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>2</v>
@@ -9171,7 +9171,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1">
-        <v>4210256983</v>
+        <v>4210195896</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>2</v>
@@ -9183,7 +9183,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1">
-        <v>4210267013</v>
+        <v>4210201732</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>2</v>
@@ -9195,7 +9195,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1">
-        <v>4210385160</v>
+        <v>4210256983</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>2</v>
@@ -9207,7 +9207,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1">
-        <v>4210399589</v>
+        <v>4210267013</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
@@ -9219,7 +9219,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1">
-        <v>4210435801</v>
+        <v>4210385160</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>2</v>
@@ -9231,7 +9231,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1">
-        <v>4210457607</v>
+        <v>4210399589</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
@@ -9243,7 +9243,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1">
-        <v>4210482713</v>
+        <v>4210435801</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>2</v>
@@ -9255,7 +9255,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1">
-        <v>4210518577</v>
+        <v>4210457607</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>2</v>
@@ -9267,7 +9267,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1">
-        <v>4210521692</v>
+        <v>4210482713</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>2</v>
@@ -9279,7 +9279,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1">
-        <v>4210875091</v>
+        <v>4210518577</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
@@ -9291,7 +9291,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1">
-        <v>4211117196</v>
+        <v>4210521692</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>2</v>
@@ -9303,7 +9303,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1">
-        <v>4211129438</v>
+        <v>4210875091</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>2</v>
@@ -9315,7 +9315,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1">
-        <v>4211174186</v>
+        <v>4211037851</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>2</v>
@@ -9327,7 +9327,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1">
-        <v>4210199520</v>
+        <v>4211117196</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>2</v>
@@ -9339,7 +9339,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1">
-        <v>4211054741</v>
+        <v>4211129438</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>2</v>
@@ -9351,7 +9351,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1">
-        <v>4210870120</v>
+        <v>4211174186</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>2</v>
@@ -9363,7 +9363,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1">
-        <v>4210354861</v>
+        <v>4210199520</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>2</v>
@@ -9375,7 +9375,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1">
-        <v>4210499924</v>
+        <v>4211054741</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>2</v>
@@ -9387,7 +9387,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1">
-        <v>4210967965</v>
+        <v>4210870120</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>2</v>
@@ -9399,7 +9399,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1">
-        <v>4210461415</v>
+        <v>4210354861</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>2</v>
@@ -9411,7 +9411,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1">
-        <v>4210144307</v>
+        <v>4210499924</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>2</v>
@@ -9423,7 +9423,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1">
-        <v>4210692323</v>
+        <v>4210967965</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>2</v>
@@ -9435,7 +9435,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1">
-        <v>4210045275</v>
+        <v>4210461415</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>2</v>
@@ -9447,7 +9447,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1">
-        <v>4210105758</v>
+        <v>4210144307</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>2</v>
@@ -9459,7 +9459,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1">
-        <v>4210115421</v>
+        <v>4210692323</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>2</v>
@@ -9471,7 +9471,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1">
-        <v>4210354387</v>
+        <v>4210045275</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>2</v>
@@ -9483,7 +9483,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1">
-        <v>4210358137</v>
+        <v>4210105758</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>2</v>
@@ -9495,7 +9495,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1">
-        <v>4210386755</v>
+        <v>4210115421</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>2</v>
@@ -9507,7 +9507,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1">
-        <v>4210714398</v>
+        <v>4210354387</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>2</v>
@@ -9519,7 +9519,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1">
-        <v>4210043894</v>
+        <v>4210358137</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>2</v>
@@ -9531,7 +9531,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1">
-        <v>4210122182</v>
+        <v>4210386755</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>2</v>
@@ -9543,7 +9543,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1">
-        <v>4210141517</v>
+        <v>4210714398</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>2</v>
@@ -9555,7 +9555,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1">
-        <v>4210142349</v>
+        <v>4210043894</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>2</v>
@@ -9567,7 +9567,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1">
-        <v>4210383149</v>
+        <v>4210122182</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>2</v>
@@ -9579,7 +9579,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1">
-        <v>4210424900</v>
+        <v>4210141517</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>2</v>
@@ -9591,7 +9591,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1">
-        <v>4210622386</v>
+        <v>4210142349</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>2</v>
@@ -9603,7 +9603,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1">
-        <v>4210769887</v>
+        <v>4210383149</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>2</v>
@@ -9615,7 +9615,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1">
-        <v>4210997472</v>
+        <v>4210424900</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>2</v>
@@ -9627,7 +9627,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1">
-        <v>4211157478</v>
+        <v>4210622386</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>2</v>
@@ -9639,7 +9639,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1">
-        <v>4210420456</v>
+        <v>4210769887</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>2</v>
@@ -9651,7 +9651,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1">
-        <v>4210897066</v>
+        <v>4210997472</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>2</v>
@@ -9663,7 +9663,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1">
-        <v>4210117447</v>
+        <v>4211157478</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>2</v>
@@ -9675,7 +9675,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1">
-        <v>4210151088</v>
+        <v>4210420456</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>2</v>
@@ -9687,7 +9687,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1">
-        <v>4210205221</v>
+        <v>4210897066</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>2</v>
@@ -9699,7 +9699,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1">
-        <v>4210392364</v>
+        <v>4210117447</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>2</v>
@@ -9711,7 +9711,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1">
-        <v>4210462732</v>
+        <v>4210151088</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>2</v>
@@ -9723,7 +9723,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1">
-        <v>4210942167</v>
+        <v>4210205221</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>2</v>
@@ -9735,7 +9735,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1">
-        <v>4210176463</v>
+        <v>4210392364</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>2</v>
@@ -9747,7 +9747,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1">
-        <v>4211024353</v>
+        <v>4210462732</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>2</v>
@@ -9759,7 +9759,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1">
-        <v>4210047154</v>
+        <v>4210942167</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>2</v>
@@ -9771,7 +9771,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1">
-        <v>4210433787</v>
+        <v>4210176463</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>2</v>
@@ -9783,7 +9783,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1">
-        <v>4210182855</v>
+        <v>4211024353</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>2</v>
@@ -9795,7 +9795,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1">
-        <v>4210994649</v>
+        <v>4210047154</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>2</v>
@@ -9807,7 +9807,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1">
-        <v>4210450687</v>
+        <v>4210433787</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>2</v>
@@ -9819,7 +9819,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1">
-        <v>4210922651</v>
+        <v>4210182855</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>2</v>
@@ -9831,7 +9831,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1">
-        <v>4210020624</v>
+        <v>4210994649</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>2</v>
@@ -9843,7 +9843,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1">
-        <v>4210072470</v>
+        <v>4210450687</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>2</v>
@@ -9855,7 +9855,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1">
-        <v>4210087071</v>
+        <v>4210922651</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>2</v>
@@ -9867,7 +9867,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1">
-        <v>4210155613</v>
+        <v>4210020624</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>2</v>
@@ -9879,7 +9879,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1">
-        <v>4210167563</v>
+        <v>4210072470</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>2</v>
@@ -9891,7 +9891,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1">
-        <v>4210183865</v>
+        <v>4210087071</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>2</v>
@@ -9903,7 +9903,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1">
-        <v>4210194296</v>
+        <v>4210155613</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>2</v>
@@ -9915,7 +9915,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="1">
-        <v>4210198173</v>
+        <v>4210167563</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>2</v>
@@ -9927,7 +9927,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="1">
-        <v>4210255777</v>
+        <v>4210183865</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>2</v>
@@ -9939,7 +9939,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1">
-        <v>4210357001</v>
+        <v>4210194296</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>2</v>
@@ -9951,7 +9951,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1">
-        <v>4210452807</v>
+        <v>4210198173</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>2</v>
@@ -9963,7 +9963,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1">
-        <v>4210523627</v>
+        <v>4210255777</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>2</v>
@@ -9975,7 +9975,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1">
-        <v>4210703688</v>
+        <v>4210357001</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>2</v>
@@ -9987,7 +9987,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1">
-        <v>4210711324</v>
+        <v>4210452807</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>2</v>
@@ -9999,7 +9999,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="1">
-        <v>4210740039</v>
+        <v>4210523627</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>2</v>
@@ -10011,7 +10011,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1">
-        <v>4210762861</v>
+        <v>4210703688</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>2</v>
@@ -10023,7 +10023,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="1">
-        <v>4210764761</v>
+        <v>4210711324</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>2</v>
@@ -10035,7 +10035,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="1">
-        <v>4210992519</v>
+        <v>4210740039</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>2</v>
@@ -10047,7 +10047,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="1">
-        <v>4211033732</v>
+        <v>4210762861</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>2</v>
@@ -10059,7 +10059,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="1">
-        <v>4211081285</v>
+        <v>4210764761</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>2</v>
@@ -10071,7 +10071,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="1">
-        <v>4211123262</v>
+        <v>4210992519</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>2</v>
@@ -10083,7 +10083,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1">
-        <v>4211160024</v>
+        <v>4211033732</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>2</v>
@@ -10095,7 +10095,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="1">
-        <v>4211389730</v>
+        <v>4211081285</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>2</v>
@@ -10107,7 +10107,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="1">
-        <v>4210147981</v>
+        <v>4211123262</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>2</v>
@@ -10119,7 +10119,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="1">
-        <v>4210644077</v>
+        <v>4211160024</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>2</v>
@@ -10131,7 +10131,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="1">
-        <v>4210257649</v>
+        <v>4211389730</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>2</v>
@@ -10143,7 +10143,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="1">
-        <v>4210402143</v>
+        <v>4210147981</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>2</v>
@@ -10155,7 +10155,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="1">
-        <v>4210523156</v>
+        <v>4210644077</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>2</v>
@@ -10167,7 +10167,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="1">
-        <v>4210823515</v>
+        <v>4210257649</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>2</v>
@@ -10179,7 +10179,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1">
-        <v>4210115162</v>
+        <v>4210402143</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>2</v>
@@ -10191,7 +10191,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1">
-        <v>4210612098</v>
+        <v>4210523156</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>2</v>
@@ -10203,7 +10203,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1">
-        <v>4210368642</v>
+        <v>4210823515</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>2</v>
@@ -10215,7 +10215,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="1">
-        <v>4210079772</v>
+        <v>4210115162</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>2</v>
@@ -10227,7 +10227,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="1">
-        <v>4210132442</v>
+        <v>4210612098</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>2</v>
@@ -10239,7 +10239,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="1">
-        <v>4210166153</v>
+        <v>4210368642</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>2</v>
@@ -10251,7 +10251,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="1">
-        <v>4210184555</v>
+        <v>4210079772</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>2</v>
@@ -10263,7 +10263,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="1">
-        <v>4210236370</v>
+        <v>4210132442</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>2</v>
@@ -10275,7 +10275,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="1">
-        <v>4210583026</v>
+        <v>4210166153</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>2</v>
@@ -10287,7 +10287,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="1">
-        <v>4210671328</v>
+        <v>4210184555</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>2</v>
@@ -10299,7 +10299,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="1">
-        <v>4210722932</v>
+        <v>4210236370</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>2</v>
@@ -10311,7 +10311,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="1">
-        <v>4210764690</v>
+        <v>4210583026</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>2</v>
@@ -10323,7 +10323,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="1">
-        <v>4210830444</v>
+        <v>4210671328</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="1">
-        <v>4211015938</v>
+        <v>4210722932</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>2</v>
@@ -10347,7 +10347,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="1">
-        <v>4211047440</v>
+        <v>4210764690</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>2</v>
@@ -10359,7 +10359,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="1">
-        <v>4211116085</v>
+        <v>4210830444</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>2</v>
@@ -10371,7 +10371,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="1">
-        <v>4210691393</v>
+        <v>4211015938</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>2</v>
@@ -10383,7 +10383,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="1">
-        <v>4210986456</v>
+        <v>4211047440</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>2</v>
@@ -10395,7 +10395,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="1">
-        <v>4210701833</v>
+        <v>4211116085</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>2</v>
@@ -10407,7 +10407,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="1">
-        <v>4210388739</v>
+        <v>4210691393</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>2</v>
@@ -10419,7 +10419,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="1">
-        <v>4211121228</v>
+        <v>4210986456</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>2</v>
@@ -10431,7 +10431,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="1">
-        <v>4210891162</v>
+        <v>4210701833</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>2</v>
@@ -10443,7 +10443,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="1">
-        <v>4210685145</v>
+        <v>4210388739</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>2</v>
@@ -10455,7 +10455,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="1">
-        <v>4211156129</v>
+        <v>4211121228</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>2</v>
@@ -10467,7 +10467,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="1">
-        <v>4210110664</v>
+        <v>4210891162</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>2</v>
@@ -10479,7 +10479,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="1">
-        <v>4210179613</v>
+        <v>4210685145</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>2</v>
@@ -10491,7 +10491,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="1">
-        <v>4210230359</v>
+        <v>4211156129</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>2</v>
@@ -10503,7 +10503,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="1">
-        <v>4210232959</v>
+        <v>4210110664</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>2</v>
@@ -10515,7 +10515,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="1">
-        <v>4210259795</v>
+        <v>4210179613</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>2</v>
@@ -10527,7 +10527,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="1">
-        <v>4210321845</v>
+        <v>4210230359</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>2</v>
@@ -10539,7 +10539,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="1">
-        <v>4210347256</v>
+        <v>4210232959</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>2</v>
@@ -10551,7 +10551,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="1">
-        <v>4210420336</v>
+        <v>4210259795</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>2</v>
@@ -10563,7 +10563,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="1">
-        <v>4210438071</v>
+        <v>4210321845</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>2</v>
@@ -10575,7 +10575,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1">
-        <v>4210476751</v>
+        <v>4210347256</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>2</v>
@@ -10587,7 +10587,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="1">
-        <v>4210629820</v>
+        <v>4210420336</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>2</v>
@@ -10599,7 +10599,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="1">
-        <v>4210671598</v>
+        <v>4210438071</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>2</v>
@@ -10611,7 +10611,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="1">
-        <v>4210815668</v>
+        <v>4210476751</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>2</v>
@@ -10623,7 +10623,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="1">
-        <v>4210841954</v>
+        <v>4210629820</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>2</v>
@@ -10635,7 +10635,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="1">
-        <v>4210995906</v>
+        <v>4210671598</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>2</v>
@@ -10647,7 +10647,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="1">
-        <v>4210673461</v>
+        <v>4210815668</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>2</v>
@@ -10659,7 +10659,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="1">
-        <v>4210697216</v>
+        <v>4210841954</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>2</v>
@@ -10671,7 +10671,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1">
-        <v>4210851034</v>
+        <v>4210995906</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>2</v>
@@ -10683,7 +10683,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1">
-        <v>4211039879</v>
+        <v>4210673461</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>2</v>
@@ -10695,7 +10695,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="1">
-        <v>4210440787</v>
+        <v>4210697216</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>2</v>
@@ -10707,7 +10707,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="1">
-        <v>4210985823</v>
+        <v>4210851034</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>2</v>
@@ -10719,7 +10719,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="1">
-        <v>4210396117</v>
+        <v>4211039879</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>2</v>
@@ -10731,7 +10731,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="1">
-        <v>4210209432</v>
+        <v>4210440787</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>2</v>
@@ -10743,7 +10743,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="1">
-        <v>4210466625</v>
+        <v>4210985823</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>2</v>
@@ -10755,7 +10755,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="1">
-        <v>4210015894</v>
+        <v>4210396117</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>2</v>
@@ -10767,7 +10767,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="1">
-        <v>4210020577</v>
+        <v>4210209432</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>2</v>
@@ -10779,7 +10779,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="1">
-        <v>4210050876</v>
+        <v>4210466625</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>2</v>
@@ -10791,7 +10791,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="1">
-        <v>4210178048</v>
+        <v>4210015894</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>2</v>
@@ -10803,7 +10803,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="1">
-        <v>4210183791</v>
+        <v>4210020577</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>2</v>
@@ -10815,7 +10815,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="1">
-        <v>4210301504</v>
+        <v>4210050876</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>2</v>
@@ -10827,7 +10827,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="1">
-        <v>4210341601</v>
+        <v>4210178048</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>2</v>
@@ -10839,7 +10839,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="1">
-        <v>4210370018</v>
+        <v>4210183791</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>2</v>
@@ -10851,7 +10851,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="1">
-        <v>4210377269</v>
+        <v>4210301504</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>2</v>
@@ -10863,7 +10863,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="1">
-        <v>4210384491</v>
+        <v>4210341601</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>2</v>
@@ -10875,7 +10875,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>4210484114</v>
+        <v>4210370018</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>2</v>
@@ -10887,7 +10887,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="1">
-        <v>4210544250</v>
+        <v>4210377269</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>2</v>
@@ -10899,7 +10899,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="1">
-        <v>4210573384</v>
+        <v>4210384491</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>2</v>
@@ -10911,7 +10911,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="1">
-        <v>4210763178</v>
+        <v>4210484114</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>2</v>
@@ -10923,7 +10923,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="1">
-        <v>4211128014</v>
+        <v>4210544250</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>2</v>
@@ -10935,7 +10935,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="1">
-        <v>4211003079</v>
+        <v>4210573384</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>2</v>
@@ -10947,7 +10947,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="1">
-        <v>4210652631</v>
+        <v>4210763178</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>2</v>
@@ -10959,7 +10959,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="2">
-        <v>4210752028</v>
+        <v>4211128014</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>2</v>
@@ -10971,7 +10971,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="1">
-        <v>4210282624</v>
+        <v>4211003079</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>2</v>
@@ -10983,7 +10983,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="1">
-        <v>4210530875</v>
+        <v>4210652631</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>2</v>
@@ -10995,7 +10995,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="1">
-        <v>4210182500</v>
+        <v>4210752028</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>2</v>
@@ -11007,7 +11007,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="1">
-        <v>4210780191</v>
+        <v>4210282624</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>2</v>
@@ -11019,7 +11019,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="1">
-        <v>4210748422</v>
+        <v>4210530875</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>2</v>
@@ -11031,7 +11031,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="1">
-        <v>4210537453</v>
+        <v>4210182500</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>2</v>
@@ -11043,7 +11043,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="1">
-        <v>4210213411</v>
+        <v>4210780191</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>2</v>
@@ -11055,7 +11055,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="1">
-        <v>4210223261</v>
+        <v>4210748422</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>2</v>
@@ -11067,7 +11067,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="1">
-        <v>4210261027</v>
+        <v>4210537453</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>2</v>
@@ -11079,7 +11079,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="1">
-        <v>4210329350</v>
+        <v>4210213411</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>2</v>
@@ -11091,7 +11091,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="1">
-        <v>4210421627</v>
+        <v>4210223261</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>2</v>
@@ -11103,7 +11103,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="1">
-        <v>4210438000</v>
+        <v>4210261027</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>2</v>
@@ -11115,7 +11115,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="1">
-        <v>4210444262</v>
+        <v>4210329350</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>2</v>
@@ -11127,7 +11127,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="1">
-        <v>4211121745</v>
+        <v>4210421627</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>2</v>
@@ -11139,7 +11139,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="1">
-        <v>4210256197</v>
+        <v>4210438000</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>2</v>
@@ -11151,7 +11151,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="1">
-        <v>4210837418</v>
+        <v>4210444262</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>2</v>
@@ -11163,7 +11163,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="1">
-        <v>4210283620</v>
+        <v>4211121745</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>2</v>
@@ -11175,7 +11175,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="1">
-        <v>4210928075</v>
+        <v>4210256197</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>2</v>
@@ -11187,7 +11187,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="1">
-        <v>4210163688</v>
+        <v>4210837418</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>2</v>
@@ -11199,7 +11199,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="1">
-        <v>4210005081</v>
+        <v>4210283620</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>2</v>
@@ -11211,7 +11211,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="1">
-        <v>4210198370</v>
+        <v>4210928075</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>2</v>
@@ -11223,7 +11223,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="1">
-        <v>4210212879</v>
+        <v>4210163688</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>2</v>
@@ -11235,7 +11235,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="1">
-        <v>4210431823</v>
+        <v>4210005081</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>2</v>
@@ -11247,7 +11247,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="1">
-        <v>4210525890</v>
+        <v>4210198370</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>2</v>
@@ -11259,7 +11259,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="1">
-        <v>4210532302</v>
+        <v>4210212879</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>2</v>
@@ -11271,7 +11271,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="1">
-        <v>4210489208</v>
+        <v>4210263006</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>2</v>
@@ -11283,7 +11283,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="1">
-        <v>4210716858</v>
+        <v>4210431823</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>2</v>
@@ -11295,7 +11295,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>4210065219</v>
+        <v>4210525890</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>2</v>
@@ -11307,7 +11307,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="1">
-        <v>4210941041</v>
+        <v>4210532302</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>2</v>
@@ -11319,7 +11319,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="1">
-        <v>4210534515</v>
+        <v>4210489208</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>2</v>
@@ -11331,7 +11331,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="1">
-        <v>4210204988</v>
+        <v>4210716858</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>2</v>
@@ -11343,7 +11343,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="1">
-        <v>4210377665</v>
+        <v>4210065219</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>2</v>
@@ -11355,7 +11355,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="1">
-        <v>4210500697</v>
+        <v>4210941041</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>2</v>
@@ -11367,7 +11367,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="1">
-        <v>4210646048</v>
+        <v>4210534515</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>2</v>
@@ -11379,7 +11379,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="1">
-        <v>4210113372</v>
+        <v>4210204988</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="1">
-        <v>4210145794</v>
+        <v>4210097114</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>2</v>
@@ -11403,7 +11403,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="1">
-        <v>4210213661</v>
+        <v>4210377665</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>2</v>
@@ -11415,7 +11415,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="1">
-        <v>4210366648</v>
+        <v>4210500697</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>2</v>
@@ -11427,7 +11427,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="1">
-        <v>4210451210</v>
+        <v>4210646048</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>2</v>
@@ -11439,7 +11439,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="1">
-        <v>4210476056</v>
+        <v>4210113372</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>2</v>
@@ -11451,7 +11451,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="1">
-        <v>4210598087</v>
+        <v>4210145794</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>2</v>
@@ -11463,7 +11463,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="1">
-        <v>4210610217</v>
+        <v>4210213661</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>2</v>
@@ -11475,7 +11475,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="1">
-        <v>4210646368</v>
+        <v>4210366648</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>2</v>
@@ -11487,7 +11487,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="1">
-        <v>4210689234</v>
+        <v>4210451210</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>2</v>
@@ -11499,7 +11499,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="1">
-        <v>4210850923</v>
+        <v>4210476056</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>2</v>
@@ -11511,7 +11511,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="1">
-        <v>4210935036</v>
+        <v>4210598087</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>2</v>
@@ -11523,7 +11523,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="1">
-        <v>4210936777</v>
+        <v>4210610217</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>2</v>
@@ -11535,7 +11535,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="1">
-        <v>4210596404</v>
+        <v>4210646368</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>2</v>
@@ -11547,7 +11547,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="1">
-        <v>4211119160</v>
+        <v>4210689234</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>2</v>
@@ -11559,7 +11559,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="1">
-        <v>4211029307</v>
+        <v>4210850923</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>2</v>
@@ -11571,7 +11571,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="1">
-        <v>4210533998</v>
+        <v>4210935036</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>2</v>
@@ -11583,7 +11583,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="1">
-        <v>4210368640</v>
+        <v>4211166664</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>2</v>
@@ -11595,7 +11595,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="1">
-        <v>4210952808</v>
+        <v>4210936777</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>2</v>
@@ -11607,7 +11607,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="1">
-        <v>4210093802</v>
+        <v>4210596404</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>2</v>
@@ -11619,7 +11619,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="1">
-        <v>4210162326</v>
+        <v>4211119160</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>2</v>
@@ -11631,7 +11631,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="1">
-        <v>4210204708</v>
+        <v>4211029307</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>2</v>
@@ -11643,7 +11643,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="1">
-        <v>4210386449</v>
+        <v>4210533998</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>2</v>
@@ -11655,7 +11655,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="1">
-        <v>4210514973</v>
+        <v>4210368640</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>2</v>
@@ -11667,7 +11667,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="1">
-        <v>4210539791</v>
+        <v>4210952808</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>2</v>
@@ -11679,7 +11679,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="1">
-        <v>4210605310</v>
+        <v>4210093802</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>2</v>
@@ -11691,7 +11691,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="1">
-        <v>4210655536</v>
+        <v>4210162326</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>2</v>
@@ -11703,7 +11703,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="1">
-        <v>4210803979</v>
+        <v>4210204708</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>2</v>
@@ -11715,7 +11715,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="1">
-        <v>4210415570</v>
+        <v>4210386449</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>2</v>
@@ -11727,7 +11727,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="1">
-        <v>4210033714</v>
+        <v>4210514973</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>2</v>
@@ -11739,7 +11739,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="1">
-        <v>4210281106</v>
+        <v>4210539791</v>
       </c>
       <c r="C587" s="1" t="s">
         <v>2</v>
@@ -11751,7 +11751,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="1">
-        <v>4210698032</v>
+        <v>4210605310</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>2</v>
@@ -11763,7 +11763,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="1">
-        <v>4211121133</v>
+        <v>4210655536</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>2</v>
@@ -11775,7 +11775,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="1">
-        <v>4210024291</v>
+        <v>4210803979</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>2</v>
@@ -11787,7 +11787,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="1">
-        <v>4210140346</v>
+        <v>4210415570</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>2</v>
@@ -11799,7 +11799,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="1">
-        <v>4210296631</v>
+        <v>4210033714</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>2</v>
@@ -11811,7 +11811,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="1">
-        <v>4210406475</v>
+        <v>4210281106</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>2</v>
@@ -11823,7 +11823,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="1">
-        <v>4210506018</v>
+        <v>4210698032</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>2</v>
@@ -11835,7 +11835,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="1">
-        <v>4210592061</v>
+        <v>4211121133</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>2</v>
@@ -11847,7 +11847,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="1">
-        <v>4210660785</v>
+        <v>4210024291</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>2</v>
@@ -11859,7 +11859,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="1">
-        <v>4210872795</v>
+        <v>4210140346</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>2</v>
@@ -11871,7 +11871,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="1">
-        <v>4210956722</v>
+        <v>4210296631</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>2</v>
@@ -11883,7 +11883,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="1">
-        <v>4211161420</v>
+        <v>4210406475</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>2</v>
@@ -11895,7 +11895,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="1">
-        <v>4210774231</v>
+        <v>4210506018</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>2</v>
@@ -11907,7 +11907,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="1">
-        <v>4211032450</v>
+        <v>4210592061</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>2</v>
@@ -11919,7 +11919,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="1">
-        <v>4210174856</v>
+        <v>4210660785</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>2</v>
@@ -11931,7 +11931,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="1">
-        <v>4210248902</v>
+        <v>4210872795</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>2</v>
@@ -11943,7 +11943,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="1">
-        <v>4210799190</v>
+        <v>4210956722</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>2</v>
@@ -11955,7 +11955,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="1">
-        <v>4210619540</v>
+        <v>4211161420</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>2</v>
@@ -11967,7 +11967,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="1">
-        <v>4210608974</v>
+        <v>4210774231</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>2</v>
@@ -11979,7 +11979,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="1">
-        <v>4210301184</v>
+        <v>4211032450</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>2</v>
@@ -11991,7 +11991,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="1">
-        <v>4210566069</v>
+        <v>4210174856</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>2</v>
@@ -12003,7 +12003,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="1">
-        <v>4210939937</v>
+        <v>4210248902</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>2</v>
@@ -12015,7 +12015,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="1">
-        <v>4210240876</v>
+        <v>4210799190</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>2</v>
@@ -12027,7 +12027,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="1">
-        <v>4210539165</v>
+        <v>4210619540</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>2</v>
@@ -12039,7 +12039,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="1">
-        <v>4210250290</v>
+        <v>4210608974</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>2</v>
@@ -12051,7 +12051,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="1">
-        <v>4210662861</v>
+        <v>4210301184</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>2</v>
@@ -12063,7 +12063,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="1">
-        <v>4210155525</v>
+        <v>4210566069</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>2</v>
@@ -12075,7 +12075,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="1">
-        <v>4210414276</v>
+        <v>4210939937</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>2</v>
@@ -12087,7 +12087,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="1">
-        <v>4210851640</v>
+        <v>4210240876</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>2</v>
@@ -12099,7 +12099,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="1">
-        <v>4210632010</v>
+        <v>4210539165</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>2</v>
@@ -12111,7 +12111,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="1">
-        <v>4210396336</v>
+        <v>4210250290</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>2</v>
@@ -12123,7 +12123,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="1">
-        <v>4210809995</v>
+        <v>4210662861</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>2</v>
@@ -12135,7 +12135,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="1">
-        <v>4210996507</v>
+        <v>4210155525</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>2</v>
@@ -12147,7 +12147,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="1">
-        <v>4210691687</v>
+        <v>4210414276</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>2</v>
@@ -12159,7 +12159,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="1">
-        <v>4210451754</v>
+        <v>4210851640</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>2</v>
@@ -12171,7 +12171,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="1">
-        <v>4211090225</v>
+        <v>4210632010</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>2</v>
@@ -12183,7 +12183,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="1">
-        <v>4210098148</v>
+        <v>4210396336</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>2</v>
@@ -12195,7 +12195,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="1">
-        <v>4210885374</v>
+        <v>4210809995</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>2</v>
@@ -12207,7 +12207,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="1">
-        <v>4210128706</v>
+        <v>4210996507</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>2</v>
@@ -12219,7 +12219,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="1">
-        <v>4210429692</v>
+        <v>4210691687</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>2</v>
@@ -12231,7 +12231,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="1">
-        <v>4210457601</v>
+        <v>4210451754</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>2</v>
@@ -12243,7 +12243,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="1">
-        <v>4210487716</v>
+        <v>4211090225</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>2</v>
@@ -12255,7 +12255,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="1">
-        <v>4210491196</v>
+        <v>4210098148</v>
       </c>
       <c r="C630" s="1" t="s">
         <v>2</v>
@@ -12267,7 +12267,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="1">
-        <v>4210525608</v>
+        <v>4210885374</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>2</v>
@@ -12279,7 +12279,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="1">
-        <v>4210697405</v>
+        <v>4210128706</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>2</v>
@@ -12291,7 +12291,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="1">
-        <v>4210769634</v>
+        <v>4210429692</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>2</v>
@@ -12303,7 +12303,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="1">
-        <v>4210843781</v>
+        <v>4210457601</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>2</v>
@@ -12315,7 +12315,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="1">
-        <v>4210871317</v>
+        <v>4210487716</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>2</v>
@@ -12327,7 +12327,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="1">
-        <v>4210942173</v>
+        <v>4210491196</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>2</v>
@@ -12339,7 +12339,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="1">
-        <v>4210983409</v>
+        <v>4210525608</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>2</v>
@@ -12351,7 +12351,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="1">
-        <v>4211053366</v>
+        <v>4210697405</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>2</v>
@@ -12363,7 +12363,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="1">
-        <v>4210831022</v>
+        <v>4210769634</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>2</v>
@@ -12375,7 +12375,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="1">
-        <v>4210478093</v>
+        <v>4210843781</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>2</v>
@@ -12387,7 +12387,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="1">
-        <v>4210623671</v>
+        <v>4210871317</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>2</v>
@@ -12399,7 +12399,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="1">
-        <v>4210379066</v>
+        <v>4210942173</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>2</v>
@@ -12411,7 +12411,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="1">
-        <v>4210539266</v>
+        <v>4210983409</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>2</v>
@@ -12423,7 +12423,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="1">
-        <v>4210064258</v>
+        <v>4211053366</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>2</v>
@@ -12435,7 +12435,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="1">
-        <v>4210911529</v>
+        <v>4210831022</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>2</v>
@@ -12447,7 +12447,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="1">
-        <v>4210198794</v>
+        <v>4210478093</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="1">
-        <v>4210200416</v>
+        <v>4210623671</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>2</v>
@@ -12471,7 +12471,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="1">
-        <v>4210211263</v>
+        <v>4210379066</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>2</v>
@@ -12483,7 +12483,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="1">
-        <v>4210267921</v>
+        <v>4210539266</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>2</v>
@@ -12495,7 +12495,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="1">
-        <v>4210333855</v>
+        <v>4210064258</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>2</v>
@@ -12507,7 +12507,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="1">
-        <v>4210427538</v>
+        <v>4210911529</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>2</v>
@@ -12519,7 +12519,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="1">
-        <v>4210497116</v>
+        <v>4210198794</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>2</v>
@@ -12531,7 +12531,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="1">
-        <v>4210610622</v>
+        <v>4210200416</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>2</v>
@@ -12543,7 +12543,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="1">
-        <v>4210675980</v>
+        <v>4210211263</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>2</v>
@@ -12555,7 +12555,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="1">
-        <v>4210789652</v>
+        <v>4210267921</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>2</v>
@@ -12567,7 +12567,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="1">
-        <v>4210862040</v>
+        <v>4210333855</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>2</v>
@@ -12579,7 +12579,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="1">
-        <v>4210891367</v>
+        <v>4210405646</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>2</v>
@@ -12591,7 +12591,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="1">
-        <v>4210894043</v>
+        <v>4210427538</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>2</v>
@@ -12603,7 +12603,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="1">
-        <v>4211016266</v>
+        <v>4210497116</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>2</v>
@@ -12615,7 +12615,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="1">
-        <v>4210841799</v>
+        <v>4210610622</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>2</v>
@@ -12627,7 +12627,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="1">
-        <v>4210009943</v>
+        <v>4210675980</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>2</v>
@@ -12639,7 +12639,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="1">
-        <v>4210707172</v>
+        <v>4210789652</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>2</v>
@@ -12651,7 +12651,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="1">
-        <v>4210003908</v>
+        <v>4210862040</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>2</v>
@@ -12663,7 +12663,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="1">
-        <v>4210405234</v>
+        <v>4210891367</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>2</v>
@@ -12675,7 +12675,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="1">
-        <v>4210113485</v>
+        <v>4210894043</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>2</v>
@@ -12687,7 +12687,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="1">
-        <v>4210663417</v>
+        <v>4211016266</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>2</v>
@@ -12699,7 +12699,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="1">
-        <v>4210185045</v>
+        <v>4210841799</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>2</v>
@@ -12711,7 +12711,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="1">
-        <v>4211171435</v>
+        <v>4210009943</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>2</v>
@@ -12723,7 +12723,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="1">
-        <v>4210061222</v>
+        <v>4210707172</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>2</v>
@@ -12735,7 +12735,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="1">
-        <v>4210239886</v>
+        <v>4210003908</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>2</v>
@@ -12747,7 +12747,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="1">
-        <v>4210244610</v>
+        <v>4210405234</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>2</v>
@@ -12759,7 +12759,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="1">
-        <v>4210386471</v>
+        <v>4210113485</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>2</v>
@@ -12771,7 +12771,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="1">
-        <v>4210496119</v>
+        <v>4210663417</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>2</v>
@@ -12783,7 +12783,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="1">
-        <v>4210521327</v>
+        <v>4210185045</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>2</v>
@@ -12795,7 +12795,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="1">
-        <v>4211052917</v>
+        <v>4211171435</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>2</v>
@@ -12807,7 +12807,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="1">
-        <v>4210050280</v>
+        <v>4210061222</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>2</v>
@@ -12819,7 +12819,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="1">
-        <v>4210372229</v>
+        <v>4210239886</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>2</v>
@@ -12831,7 +12831,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="1">
-        <v>4211089972</v>
+        <v>4210244610</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>2</v>
@@ -12843,7 +12843,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="1">
-        <v>4210326134</v>
+        <v>4210386471</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>2</v>
@@ -12855,7 +12855,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="1">
-        <v>4210790046</v>
+        <v>4210496119</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>2</v>
@@ -12867,7 +12867,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="1">
-        <v>4210535776</v>
+        <v>4210521327</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>2</v>
@@ -12879,7 +12879,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="1">
-        <v>4210194157</v>
+        <v>4211052917</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>2</v>
@@ -12891,7 +12891,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="1">
-        <v>4210359992</v>
+        <v>4210050280</v>
       </c>
       <c r="C683" s="1" t="s">
         <v>2</v>
@@ -12903,7 +12903,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="1">
-        <v>4210380505</v>
+        <v>4210372229</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>2</v>
@@ -12915,7 +12915,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="1">
-        <v>4210415781</v>
+        <v>4211089972</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>2</v>
@@ -12927,7 +12927,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="1">
-        <v>4210417502</v>
+        <v>4210326134</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>2</v>
@@ -12939,7 +12939,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="1">
-        <v>4210502346</v>
+        <v>4210790046</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>2</v>
@@ -12951,7 +12951,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="1">
-        <v>4210609300</v>
+        <v>4210535776</v>
       </c>
       <c r="C688" s="1" t="s">
         <v>2</v>
@@ -12963,7 +12963,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="1">
-        <v>4210737822</v>
+        <v>4210194157</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>2</v>
@@ -12975,7 +12975,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="1">
-        <v>4210806367</v>
+        <v>4210359992</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>2</v>
@@ -12987,7 +12987,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="1">
-        <v>4210920340</v>
+        <v>4210380505</v>
       </c>
       <c r="C691" s="1" t="s">
         <v>2</v>
@@ -12999,7 +12999,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="1">
-        <v>4210114589</v>
+        <v>4210415781</v>
       </c>
       <c r="C692" s="1" t="s">
         <v>2</v>
@@ -13011,7 +13011,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="1">
-        <v>4210273236</v>
+        <v>4210417502</v>
       </c>
       <c r="C693" s="1" t="s">
         <v>2</v>
@@ -13023,7 +13023,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="1">
-        <v>4210270390</v>
+        <v>4210502346</v>
       </c>
       <c r="C694" s="1" t="s">
         <v>2</v>
@@ -13035,7 +13035,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="1">
-        <v>4210161201</v>
+        <v>4210609300</v>
       </c>
       <c r="C695" s="1" t="s">
         <v>2</v>
@@ -13047,7 +13047,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="1">
-        <v>4210185589</v>
+        <v>4210737822</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>2</v>
@@ -13059,7 +13059,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="1">
-        <v>4210229959</v>
+        <v>4210806367</v>
       </c>
       <c r="C697" s="1" t="s">
         <v>2</v>
@@ -13071,7 +13071,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="1">
-        <v>4210236802</v>
+        <v>4210920340</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>2</v>
@@ -13083,7 +13083,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="1">
-        <v>4210323925</v>
+        <v>4210114589</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>2</v>
@@ -13095,7 +13095,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="1">
-        <v>4210342956</v>
+        <v>4210273236</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>2</v>
@@ -13107,7 +13107,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="1">
-        <v>4210396271</v>
+        <v>4210270390</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>2</v>
@@ -13119,7 +13119,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="1">
-        <v>4210548527</v>
+        <v>4210161201</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>2</v>
@@ -13131,7 +13131,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="1">
-        <v>4210590170</v>
+        <v>4210185589</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>2</v>
@@ -13143,7 +13143,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="1">
-        <v>4210749428</v>
+        <v>4210229959</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>2</v>
@@ -13155,7 +13155,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="1">
-        <v>4211048212</v>
+        <v>4210236802</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>2</v>
@@ -13167,7 +13167,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="1">
-        <v>4210893995</v>
+        <v>4210323925</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>2</v>
@@ -13179,7 +13179,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="1">
-        <v>4210962329</v>
+        <v>4210342956</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>2</v>
@@ -13191,7 +13191,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="1">
-        <v>4210019501</v>
+        <v>4210396271</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>2</v>
@@ -13203,7 +13203,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="1">
-        <v>4210347993</v>
+        <v>4210548527</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>2</v>
@@ -13215,7 +13215,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="1">
-        <v>4210392078</v>
+        <v>4210590170</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>2</v>
@@ -13227,7 +13227,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="1">
-        <v>4210387120</v>
+        <v>4210749428</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>2</v>
@@ -13239,7 +13239,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="1">
-        <v>4210487162</v>
+        <v>4211048212</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>2</v>
@@ -13251,7 +13251,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="1">
-        <v>4210842452</v>
+        <v>4210893995</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>2</v>
@@ -13263,7 +13263,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="1">
-        <v>4210208571</v>
+        <v>4210962329</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>2</v>
@@ -13275,7 +13275,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="1">
-        <v>4211073903</v>
+        <v>4210019501</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>2</v>
@@ -13287,7 +13287,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="1">
-        <v>4210515989</v>
+        <v>4210347993</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>2</v>
@@ -13299,7 +13299,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="1">
-        <v>4210213779</v>
+        <v>4210392078</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>2</v>
@@ -13311,7 +13311,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="1">
-        <v>4210309982</v>
+        <v>4210387120</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>2</v>
@@ -13323,7 +13323,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="1">
-        <v>4210710346</v>
+        <v>4210487162</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>2</v>
@@ -13335,7 +13335,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="1">
-        <v>4211081738</v>
+        <v>4210842452</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>2</v>
@@ -13347,7 +13347,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="1">
-        <v>4210378870</v>
+        <v>4210208571</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>2</v>
@@ -13359,7 +13359,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="1">
-        <v>4210702558</v>
+        <v>4211073903</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>2</v>
@@ -13371,7 +13371,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="1">
-        <v>4210710191</v>
+        <v>4210515989</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>2</v>
@@ -13383,7 +13383,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="1">
-        <v>4210400589</v>
+        <v>4210213779</v>
       </c>
       <c r="C724" s="1" t="s">
         <v>2</v>
@@ -13395,7 +13395,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="1">
-        <v>4210695631</v>
+        <v>4210309982</v>
       </c>
       <c r="C725" s="1" t="s">
         <v>2</v>
@@ -13407,7 +13407,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="1">
-        <v>4210810214</v>
+        <v>4210710346</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>2</v>
@@ -13419,7 +13419,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="1">
-        <v>4210933570</v>
+        <v>4211081738</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>2</v>
@@ -13431,7 +13431,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="1">
-        <v>4211044632</v>
+        <v>4210378870</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>2</v>
@@ -13443,7 +13443,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="1">
-        <v>4210420793</v>
+        <v>4210702558</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>2</v>
@@ -13455,7 +13455,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="1">
-        <v>4210126712</v>
+        <v>4210710191</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>2</v>
@@ -13467,7 +13467,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="1">
-        <v>4210250376</v>
+        <v>4210400589</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>2</v>
@@ -13479,7 +13479,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="1">
-        <v>4210407609</v>
+        <v>4210695631</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>2</v>
@@ -13491,7 +13491,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="1">
-        <v>4210427383</v>
+        <v>4210810214</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>2</v>
@@ -13503,7 +13503,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="1">
-        <v>4210879411</v>
+        <v>4210933570</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>2</v>
@@ -13515,7 +13515,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="1">
-        <v>4211020443</v>
+        <v>4211044632</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>2</v>
@@ -13527,7 +13527,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="1">
-        <v>4210500734</v>
+        <v>4210420793</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>2</v>
@@ -13539,7 +13539,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="1">
-        <v>4210599674</v>
+        <v>4210126712</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>2</v>
@@ -13551,7 +13551,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="1">
-        <v>4210707793</v>
+        <v>4210250376</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>2</v>
@@ -13563,7 +13563,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="1">
-        <v>4210593308</v>
+        <v>4210407609</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>2</v>
@@ -13575,7 +13575,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="1">
-        <v>4210615587</v>
+        <v>4210427383</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>2</v>
@@ -13587,7 +13587,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="1">
-        <v>4210326499</v>
+        <v>4210565862</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>2</v>
@@ -13599,7 +13599,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="1">
-        <v>4210421903</v>
+        <v>4210879411</v>
       </c>
       <c r="C742" s="1" t="s">
         <v>2</v>
@@ -13611,7 +13611,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="1">
-        <v>4210004989</v>
+        <v>4211020443</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>2</v>
@@ -13623,7 +13623,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="1">
-        <v>4210092501</v>
+        <v>4210500734</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>2</v>
@@ -13635,7 +13635,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="1">
-        <v>4210129193</v>
+        <v>4210599674</v>
       </c>
       <c r="C745" s="1" t="s">
         <v>2</v>
@@ -13647,7 +13647,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="1">
-        <v>4210291900</v>
+        <v>4210707793</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>2</v>
@@ -13659,7 +13659,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="1">
-        <v>4210654402</v>
+        <v>4210593308</v>
       </c>
       <c r="C747" s="1" t="s">
         <v>2</v>
@@ -13671,7 +13671,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="1">
-        <v>4211137802</v>
+        <v>4210615587</v>
       </c>
       <c r="C748" s="1" t="s">
         <v>2</v>
@@ -13683,7 +13683,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="1">
-        <v>4211174288</v>
+        <v>4210326499</v>
       </c>
       <c r="C749" s="1" t="s">
         <v>2</v>
@@ -13695,7 +13695,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="1">
-        <v>4211178394</v>
+        <v>4210421903</v>
       </c>
       <c r="C750" s="1" t="s">
         <v>2</v>
@@ -13707,7 +13707,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="1">
-        <v>4210178645</v>
+        <v>4210004989</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>2</v>
@@ -13719,7 +13719,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="1">
-        <v>4210272357</v>
+        <v>4210092501</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>2</v>
@@ -13731,7 +13731,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="1">
-        <v>4210121221</v>
+        <v>4210129193</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>2</v>
@@ -13743,7 +13743,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="1">
-        <v>4210633293</v>
+        <v>4210291900</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>2</v>
@@ -13755,7 +13755,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="1">
-        <v>4210740672</v>
+        <v>4210654402</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>2</v>
@@ -13767,7 +13767,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="1">
-        <v>4210411957</v>
+        <v>4211137802</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>2</v>
@@ -13779,7 +13779,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="1">
-        <v>4210617095</v>
+        <v>4211174288</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>2</v>
@@ -13791,7 +13791,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="1">
-        <v>4210006329</v>
+        <v>4211178394</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>2</v>
@@ -13803,7 +13803,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="1">
-        <v>4210031752</v>
+        <v>4210178645</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>2</v>
@@ -13815,7 +13815,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="1">
-        <v>4210042205</v>
+        <v>4210272357</v>
       </c>
       <c r="C760" s="1" t="s">
         <v>2</v>
@@ -13827,7 +13827,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="1">
-        <v>4210152113</v>
+        <v>4210121221</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>2</v>
@@ -13839,7 +13839,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="1">
-        <v>4210187379</v>
+        <v>4210633293</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>2</v>
@@ -13851,7 +13851,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="1">
-        <v>4210214619</v>
+        <v>4210740672</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>2</v>
@@ -13863,7 +13863,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="1">
-        <v>4210280449</v>
+        <v>4211006561</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>2</v>
@@ -13875,7 +13875,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="1">
-        <v>4210420791</v>
+        <v>4210411957</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>2</v>
@@ -13887,7 +13887,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="1">
-        <v>4210441289</v>
+        <v>4210617095</v>
       </c>
       <c r="C766" s="1" t="s">
         <v>2</v>
@@ -13899,7 +13899,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="1">
-        <v>4210477209</v>
+        <v>4210006329</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>2</v>
@@ -13911,7 +13911,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="1">
-        <v>4210510176</v>
+        <v>4210031752</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>2</v>
@@ -13923,7 +13923,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="1">
-        <v>4210623479</v>
+        <v>4210042205</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>2</v>
@@ -13935,7 +13935,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="1">
-        <v>4210629299</v>
+        <v>4210152113</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>2</v>
@@ -13947,7 +13947,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="1">
-        <v>4210866906</v>
+        <v>4210187379</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>2</v>
@@ -13959,7 +13959,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="1">
-        <v>4211068812</v>
+        <v>4210214619</v>
       </c>
       <c r="C772" s="1" t="s">
         <v>2</v>
@@ -13971,7 +13971,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="1">
-        <v>4211176011</v>
+        <v>4210280449</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>2</v>
@@ -13983,7 +13983,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="1">
-        <v>4210888119</v>
+        <v>4210420791</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>2</v>
@@ -13995,7 +13995,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="1">
-        <v>4211052476</v>
+        <v>4210441289</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>2</v>
@@ -14007,7 +14007,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="1">
-        <v>4210376988</v>
+        <v>4210477209</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>2</v>
@@ -14019,7 +14019,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="1">
-        <v>4210911353</v>
+        <v>4210510176</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>2</v>
@@ -14031,7 +14031,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="1">
-        <v>4210924322</v>
+        <v>4210623479</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>2</v>
@@ -14043,7 +14043,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="1">
-        <v>4210086965</v>
+        <v>4210629299</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>2</v>
@@ -14055,7 +14055,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="1">
-        <v>4210398274</v>
+        <v>4210866906</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>2</v>
@@ -14067,7 +14067,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="1">
-        <v>4210062240</v>
+        <v>4211068812</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>2</v>
@@ -14079,7 +14079,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="1">
-        <v>4210086103</v>
+        <v>4211176011</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>2</v>
@@ -14091,7 +14091,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="1">
-        <v>4210104103</v>
+        <v>4210888119</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>2</v>
@@ -14103,7 +14103,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="1">
-        <v>4210143635</v>
+        <v>4211052476</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>2</v>
@@ -14115,7 +14115,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="1">
-        <v>4210179047</v>
+        <v>4210376988</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>2</v>
@@ -14127,7 +14127,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="1">
-        <v>4210281783</v>
+        <v>4210911353</v>
       </c>
       <c r="C786" s="1" t="s">
         <v>2</v>
@@ -14139,7 +14139,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="1">
-        <v>4210396790</v>
+        <v>4210924322</v>
       </c>
       <c r="C787" s="1" t="s">
         <v>2</v>
@@ -14151,7 +14151,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="1">
-        <v>4210405046</v>
+        <v>4210086965</v>
       </c>
       <c r="C788" s="1" t="s">
         <v>2</v>
@@ -14163,7 +14163,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="1">
-        <v>4210405641</v>
+        <v>4210398274</v>
       </c>
       <c r="C789" s="1" t="s">
         <v>2</v>
@@ -14175,7 +14175,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="1">
-        <v>4210522831</v>
+        <v>4210062240</v>
       </c>
       <c r="C790" s="1" t="s">
         <v>2</v>
@@ -14187,7 +14187,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="1">
-        <v>4210560300</v>
+        <v>4210086103</v>
       </c>
       <c r="C791" s="1" t="s">
         <v>2</v>
@@ -14199,7 +14199,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="1">
-        <v>4210593590</v>
+        <v>4210104103</v>
       </c>
       <c r="C792" s="1" t="s">
         <v>2</v>
@@ -14211,7 +14211,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="1">
-        <v>4210751597</v>
+        <v>4210143635</v>
       </c>
       <c r="C793" s="1" t="s">
         <v>2</v>
@@ -14223,7 +14223,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="1">
-        <v>4210782079</v>
+        <v>4210179047</v>
       </c>
       <c r="C794" s="1" t="s">
         <v>2</v>
@@ -14235,7 +14235,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="1">
-        <v>4210853411</v>
+        <v>4210281783</v>
       </c>
       <c r="C795" s="1" t="s">
         <v>2</v>
@@ -14247,7 +14247,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="1">
-        <v>4211036626</v>
+        <v>4210396790</v>
       </c>
       <c r="C796" s="1" t="s">
         <v>2</v>
@@ -14259,7 +14259,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="1">
-        <v>4211154707</v>
+        <v>4210405046</v>
       </c>
       <c r="C797" s="1" t="s">
         <v>2</v>
@@ -14271,7 +14271,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="1">
-        <v>4210620984</v>
+        <v>4210405641</v>
       </c>
       <c r="C798" s="1" t="s">
         <v>2</v>
@@ -14283,7 +14283,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="1">
-        <v>4210036943</v>
+        <v>4210522831</v>
       </c>
       <c r="C799" s="1" t="s">
         <v>2</v>
@@ -14295,7 +14295,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="1">
-        <v>4210452458</v>
+        <v>4210560300</v>
       </c>
       <c r="C800" s="1" t="s">
         <v>2</v>
@@ -14307,7 +14307,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="1">
-        <v>4210003083</v>
+        <v>4210593590</v>
       </c>
       <c r="C801" s="1" t="s">
         <v>2</v>
@@ -14319,7 +14319,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="1">
-        <v>4210523490</v>
+        <v>4210751597</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>2</v>
@@ -14331,7 +14331,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="1">
-        <v>4210383539</v>
+        <v>4210782079</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>2</v>
@@ -14343,7 +14343,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="1">
-        <v>4210919520</v>
+        <v>4210853411</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>2</v>
@@ -14355,7 +14355,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="1">
-        <v>4210792288</v>
+        <v>4211036626</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>2</v>
@@ -14367,7 +14367,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="1">
-        <v>4210104513</v>
+        <v>4211154707</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>2</v>
@@ -14379,7 +14379,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="1">
-        <v>4210115884</v>
+        <v>4210620984</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>2</v>
@@ -14391,7 +14391,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="1">
-        <v>4210240115</v>
+        <v>4210036943</v>
       </c>
       <c r="C808" s="1" t="s">
         <v>2</v>
@@ -14403,7 +14403,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="1">
-        <v>4210337882</v>
+        <v>4210452458</v>
       </c>
       <c r="C809" s="1" t="s">
         <v>2</v>
@@ -14415,7 +14415,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="1">
-        <v>4210414207</v>
+        <v>4210003083</v>
       </c>
       <c r="C810" s="1" t="s">
         <v>2</v>
@@ -14427,7 +14427,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="1">
-        <v>4210478764</v>
+        <v>4210523490</v>
       </c>
       <c r="C811" s="1" t="s">
         <v>2</v>
@@ -14439,7 +14439,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="1">
-        <v>4210483345</v>
+        <v>4210383539</v>
       </c>
       <c r="C812" s="1" t="s">
         <v>2</v>
@@ -14451,7 +14451,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="1">
-        <v>4210483959</v>
+        <v>4210919520</v>
       </c>
       <c r="C813" s="1" t="s">
         <v>2</v>
@@ -14463,7 +14463,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="1">
-        <v>4210552779</v>
+        <v>4210792288</v>
       </c>
       <c r="C814" s="1" t="s">
         <v>2</v>
@@ -14475,7 +14475,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="1">
-        <v>4210615893</v>
+        <v>4210104513</v>
       </c>
       <c r="C815" s="1" t="s">
         <v>2</v>
@@ -14487,7 +14487,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="1">
-        <v>4210700049</v>
+        <v>4210115884</v>
       </c>
       <c r="C816" s="1" t="s">
         <v>2</v>
@@ -14499,7 +14499,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="1">
-        <v>4210718468</v>
+        <v>4210240115</v>
       </c>
       <c r="C817" s="1" t="s">
         <v>2</v>
@@ -14511,7 +14511,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="1">
-        <v>4210858030</v>
+        <v>4210337882</v>
       </c>
       <c r="C818" s="1" t="s">
         <v>2</v>
@@ -14523,7 +14523,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="1">
-        <v>4210974262</v>
+        <v>4210414207</v>
       </c>
       <c r="C819" s="1" t="s">
         <v>2</v>
@@ -14535,7 +14535,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="1">
-        <v>4211153726</v>
+        <v>4210478764</v>
       </c>
       <c r="C820" s="1" t="s">
         <v>2</v>
@@ -14547,7 +14547,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="1">
-        <v>4210247519</v>
+        <v>4210483345</v>
       </c>
       <c r="C821" s="1" t="s">
         <v>2</v>
@@ -14559,7 +14559,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="1">
-        <v>4210530221</v>
+        <v>4210483959</v>
       </c>
       <c r="C822" s="1" t="s">
         <v>2</v>
@@ -14571,7 +14571,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="1">
-        <v>4210652133</v>
+        <v>4210552779</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>2</v>
@@ -14583,7 +14583,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="1">
-        <v>4210059502</v>
+        <v>4210615893</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>2</v>
@@ -14595,7 +14595,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="1">
-        <v>4210076436</v>
+        <v>4210700049</v>
       </c>
       <c r="C825" s="1" t="s">
         <v>2</v>
@@ -14607,7 +14607,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="1">
-        <v>4210097470</v>
+        <v>4210718468</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>2</v>
@@ -14619,7 +14619,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="1">
-        <v>4210099442</v>
+        <v>4210858030</v>
       </c>
       <c r="C827" s="1" t="s">
         <v>2</v>
@@ -14631,7 +14631,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="1">
-        <v>4210121557</v>
+        <v>4210974262</v>
       </c>
       <c r="C828" s="1" t="s">
         <v>2</v>
@@ -14643,7 +14643,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="1">
-        <v>4210238869</v>
+        <v>4211153726</v>
       </c>
       <c r="C829" s="1" t="s">
         <v>2</v>
@@ -14655,7 +14655,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="1">
-        <v>4210312209</v>
+        <v>4210247519</v>
       </c>
       <c r="C830" s="1" t="s">
         <v>2</v>
@@ -14667,7 +14667,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="1">
-        <v>4210318638</v>
+        <v>4210530221</v>
       </c>
       <c r="C831" s="1" t="s">
         <v>2</v>
@@ -14679,7 +14679,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="1">
-        <v>4210399799</v>
+        <v>4210652133</v>
       </c>
       <c r="C832" s="1" t="s">
         <v>2</v>
@@ -14691,7 +14691,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="1">
-        <v>4210407646</v>
+        <v>4210059502</v>
       </c>
       <c r="C833" s="1" t="s">
         <v>2</v>
@@ -14703,7 +14703,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="1">
-        <v>4210418911</v>
+        <v>4210076436</v>
       </c>
       <c r="C834" s="1" t="s">
         <v>2</v>
@@ -14715,7 +14715,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="1">
-        <v>4210485733</v>
+        <v>4210097470</v>
       </c>
       <c r="C835" s="1" t="s">
         <v>2</v>
@@ -14727,7 +14727,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="1">
-        <v>4210536584</v>
+        <v>4210099442</v>
       </c>
       <c r="C836" s="1" t="s">
         <v>2</v>
@@ -14739,7 +14739,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="1">
-        <v>4210721350</v>
+        <v>4210121557</v>
       </c>
       <c r="C837" s="1" t="s">
         <v>2</v>
@@ -14751,7 +14751,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="1">
-        <v>4210853143</v>
+        <v>4210238869</v>
       </c>
       <c r="C838" s="1" t="s">
         <v>2</v>
@@ -14763,7 +14763,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="1">
-        <v>4210960649</v>
+        <v>4210312209</v>
       </c>
       <c r="C839" s="1" t="s">
         <v>2</v>
@@ -14775,7 +14775,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="1">
-        <v>4211013963</v>
+        <v>4210318638</v>
       </c>
       <c r="C840" s="1" t="s">
         <v>2</v>
@@ -14787,7 +14787,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="1">
-        <v>4211155151</v>
+        <v>4210399799</v>
       </c>
       <c r="C841" s="1" t="s">
         <v>2</v>
@@ -14799,7 +14799,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="1">
-        <v>4211190697</v>
+        <v>4210407646</v>
       </c>
       <c r="C842" s="1" t="s">
         <v>2</v>
@@ -14811,7 +14811,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="1">
-        <v>4210811627</v>
+        <v>4210418911</v>
       </c>
       <c r="C843" s="1" t="s">
         <v>2</v>
@@ -14823,7 +14823,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="1">
-        <v>4210458622</v>
+        <v>4210485733</v>
       </c>
       <c r="C844" s="1" t="s">
         <v>2</v>
@@ -14835,7 +14835,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="1">
-        <v>4210671815</v>
+        <v>4210536584</v>
       </c>
       <c r="C845" s="1" t="s">
         <v>2</v>
@@ -14847,7 +14847,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="1">
-        <v>4210337818</v>
+        <v>4210721350</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>2</v>
@@ -14859,7 +14859,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="1">
-        <v>4210949152</v>
+        <v>4210853143</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>2</v>
@@ -14871,7 +14871,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="1">
-        <v>4210442082</v>
+        <v>4210960649</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>2</v>
@@ -14883,7 +14883,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="1">
-        <v>4210634563</v>
+        <v>4211013963</v>
       </c>
       <c r="C849" s="1" t="s">
         <v>2</v>
@@ -14895,7 +14895,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="1">
-        <v>4210051155</v>
+        <v>4211021312</v>
       </c>
       <c r="C850" s="1" t="s">
         <v>2</v>
@@ -14907,7 +14907,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="1">
-        <v>4210142038</v>
+        <v>4211155151</v>
       </c>
       <c r="C851" s="1" t="s">
         <v>2</v>
@@ -14919,7 +14919,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="1">
-        <v>4210149575</v>
+        <v>4211190697</v>
       </c>
       <c r="C852" s="1" t="s">
         <v>2</v>
@@ -14931,7 +14931,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="1">
-        <v>4210168043</v>
+        <v>4210811627</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>2</v>
@@ -14943,7 +14943,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="1">
-        <v>4210195529</v>
+        <v>4210458622</v>
       </c>
       <c r="C854" s="1" t="s">
         <v>2</v>
@@ -14955,7 +14955,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="1">
-        <v>4210303219</v>
+        <v>4210671815</v>
       </c>
       <c r="C855" s="1" t="s">
         <v>2</v>
@@ -14967,7 +14967,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="1">
-        <v>4210427799</v>
+        <v>4210337818</v>
       </c>
       <c r="C856" s="1" t="s">
         <v>2</v>
@@ -14979,7 +14979,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="1">
-        <v>4210446245</v>
+        <v>4210949152</v>
       </c>
       <c r="C857" s="1" t="s">
         <v>2</v>
@@ -14991,7 +14991,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="1">
-        <v>4210461149</v>
+        <v>4210442082</v>
       </c>
       <c r="C858" s="1" t="s">
         <v>2</v>
@@ -15003,7 +15003,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="1">
-        <v>4210463784</v>
+        <v>4210634563</v>
       </c>
       <c r="C859" s="1" t="s">
         <v>2</v>
@@ -15015,7 +15015,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="1">
-        <v>4210629760</v>
+        <v>4210051155</v>
       </c>
       <c r="C860" s="1" t="s">
         <v>2</v>
@@ -15027,7 +15027,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="1">
-        <v>4210663878</v>
+        <v>4210142038</v>
       </c>
       <c r="C861" s="1" t="s">
         <v>2</v>
@@ -15039,7 +15039,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="1">
-        <v>4210709679</v>
+        <v>4210149575</v>
       </c>
       <c r="C862" s="1" t="s">
         <v>2</v>
@@ -15051,7 +15051,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="1">
-        <v>4210758376</v>
+        <v>4210168043</v>
       </c>
       <c r="C863" s="1" t="s">
         <v>2</v>
@@ -15063,7 +15063,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="1">
-        <v>4210827877</v>
+        <v>4210195529</v>
       </c>
       <c r="C864" s="1" t="s">
         <v>2</v>
@@ -15075,7 +15075,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="1">
-        <v>4210939924</v>
+        <v>4210303219</v>
       </c>
       <c r="C865" s="1" t="s">
         <v>2</v>
@@ -15087,7 +15087,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="1">
-        <v>4211146371</v>
+        <v>4210427799</v>
       </c>
       <c r="C866" s="1" t="s">
         <v>2</v>
@@ -15099,7 +15099,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="1">
-        <v>4210207233</v>
+        <v>4210446245</v>
       </c>
       <c r="C867" s="1" t="s">
         <v>2</v>
@@ -15111,7 +15111,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="1">
-        <v>4210901008</v>
+        <v>4210461149</v>
       </c>
       <c r="C868" s="1" t="s">
         <v>2</v>
@@ -15123,7 +15123,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="1">
-        <v>4210423569</v>
+        <v>4210463784</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>2</v>
@@ -15135,7 +15135,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="1">
-        <v>4210487451</v>
+        <v>4210629760</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>2</v>
@@ -15147,7 +15147,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="1">
-        <v>4210607124</v>
+        <v>4210663878</v>
       </c>
       <c r="C871" s="1" t="s">
         <v>2</v>
@@ -15159,7 +15159,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="1">
-        <v>4210669592</v>
+        <v>4210709679</v>
       </c>
       <c r="C872" s="1" t="s">
         <v>2</v>
@@ -15171,7 +15171,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="1">
-        <v>4210436566</v>
+        <v>4210758376</v>
       </c>
       <c r="C873" s="1" t="s">
         <v>2</v>
@@ -15183,7 +15183,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="1">
-        <v>4210534852</v>
+        <v>4210827877</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>2</v>
@@ -15195,7 +15195,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="1">
-        <v>4210001844</v>
+        <v>4210939924</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>2</v>
@@ -15207,7 +15207,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="1">
-        <v>4210109667</v>
+        <v>4211146371</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>2</v>
@@ -15219,7 +15219,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="1">
-        <v>4210110289</v>
+        <v>4210207233</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>2</v>
@@ -15231,7 +15231,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="1">
-        <v>4210196693</v>
+        <v>4210901008</v>
       </c>
       <c r="C878" s="1" t="s">
         <v>2</v>
@@ -15243,7 +15243,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="1">
-        <v>4210365640</v>
+        <v>4210423569</v>
       </c>
       <c r="C879" s="1" t="s">
         <v>2</v>
@@ -15255,7 +15255,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="1">
-        <v>4210407197</v>
+        <v>4210487451</v>
       </c>
       <c r="C880" s="1" t="s">
         <v>2</v>
@@ -15267,7 +15267,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="3">
-        <v>4210417607</v>
+        <v>4210607124</v>
       </c>
       <c r="C881" s="1" t="s">
         <v>2</v>
@@ -15279,7 +15279,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="3">
-        <v>4210497243</v>
+        <v>4210669592</v>
       </c>
       <c r="C882" s="1" t="s">
         <v>2</v>
@@ -15291,7 +15291,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="3">
-        <v>4210548325</v>
+        <v>4210436566</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>2</v>
@@ -15303,7 +15303,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="3">
-        <v>4210554776</v>
+        <v>4210534852</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>2</v>
@@ -15315,7 +15315,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="3">
-        <v>4210629708</v>
+        <v>4210001844</v>
       </c>
       <c r="C885" s="1" t="s">
         <v>2</v>
@@ -15327,7 +15327,7 @@
         <v>885</v>
       </c>
       <c r="B886" s="3">
-        <v>4210709565</v>
+        <v>4210109667</v>
       </c>
       <c r="C886" s="1" t="s">
         <v>2</v>
@@ -15339,7 +15339,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="3">
-        <v>4210978497</v>
+        <v>4210110289</v>
       </c>
       <c r="C887" s="1" t="s">
         <v>2</v>
@@ -15351,7 +15351,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="3">
-        <v>4211053377</v>
+        <v>4210196693</v>
       </c>
       <c r="C888" s="1" t="s">
         <v>2</v>
@@ -15363,7 +15363,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="3">
-        <v>4211168559</v>
+        <v>4210365640</v>
       </c>
       <c r="C889" s="1" t="s">
         <v>2</v>
@@ -15375,7 +15375,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="3">
-        <v>4211173096</v>
+        <v>4210407197</v>
       </c>
       <c r="C890" s="1" t="s">
         <v>2</v>
@@ -15387,7 +15387,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="3">
-        <v>4210970594</v>
+        <v>4210417607</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>2</v>
@@ -15399,7 +15399,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="3">
-        <v>4210388883</v>
+        <v>4210497243</v>
       </c>
       <c r="C892" s="1" t="s">
         <v>2</v>
@@ -15411,7 +15411,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="3">
-        <v>4210622646</v>
+        <v>4210548325</v>
       </c>
       <c r="C893" s="1" t="s">
         <v>2</v>
@@ -15423,7 +15423,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="3">
-        <v>4210049002</v>
+        <v>4210554776</v>
       </c>
       <c r="C894" s="1" t="s">
         <v>2</v>
@@ -15435,7 +15435,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="3">
-        <v>4210905356</v>
+        <v>4210629708</v>
       </c>
       <c r="C895" s="1" t="s">
         <v>2</v>
@@ -15447,7 +15447,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="3">
-        <v>4210750427</v>
+        <v>4210709565</v>
       </c>
       <c r="C896" s="1" t="s">
         <v>2</v>
@@ -15459,7 +15459,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="3">
-        <v>4210690219</v>
+        <v>4210978497</v>
       </c>
       <c r="C897" s="1" t="s">
         <v>2</v>
@@ -15471,7 +15471,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="3">
-        <v>4210544812</v>
+        <v>4211053377</v>
       </c>
       <c r="C898" s="1" t="s">
         <v>2</v>
@@ -15483,7 +15483,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="3">
-        <v>4210488775</v>
+        <v>4211168559</v>
       </c>
       <c r="C899" s="1" t="s">
         <v>2</v>
@@ -15495,7 +15495,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="3">
-        <v>4210374075</v>
+        <v>4211173096</v>
       </c>
       <c r="C900" s="1" t="s">
         <v>2</v>
@@ -15507,7 +15507,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="3">
-        <v>4211172188</v>
+        <v>4210970594</v>
       </c>
       <c r="C901" s="1" t="s">
         <v>2</v>
@@ -15519,7 +15519,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="3">
-        <v>4210918088</v>
+        <v>4210388883</v>
       </c>
       <c r="C902" s="1" t="s">
         <v>2</v>
@@ -15531,7 +15531,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="3">
-        <v>4210245439</v>
+        <v>4210622646</v>
       </c>
       <c r="C903" s="1" t="s">
         <v>2</v>
@@ -15543,7 +15543,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="3">
-        <v>4210276653</v>
+        <v>4210049002</v>
       </c>
       <c r="C904" s="1" t="s">
         <v>2</v>
@@ -15555,7 +15555,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="3">
-        <v>4210429536</v>
+        <v>4210905356</v>
       </c>
       <c r="C905" s="1" t="s">
         <v>2</v>
@@ -15567,7 +15567,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="3">
-        <v>4210443303</v>
+        <v>4210750427</v>
       </c>
       <c r="C906" s="1" t="s">
         <v>2</v>
@@ -15579,7 +15579,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="3">
-        <v>4210519195</v>
+        <v>4210690219</v>
       </c>
       <c r="C907" s="1" t="s">
         <v>2</v>
@@ -15591,7 +15591,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="3">
-        <v>4210612803</v>
+        <v>4210544812</v>
       </c>
       <c r="C908" s="1" t="s">
         <v>2</v>
@@ -15603,7 +15603,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="3">
-        <v>4210669758</v>
+        <v>4210488775</v>
       </c>
       <c r="C909" s="1" t="s">
         <v>2</v>
@@ -15615,7 +15615,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="3">
-        <v>4210671668</v>
+        <v>4210374075</v>
       </c>
       <c r="C910" s="1" t="s">
         <v>2</v>
@@ -15627,7 +15627,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="3">
-        <v>4210727818</v>
+        <v>4211172188</v>
       </c>
       <c r="C911" s="1" t="s">
         <v>2</v>
@@ -15639,7 +15639,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="3">
-        <v>4210741138</v>
+        <v>4210918088</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>2</v>
@@ -15651,7 +15651,7 @@
         <v>912</v>
       </c>
       <c r="B913" s="3">
-        <v>4210883236</v>
+        <v>4210245439</v>
       </c>
       <c r="C913" s="1" t="s">
         <v>2</v>
@@ -15662,6 +15662,9 @@
         <f t="shared" si="14"/>
         <v>913</v>
       </c>
+      <c r="B914" s="3">
+        <v>4210276653</v>
+      </c>
       <c r="C914" s="1" t="s">
         <v>2</v>
       </c>
@@ -15671,6 +15674,9 @@
         <f t="shared" si="14"/>
         <v>914</v>
       </c>
+      <c r="B915" s="3">
+        <v>4210429536</v>
+      </c>
       <c r="C915" s="1" t="s">
         <v>2</v>
       </c>
@@ -15680,6 +15686,9 @@
         <f t="shared" si="14"/>
         <v>915</v>
       </c>
+      <c r="B916" s="3">
+        <v>4210443303</v>
+      </c>
       <c r="C916" s="1" t="s">
         <v>2</v>
       </c>
@@ -15689,6 +15698,9 @@
         <f t="shared" si="14"/>
         <v>916</v>
       </c>
+      <c r="B917" s="3">
+        <v>4210519195</v>
+      </c>
       <c r="C917" s="1" t="s">
         <v>2</v>
       </c>
@@ -15698,6 +15710,9 @@
         <f t="shared" si="14"/>
         <v>917</v>
       </c>
+      <c r="B918" s="3">
+        <v>4210612803</v>
+      </c>
       <c r="C918" s="1" t="s">
         <v>2</v>
       </c>
@@ -15707,6 +15722,9 @@
         <f t="shared" si="14"/>
         <v>918</v>
       </c>
+      <c r="B919" s="3">
+        <v>4210669758</v>
+      </c>
       <c r="C919" s="1" t="s">
         <v>2</v>
       </c>
@@ -15716,6 +15734,9 @@
         <f t="shared" si="14"/>
         <v>919</v>
       </c>
+      <c r="B920" s="3">
+        <v>4210671668</v>
+      </c>
       <c r="C920" s="1" t="s">
         <v>2</v>
       </c>
@@ -15725,6 +15746,9 @@
         <f t="shared" si="14"/>
         <v>920</v>
       </c>
+      <c r="B921" s="3">
+        <v>4210727818</v>
+      </c>
       <c r="C921" s="1" t="s">
         <v>2</v>
       </c>
@@ -15734,6 +15758,9 @@
         <f t="shared" si="14"/>
         <v>921</v>
       </c>
+      <c r="B922" s="3">
+        <v>4210741138</v>
+      </c>
       <c r="C922" s="1" t="s">
         <v>2</v>
       </c>
@@ -15742,6 +15769,9 @@
       <c r="A923" s="1">
         <f t="shared" si="14"/>
         <v>922</v>
+      </c>
+      <c r="B923" s="3">
+        <v>4210883236</v>
       </c>
       <c r="C923" s="1" t="s">
         <v>2</v>
@@ -42792,9 +42822,9 @@
       <c r="A879">
         <v>4211166664</v>
       </c>
-      <c r="B879" t="e">
+      <c r="B879">
         <f>VLOOKUP(A879,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211166664</v>
       </c>
       <c r="C879" t="s">
         <v>254</v>
@@ -42984,9 +43014,9 @@
       <c r="A887">
         <v>4210381252</v>
       </c>
-      <c r="B887" t="e">
+      <c r="B887">
         <f>VLOOKUP(A887,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210381252</v>
       </c>
       <c r="C887" t="s">
         <v>306</v>
@@ -43008,9 +43038,9 @@
       <c r="A888">
         <v>4210405646</v>
       </c>
-      <c r="B888" t="e">
+      <c r="B888">
         <f>VLOOKUP(A888,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210405646</v>
       </c>
       <c r="C888" t="s">
         <v>355</v>
@@ -43200,9 +43230,9 @@
       <c r="A896">
         <v>4210097114</v>
       </c>
-      <c r="B896" t="e">
+      <c r="B896">
         <f>VLOOKUP(A896,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210097114</v>
       </c>
       <c r="C896" t="s">
         <v>488</v>
@@ -43416,9 +43446,9 @@
       <c r="A905">
         <v>4211037851</v>
       </c>
-      <c r="B905" t="e">
+      <c r="B905">
         <f>VLOOKUP(A905,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211037851</v>
       </c>
       <c r="C905" t="s">
         <v>470</v>
@@ -43440,9 +43470,9 @@
       <c r="A906">
         <v>4211021312</v>
       </c>
-      <c r="B906" t="e">
+      <c r="B906">
         <f>VLOOKUP(A906,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211021312</v>
       </c>
       <c r="C906" t="s">
         <v>537</v>
@@ -43464,9 +43494,9 @@
       <c r="A907">
         <v>4211006561</v>
       </c>
-      <c r="B907" t="e">
+      <c r="B907">
         <f>VLOOKUP(A907,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4211006561</v>
       </c>
       <c r="C907" t="s">
         <v>584</v>
@@ -43560,9 +43590,9 @@
       <c r="A911">
         <v>4210514654</v>
       </c>
-      <c r="B911" t="e">
+      <c r="B911">
         <f>VLOOKUP(A911,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210514654</v>
       </c>
       <c r="C911" t="s">
         <v>447</v>
@@ -44208,9 +44238,9 @@
       <c r="A938">
         <v>4210263006</v>
       </c>
-      <c r="B938" t="e">
+      <c r="B938">
         <f>VLOOKUP(A938,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210263006</v>
       </c>
       <c r="C938" t="s">
         <v>495</v>
@@ -44592,9 +44622,9 @@
       <c r="A954">
         <v>4210565862</v>
       </c>
-      <c r="B954" t="e">
+      <c r="B954">
         <f>VLOOKUP(A954,registrasi!$B$2:$B$955,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>4210565862</v>
       </c>
       <c r="C954" t="s">
         <v>588</v>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00029501-486B-44D2-8671-5D4E28D00BE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37098381-5400-4A2A-BD7D-90E3BEC4D325}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16083,13 +16083,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171734F-300B-437F-BAE5-46845BE7C47A}">
   <dimension ref="A1:B955"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -16102,7 +16103,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>4210090554</v>
+        <v>4210381581</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -16110,7 +16111,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>4210252068</v>
+        <v>4210090554</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -16118,7 +16119,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>4210404572</v>
+        <v>4210252068</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -16126,7 +16127,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>4210034267</v>
+        <v>4210404572</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -16134,7 +16135,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>4210394400</v>
+        <v>4210791799</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -16142,7 +16143,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>4210511277</v>
+        <v>4210034267</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -16150,7 +16151,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>4210831159</v>
+        <v>4210394400</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -16158,7 +16159,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>4210391139</v>
+        <v>4210415206</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -16166,7 +16167,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>4210945949</v>
+        <v>4210511277</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -16174,7 +16175,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>4210394741</v>
+        <v>4210831159</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -16182,7 +16183,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>4210222026</v>
+        <v>4210391139</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -16190,7 +16191,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>4210062548</v>
+        <v>4210843009</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -16198,7 +16199,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>4210086465</v>
+        <v>4210945949</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -16206,7 +16207,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>4210415044</v>
+        <v>4210394741</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -16214,7 +16215,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>4210836933</v>
+        <v>4210447996</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -16222,7 +16223,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>4211131368</v>
+        <v>4210222026</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -16230,7 +16231,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>4210951981</v>
+        <v>4210921361</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -16238,7 +16239,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>4211183842</v>
+        <v>4210062548</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -16246,7 +16247,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>4210457607</v>
+        <v>4210086465</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -16254,7 +16255,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>4210117447</v>
+        <v>4210415044</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -16262,7 +16263,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>4210151088</v>
+        <v>4210836933</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -16270,7 +16271,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>4210764690</v>
+        <v>4211131368</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -16278,7 +16279,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>4211047440</v>
+        <v>4210973302</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -16286,7 +16287,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>4210230359</v>
+        <v>4210951981</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -16294,7 +16295,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>4210476751</v>
+        <v>4211183842</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -16302,7 +16303,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>4210671598</v>
+        <v>4210457607</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -16310,7 +16311,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>4210261027</v>
+        <v>4210769887</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -16318,7 +16319,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>4210421627</v>
+        <v>4210997472</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -16326,7 +16327,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>4210646368</v>
+        <v>4210117447</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -16334,7 +16335,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>4210592061</v>
+        <v>4210151088</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -16342,7 +16343,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>4210457601</v>
+        <v>4210357001</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -16350,7 +16351,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>4210697405</v>
+        <v>4210762861</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -16358,7 +16359,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>4210359992</v>
+        <v>4210764690</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -16366,7 +16367,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>4210417502</v>
+        <v>4211047440</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -16374,7 +16375,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>4210323925</v>
+        <v>4210230359</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -16382,7 +16383,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>4210590170</v>
+        <v>4210476751</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -16390,7 +16391,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>4210407609</v>
+        <v>4210671598</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -16398,7 +16399,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>4210214619</v>
+        <v>4210261027</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -16406,7 +16407,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>4210280449</v>
+        <v>4210421627</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -16414,7 +16415,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>4210866906</v>
+        <v>4210213661</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -16422,7 +16423,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>4210062240</v>
+        <v>4210646368</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -16430,7 +16431,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>4210143635</v>
+        <v>4210539791</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -16438,7 +16439,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>4210281783</v>
+        <v>4210592061</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -16446,7 +16447,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>4210337882</v>
+        <v>4210429692</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -16454,7 +16455,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>4210121557</v>
+        <v>4210457601</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -16462,7 +16463,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>4210418911</v>
+        <v>4210697405</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -16470,7 +16471,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>4210960649</v>
+        <v>4210983409</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -16478,7 +16479,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>4211013963</v>
+        <v>4210497116</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -16486,7 +16487,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>4210427799</v>
+        <v>4210862040</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -16494,146 +16495,192 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
+        <v>4211016266</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>4210359992</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>4210417502</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>4210323925</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>4210590170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>4210407609</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>4210214619</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>4210280449</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>4210866906</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>4210062240</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>4210143635</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>4210281783</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>4210240115</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>4210337882</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>4210483959</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>4210121557</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>4210418911</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>4210853143</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>4210960649</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>4211013963</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>4210427799</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
         <v>4210629760</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
       <c r="B72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
+      <c r="A73" s="4">
+        <v>4210110289</v>
+      </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
+      <c r="A74" s="4">
+        <v>4210276653</v>
+      </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37098381-5400-4A2A-BD7D-90E3BEC4D325}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B298D83-B6EB-457E-A67E-5383A8AB35EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registrasi" sheetId="1" r:id="rId1"/>
@@ -4692,7 +4692,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -16083,8 +16083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171734F-300B-437F-BAE5-46845BE7C47A}">
   <dimension ref="A1:B955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16183,7 +16183,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>4210391139</v>
+        <v>4210003837</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -16191,7 +16191,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>4210843009</v>
+        <v>4210342798</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -16199,7 +16199,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>4210945949</v>
+        <v>4210391139</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -16207,7 +16207,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>4210394741</v>
+        <v>4210843009</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -16215,7 +16215,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>4210447996</v>
+        <v>4210945949</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -16223,7 +16223,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>4210222026</v>
+        <v>4210394741</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -16231,7 +16231,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>4210921361</v>
+        <v>4210447996</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>4210062548</v>
+        <v>4210222026</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -16247,7 +16247,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>4210086465</v>
+        <v>4210921361</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -16255,7 +16255,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>4210415044</v>
+        <v>4210062548</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>4210836933</v>
+        <v>4210086465</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -16271,7 +16271,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>4211131368</v>
+        <v>4210133586</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -16279,7 +16279,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>4210973302</v>
+        <v>4210415044</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -16287,7 +16287,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>4210951981</v>
+        <v>4210836933</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -16295,7 +16295,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>4211183842</v>
+        <v>4210920767</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -16303,7 +16303,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>4210457607</v>
+        <v>4211131368</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -16311,7 +16311,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>4210769887</v>
+        <v>4210973302</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -16319,7 +16319,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>4210997472</v>
+        <v>4210951981</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>4210117447</v>
+        <v>4211183842</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -16335,7 +16335,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>4210151088</v>
+        <v>4211190937</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -16343,7 +16343,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>4210357001</v>
+        <v>4210457607</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>4210762861</v>
+        <v>4210769887</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -16359,7 +16359,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>4210764690</v>
+        <v>4210997472</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>4211047440</v>
+        <v>4211157478</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -16375,7 +16375,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>4210230359</v>
+        <v>4210117447</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -16383,7 +16383,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>4210476751</v>
+        <v>4210151088</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -16391,7 +16391,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>4210671598</v>
+        <v>4210167563</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>4210261027</v>
+        <v>4210357001</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>4210421627</v>
+        <v>4210762861</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>4210213661</v>
+        <v>4210764690</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>4210646368</v>
+        <v>4211047440</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -16431,7 +16431,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>4210539791</v>
+        <v>4210230359</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -16439,7 +16439,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>4210592061</v>
+        <v>4210476751</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -16447,7 +16447,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>4210429692</v>
+        <v>4210671598</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -16455,7 +16455,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>4210457601</v>
+        <v>4210370018</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -16463,7 +16463,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>4210697405</v>
+        <v>4210261027</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -16471,7 +16471,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>4210983409</v>
+        <v>4210421627</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -16479,7 +16479,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>4210497116</v>
+        <v>4210213661</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -16487,7 +16487,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>4210862040</v>
+        <v>4210646368</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -16495,7 +16495,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>4211016266</v>
+        <v>4210539791</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>4210359992</v>
+        <v>4210406475</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -16511,7 +16511,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>4210417502</v>
+        <v>4210592061</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>4210323925</v>
+        <v>4210429692</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -16527,7 +16527,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>4210590170</v>
+        <v>4210457601</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -16535,7 +16535,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>4210407609</v>
+        <v>4210491196</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -16543,7 +16543,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>4210214619</v>
+        <v>4210697405</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -16551,7 +16551,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>4210280449</v>
+        <v>4210983409</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -16559,7 +16559,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>4210866906</v>
+        <v>4210497116</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -16567,7 +16567,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>4210062240</v>
+        <v>4210862040</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -16575,7 +16575,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>4210143635</v>
+        <v>4211016266</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -16583,7 +16583,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>4210281783</v>
+        <v>4210521327</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>4210240115</v>
+        <v>4210359992</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -16599,7 +16599,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>4210337882</v>
+        <v>4210417502</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -16607,7 +16607,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>4210483959</v>
+        <v>4210323925</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -16615,7 +16615,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>4210121557</v>
+        <v>4210590170</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -16623,7 +16623,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>4210418911</v>
+        <v>4210213779</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -16631,7 +16631,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>4210853143</v>
+        <v>4210407609</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -16639,7 +16639,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>4210960649</v>
+        <v>4210214619</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -16647,7 +16647,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>4211013963</v>
+        <v>4210280449</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -16655,7 +16655,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>4210427799</v>
+        <v>4210866906</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -16663,7 +16663,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>4210629760</v>
+        <v>4210062240</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>4210110289</v>
+        <v>4210143635</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -16679,110 +16679,144 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
+        <v>4210281783</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>4210593590</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>4210240115</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>4210337882</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>4210483959</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>4210552779</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>4210121557</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>4210407646</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>4210418911</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>4210853143</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>4210960649</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>4211013963</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>4210303219</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>4210427799</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>4210629760</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>4210110289</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>4210245439</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
         <v>4210276653</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
       <c r="B91" t="s">
         <v>5</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B298D83-B6EB-457E-A67E-5383A8AB35EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AA3920-1F99-4C4A-8E9A-31160B062982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registrasi" sheetId="1" r:id="rId1"/>
@@ -4692,8 +4692,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16083,8 +16083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171734F-300B-437F-BAE5-46845BE7C47A}">
   <dimension ref="A1:B955"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16103,7 +16103,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>4210381581</v>
+        <v>4210117534</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -16111,7 +16111,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>4210090554</v>
+        <v>4210229139</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -16119,7 +16119,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>4210252068</v>
+        <v>4210892402</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -16127,7 +16127,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>4210404572</v>
+        <v>4210770397</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -16135,7 +16135,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>4210791799</v>
+        <v>4211019772</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -16143,7 +16143,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>4210034267</v>
+        <v>4210588368</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -16151,7 +16151,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>4210394400</v>
+        <v>4210513369</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -16159,7 +16159,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>4210415206</v>
+        <v>4210102740</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -16167,7 +16167,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>4210511277</v>
+        <v>4210573844</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -16175,7 +16175,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>4210831159</v>
+        <v>4210717435</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -16183,7 +16183,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>4210003837</v>
+        <v>4210874021</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -16191,7 +16191,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>4210342798</v>
+        <v>4210239344</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -16199,7 +16199,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>4210391139</v>
+        <v>4210381581</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -16207,7 +16207,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>4210843009</v>
+        <v>4210216114</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -16215,7 +16215,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>4210945949</v>
+        <v>4210961490</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -16223,7 +16223,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>4210394741</v>
+        <v>4210375886</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -16231,7 +16231,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>4210447996</v>
+        <v>4210344078</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>4210222026</v>
+        <v>4210574089</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -16247,7 +16247,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>4210921361</v>
+        <v>4210371025</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -16255,7 +16255,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>4210062548</v>
+        <v>4210615341</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>4210086465</v>
+        <v>4211020605</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -16271,7 +16271,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>4210133586</v>
+        <v>4210733151</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -16279,7 +16279,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>4210415044</v>
+        <v>4210266290</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -16287,7 +16287,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>4210836933</v>
+        <v>4210732255</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -16295,7 +16295,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>4210920767</v>
+        <v>4210652895</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -16303,7 +16303,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>4211131368</v>
+        <v>4210262295</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -16311,7 +16311,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>4210973302</v>
+        <v>4210000179</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -16319,7 +16319,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>4210951981</v>
+        <v>4210420939</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>4211183842</v>
+        <v>4210267931</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -16335,7 +16335,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>4211190937</v>
+        <v>4210701872</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -16343,7 +16343,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>4210457607</v>
+        <v>4210254607</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>4210769887</v>
+        <v>4210556661</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -16359,7 +16359,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>4210997472</v>
+        <v>4210034578</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>4211157478</v>
+        <v>4210090554</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -16375,7 +16375,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>4210117447</v>
+        <v>4210252068</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -16383,7 +16383,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>4210151088</v>
+        <v>4210404572</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -16391,7 +16391,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>4210167563</v>
+        <v>4210791799</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>4210357001</v>
+        <v>4210876639</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>4210762861</v>
+        <v>4210593515</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>4210764690</v>
+        <v>4210613161</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>4211047440</v>
+        <v>4210967138</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -16431,7 +16431,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>4210230359</v>
+        <v>4210771684</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -16439,7 +16439,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>4210476751</v>
+        <v>4210708235</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -16447,7 +16447,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>4210671598</v>
+        <v>4210932363</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -16455,7 +16455,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>4210370018</v>
+        <v>4210766426</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -16463,7 +16463,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>4210261027</v>
+        <v>4210371603</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -16471,7 +16471,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>4210421627</v>
+        <v>4210608174</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -16479,7 +16479,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>4210213661</v>
+        <v>4210406120</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -16487,7 +16487,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>4210646368</v>
+        <v>4210091709</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -16495,7 +16495,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>4210539791</v>
+        <v>4210034267</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>4210406475</v>
+        <v>4210307216</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -16511,7 +16511,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>4210592061</v>
+        <v>4210394400</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>4210429692</v>
+        <v>4210394946</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -16527,7 +16527,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>4210457601</v>
+        <v>4210415206</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -16535,7 +16535,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>4210491196</v>
+        <v>4210511277</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -16543,7 +16543,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>4210697405</v>
+        <v>4210831159</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -16551,7 +16551,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>4210983409</v>
+        <v>4210188182</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -16559,7 +16559,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>4210497116</v>
+        <v>4210673584</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -16567,7 +16567,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>4210862040</v>
+        <v>4210706642</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -16575,7 +16575,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>4211016266</v>
+        <v>4210731416</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -16583,7 +16583,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>4210521327</v>
+        <v>4211013807</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>4210359992</v>
+        <v>4210278444</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -16599,7 +16599,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>4210417502</v>
+        <v>4211018005</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -16607,7 +16607,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>4210323925</v>
+        <v>4210532588</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -16615,7 +16615,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>4210590170</v>
+        <v>4210929697</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -16623,7 +16623,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>4210213779</v>
+        <v>4210003837</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -16631,7 +16631,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>4210407609</v>
+        <v>4210342798</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -16639,7 +16639,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>4210214619</v>
+        <v>4210391139</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -16647,7 +16647,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>4210280449</v>
+        <v>4210393571</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -16655,7 +16655,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>4210866906</v>
+        <v>4210635825</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -16663,7 +16663,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>4210062240</v>
+        <v>4210843009</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>4210143635</v>
+        <v>4210945949</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -16679,7 +16679,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>4210281783</v>
+        <v>4210204827</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -16687,7 +16687,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>4210593590</v>
+        <v>4210563716</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -16695,7 +16695,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>4210240115</v>
+        <v>4210224238</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -16703,7 +16703,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>4210337882</v>
+        <v>4210398396</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -16711,7 +16711,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>4210483959</v>
+        <v>4210912284</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -16719,7 +16719,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>4210552779</v>
+        <v>4210566641</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -16727,7 +16727,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>4210121557</v>
+        <v>4210213587</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -16735,7 +16735,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>4210407646</v>
+        <v>4210003545</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -16743,7 +16743,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>4210418911</v>
+        <v>4210600446</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -16751,7 +16751,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>4210853143</v>
+        <v>4211151623</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>4210960649</v>
+        <v>4210214048</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -16767,7 +16767,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>4211013963</v>
+        <v>4210853920</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -16775,7 +16775,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>4210303219</v>
+        <v>4210610562</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -16783,7 +16783,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>4210427799</v>
+        <v>4210317095</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -16791,7 +16791,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>4210629760</v>
+        <v>4210394741</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -16799,7 +16799,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>4210110289</v>
+        <v>4210447996</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>4210245439</v>
+        <v>4210501502</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -16815,2144 +16815,2856 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
+        <v>4211105440</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>4211016693</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>4211074617</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>4210754698</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>4210926050</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>4210370471</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>4210806413</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>4210522771</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>4210542091</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>4210222026</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>4210921361</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>4210482370</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>4210167551</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>4210673655</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>4210887790</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>4210221322</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>4210753622</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>4210482629</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>4210843672</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>4210523147</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>4211060527</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>4210424698</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>4210406049</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>4210639267</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>4211057865</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>4210345052</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>4210712809</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>4210121891</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>4210893730</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>4211056408</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>4210535673</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>4210500818</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>4210062548</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>4210086465</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>4210133586</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>4210415044</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>4210645803</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>4210836933</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>4210878489</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>4210920767</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>4210665237</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>4210057744</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>4211131368</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>4210208750</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>4210586900</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>4210433177</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>4210911313</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <v>4210745675</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>4211122411</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <v>4210855921</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
+        <v>4210009062</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>4210648248</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>4210356297</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="4">
+        <v>4210152801</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>4210086596</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>4211058112</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>4210411973</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
+        <v>4211010219</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
+        <v>4210273020</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
+        <v>4210264695</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
+        <v>4210930375</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>4210242756</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>4210921232</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <v>4210973302</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>4211014355</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
+        <v>4210122458</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
+        <v>4210621591</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
+        <v>4210474468</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>4210392055</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
+        <v>4210144557</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
+        <v>4210806396</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
+        <v>4210059000</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
+        <v>4211050835</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>4210941334</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>4210073431</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>4210951981</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
+        <v>4211183842</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="4">
+        <v>4211190937</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="4">
+        <v>4210264951</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="4">
+        <v>4210229661</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
+        <v>4210815491</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="4">
+        <v>4210842072</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="4">
+        <v>4210497292</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="4">
+        <v>4210984821</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="4">
+        <v>4210185227</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="4">
+        <v>4210151586</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="4">
+        <v>4210791646</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="4">
+        <v>4211014966</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="4">
+        <v>4211039341</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="4">
+        <v>4210267013</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="4">
+        <v>4210385160</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="4">
+        <v>4210457607</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="4">
+        <v>4210142349</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="4">
+        <v>4210383149</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="4">
+        <v>4210769887</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="4">
+        <v>4210997472</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="4">
+        <v>4211157478</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="4">
+        <v>4210117447</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="4">
+        <v>4210151088</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="4">
+        <v>4210176463</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="4">
+        <v>4211024353</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="4">
+        <v>4210047154</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="4">
+        <v>4210182855</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="4">
+        <v>4210994649</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="4">
+        <v>4210450687</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="4">
+        <v>4210922651</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="4">
+        <v>4210167563</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="4">
+        <v>4210357001</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="4">
+        <v>4210452807</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="4">
+        <v>4210762861</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="4">
+        <v>4210147981</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="4">
+        <v>4210257649</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="4">
+        <v>4210402143</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="4">
+        <v>4210523156</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="4">
+        <v>4210823515</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="4">
+        <v>4210115162</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="4">
+        <v>4210612098</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="4">
+        <v>4210368642</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="4">
+        <v>4210764690</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="4">
+        <v>4211047440</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="4">
+        <v>4210691393</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="4">
+        <v>4210986456</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="4">
+        <v>4210701833</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="4">
+        <v>4210388739</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="4">
+        <v>4211121228</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="4">
+        <v>4210891162</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="4">
+        <v>4210685145</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="4">
+        <v>4210230359</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="4">
+        <v>4210476751</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="4">
+        <v>4210671598</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="4">
+        <v>4210673461</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="4">
+        <v>4210697216</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="4">
+        <v>4210851034</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="4">
+        <v>4211039879</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="4">
+        <v>4210440787</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="4">
+        <v>4210985823</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="4">
+        <v>4210396117</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="4">
+        <v>4210209432</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="4">
+        <v>4210466625</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="4">
+        <v>4210370018</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="4">
+        <v>4210377269</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="4">
+        <v>4211003079</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="4">
+        <v>4210652631</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="4">
+        <v>4210752028</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="4">
+        <v>4210282624</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="4">
+        <v>4210530875</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="4">
+        <v>4210182500</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="4">
+        <v>4210780191</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="4">
+        <v>4210748422</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="4">
+        <v>4210537453</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="4">
+        <v>4210213411</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="4">
+        <v>4210261027</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="4">
+        <v>4210421627</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="4">
+        <v>4211121745</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="4">
+        <v>4210256197</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="4">
+        <v>4210837418</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="4">
+        <v>4210283620</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="4">
+        <v>4210928075</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="4">
+        <v>4210163688</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="4">
+        <v>4210489208</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="4">
+        <v>4210716858</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="4">
+        <v>4210065219</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="4">
+        <v>4210941041</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="4">
+        <v>4210534515</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="4">
+        <v>4210204988</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="4">
+        <v>4210097114</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="4">
+        <v>4210377665</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="4">
+        <v>4210500697</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="4">
+        <v>4210646048</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="4">
+        <v>4210213661</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="4">
+        <v>4210646368</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="4">
+        <v>4210850923</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="4">
+        <v>4210936777</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="4">
+        <v>4210596404</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="4">
+        <v>4211119160</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="4">
+        <v>4211029307</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="4">
+        <v>4210533998</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="4">
+        <v>4210368640</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="4">
+        <v>4210952808</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="4">
+        <v>4210162326</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="4">
+        <v>4210539791</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="4">
+        <v>4210415570</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="4">
+        <v>4210033714</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="4">
+        <v>4210281106</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="4">
+        <v>4210698032</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="4">
+        <v>4211121133</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="4">
+        <v>4210406475</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="4">
+        <v>4210592061</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="4">
+        <v>4210774231</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="4">
+        <v>4211032450</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="4">
+        <v>4210174856</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="4">
+        <v>4210248902</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="4">
+        <v>4210799190</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="4">
+        <v>4210619540</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="4">
+        <v>4210608974</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="4">
+        <v>4210301184</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="4">
+        <v>4210566069</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="4">
+        <v>4210939937</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="4">
+        <v>4210539165</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="4">
+        <v>4210250290</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="4">
+        <v>4210662861</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="4">
+        <v>4210851640</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="4">
+        <v>4210632010</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="4">
+        <v>4210396336</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="4">
+        <v>4210996507</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="4">
+        <v>4210691687</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="4">
+        <v>4210451754</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="4">
+        <v>4211090225</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="4">
+        <v>4210098148</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="4">
+        <v>4210885374</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="4">
+        <v>4210429692</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="4">
+        <v>4210457601</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="4">
+        <v>4210491196</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="4">
+        <v>4210525608</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="4">
+        <v>4210697405</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="4">
+        <v>4210769634</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="4">
+        <v>4210983409</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="4">
+        <v>4210831022</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="4">
+        <v>4210478093</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="4">
+        <v>4210623671</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="4">
+        <v>4210379066</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="4">
+        <v>4210539266</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="4">
+        <v>4210064258</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="4">
+        <v>4210911529</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="4">
+        <v>4210497116</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="4">
+        <v>4210862040</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="4">
+        <v>4211016266</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="4">
+        <v>4210841799</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="4">
+        <v>4210009943</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="4">
+        <v>4210707172</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="4">
+        <v>4210003908</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="4">
+        <v>4210405234</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="4">
+        <v>4210113485</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="4">
+        <v>4210663417</v>
+      </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="4">
+        <v>4210185045</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="4">
+        <v>4210521327</v>
+      </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="4">
+        <v>4210050280</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="4">
+        <v>4210372229</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="4">
+        <v>4210326134</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="4">
+        <v>4210790046</v>
+      </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="4">
+        <v>4210535776</v>
+      </c>
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="4">
+        <v>4210194157</v>
+      </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="4">
+        <v>4210359992</v>
+      </c>
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="4">
+        <v>4210380505</v>
+      </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="4">
+        <v>4210417502</v>
+      </c>
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="4">
+        <v>4210920340</v>
+      </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="4">
+        <v>4210114589</v>
+      </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="4">
+        <v>4210273236</v>
+      </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="4">
+        <v>4210270390</v>
+      </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="4">
+        <v>4210323925</v>
+      </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="4">
+        <v>4210590170</v>
+      </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="4">
+        <v>4210893995</v>
+      </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="4">
+        <v>4210962329</v>
+      </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="4">
+        <v>4210019501</v>
+      </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="4">
+        <v>4210347993</v>
+      </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="4">
+        <v>4210392078</v>
+      </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="4">
+        <v>4210387120</v>
+      </c>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="4">
+        <v>4210487162</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="4">
+        <v>4210842452</v>
+      </c>
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="4">
+        <v>4210208571</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="4">
+        <v>4211073903</v>
+      </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="4">
+        <v>4210515989</v>
+      </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="4">
+        <v>4210213779</v>
+      </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="4">
+        <v>4210378870</v>
+      </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="4">
+        <v>4210702558</v>
+      </c>
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="4">
+        <v>4210400589</v>
+      </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="4">
+        <v>4210695631</v>
+      </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="4">
+        <v>4210810214</v>
+      </c>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="4">
+        <v>4210933570</v>
+      </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="4">
+        <v>4210420793</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="4">
+        <v>4210250376</v>
+      </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="4">
+        <v>4210407609</v>
+      </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="4">
+        <v>4211020443</v>
+      </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="4">
+        <v>4210599674</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="4">
+        <v>4210707793</v>
+      </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="4">
+        <v>4210593308</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="4">
+        <v>4210326499</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="4">
+        <v>4210421903</v>
+      </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="4">
+        <v>4210004989</v>
+      </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="4">
+        <v>4210178645</v>
+      </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="4">
+        <v>4210272357</v>
+      </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="4">
+        <v>4210633293</v>
+      </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="4">
+        <v>4210411957</v>
+      </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="4">
+        <v>4210617095</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="4">
+        <v>4210152113</v>
+      </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="4">
+        <v>4210214619</v>
+      </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="4">
+        <v>4210280449</v>
+      </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="4">
+        <v>4210866906</v>
+      </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="4">
+        <v>4211068812</v>
+      </c>
+      <c r="B379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="4">
+        <v>4210888119</v>
+      </c>
+      <c r="B380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="4">
+        <v>4211052476</v>
+      </c>
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="4">
+        <v>4210376988</v>
+      </c>
+      <c r="B382" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="4">
+        <v>4210911353</v>
+      </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="4">
+        <v>4210924322</v>
+      </c>
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="4">
+        <v>4210086965</v>
+      </c>
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="4">
+        <v>4210062240</v>
+      </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="4">
+        <v>4210143635</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="4">
+        <v>4210281783</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="4">
+        <v>4210405641</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="4">
+        <v>4210593590</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" s="4">
+        <v>4210620984</v>
+      </c>
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="4">
+        <v>4210036943</v>
+      </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="4">
+        <v>4210452458</v>
+      </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="4">
+        <v>4210003083</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="4">
+        <v>4210383539</v>
+      </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="4">
+        <v>4210919520</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="4">
+        <v>4210792288</v>
+      </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="4">
+        <v>4210240115</v>
+      </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="4">
+        <v>4210337882</v>
+      </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="4">
+        <v>4210478764</v>
+      </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="4">
+        <v>4210483959</v>
+      </c>
+      <c r="B401" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="4">
+        <v>4210552779</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="4">
+        <v>4210247519</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="4">
+        <v>4210530221</v>
+      </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="4">
+        <v>4210652133</v>
+      </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="4">
+        <v>4210097470</v>
+      </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="4">
+        <v>4210121557</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="4">
+        <v>4210407646</v>
+      </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="4">
+        <v>4210418911</v>
+      </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="4">
+        <v>4210853143</v>
+      </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="4">
+        <v>4210960649</v>
+      </c>
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="4">
+        <v>4211013963</v>
+      </c>
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="4">
+        <v>4210811627</v>
+      </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="4">
+        <v>4210458622</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="4">
+        <v>4210671815</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="4">
+        <v>4210337818</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="4">
+        <v>4210949152</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="4">
+        <v>4210442082</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="4">
+        <v>4210634563</v>
+      </c>
+      <c r="B419" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="4">
+        <v>4210051155</v>
+      </c>
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="4">
+        <v>4210142038</v>
+      </c>
+      <c r="B421" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="4">
+        <v>4210303219</v>
+      </c>
+      <c r="B422" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="4">
+        <v>4210427799</v>
+      </c>
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="4">
+        <v>4210446245</v>
+      </c>
+      <c r="B424" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="4">
+        <v>4210629760</v>
+      </c>
+      <c r="B425" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="4">
+        <v>4210939924</v>
+      </c>
+      <c r="B426" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="4">
+        <v>4210207233</v>
+      </c>
+      <c r="B427" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="4">
+        <v>4210901008</v>
+      </c>
+      <c r="B428" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="4">
+        <v>4210423569</v>
+      </c>
+      <c r="B429" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" s="4">
+        <v>4210487451</v>
+      </c>
+      <c r="B430" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="4">
+        <v>4210607124</v>
+      </c>
+      <c r="B431" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="4">
+        <v>4210669592</v>
+      </c>
+      <c r="B432" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="4">
+        <v>4210436566</v>
+      </c>
+      <c r="B433" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="4">
+        <v>4210110289</v>
+      </c>
+      <c r="B434" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="4">
+        <v>4210970594</v>
+      </c>
+      <c r="B435" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="4">
+        <v>4210388883</v>
+      </c>
+      <c r="B436" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="4">
+        <v>4210622646</v>
+      </c>
+      <c r="B437" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="4">
+        <v>4210049002</v>
+      </c>
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="4">
+        <v>4210905356</v>
+      </c>
+      <c r="B439" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="4">
+        <v>4210750427</v>
+      </c>
+      <c r="B440" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="4">
+        <v>4210690219</v>
+      </c>
+      <c r="B441" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="4">
+        <v>4210544812</v>
+      </c>
+      <c r="B442" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="4">
+        <v>4210374075</v>
+      </c>
+      <c r="B443" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="4">
+        <v>4211172188</v>
+      </c>
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="4">
+        <v>4210918088</v>
+      </c>
+      <c r="B445" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="4">
+        <v>4210245439</v>
+      </c>
+      <c r="B446" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="4">
         <v>4210276653</v>
       </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="B97" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-      <c r="B109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
-      <c r="B114" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
-      <c r="B115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
-      <c r="B116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
-      <c r="B117" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="4"/>
-      <c r="B118" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
-      <c r="B119" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="4"/>
-      <c r="B120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
-      <c r="B121" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
-      <c r="B122" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
-      <c r="B123" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
-      <c r="B124" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="4"/>
-      <c r="B125" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="4"/>
-      <c r="B126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="4"/>
-      <c r="B127" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="4"/>
-      <c r="B128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="4"/>
-      <c r="B129" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
-      <c r="B130" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="4"/>
-      <c r="B131" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
-      <c r="B132" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
-      <c r="B133" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
-      <c r="B134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="4"/>
-      <c r="B135" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="4"/>
-      <c r="B136" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="4"/>
-      <c r="B137" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="4"/>
-      <c r="B138" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="4"/>
-      <c r="B139" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="4"/>
-      <c r="B140" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="4"/>
-      <c r="B141" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="4"/>
-      <c r="B142" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="4"/>
-      <c r="B143" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="4"/>
-      <c r="B144" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="4"/>
-      <c r="B145" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="4"/>
-      <c r="B146" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="4"/>
-      <c r="B147" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="4"/>
-      <c r="B148" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="4"/>
-      <c r="B149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="4"/>
-      <c r="B150" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="4"/>
-      <c r="B151" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="4"/>
-      <c r="B152" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="4"/>
-      <c r="B153" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="4"/>
-      <c r="B154" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="4"/>
-      <c r="B155" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="4"/>
-      <c r="B156" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="4"/>
-      <c r="B157" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="4"/>
-      <c r="B158" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="4"/>
-      <c r="B159" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="4"/>
-      <c r="B160" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="4"/>
-      <c r="B161" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="4"/>
-      <c r="B162" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="4"/>
-      <c r="B163" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="4"/>
-      <c r="B164" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="4"/>
-      <c r="B165" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="4"/>
-      <c r="B166" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="4"/>
-      <c r="B167" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="4"/>
-      <c r="B168" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="4"/>
-      <c r="B169" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="4"/>
-      <c r="B170" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="4"/>
-      <c r="B171" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="4"/>
-      <c r="B172" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="4"/>
-      <c r="B173" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="4"/>
-      <c r="B174" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="4"/>
-      <c r="B175" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="4"/>
-      <c r="B176" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="4"/>
-      <c r="B177" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="4"/>
-      <c r="B178" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="4"/>
-      <c r="B179" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="4"/>
-      <c r="B180" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="4"/>
-      <c r="B181" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="4"/>
-      <c r="B182" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="4"/>
-      <c r="B183" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="4"/>
-      <c r="B184" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="4"/>
-      <c r="B185" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="4"/>
-      <c r="B186" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="4"/>
-      <c r="B187" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="4"/>
-      <c r="B188" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="4"/>
-      <c r="B189" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="4"/>
-      <c r="B190" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="4"/>
-      <c r="B191" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="4"/>
-      <c r="B192" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="4"/>
-      <c r="B193" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="4"/>
-      <c r="B194" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="4"/>
-      <c r="B195" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="4"/>
-      <c r="B196" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="4"/>
-      <c r="B197" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="4"/>
-      <c r="B198" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="4"/>
-      <c r="B199" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="4"/>
-      <c r="B200" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="4"/>
-      <c r="B201" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="4"/>
-      <c r="B202" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="4"/>
-      <c r="B203" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="4"/>
-      <c r="B204" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="4"/>
-      <c r="B205" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="4"/>
-      <c r="B206" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="4"/>
-      <c r="B207" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="4"/>
-      <c r="B208" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="4"/>
-      <c r="B209" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="4"/>
-      <c r="B210" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="4"/>
-      <c r="B211" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="4"/>
-      <c r="B212" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="4"/>
-      <c r="B213" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="4"/>
-      <c r="B214" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="4"/>
-      <c r="B215" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="4"/>
-      <c r="B216" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="4"/>
-      <c r="B217" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="4"/>
-      <c r="B218" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="4"/>
-      <c r="B219" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="4"/>
-      <c r="B220" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="4"/>
-      <c r="B221" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="4"/>
-      <c r="B222" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="4"/>
-      <c r="B223" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="4"/>
-      <c r="B224" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="4"/>
-      <c r="B225" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="4"/>
-      <c r="B226" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="4"/>
-      <c r="B227" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="4"/>
-      <c r="B228" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="4"/>
-      <c r="B229" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="4"/>
-      <c r="B230" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="4"/>
-      <c r="B231" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="4"/>
-      <c r="B232" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="4"/>
-      <c r="B233" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="4"/>
-      <c r="B234" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="4"/>
-      <c r="B235" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="4"/>
-      <c r="B236" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="4"/>
-      <c r="B237" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="4"/>
-      <c r="B238" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="4"/>
-      <c r="B239" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="4"/>
-      <c r="B240" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="4"/>
-      <c r="B241" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="4"/>
-      <c r="B242" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="4"/>
-      <c r="B243" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="4"/>
-      <c r="B244" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="4"/>
-      <c r="B245" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="4"/>
-      <c r="B246" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="4"/>
-      <c r="B247" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="4"/>
-      <c r="B248" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="4"/>
-      <c r="B249" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="4"/>
-      <c r="B250" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="4"/>
-      <c r="B251" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="4"/>
-      <c r="B252" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="4"/>
-      <c r="B253" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="4"/>
-      <c r="B254" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="4"/>
-      <c r="B255" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="4"/>
-      <c r="B256" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="4"/>
-      <c r="B257" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="4"/>
-      <c r="B258" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="4"/>
-      <c r="B259" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="4"/>
-      <c r="B260" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="4"/>
-      <c r="B261" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="4"/>
-      <c r="B262" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="4"/>
-      <c r="B263" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="4"/>
-      <c r="B264" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="4"/>
-      <c r="B265" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="4"/>
-      <c r="B266" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="4"/>
-      <c r="B267" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="4"/>
-      <c r="B268" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="4"/>
-      <c r="B269" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="4"/>
-      <c r="B270" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="4"/>
-      <c r="B271" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="4"/>
-      <c r="B272" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="4"/>
-      <c r="B273" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="4"/>
-      <c r="B274" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="4"/>
-      <c r="B275" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="4"/>
-      <c r="B276" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="4"/>
-      <c r="B277" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="4"/>
-      <c r="B278" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="4"/>
-      <c r="B279" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="4"/>
-      <c r="B280" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="4"/>
-      <c r="B281" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="4"/>
-      <c r="B282" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="4"/>
-      <c r="B283" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="4"/>
-      <c r="B284" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="4"/>
-      <c r="B285" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="4"/>
-      <c r="B286" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="4"/>
-      <c r="B287" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="4"/>
-      <c r="B288" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="4"/>
-      <c r="B289" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="4"/>
-      <c r="B290" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="4"/>
-      <c r="B291" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="4"/>
-      <c r="B292" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="4"/>
-      <c r="B293" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="4"/>
-      <c r="B294" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="4"/>
-      <c r="B295" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="4"/>
-      <c r="B296" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="4"/>
-      <c r="B297" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="4"/>
-      <c r="B298" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="4"/>
-      <c r="B299" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="4"/>
-      <c r="B300" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="4"/>
-      <c r="B301" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="4"/>
-      <c r="B302" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="4"/>
-      <c r="B303" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="4"/>
-      <c r="B304" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="4"/>
-      <c r="B305" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="4"/>
-      <c r="B306" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="4"/>
-      <c r="B307" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="4"/>
-      <c r="B308" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="4"/>
-      <c r="B309" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="4"/>
-      <c r="B310" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="4"/>
-      <c r="B311" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="4"/>
-      <c r="B312" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="4"/>
-      <c r="B313" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="4"/>
-      <c r="B314" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="4"/>
-      <c r="B315" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="4"/>
-      <c r="B316" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="4"/>
-      <c r="B317" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="4"/>
-      <c r="B318" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="4"/>
-      <c r="B319" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="4"/>
-      <c r="B320" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="4"/>
-      <c r="B321" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="4"/>
-      <c r="B322" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="4"/>
-      <c r="B323" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="4"/>
-      <c r="B324" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="4"/>
-      <c r="B325" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="4"/>
-      <c r="B326" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="4"/>
-      <c r="B327" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="4"/>
-      <c r="B328" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="4"/>
-      <c r="B329" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="4"/>
-      <c r="B330" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="4"/>
-      <c r="B331" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="4"/>
-      <c r="B332" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="4"/>
-      <c r="B333" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="4"/>
-      <c r="B334" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="4"/>
-      <c r="B335" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="4"/>
-      <c r="B336" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="4"/>
-      <c r="B337" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="4"/>
-      <c r="B338" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="4"/>
-      <c r="B339" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="4"/>
-      <c r="B340" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="4"/>
-      <c r="B341" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="4"/>
-      <c r="B342" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="4"/>
-      <c r="B343" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="4"/>
-      <c r="B344" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="4"/>
-      <c r="B345" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="4"/>
-      <c r="B346" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="4"/>
-      <c r="B347" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="4"/>
-      <c r="B348" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="4"/>
-      <c r="B349" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="4"/>
-      <c r="B350" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="4"/>
-      <c r="B351" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="4"/>
-      <c r="B352" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="4"/>
-      <c r="B353" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="4"/>
-      <c r="B354" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="4"/>
-      <c r="B355" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="4"/>
-      <c r="B356" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="4"/>
-      <c r="B357" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="4"/>
-      <c r="B358" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="4"/>
-      <c r="B359" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="4"/>
-      <c r="B360" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="4"/>
-      <c r="B361" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="4"/>
-      <c r="B362" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="4"/>
-      <c r="B363" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="4"/>
-      <c r="B364" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="4"/>
-      <c r="B365" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="4"/>
-      <c r="B366" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="4"/>
-      <c r="B367" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="4"/>
-      <c r="B368" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="4"/>
-      <c r="B369" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="4"/>
-      <c r="B370" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="4"/>
-      <c r="B371" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="4"/>
-      <c r="B372" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="4"/>
-      <c r="B373" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="4"/>
-      <c r="B374" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="4"/>
-      <c r="B375" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="4"/>
-      <c r="B376" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="4"/>
-      <c r="B377" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="4"/>
-      <c r="B378" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="4"/>
-      <c r="B379" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="4"/>
-      <c r="B380" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="4"/>
-      <c r="B381" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="4"/>
-      <c r="B382" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="4"/>
-      <c r="B383" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="4"/>
-      <c r="B384" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="4"/>
-      <c r="B385" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="4"/>
-      <c r="B386" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="4"/>
-      <c r="B387" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="4"/>
-      <c r="B388" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="4"/>
-      <c r="B389" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" s="4"/>
-      <c r="B390" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="4"/>
-      <c r="B391" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="4"/>
-      <c r="B392" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="4"/>
-      <c r="B393" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="4"/>
-      <c r="B394" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="4"/>
-      <c r="B395" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="4"/>
-      <c r="B396" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="4"/>
-      <c r="B397" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="4"/>
-      <c r="B398" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="4"/>
-      <c r="B399" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="4"/>
-      <c r="B400" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" s="4"/>
-      <c r="B401" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="4"/>
-      <c r="B402" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" s="4"/>
-      <c r="B403" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" s="4"/>
-      <c r="B404" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" s="4"/>
-      <c r="B405" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="4"/>
-      <c r="B406" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="4"/>
-      <c r="B407" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="4"/>
-      <c r="B408" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="4"/>
-      <c r="B409" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="4"/>
-      <c r="B410" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="4"/>
-      <c r="B411" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="4"/>
-      <c r="B412" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="4"/>
-      <c r="B413" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="4"/>
-      <c r="B414" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="4"/>
-      <c r="B415" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="4"/>
-      <c r="B416" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="4"/>
-      <c r="B417" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" s="4"/>
-      <c r="B418" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" s="4"/>
-      <c r="B419" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" s="4"/>
-      <c r="B420" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" s="4"/>
-      <c r="B421" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="4"/>
-      <c r="B422" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" s="4"/>
-      <c r="B423" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" s="4"/>
-      <c r="B424" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" s="4"/>
-      <c r="B425" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" s="4"/>
-      <c r="B426" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="4"/>
-      <c r="B427" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" s="4"/>
-      <c r="B428" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" s="4"/>
-      <c r="B429" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" s="4"/>
-      <c r="B430" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" s="4"/>
-      <c r="B431" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="4"/>
-      <c r="B432" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" s="4"/>
-      <c r="B433" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" s="4"/>
-      <c r="B434" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" s="4"/>
-      <c r="B435" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" s="4"/>
-      <c r="B436" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="4"/>
-      <c r="B437" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" s="4"/>
-      <c r="B438" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" s="4"/>
-      <c r="B439" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" s="4"/>
-      <c r="B440" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" s="4"/>
-      <c r="B441" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" s="4"/>
-      <c r="B442" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" s="4"/>
-      <c r="B443" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" s="4"/>
-      <c r="B444" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" s="4"/>
-      <c r="B445" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" s="4"/>
-      <c r="B446" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" s="4"/>
       <c r="B447" t="s">
         <v>5</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AA3920-1F99-4C4A-8E9A-31160B062982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E28424-3C76-4CAC-81A4-22C030BF3BAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registrasi" sheetId="1" r:id="rId1"/>
@@ -4692,8 +4692,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16083,8 +16083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171734F-300B-437F-BAE5-46845BE7C47A}">
   <dimension ref="A1:B955"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="E461" sqref="E461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>4210090554</v>
+        <v>4210044558</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -16375,7 +16375,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>4210252068</v>
+        <v>4210090554</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -16383,7 +16383,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>4210404572</v>
+        <v>4210252068</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -16391,7 +16391,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>4210791799</v>
+        <v>4210404572</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>4210876639</v>
+        <v>4210419667</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>4210593515</v>
+        <v>4210791799</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>4210613161</v>
+        <v>4210876639</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>4210967138</v>
+        <v>4210593515</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -16431,7 +16431,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>4210771684</v>
+        <v>4210613161</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -16439,7 +16439,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>4210708235</v>
+        <v>4210967138</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -16447,7 +16447,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>4210932363</v>
+        <v>4210771684</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -16455,7 +16455,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>4210766426</v>
+        <v>4210708235</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -16463,7 +16463,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>4210371603</v>
+        <v>4210932363</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -16471,7 +16471,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>4210608174</v>
+        <v>4210766426</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -16479,7 +16479,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>4210406120</v>
+        <v>4210371603</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -16487,7 +16487,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>4210091709</v>
+        <v>4210608174</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -16495,7 +16495,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>4210034267</v>
+        <v>4210406120</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>4210307216</v>
+        <v>4210091709</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -16511,7 +16511,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>4210394400</v>
+        <v>4210034267</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>4210394946</v>
+        <v>4210307216</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -16527,7 +16527,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>4210415206</v>
+        <v>4210394400</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -16535,7 +16535,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>4210511277</v>
+        <v>4210394946</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -16543,7 +16543,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>4210831159</v>
+        <v>4210415206</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -16551,7 +16551,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>4210188182</v>
+        <v>4210511277</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -16559,7 +16559,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>4210673584</v>
+        <v>4210831159</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -16567,7 +16567,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>4210706642</v>
+        <v>4210188182</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -16575,7 +16575,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>4210731416</v>
+        <v>4210673584</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -16583,7 +16583,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>4211013807</v>
+        <v>4210706642</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>4210278444</v>
+        <v>4210731416</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -16599,7 +16599,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>4211018005</v>
+        <v>4211013807</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -16607,7 +16607,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>4210532588</v>
+        <v>4210278444</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -16615,7 +16615,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>4210929697</v>
+        <v>4211018005</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -16623,7 +16623,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>4210003837</v>
+        <v>4210532588</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -16631,7 +16631,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>4210342798</v>
+        <v>4210929697</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -16639,7 +16639,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>4210391139</v>
+        <v>4210003837</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -16647,7 +16647,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>4210393571</v>
+        <v>4210342798</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -16655,7 +16655,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>4210635825</v>
+        <v>4210391139</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -16663,7 +16663,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>4210843009</v>
+        <v>4210393571</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>4210945949</v>
+        <v>4210635825</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -16679,7 +16679,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>4210204827</v>
+        <v>4210843009</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -16687,7 +16687,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>4210563716</v>
+        <v>4210945949</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -16695,7 +16695,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>4210224238</v>
+        <v>4210204827</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -16703,7 +16703,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>4210398396</v>
+        <v>4210563716</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -16711,7 +16711,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>4210912284</v>
+        <v>4210224238</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -16719,7 +16719,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>4210566641</v>
+        <v>4210398396</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -16727,7 +16727,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>4210213587</v>
+        <v>4210912284</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -16735,7 +16735,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>4210003545</v>
+        <v>4210566641</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -16743,7 +16743,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>4210600446</v>
+        <v>4210213587</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -16751,7 +16751,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>4211151623</v>
+        <v>4210003545</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>4210214048</v>
+        <v>4210600446</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -16767,7 +16767,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>4210853920</v>
+        <v>4211151623</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -16775,7 +16775,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>4210610562</v>
+        <v>4210214048</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -16783,7 +16783,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>4210317095</v>
+        <v>4210853920</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -16791,7 +16791,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>4210394741</v>
+        <v>4210610562</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -16799,7 +16799,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>4210447996</v>
+        <v>4210317095</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>4210501502</v>
+        <v>4210394741</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -16815,7 +16815,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>4211105440</v>
+        <v>4210447996</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -16823,7 +16823,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>4211016693</v>
+        <v>4210501502</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -16831,7 +16831,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>4211074617</v>
+        <v>4211105440</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -16839,7 +16839,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>4210754698</v>
+        <v>4211016693</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -16847,7 +16847,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>4210926050</v>
+        <v>4211074617</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -16855,7 +16855,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>4210370471</v>
+        <v>4210754698</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -16863,7 +16863,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>4210806413</v>
+        <v>4210926050</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -16871,7 +16871,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>4210522771</v>
+        <v>4210370471</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -16879,7 +16879,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>4210542091</v>
+        <v>4210806413</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -16887,7 +16887,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>4210222026</v>
+        <v>4210522771</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -16895,7 +16895,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>4210921361</v>
+        <v>4210542091</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -16903,7 +16903,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>4210482370</v>
+        <v>4210222026</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -16911,7 +16911,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>4210167551</v>
+        <v>4210921361</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -16919,7 +16919,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>4210673655</v>
+        <v>4210482370</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -16927,7 +16927,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>4210887790</v>
+        <v>4210167551</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -16935,7 +16935,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>4210221322</v>
+        <v>4210673655</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>4210753622</v>
+        <v>4210887790</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -16951,7 +16951,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>4210482629</v>
+        <v>4210221322</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -16959,7 +16959,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>4210843672</v>
+        <v>4210753622</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -16967,7 +16967,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>4210523147</v>
+        <v>4210482629</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -16975,7 +16975,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>4211060527</v>
+        <v>4210843672</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -16983,7 +16983,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>4210424698</v>
+        <v>4210523147</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -16991,7 +16991,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>4210406049</v>
+        <v>4211060527</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -16999,7 +16999,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>4210639267</v>
+        <v>4210424698</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -17007,7 +17007,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>4211057865</v>
+        <v>4210406049</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -17015,7 +17015,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>4210345052</v>
+        <v>4210639267</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -17023,7 +17023,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>4210712809</v>
+        <v>4211057865</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -17031,7 +17031,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>4210121891</v>
+        <v>4210345052</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -17039,7 +17039,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>4210893730</v>
+        <v>4210712809</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -17047,7 +17047,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>4211056408</v>
+        <v>4210121891</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -17055,7 +17055,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>4210535673</v>
+        <v>4210893730</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -17063,7 +17063,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>4210500818</v>
+        <v>4211056408</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -17071,7 +17071,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>4210062548</v>
+        <v>4210535673</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>4210086465</v>
+        <v>4210500818</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -17087,7 +17087,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>4210133586</v>
+        <v>4210062548</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>4210415044</v>
+        <v>4210086465</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -17103,7 +17103,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>4210645803</v>
+        <v>4210133586</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -17111,7 +17111,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>4210836933</v>
+        <v>4210389070</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>4210878489</v>
+        <v>4210415044</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -17127,7 +17127,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>4210920767</v>
+        <v>4210645803</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -17135,7 +17135,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>4210665237</v>
+        <v>4210836933</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>4210057744</v>
+        <v>4210878489</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -17151,7 +17151,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>4211131368</v>
+        <v>4210920767</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -17159,7 +17159,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>4210208750</v>
+        <v>4210665237</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -17167,7 +17167,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>4210586900</v>
+        <v>4210057744</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -17175,7 +17175,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>4210433177</v>
+        <v>4211131368</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -17183,7 +17183,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>4210911313</v>
+        <v>4210208750</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -17191,7 +17191,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>4210745675</v>
+        <v>4210586900</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -17199,7 +17199,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>4211122411</v>
+        <v>4210433177</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -17207,7 +17207,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>4210855921</v>
+        <v>4210911313</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -17215,7 +17215,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>4210009062</v>
+        <v>4210745675</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -17223,7 +17223,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>4210648248</v>
+        <v>4211122411</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -17231,7 +17231,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>4210356297</v>
+        <v>4210855921</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -17239,7 +17239,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>4210152801</v>
+        <v>4210009062</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -17247,7 +17247,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>4210086596</v>
+        <v>4210648248</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -17255,7 +17255,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>4211058112</v>
+        <v>4210356297</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -17263,7 +17263,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>4210411973</v>
+        <v>4210152801</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -17271,7 +17271,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>4211010219</v>
+        <v>4210086596</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>4210273020</v>
+        <v>4211058112</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -17287,7 +17287,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>4210264695</v>
+        <v>4210411973</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -17295,7 +17295,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>4210930375</v>
+        <v>4211010219</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -17303,7 +17303,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>4210242756</v>
+        <v>4210273020</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>4210921232</v>
+        <v>4210264695</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>4210973302</v>
+        <v>4210930375</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -17327,7 +17327,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>4211014355</v>
+        <v>4210242756</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -17335,7 +17335,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>4210122458</v>
+        <v>4210921232</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -17343,7 +17343,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>4210621591</v>
+        <v>4210973302</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -17351,7 +17351,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>4210474468</v>
+        <v>4211014355</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -17359,7 +17359,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>4210392055</v>
+        <v>4210122458</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -17367,7 +17367,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>4210144557</v>
+        <v>4210621591</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>4210806396</v>
+        <v>4210474468</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -17383,7 +17383,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>4210059000</v>
+        <v>4210392055</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
-        <v>4211050835</v>
+        <v>4210144557</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -17399,7 +17399,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
-        <v>4210941334</v>
+        <v>4210806396</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
-        <v>4210073431</v>
+        <v>4210059000</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -17415,7 +17415,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
-        <v>4210951981</v>
+        <v>4211050835</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -17423,7 +17423,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
-        <v>4211183842</v>
+        <v>4210941334</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -17431,7 +17431,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
-        <v>4211190937</v>
+        <v>4210073431</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -17439,7 +17439,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
-        <v>4210264951</v>
+        <v>4210951981</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -17447,7 +17447,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
-        <v>4210229661</v>
+        <v>4211183842</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -17455,7 +17455,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
-        <v>4210815491</v>
+        <v>4211190937</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -17463,7 +17463,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
-        <v>4210842072</v>
+        <v>4210264951</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -17471,7 +17471,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
-        <v>4210497292</v>
+        <v>4210229661</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -17479,7 +17479,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
-        <v>4210984821</v>
+        <v>4210815491</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -17487,7 +17487,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
-        <v>4210185227</v>
+        <v>4210842072</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
-        <v>4210151586</v>
+        <v>4210497292</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -17503,7 +17503,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
-        <v>4210791646</v>
+        <v>4210984821</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -17511,7 +17511,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <v>4211014966</v>
+        <v>4210185227</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -17519,7 +17519,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
-        <v>4211039341</v>
+        <v>4210151586</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -17527,7 +17527,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
-        <v>4210267013</v>
+        <v>4210791646</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -17535,7 +17535,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
-        <v>4210385160</v>
+        <v>4211014966</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
-        <v>4210457607</v>
+        <v>4211039341</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -17551,7 +17551,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
-        <v>4210142349</v>
+        <v>4210267013</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -17559,7 +17559,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
-        <v>4210383149</v>
+        <v>4210385160</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -17567,7 +17567,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
-        <v>4210769887</v>
+        <v>4210457607</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
-        <v>4210997472</v>
+        <v>4210142349</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
-        <v>4211157478</v>
+        <v>4210383149</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -17591,7 +17591,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
-        <v>4210117447</v>
+        <v>4210769887</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
-        <v>4210151088</v>
+        <v>4210997472</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -17607,7 +17607,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
-        <v>4210176463</v>
+        <v>4211157478</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -17615,7 +17615,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
-        <v>4211024353</v>
+        <v>4210117447</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -17623,7 +17623,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
-        <v>4210047154</v>
+        <v>4210151088</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -17631,7 +17631,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
-        <v>4210182855</v>
+        <v>4210176463</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -17639,7 +17639,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
-        <v>4210994649</v>
+        <v>4211024353</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
-        <v>4210450687</v>
+        <v>4210047154</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -17655,7 +17655,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
-        <v>4210922651</v>
+        <v>4210182855</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -17663,7 +17663,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
-        <v>4210167563</v>
+        <v>4210994649</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -17671,7 +17671,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
-        <v>4210357001</v>
+        <v>4210450687</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -17679,7 +17679,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
-        <v>4210452807</v>
+        <v>4210922651</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -17687,7 +17687,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
-        <v>4210762861</v>
+        <v>4210167563</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -17695,7 +17695,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
-        <v>4210147981</v>
+        <v>4210357001</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -17703,7 +17703,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
-        <v>4210257649</v>
+        <v>4210452807</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -17711,7 +17711,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
-        <v>4210402143</v>
+        <v>4210762861</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -17719,7 +17719,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
-        <v>4210523156</v>
+        <v>4210147981</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -17727,7 +17727,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
-        <v>4210823515</v>
+        <v>4210257649</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -17735,7 +17735,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
-        <v>4210115162</v>
+        <v>4210402143</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -17743,7 +17743,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
-        <v>4210612098</v>
+        <v>4210523156</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
-        <v>4210368642</v>
+        <v>4210823515</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
-        <v>4210764690</v>
+        <v>4210115162</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -17767,7 +17767,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
-        <v>4211047440</v>
+        <v>4210612098</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -17775,7 +17775,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
-        <v>4210691393</v>
+        <v>4210368642</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -17783,7 +17783,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
-        <v>4210986456</v>
+        <v>4210764690</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -17791,7 +17791,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
-        <v>4210701833</v>
+        <v>4211047440</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -17799,7 +17799,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
-        <v>4210388739</v>
+        <v>4210691393</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -17807,7 +17807,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
-        <v>4211121228</v>
+        <v>4210986456</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -17815,7 +17815,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
-        <v>4210891162</v>
+        <v>4210701833</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -17823,7 +17823,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
-        <v>4210685145</v>
+        <v>4210388739</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -17831,7 +17831,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
-        <v>4210230359</v>
+        <v>4211121228</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -17839,7 +17839,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
-        <v>4210476751</v>
+        <v>4210891162</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -17847,7 +17847,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
-        <v>4210671598</v>
+        <v>4210685145</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -17855,7 +17855,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
-        <v>4210673461</v>
+        <v>4210230359</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -17863,7 +17863,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
-        <v>4210697216</v>
+        <v>4210476751</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -17871,7 +17871,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
-        <v>4210851034</v>
+        <v>4210671598</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -17879,7 +17879,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
-        <v>4211039879</v>
+        <v>4210673461</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -17887,7 +17887,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
-        <v>4210440787</v>
+        <v>4210697216</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -17895,7 +17895,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
-        <v>4210985823</v>
+        <v>4210851034</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -17903,7 +17903,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
-        <v>4210396117</v>
+        <v>4211039879</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -17911,7 +17911,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
-        <v>4210209432</v>
+        <v>4210440787</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -17919,7 +17919,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
-        <v>4210466625</v>
+        <v>4210985823</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -17927,7 +17927,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
-        <v>4210370018</v>
+        <v>4210396117</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -17935,7 +17935,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
-        <v>4210377269</v>
+        <v>4210209432</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -17943,7 +17943,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
-        <v>4211003079</v>
+        <v>4210466625</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -17951,7 +17951,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
-        <v>4210652631</v>
+        <v>4210370018</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -17959,7 +17959,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
-        <v>4210752028</v>
+        <v>4210377269</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -17967,7 +17967,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
-        <v>4210282624</v>
+        <v>4211003079</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -17975,7 +17975,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
-        <v>4210530875</v>
+        <v>4210652631</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
-        <v>4210182500</v>
+        <v>4210752028</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -17991,7 +17991,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
-        <v>4210780191</v>
+        <v>4210282624</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
-        <v>4210748422</v>
+        <v>4210530875</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -18007,7 +18007,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
-        <v>4210537453</v>
+        <v>4210182500</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -18015,7 +18015,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
-        <v>4210213411</v>
+        <v>4210780191</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
-        <v>4210261027</v>
+        <v>4210748422</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -18031,7 +18031,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
-        <v>4210421627</v>
+        <v>4210537453</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -18039,7 +18039,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
-        <v>4211121745</v>
+        <v>4210213411</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
-        <v>4210256197</v>
+        <v>4210261027</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -18055,7 +18055,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
-        <v>4210837418</v>
+        <v>4210421627</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -18063,7 +18063,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
-        <v>4210283620</v>
+        <v>4211121745</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -18071,7 +18071,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
-        <v>4210928075</v>
+        <v>4210256197</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -18079,7 +18079,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
-        <v>4210163688</v>
+        <v>4210837418</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -18087,7 +18087,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
-        <v>4210489208</v>
+        <v>4210283620</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -18095,7 +18095,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
-        <v>4210716858</v>
+        <v>4210928075</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -18103,7 +18103,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
-        <v>4210065219</v>
+        <v>4210163688</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -18111,7 +18111,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
-        <v>4210941041</v>
+        <v>4210489208</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -18119,7 +18119,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
-        <v>4210534515</v>
+        <v>4210716858</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -18127,7 +18127,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
-        <v>4210204988</v>
+        <v>4210065219</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -18135,7 +18135,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
-        <v>4210097114</v>
+        <v>4210941041</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -18143,7 +18143,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
-        <v>4210377665</v>
+        <v>4210534515</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -18151,7 +18151,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
-        <v>4210500697</v>
+        <v>4210204988</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -18159,7 +18159,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
-        <v>4210646048</v>
+        <v>4210097114</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -18167,7 +18167,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
-        <v>4210213661</v>
+        <v>4210377665</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
-        <v>4210646368</v>
+        <v>4210500697</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -18183,7 +18183,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
-        <v>4210850923</v>
+        <v>4210646048</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -18191,7 +18191,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
-        <v>4210936777</v>
+        <v>4210213661</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
-        <v>4210596404</v>
+        <v>4210646368</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -18207,7 +18207,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
-        <v>4211119160</v>
+        <v>4210850923</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -18215,7 +18215,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
-        <v>4211029307</v>
+        <v>4210936777</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -18223,7 +18223,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
-        <v>4210533998</v>
+        <v>4210596404</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -18231,7 +18231,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
-        <v>4210368640</v>
+        <v>4211119160</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -18239,7 +18239,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
-        <v>4210952808</v>
+        <v>4211029307</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -18247,7 +18247,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
-        <v>4210162326</v>
+        <v>4210533998</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -18255,7 +18255,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
-        <v>4210539791</v>
+        <v>4210368640</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -18263,7 +18263,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
-        <v>4210415570</v>
+        <v>4210952808</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
@@ -18271,7 +18271,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
-        <v>4210033714</v>
+        <v>4210162326</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -18279,7 +18279,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
-        <v>4210281106</v>
+        <v>4210539791</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
-        <v>4210698032</v>
+        <v>4210415570</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
@@ -18295,7 +18295,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
-        <v>4211121133</v>
+        <v>4210033714</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -18303,7 +18303,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
-        <v>4210406475</v>
+        <v>4210281106</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -18311,7 +18311,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
-        <v>4210592061</v>
+        <v>4210698032</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -18319,7 +18319,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
-        <v>4210774231</v>
+        <v>4211121133</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -18327,7 +18327,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
-        <v>4211032450</v>
+        <v>4210406475</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
@@ -18335,7 +18335,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
-        <v>4210174856</v>
+        <v>4210592061</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -18343,7 +18343,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
-        <v>4210248902</v>
+        <v>4210774231</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -18351,7 +18351,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
-        <v>4210799190</v>
+        <v>4211032450</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
@@ -18359,7 +18359,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
-        <v>4210619540</v>
+        <v>4210174856</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
-        <v>4210608974</v>
+        <v>4210248902</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
-        <v>4210301184</v>
+        <v>4210799190</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
@@ -18383,7 +18383,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
-        <v>4210566069</v>
+        <v>4210619540</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -18391,7 +18391,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
-        <v>4210939937</v>
+        <v>4210608974</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -18399,7 +18399,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
-        <v>4210539165</v>
+        <v>4210301184</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
-        <v>4210250290</v>
+        <v>4210566069</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -18415,7 +18415,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
-        <v>4210662861</v>
+        <v>4210939937</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -18423,7 +18423,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
-        <v>4210851640</v>
+        <v>4210539165</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
-        <v>4210632010</v>
+        <v>4210250290</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -18439,7 +18439,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
-        <v>4210396336</v>
+        <v>4210662861</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -18447,7 +18447,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
-        <v>4210996507</v>
+        <v>4210851640</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -18455,7 +18455,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
-        <v>4210691687</v>
+        <v>4210632010</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
@@ -18463,7 +18463,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
-        <v>4210451754</v>
+        <v>4210396336</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
-        <v>4211090225</v>
+        <v>4210996507</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -18479,7 +18479,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
-        <v>4210098148</v>
+        <v>4210691687</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
-        <v>4210885374</v>
+        <v>4210451754</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -18495,7 +18495,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
-        <v>4210429692</v>
+        <v>4211090225</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
@@ -18503,7 +18503,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
-        <v>4210457601</v>
+        <v>4210098148</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
@@ -18511,7 +18511,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
-        <v>4210491196</v>
+        <v>4210885374</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -18519,7 +18519,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
-        <v>4210525608</v>
+        <v>4210429692</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -18527,7 +18527,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
-        <v>4210697405</v>
+        <v>4210457601</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
@@ -18535,7 +18535,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
-        <v>4210769634</v>
+        <v>4210491196</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -18543,7 +18543,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
-        <v>4210983409</v>
+        <v>4210525608</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -18551,7 +18551,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
-        <v>4210831022</v>
+        <v>4210697405</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -18559,7 +18559,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
-        <v>4210478093</v>
+        <v>4210769634</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
@@ -18567,7 +18567,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
-        <v>4210623671</v>
+        <v>4210871317</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
-        <v>4210379066</v>
+        <v>4210983409</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
-        <v>4210539266</v>
+        <v>4210831022</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
@@ -18591,7 +18591,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
-        <v>4210064258</v>
+        <v>4210478093</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -18599,7 +18599,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
-        <v>4210911529</v>
+        <v>4210623671</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
@@ -18607,7 +18607,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
-        <v>4210497116</v>
+        <v>4210379066</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
@@ -18615,7 +18615,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
-        <v>4210862040</v>
+        <v>4210539266</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
@@ -18623,7 +18623,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
-        <v>4211016266</v>
+        <v>4210064258</v>
       </c>
       <c r="B317" t="s">
         <v>5</v>
@@ -18631,7 +18631,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
-        <v>4210841799</v>
+        <v>4210911529</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -18639,7 +18639,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
-        <v>4210009943</v>
+        <v>4210497116</v>
       </c>
       <c r="B319" t="s">
         <v>5</v>
@@ -18647,7 +18647,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
-        <v>4210707172</v>
+        <v>4210862040</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
@@ -18655,7 +18655,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
-        <v>4210003908</v>
+        <v>4211016266</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
-        <v>4210405234</v>
+        <v>4210841799</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
@@ -18671,7 +18671,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
-        <v>4210113485</v>
+        <v>4210009943</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
@@ -18679,7 +18679,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
-        <v>4210663417</v>
+        <v>4210707172</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
@@ -18687,7 +18687,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
-        <v>4210185045</v>
+        <v>4210003908</v>
       </c>
       <c r="B325" t="s">
         <v>5</v>
@@ -18695,7 +18695,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
-        <v>4210521327</v>
+        <v>4210405234</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
-        <v>4210050280</v>
+        <v>4210113485</v>
       </c>
       <c r="B327" t="s">
         <v>5</v>
@@ -18711,7 +18711,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
-        <v>4210372229</v>
+        <v>4210663417</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
@@ -18719,7 +18719,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
-        <v>4210326134</v>
+        <v>4210185045</v>
       </c>
       <c r="B329" t="s">
         <v>5</v>
@@ -18727,7 +18727,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
-        <v>4210790046</v>
+        <v>4210521327</v>
       </c>
       <c r="B330" t="s">
         <v>5</v>
@@ -18735,7 +18735,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
-        <v>4210535776</v>
+        <v>4210050280</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
@@ -18743,7 +18743,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
-        <v>4210194157</v>
+        <v>4210372229</v>
       </c>
       <c r="B332" t="s">
         <v>5</v>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
-        <v>4210359992</v>
+        <v>4210326134</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -18759,7 +18759,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
-        <v>4210380505</v>
+        <v>4210790046</v>
       </c>
       <c r="B334" t="s">
         <v>5</v>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
-        <v>4210417502</v>
+        <v>4210535776</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
@@ -18775,7 +18775,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
-        <v>4210920340</v>
+        <v>4210194157</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
@@ -18783,7 +18783,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
-        <v>4210114589</v>
+        <v>4210359992</v>
       </c>
       <c r="B337" t="s">
         <v>5</v>
@@ -18791,7 +18791,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
-        <v>4210273236</v>
+        <v>4210380505</v>
       </c>
       <c r="B338" t="s">
         <v>5</v>
@@ -18799,7 +18799,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
-        <v>4210270390</v>
+        <v>4210417502</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
@@ -18807,7 +18807,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
-        <v>4210323925</v>
+        <v>4210920340</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
-        <v>4210590170</v>
+        <v>4210114589</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
@@ -18823,7 +18823,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
-        <v>4210893995</v>
+        <v>4210273236</v>
       </c>
       <c r="B342" t="s">
         <v>5</v>
@@ -18831,7 +18831,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
-        <v>4210962329</v>
+        <v>4210270390</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
-        <v>4210019501</v>
+        <v>4210323925</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
-        <v>4210347993</v>
+        <v>4210590170</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
@@ -18855,7 +18855,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
-        <v>4210392078</v>
+        <v>4210893995</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -18863,7 +18863,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
-        <v>4210387120</v>
+        <v>4210962329</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
-        <v>4210487162</v>
+        <v>4210019501</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
@@ -18879,7 +18879,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
-        <v>4210842452</v>
+        <v>4210347993</v>
       </c>
       <c r="B349" t="s">
         <v>5</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
-        <v>4210208571</v>
+        <v>4210392078</v>
       </c>
       <c r="B350" t="s">
         <v>5</v>
@@ -18895,7 +18895,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
-        <v>4211073903</v>
+        <v>4210387120</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
-        <v>4210515989</v>
+        <v>4210487162</v>
       </c>
       <c r="B352" t="s">
         <v>5</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
-        <v>4210213779</v>
+        <v>4210842452</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
@@ -18919,7 +18919,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
-        <v>4210378870</v>
+        <v>4210208571</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
-        <v>4210702558</v>
+        <v>4211073903</v>
       </c>
       <c r="B355" t="s">
         <v>5</v>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
-        <v>4210400589</v>
+        <v>4210515989</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
@@ -18943,7 +18943,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
-        <v>4210695631</v>
+        <v>4210213779</v>
       </c>
       <c r="B357" t="s">
         <v>5</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
-        <v>4210810214</v>
+        <v>4210378870</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
@@ -18959,7 +18959,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
-        <v>4210933570</v>
+        <v>4210702558</v>
       </c>
       <c r="B359" t="s">
         <v>5</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
-        <v>4210420793</v>
+        <v>4210400589</v>
       </c>
       <c r="B360" t="s">
         <v>5</v>
@@ -18975,7 +18975,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
-        <v>4210250376</v>
+        <v>4210695631</v>
       </c>
       <c r="B361" t="s">
         <v>5</v>
@@ -18983,7 +18983,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
-        <v>4210407609</v>
+        <v>4210810214</v>
       </c>
       <c r="B362" t="s">
         <v>5</v>
@@ -18991,7 +18991,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
-        <v>4211020443</v>
+        <v>4210933570</v>
       </c>
       <c r="B363" t="s">
         <v>5</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
-        <v>4210599674</v>
+        <v>4210420793</v>
       </c>
       <c r="B364" t="s">
         <v>5</v>
@@ -19007,7 +19007,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
-        <v>4210707793</v>
+        <v>4210250376</v>
       </c>
       <c r="B365" t="s">
         <v>5</v>
@@ -19015,7 +19015,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
-        <v>4210593308</v>
+        <v>4210407609</v>
       </c>
       <c r="B366" t="s">
         <v>5</v>
@@ -19023,7 +19023,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
-        <v>4210326499</v>
+        <v>4211020443</v>
       </c>
       <c r="B367" t="s">
         <v>5</v>
@@ -19031,7 +19031,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
-        <v>4210421903</v>
+        <v>4210599674</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
@@ -19039,7 +19039,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
-        <v>4210004989</v>
+        <v>4210707793</v>
       </c>
       <c r="B369" t="s">
         <v>5</v>
@@ -19047,7 +19047,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
-        <v>4210178645</v>
+        <v>4210593308</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
@@ -19055,7 +19055,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
-        <v>4210272357</v>
+        <v>4210326499</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
-        <v>4210633293</v>
+        <v>4210421903</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
@@ -19071,7 +19071,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
-        <v>4210411957</v>
+        <v>4210004989</v>
       </c>
       <c r="B373" t="s">
         <v>5</v>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
-        <v>4210617095</v>
+        <v>4210178645</v>
       </c>
       <c r="B374" t="s">
         <v>5</v>
@@ -19087,7 +19087,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
-        <v>4210152113</v>
+        <v>4210272357</v>
       </c>
       <c r="B375" t="s">
         <v>5</v>
@@ -19095,7 +19095,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
-        <v>4210214619</v>
+        <v>4210633293</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="4">
-        <v>4210280449</v>
+        <v>4210411957</v>
       </c>
       <c r="B377" t="s">
         <v>5</v>
@@ -19111,7 +19111,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
-        <v>4210866906</v>
+        <v>4210617095</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
@@ -19119,7 +19119,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="4">
-        <v>4211068812</v>
+        <v>4210152113</v>
       </c>
       <c r="B379" t="s">
         <v>5</v>
@@ -19127,7 +19127,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
-        <v>4210888119</v>
+        <v>4210214619</v>
       </c>
       <c r="B380" t="s">
         <v>5</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
-        <v>4211052476</v>
+        <v>4210280449</v>
       </c>
       <c r="B381" t="s">
         <v>5</v>
@@ -19143,7 +19143,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
-        <v>4210376988</v>
+        <v>4210866906</v>
       </c>
       <c r="B382" t="s">
         <v>5</v>
@@ -19151,7 +19151,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="4">
-        <v>4210911353</v>
+        <v>4211068812</v>
       </c>
       <c r="B383" t="s">
         <v>5</v>
@@ -19159,7 +19159,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
-        <v>4210924322</v>
+        <v>4210888119</v>
       </c>
       <c r="B384" t="s">
         <v>5</v>
@@ -19167,7 +19167,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
-        <v>4210086965</v>
+        <v>4211052476</v>
       </c>
       <c r="B385" t="s">
         <v>5</v>
@@ -19175,7 +19175,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
-        <v>4210062240</v>
+        <v>4210376988</v>
       </c>
       <c r="B386" t="s">
         <v>5</v>
@@ -19183,7 +19183,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
-        <v>4210143635</v>
+        <v>4210911353</v>
       </c>
       <c r="B387" t="s">
         <v>5</v>
@@ -19191,7 +19191,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
-        <v>4210281783</v>
+        <v>4210924322</v>
       </c>
       <c r="B388" t="s">
         <v>5</v>
@@ -19199,7 +19199,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
-        <v>4210405641</v>
+        <v>4210086965</v>
       </c>
       <c r="B389" t="s">
         <v>5</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
-        <v>4210593590</v>
+        <v>4210062240</v>
       </c>
       <c r="B390" t="s">
         <v>5</v>
@@ -19215,7 +19215,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
-        <v>4210620984</v>
+        <v>4210143635</v>
       </c>
       <c r="B391" t="s">
         <v>5</v>
@@ -19223,7 +19223,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
-        <v>4210036943</v>
+        <v>4210281783</v>
       </c>
       <c r="B392" t="s">
         <v>5</v>
@@ -19231,7 +19231,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
-        <v>4210452458</v>
+        <v>4210405641</v>
       </c>
       <c r="B393" t="s">
         <v>5</v>
@@ -19239,7 +19239,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="4">
-        <v>4210003083</v>
+        <v>4210593590</v>
       </c>
       <c r="B394" t="s">
         <v>5</v>
@@ -19247,7 +19247,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="4">
-        <v>4210383539</v>
+        <v>4210751597</v>
       </c>
       <c r="B395" t="s">
         <v>5</v>
@@ -19255,7 +19255,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="4">
-        <v>4210919520</v>
+        <v>4210620984</v>
       </c>
       <c r="B396" t="s">
         <v>5</v>
@@ -19263,7 +19263,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="4">
-        <v>4210792288</v>
+        <v>4210036943</v>
       </c>
       <c r="B397" t="s">
         <v>5</v>
@@ -19271,7 +19271,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="4">
-        <v>4210240115</v>
+        <v>4210452458</v>
       </c>
       <c r="B398" t="s">
         <v>5</v>
@@ -19279,7 +19279,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="4">
-        <v>4210337882</v>
+        <v>4210003083</v>
       </c>
       <c r="B399" t="s">
         <v>5</v>
@@ -19287,7 +19287,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="4">
-        <v>4210478764</v>
+        <v>4210383539</v>
       </c>
       <c r="B400" t="s">
         <v>5</v>
@@ -19295,7 +19295,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="4">
-        <v>4210483959</v>
+        <v>4210919520</v>
       </c>
       <c r="B401" t="s">
         <v>5</v>
@@ -19303,7 +19303,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
-        <v>4210552779</v>
+        <v>4210792288</v>
       </c>
       <c r="B402" t="s">
         <v>5</v>
@@ -19311,7 +19311,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="4">
-        <v>4210247519</v>
+        <v>4210240115</v>
       </c>
       <c r="B403" t="s">
         <v>5</v>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="4">
-        <v>4210530221</v>
+        <v>4210337882</v>
       </c>
       <c r="B404" t="s">
         <v>5</v>
@@ -19327,7 +19327,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="4">
-        <v>4210652133</v>
+        <v>4210478764</v>
       </c>
       <c r="B405" t="s">
         <v>5</v>
@@ -19335,7 +19335,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="4">
-        <v>4210097470</v>
+        <v>4210483959</v>
       </c>
       <c r="B406" t="s">
         <v>5</v>
@@ -19343,7 +19343,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="4">
-        <v>4210121557</v>
+        <v>4210552779</v>
       </c>
       <c r="B407" t="s">
         <v>5</v>
@@ -19351,7 +19351,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="4">
-        <v>4210407646</v>
+        <v>4210718468</v>
       </c>
       <c r="B408" t="s">
         <v>5</v>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="4">
-        <v>4210418911</v>
+        <v>4211153726</v>
       </c>
       <c r="B409" t="s">
         <v>5</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="4">
-        <v>4210853143</v>
+        <v>4210247519</v>
       </c>
       <c r="B410" t="s">
         <v>5</v>
@@ -19375,7 +19375,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="4">
-        <v>4210960649</v>
+        <v>4210530221</v>
       </c>
       <c r="B411" t="s">
         <v>5</v>
@@ -19383,7 +19383,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="4">
-        <v>4211013963</v>
+        <v>4210652133</v>
       </c>
       <c r="B412" t="s">
         <v>5</v>
@@ -19391,7 +19391,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="4">
-        <v>4210811627</v>
+        <v>4210097470</v>
       </c>
       <c r="B413" t="s">
         <v>5</v>
@@ -19399,7 +19399,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="4">
-        <v>4210458622</v>
+        <v>4210121557</v>
       </c>
       <c r="B414" t="s">
         <v>5</v>
@@ -19407,7 +19407,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="4">
-        <v>4210671815</v>
+        <v>4210238869</v>
       </c>
       <c r="B415" t="s">
         <v>5</v>
@@ -19415,7 +19415,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="4">
-        <v>4210337818</v>
+        <v>4210407646</v>
       </c>
       <c r="B416" t="s">
         <v>5</v>
@@ -19423,7 +19423,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="4">
-        <v>4210949152</v>
+        <v>4210418911</v>
       </c>
       <c r="B417" t="s">
         <v>5</v>
@@ -19431,7 +19431,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="4">
-        <v>4210442082</v>
+        <v>4210853143</v>
       </c>
       <c r="B418" t="s">
         <v>5</v>
@@ -19439,7 +19439,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="4">
-        <v>4210634563</v>
+        <v>4210960649</v>
       </c>
       <c r="B419" t="s">
         <v>5</v>
@@ -19447,7 +19447,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="4">
-        <v>4210051155</v>
+        <v>4211013963</v>
       </c>
       <c r="B420" t="s">
         <v>5</v>
@@ -19455,7 +19455,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="4">
-        <v>4210142038</v>
+        <v>4210811627</v>
       </c>
       <c r="B421" t="s">
         <v>5</v>
@@ -19463,7 +19463,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="4">
-        <v>4210303219</v>
+        <v>4210458622</v>
       </c>
       <c r="B422" t="s">
         <v>5</v>
@@ -19471,7 +19471,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="4">
-        <v>4210427799</v>
+        <v>4210671815</v>
       </c>
       <c r="B423" t="s">
         <v>5</v>
@@ -19479,7 +19479,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="4">
-        <v>4210446245</v>
+        <v>4210337818</v>
       </c>
       <c r="B424" t="s">
         <v>5</v>
@@ -19487,7 +19487,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="4">
-        <v>4210629760</v>
+        <v>4210949152</v>
       </c>
       <c r="B425" t="s">
         <v>5</v>
@@ -19495,7 +19495,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="4">
-        <v>4210939924</v>
+        <v>4210442082</v>
       </c>
       <c r="B426" t="s">
         <v>5</v>
@@ -19503,7 +19503,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="4">
-        <v>4210207233</v>
+        <v>4210634563</v>
       </c>
       <c r="B427" t="s">
         <v>5</v>
@@ -19511,7 +19511,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="4">
-        <v>4210901008</v>
+        <v>4210051155</v>
       </c>
       <c r="B428" t="s">
         <v>5</v>
@@ -19519,7 +19519,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="4">
-        <v>4210423569</v>
+        <v>4210142038</v>
       </c>
       <c r="B429" t="s">
         <v>5</v>
@@ -19527,7 +19527,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="4">
-        <v>4210487451</v>
+        <v>4210303219</v>
       </c>
       <c r="B430" t="s">
         <v>5</v>
@@ -19535,7 +19535,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="4">
-        <v>4210607124</v>
+        <v>4210427799</v>
       </c>
       <c r="B431" t="s">
         <v>5</v>
@@ -19543,7 +19543,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="4">
-        <v>4210669592</v>
+        <v>4210446245</v>
       </c>
       <c r="B432" t="s">
         <v>5</v>
@@ -19551,7 +19551,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="4">
-        <v>4210436566</v>
+        <v>4210629760</v>
       </c>
       <c r="B433" t="s">
         <v>5</v>
@@ -19559,7 +19559,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="4">
-        <v>4210110289</v>
+        <v>4210939924</v>
       </c>
       <c r="B434" t="s">
         <v>5</v>
@@ -19567,7 +19567,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="4">
-        <v>4210970594</v>
+        <v>4210207233</v>
       </c>
       <c r="B435" t="s">
         <v>5</v>
@@ -19575,7 +19575,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="4">
-        <v>4210388883</v>
+        <v>4210901008</v>
       </c>
       <c r="B436" t="s">
         <v>5</v>
@@ -19583,7 +19583,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="4">
-        <v>4210622646</v>
+        <v>4210423569</v>
       </c>
       <c r="B437" t="s">
         <v>5</v>
@@ -19591,7 +19591,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="4">
-        <v>4210049002</v>
+        <v>4210487451</v>
       </c>
       <c r="B438" t="s">
         <v>5</v>
@@ -19599,7 +19599,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="4">
-        <v>4210905356</v>
+        <v>4210607124</v>
       </c>
       <c r="B439" t="s">
         <v>5</v>
@@ -19607,7 +19607,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="4">
-        <v>4210750427</v>
+        <v>4210669592</v>
       </c>
       <c r="B440" t="s">
         <v>5</v>
@@ -19615,7 +19615,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="4">
-        <v>4210690219</v>
+        <v>4210436566</v>
       </c>
       <c r="B441" t="s">
         <v>5</v>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="4">
-        <v>4210544812</v>
+        <v>4210001844</v>
       </c>
       <c r="B442" t="s">
         <v>5</v>
@@ -19631,7 +19631,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="4">
-        <v>4210374075</v>
+        <v>4210110289</v>
       </c>
       <c r="B443" t="s">
         <v>5</v>
@@ -19639,7 +19639,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="4">
-        <v>4211172188</v>
+        <v>4210970594</v>
       </c>
       <c r="B444" t="s">
         <v>5</v>
@@ -19647,7 +19647,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="4">
-        <v>4210918088</v>
+        <v>4210388883</v>
       </c>
       <c r="B445" t="s">
         <v>5</v>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="4">
-        <v>4210245439</v>
+        <v>4210622646</v>
       </c>
       <c r="B446" t="s">
         <v>5</v>
@@ -19663,62 +19663,80 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="4">
+        <v>4210049002</v>
+      </c>
+      <c r="B447" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="4">
+        <v>4210905356</v>
+      </c>
+      <c r="B448" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="4">
+        <v>4210750427</v>
+      </c>
+      <c r="B449" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="4">
+        <v>4210690219</v>
+      </c>
+      <c r="B450" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="4">
+        <v>4210544812</v>
+      </c>
+      <c r="B451" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="4">
+        <v>4210374075</v>
+      </c>
+      <c r="B452" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="4">
+        <v>4211172188</v>
+      </c>
+      <c r="B453" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="4">
+        <v>4210918088</v>
+      </c>
+      <c r="B454" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="4">
+        <v>4210245439</v>
+      </c>
+      <c r="B455" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="4">
         <v>4210276653</v>
       </c>
-      <c r="B447" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" s="4"/>
-      <c r="B448" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" s="4"/>
-      <c r="B449" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" s="4"/>
-      <c r="B450" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" s="4"/>
-      <c r="B451" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" s="4"/>
-      <c r="B452" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" s="4"/>
-      <c r="B453" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" s="4"/>
-      <c r="B454" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" s="4"/>
-      <c r="B455" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" s="4"/>
       <c r="B456" t="s">
         <v>5</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E28424-3C76-4CAC-81A4-22C030BF3BAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ECF25A-4537-43A8-A623-2C30E449E052}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4692,8 +4692,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A895" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E918" sqref="E918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16083,8 +16083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171734F-300B-437F-BAE5-46845BE7C47A}">
   <dimension ref="A1:B955"/>
   <sheetViews>
-    <sheetView topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="E461" sqref="E461"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16647,7 +16647,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>4210342798</v>
+        <v>4210326018</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -16655,7 +16655,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>4210391139</v>
+        <v>4210342798</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -16663,7 +16663,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>4210393571</v>
+        <v>4210391139</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>4210635825</v>
+        <v>4210393571</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -16679,7 +16679,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>4210843009</v>
+        <v>4210635825</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -16687,7 +16687,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>4210945949</v>
+        <v>4210843009</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -16695,7 +16695,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>4210204827</v>
+        <v>4210945949</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -16703,7 +16703,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>4210563716</v>
+        <v>4210204827</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -16711,7 +16711,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>4210224238</v>
+        <v>4210563716</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -16719,7 +16719,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>4210398396</v>
+        <v>4210224238</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -16727,7 +16727,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>4210912284</v>
+        <v>4210398396</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -16735,7 +16735,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>4210566641</v>
+        <v>4210912284</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -16743,7 +16743,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>4210213587</v>
+        <v>4210190103</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -16751,7 +16751,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>4210003545</v>
+        <v>4210566641</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>4210600446</v>
+        <v>4210213587</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -16767,7 +16767,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>4211151623</v>
+        <v>4210003545</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -16775,7 +16775,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>4210214048</v>
+        <v>4210600446</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -16783,7 +16783,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>4210853920</v>
+        <v>4211151623</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -16791,7 +16791,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>4210610562</v>
+        <v>4210214048</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -16799,7 +16799,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>4210317095</v>
+        <v>4210853920</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>4210394741</v>
+        <v>4210610562</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -16815,7 +16815,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>4210447996</v>
+        <v>4210317095</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -16823,7 +16823,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>4210501502</v>
+        <v>4210394741</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -16831,7 +16831,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>4211105440</v>
+        <v>4210447996</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -16839,7 +16839,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>4211016693</v>
+        <v>4210501502</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -16847,7 +16847,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>4211074617</v>
+        <v>4211105440</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -16855,7 +16855,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>4210754698</v>
+        <v>4211016693</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -16863,7 +16863,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>4210926050</v>
+        <v>4211074617</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -16871,7 +16871,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>4210370471</v>
+        <v>4210754698</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -16879,7 +16879,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>4210806413</v>
+        <v>4210926050</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -16887,7 +16887,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>4210522771</v>
+        <v>4210370471</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -16895,7 +16895,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>4210542091</v>
+        <v>4210806413</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -16903,7 +16903,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>4210222026</v>
+        <v>4210522771</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -16911,7 +16911,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>4210921361</v>
+        <v>4210542091</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -16919,7 +16919,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>4210482370</v>
+        <v>4210222026</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -16927,7 +16927,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>4210167551</v>
+        <v>4210479887</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -16935,7 +16935,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>4210673655</v>
+        <v>4210921361</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>4210887790</v>
+        <v>4210482370</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -16951,7 +16951,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>4210221322</v>
+        <v>4210167551</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -16959,7 +16959,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>4210753622</v>
+        <v>4210673655</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -16967,7 +16967,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>4210482629</v>
+        <v>4210887790</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -16975,7 +16975,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>4210843672</v>
+        <v>4210221322</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -16983,7 +16983,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>4210523147</v>
+        <v>4210753622</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -16991,7 +16991,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>4211060527</v>
+        <v>4210482629</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -16999,7 +16999,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>4210424698</v>
+        <v>4210843672</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -17007,7 +17007,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>4210406049</v>
+        <v>4210523147</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -17015,7 +17015,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>4210639267</v>
+        <v>4211060527</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -17023,7 +17023,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>4211057865</v>
+        <v>4210424698</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -17031,7 +17031,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>4210345052</v>
+        <v>4210406049</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -17039,7 +17039,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>4210712809</v>
+        <v>4210639267</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -17047,7 +17047,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>4210121891</v>
+        <v>4211057865</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -17055,7 +17055,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>4210893730</v>
+        <v>4210345052</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -17063,7 +17063,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>4211056408</v>
+        <v>4210712809</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -17071,7 +17071,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>4210535673</v>
+        <v>4210121891</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>4210500818</v>
+        <v>4210893730</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -17087,7 +17087,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>4210062548</v>
+        <v>4211056408</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>4210086465</v>
+        <v>4210535673</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -17103,7 +17103,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>4210133586</v>
+        <v>4210500818</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -17111,7 +17111,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>4210389070</v>
+        <v>4210062548</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>4210415044</v>
+        <v>4210086465</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -17127,7 +17127,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>4210645803</v>
+        <v>4210133586</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -17135,7 +17135,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>4210836933</v>
+        <v>4210389070</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>4210878489</v>
+        <v>4210415044</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -17151,7 +17151,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>4210920767</v>
+        <v>4210645803</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -17159,7 +17159,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>4210665237</v>
+        <v>4210836933</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -17167,7 +17167,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>4210057744</v>
+        <v>4210878489</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -17175,7 +17175,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>4211131368</v>
+        <v>4210920767</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -17183,7 +17183,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>4210208750</v>
+        <v>4210665237</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -17191,7 +17191,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>4210586900</v>
+        <v>4210057744</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -17199,7 +17199,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>4210433177</v>
+        <v>4211131368</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -17207,7 +17207,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>4210911313</v>
+        <v>4210208750</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -17215,7 +17215,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>4210745675</v>
+        <v>4210586900</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -17223,7 +17223,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>4211122411</v>
+        <v>4210433177</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -17231,7 +17231,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>4210855921</v>
+        <v>4210911313</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -17239,7 +17239,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>4210009062</v>
+        <v>4210745675</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -17247,7 +17247,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>4210648248</v>
+        <v>4211122411</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -17255,7 +17255,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>4210356297</v>
+        <v>4210855921</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -17263,7 +17263,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>4210152801</v>
+        <v>4210009062</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -17271,7 +17271,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>4210086596</v>
+        <v>4210648248</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>4211058112</v>
+        <v>4210356297</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -17287,7 +17287,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>4210411973</v>
+        <v>4210152801</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -17295,7 +17295,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>4211010219</v>
+        <v>4210086596</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -17303,7 +17303,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>4210273020</v>
+        <v>4211058112</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>4210264695</v>
+        <v>4210411973</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>4210930375</v>
+        <v>4211010219</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -17327,7 +17327,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>4210242756</v>
+        <v>4210273020</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -17335,7 +17335,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>4210921232</v>
+        <v>4210264695</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -17343,7 +17343,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>4210973302</v>
+        <v>4210930375</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -17351,7 +17351,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>4211014355</v>
+        <v>4210242756</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -17359,7 +17359,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>4210122458</v>
+        <v>4210253167</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -17367,7 +17367,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>4210621591</v>
+        <v>4210921232</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>4210474468</v>
+        <v>4210973302</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -17383,7 +17383,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>4210392055</v>
+        <v>4211014355</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
-        <v>4210144557</v>
+        <v>4210122458</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -17399,7 +17399,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
-        <v>4210806396</v>
+        <v>4210621591</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
-        <v>4210059000</v>
+        <v>4210474468</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -17415,7 +17415,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
-        <v>4211050835</v>
+        <v>4210392055</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -17423,7 +17423,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
-        <v>4210941334</v>
+        <v>4210144557</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -17431,7 +17431,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
-        <v>4210073431</v>
+        <v>4210806396</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -17439,7 +17439,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
-        <v>4210951981</v>
+        <v>4210059000</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -17447,7 +17447,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
-        <v>4211183842</v>
+        <v>4211050835</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -17455,7 +17455,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
-        <v>4211190937</v>
+        <v>4210941334</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -17463,7 +17463,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
-        <v>4210264951</v>
+        <v>4210073431</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -17471,7 +17471,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
-        <v>4210229661</v>
+        <v>4210321387</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -17479,7 +17479,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
-        <v>4210815491</v>
+        <v>4210951981</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -17487,7 +17487,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
-        <v>4210842072</v>
+        <v>4211183842</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
-        <v>4210497292</v>
+        <v>4211190937</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -17503,7 +17503,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
-        <v>4210984821</v>
+        <v>4210264951</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -17511,7 +17511,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <v>4210185227</v>
+        <v>4210229661</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -17519,7 +17519,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
-        <v>4210151586</v>
+        <v>4210815491</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -17527,7 +17527,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
-        <v>4210791646</v>
+        <v>4210842072</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -17535,7 +17535,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
-        <v>4211014966</v>
+        <v>4210497292</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
-        <v>4211039341</v>
+        <v>4210984821</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -17551,7 +17551,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
-        <v>4210267013</v>
+        <v>4210185227</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -17559,7 +17559,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
-        <v>4210385160</v>
+        <v>4210151586</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -17567,7 +17567,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
-        <v>4210457607</v>
+        <v>4210791646</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
-        <v>4210142349</v>
+        <v>4211014966</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
-        <v>4210383149</v>
+        <v>4211039341</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -17591,7 +17591,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
-        <v>4210769887</v>
+        <v>4210267013</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
-        <v>4210997472</v>
+        <v>4210385160</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -17607,7 +17607,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
-        <v>4211157478</v>
+        <v>4210457607</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -17615,7 +17615,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
-        <v>4210117447</v>
+        <v>4210142349</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -17623,7 +17623,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
-        <v>4210151088</v>
+        <v>4210383149</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -17631,7 +17631,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
-        <v>4210176463</v>
+        <v>4210424900</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -17639,7 +17639,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
-        <v>4211024353</v>
+        <v>4210769887</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
-        <v>4210047154</v>
+        <v>4210997472</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -17655,7 +17655,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
-        <v>4210182855</v>
+        <v>4211157478</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -17663,7 +17663,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
-        <v>4210994649</v>
+        <v>4210117447</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -17671,7 +17671,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
-        <v>4210450687</v>
+        <v>4210151088</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -17679,7 +17679,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
-        <v>4210922651</v>
+        <v>4210176463</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -17687,7 +17687,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
-        <v>4210167563</v>
+        <v>4211024353</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -17695,7 +17695,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
-        <v>4210357001</v>
+        <v>4210047154</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -17703,7 +17703,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
-        <v>4210452807</v>
+        <v>4210182855</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -17711,7 +17711,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
-        <v>4210762861</v>
+        <v>4210994649</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -17719,7 +17719,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
-        <v>4210147981</v>
+        <v>4210450687</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -17727,7 +17727,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
-        <v>4210257649</v>
+        <v>4210922651</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -17735,7 +17735,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
-        <v>4210402143</v>
+        <v>4210167563</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -17743,7 +17743,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
-        <v>4210523156</v>
+        <v>4210357001</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
-        <v>4210823515</v>
+        <v>4210452807</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
-        <v>4210115162</v>
+        <v>4210711324</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -17767,7 +17767,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
-        <v>4210612098</v>
+        <v>4210762861</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -17775,7 +17775,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
-        <v>4210368642</v>
+        <v>4210147981</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -17783,7 +17783,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
-        <v>4210764690</v>
+        <v>4210257649</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -17791,7 +17791,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
-        <v>4211047440</v>
+        <v>4210402143</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -17799,7 +17799,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
-        <v>4210691393</v>
+        <v>4210523156</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -17807,7 +17807,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
-        <v>4210986456</v>
+        <v>4210823515</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -17815,7 +17815,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
-        <v>4210701833</v>
+        <v>4210115162</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -17823,7 +17823,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
-        <v>4210388739</v>
+        <v>4210612098</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -17831,7 +17831,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
-        <v>4211121228</v>
+        <v>4210368642</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -17839,7 +17839,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
-        <v>4210891162</v>
+        <v>4210764690</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -17847,7 +17847,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
-        <v>4210685145</v>
+        <v>4211047440</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -17855,7 +17855,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
-        <v>4210230359</v>
+        <v>4210691393</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -17863,7 +17863,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
-        <v>4210476751</v>
+        <v>4210986456</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -17871,7 +17871,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
-        <v>4210671598</v>
+        <v>4210701833</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -17879,7 +17879,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
-        <v>4210673461</v>
+        <v>4210388739</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -17887,7 +17887,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
-        <v>4210697216</v>
+        <v>4211121228</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -17895,7 +17895,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
-        <v>4210851034</v>
+        <v>4210891162</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -17903,7 +17903,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
-        <v>4211039879</v>
+        <v>4210685145</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -17911,7 +17911,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
-        <v>4210440787</v>
+        <v>4210230359</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -17919,7 +17919,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
-        <v>4210985823</v>
+        <v>4210420336</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -17927,7 +17927,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
-        <v>4210396117</v>
+        <v>4210476751</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -17935,7 +17935,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
-        <v>4210209432</v>
+        <v>4210671598</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -17943,7 +17943,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
-        <v>4210466625</v>
+        <v>4210673461</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -17951,7 +17951,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
-        <v>4210370018</v>
+        <v>4210697216</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -17959,7 +17959,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
-        <v>4210377269</v>
+        <v>4210851034</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -17967,7 +17967,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
-        <v>4211003079</v>
+        <v>4211039879</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -17975,7 +17975,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
-        <v>4210652631</v>
+        <v>4210440787</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
-        <v>4210752028</v>
+        <v>4210985823</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -17991,7 +17991,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
-        <v>4210282624</v>
+        <v>4210396117</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
-        <v>4210530875</v>
+        <v>4210209432</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -18007,7 +18007,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
-        <v>4210182500</v>
+        <v>4210466625</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -18015,7 +18015,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
-        <v>4210780191</v>
+        <v>4210370018</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
-        <v>4210748422</v>
+        <v>4210377269</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -18031,7 +18031,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
-        <v>4210537453</v>
+        <v>4211003079</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -18039,7 +18039,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
-        <v>4210213411</v>
+        <v>4210652631</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
-        <v>4210261027</v>
+        <v>4210752028</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -18055,7 +18055,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
-        <v>4210421627</v>
+        <v>4210282624</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -18063,7 +18063,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
-        <v>4211121745</v>
+        <v>4210530875</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -18071,7 +18071,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
-        <v>4210256197</v>
+        <v>4210182500</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -18079,7 +18079,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
-        <v>4210837418</v>
+        <v>4210780191</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -18087,7 +18087,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
-        <v>4210283620</v>
+        <v>4210748422</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -18095,7 +18095,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
-        <v>4210928075</v>
+        <v>4210537453</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -18103,7 +18103,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
-        <v>4210163688</v>
+        <v>4210213411</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -18111,7 +18111,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
-        <v>4210489208</v>
+        <v>4210261027</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -18119,7 +18119,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
-        <v>4210716858</v>
+        <v>4210421627</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -18127,7 +18127,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
-        <v>4210065219</v>
+        <v>4211121745</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -18135,7 +18135,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
-        <v>4210941041</v>
+        <v>4210256197</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -18143,7 +18143,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
-        <v>4210534515</v>
+        <v>4210837418</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -18151,7 +18151,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
-        <v>4210204988</v>
+        <v>4210283620</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -18159,7 +18159,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
-        <v>4210097114</v>
+        <v>4210928075</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -18167,7 +18167,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
-        <v>4210377665</v>
+        <v>4210163688</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
-        <v>4210500697</v>
+        <v>4210212879</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -18183,7 +18183,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
-        <v>4210646048</v>
+        <v>4210489208</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -18191,7 +18191,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
-        <v>4210213661</v>
+        <v>4210716858</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
-        <v>4210646368</v>
+        <v>4210065219</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -18207,7 +18207,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
-        <v>4210850923</v>
+        <v>4210941041</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -18215,7 +18215,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
-        <v>4210936777</v>
+        <v>4210534515</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -18223,7 +18223,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
-        <v>4210596404</v>
+        <v>4210204988</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -18231,7 +18231,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
-        <v>4211119160</v>
+        <v>4210097114</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -18239,7 +18239,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
-        <v>4211029307</v>
+        <v>4210377665</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -18247,7 +18247,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
-        <v>4210533998</v>
+        <v>4210500697</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -18255,7 +18255,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
-        <v>4210368640</v>
+        <v>4210646048</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -18263,7 +18263,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
-        <v>4210952808</v>
+        <v>4210113372</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
@@ -18271,7 +18271,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
-        <v>4210162326</v>
+        <v>4210213661</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -18279,7 +18279,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
-        <v>4210539791</v>
+        <v>4210646368</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
-        <v>4210415570</v>
+        <v>4210850923</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
@@ -18295,7 +18295,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
-        <v>4210033714</v>
+        <v>4210936777</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -18303,7 +18303,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
-        <v>4210281106</v>
+        <v>4210596404</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -18311,7 +18311,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
-        <v>4210698032</v>
+        <v>4211119160</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -18319,7 +18319,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
-        <v>4211121133</v>
+        <v>4211029307</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -18327,7 +18327,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
-        <v>4210406475</v>
+        <v>4210533998</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
@@ -18335,7 +18335,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
-        <v>4210592061</v>
+        <v>4210368640</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -18343,7 +18343,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
-        <v>4210774231</v>
+        <v>4210952808</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -18351,7 +18351,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
-        <v>4211032450</v>
+        <v>4210162326</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
@@ -18359,7 +18359,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
-        <v>4210174856</v>
+        <v>4210539791</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
-        <v>4210248902</v>
+        <v>4210415570</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
-        <v>4210799190</v>
+        <v>4210033714</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
@@ -18383,7 +18383,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
-        <v>4210619540</v>
+        <v>4210281106</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -18391,7 +18391,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
-        <v>4210608974</v>
+        <v>4210698032</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -18399,7 +18399,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
-        <v>4210301184</v>
+        <v>4211121133</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
-        <v>4210566069</v>
+        <v>4210406475</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -18415,7 +18415,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
-        <v>4210939937</v>
+        <v>4210592061</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -18423,7 +18423,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
-        <v>4210539165</v>
+        <v>4210774231</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
-        <v>4210250290</v>
+        <v>4211032450</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -18439,7 +18439,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
-        <v>4210662861</v>
+        <v>4210174856</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -18447,7 +18447,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
-        <v>4210851640</v>
+        <v>4210248902</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -18455,7 +18455,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
-        <v>4210632010</v>
+        <v>4210799190</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
@@ -18463,7 +18463,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
-        <v>4210396336</v>
+        <v>4210619540</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
-        <v>4210996507</v>
+        <v>4210608974</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -18479,7 +18479,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
-        <v>4210691687</v>
+        <v>4210301184</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
-        <v>4210451754</v>
+        <v>4210566069</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -18495,7 +18495,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
-        <v>4211090225</v>
+        <v>4210939937</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
@@ -18503,7 +18503,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
-        <v>4210098148</v>
+        <v>4210539165</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
@@ -18511,7 +18511,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
-        <v>4210885374</v>
+        <v>4210250290</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -18519,7 +18519,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
-        <v>4210429692</v>
+        <v>4210662861</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -18527,7 +18527,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
-        <v>4210457601</v>
+        <v>4210414276</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
@@ -18535,7 +18535,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
-        <v>4210491196</v>
+        <v>4210851640</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -18543,7 +18543,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
-        <v>4210525608</v>
+        <v>4210632010</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -18551,7 +18551,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
-        <v>4210697405</v>
+        <v>4210396336</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -18559,7 +18559,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
-        <v>4210769634</v>
+        <v>4210996507</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
@@ -18567,7 +18567,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
-        <v>4210871317</v>
+        <v>4210691687</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
-        <v>4210983409</v>
+        <v>4210451754</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
-        <v>4210831022</v>
+        <v>4211090225</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
@@ -18591,7 +18591,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
-        <v>4210478093</v>
+        <v>4210098148</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -18599,7 +18599,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
-        <v>4210623671</v>
+        <v>4210885374</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
@@ -18607,7 +18607,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
-        <v>4210379066</v>
+        <v>4210429692</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
@@ -18615,7 +18615,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
-        <v>4210539266</v>
+        <v>4210457601</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
@@ -18623,7 +18623,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
-        <v>4210064258</v>
+        <v>4210491196</v>
       </c>
       <c r="B317" t="s">
         <v>5</v>
@@ -18631,7 +18631,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
-        <v>4210911529</v>
+        <v>4210525608</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -18639,7 +18639,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
-        <v>4210497116</v>
+        <v>4210697405</v>
       </c>
       <c r="B319" t="s">
         <v>5</v>
@@ -18647,7 +18647,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
-        <v>4210862040</v>
+        <v>4210769634</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
@@ -18655,7 +18655,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
-        <v>4211016266</v>
+        <v>4210871317</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
-        <v>4210841799</v>
+        <v>4210983409</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
@@ -18671,7 +18671,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
-        <v>4210009943</v>
+        <v>4210831022</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
@@ -18679,7 +18679,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
-        <v>4210707172</v>
+        <v>4210478093</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
@@ -18687,7 +18687,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
-        <v>4210003908</v>
+        <v>4210623671</v>
       </c>
       <c r="B325" t="s">
         <v>5</v>
@@ -18695,7 +18695,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
-        <v>4210405234</v>
+        <v>4210379066</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
-        <v>4210113485</v>
+        <v>4210539266</v>
       </c>
       <c r="B327" t="s">
         <v>5</v>
@@ -18711,7 +18711,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
-        <v>4210663417</v>
+        <v>4210064258</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
@@ -18719,7 +18719,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
-        <v>4210185045</v>
+        <v>4210911529</v>
       </c>
       <c r="B329" t="s">
         <v>5</v>
@@ -18727,7 +18727,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
-        <v>4210521327</v>
+        <v>4210497116</v>
       </c>
       <c r="B330" t="s">
         <v>5</v>
@@ -18735,7 +18735,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
-        <v>4210050280</v>
+        <v>4210862040</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
@@ -18743,7 +18743,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
-        <v>4210372229</v>
+        <v>4210894043</v>
       </c>
       <c r="B332" t="s">
         <v>5</v>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
-        <v>4210326134</v>
+        <v>4211016266</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -18759,7 +18759,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
-        <v>4210790046</v>
+        <v>4210841799</v>
       </c>
       <c r="B334" t="s">
         <v>5</v>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
-        <v>4210535776</v>
+        <v>4210009943</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
@@ -18775,7 +18775,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
-        <v>4210194157</v>
+        <v>4210707172</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
@@ -18783,7 +18783,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
-        <v>4210359992</v>
+        <v>4210003908</v>
       </c>
       <c r="B337" t="s">
         <v>5</v>
@@ -18791,7 +18791,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
-        <v>4210380505</v>
+        <v>4210405234</v>
       </c>
       <c r="B338" t="s">
         <v>5</v>
@@ -18799,7 +18799,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
-        <v>4210417502</v>
+        <v>4210113485</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
@@ -18807,7 +18807,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
-        <v>4210920340</v>
+        <v>4210663417</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
-        <v>4210114589</v>
+        <v>4210185045</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
@@ -18823,7 +18823,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
-        <v>4210273236</v>
+        <v>4210244610</v>
       </c>
       <c r="B342" t="s">
         <v>5</v>
@@ -18831,7 +18831,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
-        <v>4210270390</v>
+        <v>4210521327</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
-        <v>4210323925</v>
+        <v>4210050280</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
-        <v>4210590170</v>
+        <v>4210372229</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
@@ -18855,7 +18855,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
-        <v>4210893995</v>
+        <v>4210326134</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -18863,7 +18863,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
-        <v>4210962329</v>
+        <v>4210790046</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
-        <v>4210019501</v>
+        <v>4210535776</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
@@ -18879,7 +18879,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
-        <v>4210347993</v>
+        <v>4210194157</v>
       </c>
       <c r="B349" t="s">
         <v>5</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
-        <v>4210392078</v>
+        <v>4210359992</v>
       </c>
       <c r="B350" t="s">
         <v>5</v>
@@ -18895,7 +18895,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
-        <v>4210387120</v>
+        <v>4210380505</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
-        <v>4210487162</v>
+        <v>4210417502</v>
       </c>
       <c r="B352" t="s">
         <v>5</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
-        <v>4210842452</v>
+        <v>4210920340</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
@@ -18919,7 +18919,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
-        <v>4210208571</v>
+        <v>4210114589</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
-        <v>4211073903</v>
+        <v>4210273236</v>
       </c>
       <c r="B355" t="s">
         <v>5</v>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
-        <v>4210515989</v>
+        <v>4210270390</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
@@ -18943,7 +18943,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
-        <v>4210213779</v>
+        <v>4210323925</v>
       </c>
       <c r="B357" t="s">
         <v>5</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
-        <v>4210378870</v>
+        <v>4210590170</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
@@ -18959,7 +18959,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
-        <v>4210702558</v>
+        <v>4210893995</v>
       </c>
       <c r="B359" t="s">
         <v>5</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
-        <v>4210400589</v>
+        <v>4210962329</v>
       </c>
       <c r="B360" t="s">
         <v>5</v>
@@ -18975,7 +18975,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
-        <v>4210695631</v>
+        <v>4210019501</v>
       </c>
       <c r="B361" t="s">
         <v>5</v>
@@ -18983,7 +18983,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
-        <v>4210810214</v>
+        <v>4210347993</v>
       </c>
       <c r="B362" t="s">
         <v>5</v>
@@ -18991,7 +18991,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
-        <v>4210933570</v>
+        <v>4210392078</v>
       </c>
       <c r="B363" t="s">
         <v>5</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
-        <v>4210420793</v>
+        <v>4210387120</v>
       </c>
       <c r="B364" t="s">
         <v>5</v>
@@ -19007,7 +19007,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
-        <v>4210250376</v>
+        <v>4210487162</v>
       </c>
       <c r="B365" t="s">
         <v>5</v>
@@ -19015,7 +19015,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
-        <v>4210407609</v>
+        <v>4210842452</v>
       </c>
       <c r="B366" t="s">
         <v>5</v>
@@ -19023,7 +19023,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
-        <v>4211020443</v>
+        <v>4210208571</v>
       </c>
       <c r="B367" t="s">
         <v>5</v>
@@ -19031,7 +19031,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
-        <v>4210599674</v>
+        <v>4211073903</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
@@ -19039,7 +19039,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
-        <v>4210707793</v>
+        <v>4210515989</v>
       </c>
       <c r="B369" t="s">
         <v>5</v>
@@ -19047,7 +19047,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
-        <v>4210593308</v>
+        <v>4210213779</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
@@ -19055,7 +19055,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
-        <v>4210326499</v>
+        <v>4210378870</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
-        <v>4210421903</v>
+        <v>4210702558</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
@@ -19071,7 +19071,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
-        <v>4210004989</v>
+        <v>4210400589</v>
       </c>
       <c r="B373" t="s">
         <v>5</v>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
-        <v>4210178645</v>
+        <v>4210695631</v>
       </c>
       <c r="B374" t="s">
         <v>5</v>
@@ -19087,7 +19087,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
-        <v>4210272357</v>
+        <v>4210810214</v>
       </c>
       <c r="B375" t="s">
         <v>5</v>
@@ -19095,7 +19095,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
-        <v>4210633293</v>
+        <v>4210933570</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="4">
-        <v>4210411957</v>
+        <v>4210420793</v>
       </c>
       <c r="B377" t="s">
         <v>5</v>
@@ -19111,7 +19111,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
-        <v>4210617095</v>
+        <v>4210250376</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
@@ -19119,7 +19119,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="4">
-        <v>4210152113</v>
+        <v>4210407609</v>
       </c>
       <c r="B379" t="s">
         <v>5</v>
@@ -19127,7 +19127,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
-        <v>4210214619</v>
+        <v>4211020443</v>
       </c>
       <c r="B380" t="s">
         <v>5</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
-        <v>4210280449</v>
+        <v>4210599674</v>
       </c>
       <c r="B381" t="s">
         <v>5</v>
@@ -19143,7 +19143,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
-        <v>4210866906</v>
+        <v>4210707793</v>
       </c>
       <c r="B382" t="s">
         <v>5</v>
@@ -19151,7 +19151,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="4">
-        <v>4211068812</v>
+        <v>4210593308</v>
       </c>
       <c r="B383" t="s">
         <v>5</v>
@@ -19159,7 +19159,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
-        <v>4210888119</v>
+        <v>4210326499</v>
       </c>
       <c r="B384" t="s">
         <v>5</v>
@@ -19167,7 +19167,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
-        <v>4211052476</v>
+        <v>4210421903</v>
       </c>
       <c r="B385" t="s">
         <v>5</v>
@@ -19175,7 +19175,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
-        <v>4210376988</v>
+        <v>4210004989</v>
       </c>
       <c r="B386" t="s">
         <v>5</v>
@@ -19183,7 +19183,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
-        <v>4210911353</v>
+        <v>4210178645</v>
       </c>
       <c r="B387" t="s">
         <v>5</v>
@@ -19191,7 +19191,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
-        <v>4210924322</v>
+        <v>4210272357</v>
       </c>
       <c r="B388" t="s">
         <v>5</v>
@@ -19199,7 +19199,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
-        <v>4210086965</v>
+        <v>4210633293</v>
       </c>
       <c r="B389" t="s">
         <v>5</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
-        <v>4210062240</v>
+        <v>4210411957</v>
       </c>
       <c r="B390" t="s">
         <v>5</v>
@@ -19215,7 +19215,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
-        <v>4210143635</v>
+        <v>4210617095</v>
       </c>
       <c r="B391" t="s">
         <v>5</v>
@@ -19223,7 +19223,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
-        <v>4210281783</v>
+        <v>4210152113</v>
       </c>
       <c r="B392" t="s">
         <v>5</v>
@@ -19231,7 +19231,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
-        <v>4210405641</v>
+        <v>4210214619</v>
       </c>
       <c r="B393" t="s">
         <v>5</v>
@@ -19239,7 +19239,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="4">
-        <v>4210593590</v>
+        <v>4210280449</v>
       </c>
       <c r="B394" t="s">
         <v>5</v>
@@ -19247,7 +19247,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="4">
-        <v>4210751597</v>
+        <v>4210866906</v>
       </c>
       <c r="B395" t="s">
         <v>5</v>
@@ -19255,7 +19255,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="4">
-        <v>4210620984</v>
+        <v>4211068812</v>
       </c>
       <c r="B396" t="s">
         <v>5</v>
@@ -19263,7 +19263,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="4">
-        <v>4210036943</v>
+        <v>4210888119</v>
       </c>
       <c r="B397" t="s">
         <v>5</v>
@@ -19271,7 +19271,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="4">
-        <v>4210452458</v>
+        <v>4211052476</v>
       </c>
       <c r="B398" t="s">
         <v>5</v>
@@ -19279,7 +19279,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="4">
-        <v>4210003083</v>
+        <v>4210376988</v>
       </c>
       <c r="B399" t="s">
         <v>5</v>
@@ -19287,7 +19287,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="4">
-        <v>4210383539</v>
+        <v>4210911353</v>
       </c>
       <c r="B400" t="s">
         <v>5</v>
@@ -19295,7 +19295,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="4">
-        <v>4210919520</v>
+        <v>4210924322</v>
       </c>
       <c r="B401" t="s">
         <v>5</v>
@@ -19303,7 +19303,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
-        <v>4210792288</v>
+        <v>4210086965</v>
       </c>
       <c r="B402" t="s">
         <v>5</v>
@@ -19311,7 +19311,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="4">
-        <v>4210240115</v>
+        <v>4210062240</v>
       </c>
       <c r="B403" t="s">
         <v>5</v>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="4">
-        <v>4210337882</v>
+        <v>4210143635</v>
       </c>
       <c r="B404" t="s">
         <v>5</v>
@@ -19327,7 +19327,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="4">
-        <v>4210478764</v>
+        <v>4210281783</v>
       </c>
       <c r="B405" t="s">
         <v>5</v>
@@ -19335,7 +19335,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="4">
-        <v>4210483959</v>
+        <v>4210405046</v>
       </c>
       <c r="B406" t="s">
         <v>5</v>
@@ -19343,7 +19343,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="4">
-        <v>4210552779</v>
+        <v>4210405641</v>
       </c>
       <c r="B407" t="s">
         <v>5</v>
@@ -19351,7 +19351,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="4">
-        <v>4210718468</v>
+        <v>4210593590</v>
       </c>
       <c r="B408" t="s">
         <v>5</v>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="4">
-        <v>4211153726</v>
+        <v>4210751597</v>
       </c>
       <c r="B409" t="s">
         <v>5</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="4">
-        <v>4210247519</v>
+        <v>4210620984</v>
       </c>
       <c r="B410" t="s">
         <v>5</v>
@@ -19375,7 +19375,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="4">
-        <v>4210530221</v>
+        <v>4210036943</v>
       </c>
       <c r="B411" t="s">
         <v>5</v>
@@ -19383,7 +19383,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="4">
-        <v>4210652133</v>
+        <v>4210452458</v>
       </c>
       <c r="B412" t="s">
         <v>5</v>
@@ -19391,7 +19391,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="4">
-        <v>4210097470</v>
+        <v>4210003083</v>
       </c>
       <c r="B413" t="s">
         <v>5</v>
@@ -19399,7 +19399,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="4">
-        <v>4210121557</v>
+        <v>4210383539</v>
       </c>
       <c r="B414" t="s">
         <v>5</v>
@@ -19407,7 +19407,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="4">
-        <v>4210238869</v>
+        <v>4210919520</v>
       </c>
       <c r="B415" t="s">
         <v>5</v>
@@ -19415,7 +19415,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="4">
-        <v>4210407646</v>
+        <v>4210792288</v>
       </c>
       <c r="B416" t="s">
         <v>5</v>
@@ -19423,7 +19423,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="4">
-        <v>4210418911</v>
+        <v>4210240115</v>
       </c>
       <c r="B417" t="s">
         <v>5</v>
@@ -19431,7 +19431,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="4">
-        <v>4210853143</v>
+        <v>4210337882</v>
       </c>
       <c r="B418" t="s">
         <v>5</v>
@@ -19439,7 +19439,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="4">
-        <v>4210960649</v>
+        <v>4210478764</v>
       </c>
       <c r="B419" t="s">
         <v>5</v>
@@ -19447,7 +19447,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="4">
-        <v>4211013963</v>
+        <v>4210483959</v>
       </c>
       <c r="B420" t="s">
         <v>5</v>
@@ -19455,7 +19455,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="4">
-        <v>4210811627</v>
+        <v>4210552779</v>
       </c>
       <c r="B421" t="s">
         <v>5</v>
@@ -19463,7 +19463,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="4">
-        <v>4210458622</v>
+        <v>4210718468</v>
       </c>
       <c r="B422" t="s">
         <v>5</v>
@@ -19471,7 +19471,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="4">
-        <v>4210671815</v>
+        <v>4210974262</v>
       </c>
       <c r="B423" t="s">
         <v>5</v>
@@ -19479,7 +19479,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="4">
-        <v>4210337818</v>
+        <v>4211153726</v>
       </c>
       <c r="B424" t="s">
         <v>5</v>
@@ -19487,7 +19487,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="4">
-        <v>4210949152</v>
+        <v>4210247519</v>
       </c>
       <c r="B425" t="s">
         <v>5</v>
@@ -19495,7 +19495,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="4">
-        <v>4210442082</v>
+        <v>4210530221</v>
       </c>
       <c r="B426" t="s">
         <v>5</v>
@@ -19503,7 +19503,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="4">
-        <v>4210634563</v>
+        <v>4210652133</v>
       </c>
       <c r="B427" t="s">
         <v>5</v>
@@ -19511,7 +19511,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="4">
-        <v>4210051155</v>
+        <v>4210059502</v>
       </c>
       <c r="B428" t="s">
         <v>5</v>
@@ -19519,7 +19519,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="4">
-        <v>4210142038</v>
+        <v>4210097470</v>
       </c>
       <c r="B429" t="s">
         <v>5</v>
@@ -19527,7 +19527,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="4">
-        <v>4210303219</v>
+        <v>4210121557</v>
       </c>
       <c r="B430" t="s">
         <v>5</v>
@@ -19535,7 +19535,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="4">
-        <v>4210427799</v>
+        <v>4210238869</v>
       </c>
       <c r="B431" t="s">
         <v>5</v>
@@ -19543,7 +19543,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="4">
-        <v>4210446245</v>
+        <v>4210407646</v>
       </c>
       <c r="B432" t="s">
         <v>5</v>
@@ -19551,7 +19551,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="4">
-        <v>4210629760</v>
+        <v>4210418911</v>
       </c>
       <c r="B433" t="s">
         <v>5</v>
@@ -19559,7 +19559,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="4">
-        <v>4210939924</v>
+        <v>4210853143</v>
       </c>
       <c r="B434" t="s">
         <v>5</v>
@@ -19567,7 +19567,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="4">
-        <v>4210207233</v>
+        <v>4210960649</v>
       </c>
       <c r="B435" t="s">
         <v>5</v>
@@ -19575,7 +19575,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="4">
-        <v>4210901008</v>
+        <v>4211013963</v>
       </c>
       <c r="B436" t="s">
         <v>5</v>
@@ -19583,7 +19583,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="4">
-        <v>4210423569</v>
+        <v>4210811627</v>
       </c>
       <c r="B437" t="s">
         <v>5</v>
@@ -19591,7 +19591,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="4">
-        <v>4210487451</v>
+        <v>4210458622</v>
       </c>
       <c r="B438" t="s">
         <v>5</v>
@@ -19599,7 +19599,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="4">
-        <v>4210607124</v>
+        <v>4210671815</v>
       </c>
       <c r="B439" t="s">
         <v>5</v>
@@ -19607,7 +19607,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="4">
-        <v>4210669592</v>
+        <v>4210337818</v>
       </c>
       <c r="B440" t="s">
         <v>5</v>
@@ -19615,7 +19615,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="4">
-        <v>4210436566</v>
+        <v>4210949152</v>
       </c>
       <c r="B441" t="s">
         <v>5</v>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="4">
-        <v>4210001844</v>
+        <v>4210442082</v>
       </c>
       <c r="B442" t="s">
         <v>5</v>
@@ -19631,7 +19631,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="4">
-        <v>4210110289</v>
+        <v>4210634563</v>
       </c>
       <c r="B443" t="s">
         <v>5</v>
@@ -19639,7 +19639,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="4">
-        <v>4210970594</v>
+        <v>4210051155</v>
       </c>
       <c r="B444" t="s">
         <v>5</v>
@@ -19647,7 +19647,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="4">
-        <v>4210388883</v>
+        <v>4210142038</v>
       </c>
       <c r="B445" t="s">
         <v>5</v>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="4">
-        <v>4210622646</v>
+        <v>4210303219</v>
       </c>
       <c r="B446" t="s">
         <v>5</v>
@@ -19663,7 +19663,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="4">
-        <v>4210049002</v>
+        <v>4210427799</v>
       </c>
       <c r="B447" t="s">
         <v>5</v>
@@ -19671,7 +19671,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="4">
-        <v>4210905356</v>
+        <v>4210446245</v>
       </c>
       <c r="B448" t="s">
         <v>5</v>
@@ -19679,7 +19679,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="4">
-        <v>4210750427</v>
+        <v>4210629760</v>
       </c>
       <c r="B449" t="s">
         <v>5</v>
@@ -19687,7 +19687,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="4">
-        <v>4210690219</v>
+        <v>4210939924</v>
       </c>
       <c r="B450" t="s">
         <v>5</v>
@@ -19695,7 +19695,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="4">
-        <v>4210544812</v>
+        <v>4210207233</v>
       </c>
       <c r="B451" t="s">
         <v>5</v>
@@ -19703,7 +19703,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="4">
-        <v>4210374075</v>
+        <v>4210901008</v>
       </c>
       <c r="B452" t="s">
         <v>5</v>
@@ -19711,7 +19711,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="4">
-        <v>4211172188</v>
+        <v>4210423569</v>
       </c>
       <c r="B453" t="s">
         <v>5</v>
@@ -19719,7 +19719,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="4">
-        <v>4210918088</v>
+        <v>4210487451</v>
       </c>
       <c r="B454" t="s">
         <v>5</v>
@@ -19727,7 +19727,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="4">
-        <v>4210245439</v>
+        <v>4210607124</v>
       </c>
       <c r="B455" t="s">
         <v>5</v>
@@ -19735,116 +19735,152 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="4">
+        <v>4210669592</v>
+      </c>
+      <c r="B456" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="4">
+        <v>4210436566</v>
+      </c>
+      <c r="B457" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="4">
+        <v>4210534852</v>
+      </c>
+      <c r="B458" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="4">
+        <v>4210001844</v>
+      </c>
+      <c r="B459" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="4">
+        <v>4210110289</v>
+      </c>
+      <c r="B460" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="4">
+        <v>4210417607</v>
+      </c>
+      <c r="B461" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="4">
+        <v>4210970594</v>
+      </c>
+      <c r="B462" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="4">
+        <v>4210388883</v>
+      </c>
+      <c r="B463" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" s="4">
+        <v>4210622646</v>
+      </c>
+      <c r="B464" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="4">
+        <v>4210049002</v>
+      </c>
+      <c r="B465" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="4">
+        <v>4210905356</v>
+      </c>
+      <c r="B466" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="4">
+        <v>4210750427</v>
+      </c>
+      <c r="B467" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="4">
+        <v>4210690219</v>
+      </c>
+      <c r="B468" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="4">
+        <v>4210544812</v>
+      </c>
+      <c r="B469" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="4">
+        <v>4210374075</v>
+      </c>
+      <c r="B470" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="4">
+        <v>4211172188</v>
+      </c>
+      <c r="B471" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" s="4">
+        <v>4210918088</v>
+      </c>
+      <c r="B472" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" s="4">
+        <v>4210245439</v>
+      </c>
+      <c r="B473" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" s="4">
         <v>4210276653</v>
       </c>
-      <c r="B456" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" s="4"/>
-      <c r="B457" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" s="4"/>
-      <c r="B458" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" s="4"/>
-      <c r="B459" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" s="4"/>
-      <c r="B460" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" s="4"/>
-      <c r="B461" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" s="4"/>
-      <c r="B462" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" s="4"/>
-      <c r="B463" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" s="4"/>
-      <c r="B464" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" s="4"/>
-      <c r="B465" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" s="4"/>
-      <c r="B466" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" s="4"/>
-      <c r="B467" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" s="4"/>
-      <c r="B468" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" s="4"/>
-      <c r="B469" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" s="4"/>
-      <c r="B470" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" s="4"/>
-      <c r="B471" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" s="4"/>
-      <c r="B472" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" s="4"/>
-      <c r="B473" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" s="4"/>
       <c r="B474" t="s">
         <v>5</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ECF25A-4537-43A8-A623-2C30E449E052}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96344E4B-32CA-48A8-B81D-35B40FFDE05C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registrasi" sheetId="1" r:id="rId1"/>
@@ -4692,7 +4692,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A895" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A895" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E918" sqref="E918"/>
     </sheetView>
   </sheetViews>
@@ -16083,8 +16083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171734F-300B-437F-BAE5-46845BE7C47A}">
   <dimension ref="A1:B955"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18015,7 +18015,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
-        <v>4210370018</v>
+        <v>4210301504</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
-        <v>4210377269</v>
+        <v>4210370018</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -18031,7 +18031,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
-        <v>4211003079</v>
+        <v>4210377269</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -18039,7 +18039,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
-        <v>4210652631</v>
+        <v>4211003079</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
-        <v>4210752028</v>
+        <v>4210652631</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -18055,7 +18055,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
-        <v>4210282624</v>
+        <v>4210752028</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -18063,7 +18063,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
-        <v>4210530875</v>
+        <v>4210282624</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -18071,7 +18071,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
-        <v>4210182500</v>
+        <v>4210530875</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -18079,7 +18079,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
-        <v>4210780191</v>
+        <v>4210182500</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -18087,7 +18087,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
-        <v>4210748422</v>
+        <v>4210780191</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -18095,7 +18095,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
-        <v>4210537453</v>
+        <v>4210748422</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -18103,7 +18103,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
-        <v>4210213411</v>
+        <v>4210537453</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -18111,7 +18111,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
-        <v>4210261027</v>
+        <v>4210213411</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -18119,7 +18119,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
-        <v>4210421627</v>
+        <v>4210261027</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -18127,7 +18127,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
-        <v>4211121745</v>
+        <v>4210421627</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -18135,7 +18135,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
-        <v>4210256197</v>
+        <v>4211121745</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -18143,7 +18143,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
-        <v>4210837418</v>
+        <v>4210256197</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -18151,7 +18151,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
-        <v>4210283620</v>
+        <v>4210837418</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -18159,7 +18159,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
-        <v>4210928075</v>
+        <v>4210283620</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -18167,7 +18167,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
-        <v>4210163688</v>
+        <v>4210928075</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
-        <v>4210212879</v>
+        <v>4210163688</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -18183,7 +18183,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
-        <v>4210489208</v>
+        <v>4210212879</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -18191,7 +18191,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
-        <v>4210716858</v>
+        <v>4210489208</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
-        <v>4210065219</v>
+        <v>4210716858</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -18207,7 +18207,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
-        <v>4210941041</v>
+        <v>4210065219</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -18215,7 +18215,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
-        <v>4210534515</v>
+        <v>4210941041</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -18223,7 +18223,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
-        <v>4210204988</v>
+        <v>4210534515</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -18231,7 +18231,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
-        <v>4210097114</v>
+        <v>4210204988</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -18239,7 +18239,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
-        <v>4210377665</v>
+        <v>4210097114</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -18247,7 +18247,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
-        <v>4210500697</v>
+        <v>4210377665</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -18255,7 +18255,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
-        <v>4210646048</v>
+        <v>4210500697</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -18263,7 +18263,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
-        <v>4210113372</v>
+        <v>4210646048</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
@@ -18271,7 +18271,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
-        <v>4210213661</v>
+        <v>4210113372</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -18279,7 +18279,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
-        <v>4210646368</v>
+        <v>4210213661</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
-        <v>4210850923</v>
+        <v>4210366648</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
@@ -18295,7 +18295,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
-        <v>4210936777</v>
+        <v>4210646368</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -18303,7 +18303,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
-        <v>4210596404</v>
+        <v>4210850923</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -18311,7 +18311,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
-        <v>4211119160</v>
+        <v>4210936777</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -18319,7 +18319,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
-        <v>4211029307</v>
+        <v>4210596404</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -18327,7 +18327,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
-        <v>4210533998</v>
+        <v>4211119160</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
@@ -18335,7 +18335,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
-        <v>4210368640</v>
+        <v>4211029307</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -18343,7 +18343,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
-        <v>4210952808</v>
+        <v>4210533998</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -18351,7 +18351,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
-        <v>4210162326</v>
+        <v>4210368640</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
@@ -18359,7 +18359,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
-        <v>4210539791</v>
+        <v>4210952808</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
-        <v>4210415570</v>
+        <v>4210162326</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
-        <v>4210033714</v>
+        <v>4210539791</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
@@ -18383,7 +18383,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
-        <v>4210281106</v>
+        <v>4210415570</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -18391,7 +18391,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
-        <v>4210698032</v>
+        <v>4210033714</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -18399,7 +18399,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
-        <v>4211121133</v>
+        <v>4210281106</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
-        <v>4210406475</v>
+        <v>4210698032</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -18415,7 +18415,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
-        <v>4210592061</v>
+        <v>4211121133</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -18423,7 +18423,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
-        <v>4210774231</v>
+        <v>4210406475</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
-        <v>4211032450</v>
+        <v>4210592061</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -18439,7 +18439,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
-        <v>4210174856</v>
+        <v>4210774231</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -18447,7 +18447,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
-        <v>4210248902</v>
+        <v>4211032450</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -18455,7 +18455,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
-        <v>4210799190</v>
+        <v>4210174856</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
@@ -18463,7 +18463,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
-        <v>4210619540</v>
+        <v>4210248902</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
-        <v>4210608974</v>
+        <v>4210799190</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -18479,7 +18479,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
-        <v>4210301184</v>
+        <v>4210619540</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
-        <v>4210566069</v>
+        <v>4210608974</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -18495,7 +18495,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
-        <v>4210939937</v>
+        <v>4210301184</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
@@ -18503,7 +18503,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
-        <v>4210539165</v>
+        <v>4210566069</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
@@ -18511,7 +18511,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
-        <v>4210250290</v>
+        <v>4210939937</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -18519,7 +18519,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
-        <v>4210662861</v>
+        <v>4210539165</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -18527,7 +18527,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
-        <v>4210414276</v>
+        <v>4210250290</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
@@ -18535,7 +18535,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
-        <v>4210851640</v>
+        <v>4210662861</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -18543,7 +18543,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
-        <v>4210632010</v>
+        <v>4210414276</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -18551,7 +18551,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
-        <v>4210396336</v>
+        <v>4210851640</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -18559,7 +18559,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
-        <v>4210996507</v>
+        <v>4210632010</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
@@ -18567,7 +18567,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
-        <v>4210691687</v>
+        <v>4210396336</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
-        <v>4210451754</v>
+        <v>4210996507</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
-        <v>4211090225</v>
+        <v>4210691687</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
@@ -18591,7 +18591,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
-        <v>4210098148</v>
+        <v>4210451754</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -18599,7 +18599,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
-        <v>4210885374</v>
+        <v>4211090225</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
@@ -18607,7 +18607,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
-        <v>4210429692</v>
+        <v>4210098148</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
@@ -18615,7 +18615,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
-        <v>4210457601</v>
+        <v>4210885374</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
@@ -18623,7 +18623,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
-        <v>4210491196</v>
+        <v>4210429692</v>
       </c>
       <c r="B317" t="s">
         <v>5</v>
@@ -18631,7 +18631,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
-        <v>4210525608</v>
+        <v>4210457601</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -18639,7 +18639,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
-        <v>4210697405</v>
+        <v>4210491196</v>
       </c>
       <c r="B319" t="s">
         <v>5</v>
@@ -18647,7 +18647,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
-        <v>4210769634</v>
+        <v>4210525608</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
@@ -18655,7 +18655,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
-        <v>4210871317</v>
+        <v>4210697405</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
-        <v>4210983409</v>
+        <v>4210769634</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
@@ -18671,7 +18671,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
-        <v>4210831022</v>
+        <v>4210871317</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
@@ -18679,7 +18679,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
-        <v>4210478093</v>
+        <v>4210983409</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
@@ -18687,7 +18687,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
-        <v>4210623671</v>
+        <v>4210831022</v>
       </c>
       <c r="B325" t="s">
         <v>5</v>
@@ -18695,7 +18695,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
-        <v>4210379066</v>
+        <v>4210478093</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
-        <v>4210539266</v>
+        <v>4210623671</v>
       </c>
       <c r="B327" t="s">
         <v>5</v>
@@ -18711,7 +18711,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
-        <v>4210064258</v>
+        <v>4210379066</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
@@ -18719,7 +18719,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
-        <v>4210911529</v>
+        <v>4210539266</v>
       </c>
       <c r="B329" t="s">
         <v>5</v>
@@ -18727,7 +18727,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
-        <v>4210497116</v>
+        <v>4210064258</v>
       </c>
       <c r="B330" t="s">
         <v>5</v>
@@ -18735,7 +18735,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
-        <v>4210862040</v>
+        <v>4210911529</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
@@ -18743,7 +18743,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
-        <v>4210894043</v>
+        <v>4210497116</v>
       </c>
       <c r="B332" t="s">
         <v>5</v>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
-        <v>4211016266</v>
+        <v>4210862040</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -18759,7 +18759,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
-        <v>4210841799</v>
+        <v>4210894043</v>
       </c>
       <c r="B334" t="s">
         <v>5</v>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
-        <v>4210009943</v>
+        <v>4211016266</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
@@ -18775,7 +18775,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
-        <v>4210707172</v>
+        <v>4210841799</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
@@ -18783,7 +18783,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
-        <v>4210003908</v>
+        <v>4210009943</v>
       </c>
       <c r="B337" t="s">
         <v>5</v>
@@ -18791,7 +18791,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
-        <v>4210405234</v>
+        <v>4210707172</v>
       </c>
       <c r="B338" t="s">
         <v>5</v>
@@ -18799,7 +18799,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
-        <v>4210113485</v>
+        <v>4210003908</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
@@ -18807,7 +18807,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
-        <v>4210663417</v>
+        <v>4210405234</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
-        <v>4210185045</v>
+        <v>4210113485</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
@@ -18823,7 +18823,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
-        <v>4210244610</v>
+        <v>4210663417</v>
       </c>
       <c r="B342" t="s">
         <v>5</v>
@@ -18831,7 +18831,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
-        <v>4210521327</v>
+        <v>4210185045</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
-        <v>4210050280</v>
+        <v>4210244610</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
-        <v>4210372229</v>
+        <v>4210521327</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
@@ -18855,7 +18855,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
-        <v>4210326134</v>
+        <v>4210050280</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -18863,7 +18863,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
-        <v>4210790046</v>
+        <v>4210372229</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
-        <v>4210535776</v>
+        <v>4210326134</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
@@ -18879,7 +18879,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
-        <v>4210194157</v>
+        <v>4210790046</v>
       </c>
       <c r="B349" t="s">
         <v>5</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
-        <v>4210359992</v>
+        <v>4210535776</v>
       </c>
       <c r="B350" t="s">
         <v>5</v>
@@ -18895,7 +18895,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
-        <v>4210380505</v>
+        <v>4210194157</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
-        <v>4210417502</v>
+        <v>4210359992</v>
       </c>
       <c r="B352" t="s">
         <v>5</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
-        <v>4210920340</v>
+        <v>4210380505</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
@@ -18919,7 +18919,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
-        <v>4210114589</v>
+        <v>4210417502</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
-        <v>4210273236</v>
+        <v>4210920340</v>
       </c>
       <c r="B355" t="s">
         <v>5</v>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
-        <v>4210270390</v>
+        <v>4210114589</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
@@ -18943,7 +18943,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
-        <v>4210323925</v>
+        <v>4210273236</v>
       </c>
       <c r="B357" t="s">
         <v>5</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
-        <v>4210590170</v>
+        <v>4210270390</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
@@ -18959,7 +18959,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
-        <v>4210893995</v>
+        <v>4210323925</v>
       </c>
       <c r="B359" t="s">
         <v>5</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
-        <v>4210962329</v>
+        <v>4210590170</v>
       </c>
       <c r="B360" t="s">
         <v>5</v>
@@ -18975,7 +18975,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
-        <v>4210019501</v>
+        <v>4210893995</v>
       </c>
       <c r="B361" t="s">
         <v>5</v>
@@ -18983,7 +18983,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
-        <v>4210347993</v>
+        <v>4210962329</v>
       </c>
       <c r="B362" t="s">
         <v>5</v>
@@ -18991,7 +18991,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
-        <v>4210392078</v>
+        <v>4210019501</v>
       </c>
       <c r="B363" t="s">
         <v>5</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
-        <v>4210387120</v>
+        <v>4210347993</v>
       </c>
       <c r="B364" t="s">
         <v>5</v>
@@ -19007,7 +19007,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
-        <v>4210487162</v>
+        <v>4210392078</v>
       </c>
       <c r="B365" t="s">
         <v>5</v>
@@ -19015,7 +19015,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
-        <v>4210842452</v>
+        <v>4210387120</v>
       </c>
       <c r="B366" t="s">
         <v>5</v>
@@ -19023,7 +19023,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
-        <v>4210208571</v>
+        <v>4210487162</v>
       </c>
       <c r="B367" t="s">
         <v>5</v>
@@ -19031,7 +19031,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
-        <v>4211073903</v>
+        <v>4210842452</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
@@ -19039,7 +19039,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
-        <v>4210515989</v>
+        <v>4210208571</v>
       </c>
       <c r="B369" t="s">
         <v>5</v>
@@ -19047,7 +19047,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
-        <v>4210213779</v>
+        <v>4211073903</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
@@ -19055,7 +19055,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
-        <v>4210378870</v>
+        <v>4210515989</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
-        <v>4210702558</v>
+        <v>4210213779</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
@@ -19071,7 +19071,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
-        <v>4210400589</v>
+        <v>4210378870</v>
       </c>
       <c r="B373" t="s">
         <v>5</v>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
-        <v>4210695631</v>
+        <v>4210702558</v>
       </c>
       <c r="B374" t="s">
         <v>5</v>
@@ -19087,7 +19087,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
-        <v>4210810214</v>
+        <v>4210400589</v>
       </c>
       <c r="B375" t="s">
         <v>5</v>
@@ -19095,7 +19095,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
-        <v>4210933570</v>
+        <v>4210695631</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="4">
-        <v>4210420793</v>
+        <v>4210810214</v>
       </c>
       <c r="B377" t="s">
         <v>5</v>
@@ -19111,7 +19111,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
-        <v>4210250376</v>
+        <v>4210933570</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
@@ -19119,7 +19119,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="4">
-        <v>4210407609</v>
+        <v>4210420793</v>
       </c>
       <c r="B379" t="s">
         <v>5</v>
@@ -19127,7 +19127,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
-        <v>4211020443</v>
+        <v>4210250376</v>
       </c>
       <c r="B380" t="s">
         <v>5</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
-        <v>4210599674</v>
+        <v>4210407609</v>
       </c>
       <c r="B381" t="s">
         <v>5</v>
@@ -19143,7 +19143,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
-        <v>4210707793</v>
+        <v>4211020443</v>
       </c>
       <c r="B382" t="s">
         <v>5</v>
@@ -19151,7 +19151,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="4">
-        <v>4210593308</v>
+        <v>4210599674</v>
       </c>
       <c r="B383" t="s">
         <v>5</v>
@@ -19159,7 +19159,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
-        <v>4210326499</v>
+        <v>4210707793</v>
       </c>
       <c r="B384" t="s">
         <v>5</v>
@@ -19167,7 +19167,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
-        <v>4210421903</v>
+        <v>4210593308</v>
       </c>
       <c r="B385" t="s">
         <v>5</v>
@@ -19175,7 +19175,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
-        <v>4210004989</v>
+        <v>4210326499</v>
       </c>
       <c r="B386" t="s">
         <v>5</v>
@@ -19183,7 +19183,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
-        <v>4210178645</v>
+        <v>4210421903</v>
       </c>
       <c r="B387" t="s">
         <v>5</v>
@@ -19191,7 +19191,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
-        <v>4210272357</v>
+        <v>4210004989</v>
       </c>
       <c r="B388" t="s">
         <v>5</v>
@@ -19199,7 +19199,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
-        <v>4210633293</v>
+        <v>4210178645</v>
       </c>
       <c r="B389" t="s">
         <v>5</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
-        <v>4210411957</v>
+        <v>4210272357</v>
       </c>
       <c r="B390" t="s">
         <v>5</v>
@@ -19215,7 +19215,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
-        <v>4210617095</v>
+        <v>4210633293</v>
       </c>
       <c r="B391" t="s">
         <v>5</v>
@@ -19223,7 +19223,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
-        <v>4210152113</v>
+        <v>4210411957</v>
       </c>
       <c r="B392" t="s">
         <v>5</v>
@@ -19231,7 +19231,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
-        <v>4210214619</v>
+        <v>4210617095</v>
       </c>
       <c r="B393" t="s">
         <v>5</v>
@@ -19239,7 +19239,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="4">
-        <v>4210280449</v>
+        <v>4210152113</v>
       </c>
       <c r="B394" t="s">
         <v>5</v>
@@ -19247,7 +19247,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="4">
-        <v>4210866906</v>
+        <v>4210214619</v>
       </c>
       <c r="B395" t="s">
         <v>5</v>
@@ -19255,7 +19255,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="4">
-        <v>4211068812</v>
+        <v>4210280449</v>
       </c>
       <c r="B396" t="s">
         <v>5</v>
@@ -19263,7 +19263,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="4">
-        <v>4210888119</v>
+        <v>4210866906</v>
       </c>
       <c r="B397" t="s">
         <v>5</v>
@@ -19271,7 +19271,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="4">
-        <v>4211052476</v>
+        <v>4211068812</v>
       </c>
       <c r="B398" t="s">
         <v>5</v>
@@ -19279,7 +19279,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="4">
-        <v>4210376988</v>
+        <v>4210888119</v>
       </c>
       <c r="B399" t="s">
         <v>5</v>
@@ -19287,7 +19287,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="4">
-        <v>4210911353</v>
+        <v>4211052476</v>
       </c>
       <c r="B400" t="s">
         <v>5</v>
@@ -19295,7 +19295,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="4">
-        <v>4210924322</v>
+        <v>4210376988</v>
       </c>
       <c r="B401" t="s">
         <v>5</v>
@@ -19303,7 +19303,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
-        <v>4210086965</v>
+        <v>4210911353</v>
       </c>
       <c r="B402" t="s">
         <v>5</v>
@@ -19311,7 +19311,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="4">
-        <v>4210062240</v>
+        <v>4210924322</v>
       </c>
       <c r="B403" t="s">
         <v>5</v>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="4">
-        <v>4210143635</v>
+        <v>4210086965</v>
       </c>
       <c r="B404" t="s">
         <v>5</v>
@@ -19327,7 +19327,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="4">
-        <v>4210281783</v>
+        <v>4210062240</v>
       </c>
       <c r="B405" t="s">
         <v>5</v>
@@ -19335,7 +19335,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="4">
-        <v>4210405046</v>
+        <v>4210143635</v>
       </c>
       <c r="B406" t="s">
         <v>5</v>
@@ -19343,7 +19343,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="4">
-        <v>4210405641</v>
+        <v>4210281783</v>
       </c>
       <c r="B407" t="s">
         <v>5</v>
@@ -19351,7 +19351,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="4">
-        <v>4210593590</v>
+        <v>4210405046</v>
       </c>
       <c r="B408" t="s">
         <v>5</v>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="4">
-        <v>4210751597</v>
+        <v>4210405641</v>
       </c>
       <c r="B409" t="s">
         <v>5</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="4">
-        <v>4210620984</v>
+        <v>4210593590</v>
       </c>
       <c r="B410" t="s">
         <v>5</v>
@@ -19375,7 +19375,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="4">
-        <v>4210036943</v>
+        <v>4210751597</v>
       </c>
       <c r="B411" t="s">
         <v>5</v>
@@ -19383,7 +19383,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="4">
-        <v>4210452458</v>
+        <v>4210620984</v>
       </c>
       <c r="B412" t="s">
         <v>5</v>
@@ -19391,7 +19391,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="4">
-        <v>4210003083</v>
+        <v>4210036943</v>
       </c>
       <c r="B413" t="s">
         <v>5</v>
@@ -19399,7 +19399,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="4">
-        <v>4210383539</v>
+        <v>4210452458</v>
       </c>
       <c r="B414" t="s">
         <v>5</v>
@@ -19407,7 +19407,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="4">
-        <v>4210919520</v>
+        <v>4210003083</v>
       </c>
       <c r="B415" t="s">
         <v>5</v>
@@ -19415,7 +19415,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="4">
-        <v>4210792288</v>
+        <v>4210383539</v>
       </c>
       <c r="B416" t="s">
         <v>5</v>
@@ -19423,7 +19423,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="4">
-        <v>4210240115</v>
+        <v>4210919520</v>
       </c>
       <c r="B417" t="s">
         <v>5</v>
@@ -19431,7 +19431,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="4">
-        <v>4210337882</v>
+        <v>4210792288</v>
       </c>
       <c r="B418" t="s">
         <v>5</v>
@@ -19439,7 +19439,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="4">
-        <v>4210478764</v>
+        <v>4210240115</v>
       </c>
       <c r="B419" t="s">
         <v>5</v>
@@ -19447,7 +19447,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="4">
-        <v>4210483959</v>
+        <v>4210337882</v>
       </c>
       <c r="B420" t="s">
         <v>5</v>
@@ -19455,7 +19455,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="4">
-        <v>4210552779</v>
+        <v>4210478764</v>
       </c>
       <c r="B421" t="s">
         <v>5</v>
@@ -19463,7 +19463,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="4">
-        <v>4210718468</v>
+        <v>4210483959</v>
       </c>
       <c r="B422" t="s">
         <v>5</v>
@@ -19471,7 +19471,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="4">
-        <v>4210974262</v>
+        <v>4210552779</v>
       </c>
       <c r="B423" t="s">
         <v>5</v>
@@ -19479,7 +19479,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="4">
-        <v>4211153726</v>
+        <v>4210718468</v>
       </c>
       <c r="B424" t="s">
         <v>5</v>
@@ -19487,7 +19487,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="4">
-        <v>4210247519</v>
+        <v>4210974262</v>
       </c>
       <c r="B425" t="s">
         <v>5</v>
@@ -19495,7 +19495,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="4">
-        <v>4210530221</v>
+        <v>4211153726</v>
       </c>
       <c r="B426" t="s">
         <v>5</v>
@@ -19503,7 +19503,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="4">
-        <v>4210652133</v>
+        <v>4210247519</v>
       </c>
       <c r="B427" t="s">
         <v>5</v>
@@ -19511,7 +19511,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="4">
-        <v>4210059502</v>
+        <v>4210530221</v>
       </c>
       <c r="B428" t="s">
         <v>5</v>
@@ -19519,7 +19519,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="4">
-        <v>4210097470</v>
+        <v>4210652133</v>
       </c>
       <c r="B429" t="s">
         <v>5</v>
@@ -19527,7 +19527,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="4">
-        <v>4210121557</v>
+        <v>4210059502</v>
       </c>
       <c r="B430" t="s">
         <v>5</v>
@@ -19535,7 +19535,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="4">
-        <v>4210238869</v>
+        <v>4210097470</v>
       </c>
       <c r="B431" t="s">
         <v>5</v>
@@ -19543,7 +19543,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="4">
-        <v>4210407646</v>
+        <v>4210121557</v>
       </c>
       <c r="B432" t="s">
         <v>5</v>
@@ -19551,7 +19551,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="4">
-        <v>4210418911</v>
+        <v>4210238869</v>
       </c>
       <c r="B433" t="s">
         <v>5</v>
@@ -19559,7 +19559,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="4">
-        <v>4210853143</v>
+        <v>4210407646</v>
       </c>
       <c r="B434" t="s">
         <v>5</v>
@@ -19567,7 +19567,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="4">
-        <v>4210960649</v>
+        <v>4210418911</v>
       </c>
       <c r="B435" t="s">
         <v>5</v>
@@ -19575,7 +19575,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="4">
-        <v>4211013963</v>
+        <v>4210853143</v>
       </c>
       <c r="B436" t="s">
         <v>5</v>
@@ -19583,7 +19583,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="4">
-        <v>4210811627</v>
+        <v>4210960649</v>
       </c>
       <c r="B437" t="s">
         <v>5</v>
@@ -19591,7 +19591,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="4">
-        <v>4210458622</v>
+        <v>4211013963</v>
       </c>
       <c r="B438" t="s">
         <v>5</v>
@@ -19599,7 +19599,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="4">
-        <v>4210671815</v>
+        <v>4210811627</v>
       </c>
       <c r="B439" t="s">
         <v>5</v>
@@ -19607,7 +19607,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="4">
-        <v>4210337818</v>
+        <v>4210458622</v>
       </c>
       <c r="B440" t="s">
         <v>5</v>
@@ -19615,7 +19615,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="4">
-        <v>4210949152</v>
+        <v>4210671815</v>
       </c>
       <c r="B441" t="s">
         <v>5</v>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="4">
-        <v>4210442082</v>
+        <v>4210337818</v>
       </c>
       <c r="B442" t="s">
         <v>5</v>
@@ -19631,7 +19631,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="4">
-        <v>4210634563</v>
+        <v>4210949152</v>
       </c>
       <c r="B443" t="s">
         <v>5</v>
@@ -19639,7 +19639,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="4">
-        <v>4210051155</v>
+        <v>4210442082</v>
       </c>
       <c r="B444" t="s">
         <v>5</v>
@@ -19647,7 +19647,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="4">
-        <v>4210142038</v>
+        <v>4210634563</v>
       </c>
       <c r="B445" t="s">
         <v>5</v>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="4">
-        <v>4210303219</v>
+        <v>4210051155</v>
       </c>
       <c r="B446" t="s">
         <v>5</v>
@@ -19663,7 +19663,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="4">
-        <v>4210427799</v>
+        <v>4210142038</v>
       </c>
       <c r="B447" t="s">
         <v>5</v>
@@ -19671,7 +19671,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="4">
-        <v>4210446245</v>
+        <v>4210303219</v>
       </c>
       <c r="B448" t="s">
         <v>5</v>
@@ -19679,7 +19679,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="4">
-        <v>4210629760</v>
+        <v>4210427799</v>
       </c>
       <c r="B449" t="s">
         <v>5</v>
@@ -19687,7 +19687,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="4">
-        <v>4210939924</v>
+        <v>4210446245</v>
       </c>
       <c r="B450" t="s">
         <v>5</v>
@@ -19695,7 +19695,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="4">
-        <v>4210207233</v>
+        <v>4210629760</v>
       </c>
       <c r="B451" t="s">
         <v>5</v>
@@ -19703,7 +19703,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="4">
-        <v>4210901008</v>
+        <v>4210939924</v>
       </c>
       <c r="B452" t="s">
         <v>5</v>
@@ -19711,7 +19711,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="4">
-        <v>4210423569</v>
+        <v>4210207233</v>
       </c>
       <c r="B453" t="s">
         <v>5</v>
@@ -19719,7 +19719,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="4">
-        <v>4210487451</v>
+        <v>4210901008</v>
       </c>
       <c r="B454" t="s">
         <v>5</v>
@@ -19727,7 +19727,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="4">
-        <v>4210607124</v>
+        <v>4210423569</v>
       </c>
       <c r="B455" t="s">
         <v>5</v>
@@ -19735,7 +19735,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="4">
-        <v>4210669592</v>
+        <v>4210487451</v>
       </c>
       <c r="B456" t="s">
         <v>5</v>
@@ -19743,7 +19743,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="4">
-        <v>4210436566</v>
+        <v>4210607124</v>
       </c>
       <c r="B457" t="s">
         <v>5</v>
@@ -19751,7 +19751,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="4">
-        <v>4210534852</v>
+        <v>4210669592</v>
       </c>
       <c r="B458" t="s">
         <v>5</v>
@@ -19759,7 +19759,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="4">
-        <v>4210001844</v>
+        <v>4210436566</v>
       </c>
       <c r="B459" t="s">
         <v>5</v>
@@ -19767,7 +19767,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="4">
-        <v>4210110289</v>
+        <v>4210534852</v>
       </c>
       <c r="B460" t="s">
         <v>5</v>
@@ -19775,7 +19775,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="4">
-        <v>4210417607</v>
+        <v>4210001844</v>
       </c>
       <c r="B461" t="s">
         <v>5</v>
@@ -19783,7 +19783,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="4">
-        <v>4210970594</v>
+        <v>4210110289</v>
       </c>
       <c r="B462" t="s">
         <v>5</v>
@@ -19791,7 +19791,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="4">
-        <v>4210388883</v>
+        <v>4210417607</v>
       </c>
       <c r="B463" t="s">
         <v>5</v>
@@ -19799,7 +19799,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="4">
-        <v>4210622646</v>
+        <v>4210554776</v>
       </c>
       <c r="B464" t="s">
         <v>5</v>
@@ -19807,7 +19807,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="4">
-        <v>4210049002</v>
+        <v>4210970594</v>
       </c>
       <c r="B465" t="s">
         <v>5</v>
@@ -19815,7 +19815,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="4">
-        <v>4210905356</v>
+        <v>4210388883</v>
       </c>
       <c r="B466" t="s">
         <v>5</v>
@@ -19823,7 +19823,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="4">
-        <v>4210750427</v>
+        <v>4210622646</v>
       </c>
       <c r="B467" t="s">
         <v>5</v>
@@ -19831,7 +19831,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="4">
-        <v>4210690219</v>
+        <v>4210049002</v>
       </c>
       <c r="B468" t="s">
         <v>5</v>
@@ -19839,7 +19839,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="4">
-        <v>4210544812</v>
+        <v>4210905356</v>
       </c>
       <c r="B469" t="s">
         <v>5</v>
@@ -19847,7 +19847,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="4">
-        <v>4210374075</v>
+        <v>4210750427</v>
       </c>
       <c r="B470" t="s">
         <v>5</v>
@@ -19855,7 +19855,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="4">
-        <v>4211172188</v>
+        <v>4210690219</v>
       </c>
       <c r="B471" t="s">
         <v>5</v>
@@ -19863,7 +19863,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="4">
-        <v>4210918088</v>
+        <v>4210544812</v>
       </c>
       <c r="B472" t="s">
         <v>5</v>
@@ -19871,7 +19871,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="4">
-        <v>4210245439</v>
+        <v>4210374075</v>
       </c>
       <c r="B473" t="s">
         <v>5</v>
@@ -19879,26 +19879,32 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="4">
+        <v>4211172188</v>
+      </c>
+      <c r="B474" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="4">
+        <v>4210918088</v>
+      </c>
+      <c r="B475" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" s="4">
+        <v>4210245439</v>
+      </c>
+      <c r="B476" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" s="4">
         <v>4210276653</v>
       </c>
-      <c r="B474" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" s="4"/>
-      <c r="B475" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" s="4"/>
-      <c r="B476" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" s="4"/>
       <c r="B477" t="s">
         <v>5</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96344E4B-32CA-48A8-B81D-35B40FFDE05C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987ED5EB-561B-4170-B665-168BCF955EB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16083,8 +16083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171734F-300B-437F-BAE5-46845BE7C47A}">
   <dimension ref="A1:B955"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="F536" sqref="F536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16207,7 +16207,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>4210216114</v>
+        <v>4210598011</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -16215,7 +16215,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>4210961490</v>
+        <v>4210216114</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -16223,7 +16223,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>4210375886</v>
+        <v>4210961490</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -16231,7 +16231,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>4210344078</v>
+        <v>4210375886</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>4210574089</v>
+        <v>4210344078</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -16247,7 +16247,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>4210371025</v>
+        <v>4210574089</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -16255,7 +16255,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>4210615341</v>
+        <v>4210371025</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>4211020605</v>
+        <v>4210615341</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -16271,7 +16271,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>4210733151</v>
+        <v>4211020605</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -16279,7 +16279,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>4210266290</v>
+        <v>4210733151</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -16287,7 +16287,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>4210732255</v>
+        <v>4210266290</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -16295,7 +16295,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>4210652895</v>
+        <v>4210732255</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -16303,7 +16303,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>4210262295</v>
+        <v>4210652895</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -16311,7 +16311,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>4210000179</v>
+        <v>4210262295</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -16319,7 +16319,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>4210420939</v>
+        <v>4210000179</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>4210267931</v>
+        <v>4210420939</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -16335,7 +16335,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>4210701872</v>
+        <v>4210267931</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -16343,7 +16343,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>4210254607</v>
+        <v>4210701872</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>4210556661</v>
+        <v>4210254607</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -16359,7 +16359,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>4210034578</v>
+        <v>4210556661</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>4210044558</v>
+        <v>4210034578</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -16375,7 +16375,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>4210090554</v>
+        <v>4210044558</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -16383,7 +16383,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>4210252068</v>
+        <v>4210090554</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -16391,7 +16391,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>4210404572</v>
+        <v>4210252068</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>4210419667</v>
+        <v>4210322467</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>4210791799</v>
+        <v>4210404572</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>4210876639</v>
+        <v>4210419667</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>4210593515</v>
+        <v>4210683668</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -16431,7 +16431,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>4210613161</v>
+        <v>4210791799</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -16439,7 +16439,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>4210967138</v>
+        <v>4211001264</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -16447,7 +16447,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>4210771684</v>
+        <v>4210876639</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -16455,7 +16455,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>4210708235</v>
+        <v>4210593515</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -16463,7 +16463,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>4210932363</v>
+        <v>4210613161</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -16471,7 +16471,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>4210766426</v>
+        <v>4210967138</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -16479,7 +16479,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>4210371603</v>
+        <v>4210771684</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -16487,7 +16487,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>4210608174</v>
+        <v>4210708235</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -16495,7 +16495,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>4210406120</v>
+        <v>4210932363</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>4210091709</v>
+        <v>4210766426</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -16511,7 +16511,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>4210034267</v>
+        <v>4210371603</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>4210307216</v>
+        <v>4210608174</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -16527,7 +16527,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>4210394400</v>
+        <v>4210406120</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -16535,7 +16535,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>4210394946</v>
+        <v>4210091709</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -16543,7 +16543,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>4210415206</v>
+        <v>4210034267</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -16551,7 +16551,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>4210511277</v>
+        <v>4210141892</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -16559,7 +16559,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>4210831159</v>
+        <v>4210307216</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -16567,7 +16567,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>4210188182</v>
+        <v>4210394400</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -16575,7 +16575,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>4210673584</v>
+        <v>4210394946</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -16583,7 +16583,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>4210706642</v>
+        <v>4210413345</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>4210731416</v>
+        <v>4210415206</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -16599,7 +16599,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>4211013807</v>
+        <v>4210437917</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -16607,7 +16607,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>4210278444</v>
+        <v>4210511277</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -16615,7 +16615,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>4211018005</v>
+        <v>4210592672</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -16623,7 +16623,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>4210532588</v>
+        <v>4210822447</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -16631,7 +16631,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>4210929697</v>
+        <v>4210831159</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -16639,7 +16639,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>4210003837</v>
+        <v>4210188182</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -16647,7 +16647,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>4210326018</v>
+        <v>4210673584</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -16655,7 +16655,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>4210342798</v>
+        <v>4210706642</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -16663,7 +16663,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>4210391139</v>
+        <v>4210731416</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>4210393571</v>
+        <v>4211013807</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -16679,7 +16679,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>4210635825</v>
+        <v>4210278444</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -16687,7 +16687,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>4210843009</v>
+        <v>4211018005</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -16695,7 +16695,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>4210945949</v>
+        <v>4210532588</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -16703,7 +16703,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>4210204827</v>
+        <v>4210929697</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -16711,7 +16711,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>4210563716</v>
+        <v>4210003837</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -16719,7 +16719,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>4210224238</v>
+        <v>4210326018</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -16727,7 +16727,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>4210398396</v>
+        <v>4210342446</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -16735,7 +16735,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>4210912284</v>
+        <v>4210342798</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -16743,7 +16743,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>4210190103</v>
+        <v>4210391139</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -16751,7 +16751,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>4210566641</v>
+        <v>4210393571</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>4210213587</v>
+        <v>4210558291</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -16767,7 +16767,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>4210003545</v>
+        <v>4210635825</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -16775,7 +16775,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>4210600446</v>
+        <v>4210843009</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -16783,7 +16783,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>4211151623</v>
+        <v>4210945949</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -16791,7 +16791,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>4210214048</v>
+        <v>4210204827</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -16799,7 +16799,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>4210853920</v>
+        <v>4210563716</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>4210610562</v>
+        <v>4210224238</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -16815,7 +16815,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>4210317095</v>
+        <v>4210398396</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -16823,7 +16823,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>4210394741</v>
+        <v>4210912284</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -16831,7 +16831,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>4210447996</v>
+        <v>4210190103</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -16839,7 +16839,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>4210501502</v>
+        <v>4210479488</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -16847,7 +16847,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>4211105440</v>
+        <v>4210566641</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -16855,7 +16855,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>4211016693</v>
+        <v>4211161809</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -16863,7 +16863,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>4211074617</v>
+        <v>4210213587</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -16871,7 +16871,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>4210754698</v>
+        <v>4210003545</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -16879,7 +16879,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>4210926050</v>
+        <v>4210600446</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -16887,7 +16887,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>4210370471</v>
+        <v>4211151623</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -16895,7 +16895,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>4210806413</v>
+        <v>4210214048</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -16903,7 +16903,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>4210522771</v>
+        <v>4210853920</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -16911,7 +16911,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>4210542091</v>
+        <v>4210610562</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -16919,7 +16919,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>4210222026</v>
+        <v>4210317095</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -16927,7 +16927,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>4210479887</v>
+        <v>4210292583</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -16935,7 +16935,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>4210921361</v>
+        <v>4210394741</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>4210482370</v>
+        <v>4210447996</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -16951,7 +16951,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>4210167551</v>
+        <v>4210501502</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -16959,7 +16959,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>4210673655</v>
+        <v>4211105440</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -16967,7 +16967,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>4210887790</v>
+        <v>4211016693</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -16975,7 +16975,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>4210221322</v>
+        <v>4211074617</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -16983,7 +16983,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>4210753622</v>
+        <v>4210754698</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -16991,7 +16991,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>4210482629</v>
+        <v>4210926050</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -16999,7 +16999,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>4210843672</v>
+        <v>4210370471</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -17007,7 +17007,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>4210523147</v>
+        <v>4210806413</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -17015,7 +17015,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>4211060527</v>
+        <v>4210522771</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -17023,7 +17023,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>4210424698</v>
+        <v>4210542091</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -17031,7 +17031,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>4210406049</v>
+        <v>4210222026</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -17039,7 +17039,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>4210639267</v>
+        <v>4210994527</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -17047,7 +17047,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>4211057865</v>
+        <v>4210479887</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -17055,7 +17055,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>4210345052</v>
+        <v>4210646191</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -17063,7 +17063,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>4210712809</v>
+        <v>4210921361</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -17071,7 +17071,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>4210121891</v>
+        <v>4210586606</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>4210893730</v>
+        <v>4210482370</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -17087,7 +17087,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>4211056408</v>
+        <v>4210167551</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>4210535673</v>
+        <v>4210673655</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -17103,7 +17103,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>4210500818</v>
+        <v>4210887790</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -17111,7 +17111,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>4210062548</v>
+        <v>4210221322</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>4210086465</v>
+        <v>4210753622</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -17127,7 +17127,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>4210133586</v>
+        <v>4210482629</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -17135,7 +17135,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>4210389070</v>
+        <v>4210843672</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>4210415044</v>
+        <v>4210523147</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -17151,7 +17151,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>4210645803</v>
+        <v>4211060527</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -17159,7 +17159,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>4210836933</v>
+        <v>4210424698</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -17167,7 +17167,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>4210878489</v>
+        <v>4210406049</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -17175,7 +17175,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>4210920767</v>
+        <v>4210639267</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -17183,7 +17183,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>4210665237</v>
+        <v>4211057865</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -17191,7 +17191,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>4210057744</v>
+        <v>4210345052</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -17199,7 +17199,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>4211131368</v>
+        <v>4210712809</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -17207,7 +17207,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>4210208750</v>
+        <v>4210121891</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -17215,7 +17215,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>4210586900</v>
+        <v>4210893730</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -17223,7 +17223,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>4210433177</v>
+        <v>4211056408</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -17231,7 +17231,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>4210911313</v>
+        <v>4210535673</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -17239,7 +17239,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>4210745675</v>
+        <v>4210500818</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -17247,7 +17247,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>4211122411</v>
+        <v>4210062548</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -17255,7 +17255,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>4210855921</v>
+        <v>4210086465</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -17263,7 +17263,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>4210009062</v>
+        <v>4210133586</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -17271,7 +17271,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>4210648248</v>
+        <v>4210389070</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>4210356297</v>
+        <v>4210415044</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -17287,7 +17287,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>4210152801</v>
+        <v>4210597778</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -17295,7 +17295,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>4210086596</v>
+        <v>4210645803</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -17303,7 +17303,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>4211058112</v>
+        <v>4210690272</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>4210411973</v>
+        <v>4210830351</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>4211010219</v>
+        <v>4210836933</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -17327,7 +17327,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>4210273020</v>
+        <v>4210878489</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -17335,7 +17335,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>4210264695</v>
+        <v>4210920767</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -17343,7 +17343,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>4210930375</v>
+        <v>4210665237</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -17351,7 +17351,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>4210242756</v>
+        <v>4210057744</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -17359,7 +17359,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>4210253167</v>
+        <v>4211131368</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -17367,7 +17367,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>4210921232</v>
+        <v>4210208750</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>4210973302</v>
+        <v>4210586900</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -17383,7 +17383,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>4211014355</v>
+        <v>4210433177</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
-        <v>4210122458</v>
+        <v>4210911313</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -17399,7 +17399,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
-        <v>4210621591</v>
+        <v>4210745675</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
-        <v>4210474468</v>
+        <v>4211122411</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -17415,7 +17415,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
-        <v>4210392055</v>
+        <v>4210855921</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -17423,7 +17423,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
-        <v>4210144557</v>
+        <v>4210009062</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -17431,7 +17431,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
-        <v>4210806396</v>
+        <v>4210648248</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -17439,7 +17439,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
-        <v>4210059000</v>
+        <v>4210356297</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -17447,7 +17447,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
-        <v>4211050835</v>
+        <v>4210152801</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -17455,7 +17455,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
-        <v>4210941334</v>
+        <v>4210086596</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -17463,7 +17463,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
-        <v>4210073431</v>
+        <v>4211058112</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -17471,7 +17471,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
-        <v>4210321387</v>
+        <v>4210411973</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -17479,7 +17479,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
-        <v>4210951981</v>
+        <v>4211010219</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -17487,7 +17487,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
-        <v>4211183842</v>
+        <v>4210273020</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
-        <v>4211190937</v>
+        <v>4210264695</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -17503,7 +17503,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
-        <v>4210264951</v>
+        <v>4210930375</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -17511,7 +17511,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <v>4210229661</v>
+        <v>4210242756</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -17519,7 +17519,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
-        <v>4210815491</v>
+        <v>4210140390</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -17527,7 +17527,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
-        <v>4210842072</v>
+        <v>4210253167</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -17535,7 +17535,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
-        <v>4210497292</v>
+        <v>4210502557</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
-        <v>4210984821</v>
+        <v>4210921232</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -17551,7 +17551,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
-        <v>4210185227</v>
+        <v>4210973302</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -17559,7 +17559,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
-        <v>4210151586</v>
+        <v>4211096801</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -17567,7 +17567,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
-        <v>4210791646</v>
+        <v>4211014355</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
-        <v>4211014966</v>
+        <v>4210122458</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
-        <v>4211039341</v>
+        <v>4210621591</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -17591,7 +17591,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
-        <v>4210267013</v>
+        <v>4210474468</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
-        <v>4210385160</v>
+        <v>4210392055</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -17607,7 +17607,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
-        <v>4210457607</v>
+        <v>4210144557</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -17615,7 +17615,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
-        <v>4210142349</v>
+        <v>4210806396</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -17623,7 +17623,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
-        <v>4210383149</v>
+        <v>4210059000</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -17631,7 +17631,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
-        <v>4210424900</v>
+        <v>4211050835</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -17639,7 +17639,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
-        <v>4210769887</v>
+        <v>4210941334</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
-        <v>4210997472</v>
+        <v>4210073431</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -17655,7 +17655,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
-        <v>4211157478</v>
+        <v>4210321387</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -17663,7 +17663,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
-        <v>4210117447</v>
+        <v>4210951981</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -17671,7 +17671,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
-        <v>4210151088</v>
+        <v>4211183842</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -17679,7 +17679,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
-        <v>4210176463</v>
+        <v>4211190937</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -17687,7 +17687,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
-        <v>4211024353</v>
+        <v>4210264951</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -17695,7 +17695,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
-        <v>4210047154</v>
+        <v>4210229661</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -17703,7 +17703,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
-        <v>4210182855</v>
+        <v>4210815491</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -17711,7 +17711,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
-        <v>4210994649</v>
+        <v>4210842072</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -17719,7 +17719,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
-        <v>4210450687</v>
+        <v>4210497292</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -17727,7 +17727,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
-        <v>4210922651</v>
+        <v>4210984821</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -17735,7 +17735,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
-        <v>4210167563</v>
+        <v>4210185227</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -17743,7 +17743,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
-        <v>4210357001</v>
+        <v>4210151586</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
-        <v>4210452807</v>
+        <v>4210791646</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
-        <v>4210711324</v>
+        <v>4211014966</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -17767,7 +17767,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
-        <v>4210762861</v>
+        <v>4211039341</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -17775,7 +17775,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
-        <v>4210147981</v>
+        <v>4210267013</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -17783,7 +17783,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
-        <v>4210257649</v>
+        <v>4210385160</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -17791,7 +17791,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
-        <v>4210402143</v>
+        <v>4210457607</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -17799,7 +17799,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
-        <v>4210523156</v>
+        <v>4210354861</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -17807,7 +17807,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
-        <v>4210823515</v>
+        <v>4210043894</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -17815,7 +17815,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
-        <v>4210115162</v>
+        <v>4210122182</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -17823,7 +17823,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
-        <v>4210612098</v>
+        <v>4210141517</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -17831,7 +17831,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
-        <v>4210368642</v>
+        <v>4210142349</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -17839,7 +17839,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
-        <v>4210764690</v>
+        <v>4210383149</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -17847,7 +17847,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
-        <v>4211047440</v>
+        <v>4210424900</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -17855,7 +17855,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
-        <v>4210691393</v>
+        <v>4210622386</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -17863,7 +17863,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
-        <v>4210986456</v>
+        <v>4210769887</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -17871,7 +17871,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
-        <v>4210701833</v>
+        <v>4210997472</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -17879,7 +17879,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
-        <v>4210388739</v>
+        <v>4211157478</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -17887,7 +17887,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
-        <v>4211121228</v>
+        <v>4210117447</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -17895,7 +17895,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
-        <v>4210891162</v>
+        <v>4210151088</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -17903,7 +17903,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
-        <v>4210685145</v>
+        <v>4210176463</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -17911,7 +17911,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
-        <v>4210230359</v>
+        <v>4211024353</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -17919,7 +17919,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
-        <v>4210420336</v>
+        <v>4210047154</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -17927,7 +17927,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
-        <v>4210476751</v>
+        <v>4210182855</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -17935,7 +17935,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
-        <v>4210671598</v>
+        <v>4210994649</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -17943,7 +17943,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
-        <v>4210673461</v>
+        <v>4210450687</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -17951,7 +17951,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
-        <v>4210697216</v>
+        <v>4210922651</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -17959,7 +17959,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
-        <v>4210851034</v>
+        <v>4210072470</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -17967,7 +17967,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
-        <v>4211039879</v>
+        <v>4210167563</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -17975,7 +17975,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
-        <v>4210440787</v>
+        <v>4210194296</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
-        <v>4210985823</v>
+        <v>4210357001</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -17991,7 +17991,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
-        <v>4210396117</v>
+        <v>4210452807</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
-        <v>4210209432</v>
+        <v>4210711324</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -18007,7 +18007,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
-        <v>4210466625</v>
+        <v>4210762861</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -18015,7 +18015,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
-        <v>4210301504</v>
+        <v>4210992519</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
-        <v>4210370018</v>
+        <v>4210147981</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -18031,7 +18031,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
-        <v>4210377269</v>
+        <v>4210257649</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -18039,7 +18039,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
-        <v>4211003079</v>
+        <v>4210402143</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
-        <v>4210652631</v>
+        <v>4210523156</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -18055,7 +18055,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
-        <v>4210752028</v>
+        <v>4210823515</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -18063,7 +18063,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
-        <v>4210282624</v>
+        <v>4210115162</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -18071,7 +18071,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
-        <v>4210530875</v>
+        <v>4210612098</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -18079,7 +18079,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
-        <v>4210182500</v>
+        <v>4210368642</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -18087,7 +18087,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
-        <v>4210780191</v>
+        <v>4210166153</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -18095,7 +18095,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
-        <v>4210748422</v>
+        <v>4210583026</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -18103,7 +18103,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
-        <v>4210537453</v>
+        <v>4210764690</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -18111,7 +18111,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
-        <v>4210213411</v>
+        <v>4211047440</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -18119,7 +18119,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
-        <v>4210261027</v>
+        <v>4210691393</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -18127,7 +18127,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
-        <v>4210421627</v>
+        <v>4210986456</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -18135,7 +18135,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
-        <v>4211121745</v>
+        <v>4210701833</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -18143,7 +18143,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
-        <v>4210256197</v>
+        <v>4210388739</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -18151,7 +18151,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
-        <v>4210837418</v>
+        <v>4211121228</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -18159,7 +18159,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
-        <v>4210283620</v>
+        <v>4210891162</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -18167,7 +18167,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
-        <v>4210928075</v>
+        <v>4210685145</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
-        <v>4210163688</v>
+        <v>4210179613</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -18183,7 +18183,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
-        <v>4210212879</v>
+        <v>4210230359</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -18191,7 +18191,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
-        <v>4210489208</v>
+        <v>4210420336</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
-        <v>4210716858</v>
+        <v>4210476751</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -18207,7 +18207,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
-        <v>4210065219</v>
+        <v>4210671598</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -18215,7 +18215,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
-        <v>4210941041</v>
+        <v>4210673461</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -18223,7 +18223,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
-        <v>4210534515</v>
+        <v>4210697216</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -18231,7 +18231,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
-        <v>4210204988</v>
+        <v>4210851034</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -18239,7 +18239,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
-        <v>4210097114</v>
+        <v>4211039879</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -18247,7 +18247,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
-        <v>4210377665</v>
+        <v>4210440787</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -18255,7 +18255,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
-        <v>4210500697</v>
+        <v>4210985823</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -18263,7 +18263,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
-        <v>4210646048</v>
+        <v>4210396117</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
@@ -18271,7 +18271,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
-        <v>4210113372</v>
+        <v>4210209432</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -18279,7 +18279,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
-        <v>4210213661</v>
+        <v>4210466625</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
-        <v>4210366648</v>
+        <v>4210050876</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
@@ -18295,7 +18295,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
-        <v>4210646368</v>
+        <v>4210178048</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -18303,7 +18303,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
-        <v>4210850923</v>
+        <v>4210301504</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -18311,7 +18311,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
-        <v>4210936777</v>
+        <v>4210370018</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -18319,7 +18319,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
-        <v>4210596404</v>
+        <v>4210377269</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -18327,7 +18327,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
-        <v>4211119160</v>
+        <v>4210573384</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
@@ -18335,7 +18335,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
-        <v>4211029307</v>
+        <v>4211003079</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -18343,7 +18343,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
-        <v>4210533998</v>
+        <v>4210652631</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -18351,7 +18351,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
-        <v>4210368640</v>
+        <v>4210752028</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
@@ -18359,7 +18359,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
-        <v>4210952808</v>
+        <v>4210282624</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
-        <v>4210162326</v>
+        <v>4210530875</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
-        <v>4210539791</v>
+        <v>4210182500</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
@@ -18383,7 +18383,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
-        <v>4210415570</v>
+        <v>4210780191</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -18391,7 +18391,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
-        <v>4210033714</v>
+        <v>4210748422</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -18399,7 +18399,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
-        <v>4210281106</v>
+        <v>4210537453</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
-        <v>4210698032</v>
+        <v>4210213411</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -18415,7 +18415,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
-        <v>4211121133</v>
+        <v>4210261027</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -18423,7 +18423,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
-        <v>4210406475</v>
+        <v>4210329350</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
-        <v>4210592061</v>
+        <v>4210421627</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -18439,7 +18439,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
-        <v>4210774231</v>
+        <v>4211121745</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -18447,7 +18447,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
-        <v>4211032450</v>
+        <v>4210256197</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -18455,7 +18455,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
-        <v>4210174856</v>
+        <v>4210837418</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
@@ -18463,7 +18463,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
-        <v>4210248902</v>
+        <v>4210283620</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
-        <v>4210799190</v>
+        <v>4210928075</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -18479,7 +18479,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
-        <v>4210619540</v>
+        <v>4210163688</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
-        <v>4210608974</v>
+        <v>4210212879</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -18495,7 +18495,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
-        <v>4210301184</v>
+        <v>4210489208</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
@@ -18503,7 +18503,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
-        <v>4210566069</v>
+        <v>4210716858</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
@@ -18511,7 +18511,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
-        <v>4210939937</v>
+        <v>4210065219</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -18519,7 +18519,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
-        <v>4210539165</v>
+        <v>4210941041</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -18527,7 +18527,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
-        <v>4210250290</v>
+        <v>4210534515</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
@@ -18535,7 +18535,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
-        <v>4210662861</v>
+        <v>4210204988</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -18543,7 +18543,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
-        <v>4210414276</v>
+        <v>4210097114</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -18551,7 +18551,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
-        <v>4210851640</v>
+        <v>4210377665</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -18559,7 +18559,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
-        <v>4210632010</v>
+        <v>4210500697</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
@@ -18567,7 +18567,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
-        <v>4210396336</v>
+        <v>4210646048</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
-        <v>4210996507</v>
+        <v>4210113372</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
-        <v>4210691687</v>
+        <v>4210213661</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
@@ -18591,7 +18591,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
-        <v>4210451754</v>
+        <v>4210366648</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -18599,7 +18599,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
-        <v>4211090225</v>
+        <v>4210598087</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
@@ -18607,7 +18607,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
-        <v>4210098148</v>
+        <v>4210646368</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
@@ -18615,7 +18615,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
-        <v>4210885374</v>
+        <v>4210850923</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
@@ -18623,7 +18623,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
-        <v>4210429692</v>
+        <v>4210936777</v>
       </c>
       <c r="B317" t="s">
         <v>5</v>
@@ -18631,7 +18631,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
-        <v>4210457601</v>
+        <v>4210596404</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -18639,7 +18639,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
-        <v>4210491196</v>
+        <v>4211119160</v>
       </c>
       <c r="B319" t="s">
         <v>5</v>
@@ -18647,7 +18647,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
-        <v>4210525608</v>
+        <v>4211029307</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
@@ -18655,7 +18655,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
-        <v>4210697405</v>
+        <v>4210533998</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
-        <v>4210769634</v>
+        <v>4210368640</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
@@ -18671,7 +18671,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
-        <v>4210871317</v>
+        <v>4210952808</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
@@ -18679,7 +18679,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
-        <v>4210983409</v>
+        <v>4210162326</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
@@ -18687,7 +18687,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
-        <v>4210831022</v>
+        <v>4210539791</v>
       </c>
       <c r="B325" t="s">
         <v>5</v>
@@ -18695,7 +18695,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
-        <v>4210478093</v>
+        <v>4210605310</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
-        <v>4210623671</v>
+        <v>4210655536</v>
       </c>
       <c r="B327" t="s">
         <v>5</v>
@@ -18711,7 +18711,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
-        <v>4210379066</v>
+        <v>4210415570</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
@@ -18719,7 +18719,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
-        <v>4210539266</v>
+        <v>4210033714</v>
       </c>
       <c r="B329" t="s">
         <v>5</v>
@@ -18727,7 +18727,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
-        <v>4210064258</v>
+        <v>4210281106</v>
       </c>
       <c r="B330" t="s">
         <v>5</v>
@@ -18735,7 +18735,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
-        <v>4210911529</v>
+        <v>4210698032</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
@@ -18743,7 +18743,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
-        <v>4210497116</v>
+        <v>4211121133</v>
       </c>
       <c r="B332" t="s">
         <v>5</v>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
-        <v>4210862040</v>
+        <v>4210406475</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -18759,7 +18759,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
-        <v>4210894043</v>
+        <v>4210592061</v>
       </c>
       <c r="B334" t="s">
         <v>5</v>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
-        <v>4211016266</v>
+        <v>4210774231</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
@@ -18775,7 +18775,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
-        <v>4210841799</v>
+        <v>4211032450</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
@@ -18783,7 +18783,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
-        <v>4210009943</v>
+        <v>4210174856</v>
       </c>
       <c r="B337" t="s">
         <v>5</v>
@@ -18791,7 +18791,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
-        <v>4210707172</v>
+        <v>4210248902</v>
       </c>
       <c r="B338" t="s">
         <v>5</v>
@@ -18799,7 +18799,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
-        <v>4210003908</v>
+        <v>4210799190</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
@@ -18807,7 +18807,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
-        <v>4210405234</v>
+        <v>4210619540</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
-        <v>4210113485</v>
+        <v>4210608974</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
@@ -18823,7 +18823,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
-        <v>4210663417</v>
+        <v>4210301184</v>
       </c>
       <c r="B342" t="s">
         <v>5</v>
@@ -18831,7 +18831,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
-        <v>4210185045</v>
+        <v>4210566069</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
-        <v>4210244610</v>
+        <v>4210939937</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
-        <v>4210521327</v>
+        <v>4210539165</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
@@ -18855,7 +18855,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
-        <v>4210050280</v>
+        <v>4210250290</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -18863,7 +18863,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
-        <v>4210372229</v>
+        <v>4210662861</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
-        <v>4210326134</v>
+        <v>4210155525</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
@@ -18879,7 +18879,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
-        <v>4210790046</v>
+        <v>4210414276</v>
       </c>
       <c r="B349" t="s">
         <v>5</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
-        <v>4210535776</v>
+        <v>4210851640</v>
       </c>
       <c r="B350" t="s">
         <v>5</v>
@@ -18895,7 +18895,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
-        <v>4210194157</v>
+        <v>4210632010</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
-        <v>4210359992</v>
+        <v>4210396336</v>
       </c>
       <c r="B352" t="s">
         <v>5</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
-        <v>4210380505</v>
+        <v>4210996507</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
@@ -18919,7 +18919,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
-        <v>4210417502</v>
+        <v>4210691687</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
-        <v>4210920340</v>
+        <v>4210451754</v>
       </c>
       <c r="B355" t="s">
         <v>5</v>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
-        <v>4210114589</v>
+        <v>4211090225</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
@@ -18943,7 +18943,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
-        <v>4210273236</v>
+        <v>4210098148</v>
       </c>
       <c r="B357" t="s">
         <v>5</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
-        <v>4210270390</v>
+        <v>4210885374</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
@@ -18959,7 +18959,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
-        <v>4210323925</v>
+        <v>4210429692</v>
       </c>
       <c r="B359" t="s">
         <v>5</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
-        <v>4210590170</v>
+        <v>4210457601</v>
       </c>
       <c r="B360" t="s">
         <v>5</v>
@@ -18975,7 +18975,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
-        <v>4210893995</v>
+        <v>4210491196</v>
       </c>
       <c r="B361" t="s">
         <v>5</v>
@@ -18983,7 +18983,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
-        <v>4210962329</v>
+        <v>4210525608</v>
       </c>
       <c r="B362" t="s">
         <v>5</v>
@@ -18991,7 +18991,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
-        <v>4210019501</v>
+        <v>4210697405</v>
       </c>
       <c r="B363" t="s">
         <v>5</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
-        <v>4210347993</v>
+        <v>4210769634</v>
       </c>
       <c r="B364" t="s">
         <v>5</v>
@@ -19007,7 +19007,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
-        <v>4210392078</v>
+        <v>4210871317</v>
       </c>
       <c r="B365" t="s">
         <v>5</v>
@@ -19015,7 +19015,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
-        <v>4210387120</v>
+        <v>4210983409</v>
       </c>
       <c r="B366" t="s">
         <v>5</v>
@@ -19023,7 +19023,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
-        <v>4210487162</v>
+        <v>4210831022</v>
       </c>
       <c r="B367" t="s">
         <v>5</v>
@@ -19031,7 +19031,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
-        <v>4210842452</v>
+        <v>4210478093</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
@@ -19039,7 +19039,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
-        <v>4210208571</v>
+        <v>4210623671</v>
       </c>
       <c r="B369" t="s">
         <v>5</v>
@@ -19047,7 +19047,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
-        <v>4211073903</v>
+        <v>4210379066</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
@@ -19055,7 +19055,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
-        <v>4210515989</v>
+        <v>4210539266</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
-        <v>4210213779</v>
+        <v>4210064258</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
@@ -19071,7 +19071,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
-        <v>4210378870</v>
+        <v>4210911529</v>
       </c>
       <c r="B373" t="s">
         <v>5</v>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
-        <v>4210702558</v>
+        <v>4210200416</v>
       </c>
       <c r="B374" t="s">
         <v>5</v>
@@ -19087,7 +19087,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
-        <v>4210400589</v>
+        <v>4210427538</v>
       </c>
       <c r="B375" t="s">
         <v>5</v>
@@ -19095,7 +19095,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
-        <v>4210695631</v>
+        <v>4210497116</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="4">
-        <v>4210810214</v>
+        <v>4210789652</v>
       </c>
       <c r="B377" t="s">
         <v>5</v>
@@ -19111,7 +19111,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
-        <v>4210933570</v>
+        <v>4210862040</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
@@ -19119,7 +19119,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="4">
-        <v>4210420793</v>
+        <v>4210894043</v>
       </c>
       <c r="B379" t="s">
         <v>5</v>
@@ -19127,7 +19127,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
-        <v>4210250376</v>
+        <v>4211016266</v>
       </c>
       <c r="B380" t="s">
         <v>5</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
-        <v>4210407609</v>
+        <v>4210841799</v>
       </c>
       <c r="B381" t="s">
         <v>5</v>
@@ -19143,7 +19143,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
-        <v>4211020443</v>
+        <v>4210009943</v>
       </c>
       <c r="B382" t="s">
         <v>5</v>
@@ -19151,7 +19151,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="4">
-        <v>4210599674</v>
+        <v>4210707172</v>
       </c>
       <c r="B383" t="s">
         <v>5</v>
@@ -19159,7 +19159,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
-        <v>4210707793</v>
+        <v>4210003908</v>
       </c>
       <c r="B384" t="s">
         <v>5</v>
@@ -19167,7 +19167,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
-        <v>4210593308</v>
+        <v>4210405234</v>
       </c>
       <c r="B385" t="s">
         <v>5</v>
@@ -19175,7 +19175,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
-        <v>4210326499</v>
+        <v>4210113485</v>
       </c>
       <c r="B386" t="s">
         <v>5</v>
@@ -19183,7 +19183,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
-        <v>4210421903</v>
+        <v>4210663417</v>
       </c>
       <c r="B387" t="s">
         <v>5</v>
@@ -19191,7 +19191,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
-        <v>4210004989</v>
+        <v>4210185045</v>
       </c>
       <c r="B388" t="s">
         <v>5</v>
@@ -19199,7 +19199,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
-        <v>4210178645</v>
+        <v>4210244610</v>
       </c>
       <c r="B389" t="s">
         <v>5</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
-        <v>4210272357</v>
+        <v>4210386471</v>
       </c>
       <c r="B390" t="s">
         <v>5</v>
@@ -19215,7 +19215,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
-        <v>4210633293</v>
+        <v>4210521327</v>
       </c>
       <c r="B391" t="s">
         <v>5</v>
@@ -19223,7 +19223,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
-        <v>4210411957</v>
+        <v>4211052917</v>
       </c>
       <c r="B392" t="s">
         <v>5</v>
@@ -19231,7 +19231,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
-        <v>4210617095</v>
+        <v>4210050280</v>
       </c>
       <c r="B393" t="s">
         <v>5</v>
@@ -19239,7 +19239,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="4">
-        <v>4210152113</v>
+        <v>4210372229</v>
       </c>
       <c r="B394" t="s">
         <v>5</v>
@@ -19247,7 +19247,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="4">
-        <v>4210214619</v>
+        <v>4210326134</v>
       </c>
       <c r="B395" t="s">
         <v>5</v>
@@ -19255,7 +19255,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="4">
-        <v>4210280449</v>
+        <v>4210790046</v>
       </c>
       <c r="B396" t="s">
         <v>5</v>
@@ -19263,7 +19263,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="4">
-        <v>4210866906</v>
+        <v>4210535776</v>
       </c>
       <c r="B397" t="s">
         <v>5</v>
@@ -19271,7 +19271,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="4">
-        <v>4211068812</v>
+        <v>4210194157</v>
       </c>
       <c r="B398" t="s">
         <v>5</v>
@@ -19279,7 +19279,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="4">
-        <v>4210888119</v>
+        <v>4210359992</v>
       </c>
       <c r="B399" t="s">
         <v>5</v>
@@ -19287,7 +19287,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="4">
-        <v>4211052476</v>
+        <v>4210380505</v>
       </c>
       <c r="B400" t="s">
         <v>5</v>
@@ -19295,7 +19295,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="4">
-        <v>4210376988</v>
+        <v>4210417502</v>
       </c>
       <c r="B401" t="s">
         <v>5</v>
@@ -19303,7 +19303,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
-        <v>4210911353</v>
+        <v>4210920340</v>
       </c>
       <c r="B402" t="s">
         <v>5</v>
@@ -19311,7 +19311,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="4">
-        <v>4210924322</v>
+        <v>4210114589</v>
       </c>
       <c r="B403" t="s">
         <v>5</v>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="4">
-        <v>4210086965</v>
+        <v>4210273236</v>
       </c>
       <c r="B404" t="s">
         <v>5</v>
@@ -19327,7 +19327,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="4">
-        <v>4210062240</v>
+        <v>4210270390</v>
       </c>
       <c r="B405" t="s">
         <v>5</v>
@@ -19335,7 +19335,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="4">
-        <v>4210143635</v>
+        <v>4210161201</v>
       </c>
       <c r="B406" t="s">
         <v>5</v>
@@ -19343,7 +19343,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="4">
-        <v>4210281783</v>
+        <v>4210323925</v>
       </c>
       <c r="B407" t="s">
         <v>5</v>
@@ -19351,7 +19351,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="4">
-        <v>4210405046</v>
+        <v>4210590170</v>
       </c>
       <c r="B408" t="s">
         <v>5</v>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="4">
-        <v>4210405641</v>
+        <v>4210893995</v>
       </c>
       <c r="B409" t="s">
         <v>5</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="4">
-        <v>4210593590</v>
+        <v>4210962329</v>
       </c>
       <c r="B410" t="s">
         <v>5</v>
@@ -19375,7 +19375,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="4">
-        <v>4210751597</v>
+        <v>4210019501</v>
       </c>
       <c r="B411" t="s">
         <v>5</v>
@@ -19383,7 +19383,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="4">
-        <v>4210620984</v>
+        <v>4210347993</v>
       </c>
       <c r="B412" t="s">
         <v>5</v>
@@ -19391,7 +19391,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="4">
-        <v>4210036943</v>
+        <v>4210392078</v>
       </c>
       <c r="B413" t="s">
         <v>5</v>
@@ -19399,7 +19399,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="4">
-        <v>4210452458</v>
+        <v>4210387120</v>
       </c>
       <c r="B414" t="s">
         <v>5</v>
@@ -19407,7 +19407,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="4">
-        <v>4210003083</v>
+        <v>4210487162</v>
       </c>
       <c r="B415" t="s">
         <v>5</v>
@@ -19415,7 +19415,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="4">
-        <v>4210383539</v>
+        <v>4210842452</v>
       </c>
       <c r="B416" t="s">
         <v>5</v>
@@ -19423,7 +19423,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="4">
-        <v>4210919520</v>
+        <v>4210208571</v>
       </c>
       <c r="B417" t="s">
         <v>5</v>
@@ -19431,7 +19431,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="4">
-        <v>4210792288</v>
+        <v>4211073903</v>
       </c>
       <c r="B418" t="s">
         <v>5</v>
@@ -19439,7 +19439,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="4">
-        <v>4210240115</v>
+        <v>4210515989</v>
       </c>
       <c r="B419" t="s">
         <v>5</v>
@@ -19447,7 +19447,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="4">
-        <v>4210337882</v>
+        <v>4210213779</v>
       </c>
       <c r="B420" t="s">
         <v>5</v>
@@ -19455,7 +19455,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="4">
-        <v>4210478764</v>
+        <v>4210309982</v>
       </c>
       <c r="B421" t="s">
         <v>5</v>
@@ -19463,7 +19463,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="4">
-        <v>4210483959</v>
+        <v>4210378870</v>
       </c>
       <c r="B422" t="s">
         <v>5</v>
@@ -19471,7 +19471,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="4">
-        <v>4210552779</v>
+        <v>4210702558</v>
       </c>
       <c r="B423" t="s">
         <v>5</v>
@@ -19479,7 +19479,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="4">
-        <v>4210718468</v>
+        <v>4210400589</v>
       </c>
       <c r="B424" t="s">
         <v>5</v>
@@ -19487,7 +19487,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="4">
-        <v>4210974262</v>
+        <v>4210695631</v>
       </c>
       <c r="B425" t="s">
         <v>5</v>
@@ -19495,7 +19495,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="4">
-        <v>4211153726</v>
+        <v>4210810214</v>
       </c>
       <c r="B426" t="s">
         <v>5</v>
@@ -19503,7 +19503,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="4">
-        <v>4210247519</v>
+        <v>4210933570</v>
       </c>
       <c r="B427" t="s">
         <v>5</v>
@@ -19511,7 +19511,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="4">
-        <v>4210530221</v>
+        <v>4210420793</v>
       </c>
       <c r="B428" t="s">
         <v>5</v>
@@ -19519,7 +19519,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="4">
-        <v>4210652133</v>
+        <v>4210250376</v>
       </c>
       <c r="B429" t="s">
         <v>5</v>
@@ -19527,7 +19527,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="4">
-        <v>4210059502</v>
+        <v>4210407609</v>
       </c>
       <c r="B430" t="s">
         <v>5</v>
@@ -19535,7 +19535,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="4">
-        <v>4210097470</v>
+        <v>4211020443</v>
       </c>
       <c r="B431" t="s">
         <v>5</v>
@@ -19543,7 +19543,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="4">
-        <v>4210121557</v>
+        <v>4210599674</v>
       </c>
       <c r="B432" t="s">
         <v>5</v>
@@ -19551,7 +19551,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="4">
-        <v>4210238869</v>
+        <v>4210707793</v>
       </c>
       <c r="B433" t="s">
         <v>5</v>
@@ -19559,7 +19559,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="4">
-        <v>4210407646</v>
+        <v>4210593308</v>
       </c>
       <c r="B434" t="s">
         <v>5</v>
@@ -19567,7 +19567,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="4">
-        <v>4210418911</v>
+        <v>4210326499</v>
       </c>
       <c r="B435" t="s">
         <v>5</v>
@@ -19575,7 +19575,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="4">
-        <v>4210853143</v>
+        <v>4210421903</v>
       </c>
       <c r="B436" t="s">
         <v>5</v>
@@ -19583,7 +19583,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="4">
-        <v>4210960649</v>
+        <v>4210004989</v>
       </c>
       <c r="B437" t="s">
         <v>5</v>
@@ -19591,7 +19591,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="4">
-        <v>4211013963</v>
+        <v>4210129193</v>
       </c>
       <c r="B438" t="s">
         <v>5</v>
@@ -19599,7 +19599,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="4">
-        <v>4210811627</v>
+        <v>4210178645</v>
       </c>
       <c r="B439" t="s">
         <v>5</v>
@@ -19607,7 +19607,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="4">
-        <v>4210458622</v>
+        <v>4210272357</v>
       </c>
       <c r="B440" t="s">
         <v>5</v>
@@ -19615,7 +19615,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="4">
-        <v>4210671815</v>
+        <v>4210633293</v>
       </c>
       <c r="B441" t="s">
         <v>5</v>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="4">
-        <v>4210337818</v>
+        <v>4210411957</v>
       </c>
       <c r="B442" t="s">
         <v>5</v>
@@ -19631,7 +19631,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="4">
-        <v>4210949152</v>
+        <v>4210617095</v>
       </c>
       <c r="B443" t="s">
         <v>5</v>
@@ -19639,7 +19639,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="4">
-        <v>4210442082</v>
+        <v>4210031752</v>
       </c>
       <c r="B444" t="s">
         <v>5</v>
@@ -19647,7 +19647,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="4">
-        <v>4210634563</v>
+        <v>4210152113</v>
       </c>
       <c r="B445" t="s">
         <v>5</v>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="4">
-        <v>4210051155</v>
+        <v>4210214619</v>
       </c>
       <c r="B446" t="s">
         <v>5</v>
@@ -19663,7 +19663,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="4">
-        <v>4210142038</v>
+        <v>4210280449</v>
       </c>
       <c r="B447" t="s">
         <v>5</v>
@@ -19671,7 +19671,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="4">
-        <v>4210303219</v>
+        <v>4210866906</v>
       </c>
       <c r="B448" t="s">
         <v>5</v>
@@ -19679,7 +19679,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="4">
-        <v>4210427799</v>
+        <v>4211068812</v>
       </c>
       <c r="B449" t="s">
         <v>5</v>
@@ -19687,7 +19687,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="4">
-        <v>4210446245</v>
+        <v>4210888119</v>
       </c>
       <c r="B450" t="s">
         <v>5</v>
@@ -19695,7 +19695,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="4">
-        <v>4210629760</v>
+        <v>4211052476</v>
       </c>
       <c r="B451" t="s">
         <v>5</v>
@@ -19703,7 +19703,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="4">
-        <v>4210939924</v>
+        <v>4210376988</v>
       </c>
       <c r="B452" t="s">
         <v>5</v>
@@ -19711,7 +19711,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="4">
-        <v>4210207233</v>
+        <v>4210911353</v>
       </c>
       <c r="B453" t="s">
         <v>5</v>
@@ -19719,7 +19719,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="4">
-        <v>4210901008</v>
+        <v>4210924322</v>
       </c>
       <c r="B454" t="s">
         <v>5</v>
@@ -19727,7 +19727,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="4">
-        <v>4210423569</v>
+        <v>4210086965</v>
       </c>
       <c r="B455" t="s">
         <v>5</v>
@@ -19735,7 +19735,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="4">
-        <v>4210487451</v>
+        <v>4210398274</v>
       </c>
       <c r="B456" t="s">
         <v>5</v>
@@ -19743,7 +19743,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="4">
-        <v>4210607124</v>
+        <v>4210062240</v>
       </c>
       <c r="B457" t="s">
         <v>5</v>
@@ -19751,7 +19751,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="4">
-        <v>4210669592</v>
+        <v>4210143635</v>
       </c>
       <c r="B458" t="s">
         <v>5</v>
@@ -19759,7 +19759,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="4">
-        <v>4210436566</v>
+        <v>4210281783</v>
       </c>
       <c r="B459" t="s">
         <v>5</v>
@@ -19767,7 +19767,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="4">
-        <v>4210534852</v>
+        <v>4210405046</v>
       </c>
       <c r="B460" t="s">
         <v>5</v>
@@ -19775,7 +19775,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="4">
-        <v>4210001844</v>
+        <v>4210405641</v>
       </c>
       <c r="B461" t="s">
         <v>5</v>
@@ -19783,7 +19783,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="4">
-        <v>4210110289</v>
+        <v>4210593590</v>
       </c>
       <c r="B462" t="s">
         <v>5</v>
@@ -19791,7 +19791,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="4">
-        <v>4210417607</v>
+        <v>4210751597</v>
       </c>
       <c r="B463" t="s">
         <v>5</v>
@@ -19799,7 +19799,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="4">
-        <v>4210554776</v>
+        <v>4210620984</v>
       </c>
       <c r="B464" t="s">
         <v>5</v>
@@ -19807,7 +19807,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="4">
-        <v>4210970594</v>
+        <v>4210036943</v>
       </c>
       <c r="B465" t="s">
         <v>5</v>
@@ -19815,7 +19815,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="4">
-        <v>4210388883</v>
+        <v>4210452458</v>
       </c>
       <c r="B466" t="s">
         <v>5</v>
@@ -19823,7 +19823,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="4">
-        <v>4210622646</v>
+        <v>4210003083</v>
       </c>
       <c r="B467" t="s">
         <v>5</v>
@@ -19831,7 +19831,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="4">
-        <v>4210049002</v>
+        <v>4210383539</v>
       </c>
       <c r="B468" t="s">
         <v>5</v>
@@ -19839,7 +19839,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="4">
-        <v>4210905356</v>
+        <v>4210919520</v>
       </c>
       <c r="B469" t="s">
         <v>5</v>
@@ -19847,7 +19847,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="4">
-        <v>4210750427</v>
+        <v>4210792288</v>
       </c>
       <c r="B470" t="s">
         <v>5</v>
@@ -19855,7 +19855,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="4">
-        <v>4210690219</v>
+        <v>4210115884</v>
       </c>
       <c r="B471" t="s">
         <v>5</v>
@@ -19863,7 +19863,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="4">
-        <v>4210544812</v>
+        <v>4210240115</v>
       </c>
       <c r="B472" t="s">
         <v>5</v>
@@ -19871,7 +19871,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="4">
-        <v>4210374075</v>
+        <v>4210337882</v>
       </c>
       <c r="B473" t="s">
         <v>5</v>
@@ -19879,7 +19879,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="4">
-        <v>4211172188</v>
+        <v>4210478764</v>
       </c>
       <c r="B474" t="s">
         <v>5</v>
@@ -19887,7 +19887,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="4">
-        <v>4210918088</v>
+        <v>4210483959</v>
       </c>
       <c r="B475" t="s">
         <v>5</v>
@@ -19895,7 +19895,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="4">
-        <v>4210245439</v>
+        <v>4210552779</v>
       </c>
       <c r="B476" t="s">
         <v>5</v>
@@ -19903,362 +19903,480 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="4">
+        <v>4210718468</v>
+      </c>
+      <c r="B477" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="4">
+        <v>4210974262</v>
+      </c>
+      <c r="B478" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" s="4">
+        <v>4211153726</v>
+      </c>
+      <c r="B479" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" s="4">
+        <v>4210247519</v>
+      </c>
+      <c r="B480" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" s="4">
+        <v>4210530221</v>
+      </c>
+      <c r="B481" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" s="4">
+        <v>4210652133</v>
+      </c>
+      <c r="B482" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" s="4">
+        <v>4210059502</v>
+      </c>
+      <c r="B483" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" s="4">
+        <v>4210097470</v>
+      </c>
+      <c r="B484" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" s="4">
+        <v>4210121557</v>
+      </c>
+      <c r="B485" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" s="4">
+        <v>4210238869</v>
+      </c>
+      <c r="B486" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" s="4">
+        <v>4210407646</v>
+      </c>
+      <c r="B487" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" s="4">
+        <v>4210418911</v>
+      </c>
+      <c r="B488" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" s="4">
+        <v>4210485733</v>
+      </c>
+      <c r="B489" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="4">
+        <v>4210853143</v>
+      </c>
+      <c r="B490" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="4">
+        <v>4210960649</v>
+      </c>
+      <c r="B491" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" s="4">
+        <v>4211013963</v>
+      </c>
+      <c r="B492" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" s="4">
+        <v>4210811627</v>
+      </c>
+      <c r="B493" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" s="4">
+        <v>4210458622</v>
+      </c>
+      <c r="B494" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" s="4">
+        <v>4210671815</v>
+      </c>
+      <c r="B495" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" s="4">
+        <v>4210337818</v>
+      </c>
+      <c r="B496" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" s="4">
+        <v>4210949152</v>
+      </c>
+      <c r="B497" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" s="4">
+        <v>4210442082</v>
+      </c>
+      <c r="B498" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" s="4">
+        <v>4210634563</v>
+      </c>
+      <c r="B499" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="4">
+        <v>4210051155</v>
+      </c>
+      <c r="B500" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" s="4">
+        <v>4210142038</v>
+      </c>
+      <c r="B501" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" s="4">
+        <v>4210149575</v>
+      </c>
+      <c r="B502" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" s="4">
+        <v>4210195529</v>
+      </c>
+      <c r="B503" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" s="4">
+        <v>4210303219</v>
+      </c>
+      <c r="B504" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" s="4">
+        <v>4210427799</v>
+      </c>
+      <c r="B505" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" s="4">
+        <v>4210446245</v>
+      </c>
+      <c r="B506" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" s="4">
+        <v>4210629760</v>
+      </c>
+      <c r="B507" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" s="4">
+        <v>4210939924</v>
+      </c>
+      <c r="B508" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" s="4">
+        <v>4210207233</v>
+      </c>
+      <c r="B509" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" s="4">
+        <v>4210901008</v>
+      </c>
+      <c r="B510" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" s="4">
+        <v>4210423569</v>
+      </c>
+      <c r="B511" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="4">
+        <v>4210487451</v>
+      </c>
+      <c r="B512" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" s="4">
+        <v>4210607124</v>
+      </c>
+      <c r="B513" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" s="4">
+        <v>4210669592</v>
+      </c>
+      <c r="B514" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" s="4">
+        <v>4210436566</v>
+      </c>
+      <c r="B515" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" s="4">
+        <v>4210534852</v>
+      </c>
+      <c r="B516" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" s="4">
+        <v>4210001844</v>
+      </c>
+      <c r="B517" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" s="4">
+        <v>4210110289</v>
+      </c>
+      <c r="B518" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" s="4">
+        <v>4210417607</v>
+      </c>
+      <c r="B519" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" s="4">
+        <v>4210554776</v>
+      </c>
+      <c r="B520" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" s="4">
+        <v>4210978497</v>
+      </c>
+      <c r="B521" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" s="4">
+        <v>4211168559</v>
+      </c>
+      <c r="B522" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" s="4">
+        <v>4211173096</v>
+      </c>
+      <c r="B523" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" s="4">
+        <v>4210970594</v>
+      </c>
+      <c r="B524" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" s="4">
+        <v>4210388883</v>
+      </c>
+      <c r="B525" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" s="4">
+        <v>4210622646</v>
+      </c>
+      <c r="B526" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" s="4">
+        <v>4210049002</v>
+      </c>
+      <c r="B527" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" s="4">
+        <v>4210905356</v>
+      </c>
+      <c r="B528" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" s="4">
+        <v>4210750427</v>
+      </c>
+      <c r="B529" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" s="4">
+        <v>4210690219</v>
+      </c>
+      <c r="B530" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" s="4">
+        <v>4210544812</v>
+      </c>
+      <c r="B531" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" s="4">
+        <v>4210374075</v>
+      </c>
+      <c r="B532" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" s="4">
+        <v>4211172188</v>
+      </c>
+      <c r="B533" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" s="4">
+        <v>4210918088</v>
+      </c>
+      <c r="B534" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" s="4">
+        <v>4210245439</v>
+      </c>
+      <c r="B535" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" s="4">
         <v>4210276653</v>
       </c>
-      <c r="B477" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" s="4"/>
-      <c r="B478" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" s="4"/>
-      <c r="B479" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" s="4"/>
-      <c r="B480" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" s="4"/>
-      <c r="B481" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" s="4"/>
-      <c r="B482" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" s="4"/>
-      <c r="B483" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" s="4"/>
-      <c r="B484" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" s="4"/>
-      <c r="B485" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" s="4"/>
-      <c r="B486" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" s="4"/>
-      <c r="B487" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" s="4"/>
-      <c r="B488" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" s="4"/>
-      <c r="B489" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" s="4"/>
-      <c r="B490" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" s="4"/>
-      <c r="B491" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" s="4"/>
-      <c r="B492" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" s="4"/>
-      <c r="B493" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" s="4"/>
-      <c r="B494" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" s="4"/>
-      <c r="B495" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" s="4"/>
-      <c r="B496" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" s="4"/>
-      <c r="B497" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" s="4"/>
-      <c r="B498" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" s="4"/>
-      <c r="B499" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" s="4"/>
-      <c r="B500" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" s="4"/>
-      <c r="B501" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" s="4"/>
-      <c r="B502" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" s="4"/>
-      <c r="B503" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" s="4"/>
-      <c r="B504" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" s="4"/>
-      <c r="B505" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" s="4"/>
-      <c r="B506" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" s="4"/>
-      <c r="B507" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" s="4"/>
-      <c r="B508" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" s="4"/>
-      <c r="B509" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" s="4"/>
-      <c r="B510" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" s="4"/>
-      <c r="B511" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" s="4"/>
-      <c r="B512" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" s="4"/>
-      <c r="B513" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" s="4"/>
-      <c r="B514" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" s="4"/>
-      <c r="B515" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" s="4"/>
-      <c r="B516" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" s="4"/>
-      <c r="B517" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" s="4"/>
-      <c r="B518" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" s="4"/>
-      <c r="B519" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A520" s="4"/>
-      <c r="B520" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A521" s="4"/>
-      <c r="B521" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A522" s="4"/>
-      <c r="B522" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A523" s="4"/>
-      <c r="B523" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A524" s="4"/>
-      <c r="B524" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A525" s="4"/>
-      <c r="B525" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A526" s="4"/>
-      <c r="B526" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A527" s="4"/>
-      <c r="B527" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A528" s="4"/>
-      <c r="B528" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A529" s="4"/>
-      <c r="B529" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A530" s="4"/>
-      <c r="B530" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A531" s="4"/>
-      <c r="B531" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A532" s="4"/>
-      <c r="B532" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A533" s="4"/>
-      <c r="B533" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A534" s="4"/>
-      <c r="B534" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A535" s="4"/>
-      <c r="B535" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A536" s="4"/>
       <c r="B536" t="s">
         <v>5</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2021\01_SNMPTN\21snm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E391F81-3D14-4BE1-9229-A56748F7C6D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B601C15-86F2-47D6-8AEF-13119216CEFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16084,7 +16084,7 @@
   <dimension ref="A1:B955"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16207,7 +16207,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>4210381581</v>
+        <v>4210125404</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -16215,7 +16215,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>4210509596</v>
+        <v>4210294377</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -16223,7 +16223,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>4210598011</v>
+        <v>4210381581</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -16231,7 +16231,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>4210660974</v>
+        <v>4210509596</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>4210216114</v>
+        <v>4210598011</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -16247,7 +16247,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>4210961490</v>
+        <v>4210660974</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -16255,7 +16255,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>4210375886</v>
+        <v>4210216114</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>4210344078</v>
+        <v>4210961490</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -16271,7 +16271,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>4210574089</v>
+        <v>4210375886</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -16279,7 +16279,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>4210371025</v>
+        <v>4210344078</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -16287,7 +16287,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>4210615341</v>
+        <v>4210574089</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -16295,7 +16295,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>4211020605</v>
+        <v>4210371025</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -16303,7 +16303,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>4210733151</v>
+        <v>4210615341</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -16311,7 +16311,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>4210266290</v>
+        <v>4211020605</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -16319,7 +16319,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>4210732255</v>
+        <v>4210733151</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>4210652895</v>
+        <v>4210266290</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -16335,7 +16335,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>4210262295</v>
+        <v>4210732255</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -16343,7 +16343,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>4210000179</v>
+        <v>4210652895</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>4210420939</v>
+        <v>4210262295</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -16359,7 +16359,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>4210267931</v>
+        <v>4210000179</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>4210701872</v>
+        <v>4210420939</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -16375,7 +16375,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>4210254607</v>
+        <v>4210267931</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -16383,7 +16383,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>4210556661</v>
+        <v>4210701872</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -16391,7 +16391,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>4210034578</v>
+        <v>4210254607</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>4210044558</v>
+        <v>4210556661</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>4210090554</v>
+        <v>4210034578</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>4210252068</v>
+        <v>4210044558</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>4210322467</v>
+        <v>4210090554</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -16431,7 +16431,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>4210404572</v>
+        <v>4210252068</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -16439,7 +16439,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>4210419667</v>
+        <v>4210322467</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -16447,7 +16447,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>4210683668</v>
+        <v>4210404572</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -16455,7 +16455,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>4210791799</v>
+        <v>4210419667</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -16463,7 +16463,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>4211001264</v>
+        <v>4210422256</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -16471,7 +16471,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>4210876639</v>
+        <v>4210646081</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -16479,7 +16479,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <v>4210593515</v>
+        <v>4210683668</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -16487,7 +16487,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>4210613161</v>
+        <v>4210791799</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -16495,7 +16495,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <v>4210967138</v>
+        <v>4211001264</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>4210771684</v>
+        <v>4210876639</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -16511,7 +16511,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <v>4210708235</v>
+        <v>4210593515</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>4210932363</v>
+        <v>4210613161</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -16527,7 +16527,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <v>4210766426</v>
+        <v>4210967138</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -16535,7 +16535,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>4210371603</v>
+        <v>4210771684</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -16543,7 +16543,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <v>4210608174</v>
+        <v>4210708235</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -16551,7 +16551,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>4210406120</v>
+        <v>4210932363</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -16559,7 +16559,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
-        <v>4210091709</v>
+        <v>4210766426</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -16567,7 +16567,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <v>4210034267</v>
+        <v>4210371603</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -16575,7 +16575,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
-        <v>4210072734</v>
+        <v>4210608174</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -16583,7 +16583,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <v>4210141892</v>
+        <v>4210406120</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
-        <v>4210180557</v>
+        <v>4210091709</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -16599,7 +16599,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
-        <v>4210307216</v>
+        <v>4210034267</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -16607,7 +16607,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
-        <v>4210394400</v>
+        <v>4210072734</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -16615,7 +16615,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
-        <v>4210394946</v>
+        <v>4210141892</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -16623,7 +16623,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
-        <v>4210413345</v>
+        <v>4210180557</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -16631,7 +16631,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
-        <v>4210415206</v>
+        <v>4210307216</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -16639,7 +16639,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
-        <v>4210437917</v>
+        <v>4210394400</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -16647,7 +16647,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
-        <v>4210511277</v>
+        <v>4210394946</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -16655,7 +16655,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
-        <v>4210592672</v>
+        <v>4210413345</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -16663,7 +16663,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
-        <v>4210822447</v>
+        <v>4210415206</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
-        <v>4210831159</v>
+        <v>4210437917</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -16679,7 +16679,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
-        <v>4210188182</v>
+        <v>4210511277</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -16687,7 +16687,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
-        <v>4210673584</v>
+        <v>4210592672</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -16695,7 +16695,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
-        <v>4210706642</v>
+        <v>4210822447</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -16703,7 +16703,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
-        <v>4210731416</v>
+        <v>4210831159</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -16711,7 +16711,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
-        <v>4211013807</v>
+        <v>4211067263</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -16719,7 +16719,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
-        <v>4210278444</v>
+        <v>4211180836</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -16727,7 +16727,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
-        <v>4211018005</v>
+        <v>4210188182</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -16735,7 +16735,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
-        <v>4210532588</v>
+        <v>4210673584</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -16743,7 +16743,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
-        <v>4210929697</v>
+        <v>4210706642</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -16751,7 +16751,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
-        <v>4210003837</v>
+        <v>4210731416</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
-        <v>4210004223</v>
+        <v>4211013807</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -16767,7 +16767,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
-        <v>4210326018</v>
+        <v>4210278444</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -16775,7 +16775,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
-        <v>4210342446</v>
+        <v>4211018005</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -16783,7 +16783,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
-        <v>4210342798</v>
+        <v>4210532588</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -16791,7 +16791,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
-        <v>4210391139</v>
+        <v>4210929697</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -16799,7 +16799,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
-        <v>4210393571</v>
+        <v>4210003837</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
-        <v>4210558291</v>
+        <v>4210004223</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -16815,7 +16815,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
-        <v>4210635825</v>
+        <v>4210326018</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -16823,7 +16823,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
-        <v>4210843009</v>
+        <v>4210342446</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -16831,7 +16831,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
-        <v>4210945949</v>
+        <v>4210342798</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -16839,7 +16839,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
-        <v>4210953010</v>
+        <v>4210391139</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -16847,7 +16847,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
-        <v>4210204827</v>
+        <v>4210393571</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -16855,7 +16855,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
-        <v>4210563716</v>
+        <v>4210558291</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -16863,7 +16863,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
-        <v>4210224238</v>
+        <v>4210635825</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -16871,7 +16871,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
-        <v>4210398396</v>
+        <v>4210843009</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -16879,7 +16879,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
-        <v>4210912284</v>
+        <v>4210945949</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -16887,7 +16887,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
-        <v>4210190103</v>
+        <v>4210953010</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -16895,7 +16895,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
-        <v>4210479488</v>
+        <v>4210204827</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -16903,7 +16903,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
-        <v>4210566641</v>
+        <v>4210563716</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -16911,7 +16911,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
-        <v>4211161809</v>
+        <v>4210224238</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -16919,7 +16919,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
-        <v>4210213587</v>
+        <v>4210398396</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -16927,7 +16927,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
-        <v>4210003545</v>
+        <v>4210912284</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -16935,7 +16935,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
-        <v>4210600446</v>
+        <v>4210190103</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
-        <v>4211151623</v>
+        <v>4210479488</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -16951,7 +16951,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
-        <v>4210214048</v>
+        <v>4210566641</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -16959,7 +16959,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
-        <v>4210853920</v>
+        <v>4211161809</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -16967,7 +16967,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
-        <v>4210610562</v>
+        <v>4210213587</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -16975,7 +16975,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
-        <v>4210317095</v>
+        <v>4210003545</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -16983,7 +16983,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
-        <v>4210292583</v>
+        <v>4210600446</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -16991,7 +16991,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
-        <v>4210394741</v>
+        <v>4211151623</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -16999,7 +16999,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
-        <v>4210447996</v>
+        <v>4210214048</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -17007,7 +17007,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
-        <v>4210501502</v>
+        <v>4210853920</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -17015,7 +17015,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
-        <v>4211105440</v>
+        <v>4210610562</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -17023,7 +17023,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
-        <v>4211016693</v>
+        <v>4210317095</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -17031,7 +17031,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
-        <v>4211074617</v>
+        <v>4210292583</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -17039,7 +17039,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
-        <v>4210754698</v>
+        <v>4210394741</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -17047,7 +17047,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
-        <v>4210926050</v>
+        <v>4210447996</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -17055,7 +17055,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
-        <v>4210370471</v>
+        <v>4210501502</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -17063,7 +17063,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
-        <v>4210806413</v>
+        <v>4211105440</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -17071,7 +17071,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
-        <v>4210522771</v>
+        <v>4211016693</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
-        <v>4210542091</v>
+        <v>4211074617</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -17087,7 +17087,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
-        <v>4210222026</v>
+        <v>4210754698</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
-        <v>4210377402</v>
+        <v>4210926050</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -17103,7 +17103,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
-        <v>4210893674</v>
+        <v>4210370471</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -17111,7 +17111,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
-        <v>4210994527</v>
+        <v>4210806413</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
-        <v>4210479887</v>
+        <v>4210522771</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -17127,7 +17127,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
-        <v>4210646191</v>
+        <v>4210542091</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -17135,7 +17135,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
-        <v>4210921361</v>
+        <v>4210222026</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
-        <v>4210033127</v>
+        <v>4210377402</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -17151,7 +17151,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
-        <v>4210586606</v>
+        <v>4210893674</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -17159,7 +17159,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
-        <v>4210482370</v>
+        <v>4210994527</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -17167,7 +17167,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
-        <v>4210167551</v>
+        <v>4210479887</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -17175,7 +17175,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
-        <v>4210673655</v>
+        <v>4210646191</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -17183,7 +17183,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
-        <v>4210887790</v>
+        <v>4210921361</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -17191,7 +17191,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
-        <v>4210221322</v>
+        <v>4210033127</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -17199,7 +17199,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
-        <v>4210753622</v>
+        <v>4210586606</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -17207,7 +17207,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
-        <v>4210482629</v>
+        <v>4211024555</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -17215,7 +17215,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
-        <v>4210843672</v>
+        <v>4210482370</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -17223,7 +17223,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
-        <v>4210523147</v>
+        <v>4210167551</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -17231,7 +17231,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
-        <v>4211060527</v>
+        <v>4210673655</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -17239,7 +17239,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
-        <v>4210424698</v>
+        <v>4210887790</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -17247,7 +17247,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
-        <v>4210406049</v>
+        <v>4210221322</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -17255,7 +17255,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
-        <v>4210639267</v>
+        <v>4210753622</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -17263,7 +17263,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
-        <v>4211057865</v>
+        <v>4210482629</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -17271,7 +17271,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
-        <v>4210345052</v>
+        <v>4210843672</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
-        <v>4210712809</v>
+        <v>4210523147</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -17287,7 +17287,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
-        <v>4210598540</v>
+        <v>4211060527</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -17295,7 +17295,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
-        <v>4210121891</v>
+        <v>4210424698</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -17303,7 +17303,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
-        <v>4210893730</v>
+        <v>4210406049</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
-        <v>4211056408</v>
+        <v>4210639267</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
-        <v>4210535673</v>
+        <v>4211057865</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -17327,7 +17327,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
-        <v>4210500818</v>
+        <v>4210345052</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -17335,7 +17335,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
-        <v>4210062548</v>
+        <v>4210712809</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -17343,7 +17343,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
-        <v>4210086465</v>
+        <v>4210598540</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -17351,7 +17351,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
-        <v>4210133586</v>
+        <v>4210121891</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -17359,7 +17359,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
-        <v>4210260497</v>
+        <v>4210893730</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -17367,7 +17367,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
-        <v>4210389070</v>
+        <v>4211056408</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
-        <v>4210396939</v>
+        <v>4210535673</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -17383,7 +17383,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
-        <v>4210415044</v>
+        <v>4210500818</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
-        <v>4210597778</v>
+        <v>4210003521</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -17399,7 +17399,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
-        <v>4210633465</v>
+        <v>4210062548</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
-        <v>4210645803</v>
+        <v>4210086465</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -17415,7 +17415,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
-        <v>4210690272</v>
+        <v>4210133586</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -17423,7 +17423,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
-        <v>4210830351</v>
+        <v>4210260497</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -17431,7 +17431,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
-        <v>4210836933</v>
+        <v>4210336732</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -17439,7 +17439,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
-        <v>4210878489</v>
+        <v>4210389070</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -17447,7 +17447,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
-        <v>4210920767</v>
+        <v>4210396939</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -17455,7 +17455,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
-        <v>4210955715</v>
+        <v>4210415044</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -17463,7 +17463,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
-        <v>4210665237</v>
+        <v>4210597778</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -17471,7 +17471,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
-        <v>4210057744</v>
+        <v>4210633465</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -17479,7 +17479,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
-        <v>4211131368</v>
+        <v>4210645803</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -17487,7 +17487,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
-        <v>4210208750</v>
+        <v>4210690272</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
-        <v>4210586900</v>
+        <v>4210830351</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -17503,7 +17503,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
-        <v>4210433177</v>
+        <v>4210836933</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -17511,7 +17511,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
-        <v>4210911313</v>
+        <v>4210878489</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -17519,7 +17519,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
-        <v>4210745675</v>
+        <v>4210885456</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -17527,7 +17527,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
-        <v>4211122411</v>
+        <v>4210920767</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -17535,7 +17535,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
-        <v>4210855921</v>
+        <v>4210955715</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
-        <v>4210009062</v>
+        <v>4211075710</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -17551,7 +17551,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
-        <v>4210648248</v>
+        <v>4211143631</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -17559,7 +17559,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
-        <v>4210356297</v>
+        <v>4210665237</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -17567,7 +17567,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
-        <v>4210152801</v>
+        <v>4210057744</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
-        <v>4210086596</v>
+        <v>4211060486</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
-        <v>4211058112</v>
+        <v>4211131368</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -17591,7 +17591,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
-        <v>4210411973</v>
+        <v>4210208750</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
-        <v>4211010219</v>
+        <v>4210586900</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -17607,7 +17607,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
-        <v>4210273020</v>
+        <v>4210433177</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -17615,7 +17615,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
-        <v>4210264695</v>
+        <v>4210911313</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -17623,7 +17623,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
-        <v>4210930375</v>
+        <v>4210745675</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -17631,7 +17631,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
-        <v>4210242756</v>
+        <v>4211122411</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -17639,7 +17639,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
-        <v>4210140390</v>
+        <v>4210855921</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
-        <v>4210253167</v>
+        <v>4210009062</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -17655,7 +17655,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
-        <v>4210405200</v>
+        <v>4210648248</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -17663,7 +17663,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="4">
-        <v>4210502557</v>
+        <v>4210356297</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -17671,7 +17671,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
-        <v>4210509447</v>
+        <v>4210152801</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -17679,7 +17679,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="4">
-        <v>4210921232</v>
+        <v>4210086596</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -17687,7 +17687,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
-        <v>4210963617</v>
+        <v>4211058112</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -17695,7 +17695,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="4">
-        <v>4210973302</v>
+        <v>4210411973</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -17703,7 +17703,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
-        <v>4211096801</v>
+        <v>4211010219</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -17711,7 +17711,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="4">
-        <v>4211189006</v>
+        <v>4210273020</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -17719,7 +17719,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="4">
-        <v>4211014355</v>
+        <v>4210264695</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -17727,7 +17727,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="4">
-        <v>4210122458</v>
+        <v>4210930375</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -17735,7 +17735,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="4">
-        <v>4210621591</v>
+        <v>4210242756</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -17743,7 +17743,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="4">
-        <v>4210474468</v>
+        <v>4210140390</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="4">
-        <v>4210392055</v>
+        <v>4210253167</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="4">
-        <v>4210144557</v>
+        <v>4210405200</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -17767,7 +17767,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="4">
-        <v>4210806396</v>
+        <v>4210502557</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -17775,7 +17775,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="4">
-        <v>4210059000</v>
+        <v>4210509447</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -17783,7 +17783,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="4">
-        <v>4211050835</v>
+        <v>4210690402</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -17791,7 +17791,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="4">
-        <v>4210941334</v>
+        <v>4210921232</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -17799,7 +17799,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="4">
-        <v>4210073431</v>
+        <v>4210963617</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -17807,7 +17807,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="4">
-        <v>4210321387</v>
+        <v>4210973302</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -17815,7 +17815,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
-        <v>4210951981</v>
+        <v>4211096801</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -17823,7 +17823,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="4">
-        <v>4211183842</v>
+        <v>4211189006</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -17831,7 +17831,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="4">
-        <v>4211190937</v>
+        <v>4211014355</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -17839,7 +17839,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="4">
-        <v>4210264951</v>
+        <v>4210122458</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -17847,7 +17847,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="4">
-        <v>4210229661</v>
+        <v>4210621591</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -17855,7 +17855,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="4">
-        <v>4210815491</v>
+        <v>4210474468</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -17863,7 +17863,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="4">
-        <v>4210842072</v>
+        <v>4210392055</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -17871,7 +17871,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="4">
-        <v>4210497292</v>
+        <v>4210144557</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -17879,7 +17879,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="4">
-        <v>4210984821</v>
+        <v>4210806396</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -17887,7 +17887,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="4">
-        <v>4210185227</v>
+        <v>4210059000</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -17895,7 +17895,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="4">
-        <v>4210151586</v>
+        <v>4211050835</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -17903,7 +17903,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="4">
-        <v>4210791646</v>
+        <v>4210941334</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -17911,7 +17911,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="4">
-        <v>4211014966</v>
+        <v>4210073431</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -17919,7 +17919,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="4">
-        <v>4211039341</v>
+        <v>4210222465</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -17927,7 +17927,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="4">
-        <v>4210267013</v>
+        <v>4210321387</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -17935,7 +17935,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="4">
-        <v>4210385160</v>
+        <v>4210951981</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -17943,7 +17943,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="4">
-        <v>4210435801</v>
+        <v>4211183842</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -17951,7 +17951,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="4">
-        <v>4210457607</v>
+        <v>4211190937</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -17959,7 +17959,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="4">
-        <v>4210354861</v>
+        <v>4210264951</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -17967,7 +17967,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="4">
-        <v>4210967965</v>
+        <v>4210229661</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -17975,7 +17975,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="4">
-        <v>4210105758</v>
+        <v>4210815491</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="4">
-        <v>4210386755</v>
+        <v>4210842072</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -17991,7 +17991,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="4">
-        <v>4210043894</v>
+        <v>4210497292</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="4">
-        <v>4210122182</v>
+        <v>4210984821</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -18007,7 +18007,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="4">
-        <v>4210141517</v>
+        <v>4210185227</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -18015,7 +18015,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="4">
-        <v>4210142349</v>
+        <v>4210151586</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="4">
-        <v>4210383149</v>
+        <v>4210791646</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -18031,7 +18031,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="4">
-        <v>4210424900</v>
+        <v>4211014966</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -18039,7 +18039,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="4">
-        <v>4210622386</v>
+        <v>4211039341</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="4">
-        <v>4210769887</v>
+        <v>4210267013</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -18055,7 +18055,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="4">
-        <v>4210997472</v>
+        <v>4210385160</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -18063,7 +18063,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="4">
-        <v>4211157478</v>
+        <v>4210435801</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -18071,7 +18071,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="4">
-        <v>4210420456</v>
+        <v>4210457607</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -18079,7 +18079,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="4">
-        <v>4210117447</v>
+        <v>4210875091</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -18087,7 +18087,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="4">
-        <v>4210151088</v>
+        <v>4211117196</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -18095,7 +18095,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="4">
-        <v>4210176463</v>
+        <v>4210199520</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -18103,7 +18103,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="4">
-        <v>4211024353</v>
+        <v>4211054741</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -18111,7 +18111,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="4">
-        <v>4210047154</v>
+        <v>4210354861</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -18119,7 +18119,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="4">
-        <v>4210182855</v>
+        <v>4210967965</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -18127,7 +18127,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="4">
-        <v>4210994649</v>
+        <v>4210105758</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -18135,7 +18135,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="4">
-        <v>4210450687</v>
+        <v>4210386755</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -18143,7 +18143,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="4">
-        <v>4210922651</v>
+        <v>4210043894</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -18151,7 +18151,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="4">
-        <v>4210072470</v>
+        <v>4210122182</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -18159,7 +18159,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="4">
-        <v>4210167563</v>
+        <v>4210141517</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -18167,7 +18167,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="4">
-        <v>4210194296</v>
+        <v>4210142349</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="4">
-        <v>4210357001</v>
+        <v>4210383149</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -18183,7 +18183,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="4">
-        <v>4210452807</v>
+        <v>4210424900</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -18191,7 +18191,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="4">
-        <v>4210711324</v>
+        <v>4210622386</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="4">
-        <v>4210762861</v>
+        <v>4210769887</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -18207,7 +18207,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="4">
-        <v>4210992519</v>
+        <v>4210997472</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -18215,7 +18215,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="4">
-        <v>4211033732</v>
+        <v>4211157478</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -18223,7 +18223,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="4">
-        <v>4211389730</v>
+        <v>4210420456</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -18231,7 +18231,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="4">
-        <v>4210147981</v>
+        <v>4210117447</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -18239,7 +18239,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="4">
-        <v>4210257649</v>
+        <v>4210151088</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -18247,7 +18247,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="4">
-        <v>4210402143</v>
+        <v>4210392364</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -18255,7 +18255,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="4">
-        <v>4210523156</v>
+        <v>4210942167</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -18263,7 +18263,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="4">
-        <v>4210823515</v>
+        <v>4210176463</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
@@ -18271,7 +18271,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="4">
-        <v>4210115162</v>
+        <v>4211024353</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -18279,7 +18279,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="4">
-        <v>4210612098</v>
+        <v>4210047154</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="4">
-        <v>4210368642</v>
+        <v>4210433787</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
@@ -18295,7 +18295,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="4">
-        <v>4210079772</v>
+        <v>4210182855</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -18303,7 +18303,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="4">
-        <v>4210166153</v>
+        <v>4210994649</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -18311,7 +18311,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="4">
-        <v>4210583026</v>
+        <v>4210450687</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -18319,7 +18319,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="4">
-        <v>4210764690</v>
+        <v>4210922651</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -18327,7 +18327,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="4">
-        <v>4211047440</v>
+        <v>4210020624</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
@@ -18335,7 +18335,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="4">
-        <v>4210691393</v>
+        <v>4210072470</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -18343,7 +18343,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="4">
-        <v>4210986456</v>
+        <v>4210167563</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -18351,7 +18351,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="4">
-        <v>4210701833</v>
+        <v>4210194296</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
@@ -18359,7 +18359,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="4">
-        <v>4210388739</v>
+        <v>4210357001</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="4">
-        <v>4211121228</v>
+        <v>4210452807</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="4">
-        <v>4210891162</v>
+        <v>4210523627</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
@@ -18383,7 +18383,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="4">
-        <v>4210685145</v>
+        <v>4210711324</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -18391,7 +18391,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="4">
-        <v>4210179613</v>
+        <v>4210762861</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -18399,7 +18399,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="4">
-        <v>4210230359</v>
+        <v>4210992519</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="4">
-        <v>4210420336</v>
+        <v>4211033732</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -18415,7 +18415,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="4">
-        <v>4210476751</v>
+        <v>4211389730</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -18423,7 +18423,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="4">
-        <v>4210671598</v>
+        <v>4210147981</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="4">
-        <v>4210673461</v>
+        <v>4210257649</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -18439,7 +18439,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="4">
-        <v>4210697216</v>
+        <v>4210402143</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -18447,7 +18447,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="4">
-        <v>4210851034</v>
+        <v>4210523156</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -18455,7 +18455,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="4">
-        <v>4211039879</v>
+        <v>4210823515</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
@@ -18463,7 +18463,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="4">
-        <v>4210440787</v>
+        <v>4210115162</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="4">
-        <v>4210985823</v>
+        <v>4210612098</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -18479,7 +18479,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="4">
-        <v>4210396117</v>
+        <v>4210368642</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="4">
-        <v>4210209432</v>
+        <v>4210079772</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -18495,7 +18495,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="4">
-        <v>4210466625</v>
+        <v>4210166153</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
@@ -18503,7 +18503,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="4">
-        <v>4210050876</v>
+        <v>4210583026</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
@@ -18511,7 +18511,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="4">
-        <v>4210178048</v>
+        <v>4210764690</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -18519,7 +18519,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="4">
-        <v>4210301504</v>
+        <v>4211047440</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -18527,7 +18527,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="4">
-        <v>4210370018</v>
+        <v>4210691393</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
@@ -18535,7 +18535,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="4">
-        <v>4210377269</v>
+        <v>4210986456</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -18543,7 +18543,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="4">
-        <v>4210384491</v>
+        <v>4210701833</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -18551,7 +18551,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="4">
-        <v>4210573384</v>
+        <v>4210388739</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -18559,7 +18559,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="4">
-        <v>4211003079</v>
+        <v>4211121228</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
@@ -18567,7 +18567,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="4">
-        <v>4210652631</v>
+        <v>4210891162</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="4">
-        <v>4210752028</v>
+        <v>4210685145</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="4">
-        <v>4210282624</v>
+        <v>4210179613</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
@@ -18591,7 +18591,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="4">
-        <v>4210530875</v>
+        <v>4210230359</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -18599,7 +18599,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="4">
-        <v>4210182500</v>
+        <v>4210420336</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
@@ -18607,7 +18607,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="4">
-        <v>4210780191</v>
+        <v>4210476751</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
@@ -18615,7 +18615,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="4">
-        <v>4210748422</v>
+        <v>4210671598</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
@@ -18623,7 +18623,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="4">
-        <v>4210537453</v>
+        <v>4210673461</v>
       </c>
       <c r="B317" t="s">
         <v>5</v>
@@ -18631,7 +18631,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="4">
-        <v>4210213411</v>
+        <v>4210697216</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -18639,7 +18639,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="4">
-        <v>4210261027</v>
+        <v>4210851034</v>
       </c>
       <c r="B319" t="s">
         <v>5</v>
@@ -18647,7 +18647,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="4">
-        <v>4210329350</v>
+        <v>4211039879</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
@@ -18655,7 +18655,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="4">
-        <v>4210421627</v>
+        <v>4210440787</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="4">
-        <v>4211121745</v>
+        <v>4210985823</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
@@ -18671,7 +18671,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="4">
-        <v>4210256197</v>
+        <v>4210396117</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
@@ -18679,7 +18679,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="4">
-        <v>4210837418</v>
+        <v>4210209432</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
@@ -18687,7 +18687,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="4">
-        <v>4210283620</v>
+        <v>4210466625</v>
       </c>
       <c r="B325" t="s">
         <v>5</v>
@@ -18695,7 +18695,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="4">
-        <v>4210928075</v>
+        <v>4210050876</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="4">
-        <v>4210163688</v>
+        <v>4210178048</v>
       </c>
       <c r="B327" t="s">
         <v>5</v>
@@ -18711,7 +18711,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="4">
-        <v>4210212879</v>
+        <v>4210301504</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
@@ -18719,7 +18719,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="4">
-        <v>4210532302</v>
+        <v>4210370018</v>
       </c>
       <c r="B329" t="s">
         <v>5</v>
@@ -18727,7 +18727,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="4">
-        <v>4210489208</v>
+        <v>4210377269</v>
       </c>
       <c r="B330" t="s">
         <v>5</v>
@@ -18735,7 +18735,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="4">
-        <v>4210716858</v>
+        <v>4210384491</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
@@ -18743,7 +18743,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="4">
-        <v>4210065219</v>
+        <v>4210573384</v>
       </c>
       <c r="B332" t="s">
         <v>5</v>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="4">
-        <v>4210941041</v>
+        <v>4211003079</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -18759,7 +18759,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="4">
-        <v>4210534515</v>
+        <v>4210652631</v>
       </c>
       <c r="B334" t="s">
         <v>5</v>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="4">
-        <v>4210204988</v>
+        <v>4210752028</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
@@ -18775,7 +18775,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="4">
-        <v>4210097114</v>
+        <v>4210282624</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
@@ -18783,7 +18783,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="4">
-        <v>4210377665</v>
+        <v>4210530875</v>
       </c>
       <c r="B337" t="s">
         <v>5</v>
@@ -18791,7 +18791,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="4">
-        <v>4210500697</v>
+        <v>4210182500</v>
       </c>
       <c r="B338" t="s">
         <v>5</v>
@@ -18799,7 +18799,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="4">
-        <v>4210646048</v>
+        <v>4210780191</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
@@ -18807,7 +18807,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="4">
-        <v>4210113372</v>
+        <v>4210748422</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="4">
-        <v>4210213661</v>
+        <v>4210537453</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
@@ -18823,7 +18823,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="4">
-        <v>4210366648</v>
+        <v>4210213411</v>
       </c>
       <c r="B342" t="s">
         <v>5</v>
@@ -18831,7 +18831,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="4">
-        <v>4210598087</v>
+        <v>4210261027</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="4">
-        <v>4210646368</v>
+        <v>4210329350</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="4">
-        <v>4210850923</v>
+        <v>4210421627</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
@@ -18855,7 +18855,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="4">
-        <v>4210936777</v>
+        <v>4211121745</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -18863,7 +18863,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="4">
-        <v>4210596404</v>
+        <v>4210256197</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="4">
-        <v>4211119160</v>
+        <v>4210837418</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
@@ -18879,7 +18879,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="4">
-        <v>4211029307</v>
+        <v>4210283620</v>
       </c>
       <c r="B349" t="s">
         <v>5</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="4">
-        <v>4210533998</v>
+        <v>4210928075</v>
       </c>
       <c r="B350" t="s">
         <v>5</v>
@@ -18895,7 +18895,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="4">
-        <v>4210368640</v>
+        <v>4210163688</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="4">
-        <v>4210952808</v>
+        <v>4210005081</v>
       </c>
       <c r="B352" t="s">
         <v>5</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="4">
-        <v>4210162326</v>
+        <v>4210212879</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
@@ -18919,7 +18919,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="4">
-        <v>4210539791</v>
+        <v>4210532302</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="4">
-        <v>4210605310</v>
+        <v>4210489208</v>
       </c>
       <c r="B355" t="s">
         <v>5</v>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="4">
-        <v>4210655536</v>
+        <v>4210716858</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
@@ -18943,7 +18943,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="4">
-        <v>4210415570</v>
+        <v>4210065219</v>
       </c>
       <c r="B357" t="s">
         <v>5</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="4">
-        <v>4210033714</v>
+        <v>4210941041</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
@@ -18959,7 +18959,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="4">
-        <v>4210281106</v>
+        <v>4210534515</v>
       </c>
       <c r="B359" t="s">
         <v>5</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="4">
-        <v>4210698032</v>
+        <v>4210204988</v>
       </c>
       <c r="B360" t="s">
         <v>5</v>
@@ -18975,7 +18975,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="4">
-        <v>4211121133</v>
+        <v>4210097114</v>
       </c>
       <c r="B361" t="s">
         <v>5</v>
@@ -18983,7 +18983,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="4">
-        <v>4210406475</v>
+        <v>4210377665</v>
       </c>
       <c r="B362" t="s">
         <v>5</v>
@@ -18991,7 +18991,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="4">
-        <v>4210592061</v>
+        <v>4210500697</v>
       </c>
       <c r="B363" t="s">
         <v>5</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="4">
-        <v>4210774231</v>
+        <v>4210646048</v>
       </c>
       <c r="B364" t="s">
         <v>5</v>
@@ -19007,7 +19007,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="4">
-        <v>4211032450</v>
+        <v>4210113372</v>
       </c>
       <c r="B365" t="s">
         <v>5</v>
@@ -19015,7 +19015,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="4">
-        <v>4210174856</v>
+        <v>4210213661</v>
       </c>
       <c r="B366" t="s">
         <v>5</v>
@@ -19023,7 +19023,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="4">
-        <v>4210248902</v>
+        <v>4210366648</v>
       </c>
       <c r="B367" t="s">
         <v>5</v>
@@ -19031,7 +19031,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="4">
-        <v>4210799190</v>
+        <v>4210598087</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
@@ -19039,7 +19039,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="4">
-        <v>4210619540</v>
+        <v>4210646368</v>
       </c>
       <c r="B369" t="s">
         <v>5</v>
@@ -19047,7 +19047,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="4">
-        <v>4210608974</v>
+        <v>4210850923</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
@@ -19055,7 +19055,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="4">
-        <v>4210301184</v>
+        <v>4210936777</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="4">
-        <v>4210566069</v>
+        <v>4210596404</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
@@ -19071,7 +19071,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="4">
-        <v>4210939937</v>
+        <v>4211119160</v>
       </c>
       <c r="B373" t="s">
         <v>5</v>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="4">
-        <v>4210539165</v>
+        <v>4211029307</v>
       </c>
       <c r="B374" t="s">
         <v>5</v>
@@ -19087,7 +19087,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="4">
-        <v>4210250290</v>
+        <v>4210533998</v>
       </c>
       <c r="B375" t="s">
         <v>5</v>
@@ -19095,7 +19095,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="4">
-        <v>4210662861</v>
+        <v>4210368640</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="4">
-        <v>4210155525</v>
+        <v>4210952808</v>
       </c>
       <c r="B377" t="s">
         <v>5</v>
@@ -19111,7 +19111,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="4">
-        <v>4210414276</v>
+        <v>4210162326</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
@@ -19119,7 +19119,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="4">
-        <v>4210851640</v>
+        <v>4210539791</v>
       </c>
       <c r="B379" t="s">
         <v>5</v>
@@ -19127,7 +19127,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="4">
-        <v>4210632010</v>
+        <v>4210605310</v>
       </c>
       <c r="B380" t="s">
         <v>5</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="4">
-        <v>4210396336</v>
+        <v>4210655536</v>
       </c>
       <c r="B381" t="s">
         <v>5</v>
@@ -19143,7 +19143,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="4">
-        <v>4210996507</v>
+        <v>4210415570</v>
       </c>
       <c r="B382" t="s">
         <v>5</v>
@@ -19151,7 +19151,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="4">
-        <v>4210691687</v>
+        <v>4210033714</v>
       </c>
       <c r="B383" t="s">
         <v>5</v>
@@ -19159,7 +19159,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="4">
-        <v>4210451754</v>
+        <v>4210281106</v>
       </c>
       <c r="B384" t="s">
         <v>5</v>
@@ -19167,7 +19167,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="4">
-        <v>4211090225</v>
+        <v>4210698032</v>
       </c>
       <c r="B385" t="s">
         <v>5</v>
@@ -19175,7 +19175,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="4">
-        <v>4210098148</v>
+        <v>4211121133</v>
       </c>
       <c r="B386" t="s">
         <v>5</v>
@@ -19183,7 +19183,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="4">
-        <v>4210885374</v>
+        <v>4210406475</v>
       </c>
       <c r="B387" t="s">
         <v>5</v>
@@ -19191,7 +19191,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="4">
-        <v>4210128706</v>
+        <v>4210506018</v>
       </c>
       <c r="B388" t="s">
         <v>5</v>
@@ -19199,7 +19199,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="4">
-        <v>4210429692</v>
+        <v>4210592061</v>
       </c>
       <c r="B389" t="s">
         <v>5</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="4">
-        <v>4210457601</v>
+        <v>4210774231</v>
       </c>
       <c r="B390" t="s">
         <v>5</v>
@@ -19215,7 +19215,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="4">
-        <v>4210491196</v>
+        <v>4211032450</v>
       </c>
       <c r="B391" t="s">
         <v>5</v>
@@ -19223,7 +19223,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="4">
-        <v>4210525608</v>
+        <v>4210174856</v>
       </c>
       <c r="B392" t="s">
         <v>5</v>
@@ -19231,7 +19231,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="4">
-        <v>4210697405</v>
+        <v>4210248902</v>
       </c>
       <c r="B393" t="s">
         <v>5</v>
@@ -19239,7 +19239,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="4">
-        <v>4210769634</v>
+        <v>4210799190</v>
       </c>
       <c r="B394" t="s">
         <v>5</v>
@@ -19247,7 +19247,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="4">
-        <v>4210871317</v>
+        <v>4210619540</v>
       </c>
       <c r="B395" t="s">
         <v>5</v>
@@ -19255,7 +19255,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="4">
-        <v>4210983409</v>
+        <v>4210608974</v>
       </c>
       <c r="B396" t="s">
         <v>5</v>
@@ -19263,7 +19263,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="4">
-        <v>4210831022</v>
+        <v>4210301184</v>
       </c>
       <c r="B397" t="s">
         <v>5</v>
@@ -19271,7 +19271,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="4">
-        <v>4210478093</v>
+        <v>4210566069</v>
       </c>
       <c r="B398" t="s">
         <v>5</v>
@@ -19279,7 +19279,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="4">
-        <v>4210623671</v>
+        <v>4210939937</v>
       </c>
       <c r="B399" t="s">
         <v>5</v>
@@ -19287,7 +19287,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="4">
-        <v>4210379066</v>
+        <v>4210539165</v>
       </c>
       <c r="B400" t="s">
         <v>5</v>
@@ -19295,7 +19295,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="4">
-        <v>4210539266</v>
+        <v>4210250290</v>
       </c>
       <c r="B401" t="s">
         <v>5</v>
@@ -19303,7 +19303,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="4">
-        <v>4210064258</v>
+        <v>4210662861</v>
       </c>
       <c r="B402" t="s">
         <v>5</v>
@@ -19311,7 +19311,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="4">
-        <v>4210911529</v>
+        <v>4210155525</v>
       </c>
       <c r="B403" t="s">
         <v>5</v>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="4">
-        <v>4210198794</v>
+        <v>4210414276</v>
       </c>
       <c r="B404" t="s">
         <v>5</v>
@@ -19327,7 +19327,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="4">
-        <v>4210200416</v>
+        <v>4210851640</v>
       </c>
       <c r="B405" t="s">
         <v>5</v>
@@ -19335,7 +19335,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="4">
-        <v>4210427538</v>
+        <v>4210632010</v>
       </c>
       <c r="B406" t="s">
         <v>5</v>
@@ -19343,7 +19343,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="4">
-        <v>4210497116</v>
+        <v>4210396336</v>
       </c>
       <c r="B407" t="s">
         <v>5</v>
@@ -19351,7 +19351,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="4">
-        <v>4210789652</v>
+        <v>4210996507</v>
       </c>
       <c r="B408" t="s">
         <v>5</v>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="4">
-        <v>4210862040</v>
+        <v>4210691687</v>
       </c>
       <c r="B409" t="s">
         <v>5</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="4">
-        <v>4210894043</v>
+        <v>4210451754</v>
       </c>
       <c r="B410" t="s">
         <v>5</v>
@@ -19375,7 +19375,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="4">
-        <v>4211016266</v>
+        <v>4211090225</v>
       </c>
       <c r="B411" t="s">
         <v>5</v>
@@ -19383,7 +19383,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="4">
-        <v>4210841799</v>
+        <v>4210098148</v>
       </c>
       <c r="B412" t="s">
         <v>5</v>
@@ -19391,7 +19391,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="4">
-        <v>4210009943</v>
+        <v>4210885374</v>
       </c>
       <c r="B413" t="s">
         <v>5</v>
@@ -19399,7 +19399,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="4">
-        <v>4210707172</v>
+        <v>4210128706</v>
       </c>
       <c r="B414" t="s">
         <v>5</v>
@@ -19407,7 +19407,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="4">
-        <v>4210003908</v>
+        <v>4210429692</v>
       </c>
       <c r="B415" t="s">
         <v>5</v>
@@ -19415,7 +19415,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="4">
-        <v>4210405234</v>
+        <v>4210457601</v>
       </c>
       <c r="B416" t="s">
         <v>5</v>
@@ -19423,7 +19423,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="4">
-        <v>4210113485</v>
+        <v>4210487716</v>
       </c>
       <c r="B417" t="s">
         <v>5</v>
@@ -19431,7 +19431,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="4">
-        <v>4210663417</v>
+        <v>4210491196</v>
       </c>
       <c r="B418" t="s">
         <v>5</v>
@@ -19439,7 +19439,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="4">
-        <v>4210185045</v>
+        <v>4210525608</v>
       </c>
       <c r="B419" t="s">
         <v>5</v>
@@ -19447,7 +19447,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="4">
-        <v>4210061222</v>
+        <v>4210697405</v>
       </c>
       <c r="B420" t="s">
         <v>5</v>
@@ -19455,7 +19455,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="4">
-        <v>4210244610</v>
+        <v>4210769634</v>
       </c>
       <c r="B421" t="s">
         <v>5</v>
@@ -19463,7 +19463,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="4">
-        <v>4210386471</v>
+        <v>4210871317</v>
       </c>
       <c r="B422" t="s">
         <v>5</v>
@@ -19471,7 +19471,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="4">
-        <v>4210521327</v>
+        <v>4210983409</v>
       </c>
       <c r="B423" t="s">
         <v>5</v>
@@ -19479,7 +19479,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="4">
-        <v>4211052917</v>
+        <v>4210831022</v>
       </c>
       <c r="B424" t="s">
         <v>5</v>
@@ -19487,7 +19487,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="4">
-        <v>4210050280</v>
+        <v>4210478093</v>
       </c>
       <c r="B425" t="s">
         <v>5</v>
@@ -19495,7 +19495,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="4">
-        <v>4210372229</v>
+        <v>4210623671</v>
       </c>
       <c r="B426" t="s">
         <v>5</v>
@@ -19503,7 +19503,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="4">
-        <v>4210326134</v>
+        <v>4210379066</v>
       </c>
       <c r="B427" t="s">
         <v>5</v>
@@ -19511,7 +19511,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="4">
-        <v>4210790046</v>
+        <v>4210539266</v>
       </c>
       <c r="B428" t="s">
         <v>5</v>
@@ -19519,7 +19519,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="4">
-        <v>4210535776</v>
+        <v>4210064258</v>
       </c>
       <c r="B429" t="s">
         <v>5</v>
@@ -19527,7 +19527,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="4">
-        <v>4210194157</v>
+        <v>4210911529</v>
       </c>
       <c r="B430" t="s">
         <v>5</v>
@@ -19535,7 +19535,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="4">
-        <v>4210359992</v>
+        <v>4210198794</v>
       </c>
       <c r="B431" t="s">
         <v>5</v>
@@ -19543,7 +19543,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="4">
-        <v>4210380505</v>
+        <v>4210200416</v>
       </c>
       <c r="B432" t="s">
         <v>5</v>
@@ -19551,7 +19551,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="4">
-        <v>4210417502</v>
+        <v>4210427538</v>
       </c>
       <c r="B433" t="s">
         <v>5</v>
@@ -19559,7 +19559,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="4">
-        <v>4210502346</v>
+        <v>4210497116</v>
       </c>
       <c r="B434" t="s">
         <v>5</v>
@@ -19567,7 +19567,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="4">
-        <v>4210609300</v>
+        <v>4210789652</v>
       </c>
       <c r="B435" t="s">
         <v>5</v>
@@ -19575,7 +19575,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="4">
-        <v>4210920340</v>
+        <v>4210862040</v>
       </c>
       <c r="B436" t="s">
         <v>5</v>
@@ -19583,7 +19583,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="4">
-        <v>4210114589</v>
+        <v>4210894043</v>
       </c>
       <c r="B437" t="s">
         <v>5</v>
@@ -19591,7 +19591,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="4">
-        <v>4210273236</v>
+        <v>4211016266</v>
       </c>
       <c r="B438" t="s">
         <v>5</v>
@@ -19599,7 +19599,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="4">
-        <v>4210270390</v>
+        <v>4210841799</v>
       </c>
       <c r="B439" t="s">
         <v>5</v>
@@ -19607,7 +19607,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="4">
-        <v>4210161201</v>
+        <v>4210009943</v>
       </c>
       <c r="B440" t="s">
         <v>5</v>
@@ -19615,7 +19615,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="4">
-        <v>4210323925</v>
+        <v>4210707172</v>
       </c>
       <c r="B441" t="s">
         <v>5</v>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="4">
-        <v>4210590170</v>
+        <v>4210003908</v>
       </c>
       <c r="B442" t="s">
         <v>5</v>
@@ -19631,7 +19631,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="4">
-        <v>4210893995</v>
+        <v>4210405234</v>
       </c>
       <c r="B443" t="s">
         <v>5</v>
@@ -19639,7 +19639,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="4">
-        <v>4210962329</v>
+        <v>4210113485</v>
       </c>
       <c r="B444" t="s">
         <v>5</v>
@@ -19647,7 +19647,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="4">
-        <v>4210019501</v>
+        <v>4210663417</v>
       </c>
       <c r="B445" t="s">
         <v>5</v>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="4">
-        <v>4210347993</v>
+        <v>4210185045</v>
       </c>
       <c r="B446" t="s">
         <v>5</v>
@@ -19663,7 +19663,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="4">
-        <v>4210392078</v>
+        <v>4210061222</v>
       </c>
       <c r="B447" t="s">
         <v>5</v>
@@ -19671,7 +19671,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="4">
-        <v>4210387120</v>
+        <v>4210244610</v>
       </c>
       <c r="B448" t="s">
         <v>5</v>
@@ -19679,7 +19679,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="4">
-        <v>4210487162</v>
+        <v>4210386471</v>
       </c>
       <c r="B449" t="s">
         <v>5</v>
@@ -19687,7 +19687,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="4">
-        <v>4210842452</v>
+        <v>4210521327</v>
       </c>
       <c r="B450" t="s">
         <v>5</v>
@@ -19695,7 +19695,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="4">
-        <v>4210208571</v>
+        <v>4211052917</v>
       </c>
       <c r="B451" t="s">
         <v>5</v>
@@ -19703,7 +19703,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="4">
-        <v>4211073903</v>
+        <v>4210050280</v>
       </c>
       <c r="B452" t="s">
         <v>5</v>
@@ -19711,7 +19711,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="4">
-        <v>4210515989</v>
+        <v>4210372229</v>
       </c>
       <c r="B453" t="s">
         <v>5</v>
@@ -19719,7 +19719,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="4">
-        <v>4210213779</v>
+        <v>4210326134</v>
       </c>
       <c r="B454" t="s">
         <v>5</v>
@@ -19727,7 +19727,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" s="4">
-        <v>4210309982</v>
+        <v>4210790046</v>
       </c>
       <c r="B455" t="s">
         <v>5</v>
@@ -19735,7 +19735,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="4">
-        <v>4210378870</v>
+        <v>4210535776</v>
       </c>
       <c r="B456" t="s">
         <v>5</v>
@@ -19743,7 +19743,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="4">
-        <v>4210702558</v>
+        <v>4210194157</v>
       </c>
       <c r="B457" t="s">
         <v>5</v>
@@ -19751,7 +19751,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" s="4">
-        <v>4210400589</v>
+        <v>4210359992</v>
       </c>
       <c r="B458" t="s">
         <v>5</v>
@@ -19759,7 +19759,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="4">
-        <v>4210695631</v>
+        <v>4210380505</v>
       </c>
       <c r="B459" t="s">
         <v>5</v>
@@ -19767,7 +19767,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="4">
-        <v>4210810214</v>
+        <v>4210417502</v>
       </c>
       <c r="B460" t="s">
         <v>5</v>
@@ -19775,7 +19775,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="4">
-        <v>4210933570</v>
+        <v>4210502346</v>
       </c>
       <c r="B461" t="s">
         <v>5</v>
@@ -19783,7 +19783,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="4">
-        <v>4210420793</v>
+        <v>4210609300</v>
       </c>
       <c r="B462" t="s">
         <v>5</v>
@@ -19791,7 +19791,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="4">
-        <v>4210250376</v>
+        <v>4210737822</v>
       </c>
       <c r="B463" t="s">
         <v>5</v>
@@ -19799,7 +19799,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="4">
-        <v>4210407609</v>
+        <v>4210920340</v>
       </c>
       <c r="B464" t="s">
         <v>5</v>
@@ -19807,7 +19807,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="4">
-        <v>4211020443</v>
+        <v>4210114589</v>
       </c>
       <c r="B465" t="s">
         <v>5</v>
@@ -19815,7 +19815,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="4">
-        <v>4210599674</v>
+        <v>4210273236</v>
       </c>
       <c r="B466" t="s">
         <v>5</v>
@@ -19823,7 +19823,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="4">
-        <v>4210707793</v>
+        <v>4210270390</v>
       </c>
       <c r="B467" t="s">
         <v>5</v>
@@ -19831,7 +19831,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="4">
-        <v>4210593308</v>
+        <v>4210161201</v>
       </c>
       <c r="B468" t="s">
         <v>5</v>
@@ -19839,7 +19839,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="4">
-        <v>4210326499</v>
+        <v>4210323925</v>
       </c>
       <c r="B469" t="s">
         <v>5</v>
@@ -19847,7 +19847,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="4">
-        <v>4210421903</v>
+        <v>4210590170</v>
       </c>
       <c r="B470" t="s">
         <v>5</v>
@@ -19855,7 +19855,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" s="4">
-        <v>4210004989</v>
+        <v>4210893995</v>
       </c>
       <c r="B471" t="s">
         <v>5</v>
@@ -19863,7 +19863,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="4">
-        <v>4210129193</v>
+        <v>4210962329</v>
       </c>
       <c r="B472" t="s">
         <v>5</v>
@@ -19871,7 +19871,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="4">
-        <v>4211178394</v>
+        <v>4210019501</v>
       </c>
       <c r="B473" t="s">
         <v>5</v>
@@ -19879,7 +19879,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="4">
-        <v>4210178645</v>
+        <v>4210347993</v>
       </c>
       <c r="B474" t="s">
         <v>5</v>
@@ -19887,7 +19887,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="4">
-        <v>4210272357</v>
+        <v>4210392078</v>
       </c>
       <c r="B475" t="s">
         <v>5</v>
@@ -19895,7 +19895,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="4">
-        <v>4210633293</v>
+        <v>4210387120</v>
       </c>
       <c r="B476" t="s">
         <v>5</v>
@@ -19903,7 +19903,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="4">
-        <v>4211006561</v>
+        <v>4210487162</v>
       </c>
       <c r="B477" t="s">
         <v>5</v>
@@ -19911,7 +19911,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="4">
-        <v>4210411957</v>
+        <v>4210842452</v>
       </c>
       <c r="B478" t="s">
         <v>5</v>
@@ -19919,7 +19919,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="4">
-        <v>4210617095</v>
+        <v>4210208571</v>
       </c>
       <c r="B479" t="s">
         <v>5</v>
@@ -19927,7 +19927,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="4">
-        <v>4210006329</v>
+        <v>4211073903</v>
       </c>
       <c r="B480" t="s">
         <v>5</v>
@@ -19935,7 +19935,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="4">
-        <v>4210031752</v>
+        <v>4210515989</v>
       </c>
       <c r="B481" t="s">
         <v>5</v>
@@ -19943,7 +19943,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" s="4">
-        <v>4210152113</v>
+        <v>4210213779</v>
       </c>
       <c r="B482" t="s">
         <v>5</v>
@@ -19951,7 +19951,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" s="4">
-        <v>4210187379</v>
+        <v>4210309982</v>
       </c>
       <c r="B483" t="s">
         <v>5</v>
@@ -19959,7 +19959,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" s="4">
-        <v>4210214619</v>
+        <v>4210378870</v>
       </c>
       <c r="B484" t="s">
         <v>5</v>
@@ -19967,7 +19967,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" s="4">
-        <v>4210280449</v>
+        <v>4210702558</v>
       </c>
       <c r="B485" t="s">
         <v>5</v>
@@ -19975,7 +19975,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="4">
-        <v>4210477209</v>
+        <v>4210710191</v>
       </c>
       <c r="B486" t="s">
         <v>5</v>
@@ -19983,7 +19983,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" s="4">
-        <v>4210510176</v>
+        <v>4210400589</v>
       </c>
       <c r="B487" t="s">
         <v>5</v>
@@ -19991,7 +19991,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" s="4">
-        <v>4210866906</v>
+        <v>4210695631</v>
       </c>
       <c r="B488" t="s">
         <v>5</v>
@@ -19999,7 +19999,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="4">
-        <v>4211068812</v>
+        <v>4210810214</v>
       </c>
       <c r="B489" t="s">
         <v>5</v>
@@ -20007,7 +20007,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" s="4">
-        <v>4210888119</v>
+        <v>4210933570</v>
       </c>
       <c r="B490" t="s">
         <v>5</v>
@@ -20015,7 +20015,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" s="4">
-        <v>4211052476</v>
+        <v>4210420793</v>
       </c>
       <c r="B491" t="s">
         <v>5</v>
@@ -20023,7 +20023,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" s="4">
-        <v>4210376988</v>
+        <v>4210250376</v>
       </c>
       <c r="B492" t="s">
         <v>5</v>
@@ -20031,7 +20031,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="4">
-        <v>4210911353</v>
+        <v>4210407609</v>
       </c>
       <c r="B493" t="s">
         <v>5</v>
@@ -20039,7 +20039,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="4">
-        <v>4210924322</v>
+        <v>4211020443</v>
       </c>
       <c r="B494" t="s">
         <v>5</v>
@@ -20047,7 +20047,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="4">
-        <v>4210086965</v>
+        <v>4210599674</v>
       </c>
       <c r="B495" t="s">
         <v>5</v>
@@ -20055,7 +20055,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="4">
-        <v>4210398274</v>
+        <v>4210707793</v>
       </c>
       <c r="B496" t="s">
         <v>5</v>
@@ -20063,7 +20063,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="4">
-        <v>4210062240</v>
+        <v>4210593308</v>
       </c>
       <c r="B497" t="s">
         <v>5</v>
@@ -20071,7 +20071,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="4">
-        <v>4210143635</v>
+        <v>4210326499</v>
       </c>
       <c r="B498" t="s">
         <v>5</v>
@@ -20079,7 +20079,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" s="4">
-        <v>4210281783</v>
+        <v>4210421903</v>
       </c>
       <c r="B499" t="s">
         <v>5</v>
@@ -20087,7 +20087,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="4">
-        <v>4210405046</v>
+        <v>4210004989</v>
       </c>
       <c r="B500" t="s">
         <v>5</v>
@@ -20095,7 +20095,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" s="4">
-        <v>4210405641</v>
+        <v>4210129193</v>
       </c>
       <c r="B501" t="s">
         <v>5</v>
@@ -20103,7 +20103,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" s="4">
-        <v>4210593590</v>
+        <v>4210654402</v>
       </c>
       <c r="B502" t="s">
         <v>5</v>
@@ -20111,7 +20111,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="4">
-        <v>4210751597</v>
+        <v>4211178394</v>
       </c>
       <c r="B503" t="s">
         <v>5</v>
@@ -20119,7 +20119,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="4">
-        <v>4210620984</v>
+        <v>4210178645</v>
       </c>
       <c r="B504" t="s">
         <v>5</v>
@@ -20127,7 +20127,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" s="4">
-        <v>4210036943</v>
+        <v>4210272357</v>
       </c>
       <c r="B505" t="s">
         <v>5</v>
@@ -20135,7 +20135,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" s="4">
-        <v>4210452458</v>
+        <v>4210633293</v>
       </c>
       <c r="B506" t="s">
         <v>5</v>
@@ -20143,7 +20143,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="4">
-        <v>4210003083</v>
+        <v>4211006561</v>
       </c>
       <c r="B507" t="s">
         <v>5</v>
@@ -20151,7 +20151,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="4">
-        <v>4210383539</v>
+        <v>4210411957</v>
       </c>
       <c r="B508" t="s">
         <v>5</v>
@@ -20159,7 +20159,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" s="4">
-        <v>4210919520</v>
+        <v>4210617095</v>
       </c>
       <c r="B509" t="s">
         <v>5</v>
@@ -20167,7 +20167,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="4">
-        <v>4210792288</v>
+        <v>4210006329</v>
       </c>
       <c r="B510" t="s">
         <v>5</v>
@@ -20175,7 +20175,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="4">
-        <v>4210104513</v>
+        <v>4210031752</v>
       </c>
       <c r="B511" t="s">
         <v>5</v>
@@ -20183,7 +20183,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" s="4">
-        <v>4210115884</v>
+        <v>4210152113</v>
       </c>
       <c r="B512" t="s">
         <v>5</v>
@@ -20191,7 +20191,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" s="4">
-        <v>4210240115</v>
+        <v>4210187379</v>
       </c>
       <c r="B513